--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryter\Dropbox (MIT)\John MIT\Research\generalizationOutside\generalization\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelenaorourke/Documents/GitHub/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC8F812-348E-4452-A9C7-0E0FC921516F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA9C7B-4401-B84C-822F-9632DD5ED94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1812" windowWidth="19680" windowHeight="20076" activeTab="1" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19680" windowHeight="16700" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -67,12 +67,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="356">
   <si>
     <t>Al</t>
   </si>
@@ -1140,6 +1148,9 @@
   </si>
   <si>
     <t>Te notes</t>
+  </si>
+  <si>
+    <t>C:\Users\ryter\Dropbox (MIT)\Group Research Folder_Olivetti\Displacement\00 Simulation\05 Data Compile\Metalor and other, iron ore and precious metals, daily.xls   // oil price adjusted for 2002-2018 // assumed 2001 48 dollar decrease // assumed 2019 had 18% increase based on Macrotrends Hundred Year Price Chart</t>
   </si>
 </sst>
 </file>
@@ -1147,10 +1158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="\Te"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="\Te"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1213,6 +1224,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1256,7 +1273,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1307,26 +1324,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1686,9 +1705,9 @@
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" s="39" customFormat="1" ht="34.049999999999997" customHeight="1">
+    <row r="1" spans="1:37" s="39" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>96</v>
       </c>
@@ -1801,7 +1820,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.4" customHeight="1">
+    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1870,7 +1889,7 @@
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
     </row>
-    <row r="3" spans="1:37" ht="14.4" customHeight="1">
+    <row r="3" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1967,7 +1986,7 @@
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:37" ht="14.4" customHeight="1">
+    <row r="4" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -2020,7 +2039,7 @@
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:37" ht="14.4" customHeight="1">
+    <row r="5" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2115,7 +2134,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:37" ht="14.4" customHeight="1">
+    <row r="6" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2210,7 +2229,7 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="1:37" ht="14.4" customHeight="1">
+    <row r="7" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -2311,7 +2330,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="14.4" customHeight="1">
+    <row r="8" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2408,7 +2427,7 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:37" ht="14.4" customHeight="1">
+    <row r="9" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2505,7 +2524,7 @@
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
     </row>
-    <row r="10" spans="1:37" ht="14.4" customHeight="1">
+    <row r="10" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2603,7 +2622,7 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" spans="1:37" ht="14.4" customHeight="1">
+    <row r="11" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -2690,7 +2709,7 @@
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
     </row>
-    <row r="12" spans="1:37" ht="14.4" customHeight="1">
+    <row r="12" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>97</v>
       </c>
@@ -2789,7 +2808,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="14.4" customHeight="1">
+    <row r="13" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
@@ -2878,7 +2897,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="14.4" customHeight="1">
+    <row r="14" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>99</v>
       </c>
@@ -2961,7 +2980,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.4" customHeight="1">
+    <row r="15" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -3040,7 +3059,7 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
     </row>
-    <row r="16" spans="1:37" ht="14.4" customHeight="1">
+    <row r="16" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>101</v>
       </c>
@@ -3121,7 +3140,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.4" customHeight="1">
+    <row r="17" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>102</v>
       </c>
@@ -3218,7 +3237,7 @@
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
     </row>
-    <row r="18" spans="1:37" ht="14.4" customHeight="1">
+    <row r="18" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>103</v>
       </c>
@@ -3317,7 +3336,7 @@
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
     </row>
-    <row r="19" spans="1:37" ht="14.4" customHeight="1">
+    <row r="19" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>104</v>
       </c>
@@ -3410,7 +3429,7 @@
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
     </row>
-    <row r="20" spans="1:37" ht="14.4" customHeight="1">
+    <row r="20" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>105</v>
       </c>
@@ -3483,7 +3502,7 @@
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
     </row>
-    <row r="21" spans="1:37" ht="14.4" customHeight="1">
+    <row r="21" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -3572,7 +3591,7 @@
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
     </row>
-    <row r="22" spans="1:37" ht="14.4" customHeight="1">
+    <row r="22" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>135</v>
       </c>
@@ -3633,7 +3652,7 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="6"/>
     </row>
-    <row r="23" spans="1:37" ht="14.4" customHeight="1">
+    <row r="23" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>136</v>
       </c>
@@ -3694,7 +3713,7 @@
       <c r="AJ23" s="9"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:37" ht="14.4" customHeight="1">
+    <row r="24" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>137</v>
       </c>
@@ -3755,7 +3774,7 @@
       <c r="AJ24" s="7"/>
       <c r="AK24" s="6"/>
     </row>
-    <row r="25" spans="1:37" ht="14.4" customHeight="1">
+    <row r="25" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>138</v>
       </c>
@@ -3816,7 +3835,7 @@
       <c r="AJ25" s="9"/>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:37" ht="14.4" customHeight="1">
+    <row r="26" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>139</v>
       </c>
@@ -3875,7 +3894,7 @@
       <c r="AJ26" s="7"/>
       <c r="AK26" s="6"/>
     </row>
-    <row r="27" spans="1:37" ht="14.4" customHeight="1">
+    <row r="27" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>70</v>
       </c>
@@ -3962,7 +3981,7 @@
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
     </row>
-    <row r="28" spans="1:37" ht="14.4" customHeight="1">
+    <row r="28" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>69</v>
       </c>
@@ -4051,7 +4070,7 @@
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
     </row>
-    <row r="29" spans="1:37" ht="14.4" customHeight="1">
+    <row r="29" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -4130,7 +4149,7 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
     </row>
-    <row r="30" spans="1:37" ht="14.4" customHeight="1">
+    <row r="30" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
@@ -4213,7 +4232,7 @@
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
     </row>
-    <row r="31" spans="1:37" ht="14.4" customHeight="1">
+    <row r="31" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
@@ -4290,7 +4309,7 @@
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9"/>
     </row>
-    <row r="32" spans="1:37" ht="14.4" customHeight="1">
+    <row r="32" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -4369,7 +4388,7 @@
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
     </row>
-    <row r="33" spans="1:37" ht="14.4" customHeight="1">
+    <row r="33" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>73</v>
       </c>
@@ -4450,7 +4469,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.4" customHeight="1">
+    <row r="34" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -4527,7 +4546,7 @@
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
     </row>
-    <row r="35" spans="1:37" ht="14.4" customHeight="1">
+    <row r="35" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>76</v>
       </c>
@@ -4617,7 +4636,7 @@
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9"/>
     </row>
-    <row r="36" spans="1:37" ht="14.4" customHeight="1">
+    <row r="36" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>337</v>
       </c>
@@ -4662,7 +4681,7 @@
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
     </row>
-    <row r="37" spans="1:37" ht="14.4" customHeight="1">
+    <row r="37" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
@@ -4747,7 +4766,7 @@
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
     </row>
-    <row r="38" spans="1:37" ht="14.4" customHeight="1">
+    <row r="38" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
         <v>15</v>
       </c>
@@ -4831,7 +4850,7 @@
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
     </row>
-    <row r="39" spans="1:37" ht="14.4" customHeight="1">
+    <row r="39" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
         <v>16</v>
       </c>
@@ -4914,7 +4933,7 @@
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
     </row>
-    <row r="40" spans="1:37" ht="14.4" customHeight="1">
+    <row r="40" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
         <v>35</v>
       </c>
@@ -4998,7 +5017,7 @@
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
     </row>
-    <row r="41" spans="1:37" ht="14.4" customHeight="1">
+    <row r="41" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
         <v>36</v>
       </c>
@@ -5081,7 +5100,7 @@
       <c r="AJ41" s="9"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="14.4" customHeight="1">
+    <row r="42" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>37</v>
       </c>
@@ -5168,7 +5187,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="14.4" customHeight="1">
+    <row r="43" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>125</v>
       </c>
@@ -5268,7 +5287,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="14.4" customHeight="1">
+    <row r="44" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>38</v>
       </c>
@@ -5359,7 +5378,7 @@
       </c>
       <c r="AK44" s="7"/>
     </row>
-    <row r="45" spans="1:37" ht="14.4" customHeight="1">
+    <row r="45" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
         <v>39</v>
       </c>
@@ -5450,7 +5469,7 @@
       </c>
       <c r="AK45" s="9"/>
     </row>
-    <row r="46" spans="1:37" ht="14.4" customHeight="1">
+    <row r="46" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="s">
         <v>40</v>
       </c>
@@ -5539,7 +5558,7 @@
       </c>
       <c r="AK46" s="7"/>
     </row>
-    <row r="47" spans="1:37" ht="14.4" customHeight="1">
+    <row r="47" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
         <v>41</v>
       </c>
@@ -5628,7 +5647,7 @@
       </c>
       <c r="AK47" s="9"/>
     </row>
-    <row r="48" spans="1:37" ht="14.4" customHeight="1">
+    <row r="48" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="31" t="s">
         <v>42</v>
       </c>
@@ -5717,7 +5736,7 @@
       </c>
       <c r="AK48" s="7"/>
     </row>
-    <row r="49" spans="1:37" ht="14.4" customHeight="1">
+    <row r="49" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="34" t="s">
         <v>43</v>
       </c>
@@ -5760,7 +5779,7 @@
       <c r="AJ49" s="17"/>
       <c r="AK49" s="9"/>
     </row>
-    <row r="50" spans="1:37" ht="14.4" customHeight="1">
+    <row r="50" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -5803,7 +5822,7 @@
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
     </row>
-    <row r="51" spans="1:37" ht="14.4" customHeight="1">
+    <row r="51" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5846,7 +5865,7 @@
       <c r="AJ51" s="9"/>
       <c r="AK51" s="9"/>
     </row>
-    <row r="52" spans="1:37" ht="14.4" customHeight="1">
+    <row r="52" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
@@ -5889,7 +5908,7 @@
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
     </row>
-    <row r="53" spans="1:37" ht="14.4" customHeight="1">
+    <row r="53" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>47</v>
       </c>
@@ -5932,7 +5951,7 @@
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
     </row>
-    <row r="54" spans="1:37" ht="14.4" customHeight="1">
+    <row r="54" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
@@ -5975,7 +5994,7 @@
       <c r="AJ54" s="7"/>
       <c r="AK54" s="7"/>
     </row>
-    <row r="55" spans="1:37" ht="14.4" customHeight="1">
+    <row r="55" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>49</v>
       </c>
@@ -6018,7 +6037,7 @@
       <c r="AJ55" s="9"/>
       <c r="AK55" s="9"/>
     </row>
-    <row r="56" spans="1:37" ht="14.4" customHeight="1">
+    <row r="56" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
@@ -6061,7 +6080,7 @@
       <c r="AJ56" s="7"/>
       <c r="AK56" s="7"/>
     </row>
-    <row r="57" spans="1:37" ht="14.4" customHeight="1">
+    <row r="57" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>51</v>
       </c>
@@ -6104,7 +6123,7 @@
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9"/>
     </row>
-    <row r="58" spans="1:37" ht="14.4" customHeight="1">
+    <row r="58" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -6147,7 +6166,7 @@
       <c r="AJ58" s="7"/>
       <c r="AK58" s="7"/>
     </row>
-    <row r="59" spans="1:37" ht="14.4" customHeight="1">
+    <row r="59" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>53</v>
       </c>
@@ -6190,7 +6209,7 @@
       <c r="AJ59" s="9"/>
       <c r="AK59" s="9"/>
     </row>
-    <row r="60" spans="1:37" ht="14.4" customHeight="1">
+    <row r="60" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -6233,7 +6252,7 @@
       <c r="AJ60" s="7"/>
       <c r="AK60" s="7"/>
     </row>
-    <row r="61" spans="1:37" ht="14.4" customHeight="1">
+    <row r="61" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>55</v>
       </c>
@@ -6276,7 +6295,7 @@
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
     </row>
-    <row r="62" spans="1:37" ht="14.4" customHeight="1">
+    <row r="62" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -6319,7 +6338,7 @@
       <c r="AJ62" s="7"/>
       <c r="AK62" s="7"/>
     </row>
-    <row r="63" spans="1:37" ht="14.4" customHeight="1">
+    <row r="63" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
@@ -6362,7 +6381,7 @@
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9"/>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>58</v>
       </c>
@@ -6405,7 +6424,7 @@
       <c r="AJ64" s="7"/>
       <c r="AK64" s="7"/>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -6448,7 +6467,7 @@
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
@@ -6491,7 +6510,7 @@
       <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>61</v>
       </c>
@@ -6534,7 +6553,7 @@
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>62</v>
       </c>
@@ -6577,7 +6596,7 @@
       <c r="AJ68" s="7"/>
       <c r="AK68" s="7"/>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>63</v>
       </c>
@@ -6620,7 +6639,7 @@
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9"/>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>64</v>
       </c>
@@ -6663,7 +6682,7 @@
       <c r="AJ70" s="7"/>
       <c r="AK70" s="7"/>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>65</v>
       </c>
@@ -6706,7 +6725,7 @@
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
@@ -6749,7 +6768,7 @@
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>67</v>
       </c>
@@ -6792,7 +6811,7 @@
       <c r="AJ73" s="9"/>
       <c r="AK73" s="9"/>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
         <v>68</v>
       </c>
@@ -6868,7 +6887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6880,7 +6899,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6892,7 +6911,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6904,7 +6923,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6916,7 +6935,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6930,12 +6949,12 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -6949,7 +6968,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -6966,7 +6985,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -6977,7 +6996,7 @@
         <v>58.591498999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -6988,7 +7007,7 @@
         <v>67.924413999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -6999,7 +7018,7 @@
         <v>76.145567</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7017,7 +7036,7 @@
         <v>85.971186000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7035,7 +7054,7 @@
         <v>96.04539299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7053,7 +7072,7 @@
         <v>105.140455</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7071,7 +7090,7 @@
         <v>121.12909199999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -7083,13 +7102,13 @@
         <v>112.8</v>
       </c>
       <c r="D10" s="5">
-        <v>6046.8367309570313</v>
+        <v>6046.8367309570312</v>
       </c>
       <c r="E10" s="5">
         <v>125.57747800000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -7107,7 +7126,7 @@
         <v>99.382306999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -7125,7 +7144,7 @@
         <v>143.25536400000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -7143,7 +7162,7 @@
         <v>177.108566</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -7161,7 +7180,7 @@
         <v>183.31275300000004</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -7179,7 +7198,7 @@
         <v>172.04403400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -7197,7 +7216,7 @@
         <v>186.019372</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7215,7 +7234,7 @@
         <v>201.32204200000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -7233,7 +7252,7 @@
         <v>246.11897900000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -7251,7 +7270,7 @@
         <v>312.55251800000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7269,7 +7288,7 @@
         <v>361.04267200000004</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -7296,20 +7315,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73D63CC-D9E2-4D18-93CD-FFAA257617FA}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -7326,7 +7345,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7346,7 +7365,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7367,7 +7386,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7388,7 +7407,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7409,7 +7428,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7430,7 +7449,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7451,7 +7470,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7472,7 +7491,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7493,7 +7512,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -7514,7 +7533,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -7535,7 +7554,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -7556,7 +7575,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -7577,7 +7596,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -7598,7 +7617,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -7619,7 +7638,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -7640,7 +7659,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7661,7 +7680,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -7682,7 +7701,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -7703,7 +7722,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7724,7 +7743,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -7760,16 +7779,16 @@
       <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -7789,7 +7808,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7809,7 +7828,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7835,7 +7854,7 @@
         <v>447.61374899999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7859,7 +7878,7 @@
         <v>424.685877</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7883,7 +7902,7 @@
         <v>470.54162100000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7907,7 +7926,7 @@
         <v>767.02960299999995</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7931,7 +7950,7 @@
         <v>674.22585800000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7955,7 +7974,7 @@
         <v>671.66403600000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7980,7 +7999,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -8007,7 +8026,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -8035,7 +8054,7 @@
       <c r="L11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -8063,7 +8082,7 @@
       <c r="L12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -8091,7 +8110,7 @@
       <c r="L13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -8120,7 +8139,7 @@
       <c r="L14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -8148,7 +8167,7 @@
       <c r="L15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -8176,7 +8195,7 @@
       <c r="L16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -8204,7 +8223,7 @@
       <c r="L17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -8232,7 +8251,7 @@
       <c r="L18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -8260,7 +8279,7 @@
       <c r="L19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -8288,7 +8307,7 @@
       <c r="L20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -8315,19 +8334,19 @@
       <c r="J21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H26" s="2"/>
     </row>
   </sheetData>
@@ -8343,15 +8362,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -8371,19 +8394,22 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>209</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -8391,11 +8417,15 @@
         <f>B4*D3/D4</f>
         <v>2.6211738386810759</v>
       </c>
+      <c r="C3">
+        <f>(C4-48)*(35274)</f>
+        <v>478565804435.72888</v>
+      </c>
       <c r="D3">
         <v>2.56</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -8403,196 +8433,274 @@
         <f>B5*D4/D5</f>
         <v>2.6109348783737278</v>
       </c>
+      <c r="C4" s="42">
+        <v>13567145.704704</v>
+      </c>
       <c r="D4">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5">
         <v>2.6006959180663798</v>
       </c>
+      <c r="C5">
+        <v>15252034.346915999</v>
+      </c>
       <c r="D5">
         <v>2.54</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
       <c r="B6">
         <v>3.0508626846620399</v>
       </c>
+      <c r="C6">
+        <v>15749019.786006</v>
+      </c>
       <c r="D6">
         <v>2.42</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
       <c r="B7">
         <v>3.1113771591266901</v>
       </c>
+      <c r="C7">
+        <v>15122391.179784</v>
+      </c>
       <c r="D7">
         <v>2.48</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8">
         <v>3.09207937561865</v>
       </c>
+      <c r="C8">
+        <v>20608702.998528</v>
+      </c>
       <c r="D8">
         <v>2.37</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9">
         <v>3.1150351404490899</v>
       </c>
+      <c r="C9">
+        <v>23289317.400419999</v>
+      </c>
       <c r="D9">
         <v>2.35</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10">
         <v>3.7342289806146298</v>
       </c>
+      <c r="C10">
+        <v>26830921.217274003</v>
+      </c>
       <c r="D10">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
       <c r="B11">
         <v>3.6116350854505699</v>
       </c>
+      <c r="C11">
+        <v>35094737.355630003</v>
+      </c>
       <c r="D11">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
       <c r="B12">
         <v>4.1711999999999998</v>
       </c>
+      <c r="C12">
+        <v>42975239.260650001</v>
+      </c>
       <c r="D12">
         <v>2.7545000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13">
         <v>4.7247000000000003</v>
       </c>
+      <c r="C13">
+        <v>53778977.547102004</v>
+      </c>
       <c r="D13">
         <v>2.8769</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14">
         <v>4.6726999999999999</v>
       </c>
+      <c r="C14">
+        <v>56518569.477336004</v>
+      </c>
       <c r="D14">
         <v>2.9571999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
       <c r="B15">
         <v>4.5137</v>
       </c>
+      <c r="C15">
+        <v>45537007.619892001</v>
+      </c>
       <c r="D15">
         <v>3.1667999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
       <c r="B16">
         <v>4.4260999999999999</v>
       </c>
+      <c r="C16">
+        <v>39909789.610542007</v>
+      </c>
       <c r="D16">
         <v>3.2705000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
       <c r="B17">
         <v>4.3685</v>
       </c>
+      <c r="C17">
+        <v>40209714.238356002</v>
+      </c>
       <c r="D17">
         <v>3.3662999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
       <c r="B18">
         <v>4.3914</v>
       </c>
+      <c r="C18">
+        <v>43624963.306727998</v>
+      </c>
       <c r="D18">
         <v>3.5173000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
       <c r="B19">
         <v>4.2782999999999998</v>
       </c>
+      <c r="C19">
+        <v>42306183.016679995</v>
+      </c>
       <c r="D19">
         <v>3.5678000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
       <c r="B20">
         <v>4.4542999999999999</v>
       </c>
+      <c r="C20">
+        <v>40434691.598711997</v>
+      </c>
       <c r="D20">
         <v>3.6536</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21">
         <v>4.3593999999999999</v>
       </c>
+      <c r="C21">
+        <v>47712936.086480156</v>
+      </c>
       <c r="D21">
         <v>3.5962000000000001</v>
       </c>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H25" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8607,9 +8715,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -8625,7 +8733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8639,9 +8747,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -8657,7 +8765,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8669,7 +8777,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelenaorourke/Documents/GitHub/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA9C7B-4401-B84C-822F-9632DD5ED94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE971338-B8D3-3747-914E-AED20FFE8748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19680" windowHeight="16700" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19680" windowHeight="16700" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -1273,7 +1273,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1328,7 +1328,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1701,122 +1700,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" s="39" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:37" s="38" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="Z1" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AC1" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AD1" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AE1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AF1" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AG1" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="AH1" s="39" t="s">
+      <c r="AH1" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AI1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AJ1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="39" t="s">
+      <c r="AK1" s="38" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4641,24 +4640,54 @@
         <v>337</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="C36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0.5</v>
+      </c>
       <c r="O36" s="6">
         <v>0.23</v>
       </c>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="6"/>
+      <c r="P36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R36" s="6">
+        <v>0.5</v>
+      </c>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
@@ -4767,7 +4796,7 @@
       <c r="AK37" s="9"/>
     </row>
     <row r="38" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="6">
@@ -4851,7 +4880,7 @@
       <c r="AK38" s="7"/>
     </row>
     <row r="39" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="8">
@@ -4934,7 +4963,7 @@
       <c r="AK39" s="9"/>
     </row>
     <row r="40" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B40" s="6">
@@ -5018,7 +5047,7 @@
       <c r="AK40" s="7"/>
     </row>
     <row r="41" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="8">
@@ -5150,7 +5179,7 @@
       <c r="Q42" s="18">
         <v>58419.6</v>
       </c>
-      <c r="R42" s="33">
+      <c r="R42" s="32">
         <v>11120.835754394531</v>
       </c>
       <c r="S42" s="6" t="s">
@@ -5288,7 +5317,7 @@
       <c r="AK43" s="9"/>
     </row>
     <row r="44" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="6">
@@ -5379,7 +5408,7 @@
       <c r="AK44" s="7"/>
     </row>
     <row r="45" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="8">
@@ -5470,7 +5499,7 @@
       <c r="AK45" s="9"/>
     </row>
     <row r="46" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B46" s="6">
@@ -5559,7 +5588,7 @@
       <c r="AK46" s="7"/>
     </row>
     <row r="47" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="8">
@@ -5648,7 +5677,7 @@
       <c r="AK47" s="9"/>
     </row>
     <row r="48" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="6">
@@ -5737,7 +5766,7 @@
       <c r="AK48" s="7"/>
     </row>
     <row r="49" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="16"/>
@@ -5755,7 +5784,7 @@
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
-      <c r="Q49" s="35"/>
+      <c r="Q49" s="34"/>
       <c r="R49" s="16"/>
       <c r="S49" s="16" t="s">
         <v>34</v>
@@ -6812,47 +6841,47 @@
       <c r="AK73" s="9"/>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36" t="s">
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="38"/>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="38"/>
-      <c r="Z74" s="38"/>
-      <c r="AA74" s="38"/>
-      <c r="AB74" s="38"/>
-      <c r="AC74" s="38"/>
-      <c r="AD74" s="38"/>
-      <c r="AE74" s="38"/>
-      <c r="AF74" s="38"/>
-      <c r="AG74" s="38"/>
-      <c r="AH74" s="38"/>
-      <c r="AI74" s="38"/>
-      <c r="AJ74" s="38"/>
-      <c r="AK74" s="38"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="37"/>
+      <c r="AA74" s="37"/>
+      <c r="AB74" s="37"/>
+      <c r="AC74" s="37"/>
+      <c r="AD74" s="37"/>
+      <c r="AE74" s="37"/>
+      <c r="AF74" s="37"/>
+      <c r="AG74" s="37"/>
+      <c r="AH74" s="37"/>
+      <c r="AI74" s="37"/>
+      <c r="AJ74" s="37"/>
+      <c r="AK74" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8364,7 +8393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -8433,7 +8462,7 @@
         <f>B5*D4/D5</f>
         <v>2.6109348783737278</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>13567145.704704</v>
       </c>
       <c r="D4">
@@ -8523,7 +8552,7 @@
       <c r="D10">
         <v>2.2799999999999998</v>
       </c>
-      <c r="H10" s="43"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -8538,7 +8567,7 @@
       <c r="D11">
         <v>2.46</v>
       </c>
-      <c r="H11" s="43"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -8553,7 +8582,7 @@
       <c r="D12">
         <v>2.7545000000000002</v>
       </c>
-      <c r="H12" s="43"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -8568,7 +8597,7 @@
       <c r="D13">
         <v>2.8769</v>
       </c>
-      <c r="H13" s="43"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -8583,7 +8612,7 @@
       <c r="D14">
         <v>2.9571999999999998</v>
       </c>
-      <c r="H14" s="43"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8598,7 +8627,7 @@
       <c r="D15">
         <v>3.1667999999999998</v>
       </c>
-      <c r="H15" s="43"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -8613,7 +8642,7 @@
       <c r="D16">
         <v>3.2705000000000002</v>
       </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -8628,7 +8657,7 @@
       <c r="D17">
         <v>3.3662999999999998</v>
       </c>
-      <c r="H17" s="43"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -8643,7 +8672,7 @@
       <c r="D18">
         <v>3.5173000000000001</v>
       </c>
-      <c r="H18" s="43"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -8658,7 +8687,7 @@
       <c r="D19">
         <v>3.5678000000000001</v>
       </c>
-      <c r="H19" s="43"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -8673,7 +8702,7 @@
       <c r="D20">
         <v>3.6536</v>
       </c>
-      <c r="H20" s="43"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -8688,19 +8717,19 @@
       <c r="D21">
         <v>3.5962000000000001</v>
       </c>
-      <c r="H21" s="43"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="H22" s="43"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="H23" s="43"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="H24" s="43"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="H25" s="43"/>
+      <c r="H25" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelenaorourke/Documents/GitHub/generalization/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryter\Dropbox (MIT)\John MIT\Research\generalizationOutside\generalization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE971338-B8D3-3747-914E-AED20FFE8748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B284D278-BDC3-4565-8A1F-9E0E1299BD8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19680" windowHeight="16700" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="19680" windowHeight="16704" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -67,14 +67,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1161,7 +1153,7 @@
     <numFmt numFmtId="164" formatCode="\Te"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,8 +1335,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1700,13 +1692,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:37" s="38" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="38" customFormat="1" ht="34.049999999999997" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>96</v>
       </c>
@@ -1819,7 +1811,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="14.55" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1880,7 @@
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
     </row>
-    <row r="3" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="14.55" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1985,7 +1977,7 @@
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="14.55" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -2038,7 +2030,7 @@
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="14.55" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2133,7 +2125,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="14.55" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2228,7 +2220,7 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="14.55" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -2329,7 +2321,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="14.55" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2426,7 +2418,7 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="14.55" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2523,7 +2515,7 @@
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
     </row>
-    <row r="10" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="14.55" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2621,7 +2613,7 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="14.55" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -2708,7 +2700,7 @@
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
     </row>
-    <row r="12" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="14.55" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>97</v>
       </c>
@@ -2807,7 +2799,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="14.55" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
@@ -2896,7 +2888,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="14.55" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>99</v>
       </c>
@@ -2979,7 +2971,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="14.55" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -3058,7 +3050,7 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
     </row>
-    <row r="16" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="14.55" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>101</v>
       </c>
@@ -3139,7 +3131,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="14.55" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>102</v>
       </c>
@@ -3236,7 +3228,7 @@
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
     </row>
-    <row r="18" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="14.55" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>103</v>
       </c>
@@ -3335,7 +3327,7 @@
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
     </row>
-    <row r="19" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="14.55" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>104</v>
       </c>
@@ -3428,7 +3420,7 @@
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
     </row>
-    <row r="20" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="14.55" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>105</v>
       </c>
@@ -3501,7 +3493,7 @@
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
     </row>
-    <row r="21" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="14.55" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -3590,7 +3582,7 @@
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
     </row>
-    <row r="22" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="14.55" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>135</v>
       </c>
@@ -3651,7 +3643,7 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="6"/>
     </row>
-    <row r="23" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="14.55" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>136</v>
       </c>
@@ -3712,7 +3704,7 @@
       <c r="AJ23" s="9"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="14.55" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>137</v>
       </c>
@@ -3773,7 +3765,7 @@
       <c r="AJ24" s="7"/>
       <c r="AK24" s="6"/>
     </row>
-    <row r="25" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="14.55" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>138</v>
       </c>
@@ -3834,7 +3826,7 @@
       <c r="AJ25" s="9"/>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="14.55" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>139</v>
       </c>
@@ -3893,7 +3885,7 @@
       <c r="AJ26" s="7"/>
       <c r="AK26" s="6"/>
     </row>
-    <row r="27" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="14.55" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>70</v>
       </c>
@@ -3980,7 +3972,7 @@
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
     </row>
-    <row r="28" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="14.55" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>69</v>
       </c>
@@ -4069,7 +4061,7 @@
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
     </row>
-    <row r="29" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="14.55" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -4148,7 +4140,7 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
     </row>
-    <row r="30" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="14.55" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
@@ -4231,7 +4223,7 @@
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
     </row>
-    <row r="31" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="14.55" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
@@ -4308,7 +4300,7 @@
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9"/>
     </row>
-    <row r="32" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="14.55" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -4387,7 +4379,7 @@
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
     </row>
-    <row r="33" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="14.55" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>73</v>
       </c>
@@ -4468,7 +4460,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="14.55" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -4545,7 +4537,7 @@
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
     </row>
-    <row r="35" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="14.55" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>76</v>
       </c>
@@ -4635,7 +4627,7 @@
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9"/>
     </row>
-    <row r="36" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="14.55" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>337</v>
       </c>
@@ -4710,7 +4702,7 @@
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
     </row>
-    <row r="37" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="14.55" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
@@ -4795,7 +4787,7 @@
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
     </row>
-    <row r="38" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="14.55" customHeight="1">
       <c r="A38" s="30" t="s">
         <v>15</v>
       </c>
@@ -4879,7 +4871,7 @@
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
     </row>
-    <row r="39" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="14.55" customHeight="1">
       <c r="A39" s="31" t="s">
         <v>16</v>
       </c>
@@ -4962,7 +4954,7 @@
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
     </row>
-    <row r="40" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="14.55" customHeight="1">
       <c r="A40" s="30" t="s">
         <v>35</v>
       </c>
@@ -5046,7 +5038,7 @@
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
     </row>
-    <row r="41" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" ht="14.55" customHeight="1">
       <c r="A41" s="31" t="s">
         <v>36</v>
       </c>
@@ -5129,7 +5121,7 @@
       <c r="AJ41" s="9"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="14.55" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>37</v>
       </c>
@@ -5216,7 +5208,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" ht="14.55" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>125</v>
       </c>
@@ -5316,7 +5308,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" ht="14.55" customHeight="1">
       <c r="A44" s="30" t="s">
         <v>38</v>
       </c>
@@ -5407,7 +5399,7 @@
       </c>
       <c r="AK44" s="7"/>
     </row>
-    <row r="45" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" ht="14.55" customHeight="1">
       <c r="A45" s="31" t="s">
         <v>39</v>
       </c>
@@ -5498,7 +5490,7 @@
       </c>
       <c r="AK45" s="9"/>
     </row>
-    <row r="46" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" ht="14.55" customHeight="1">
       <c r="A46" s="30" t="s">
         <v>40</v>
       </c>
@@ -5587,7 +5579,7 @@
       </c>
       <c r="AK46" s="7"/>
     </row>
-    <row r="47" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" ht="14.55" customHeight="1">
       <c r="A47" s="31" t="s">
         <v>41</v>
       </c>
@@ -5676,7 +5668,7 @@
       </c>
       <c r="AK47" s="9"/>
     </row>
-    <row r="48" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" ht="14.55" customHeight="1">
       <c r="A48" s="30" t="s">
         <v>42</v>
       </c>
@@ -5765,7 +5757,7 @@
       </c>
       <c r="AK48" s="7"/>
     </row>
-    <row r="49" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" ht="14.55" customHeight="1">
       <c r="A49" s="33" t="s">
         <v>43</v>
       </c>
@@ -5808,7 +5800,7 @@
       <c r="AJ49" s="17"/>
       <c r="AK49" s="9"/>
     </row>
-    <row r="50" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="14.55" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -5851,7 +5843,7 @@
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
     </row>
-    <row r="51" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" ht="14.55" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5894,7 +5886,7 @@
       <c r="AJ51" s="9"/>
       <c r="AK51" s="9"/>
     </row>
-    <row r="52" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" ht="14.55" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
@@ -5937,7 +5929,7 @@
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
     </row>
-    <row r="53" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" ht="14.55" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>47</v>
       </c>
@@ -5980,7 +5972,7 @@
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
     </row>
-    <row r="54" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" ht="14.55" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
@@ -6023,7 +6015,7 @@
       <c r="AJ54" s="7"/>
       <c r="AK54" s="7"/>
     </row>
-    <row r="55" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" ht="14.55" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>49</v>
       </c>
@@ -6066,7 +6058,7 @@
       <c r="AJ55" s="9"/>
       <c r="AK55" s="9"/>
     </row>
-    <row r="56" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" ht="14.55" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
@@ -6109,7 +6101,7 @@
       <c r="AJ56" s="7"/>
       <c r="AK56" s="7"/>
     </row>
-    <row r="57" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" ht="14.55" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>51</v>
       </c>
@@ -6152,7 +6144,7 @@
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9"/>
     </row>
-    <row r="58" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" ht="14.55" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -6195,7 +6187,7 @@
       <c r="AJ58" s="7"/>
       <c r="AK58" s="7"/>
     </row>
-    <row r="59" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" ht="14.55" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>53</v>
       </c>
@@ -6238,7 +6230,7 @@
       <c r="AJ59" s="9"/>
       <c r="AK59" s="9"/>
     </row>
-    <row r="60" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" ht="14.55" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -6281,7 +6273,7 @@
       <c r="AJ60" s="7"/>
       <c r="AK60" s="7"/>
     </row>
-    <row r="61" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" ht="14.55" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>55</v>
       </c>
@@ -6324,7 +6316,7 @@
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
     </row>
-    <row r="62" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" ht="14.55" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -6367,7 +6359,7 @@
       <c r="AJ62" s="7"/>
       <c r="AK62" s="7"/>
     </row>
-    <row r="63" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" ht="14.55" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
@@ -6410,7 +6402,7 @@
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37">
       <c r="A64" s="6" t="s">
         <v>58</v>
       </c>
@@ -6453,7 +6445,7 @@
       <c r="AJ64" s="7"/>
       <c r="AK64" s="7"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -6496,7 +6488,7 @@
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37">
       <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
@@ -6539,7 +6531,7 @@
       <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37">
       <c r="A67" s="8" t="s">
         <v>61</v>
       </c>
@@ -6582,7 +6574,7 @@
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37">
       <c r="A68" s="6" t="s">
         <v>62</v>
       </c>
@@ -6625,7 +6617,7 @@
       <c r="AJ68" s="7"/>
       <c r="AK68" s="7"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37">
       <c r="A69" s="8" t="s">
         <v>63</v>
       </c>
@@ -6668,7 +6660,7 @@
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37">
       <c r="A70" s="6" t="s">
         <v>64</v>
       </c>
@@ -6711,7 +6703,7 @@
       <c r="AJ70" s="7"/>
       <c r="AK70" s="7"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37">
       <c r="A71" s="8" t="s">
         <v>65</v>
       </c>
@@ -6754,7 +6746,7 @@
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
@@ -6797,7 +6789,7 @@
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37">
       <c r="A73" s="8" t="s">
         <v>67</v>
       </c>
@@ -6840,7 +6832,7 @@
       <c r="AJ73" s="9"/>
       <c r="AK73" s="9"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37">
       <c r="A74" s="35" t="s">
         <v>68</v>
       </c>
@@ -6916,7 +6908,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6928,7 +6920,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6940,7 +6932,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6952,7 +6944,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6964,7 +6956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6978,12 +6970,12 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -6997,7 +6989,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7014,7 +7006,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7025,7 +7017,7 @@
         <v>58.591498999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7036,7 +7028,7 @@
         <v>67.924413999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7047,7 +7039,7 @@
         <v>76.145567</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7065,7 +7057,7 @@
         <v>85.971186000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7083,7 +7075,7 @@
         <v>96.04539299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7101,7 +7093,7 @@
         <v>105.140455</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7119,7 +7111,7 @@
         <v>121.12909199999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -7131,13 +7123,13 @@
         <v>112.8</v>
       </c>
       <c r="D10" s="5">
-        <v>6046.8367309570312</v>
+        <v>6046.8367309570313</v>
       </c>
       <c r="E10" s="5">
         <v>125.57747800000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -7155,7 +7147,7 @@
         <v>99.382306999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -7173,7 +7165,7 @@
         <v>143.25536400000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -7191,7 +7183,7 @@
         <v>177.108566</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -7209,7 +7201,7 @@
         <v>183.31275300000004</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -7227,7 +7219,7 @@
         <v>172.04403400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -7245,7 +7237,7 @@
         <v>186.019372</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7263,7 +7255,7 @@
         <v>201.32204200000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -7281,7 +7273,7 @@
         <v>246.11897900000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -7299,7 +7291,7 @@
         <v>312.55251800000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7317,7 +7309,7 @@
         <v>361.04267200000004</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -7345,19 +7337,19 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -7374,7 +7366,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7394,7 +7386,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7415,7 +7407,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7436,7 +7428,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7457,7 +7449,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7478,7 +7470,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7499,7 +7491,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7520,7 +7512,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7541,7 +7533,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -7562,7 +7554,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -7583,7 +7575,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -7604,7 +7596,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -7625,7 +7617,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -7646,7 +7638,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -7667,7 +7659,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -7688,7 +7680,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7709,7 +7701,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -7730,7 +7722,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -7751,7 +7743,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7772,7 +7764,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -7808,16 +7800,16 @@
       <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -7837,7 +7829,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7857,7 +7849,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7883,7 +7875,7 @@
         <v>447.61374899999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7907,7 +7899,7 @@
         <v>424.685877</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7931,7 +7923,7 @@
         <v>470.54162100000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7955,7 +7947,7 @@
         <v>767.02960299999995</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7979,7 +7971,7 @@
         <v>674.22585800000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -8003,7 +7995,7 @@
         <v>671.66403600000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -8028,7 +8020,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -8055,7 +8047,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -8083,7 +8075,7 @@
       <c r="L11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -8111,7 +8103,7 @@
       <c r="L12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -8139,7 +8131,7 @@
       <c r="L13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -8168,7 +8160,7 @@
       <c r="L14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -8196,7 +8188,7 @@
       <c r="L15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -8224,7 +8216,7 @@
       <c r="L16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -8252,7 +8244,7 @@
       <c r="L17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -8280,7 +8272,7 @@
       <c r="L18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -8308,7 +8300,7 @@
       <c r="L19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -8336,7 +8328,7 @@
       <c r="L20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -8363,19 +8355,19 @@
       <c r="J21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="H26" s="2"/>
     </row>
   </sheetData>
@@ -8393,17 +8385,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -8423,7 +8415,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -8438,7 +8430,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -8446,15 +8438,15 @@
         <f>B4*D3/D4</f>
         <v>2.6211738386810759</v>
       </c>
-      <c r="C3">
-        <f>(C4-48)*(35274)</f>
-        <v>478565804435.72888</v>
+      <c r="C3" s="42">
+        <f>(C4-48*35274)</f>
+        <v>11873993.704704</v>
       </c>
       <c r="D3">
         <v>2.56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -8462,274 +8454,274 @@
         <f>B5*D4/D5</f>
         <v>2.6109348783737278</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="42">
         <v>13567145.704704</v>
       </c>
       <c r="D4">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5">
         <v>2.6006959180663798</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="42">
         <v>15252034.346915999</v>
       </c>
       <c r="D5">
         <v>2.54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2004</v>
       </c>
       <c r="B6">
         <v>3.0508626846620399</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="42">
         <v>15749019.786006</v>
       </c>
       <c r="D6">
         <v>2.42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2005</v>
       </c>
       <c r="B7">
         <v>3.1113771591266901</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="42">
         <v>15122391.179784</v>
       </c>
       <c r="D7">
         <v>2.48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8">
         <v>3.09207937561865</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="42">
         <v>20608702.998528</v>
       </c>
       <c r="D8">
         <v>2.37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9">
         <v>3.1150351404490899</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="42">
         <v>23289317.400419999</v>
       </c>
       <c r="D9">
         <v>2.35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18">
       <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10">
         <v>3.7342289806146298</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="42">
         <v>26830921.217274003</v>
       </c>
       <c r="D10">
         <v>2.2799999999999998</v>
       </c>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" ht="18">
       <c r="A11">
         <v>2009</v>
       </c>
       <c r="B11">
         <v>3.6116350854505699</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="42">
         <v>35094737.355630003</v>
       </c>
       <c r="D11">
         <v>2.46</v>
       </c>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" ht="18">
       <c r="A12">
         <v>2010</v>
       </c>
       <c r="B12">
         <v>4.1711999999999998</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="42">
         <v>42975239.260650001</v>
       </c>
       <c r="D12">
         <v>2.7545000000000002</v>
       </c>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" ht="18">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13">
         <v>4.7247000000000003</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="42">
         <v>53778977.547102004</v>
       </c>
       <c r="D13">
         <v>2.8769</v>
       </c>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="18">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14">
         <v>4.6726999999999999</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="42">
         <v>56518569.477336004</v>
       </c>
       <c r="D14">
         <v>2.9571999999999998</v>
       </c>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" ht="18">
       <c r="A15">
         <v>2013</v>
       </c>
       <c r="B15">
         <v>4.5137</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="42">
         <v>45537007.619892001</v>
       </c>
       <c r="D15">
         <v>3.1667999999999998</v>
       </c>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:8" ht="18">
       <c r="A16">
         <v>2014</v>
       </c>
       <c r="B16">
         <v>4.4260999999999999</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="42">
         <v>39909789.610542007</v>
       </c>
       <c r="D16">
         <v>3.2705000000000002</v>
       </c>
-      <c r="H16" s="42"/>
-    </row>
-    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" ht="18">
       <c r="A17">
         <v>2015</v>
       </c>
       <c r="B17">
         <v>4.3685</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="42">
         <v>40209714.238356002</v>
       </c>
       <c r="D17">
         <v>3.3662999999999998</v>
       </c>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:8" ht="18">
       <c r="A18">
         <v>2016</v>
       </c>
       <c r="B18">
         <v>4.3914</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="42">
         <v>43624963.306727998</v>
       </c>
       <c r="D18">
         <v>3.5173000000000001</v>
       </c>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" ht="18">
       <c r="A19">
         <v>2017</v>
       </c>
       <c r="B19">
         <v>4.2782999999999998</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="42">
         <v>42306183.016679995</v>
       </c>
       <c r="D19">
         <v>3.5678000000000001</v>
       </c>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="1:8" ht="18">
       <c r="A20">
         <v>2018</v>
       </c>
       <c r="B20">
         <v>4.4542999999999999</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="42">
         <v>40434691.598711997</v>
       </c>
       <c r="D20">
         <v>3.6536</v>
       </c>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" ht="18">
       <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21">
         <v>4.3593999999999999</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="42">
         <v>47712936.086480156</v>
       </c>
       <c r="D21">
         <v>3.5962000000000001</v>
       </c>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="H22" s="42"/>
-    </row>
-    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="H23" s="42"/>
-    </row>
-    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="H24" s="42"/>
-    </row>
-    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="H25" s="42"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" ht="18">
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="1:8" ht="18">
+      <c r="H23" s="41"/>
+    </row>
+    <row r="24" spans="1:8" ht="18">
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="1:8" ht="18">
+      <c r="H25" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8744,9 +8736,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -8762,7 +8754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8776,9 +8768,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -8794,7 +8786,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8806,7 +8798,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryter\Dropbox (MIT)\John MIT\Research\generalizationOutside\generalization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B284D278-BDC3-4565-8A1F-9E0E1299BD8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A09EE4-3CBD-4F05-823B-1DC8E038D99B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="19680" windowHeight="16704" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="1368" windowWidth="19680" windowHeight="16704" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -1692,11 +1692,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="47.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" s="38" customFormat="1" ht="34.049999999999997" customHeight="1">
       <c r="A1" s="38" t="s">
@@ -2230,8 +2233,8 @@
       <c r="C7" s="8">
         <v>0.52</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
+      <c r="D7" s="14">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3592,8 +3595,8 @@
       <c r="C22" s="6">
         <v>0.64749999999999996</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
+      <c r="D22" s="15">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -4631,7 +4634,9 @@
       <c r="A36" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="6">
+        <v>0.5</v>
+      </c>
       <c r="C36" s="6">
         <v>0.5</v>
       </c>
@@ -8385,8 +8390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryter\Dropbox (MIT)\John MIT\Research\generalizationOutside\generalization\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/MIT/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A09EE4-3CBD-4F05-823B-1DC8E038D99B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EE9E31-1B8B-0B4B-B80A-F643C47569FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="19680" windowHeight="16704" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -67,12 +67,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="363">
   <si>
     <t>Al</t>
   </si>
@@ -1143,17 +1153,37 @@
   </si>
   <si>
     <t>C:\Users\ryter\Dropbox (MIT)\Group Research Folder_Olivetti\Displacement\00 Simulation\05 Data Compile\Metalor and other, iron ore and precious metals, daily.xls   // oil price adjusted for 2002-2018 // assumed 2001 48 dollar decrease // assumed 2019 had 18% increase based on Macrotrends Hundred Year Price Chart</t>
+  </si>
+  <si>
+    <t>Assumed</t>
+  </si>
+  <si>
+    <t>Not recycled anyway</t>
+  </si>
+  <si>
+    <t>From FAL's model</t>
+  </si>
+  <si>
+    <t>Estimatiion</t>
+  </si>
+  <si>
+    <t>Rough estimate</t>
+  </si>
+  <si>
+    <t>Generic value</t>
+  </si>
+  <si>
+    <t>historical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,7 +1352,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1337,6 +1366,9 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1692,129 +1724,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="38" customFormat="1" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:37" s="37" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="38" t="s">
         <v>353</v>
       </c>
       <c r="R1" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AA1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AD1" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AE1" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AF1" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AG1" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AH1" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AI1" s="37" t="s">
         <v>108</v>
       </c>
       <c r="AJ1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="38" t="s">
+      <c r="AK1" s="37" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.55" customHeight="1">
+    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1856,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="Q2" s="18"/>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="S2" s="6"/>
@@ -1880,10 +1912,10 @@
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
+      <c r="AJ2" s="18"/>
       <c r="AK2" s="7"/>
     </row>
-    <row r="3" spans="1:37" ht="14.55" customHeight="1">
+    <row r="3" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1931,7 +1963,7 @@
       <c r="Q3" s="20">
         <v>260</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="20">
         <v>298.08800000000002</v>
       </c>
       <c r="S3" s="8" t="s">
@@ -1977,10 +2009,10 @@
       <c r="AI3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AJ3" s="9"/>
+      <c r="AJ3" s="20"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:37" ht="14.55" customHeight="1">
+    <row r="4" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -2008,7 +2040,7 @@
       <c r="Q4" s="18">
         <v>1</v>
       </c>
-      <c r="R4" s="6"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="6" t="s">
         <v>24</v>
       </c>
@@ -2030,10 +2062,10 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="AJ4" s="18"/>
       <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:37" ht="14.55" customHeight="1">
+    <row r="5" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2081,7 +2113,9 @@
       <c r="Q5" s="20">
         <v>0.08</v>
       </c>
-      <c r="R5" s="8"/>
+      <c r="R5" s="20">
+        <v>0.25</v>
+      </c>
       <c r="S5" s="8" t="s">
         <v>24</v>
       </c>
@@ -2125,10 +2159,12 @@
       <c r="AI5" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="AJ5" s="9"/>
+      <c r="AJ5" s="42" t="s">
+        <v>362</v>
+      </c>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:37" ht="14.55" customHeight="1">
+    <row r="6" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2174,8 +2210,8 @@
       <c r="Q6" s="18">
         <v>62.5</v>
       </c>
-      <c r="R6" s="6">
-        <v>0</v>
+      <c r="R6" s="18">
+        <v>1E-3</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>24</v>
@@ -2220,10 +2256,10 @@
         <v>240</v>
       </c>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
+      <c r="AJ6" s="18"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="1:37" ht="14.55" customHeight="1">
+    <row r="7" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -2271,7 +2307,7 @@
       <c r="Q7" s="20">
         <v>0.4</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="20">
         <v>0.14000000000000001</v>
       </c>
       <c r="S7" s="8" t="s">
@@ -2319,12 +2355,12 @@
       <c r="AI7" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AJ7" s="9"/>
+      <c r="AJ7" s="20"/>
       <c r="AK7" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="14.55" customHeight="1">
+    <row r="8" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2372,7 +2408,7 @@
       <c r="Q8" s="18">
         <v>0.15</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="18">
         <v>0.05</v>
       </c>
       <c r="S8" s="6" t="s">
@@ -2418,10 +2454,10 @@
         <v>255</v>
       </c>
       <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
+      <c r="AJ8" s="18"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:37" ht="14.55" customHeight="1">
+    <row r="9" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2469,8 +2505,8 @@
       <c r="Q9" s="20">
         <v>0.2</v>
       </c>
-      <c r="R9" s="8">
-        <v>0</v>
+      <c r="R9" s="20">
+        <v>1E-4</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>24</v>
@@ -2515,10 +2551,10 @@
         <v>263</v>
       </c>
       <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
+      <c r="AJ9" s="20"/>
       <c r="AK9" s="9"/>
     </row>
-    <row r="10" spans="1:37" ht="14.55" customHeight="1">
+    <row r="10" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2568,7 +2604,7 @@
       <c r="Q10" s="18">
         <v>0.2</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="18">
         <f>1-R11-R7-R8</f>
         <v>0.31</v>
       </c>
@@ -2613,10 +2649,10 @@
         <v>270</v>
       </c>
       <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
+      <c r="AJ10" s="18"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" spans="1:37" ht="14.55" customHeight="1">
+    <row r="11" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -2660,7 +2696,7 @@
       <c r="Q11" s="20">
         <v>0.05</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="20">
         <v>0.5</v>
       </c>
       <c r="S11" s="8" t="s">
@@ -2700,10 +2736,10 @@
         <v>275</v>
       </c>
       <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
+      <c r="AJ11" s="20"/>
       <c r="AK11" s="9"/>
     </row>
-    <row r="12" spans="1:37" ht="14.55" customHeight="1">
+    <row r="12" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>97</v>
       </c>
@@ -2751,7 +2787,7 @@
       <c r="Q12" s="18">
         <v>1</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="18">
         <v>0.95</v>
       </c>
       <c r="S12" s="6" t="s">
@@ -2797,12 +2833,14 @@
       <c r="AI12" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="AJ12" s="7"/>
+      <c r="AJ12" s="18" t="s">
+        <v>356</v>
+      </c>
       <c r="AK12" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="14.55" customHeight="1">
+    <row r="13" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
@@ -2850,7 +2888,7 @@
       <c r="Q13" s="20">
         <v>1</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="20">
         <v>0.95</v>
       </c>
       <c r="S13" s="8" t="s">
@@ -2886,12 +2924,14 @@
         <v>285</v>
       </c>
       <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
+      <c r="AJ13" s="20" t="s">
+        <v>356</v>
+      </c>
       <c r="AK13" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="14.55" customHeight="1">
+    <row r="14" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>99</v>
       </c>
@@ -2939,7 +2979,7 @@
       <c r="Q14" s="18">
         <v>1</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="18">
         <v>0.95</v>
       </c>
       <c r="S14" s="6" t="s">
@@ -2969,12 +3009,14 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
+      <c r="AJ14" s="18" t="s">
+        <v>356</v>
+      </c>
       <c r="AK14" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.55" customHeight="1">
+    <row r="15" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -3022,7 +3064,7 @@
       <c r="Q15" s="20">
         <v>1</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="20">
         <v>0.95</v>
       </c>
       <c r="S15" s="8" t="s">
@@ -3050,10 +3092,12 @@
       <c r="AG15" s="9"/>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
+      <c r="AJ15" s="20" t="s">
+        <v>356</v>
+      </c>
       <c r="AK15" s="9"/>
     </row>
-    <row r="16" spans="1:37" ht="14.55" customHeight="1">
+    <row r="16" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>101</v>
       </c>
@@ -3101,7 +3145,7 @@
       <c r="Q16" s="18">
         <v>1</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="18">
         <v>0.95</v>
       </c>
       <c r="S16" s="6" t="s">
@@ -3129,12 +3173,14 @@
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
+      <c r="AJ16" s="18" t="s">
+        <v>356</v>
+      </c>
       <c r="AK16" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.55" customHeight="1">
+    <row r="17" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>102</v>
       </c>
@@ -3182,8 +3228,8 @@
       <c r="Q17" s="20">
         <v>5</v>
       </c>
-      <c r="R17" s="8">
-        <v>0</v>
+      <c r="R17" s="20">
+        <v>1</v>
       </c>
       <c r="S17" s="8" t="s">
         <v>24</v>
@@ -3228,10 +3274,12 @@
       <c r="AI17" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="AJ17" s="9"/>
+      <c r="AJ17" s="20" t="s">
+        <v>357</v>
+      </c>
       <c r="AK17" s="9"/>
     </row>
-    <row r="18" spans="1:37" ht="14.55" customHeight="1">
+    <row r="18" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>103</v>
       </c>
@@ -3279,8 +3327,8 @@
       <c r="Q18" s="18">
         <v>30</v>
       </c>
-      <c r="R18" s="6">
-        <v>0</v>
+      <c r="R18" s="18">
+        <v>1</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>24</v>
@@ -3327,10 +3375,12 @@
       <c r="AI18" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="AJ18" s="7"/>
+      <c r="AJ18" s="18" t="s">
+        <v>357</v>
+      </c>
       <c r="AK18" s="7"/>
     </row>
-    <row r="19" spans="1:37" ht="14.55" customHeight="1">
+    <row r="19" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>104</v>
       </c>
@@ -3378,8 +3428,8 @@
       <c r="Q19" s="20">
         <v>10</v>
       </c>
-      <c r="R19" s="8">
-        <v>0</v>
+      <c r="R19" s="20">
+        <v>1</v>
       </c>
       <c r="S19" s="8" t="s">
         <v>24</v>
@@ -3420,10 +3470,12 @@
       <c r="AI19" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="AJ19" s="9"/>
+      <c r="AJ19" s="20" t="s">
+        <v>357</v>
+      </c>
       <c r="AK19" s="9"/>
     </row>
-    <row r="20" spans="1:37" ht="14.55" customHeight="1">
+    <row r="20" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>105</v>
       </c>
@@ -3457,7 +3509,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="18"/>
-      <c r="R20" s="6">
+      <c r="R20" s="18">
         <v>4</v>
       </c>
       <c r="S20" s="6" t="s">
@@ -3493,10 +3545,10 @@
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
+      <c r="AJ20" s="18"/>
       <c r="AK20" s="7"/>
     </row>
-    <row r="21" spans="1:37" ht="14.55" customHeight="1">
+    <row r="21" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -3542,7 +3594,7 @@
       <c r="Q21" s="20">
         <v>20</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="20">
         <v>16</v>
       </c>
       <c r="S21" s="8" t="s">
@@ -3582,10 +3634,12 @@
       <c r="AI21" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="AJ21" s="9"/>
+      <c r="AJ21" s="20" t="s">
+        <v>358</v>
+      </c>
       <c r="AK21" s="9"/>
     </row>
-    <row r="22" spans="1:37" ht="14.55" customHeight="1">
+    <row r="22" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>135</v>
       </c>
@@ -3615,7 +3669,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="26"/>
-      <c r="R22" s="6">
+      <c r="R22" s="18">
         <v>0</v>
       </c>
       <c r="S22" s="6" t="s">
@@ -3643,10 +3697,10 @@
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
+      <c r="AJ22" s="26"/>
       <c r="AK22" s="6"/>
     </row>
-    <row r="23" spans="1:37" ht="14.55" customHeight="1">
+    <row r="23" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>136</v>
       </c>
@@ -3676,7 +3730,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="28"/>
-      <c r="R23" s="8">
+      <c r="R23" s="18">
         <v>0</v>
       </c>
       <c r="S23" s="8" t="s">
@@ -3704,10 +3758,10 @@
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
+      <c r="AJ23" s="28"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:37" ht="14.55" customHeight="1">
+    <row r="24" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>137</v>
       </c>
@@ -3737,7 +3791,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="26"/>
-      <c r="R24" s="6">
+      <c r="R24" s="18">
         <v>0</v>
       </c>
       <c r="S24" s="6" t="s">
@@ -3765,10 +3819,10 @@
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
+      <c r="AJ24" s="26"/>
       <c r="AK24" s="6"/>
     </row>
-    <row r="25" spans="1:37" ht="14.55" customHeight="1">
+    <row r="25" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>138</v>
       </c>
@@ -3798,7 +3852,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="28"/>
-      <c r="R25" s="8">
+      <c r="R25" s="18">
         <v>0</v>
       </c>
       <c r="S25" s="8" t="s">
@@ -3826,10 +3880,10 @@
       <c r="AG25" s="9"/>
       <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
+      <c r="AJ25" s="28"/>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:37" ht="14.55" customHeight="1">
+    <row r="26" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>139</v>
       </c>
@@ -3857,8 +3911,8 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="26"/>
-      <c r="R26" s="6">
-        <v>0.45</v>
+      <c r="R26" s="20">
+        <v>0.46</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>24</v>
@@ -3885,10 +3939,12 @@
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
+      <c r="AJ26" s="26" t="s">
+        <v>359</v>
+      </c>
       <c r="AK26" s="6"/>
     </row>
-    <row r="27" spans="1:37" ht="14.55" customHeight="1">
+    <row r="27" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>70</v>
       </c>
@@ -3936,7 +3992,9 @@
       <c r="Q27" s="20">
         <v>2.7500000000000002E-4</v>
       </c>
-      <c r="R27" s="8"/>
+      <c r="R27" s="20">
+        <v>1E-3</v>
+      </c>
       <c r="S27" s="8" t="s">
         <v>31</v>
       </c>
@@ -3972,10 +4030,10 @@
         <v>320</v>
       </c>
       <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
+      <c r="AJ27" s="20"/>
       <c r="AK27" s="9"/>
     </row>
-    <row r="28" spans="1:37" ht="14.55" customHeight="1">
+    <row r="28" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>69</v>
       </c>
@@ -4023,7 +4081,9 @@
       <c r="Q28" s="18">
         <v>2.7500000000000002E-4</v>
       </c>
-      <c r="R28" s="6"/>
+      <c r="R28" s="18">
+        <v>1E-3</v>
+      </c>
       <c r="S28" s="6" t="s">
         <v>31</v>
       </c>
@@ -4061,10 +4121,10 @@
         <v>324</v>
       </c>
       <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
+      <c r="AJ28" s="18"/>
       <c r="AK28" s="7"/>
     </row>
-    <row r="29" spans="1:37" ht="14.55" customHeight="1">
+    <row r="29" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -4116,7 +4176,7 @@
       <c r="Q29" s="20">
         <v>1</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="20">
         <v>1</v>
       </c>
       <c r="S29" s="8" t="s">
@@ -4140,10 +4200,10 @@
       <c r="AG29" s="9"/>
       <c r="AH29" s="9"/>
       <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
+      <c r="AJ29" s="20"/>
       <c r="AK29" s="9"/>
     </row>
-    <row r="30" spans="1:37" ht="14.55" customHeight="1">
+    <row r="30" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
@@ -4189,7 +4249,9 @@
       <c r="Q30" s="18">
         <v>0.625</v>
       </c>
-      <c r="R30" s="6"/>
+      <c r="R30" s="18">
+        <v>0.5</v>
+      </c>
       <c r="S30" s="6" t="s">
         <v>31</v>
       </c>
@@ -4223,10 +4285,12 @@
         <v>327</v>
       </c>
       <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
+      <c r="AJ30" s="18" t="s">
+        <v>360</v>
+      </c>
       <c r="AK30" s="7"/>
     </row>
-    <row r="31" spans="1:37" ht="14.55" customHeight="1">
+    <row r="31" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
@@ -4274,7 +4338,9 @@
       <c r="Q31" s="20">
         <v>1</v>
       </c>
-      <c r="R31" s="8"/>
+      <c r="R31" s="20">
+        <v>1</v>
+      </c>
       <c r="S31" s="8" t="s">
         <v>31</v>
       </c>
@@ -4300,10 +4366,10 @@
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
+      <c r="AJ31" s="20"/>
       <c r="AK31" s="9"/>
     </row>
-    <row r="32" spans="1:37" ht="14.55" customHeight="1">
+    <row r="32" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -4351,7 +4417,9 @@
       <c r="Q32" s="18">
         <v>1</v>
       </c>
-      <c r="R32" s="6"/>
+      <c r="R32" s="18">
+        <v>1</v>
+      </c>
       <c r="S32" s="6" t="s">
         <v>31</v>
       </c>
@@ -4379,10 +4447,10 @@
         <v>222</v>
       </c>
       <c r="AI32" s="7"/>
-      <c r="AJ32" s="7"/>
+      <c r="AJ32" s="18"/>
       <c r="AK32" s="7"/>
     </row>
-    <row r="33" spans="1:37" ht="14.55" customHeight="1">
+    <row r="33" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>73</v>
       </c>
@@ -4430,7 +4498,9 @@
       <c r="Q33" s="20">
         <v>1</v>
       </c>
-      <c r="R33" s="8"/>
+      <c r="R33" s="20">
+        <v>0.5</v>
+      </c>
       <c r="S33" s="8" t="s">
         <v>31</v>
       </c>
@@ -4458,12 +4528,12 @@
         <v>330</v>
       </c>
       <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
+      <c r="AJ33" s="20"/>
       <c r="AK33" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.55" customHeight="1">
+    <row r="34" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -4511,7 +4581,9 @@
       <c r="Q34" s="18">
         <v>1</v>
       </c>
-      <c r="R34" s="6"/>
+      <c r="R34" s="18">
+        <v>1E-3</v>
+      </c>
       <c r="S34" s="6" t="s">
         <v>31</v>
       </c>
@@ -4537,10 +4609,10 @@
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
-      <c r="AJ34" s="7"/>
+      <c r="AJ34" s="18"/>
       <c r="AK34" s="7"/>
     </row>
-    <row r="35" spans="1:37" ht="14.55" customHeight="1">
+    <row r="35" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>76</v>
       </c>
@@ -4589,7 +4661,9 @@
       <c r="Q35" s="20">
         <v>260</v>
       </c>
-      <c r="R35" s="8"/>
+      <c r="R35" s="20">
+        <v>439.40106200000008</v>
+      </c>
       <c r="S35" s="8" t="s">
         <v>31</v>
       </c>
@@ -4627,10 +4701,10 @@
         <v>222</v>
       </c>
       <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
+      <c r="AJ35" s="20"/>
       <c r="AK35" s="9"/>
     </row>
-    <row r="36" spans="1:37" ht="14.55" customHeight="1">
+    <row r="36" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>337</v>
       </c>
@@ -4683,7 +4757,7 @@
         <v>0.5</v>
       </c>
       <c r="R36" s="6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -4704,10 +4778,12 @@
         <v>338</v>
       </c>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
+      <c r="AJ36" s="6" t="s">
+        <v>361</v>
+      </c>
       <c r="AK36" s="6"/>
     </row>
-    <row r="37" spans="1:37" ht="14.55" customHeight="1">
+    <row r="37" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
@@ -4755,7 +4831,9 @@
       <c r="Q37" s="20">
         <v>0.52</v>
       </c>
-      <c r="R37" s="8"/>
+      <c r="R37" s="20">
+        <v>500</v>
+      </c>
       <c r="S37" s="8" t="s">
         <v>34</v>
       </c>
@@ -4789,10 +4867,12 @@
       <c r="AI37" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="AJ37" s="9"/>
+      <c r="AJ37" s="20" t="s">
+        <v>361</v>
+      </c>
       <c r="AK37" s="9"/>
     </row>
-    <row r="38" spans="1:37" ht="14.55" customHeight="1">
+    <row r="38" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
         <v>15</v>
       </c>
@@ -4833,7 +4913,9 @@
         <v>5.6010000000000001E-3</v>
       </c>
       <c r="Q38" s="18"/>
-      <c r="R38" s="6"/>
+      <c r="R38" s="18">
+        <v>0.2</v>
+      </c>
       <c r="S38" s="6" t="s">
         <v>34</v>
       </c>
@@ -4873,10 +4955,12 @@
       <c r="AI38" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AJ38" s="7"/>
+      <c r="AJ38" s="18" t="s">
+        <v>361</v>
+      </c>
       <c r="AK38" s="7"/>
     </row>
-    <row r="39" spans="1:37" ht="14.55" customHeight="1">
+    <row r="39" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
         <v>16</v>
       </c>
@@ -4916,7 +5000,9 @@
         <v>0.60348800000000002</v>
       </c>
       <c r="Q39" s="20"/>
-      <c r="R39" s="8"/>
+      <c r="R39" s="20">
+        <v>500</v>
+      </c>
       <c r="S39" s="8" t="s">
         <v>34</v>
       </c>
@@ -4956,10 +5042,12 @@
       <c r="AI39" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AJ39" s="9"/>
+      <c r="AJ39" s="20" t="s">
+        <v>361</v>
+      </c>
       <c r="AK39" s="9"/>
     </row>
-    <row r="40" spans="1:37" ht="14.55" customHeight="1">
+    <row r="40" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
         <v>35</v>
       </c>
@@ -5000,7 +5088,9 @@
         <v>1.7799999999999999E-4</v>
       </c>
       <c r="Q40" s="18"/>
-      <c r="R40" s="6"/>
+      <c r="R40" s="18">
+        <v>0.2</v>
+      </c>
       <c r="S40" s="6" t="s">
         <v>34</v>
       </c>
@@ -5040,10 +5130,12 @@
       <c r="AI40" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AJ40" s="7"/>
+      <c r="AJ40" s="18" t="s">
+        <v>361</v>
+      </c>
       <c r="AK40" s="7"/>
     </row>
-    <row r="41" spans="1:37" ht="14.55" customHeight="1">
+    <row r="41" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>36</v>
       </c>
@@ -5083,7 +5175,9 @@
         <v>0.119309</v>
       </c>
       <c r="Q41" s="20"/>
-      <c r="R41" s="8"/>
+      <c r="R41" s="20">
+        <v>11120.835754394531</v>
+      </c>
       <c r="S41" s="8" t="s">
         <v>34</v>
       </c>
@@ -5123,10 +5217,10 @@
       <c r="AI41" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AJ41" s="9"/>
+      <c r="AJ41" s="20"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="14.55" customHeight="1">
+    <row r="42" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>37</v>
       </c>
@@ -5176,7 +5270,7 @@
       <c r="Q42" s="18">
         <v>58419.6</v>
       </c>
-      <c r="R42" s="32">
+      <c r="R42" s="18">
         <v>11120.835754394531</v>
       </c>
       <c r="S42" s="6" t="s">
@@ -5208,12 +5302,12 @@
       </c>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
-      <c r="AJ42" s="7"/>
+      <c r="AJ42" s="18"/>
       <c r="AK42" s="7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="14.55" customHeight="1">
+    <row r="43" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>125</v>
       </c>
@@ -5264,7 +5358,9 @@
         <v>3148664.0600000024</v>
       </c>
       <c r="Q43" s="20"/>
-      <c r="R43" s="8"/>
+      <c r="R43" s="20">
+        <v>0.22445561139028475</v>
+      </c>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8" t="s">
@@ -5310,10 +5406,12 @@
       <c r="AI43" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AJ43" s="8"/>
+      <c r="AJ43" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="14.55" customHeight="1">
+    <row r="44" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
         <v>38</v>
       </c>
@@ -5355,8 +5453,8 @@
         <v>0.54192825112107623</v>
       </c>
       <c r="Q44" s="18"/>
-      <c r="R44" s="6">
-        <v>0.22445561139028475</v>
+      <c r="R44" s="18">
+        <v>0.45561139028475711</v>
       </c>
       <c r="S44" s="6" t="s">
         <v>34</v>
@@ -5399,12 +5497,12 @@
       <c r="AI44" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AJ44" s="7" t="s">
+      <c r="AJ44" s="18" t="s">
         <v>123</v>
       </c>
       <c r="AK44" s="7"/>
     </row>
-    <row r="45" spans="1:37" ht="14.55" customHeight="1">
+    <row r="45" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
         <v>39</v>
       </c>
@@ -5446,8 +5544,8 @@
         <v>0.33004484304932735</v>
       </c>
       <c r="Q45" s="28"/>
-      <c r="R45" s="8">
-        <v>0.45561139028475711</v>
+      <c r="R45" s="20">
+        <v>8.3752093802345051E-3</v>
       </c>
       <c r="S45" s="8" t="s">
         <v>34</v>
@@ -5490,12 +5588,12 @@
       <c r="AI45" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AJ45" s="9" t="s">
+      <c r="AJ45" s="28" t="s">
         <v>123</v>
       </c>
       <c r="AK45" s="9"/>
     </row>
-    <row r="46" spans="1:37" ht="14.55" customHeight="1">
+    <row r="46" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
         <v>40</v>
       </c>
@@ -5537,8 +5635,8 @@
         <v>0.12645739910313902</v>
       </c>
       <c r="Q46" s="26"/>
-      <c r="R46" s="6">
-        <v>8.3752093802345051E-3</v>
+      <c r="R46" s="18">
+        <v>3.350083752093802E-2</v>
       </c>
       <c r="S46" s="6" t="s">
         <v>34</v>
@@ -5579,12 +5677,12 @@
       <c r="AI46" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AJ46" s="7" t="s">
+      <c r="AJ46" s="26" t="s">
         <v>123</v>
       </c>
       <c r="AK46" s="7"/>
     </row>
-    <row r="47" spans="1:37" ht="14.55" customHeight="1">
+    <row r="47" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>41</v>
       </c>
@@ -5626,8 +5724,8 @@
         <v>1.569506726457399E-3</v>
       </c>
       <c r="Q47" s="28"/>
-      <c r="R47" s="8">
-        <v>3.350083752093802E-2</v>
+      <c r="R47" s="20">
+        <v>0.27805695142378561</v>
       </c>
       <c r="S47" s="8" t="s">
         <v>34</v>
@@ -5668,12 +5766,12 @@
       <c r="AI47" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AJ47" s="9" t="s">
+      <c r="AJ47" s="28" t="s">
         <v>123</v>
       </c>
       <c r="AK47" s="9"/>
     </row>
-    <row r="48" spans="1:37" ht="14.55" customHeight="1">
+    <row r="48" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30" t="s">
         <v>42</v>
       </c>
@@ -5716,7 +5814,7 @@
       </c>
       <c r="Q48" s="26"/>
       <c r="R48" s="6">
-        <v>0.27805695142378561</v>
+        <v>2.5196335078534033E-3</v>
       </c>
       <c r="S48" s="6" t="s">
         <v>34</v>
@@ -5757,13 +5855,11 @@
       <c r="AI48" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AJ48" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="AJ48" s="26"/>
       <c r="AK48" s="7"/>
     </row>
-    <row r="49" spans="1:37" ht="14.55" customHeight="1">
-      <c r="A49" s="33" t="s">
+    <row r="49" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="32" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="16"/>
@@ -5781,8 +5877,8 @@
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="16"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
       <c r="S49" s="16" t="s">
         <v>34</v>
       </c>
@@ -5802,10 +5898,10 @@
       <c r="AG49" s="17"/>
       <c r="AH49" s="17"/>
       <c r="AI49" s="17"/>
-      <c r="AJ49" s="17"/>
+      <c r="AJ49" s="33"/>
       <c r="AK49" s="9"/>
     </row>
-    <row r="50" spans="1:37" ht="14.55" customHeight="1">
+    <row r="50" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -5825,7 +5921,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="26"/>
-      <c r="R50" s="6"/>
+      <c r="R50" s="26"/>
       <c r="S50" s="6" t="s">
         <v>34</v>
       </c>
@@ -5845,10 +5941,10 @@
       <c r="AG50" s="7"/>
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
-      <c r="AJ50" s="7"/>
+      <c r="AJ50" s="26"/>
       <c r="AK50" s="7"/>
     </row>
-    <row r="51" spans="1:37" ht="14.55" customHeight="1">
+    <row r="51" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5868,7 +5964,7 @@
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="28"/>
-      <c r="R51" s="8"/>
+      <c r="R51" s="28"/>
       <c r="S51" s="8" t="s">
         <v>34</v>
       </c>
@@ -5888,10 +5984,10 @@
       <c r="AG51" s="9"/>
       <c r="AH51" s="9"/>
       <c r="AI51" s="9"/>
-      <c r="AJ51" s="9"/>
+      <c r="AJ51" s="28"/>
       <c r="AK51" s="9"/>
     </row>
-    <row r="52" spans="1:37" ht="14.55" customHeight="1">
+    <row r="52" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
@@ -5911,7 +6007,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="26"/>
-      <c r="R52" s="6"/>
+      <c r="R52" s="26"/>
       <c r="S52" s="6" t="s">
         <v>34</v>
       </c>
@@ -5931,10 +6027,10 @@
       <c r="AG52" s="7"/>
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
-      <c r="AJ52" s="7"/>
+      <c r="AJ52" s="26"/>
       <c r="AK52" s="7"/>
     </row>
-    <row r="53" spans="1:37" ht="14.55" customHeight="1">
+    <row r="53" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>47</v>
       </c>
@@ -5954,7 +6050,7 @@
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="28"/>
-      <c r="R53" s="8"/>
+      <c r="R53" s="28"/>
       <c r="S53" s="8" t="s">
         <v>34</v>
       </c>
@@ -5974,10 +6070,10 @@
       <c r="AG53" s="9"/>
       <c r="AH53" s="9"/>
       <c r="AI53" s="9"/>
-      <c r="AJ53" s="9"/>
+      <c r="AJ53" s="28"/>
       <c r="AK53" s="9"/>
     </row>
-    <row r="54" spans="1:37" ht="14.55" customHeight="1">
+    <row r="54" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
@@ -5997,7 +6093,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="26"/>
-      <c r="R54" s="6"/>
+      <c r="R54" s="26"/>
       <c r="S54" s="6" t="s">
         <v>34</v>
       </c>
@@ -6017,10 +6113,10 @@
       <c r="AG54" s="7"/>
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
-      <c r="AJ54" s="7"/>
+      <c r="AJ54" s="26"/>
       <c r="AK54" s="7"/>
     </row>
-    <row r="55" spans="1:37" ht="14.55" customHeight="1">
+    <row r="55" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>49</v>
       </c>
@@ -6040,7 +6136,7 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="28"/>
-      <c r="R55" s="8"/>
+      <c r="R55" s="28"/>
       <c r="S55" s="8" t="s">
         <v>34</v>
       </c>
@@ -6060,10 +6156,10 @@
       <c r="AG55" s="9"/>
       <c r="AH55" s="9"/>
       <c r="AI55" s="9"/>
-      <c r="AJ55" s="9"/>
+      <c r="AJ55" s="28"/>
       <c r="AK55" s="9"/>
     </row>
-    <row r="56" spans="1:37" ht="14.55" customHeight="1">
+    <row r="56" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
@@ -6083,7 +6179,7 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="26"/>
-      <c r="R56" s="6"/>
+      <c r="R56" s="26"/>
       <c r="S56" s="6" t="s">
         <v>34</v>
       </c>
@@ -6103,10 +6199,10 @@
       <c r="AG56" s="7"/>
       <c r="AH56" s="7"/>
       <c r="AI56" s="7"/>
-      <c r="AJ56" s="7"/>
+      <c r="AJ56" s="26"/>
       <c r="AK56" s="7"/>
     </row>
-    <row r="57" spans="1:37" ht="14.55" customHeight="1">
+    <row r="57" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>51</v>
       </c>
@@ -6126,7 +6222,7 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="28"/>
-      <c r="R57" s="8"/>
+      <c r="R57" s="28"/>
       <c r="S57" s="8" t="s">
         <v>34</v>
       </c>
@@ -6146,10 +6242,10 @@
       <c r="AG57" s="9"/>
       <c r="AH57" s="9"/>
       <c r="AI57" s="9"/>
-      <c r="AJ57" s="9"/>
+      <c r="AJ57" s="28"/>
       <c r="AK57" s="9"/>
     </row>
-    <row r="58" spans="1:37" ht="14.55" customHeight="1">
+    <row r="58" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -6169,7 +6265,7 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="26"/>
-      <c r="R58" s="6"/>
+      <c r="R58" s="26"/>
       <c r="S58" s="6" t="s">
         <v>34</v>
       </c>
@@ -6189,10 +6285,10 @@
       <c r="AG58" s="7"/>
       <c r="AH58" s="7"/>
       <c r="AI58" s="7"/>
-      <c r="AJ58" s="7"/>
+      <c r="AJ58" s="26"/>
       <c r="AK58" s="7"/>
     </row>
-    <row r="59" spans="1:37" ht="14.55" customHeight="1">
+    <row r="59" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>53</v>
       </c>
@@ -6212,7 +6308,7 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="28"/>
-      <c r="R59" s="8"/>
+      <c r="R59" s="28"/>
       <c r="S59" s="8" t="s">
         <v>34</v>
       </c>
@@ -6232,10 +6328,10 @@
       <c r="AG59" s="9"/>
       <c r="AH59" s="9"/>
       <c r="AI59" s="9"/>
-      <c r="AJ59" s="9"/>
+      <c r="AJ59" s="28"/>
       <c r="AK59" s="9"/>
     </row>
-    <row r="60" spans="1:37" ht="14.55" customHeight="1">
+    <row r="60" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -6255,7 +6351,7 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="26"/>
-      <c r="R60" s="6"/>
+      <c r="R60" s="26"/>
       <c r="S60" s="6" t="s">
         <v>34</v>
       </c>
@@ -6275,10 +6371,10 @@
       <c r="AG60" s="7"/>
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
-      <c r="AJ60" s="7"/>
+      <c r="AJ60" s="26"/>
       <c r="AK60" s="7"/>
     </row>
-    <row r="61" spans="1:37" ht="14.55" customHeight="1">
+    <row r="61" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>55</v>
       </c>
@@ -6298,7 +6394,7 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="28"/>
-      <c r="R61" s="8"/>
+      <c r="R61" s="28"/>
       <c r="S61" s="8" t="s">
         <v>34</v>
       </c>
@@ -6318,10 +6414,10 @@
       <c r="AG61" s="9"/>
       <c r="AH61" s="9"/>
       <c r="AI61" s="9"/>
-      <c r="AJ61" s="9"/>
+      <c r="AJ61" s="28"/>
       <c r="AK61" s="9"/>
     </row>
-    <row r="62" spans="1:37" ht="14.55" customHeight="1">
+    <row r="62" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -6341,7 +6437,7 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="26"/>
-      <c r="R62" s="6"/>
+      <c r="R62" s="26"/>
       <c r="S62" s="6" t="s">
         <v>34</v>
       </c>
@@ -6361,10 +6457,10 @@
       <c r="AG62" s="7"/>
       <c r="AH62" s="7"/>
       <c r="AI62" s="7"/>
-      <c r="AJ62" s="7"/>
+      <c r="AJ62" s="26"/>
       <c r="AK62" s="7"/>
     </row>
-    <row r="63" spans="1:37" ht="14.55" customHeight="1">
+    <row r="63" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
@@ -6384,7 +6480,7 @@
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="28"/>
-      <c r="R63" s="8"/>
+      <c r="R63" s="28"/>
       <c r="S63" s="8" t="s">
         <v>34</v>
       </c>
@@ -6404,10 +6500,10 @@
       <c r="AG63" s="9"/>
       <c r="AH63" s="9"/>
       <c r="AI63" s="9"/>
-      <c r="AJ63" s="9"/>
+      <c r="AJ63" s="28"/>
       <c r="AK63" s="9"/>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>58</v>
       </c>
@@ -6427,7 +6523,7 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="26"/>
-      <c r="R64" s="6"/>
+      <c r="R64" s="26"/>
       <c r="S64" s="6" t="s">
         <v>34</v>
       </c>
@@ -6447,10 +6543,10 @@
       <c r="AG64" s="7"/>
       <c r="AH64" s="7"/>
       <c r="AI64" s="7"/>
-      <c r="AJ64" s="7"/>
+      <c r="AJ64" s="26"/>
       <c r="AK64" s="7"/>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -6470,7 +6566,7 @@
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="28"/>
-      <c r="R65" s="8"/>
+      <c r="R65" s="28"/>
       <c r="S65" s="8" t="s">
         <v>34</v>
       </c>
@@ -6490,10 +6586,10 @@
       <c r="AG65" s="9"/>
       <c r="AH65" s="9"/>
       <c r="AI65" s="9"/>
-      <c r="AJ65" s="9"/>
+      <c r="AJ65" s="28"/>
       <c r="AK65" s="9"/>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
@@ -6513,7 +6609,7 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="26"/>
-      <c r="R66" s="6"/>
+      <c r="R66" s="26"/>
       <c r="S66" s="6" t="s">
         <v>34</v>
       </c>
@@ -6533,10 +6629,10 @@
       <c r="AG66" s="7"/>
       <c r="AH66" s="7"/>
       <c r="AI66" s="7"/>
-      <c r="AJ66" s="7"/>
+      <c r="AJ66" s="26"/>
       <c r="AK66" s="7"/>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>61</v>
       </c>
@@ -6556,7 +6652,7 @@
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="28"/>
-      <c r="R67" s="8"/>
+      <c r="R67" s="28"/>
       <c r="S67" s="8" t="s">
         <v>34</v>
       </c>
@@ -6576,10 +6672,10 @@
       <c r="AG67" s="9"/>
       <c r="AH67" s="9"/>
       <c r="AI67" s="9"/>
-      <c r="AJ67" s="9"/>
+      <c r="AJ67" s="28"/>
       <c r="AK67" s="9"/>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>62</v>
       </c>
@@ -6599,7 +6695,7 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="26"/>
-      <c r="R68" s="6"/>
+      <c r="R68" s="26"/>
       <c r="S68" s="6" t="s">
         <v>34</v>
       </c>
@@ -6619,10 +6715,10 @@
       <c r="AG68" s="7"/>
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
-      <c r="AJ68" s="7"/>
+      <c r="AJ68" s="26"/>
       <c r="AK68" s="7"/>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>63</v>
       </c>
@@ -6642,7 +6738,7 @@
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="28"/>
-      <c r="R69" s="8"/>
+      <c r="R69" s="28"/>
       <c r="S69" s="8" t="s">
         <v>34</v>
       </c>
@@ -6662,10 +6758,10 @@
       <c r="AG69" s="9"/>
       <c r="AH69" s="9"/>
       <c r="AI69" s="9"/>
-      <c r="AJ69" s="9"/>
+      <c r="AJ69" s="28"/>
       <c r="AK69" s="9"/>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>64</v>
       </c>
@@ -6685,7 +6781,7 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="26"/>
-      <c r="R70" s="6"/>
+      <c r="R70" s="26"/>
       <c r="S70" s="6" t="s">
         <v>34</v>
       </c>
@@ -6705,10 +6801,10 @@
       <c r="AG70" s="7"/>
       <c r="AH70" s="7"/>
       <c r="AI70" s="7"/>
-      <c r="AJ70" s="7"/>
+      <c r="AJ70" s="26"/>
       <c r="AK70" s="7"/>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>65</v>
       </c>
@@ -6728,7 +6824,7 @@
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
       <c r="Q71" s="28"/>
-      <c r="R71" s="8"/>
+      <c r="R71" s="28"/>
       <c r="S71" s="8" t="s">
         <v>34</v>
       </c>
@@ -6748,10 +6844,10 @@
       <c r="AG71" s="9"/>
       <c r="AH71" s="9"/>
       <c r="AI71" s="9"/>
-      <c r="AJ71" s="9"/>
+      <c r="AJ71" s="28"/>
       <c r="AK71" s="9"/>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
@@ -6771,7 +6867,7 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="26"/>
-      <c r="R72" s="6"/>
+      <c r="R72" s="26"/>
       <c r="S72" s="6" t="s">
         <v>34</v>
       </c>
@@ -6791,10 +6887,10 @@
       <c r="AG72" s="7"/>
       <c r="AH72" s="7"/>
       <c r="AI72" s="7"/>
-      <c r="AJ72" s="7"/>
+      <c r="AJ72" s="26"/>
       <c r="AK72" s="7"/>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>67</v>
       </c>
@@ -6814,7 +6910,7 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="28"/>
-      <c r="R73" s="8"/>
+      <c r="R73" s="28"/>
       <c r="S73" s="8" t="s">
         <v>34</v>
       </c>
@@ -6834,51 +6930,51 @@
       <c r="AG73" s="9"/>
       <c r="AH73" s="9"/>
       <c r="AI73" s="9"/>
-      <c r="AJ73" s="9"/>
+      <c r="AJ73" s="28"/>
       <c r="AK73" s="9"/>
     </row>
-    <row r="74" spans="1:37">
-      <c r="A74" s="35" t="s">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A74" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="36"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="35"/>
       <c r="R74" s="35"/>
-      <c r="S74" s="35" t="s">
+      <c r="S74" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
-      <c r="Z74" s="37"/>
-      <c r="AA74" s="37"/>
-      <c r="AB74" s="37"/>
-      <c r="AC74" s="37"/>
-      <c r="AD74" s="37"/>
-      <c r="AE74" s="37"/>
-      <c r="AF74" s="37"/>
-      <c r="AG74" s="37"/>
-      <c r="AH74" s="37"/>
-      <c r="AI74" s="37"/>
-      <c r="AJ74" s="37"/>
-      <c r="AK74" s="37"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="36"/>
+      <c r="Z74" s="36"/>
+      <c r="AA74" s="36"/>
+      <c r="AB74" s="36"/>
+      <c r="AC74" s="36"/>
+      <c r="AD74" s="36"/>
+      <c r="AE74" s="36"/>
+      <c r="AF74" s="36"/>
+      <c r="AG74" s="36"/>
+      <c r="AH74" s="36"/>
+      <c r="AI74" s="36"/>
+      <c r="AJ74" s="35"/>
+      <c r="AK74" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6913,7 +7009,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6925,7 +7021,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6937,7 +7033,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6949,7 +7045,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6961,7 +7057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6972,15 +7068,15 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -6994,7 +7090,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7011,10 +7107,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" si="0">C3</f>
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
       <c r="D3" s="5">
         <v>1958.0425618489601</v>
       </c>
@@ -7022,10 +7125,17 @@
         <v>58.591498999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
       <c r="D4" s="5">
         <v>1919.4593854631717</v>
       </c>
@@ -7033,10 +7143,17 @@
         <v>67.924413999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
       <c r="D5" s="5">
         <v>2096.3778424944198</v>
       </c>
@@ -7044,7 +7161,7 @@
         <v>76.145567</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7062,12 +7179,12 @@
         <v>85.971186000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B21" si="0">C7</f>
+        <f t="shared" ref="B7:B21" si="1">C7</f>
         <v>90</v>
       </c>
       <c r="C7">
@@ -7080,12 +7197,12 @@
         <v>96.04539299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C8">
@@ -7098,12 +7215,12 @@
         <v>105.140455</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86.6</v>
       </c>
       <c r="C9">
@@ -7116,30 +7233,30 @@
         <v>121.12909199999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112.8</v>
       </c>
       <c r="C10">
         <v>112.8</v>
       </c>
       <c r="D10" s="5">
-        <v>6046.8367309570313</v>
+        <v>6046.8367309570312</v>
       </c>
       <c r="E10" s="5">
         <v>125.57747800000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C11">
@@ -7152,12 +7269,12 @@
         <v>99.382306999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="C12">
@@ -7170,12 +7287,12 @@
         <v>143.25536400000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122.429</v>
       </c>
       <c r="C13">
@@ -7188,12 +7305,12 @@
         <v>177.108566</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150.1086</v>
       </c>
       <c r="C14">
@@ -7206,12 +7323,12 @@
         <v>183.31275300000004</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>159.69</v>
       </c>
       <c r="C15">
@@ -7224,12 +7341,12 @@
         <v>172.04403400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="C16">
@@ -7242,12 +7359,12 @@
         <v>186.019372</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>194</v>
       </c>
       <c r="C17">
@@ -7260,12 +7377,12 @@
         <v>201.32204200000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195.35410000000002</v>
       </c>
       <c r="C18">
@@ -7278,12 +7395,12 @@
         <v>246.11897900000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>211.32310000000004</v>
       </c>
       <c r="C19">
@@ -7296,12 +7413,12 @@
         <v>312.55251800000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>253.37480000000002</v>
       </c>
       <c r="C20">
@@ -7314,12 +7431,12 @@
         <v>361.04267200000004</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>298.08800000000002</v>
       </c>
       <c r="C21">
@@ -7345,16 +7462,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -7371,7 +7488,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7391,7 +7508,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7412,7 +7529,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7433,7 +7550,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7454,7 +7571,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7475,7 +7592,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7496,7 +7613,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7517,7 +7634,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7538,7 +7655,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -7559,7 +7676,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -7580,7 +7697,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -7601,7 +7718,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -7622,7 +7739,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -7643,7 +7760,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -7664,7 +7781,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -7685,7 +7802,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7706,7 +7823,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -7727,7 +7844,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -7748,7 +7865,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7769,7 +7886,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -7805,16 +7922,16 @@
       <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -7834,7 +7951,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7854,7 +7971,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7880,7 +7997,7 @@
         <v>447.61374899999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7904,7 +8021,7 @@
         <v>424.685877</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7928,7 +8045,7 @@
         <v>470.54162100000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7952,7 +8069,7 @@
         <v>767.02960299999995</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7976,7 +8093,7 @@
         <v>674.22585800000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -8000,7 +8117,7 @@
         <v>671.66403600000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -8025,7 +8142,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -8052,7 +8169,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -8080,7 +8197,7 @@
       <c r="L11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -8108,7 +8225,7 @@
       <c r="L12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -8136,7 +8253,7 @@
       <c r="L13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -8165,7 +8282,7 @@
       <c r="L14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -8193,7 +8310,7 @@
       <c r="L15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -8221,7 +8338,7 @@
       <c r="L16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -8249,7 +8366,7 @@
       <c r="L17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -8277,7 +8394,7 @@
       <c r="L18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -8305,7 +8422,7 @@
       <c r="L19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -8333,7 +8450,7 @@
       <c r="L20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -8360,19 +8477,19 @@
       <c r="J21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H26" s="2"/>
     </row>
   </sheetData>
@@ -8394,13 +8511,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -8420,7 +8537,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -8435,7 +8552,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -8443,7 +8560,7 @@
         <f>B4*D3/D4</f>
         <v>2.6211738386810759</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <f>(C4-48*35274)</f>
         <v>11873993.704704</v>
       </c>
@@ -8451,7 +8568,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -8459,274 +8576,274 @@
         <f>B5*D4/D5</f>
         <v>2.6109348783737278</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>13567145.704704</v>
       </c>
       <c r="D4">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5">
         <v>2.6006959180663798</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>15252034.346915999</v>
       </c>
       <c r="D5">
         <v>2.54</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
       <c r="B6">
         <v>3.0508626846620399</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>15749019.786006</v>
       </c>
       <c r="D6">
         <v>2.42</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
       <c r="B7">
         <v>3.1113771591266901</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>15122391.179784</v>
       </c>
       <c r="D7">
         <v>2.48</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8">
         <v>3.09207937561865</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>20608702.998528</v>
       </c>
       <c r="D8">
         <v>2.37</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9">
         <v>3.1150351404490899</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>23289317.400419999</v>
       </c>
       <c r="D9">
         <v>2.35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18">
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10">
         <v>3.7342289806146298</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>26830921.217274003</v>
       </c>
       <c r="D10">
         <v>2.2799999999999998</v>
       </c>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="1:8" ht="18">
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
       <c r="B11">
         <v>3.6116350854505699</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <v>35094737.355630003</v>
       </c>
       <c r="D11">
         <v>2.46</v>
       </c>
-      <c r="H11" s="41"/>
-    </row>
-    <row r="12" spans="1:8" ht="18">
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
       <c r="B12">
         <v>4.1711999999999998</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>42975239.260650001</v>
       </c>
       <c r="D12">
         <v>2.7545000000000002</v>
       </c>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:8" ht="18">
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13">
         <v>4.7247000000000003</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <v>53778977.547102004</v>
       </c>
       <c r="D13">
         <v>2.8769</v>
       </c>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:8" ht="18">
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14">
         <v>4.6726999999999999</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <v>56518569.477336004</v>
       </c>
       <c r="D14">
         <v>2.9571999999999998</v>
       </c>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:8" ht="18">
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
       <c r="B15">
         <v>4.5137</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>45537007.619892001</v>
       </c>
       <c r="D15">
         <v>3.1667999999999998</v>
       </c>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="1:8" ht="18">
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
       <c r="B16">
         <v>4.4260999999999999</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>39909789.610542007</v>
       </c>
       <c r="D16">
         <v>3.2705000000000002</v>
       </c>
-      <c r="H16" s="41"/>
-    </row>
-    <row r="17" spans="1:8" ht="18">
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
       <c r="B17">
         <v>4.3685</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <v>40209714.238356002</v>
       </c>
       <c r="D17">
         <v>3.3662999999999998</v>
       </c>
-      <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="1:8" ht="18">
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
       <c r="B18">
         <v>4.3914</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>43624963.306727998</v>
       </c>
       <c r="D18">
         <v>3.5173000000000001</v>
       </c>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8" ht="18">
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
       <c r="B19">
         <v>4.2782999999999998</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="41">
         <v>42306183.016679995</v>
       </c>
       <c r="D19">
         <v>3.5678000000000001</v>
       </c>
-      <c r="H19" s="41"/>
-    </row>
-    <row r="20" spans="1:8" ht="18">
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
       <c r="B20">
         <v>4.4542999999999999</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>40434691.598711997</v>
       </c>
       <c r="D20">
         <v>3.6536</v>
       </c>
-      <c r="H20" s="41"/>
-    </row>
-    <row r="21" spans="1:8" ht="18">
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21">
         <v>4.3593999999999999</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="41">
         <v>47712936.086480156</v>
       </c>
       <c r="D21">
         <v>3.5962000000000001</v>
       </c>
-      <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="1:8" ht="18">
-      <c r="H22" s="41"/>
-    </row>
-    <row r="23" spans="1:8" ht="18">
-      <c r="H23" s="41"/>
-    </row>
-    <row r="24" spans="1:8" ht="18">
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="1:8" ht="18">
-      <c r="H25" s="41"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H25" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8741,9 +8858,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -8759,7 +8876,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8773,9 +8890,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -8791,7 +8908,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8803,7 +8920,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/MIT/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EE9E31-1B8B-0B4B-B80A-F643C47569FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F584D-5EA0-1848-A3FD-774D76359D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
-    <sheet name="Al" sheetId="3" r:id="rId2"/>
-    <sheet name="Steel" sheetId="4" r:id="rId3"/>
-    <sheet name="Au" sheetId="5" r:id="rId4"/>
-    <sheet name="W" sheetId="6" r:id="rId5"/>
-    <sheet name="Sn" sheetId="7" r:id="rId6"/>
-    <sheet name="Ta" sheetId="8" r:id="rId7"/>
-    <sheet name="Cu" sheetId="9" r:id="rId8"/>
-    <sheet name="Ni" sheetId="10" r:id="rId9"/>
-    <sheet name="Ag" sheetId="11" r:id="rId10"/>
-    <sheet name="Zn" sheetId="12" r:id="rId11"/>
-    <sheet name="Pb" sheetId="13" r:id="rId12"/>
-    <sheet name="Mo" sheetId="14" r:id="rId13"/>
-    <sheet name="Pt" sheetId="15" r:id="rId14"/>
-    <sheet name="Li" sheetId="16" r:id="rId15"/>
+    <sheet name="Landfill" sheetId="18" r:id="rId2"/>
+    <sheet name="Al" sheetId="3" r:id="rId3"/>
+    <sheet name="Steel" sheetId="4" r:id="rId4"/>
+    <sheet name="Au" sheetId="5" r:id="rId5"/>
+    <sheet name="W" sheetId="6" r:id="rId6"/>
+    <sheet name="Sn" sheetId="7" r:id="rId7"/>
+    <sheet name="Ta" sheetId="8" r:id="rId8"/>
+    <sheet name="Cu" sheetId="9" r:id="rId9"/>
+    <sheet name="Ni" sheetId="10" r:id="rId10"/>
+    <sheet name="Ag" sheetId="11" r:id="rId11"/>
+    <sheet name="Zn" sheetId="12" r:id="rId12"/>
+    <sheet name="Pb" sheetId="13" r:id="rId13"/>
+    <sheet name="Mo" sheetId="14" r:id="rId14"/>
+    <sheet name="Pt" sheetId="15" r:id="rId15"/>
+    <sheet name="Li" sheetId="16" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="365">
   <si>
     <t>Al</t>
   </si>
@@ -1170,10 +1171,16 @@
     <t>Rough estimate</t>
   </si>
   <si>
-    <t>Generic value</t>
-  </si>
-  <si>
     <t>historical</t>
+  </si>
+  <si>
+    <t>From S&amp;P</t>
+  </si>
+  <si>
+    <t>From regressions, may need to check if scale and s parameters correspond to mean and s</t>
+  </si>
+  <si>
+    <t>Might need ot check this</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,8 +1259,14 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1268,6 +1281,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
@@ -1295,7 +1326,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1369,6 +1400,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1724,13 +1763,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="37" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1785,7 +1825,7 @@
       <c r="Q1" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="37" t="s">
         <v>95</v>
       </c>
       <c r="S1" s="37" t="s">
@@ -1963,7 +2003,7 @@
       <c r="Q3" s="20">
         <v>260</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="45">
         <v>298.08800000000002</v>
       </c>
       <c r="S3" s="8" t="s">
@@ -2040,7 +2080,7 @@
       <c r="Q4" s="18">
         <v>1</v>
       </c>
-      <c r="R4" s="18"/>
+      <c r="R4" s="46"/>
       <c r="S4" s="6" t="s">
         <v>24</v>
       </c>
@@ -2113,8 +2153,8 @@
       <c r="Q5" s="20">
         <v>0.08</v>
       </c>
-      <c r="R5" s="20">
-        <v>0.25</v>
+      <c r="R5" s="45">
+        <v>0.2</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>24</v>
@@ -2160,7 +2200,7 @@
         <v>232</v>
       </c>
       <c r="AJ5" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AK5" s="9"/>
     </row>
@@ -2210,8 +2250,8 @@
       <c r="Q6" s="18">
         <v>62.5</v>
       </c>
-      <c r="R6" s="18">
-        <v>1E-3</v>
+      <c r="R6" s="46">
+        <v>0.4</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>24</v>
@@ -2307,7 +2347,7 @@
       <c r="Q7" s="20">
         <v>0.4</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="45">
         <v>0.14000000000000001</v>
       </c>
       <c r="S7" s="8" t="s">
@@ -2408,7 +2448,7 @@
       <c r="Q8" s="18">
         <v>0.15</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="46">
         <v>0.05</v>
       </c>
       <c r="S8" s="6" t="s">
@@ -2505,8 +2545,8 @@
       <c r="Q9" s="20">
         <v>0.2</v>
       </c>
-      <c r="R9" s="20">
-        <v>1E-4</v>
+      <c r="R9" s="45">
+        <v>0</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>24</v>
@@ -2604,8 +2644,7 @@
       <c r="Q10" s="18">
         <v>0.2</v>
       </c>
-      <c r="R10" s="18">
-        <f>1-R11-R7-R8</f>
+      <c r="R10" s="46">
         <v>0.31</v>
       </c>
       <c r="S10" s="6" t="s">
@@ -2696,7 +2735,7 @@
       <c r="Q11" s="20">
         <v>0.05</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="45">
         <v>0.5</v>
       </c>
       <c r="S11" s="8" t="s">
@@ -2787,7 +2826,7 @@
       <c r="Q12" s="18">
         <v>1</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="46">
         <v>0.95</v>
       </c>
       <c r="S12" s="6" t="s">
@@ -2888,7 +2927,7 @@
       <c r="Q13" s="20">
         <v>1</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="45">
         <v>0.95</v>
       </c>
       <c r="S13" s="8" t="s">
@@ -2979,7 +3018,7 @@
       <c r="Q14" s="18">
         <v>1</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="46">
         <v>0.95</v>
       </c>
       <c r="S14" s="6" t="s">
@@ -3064,7 +3103,7 @@
       <c r="Q15" s="20">
         <v>1</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="45">
         <v>0.95</v>
       </c>
       <c r="S15" s="8" t="s">
@@ -3145,7 +3184,7 @@
       <c r="Q16" s="18">
         <v>1</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="46">
         <v>0.95</v>
       </c>
       <c r="S16" s="6" t="s">
@@ -3228,7 +3267,7 @@
       <c r="Q17" s="20">
         <v>5</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="45">
         <v>1</v>
       </c>
       <c r="S17" s="8" t="s">
@@ -3327,7 +3366,7 @@
       <c r="Q18" s="18">
         <v>30</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="46">
         <v>1</v>
       </c>
       <c r="S18" s="6" t="s">
@@ -3428,7 +3467,7 @@
       <c r="Q19" s="20">
         <v>10</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="45">
         <v>1</v>
       </c>
       <c r="S19" s="8" t="s">
@@ -3509,7 +3548,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="18"/>
-      <c r="R20" s="18">
+      <c r="R20" s="46">
         <v>4</v>
       </c>
       <c r="S20" s="6" t="s">
@@ -3594,7 +3633,7 @@
       <c r="Q21" s="20">
         <v>20</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="45">
         <v>16</v>
       </c>
       <c r="S21" s="8" t="s">
@@ -3669,8 +3708,8 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="26"/>
-      <c r="R22" s="18">
-        <v>0</v>
+      <c r="R22" s="47">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>24</v>
@@ -3730,8 +3769,8 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="28"/>
-      <c r="R23" s="18">
-        <v>0</v>
+      <c r="R23" s="47">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="S23" s="8" t="s">
         <v>24</v>
@@ -3791,8 +3830,8 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="26"/>
-      <c r="R24" s="18">
-        <v>0</v>
+      <c r="R24" s="47">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>24</v>
@@ -3852,8 +3891,8 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="28"/>
-      <c r="R25" s="18">
-        <v>0</v>
+      <c r="R25" s="47">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="S25" s="8" t="s">
         <v>24</v>
@@ -3911,8 +3950,8 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="26"/>
-      <c r="R26" s="20">
-        <v>0.46</v>
+      <c r="R26" s="48">
+        <v>0.4</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>24</v>
@@ -3992,8 +4031,8 @@
       <c r="Q27" s="20">
         <v>2.7500000000000002E-4</v>
       </c>
-      <c r="R27" s="20">
-        <v>1E-3</v>
+      <c r="R27" s="47">
+        <v>0.2</v>
       </c>
       <c r="S27" s="8" t="s">
         <v>31</v>
@@ -4081,8 +4120,8 @@
       <c r="Q28" s="18">
         <v>2.7500000000000002E-4</v>
       </c>
-      <c r="R28" s="18">
-        <v>1E-3</v>
+      <c r="R28" s="47">
+        <v>0.2</v>
       </c>
       <c r="S28" s="6" t="s">
         <v>31</v>
@@ -4176,7 +4215,7 @@
       <c r="Q29" s="20">
         <v>1</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R29" s="50">
         <v>1</v>
       </c>
       <c r="S29" s="8" t="s">
@@ -4249,7 +4288,7 @@
       <c r="Q30" s="18">
         <v>0.625</v>
       </c>
-      <c r="R30" s="18">
+      <c r="R30" s="48">
         <v>0.5</v>
       </c>
       <c r="S30" s="6" t="s">
@@ -4338,7 +4377,7 @@
       <c r="Q31" s="20">
         <v>1</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R31" s="50">
         <v>1</v>
       </c>
       <c r="S31" s="8" t="s">
@@ -4417,8 +4456,8 @@
       <c r="Q32" s="18">
         <v>1</v>
       </c>
-      <c r="R32" s="18">
-        <v>1</v>
+      <c r="R32" s="48">
+        <v>0</v>
       </c>
       <c r="S32" s="6" t="s">
         <v>31</v>
@@ -4498,8 +4537,8 @@
       <c r="Q33" s="20">
         <v>1</v>
       </c>
-      <c r="R33" s="20">
-        <v>0.5</v>
+      <c r="R33" s="50">
+        <v>0</v>
       </c>
       <c r="S33" s="8" t="s">
         <v>31</v>
@@ -4581,8 +4620,8 @@
       <c r="Q34" s="18">
         <v>1</v>
       </c>
-      <c r="R34" s="18">
-        <v>1E-3</v>
+      <c r="R34" s="48">
+        <v>0</v>
       </c>
       <c r="S34" s="6" t="s">
         <v>31</v>
@@ -4661,8 +4700,8 @@
       <c r="Q35" s="20">
         <v>260</v>
       </c>
-      <c r="R35" s="20">
-        <v>439.40106200000008</v>
+      <c r="R35" s="50">
+        <v>439</v>
       </c>
       <c r="S35" s="8" t="s">
         <v>31</v>
@@ -4757,7 +4796,7 @@
         <v>0.5</v>
       </c>
       <c r="R36" s="6">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -4778,9 +4817,7 @@
         <v>338</v>
       </c>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="6" t="s">
-        <v>361</v>
-      </c>
+      <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
     </row>
     <row r="37" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4831,8 +4868,8 @@
       <c r="Q37" s="20">
         <v>0.52</v>
       </c>
-      <c r="R37" s="20">
-        <v>500</v>
+      <c r="R37" s="8">
+        <v>186</v>
       </c>
       <c r="S37" s="8" t="s">
         <v>34</v>
@@ -4868,7 +4905,7 @@
         <v>341</v>
       </c>
       <c r="AJ37" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK37" s="9"/>
     </row>
@@ -4913,8 +4950,8 @@
         <v>5.6010000000000001E-3</v>
       </c>
       <c r="Q38" s="18"/>
-      <c r="R38" s="18">
-        <v>0.2</v>
+      <c r="R38" s="6">
+        <v>1.1629945427094399</v>
       </c>
       <c r="S38" s="6" t="s">
         <v>34</v>
@@ -4956,7 +4993,7 @@
         <v>112</v>
       </c>
       <c r="AJ38" s="18" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AK38" s="7"/>
     </row>
@@ -5000,8 +5037,8 @@
         <v>0.60348800000000002</v>
       </c>
       <c r="Q39" s="20"/>
-      <c r="R39" s="20">
-        <v>500</v>
+      <c r="R39" s="8">
+        <v>0.54876084489486399</v>
       </c>
       <c r="S39" s="8" t="s">
         <v>34</v>
@@ -5043,7 +5080,7 @@
         <v>112</v>
       </c>
       <c r="AJ39" s="20" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AK39" s="9"/>
     </row>
@@ -5088,8 +5125,8 @@
         <v>1.7799999999999999E-4</v>
       </c>
       <c r="Q40" s="18"/>
-      <c r="R40" s="18">
-        <v>0.2</v>
+      <c r="R40" s="49">
+        <v>1.1629945427094399</v>
       </c>
       <c r="S40" s="6" t="s">
         <v>34</v>
@@ -5131,7 +5168,7 @@
         <v>112</v>
       </c>
       <c r="AJ40" s="18" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AK40" s="7"/>
     </row>
@@ -5174,9 +5211,8 @@
       <c r="P41" s="8">
         <v>0.119309</v>
       </c>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20">
-        <v>11120.835754394531</v>
+      <c r="R41" s="49">
+        <v>0.54876084489486399</v>
       </c>
       <c r="S41" s="8" t="s">
         <v>34</v>
@@ -5217,7 +5253,9 @@
       <c r="AI41" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AJ41" s="20"/>
+      <c r="AJ41" s="42" t="s">
+        <v>363</v>
+      </c>
       <c r="AK41" s="9"/>
     </row>
     <row r="42" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5270,8 +5308,8 @@
       <c r="Q42" s="18">
         <v>58419.6</v>
       </c>
-      <c r="R42" s="18">
-        <v>11120.835754394531</v>
+      <c r="R42" s="47">
+        <v>11120</v>
       </c>
       <c r="S42" s="6" t="s">
         <v>34</v>
@@ -5358,8 +5396,8 @@
         <v>3148664.0600000024</v>
       </c>
       <c r="Q43" s="20"/>
-      <c r="R43" s="20">
-        <v>0.22445561139028475</v>
+      <c r="R43" s="14">
+        <v>200</v>
       </c>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
@@ -5453,8 +5491,8 @@
         <v>0.54192825112107623</v>
       </c>
       <c r="Q44" s="18"/>
-      <c r="R44" s="18">
-        <v>0.45561139028475711</v>
+      <c r="R44" s="49">
+        <v>0.22445599999999999</v>
       </c>
       <c r="S44" s="6" t="s">
         <v>34</v>
@@ -5498,7 +5536,7 @@
         <v>124</v>
       </c>
       <c r="AJ44" s="18" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="AK44" s="7"/>
     </row>
@@ -5544,8 +5582,8 @@
         <v>0.33004484304932735</v>
       </c>
       <c r="Q45" s="28"/>
-      <c r="R45" s="20">
-        <v>8.3752093802345051E-3</v>
+      <c r="R45" s="49">
+        <v>0.45561099999999999</v>
       </c>
       <c r="S45" s="8" t="s">
         <v>34</v>
@@ -5635,8 +5673,8 @@
         <v>0.12645739910313902</v>
       </c>
       <c r="Q46" s="26"/>
-      <c r="R46" s="18">
-        <v>3.350083752093802E-2</v>
+      <c r="R46" s="49">
+        <v>8.3750000000000005E-3</v>
       </c>
       <c r="S46" s="6" t="s">
         <v>34</v>
@@ -5724,8 +5762,8 @@
         <v>1.569506726457399E-3</v>
       </c>
       <c r="Q47" s="28"/>
-      <c r="R47" s="20">
-        <v>0.27805695142378561</v>
+      <c r="R47" s="49">
+        <v>3.3501000000000003E-2</v>
       </c>
       <c r="S47" s="8" t="s">
         <v>34</v>
@@ -5813,8 +5851,8 @@
         <v>0</v>
       </c>
       <c r="Q48" s="26"/>
-      <c r="R48" s="6">
-        <v>2.5196335078534033E-3</v>
+      <c r="R48" s="49">
+        <v>0.278057</v>
       </c>
       <c r="S48" s="6" t="s">
         <v>34</v>
@@ -5878,7 +5916,6 @@
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
       <c r="S49" s="16" t="s">
         <v>34</v>
       </c>
@@ -5921,7 +5958,6 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
       <c r="S50" s="6" t="s">
         <v>34</v>
       </c>
@@ -5964,7 +6000,6 @@
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
       <c r="S51" s="8" t="s">
         <v>34</v>
       </c>
@@ -6007,7 +6042,6 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
       <c r="S52" s="6" t="s">
         <v>34</v>
       </c>
@@ -6050,7 +6084,6 @@
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
       <c r="S53" s="8" t="s">
         <v>34</v>
       </c>
@@ -6093,7 +6126,6 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
       <c r="S54" s="6" t="s">
         <v>34</v>
       </c>
@@ -6136,7 +6168,6 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
       <c r="S55" s="8" t="s">
         <v>34</v>
       </c>
@@ -6179,7 +6210,6 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
       <c r="S56" s="6" t="s">
         <v>34</v>
       </c>
@@ -6222,7 +6252,6 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
       <c r="S57" s="8" t="s">
         <v>34</v>
       </c>
@@ -6265,7 +6294,6 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
       <c r="S58" s="6" t="s">
         <v>34</v>
       </c>
@@ -6308,7 +6336,6 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
       <c r="S59" s="8" t="s">
         <v>34</v>
       </c>
@@ -6351,7 +6378,6 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
       <c r="S60" s="6" t="s">
         <v>34</v>
       </c>
@@ -6394,7 +6420,6 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
       <c r="S61" s="8" t="s">
         <v>34</v>
       </c>
@@ -6437,7 +6462,6 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
       <c r="S62" s="6" t="s">
         <v>34</v>
       </c>
@@ -6480,7 +6504,6 @@
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
       <c r="S63" s="8" t="s">
         <v>34</v>
       </c>
@@ -6523,7 +6546,6 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
       <c r="S64" s="6" t="s">
         <v>34</v>
       </c>
@@ -6566,7 +6588,6 @@
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
       <c r="S65" s="8" t="s">
         <v>34</v>
       </c>
@@ -6609,7 +6630,6 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="26"/>
-      <c r="R66" s="26"/>
       <c r="S66" s="6" t="s">
         <v>34</v>
       </c>
@@ -6652,7 +6672,6 @@
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
       <c r="S67" s="8" t="s">
         <v>34</v>
       </c>
@@ -6695,7 +6714,6 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
       <c r="S68" s="6" t="s">
         <v>34</v>
       </c>
@@ -6738,7 +6756,6 @@
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="28"/>
-      <c r="R69" s="28"/>
       <c r="S69" s="8" t="s">
         <v>34</v>
       </c>
@@ -6781,7 +6798,6 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
       <c r="S70" s="6" t="s">
         <v>34</v>
       </c>
@@ -6824,7 +6840,6 @@
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
       <c r="Q71" s="28"/>
-      <c r="R71" s="28"/>
       <c r="S71" s="8" t="s">
         <v>34</v>
       </c>
@@ -6867,7 +6882,6 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="26"/>
-      <c r="R72" s="26"/>
       <c r="S72" s="6" t="s">
         <v>34</v>
       </c>
@@ -6910,7 +6924,6 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
       <c r="S73" s="8" t="s">
         <v>34</v>
       </c>
@@ -7004,6 +7017,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A510BC-6699-4D7F-A1BA-2D5B6A269B1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7771608-927F-4E4B-98C0-8BD1C2D780A9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7015,7 +7040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029A80B4-7C9F-4455-863A-277E0A0ADA6C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7027,7 +7052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7E4D7B-7CFC-4824-AFEA-E4C07C4B6BC5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7039,7 +7064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09EBD6-8E7D-4D2E-919E-2C3665CCA70F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7051,7 +7076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E28CC3-7415-4459-ACB5-EE32C9212512}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7063,12 +7088,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEAF772-8B76-4702-B768-A08EDD9553AC}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7455,6 +7480,536 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8353D7EE-5C66-034F-B42D-DEEC392CD775}">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B48" sqref="B44:B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="20">
+        <v>298.08800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="18">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="20">
+        <v>439.40109999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="44">
+        <v>64866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="44">
+        <v>461.3725490196079</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="44">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="44">
+        <v>20.666321243523317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="44">
+        <v>1.77E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="43">
+        <v>11120.84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>0.22445599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <v>0.45561099999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>8.3750000000000005E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>3.3501000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>0.278057</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73D63CC-D9E2-4D18-93CD-FFAA257617FA}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -7914,7 +8469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF448EC1-E256-442B-8A96-B9961C018A96}">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -8503,7 +9058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -8850,7 +9405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4E14CA-A602-4FF7-9D44-04838930B2AC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8870,7 +9425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD8560D-51C4-4FC5-A30A-D50BD25B2BD4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8882,7 +9437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FAA359-5A00-444B-B37D-5A9C733CE8E6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8902,7 +9457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70BBC54-9A6A-4436-A684-DF848EF748EA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8912,16 +9467,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A510BC-6699-4D7F-A1BA-2D5B6A269B1B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/MIT/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F584D-5EA0-1848-A3FD-774D76359D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6AFD7E-4A30-6941-9A38-D7BF791A9CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
@@ -1764,7 +1764,7 @@
   <dimension ref="A1:AK74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4950,8 +4950,8 @@
         <v>5.6010000000000001E-3</v>
       </c>
       <c r="Q38" s="18"/>
-      <c r="R38" s="6">
-        <v>1.1629945427094399</v>
+      <c r="R38" s="49">
+        <v>5.5303602419031304</v>
       </c>
       <c r="S38" s="6" t="s">
         <v>34</v>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="Q39" s="20"/>
       <c r="R39" s="8">
-        <v>0.54876084489486399</v>
+        <v>2.37751350500784</v>
       </c>
       <c r="S39" s="8" t="s">
         <v>34</v>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="Q40" s="18"/>
       <c r="R40" s="49">
-        <v>1.1629945427094399</v>
+        <v>0.98090753516626605</v>
       </c>
       <c r="S40" s="6" t="s">
         <v>34</v>
@@ -5212,7 +5212,7 @@
         <v>0.119309</v>
       </c>
       <c r="R41" s="49">
-        <v>0.54876084489486399</v>
+        <v>0.34055052130256103</v>
       </c>
       <c r="S41" s="8" t="s">
         <v>34</v>
@@ -7093,7 +7093,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7180,7 +7180,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="5">
-        <v>2096.3778424944198</v>
+        <v>1991.2932632688505</v>
       </c>
       <c r="E5" s="5">
         <v>76.145567</v>
@@ -7198,7 +7198,7 @@
         <v>78.5</v>
       </c>
       <c r="D6" s="5">
-        <v>2375.8771057128938</v>
+        <v>2130.5714445568283</v>
       </c>
       <c r="E6" s="5">
         <v>85.971186000000003</v>
@@ -7216,7 +7216,7 @@
         <v>90</v>
       </c>
       <c r="D7" s="5">
-        <v>3256.0443542480489</v>
+        <v>2576.0997674851205</v>
       </c>
       <c r="E7" s="5">
         <v>96.04539299999999</v>
@@ -7234,7 +7234,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="5">
-        <v>4287.9830078124996</v>
+        <v>3306.6348225911474</v>
       </c>
       <c r="E8" s="5">
         <v>105.140455</v>
@@ -7252,7 +7252,7 @@
         <v>86.6</v>
       </c>
       <c r="D9" s="5">
-        <v>6010.4877522786455</v>
+        <v>4518.171704779732</v>
       </c>
       <c r="E9" s="5">
         <v>121.12909199999999</v>
@@ -7270,7 +7270,7 @@
         <v>112.8</v>
       </c>
       <c r="D10" s="5">
-        <v>6046.8367309570312</v>
+        <v>5448.4358303493918</v>
       </c>
       <c r="E10" s="5">
         <v>125.57747800000001</v>
@@ -7288,7 +7288,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="5">
-        <v>5452.4385986328125</v>
+        <v>5836.5876939561631</v>
       </c>
       <c r="E11" s="5">
         <v>99.382306999999997</v>
@@ -7306,7 +7306,7 @@
         <v>125</v>
       </c>
       <c r="D12" s="5">
-        <v>4979.4941030649043</v>
+        <v>5492.9231442182499</v>
       </c>
       <c r="E12" s="5">
         <v>143.25536400000001</v>
@@ -7324,7 +7324,7 @@
         <v>122.429</v>
       </c>
       <c r="D13" s="5">
-        <v>4948.2326096754823</v>
+        <v>5126.7217704577333</v>
       </c>
       <c r="E13" s="5">
         <v>177.108566</v>
@@ -7342,7 +7342,7 @@
         <v>150.1086</v>
       </c>
       <c r="D14" s="5">
-        <v>5233.7805350167409</v>
+        <v>5053.8357492523764</v>
       </c>
       <c r="E14" s="5">
         <v>183.31275300000004</v>
@@ -7360,7 +7360,7 @@
         <v>159.69</v>
       </c>
       <c r="D15" s="5">
-        <v>5540.7611607142853</v>
+        <v>5240.9247684688362</v>
       </c>
       <c r="E15" s="5">
         <v>172.04403400000001</v>
@@ -7378,7 +7378,7 @@
         <v>165</v>
       </c>
       <c r="D16" s="5">
-        <v>5611.9737025669647</v>
+        <v>5462.1717994326636</v>
       </c>
       <c r="E16" s="5">
         <v>186.019372</v>
@@ -7396,7 +7396,7 @@
         <v>194</v>
       </c>
       <c r="D17" s="5">
-        <v>6032.6183919270834</v>
+        <v>5728.4510850694451</v>
       </c>
       <c r="E17" s="5">
         <v>201.32204200000001</v>
@@ -7414,7 +7414,7 @@
         <v>195.35410000000002</v>
       </c>
       <c r="D18" s="5">
-        <v>10903.384212239584</v>
+        <v>7515.9921022445442</v>
       </c>
       <c r="E18" s="5">
         <v>246.11897900000002</v>
@@ -7432,7 +7432,7 @@
         <v>211.32310000000004</v>
       </c>
       <c r="D19" s="5">
-        <v>14657.141308593749</v>
+        <v>10531.047970920139</v>
       </c>
       <c r="E19" s="5">
         <v>312.55251800000002</v>
@@ -7450,7 +7450,7 @@
         <v>253.37480000000002</v>
       </c>
       <c r="D20" s="5">
-        <v>15786.893098958333</v>
+        <v>13782.472873263891</v>
       </c>
       <c r="E20" s="5">
         <v>361.04267200000004</v>
@@ -7468,7 +7468,7 @@
         <v>298.08800000000002</v>
       </c>
       <c r="D21" s="5">
-        <v>11120.835754394531</v>
+        <v>13854.956720648872</v>
       </c>
       <c r="E21" s="5">
         <v>439.40106200000008</v>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryter\Dropbox (MIT)\John MIT\Research\generalizationOutside\generalization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A09EE4-3CBD-4F05-823B-1DC8E038D99B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D608C277-4E9C-4C5A-8AF0-61A55AC836B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="19680" windowHeight="16704" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="1824" windowWidth="19680" windowHeight="16704" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="357">
   <si>
     <t>Al</t>
   </si>
@@ -512,12 +512,6 @@
     <t>Electronics, https://www.gold.org/about-gold/market-structure-and-flows, 10-year average demand distribution</t>
   </si>
   <si>
-    <t>Bar and coin, https://www.gold.org/about-gold/market-structure-and-flows, 10-year average demand distribution</t>
-  </si>
-  <si>
-    <t>Other, https://www.gold.org/about-gold/market-structure-and-flows, 10-year average demand distribution</t>
-  </si>
-  <si>
     <t>Jewelry, https://www.gold.org/about-gold/market-structure-and-flows, 10-year average demand distribution</t>
   </si>
   <si>
@@ -1143,6 +1137,15 @@
   </si>
   <si>
     <t>C:\Users\ryter\Dropbox (MIT)\Group Research Folder_Olivetti\Displacement\00 Simulation\05 Data Compile\Metalor and other, iron ore and precious metals, daily.xls   // oil price adjusted for 2002-2018 // assumed 2001 48 dollar decrease // assumed 2019 had 18% increase based on Macrotrends Hundred Year Price Chart</t>
+  </si>
+  <si>
+    <t>Other, https://www.gold.org/about-gold/market-structure-and-flows, 10-year average demand distribution; actually decided that since the "Other" category for gold is ETFs and similar products and central banks, that can go in bar and coin</t>
+  </si>
+  <si>
+    <t>Bar and coin, https://www.gold.org/about-gold/market-structure-and-flows, 10-year average demand distribution (includes ETF and similar products and Central banks)</t>
+  </si>
+  <si>
+    <t>Jewelry market expected to expand at 8.5%/yr 2022-2030 (https://www.grandviewresearch.com/industry-analysis/jewelry-market)</t>
   </si>
 </sst>
 </file>
@@ -1692,13 +1695,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="38" customFormat="1" ht="34.049999999999997" customHeight="1">
@@ -1751,7 +1756,7 @@
         <v>94</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="R1" s="38" t="s">
         <v>95</v>
@@ -1811,7 +1816,7 @@
         <v>109</v>
       </c>
       <c r="AK1" s="38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="14.55" customHeight="1">
@@ -1828,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
@@ -1840,7 +1845,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>10</v>
@@ -1866,7 +1871,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
@@ -1902,7 +1907,7 @@
         <v>97.8</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I3" s="8">
         <v>2.4049999999999998</v>
@@ -1941,7 +1946,7 @@
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V3" s="9" t="s">
         <v>134</v>
@@ -1950,32 +1955,32 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB3" s="21" t="s">
         <v>215</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>217</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF3" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="AE3" s="21" t="s">
+      <c r="AG3" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AI3" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
@@ -1990,11 +1995,11 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J4" s="6">
         <v>2.5399999999999999E-2</v>
@@ -2017,7 +2022,9 @@
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -2089,41 +2096,41 @@
         <v>21</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>133</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB5" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI5" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
@@ -2182,42 +2189,42 @@
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>132</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB6" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="AC6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF6" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AG6" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AH6" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
@@ -2279,7 +2286,7 @@
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V7" s="9" t="s">
         <v>132</v>
@@ -2290,38 +2297,38 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB7" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="AA7" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="AC7" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD7" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF7" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AG7" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AF7" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG7" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="AH7" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="14.55" customHeight="1">
@@ -2380,7 +2387,7 @@
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>132</v>
@@ -2391,31 +2398,31 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AG8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
@@ -2432,7 +2439,7 @@
         <v>0.26</v>
       </c>
       <c r="D9" s="8">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -2477,42 +2484,42 @@
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>132</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>145</v>
+        <v>355</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB9" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="AA9" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB9" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD9" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF9" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="AE9" s="9" t="s">
+      <c r="AG9" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="AF9" s="9" t="s">
+      <c r="AH9" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="AG9" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH9" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
@@ -2531,7 +2538,7 @@
       </c>
       <c r="D10" s="6">
         <f>1-D11-D9-D8</f>
-        <v>0.11999999999999997</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -2577,40 +2584,40 @@
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>132</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>146</v>
+        <v>354</v>
       </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="AA10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="AC10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
@@ -2668,36 +2675,36 @@
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>132</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AC11" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG11" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="AF11" s="9" t="s">
+      <c r="AH11" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="AG11" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH11" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
@@ -2765,41 +2772,41 @@
         <v>130</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AD12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF12" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AE12" s="7" t="s">
+      <c r="AG12" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="AF12" s="7" t="s">
+      <c r="AH12" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="AG12" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="AI12" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="14.55" customHeight="1">
@@ -2864,7 +2871,7 @@
         <v>130</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -2875,20 +2882,20 @@
         <v>107</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="14.55" customHeight="1">
@@ -2953,7 +2960,7 @@
         <v>130</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -2971,7 +2978,7 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="14.55" customHeight="1">
@@ -3131,7 +3138,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="14.55" customHeight="1">
@@ -3196,37 +3203,37 @@
         <v>130</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AB17" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AC17" s="9" t="s">
         <v>107</v>
       </c>
       <c r="AD17" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF17" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="AE17" s="9" t="s">
+      <c r="AG17" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="AF17" s="9" t="s">
+      <c r="AH17" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="AG17" s="9" t="s">
+      <c r="AI17" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="AH17" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI17" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
@@ -3293,39 +3300,39 @@
         <v>130</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB18" s="23" t="s">
         <v>297</v>
-      </c>
-      <c r="AA18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB18" s="23" t="s">
-        <v>299</v>
       </c>
       <c r="AC18" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AD18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="AE18" s="7" t="s">
+      <c r="AG18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="AF18" s="7" t="s">
+      <c r="AH18" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="AG18" s="7" t="s">
+      <c r="AI18" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="AH18" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI18" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
@@ -3392,7 +3399,7 @@
         <v>130</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -3403,22 +3410,22 @@
         <v>107</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AE19" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG19" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="AF19" s="9" t="s">
+      <c r="AH19" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="AG19" s="9" t="s">
+      <c r="AI19" s="24" t="s">
         <v>308</v>
-      </c>
-      <c r="AH19" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI19" s="24" t="s">
-        <v>310</v>
       </c>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
@@ -3471,12 +3478,12 @@
         <v>130</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
@@ -3484,10 +3491,10 @@
         <v>107</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
@@ -3556,13 +3563,13 @@
         <v>130</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9" t="s">
@@ -3571,16 +3578,16 @@
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG21" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH21" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="AG21" s="9" t="s">
+      <c r="AI21" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="AH21" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI21" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
@@ -3623,11 +3630,11 @@
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
@@ -3635,7 +3642,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
@@ -3684,11 +3691,11 @@
       </c>
       <c r="T23" s="9"/>
       <c r="U23" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V23" s="9"/>
       <c r="W23" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
@@ -3696,7 +3703,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
@@ -3745,11 +3752,11 @@
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
@@ -3757,7 +3764,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
@@ -3806,11 +3813,11 @@
       </c>
       <c r="T25" s="9"/>
       <c r="U25" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
@@ -3818,7 +3825,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
@@ -3865,11 +3872,11 @@
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -3877,7 +3884,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
@@ -3944,7 +3951,7 @@
         <v>71</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V27" s="9" t="s">
         <v>129</v>
@@ -3955,11 +3962,11 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AC27" s="9" t="s">
         <v>77</v>
@@ -3969,7 +3976,7 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
@@ -4029,7 +4036,7 @@
       </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>128</v>
@@ -4040,25 +4047,25 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AC28" s="7" t="s">
         <v>77</v>
       </c>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AF28" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
@@ -4195,18 +4202,18 @@
       </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>132</v>
       </c>
       <c r="W30" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -4214,13 +4221,13 @@
         <v>77</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="29" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
@@ -4376,7 +4383,7 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7"/>
@@ -4443,24 +4450,24 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AC33" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="14.55" customHeight="1">
@@ -4528,11 +4535,11 @@
         <v>77</v>
       </c>
       <c r="AD34" s="23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
@@ -4595,24 +4602,24 @@
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V35" s="9" t="s">
         <v>132</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB35" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="AA35" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB35" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="AC35" s="9" t="s">
         <v>91</v>
@@ -4620,11 +4627,11 @@
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AG35" s="9"/>
       <c r="AH35" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9"/>
@@ -4632,7 +4639,7 @@
     </row>
     <row r="36" spans="1:37" ht="14.55" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B36" s="6">
         <v>0.5</v>
@@ -4701,7 +4708,7 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
@@ -4765,20 +4772,20 @@
         <v>92</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="X37" s="9" t="s">
         <v>93</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AA37" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -4787,7 +4794,7 @@
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
       <c r="AI37" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
@@ -4839,7 +4846,7 @@
       </c>
       <c r="T38" s="7"/>
       <c r="U38" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V38" s="7" t="s">
         <v>90</v>
@@ -4922,7 +4929,7 @@
       </c>
       <c r="T39" s="9"/>
       <c r="U39" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V39" s="9" t="s">
         <v>89</v>
@@ -5006,7 +5013,7 @@
       </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V40" s="7" t="s">
         <v>89</v>
@@ -5089,7 +5096,7 @@
       </c>
       <c r="T41" s="9"/>
       <c r="U41" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V41" s="9" t="s">
         <v>89</v>
@@ -5191,26 +5198,26 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="23" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="23" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="14.55" customHeight="1">
@@ -5268,47 +5275,47 @@
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="V43" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="V43" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="W43" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="X43" s="8" t="s">
         <v>127</v>
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB43" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC43" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="AA43" s="8" t="s">
+      <c r="AD43" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="AB43" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC43" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="AD43" s="8" t="s">
-        <v>350</v>
-      </c>
       <c r="AE43" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG43" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AH43" s="8" t="s">
         <v>127</v>
       </c>
       <c r="AI43" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
@@ -5363,7 +5370,7 @@
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V44" s="7" t="s">
         <v>88</v>
@@ -5374,7 +5381,7 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
@@ -5454,7 +5461,7 @@
       </c>
       <c r="T45" s="8"/>
       <c r="U45" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V45" s="9" t="s">
         <v>88</v>
@@ -5465,7 +5472,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
@@ -5545,7 +5552,7 @@
       </c>
       <c r="T46" s="6"/>
       <c r="U46" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V46" s="7" t="s">
         <v>88</v>
@@ -5634,7 +5641,7 @@
       </c>
       <c r="T47" s="8"/>
       <c r="U47" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V47" s="9" t="s">
         <v>88</v>
@@ -5723,7 +5730,7 @@
       </c>
       <c r="T48" s="6"/>
       <c r="U48" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V48" s="7" t="s">
         <v>88</v>
@@ -6982,33 +6989,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>212</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7356,39 +7363,39 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" t="s">
         <v>193</v>
-      </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7816,42 +7823,42 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" t="s">
         <v>199</v>
-      </c>
-      <c r="G2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -8390,8 +8397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -8402,36 +8409,36 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -8745,7 +8752,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -8777,7 +8784,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryter\Dropbox (MIT)\John MIT\Research\generalizationOutside\generalization\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelenaorourke/Documents/GitHub/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A09EE4-3CBD-4F05-823B-1DC8E038D99B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE7A14E-7784-A44D-9855-EE845BF733A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="19680" windowHeight="16704" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="4040" yWindow="460" windowWidth="19680" windowHeight="16580" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -67,6 +67,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1153,7 +1161,7 @@
     <numFmt numFmtId="164" formatCode="\Te"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1692,16 +1700,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="38" customFormat="1" ht="34.049999999999997" customHeight="1">
+    <row r="1" spans="1:37" s="38" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>96</v>
       </c>
@@ -1814,7 +1822,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.55" customHeight="1">
+    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1883,7 +1891,7 @@
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
     </row>
-    <row r="3" spans="1:37" ht="14.55" customHeight="1">
+    <row r="3" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1980,7 +1988,7 @@
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:37" ht="14.55" customHeight="1">
+    <row r="4" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -2033,7 +2041,7 @@
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:37" ht="14.55" customHeight="1">
+    <row r="5" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2128,7 +2136,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:37" ht="14.55" customHeight="1">
+    <row r="6" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2223,7 +2231,7 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="1:37" ht="14.55" customHeight="1">
+    <row r="7" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -2324,7 +2332,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="14.55" customHeight="1">
+    <row r="8" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2421,7 +2429,7 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:37" ht="14.55" customHeight="1">
+    <row r="9" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2518,7 +2526,7 @@
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
     </row>
-    <row r="10" spans="1:37" ht="14.55" customHeight="1">
+    <row r="10" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2616,7 +2624,7 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" spans="1:37" ht="14.55" customHeight="1">
+    <row r="11" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -2703,7 +2711,7 @@
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
     </row>
-    <row r="12" spans="1:37" ht="14.55" customHeight="1">
+    <row r="12" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>97</v>
       </c>
@@ -2802,7 +2810,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="14.55" customHeight="1">
+    <row r="13" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
@@ -2891,7 +2899,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="14.55" customHeight="1">
+    <row r="14" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>99</v>
       </c>
@@ -2974,7 +2982,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.55" customHeight="1">
+    <row r="15" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -3053,7 +3061,7 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
     </row>
-    <row r="16" spans="1:37" ht="14.55" customHeight="1">
+    <row r="16" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>101</v>
       </c>
@@ -3134,7 +3142,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.55" customHeight="1">
+    <row r="17" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>102</v>
       </c>
@@ -3231,7 +3239,7 @@
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
     </row>
-    <row r="18" spans="1:37" ht="14.55" customHeight="1">
+    <row r="18" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>103</v>
       </c>
@@ -3330,7 +3338,7 @@
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
     </row>
-    <row r="19" spans="1:37" ht="14.55" customHeight="1">
+    <row r="19" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>104</v>
       </c>
@@ -3423,7 +3431,7 @@
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
     </row>
-    <row r="20" spans="1:37" ht="14.55" customHeight="1">
+    <row r="20" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>105</v>
       </c>
@@ -3496,7 +3504,7 @@
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
     </row>
-    <row r="21" spans="1:37" ht="14.55" customHeight="1">
+    <row r="21" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -3585,7 +3593,7 @@
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
     </row>
-    <row r="22" spans="1:37" ht="14.55" customHeight="1">
+    <row r="22" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>135</v>
       </c>
@@ -3646,7 +3654,7 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="6"/>
     </row>
-    <row r="23" spans="1:37" ht="14.55" customHeight="1">
+    <row r="23" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>136</v>
       </c>
@@ -3707,7 +3715,7 @@
       <c r="AJ23" s="9"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:37" ht="14.55" customHeight="1">
+    <row r="24" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>137</v>
       </c>
@@ -3768,7 +3776,7 @@
       <c r="AJ24" s="7"/>
       <c r="AK24" s="6"/>
     </row>
-    <row r="25" spans="1:37" ht="14.55" customHeight="1">
+    <row r="25" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>138</v>
       </c>
@@ -3829,7 +3837,7 @@
       <c r="AJ25" s="9"/>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:37" ht="14.55" customHeight="1">
+    <row r="26" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>139</v>
       </c>
@@ -3888,7 +3896,7 @@
       <c r="AJ26" s="7"/>
       <c r="AK26" s="6"/>
     </row>
-    <row r="27" spans="1:37" ht="14.55" customHeight="1">
+    <row r="27" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>70</v>
       </c>
@@ -3975,7 +3983,7 @@
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
     </row>
-    <row r="28" spans="1:37" ht="14.55" customHeight="1">
+    <row r="28" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>69</v>
       </c>
@@ -4064,7 +4072,7 @@
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
     </row>
-    <row r="29" spans="1:37" ht="14.55" customHeight="1">
+    <row r="29" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -4143,7 +4151,7 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
     </row>
-    <row r="30" spans="1:37" ht="14.55" customHeight="1">
+    <row r="30" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
@@ -4226,7 +4234,7 @@
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
     </row>
-    <row r="31" spans="1:37" ht="14.55" customHeight="1">
+    <row r="31" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
@@ -4303,7 +4311,7 @@
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9"/>
     </row>
-    <row r="32" spans="1:37" ht="14.55" customHeight="1">
+    <row r="32" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -4382,7 +4390,7 @@
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
     </row>
-    <row r="33" spans="1:37" ht="14.55" customHeight="1">
+    <row r="33" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>73</v>
       </c>
@@ -4463,7 +4471,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.55" customHeight="1">
+    <row r="34" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -4540,7 +4548,7 @@
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
     </row>
-    <row r="35" spans="1:37" ht="14.55" customHeight="1">
+    <row r="35" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>76</v>
       </c>
@@ -4630,7 +4638,7 @@
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9"/>
     </row>
-    <row r="36" spans="1:37" ht="14.55" customHeight="1">
+    <row r="36" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>337</v>
       </c>
@@ -4707,7 +4715,7 @@
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
     </row>
-    <row r="37" spans="1:37" ht="14.55" customHeight="1">
+    <row r="37" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
@@ -4792,7 +4800,7 @@
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
     </row>
-    <row r="38" spans="1:37" ht="14.55" customHeight="1">
+    <row r="38" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
         <v>15</v>
       </c>
@@ -4876,7 +4884,7 @@
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
     </row>
-    <row r="39" spans="1:37" ht="14.55" customHeight="1">
+    <row r="39" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
         <v>16</v>
       </c>
@@ -4959,7 +4967,7 @@
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
     </row>
-    <row r="40" spans="1:37" ht="14.55" customHeight="1">
+    <row r="40" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
         <v>35</v>
       </c>
@@ -5043,7 +5051,7 @@
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
     </row>
-    <row r="41" spans="1:37" ht="14.55" customHeight="1">
+    <row r="41" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>36</v>
       </c>
@@ -5126,7 +5134,7 @@
       <c r="AJ41" s="9"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="14.55" customHeight="1">
+    <row r="42" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>37</v>
       </c>
@@ -5213,7 +5221,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="14.55" customHeight="1">
+    <row r="43" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>125</v>
       </c>
@@ -5313,7 +5321,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="14.55" customHeight="1">
+    <row r="44" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
         <v>38</v>
       </c>
@@ -5404,7 +5412,7 @@
       </c>
       <c r="AK44" s="7"/>
     </row>
-    <row r="45" spans="1:37" ht="14.55" customHeight="1">
+    <row r="45" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
         <v>39</v>
       </c>
@@ -5495,7 +5503,7 @@
       </c>
       <c r="AK45" s="9"/>
     </row>
-    <row r="46" spans="1:37" ht="14.55" customHeight="1">
+    <row r="46" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
         <v>40</v>
       </c>
@@ -5584,7 +5592,7 @@
       </c>
       <c r="AK46" s="7"/>
     </row>
-    <row r="47" spans="1:37" ht="14.55" customHeight="1">
+    <row r="47" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>41</v>
       </c>
@@ -5673,7 +5681,7 @@
       </c>
       <c r="AK47" s="9"/>
     </row>
-    <row r="48" spans="1:37" ht="14.55" customHeight="1">
+    <row r="48" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30" t="s">
         <v>42</v>
       </c>
@@ -5762,7 +5770,7 @@
       </c>
       <c r="AK48" s="7"/>
     </row>
-    <row r="49" spans="1:37" ht="14.55" customHeight="1">
+    <row r="49" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
         <v>43</v>
       </c>
@@ -5805,7 +5813,7 @@
       <c r="AJ49" s="17"/>
       <c r="AK49" s="9"/>
     </row>
-    <row r="50" spans="1:37" ht="14.55" customHeight="1">
+    <row r="50" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -5848,7 +5856,7 @@
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
     </row>
-    <row r="51" spans="1:37" ht="14.55" customHeight="1">
+    <row r="51" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5891,7 +5899,7 @@
       <c r="AJ51" s="9"/>
       <c r="AK51" s="9"/>
     </row>
-    <row r="52" spans="1:37" ht="14.55" customHeight="1">
+    <row r="52" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
@@ -5934,7 +5942,7 @@
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
     </row>
-    <row r="53" spans="1:37" ht="14.55" customHeight="1">
+    <row r="53" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>47</v>
       </c>
@@ -5977,7 +5985,7 @@
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
     </row>
-    <row r="54" spans="1:37" ht="14.55" customHeight="1">
+    <row r="54" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
@@ -6020,7 +6028,7 @@
       <c r="AJ54" s="7"/>
       <c r="AK54" s="7"/>
     </row>
-    <row r="55" spans="1:37" ht="14.55" customHeight="1">
+    <row r="55" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>49</v>
       </c>
@@ -6063,7 +6071,7 @@
       <c r="AJ55" s="9"/>
       <c r="AK55" s="9"/>
     </row>
-    <row r="56" spans="1:37" ht="14.55" customHeight="1">
+    <row r="56" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
@@ -6106,7 +6114,7 @@
       <c r="AJ56" s="7"/>
       <c r="AK56" s="7"/>
     </row>
-    <row r="57" spans="1:37" ht="14.55" customHeight="1">
+    <row r="57" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>51</v>
       </c>
@@ -6149,7 +6157,7 @@
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9"/>
     </row>
-    <row r="58" spans="1:37" ht="14.55" customHeight="1">
+    <row r="58" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -6192,7 +6200,7 @@
       <c r="AJ58" s="7"/>
       <c r="AK58" s="7"/>
     </row>
-    <row r="59" spans="1:37" ht="14.55" customHeight="1">
+    <row r="59" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>53</v>
       </c>
@@ -6235,7 +6243,7 @@
       <c r="AJ59" s="9"/>
       <c r="AK59" s="9"/>
     </row>
-    <row r="60" spans="1:37" ht="14.55" customHeight="1">
+    <row r="60" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -6278,7 +6286,7 @@
       <c r="AJ60" s="7"/>
       <c r="AK60" s="7"/>
     </row>
-    <row r="61" spans="1:37" ht="14.55" customHeight="1">
+    <row r="61" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>55</v>
       </c>
@@ -6321,7 +6329,7 @@
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
     </row>
-    <row r="62" spans="1:37" ht="14.55" customHeight="1">
+    <row r="62" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -6364,7 +6372,7 @@
       <c r="AJ62" s="7"/>
       <c r="AK62" s="7"/>
     </row>
-    <row r="63" spans="1:37" ht="14.55" customHeight="1">
+    <row r="63" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
@@ -6407,7 +6415,7 @@
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9"/>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>58</v>
       </c>
@@ -6450,7 +6458,7 @@
       <c r="AJ64" s="7"/>
       <c r="AK64" s="7"/>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -6493,7 +6501,7 @@
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
@@ -6536,7 +6544,7 @@
       <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>61</v>
       </c>
@@ -6579,7 +6587,7 @@
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>62</v>
       </c>
@@ -6622,7 +6630,7 @@
       <c r="AJ68" s="7"/>
       <c r="AK68" s="7"/>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>63</v>
       </c>
@@ -6665,7 +6673,7 @@
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9"/>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>64</v>
       </c>
@@ -6708,7 +6716,7 @@
       <c r="AJ70" s="7"/>
       <c r="AK70" s="7"/>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>65</v>
       </c>
@@ -6751,7 +6759,7 @@
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
@@ -6794,7 +6802,7 @@
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>67</v>
       </c>
@@ -6837,7 +6845,7 @@
       <c r="AJ73" s="9"/>
       <c r="AK73" s="9"/>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A74" s="35" t="s">
         <v>68</v>
       </c>
@@ -6913,7 +6921,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6925,7 +6933,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6937,7 +6945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6949,7 +6957,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6961,7 +6969,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6975,12 +6983,12 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -6994,7 +7002,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7011,7 +7019,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7022,7 +7030,7 @@
         <v>58.591498999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7033,7 +7041,7 @@
         <v>67.924413999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7044,7 +7052,7 @@
         <v>76.145567</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7062,7 +7070,7 @@
         <v>85.971186000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7080,7 +7088,7 @@
         <v>96.04539299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7098,7 +7106,7 @@
         <v>105.140455</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7116,7 +7124,7 @@
         <v>121.12909199999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -7128,13 +7136,13 @@
         <v>112.8</v>
       </c>
       <c r="D10" s="5">
-        <v>6046.8367309570313</v>
+        <v>6046.8367309570312</v>
       </c>
       <c r="E10" s="5">
         <v>125.57747800000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -7152,7 +7160,7 @@
         <v>99.382306999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -7170,7 +7178,7 @@
         <v>143.25536400000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -7188,7 +7196,7 @@
         <v>177.108566</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -7206,7 +7214,7 @@
         <v>183.31275300000004</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -7224,7 +7232,7 @@
         <v>172.04403400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -7242,7 +7250,7 @@
         <v>186.019372</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7260,7 +7268,7 @@
         <v>201.32204200000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -7278,7 +7286,7 @@
         <v>246.11897900000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -7296,7 +7304,7 @@
         <v>312.55251800000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7314,7 +7322,7 @@
         <v>361.04267200000004</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -7345,16 +7353,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -7371,7 +7379,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7391,7 +7399,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7412,7 +7420,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7433,7 +7441,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7454,7 +7462,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7475,7 +7483,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7496,7 +7504,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7517,7 +7525,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7538,7 +7546,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -7559,7 +7567,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -7580,7 +7588,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -7601,7 +7609,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -7622,7 +7630,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -7643,7 +7651,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -7664,7 +7672,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -7685,7 +7693,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7706,7 +7714,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -7727,7 +7735,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -7748,7 +7756,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7769,7 +7777,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -7805,16 +7813,16 @@
       <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -7834,7 +7842,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7854,7 +7862,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7880,7 +7888,7 @@
         <v>447.61374899999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7904,7 +7912,7 @@
         <v>424.685877</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7928,7 +7936,7 @@
         <v>470.54162100000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7952,7 +7960,7 @@
         <v>767.02960299999995</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7976,7 +7984,7 @@
         <v>674.22585800000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -8000,7 +8008,7 @@
         <v>671.66403600000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -8025,7 +8033,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -8052,7 +8060,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -8080,7 +8088,7 @@
       <c r="L11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -8108,7 +8116,7 @@
       <c r="L12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -8136,7 +8144,7 @@
       <c r="L13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -8165,7 +8173,7 @@
       <c r="L14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -8193,7 +8201,7 @@
       <c r="L15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -8221,7 +8229,7 @@
       <c r="L16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -8249,7 +8257,7 @@
       <c r="L17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -8277,7 +8285,7 @@
       <c r="L18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -8305,7 +8313,7 @@
       <c r="L19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -8333,7 +8341,7 @@
       <c r="L20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -8360,19 +8368,19 @@
       <c r="J21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H26" s="2"/>
     </row>
   </sheetData>
@@ -8390,17 +8398,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -8420,7 +8428,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -8435,7 +8443,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -8451,7 +8459,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -8466,7 +8474,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -8480,7 +8488,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -8494,7 +8502,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -8508,7 +8516,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -8522,7 +8530,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -8536,7 +8544,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18">
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -8551,7 +8559,7 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8" ht="18">
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -8566,7 +8574,7 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8" ht="18">
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -8581,7 +8589,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" ht="18">
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -8596,7 +8604,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" ht="18">
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -8611,7 +8619,7 @@
       </c>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:8" ht="18">
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -8626,7 +8634,7 @@
       </c>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:8" ht="18">
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -8641,7 +8649,7 @@
       </c>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" ht="18">
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -8656,7 +8664,7 @@
       </c>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" ht="18">
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -8671,7 +8679,7 @@
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" ht="18">
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -8686,7 +8694,7 @@
       </c>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" ht="18">
+    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -8701,7 +8709,7 @@
       </c>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8" ht="18">
+    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -8716,16 +8724,16 @@
       </c>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8" ht="18">
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8" ht="18">
+    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8" ht="18">
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8" ht="18">
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="H25" s="41"/>
     </row>
   </sheetData>
@@ -8741,9 +8749,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -8759,7 +8767,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8773,9 +8781,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -8791,7 +8799,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8803,7 +8811,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelenaorourke/Documents/GitHub/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE7A14E-7784-A44D-9855-EE845BF733A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5EE754-DD6D-BB4A-9521-5F38DB899503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="460" windowWidth="19680" windowHeight="16580" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="5100" yWindow="460" windowWidth="19680" windowHeight="16580" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="357">
   <si>
     <t>Al</t>
   </si>
@@ -1151,6 +1151,9 @@
   </si>
   <si>
     <t>C:\Users\ryter\Dropbox (MIT)\Group Research Folder_Olivetti\Displacement\00 Simulation\05 Data Compile\Metalor and other, iron ore and precious metals, daily.xls   // oil price adjusted for 2002-2018 // assumed 2001 48 dollar decrease // assumed 2019 had 18% increase based on Macrotrends Hundred Year Price Chart</t>
+  </si>
+  <si>
+    <t>Primary commodity price old</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1164,7 @@
     <numFmt numFmtId="164" formatCode="\Te"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,6 +1233,13 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1273,7 +1283,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1345,6 +1355,7 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -8396,10 +8407,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8408,12 +8419,12 @@
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>356</v>
       </c>
       <c r="D1" t="s">
         <v>197</v>
@@ -8427,8 +8438,11 @@
       <c r="G1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -8442,8 +8456,9 @@
         <v>209</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -8458,8 +8473,11 @@
       <c r="D3">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>384.62169599999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -8473,8 +8491,11 @@
       <c r="D4">
         <v>2.5499999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M4" s="43">
+        <v>432.68009999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -8487,8 +8508,11 @@
       <c r="D5">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M5" s="43">
+        <v>496.37599999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -8501,8 +8525,11 @@
       <c r="D6">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M6" s="43">
+        <v>543.46299999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -8515,8 +8542,11 @@
       <c r="D7">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M7" s="43">
+        <v>571.63080000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -8529,8 +8559,11 @@
       <c r="D8">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M8" s="43">
+        <v>752.69680000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -8543,8 +8576,11 @@
       <c r="D9">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M9" s="43">
+        <v>842.58109999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -8558,8 +8594,11 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M10" s="43">
+        <v>1017.696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -8573,8 +8612,11 @@
         <v>2.46</v>
       </c>
       <c r="H11" s="41"/>
-    </row>
-    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M11" s="43">
+        <v>1136.8019999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -8588,8 +8630,11 @@
         <v>2.7545000000000002</v>
       </c>
       <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M12" s="43">
+        <v>1410.712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -8603,8 +8648,11 @@
         <v>2.8769</v>
       </c>
       <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M13" s="43">
+        <v>1755.4659999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -8618,8 +8666,11 @@
         <v>2.9571999999999998</v>
       </c>
       <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M14" s="43">
+        <v>1824.9770000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -8633,8 +8684,11 @@
         <v>3.1667999999999998</v>
       </c>
       <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M15" s="43">
+        <v>1520.327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -8648,8 +8702,11 @@
         <v>3.2705000000000002</v>
       </c>
       <c r="H16" s="41"/>
-    </row>
-    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M16" s="43">
+        <v>1343.3530000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -8663,8 +8720,11 @@
         <v>3.3662999999999998</v>
       </c>
       <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M17" s="43">
+        <v>1227.7149999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -8678,8 +8738,11 @@
         <v>3.5173000000000001</v>
       </c>
       <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M18" s="43">
+        <v>1307.6379999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -8693,8 +8756,11 @@
         <v>3.5678000000000001</v>
       </c>
       <c r="H19" s="41"/>
-    </row>
-    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M19" s="43">
+        <v>1288.577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -8708,8 +8774,11 @@
         <v>3.6536</v>
       </c>
       <c r="H20" s="41"/>
-    </row>
-    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M20" s="43">
+        <v>1272.7950000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -8723,17 +8792,21 @@
         <v>3.5962000000000001</v>
       </c>
       <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f>M20+(M20*0.18)</f>
+        <v>1501.8981000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="H25" s="41"/>
     </row>
   </sheetData>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelenaorourke/Documents/GitHub/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5EE754-DD6D-BB4A-9521-5F38DB899503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353480AF-E267-5649-ADCC-853251F113B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="460" windowWidth="19680" windowHeight="16580" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="358">
   <si>
     <t>Al</t>
   </si>
@@ -1154,6 +1154,9 @@
   </si>
   <si>
     <t>Primary commodity price old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary commodity price </t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1286,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1354,7 +1357,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -8407,10 +8409,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8419,12 +8421,12 @@
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D1" t="s">
         <v>197</v>
@@ -8441,8 +8443,11 @@
       <c r="M1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -8456,9 +8461,12 @@
         <v>209</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="M2" s="43"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" s="42"/>
+      <c r="Q2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -8466,9 +8474,8 @@
         <f>B4*D3/D4</f>
         <v>2.6211738386810759</v>
       </c>
-      <c r="C3" s="42">
-        <f>(C4-48*35274)</f>
-        <v>11873993.704704</v>
+      <c r="C3">
+        <v>384.62169599999999</v>
       </c>
       <c r="D3">
         <v>2.56</v>
@@ -8476,8 +8483,11 @@
       <c r="M3">
         <v>384.62169599999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>11873993.704704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -8486,16 +8496,19 @@
         <v>2.6109348783737278</v>
       </c>
       <c r="C4" s="42">
-        <v>13567145.704704</v>
+        <v>432.68009999999998</v>
       </c>
       <c r="D4">
         <v>2.5499999999999998</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="42">
         <v>432.68009999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>13567145.704704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -8503,16 +8516,19 @@
         <v>2.6006959180663798</v>
       </c>
       <c r="C5" s="42">
-        <v>15252034.346915999</v>
+        <v>496.37599999999998</v>
       </c>
       <c r="D5">
         <v>2.54</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="42">
         <v>496.37599999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>15252034.346915999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -8520,16 +8536,19 @@
         <v>3.0508626846620399</v>
       </c>
       <c r="C6" s="42">
-        <v>15749019.786006</v>
+        <v>543.46299999999997</v>
       </c>
       <c r="D6">
         <v>2.42</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="42">
         <v>543.46299999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>15749019.786006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -8537,16 +8556,19 @@
         <v>3.1113771591266901</v>
       </c>
       <c r="C7" s="42">
-        <v>15122391.179784</v>
+        <v>571.63080000000002</v>
       </c>
       <c r="D7">
         <v>2.48</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="42">
         <v>571.63080000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>15122391.179784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -8554,16 +8576,19 @@
         <v>3.09207937561865</v>
       </c>
       <c r="C8" s="42">
-        <v>20608702.998528</v>
+        <v>752.69680000000005</v>
       </c>
       <c r="D8">
         <v>2.37</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="42">
         <v>752.69680000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>20608702.998528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -8571,16 +8596,19 @@
         <v>3.1150351404490899</v>
       </c>
       <c r="C9" s="42">
-        <v>23289317.400419999</v>
+        <v>842.58109999999999</v>
       </c>
       <c r="D9">
         <v>2.35</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="42">
         <v>842.58109999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>23289317.400419999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -8588,17 +8616,20 @@
         <v>3.7342289806146298</v>
       </c>
       <c r="C10" s="42">
-        <v>26830921.217274003</v>
+        <v>1017.696</v>
       </c>
       <c r="D10">
         <v>2.2799999999999998</v>
       </c>
       <c r="H10" s="41"/>
-      <c r="M10" s="43">
+      <c r="M10" s="42">
         <v>1017.696</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>26830921.217274003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -8606,17 +8637,20 @@
         <v>3.6116350854505699</v>
       </c>
       <c r="C11" s="42">
-        <v>35094737.355630003</v>
+        <v>1136.8019999999999</v>
       </c>
       <c r="D11">
         <v>2.46</v>
       </c>
       <c r="H11" s="41"/>
-      <c r="M11" s="43">
+      <c r="M11" s="42">
         <v>1136.8019999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>35094737.355630003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -8624,17 +8658,20 @@
         <v>4.1711999999999998</v>
       </c>
       <c r="C12" s="42">
-        <v>42975239.260650001</v>
+        <v>1410.712</v>
       </c>
       <c r="D12">
         <v>2.7545000000000002</v>
       </c>
       <c r="H12" s="41"/>
-      <c r="M12" s="43">
+      <c r="M12" s="42">
         <v>1410.712</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>42975239.260650001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -8642,17 +8679,20 @@
         <v>4.7247000000000003</v>
       </c>
       <c r="C13" s="42">
-        <v>53778977.547102004</v>
+        <v>1755.4659999999999</v>
       </c>
       <c r="D13">
         <v>2.8769</v>
       </c>
       <c r="H13" s="41"/>
-      <c r="M13" s="43">
+      <c r="M13" s="42">
         <v>1755.4659999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>53778977.547102004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -8660,17 +8700,20 @@
         <v>4.6726999999999999</v>
       </c>
       <c r="C14" s="42">
-        <v>56518569.477336004</v>
+        <v>1824.9770000000001</v>
       </c>
       <c r="D14">
         <v>2.9571999999999998</v>
       </c>
       <c r="H14" s="41"/>
-      <c r="M14" s="43">
+      <c r="M14" s="42">
         <v>1824.9770000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>56518569.477336004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -8678,17 +8721,20 @@
         <v>4.5137</v>
       </c>
       <c r="C15" s="42">
-        <v>45537007.619892001</v>
+        <v>1520.327</v>
       </c>
       <c r="D15">
         <v>3.1667999999999998</v>
       </c>
       <c r="H15" s="41"/>
-      <c r="M15" s="43">
+      <c r="M15" s="42">
         <v>1520.327</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>45537007.619892001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -8696,17 +8742,20 @@
         <v>4.4260999999999999</v>
       </c>
       <c r="C16" s="42">
-        <v>39909789.610542007</v>
+        <v>1343.3530000000001</v>
       </c>
       <c r="D16">
         <v>3.2705000000000002</v>
       </c>
       <c r="H16" s="41"/>
-      <c r="M16" s="43">
+      <c r="M16" s="42">
         <v>1343.3530000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>39909789.610542007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -8714,17 +8763,20 @@
         <v>4.3685</v>
       </c>
       <c r="C17" s="42">
-        <v>40209714.238356002</v>
+        <v>1227.7149999999999</v>
       </c>
       <c r="D17">
         <v>3.3662999999999998</v>
       </c>
       <c r="H17" s="41"/>
-      <c r="M17" s="43">
+      <c r="M17" s="42">
         <v>1227.7149999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>40209714.238356002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -8732,17 +8784,20 @@
         <v>4.3914</v>
       </c>
       <c r="C18" s="42">
-        <v>43624963.306727998</v>
+        <v>1307.6379999999999</v>
       </c>
       <c r="D18">
         <v>3.5173000000000001</v>
       </c>
       <c r="H18" s="41"/>
-      <c r="M18" s="43">
+      <c r="M18" s="42">
         <v>1307.6379999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>43624963.306727998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -8750,17 +8805,20 @@
         <v>4.2782999999999998</v>
       </c>
       <c r="C19" s="42">
-        <v>42306183.016679995</v>
+        <v>1288.577</v>
       </c>
       <c r="D19">
         <v>3.5678000000000001</v>
       </c>
       <c r="H19" s="41"/>
-      <c r="M19" s="43">
+      <c r="M19" s="42">
         <v>1288.577</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>42306183.016679995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -8768,25 +8826,29 @@
         <v>4.4542999999999999</v>
       </c>
       <c r="C20" s="42">
-        <v>40434691.598711997</v>
+        <v>1272.7950000000001</v>
       </c>
       <c r="D20">
         <v>3.6536</v>
       </c>
       <c r="H20" s="41"/>
-      <c r="M20" s="43">
+      <c r="M20" s="42">
         <v>1272.7950000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>40434691.598711997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21">
         <v>4.3593999999999999</v>
       </c>
-      <c r="C21" s="42">
-        <v>47712936.086480156</v>
+      <c r="C21">
+        <f>C20+(C20*0.18)</f>
+        <v>1501.8981000000001</v>
       </c>
       <c r="D21">
         <v>3.5962000000000001</v>
@@ -8796,17 +8858,20 @@
         <f>M20+(M20*0.18)</f>
         <v>1501.8981000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>47712936.086480156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="H25" s="41"/>
     </row>
   </sheetData>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelenaorourke/Documents/GitHub/generalization/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryter\Dropbox (MIT)\John MIT\Research\generalizationOutside\generalization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07B0BEB-B33E-F644-8F6C-195F13CCC193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20E5EC0-3FEC-4F3C-AD17-E4A328EAA493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="28800" windowHeight="15864" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -67,14 +67,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1164,7 +1156,7 @@
     <numFmt numFmtId="164" formatCode="\Te"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1714,12 +1706,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="38" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="38" customFormat="1" ht="34.049999999999997" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>96</v>
       </c>
@@ -1832,7 +1824,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="14.55" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1901,7 +1893,7 @@
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
     </row>
-    <row r="3" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="14.55" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1998,7 +1990,7 @@
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="14.55" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -2051,7 +2043,7 @@
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="14.55" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2146,7 +2138,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="14.55" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2241,7 +2233,7 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="14.55" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -2342,7 +2334,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="14.55" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2439,7 +2431,7 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="14.55" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2536,7 +2528,7 @@
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
     </row>
-    <row r="10" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="14.55" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2634,7 +2626,7 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="14.55" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -2721,7 +2713,7 @@
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
     </row>
-    <row r="12" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="14.55" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>97</v>
       </c>
@@ -2820,7 +2812,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="14.55" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
@@ -2909,7 +2901,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="14.55" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>99</v>
       </c>
@@ -2992,7 +2984,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="14.55" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -3071,7 +3063,7 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
     </row>
-    <row r="16" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="14.55" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>101</v>
       </c>
@@ -3152,7 +3144,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="14.55" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>102</v>
       </c>
@@ -3249,7 +3241,7 @@
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
     </row>
-    <row r="18" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="14.55" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>103</v>
       </c>
@@ -3348,7 +3340,7 @@
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
     </row>
-    <row r="19" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="14.55" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>104</v>
       </c>
@@ -3441,7 +3433,7 @@
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
     </row>
-    <row r="20" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="14.55" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>105</v>
       </c>
@@ -3514,7 +3506,7 @@
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
     </row>
-    <row r="21" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="14.55" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -3603,7 +3595,7 @@
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
     </row>
-    <row r="22" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="14.55" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>135</v>
       </c>
@@ -3664,7 +3656,7 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="6"/>
     </row>
-    <row r="23" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="14.55" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>136</v>
       </c>
@@ -3725,7 +3717,7 @@
       <c r="AJ23" s="9"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="14.55" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>137</v>
       </c>
@@ -3786,7 +3778,7 @@
       <c r="AJ24" s="7"/>
       <c r="AK24" s="6"/>
     </row>
-    <row r="25" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="14.55" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>138</v>
       </c>
@@ -3847,7 +3839,7 @@
       <c r="AJ25" s="9"/>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="14.55" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>139</v>
       </c>
@@ -3906,7 +3898,7 @@
       <c r="AJ26" s="7"/>
       <c r="AK26" s="6"/>
     </row>
-    <row r="27" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="14.55" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>70</v>
       </c>
@@ -3993,7 +3985,7 @@
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
     </row>
-    <row r="28" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="14.55" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>69</v>
       </c>
@@ -4082,7 +4074,7 @@
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
     </row>
-    <row r="29" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="14.55" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -4161,7 +4153,7 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
     </row>
-    <row r="30" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="14.55" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
@@ -4244,7 +4236,7 @@
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
     </row>
-    <row r="31" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="14.55" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
@@ -4321,7 +4313,7 @@
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9"/>
     </row>
-    <row r="32" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="14.55" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -4400,7 +4392,7 @@
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
     </row>
-    <row r="33" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="14.55" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>73</v>
       </c>
@@ -4481,7 +4473,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="14.55" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -4558,7 +4550,7 @@
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
     </row>
-    <row r="35" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="14.55" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>76</v>
       </c>
@@ -4648,7 +4640,7 @@
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9"/>
     </row>
-    <row r="36" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="14.55" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>337</v>
       </c>
@@ -4725,7 +4717,7 @@
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
     </row>
-    <row r="37" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="14.55" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
@@ -4810,7 +4802,7 @@
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
     </row>
-    <row r="38" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="14.55" customHeight="1">
       <c r="A38" s="30" t="s">
         <v>15</v>
       </c>
@@ -4894,7 +4886,7 @@
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
     </row>
-    <row r="39" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="14.55" customHeight="1">
       <c r="A39" s="31" t="s">
         <v>16</v>
       </c>
@@ -4977,7 +4969,7 @@
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
     </row>
-    <row r="40" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="14.55" customHeight="1">
       <c r="A40" s="30" t="s">
         <v>35</v>
       </c>
@@ -5061,7 +5053,7 @@
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
     </row>
-    <row r="41" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" ht="14.55" customHeight="1">
       <c r="A41" s="31" t="s">
         <v>36</v>
       </c>
@@ -5144,7 +5136,7 @@
       <c r="AJ41" s="9"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="14.55" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>37</v>
       </c>
@@ -5231,7 +5223,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" ht="14.55" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>125</v>
       </c>
@@ -5331,7 +5323,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" ht="14.55" customHeight="1">
       <c r="A44" s="30" t="s">
         <v>38</v>
       </c>
@@ -5422,7 +5414,7 @@
       </c>
       <c r="AK44" s="7"/>
     </row>
-    <row r="45" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" ht="14.55" customHeight="1">
       <c r="A45" s="31" t="s">
         <v>39</v>
       </c>
@@ -5513,7 +5505,7 @@
       </c>
       <c r="AK45" s="9"/>
     </row>
-    <row r="46" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" ht="14.55" customHeight="1">
       <c r="A46" s="30" t="s">
         <v>40</v>
       </c>
@@ -5602,7 +5594,7 @@
       </c>
       <c r="AK46" s="7"/>
     </row>
-    <row r="47" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" ht="14.55" customHeight="1">
       <c r="A47" s="31" t="s">
         <v>41</v>
       </c>
@@ -5691,7 +5683,7 @@
       </c>
       <c r="AK47" s="9"/>
     </row>
-    <row r="48" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" ht="14.55" customHeight="1">
       <c r="A48" s="30" t="s">
         <v>42</v>
       </c>
@@ -5780,7 +5772,7 @@
       </c>
       <c r="AK48" s="7"/>
     </row>
-    <row r="49" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" ht="14.55" customHeight="1">
       <c r="A49" s="33" t="s">
         <v>43</v>
       </c>
@@ -5823,7 +5815,7 @@
       <c r="AJ49" s="17"/>
       <c r="AK49" s="9"/>
     </row>
-    <row r="50" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="14.55" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -5866,7 +5858,7 @@
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
     </row>
-    <row r="51" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" ht="14.55" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5909,7 +5901,7 @@
       <c r="AJ51" s="9"/>
       <c r="AK51" s="9"/>
     </row>
-    <row r="52" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" ht="14.55" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
@@ -5952,7 +5944,7 @@
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
     </row>
-    <row r="53" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" ht="14.55" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>47</v>
       </c>
@@ -5995,7 +5987,7 @@
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
     </row>
-    <row r="54" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" ht="14.55" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
@@ -6038,7 +6030,7 @@
       <c r="AJ54" s="7"/>
       <c r="AK54" s="7"/>
     </row>
-    <row r="55" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" ht="14.55" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>49</v>
       </c>
@@ -6081,7 +6073,7 @@
       <c r="AJ55" s="9"/>
       <c r="AK55" s="9"/>
     </row>
-    <row r="56" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" ht="14.55" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
@@ -6124,7 +6116,7 @@
       <c r="AJ56" s="7"/>
       <c r="AK56" s="7"/>
     </row>
-    <row r="57" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" ht="14.55" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>51</v>
       </c>
@@ -6167,7 +6159,7 @@
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9"/>
     </row>
-    <row r="58" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" ht="14.55" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -6210,7 +6202,7 @@
       <c r="AJ58" s="7"/>
       <c r="AK58" s="7"/>
     </row>
-    <row r="59" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" ht="14.55" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>53</v>
       </c>
@@ -6253,7 +6245,7 @@
       <c r="AJ59" s="9"/>
       <c r="AK59" s="9"/>
     </row>
-    <row r="60" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" ht="14.55" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -6296,7 +6288,7 @@
       <c r="AJ60" s="7"/>
       <c r="AK60" s="7"/>
     </row>
-    <row r="61" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" ht="14.55" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>55</v>
       </c>
@@ -6339,7 +6331,7 @@
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
     </row>
-    <row r="62" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" ht="14.55" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -6382,7 +6374,7 @@
       <c r="AJ62" s="7"/>
       <c r="AK62" s="7"/>
     </row>
-    <row r="63" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" ht="14.55" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
@@ -6425,7 +6417,7 @@
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37">
       <c r="A64" s="6" t="s">
         <v>58</v>
       </c>
@@ -6468,7 +6460,7 @@
       <c r="AJ64" s="7"/>
       <c r="AK64" s="7"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -6511,7 +6503,7 @@
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37">
       <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
@@ -6554,7 +6546,7 @@
       <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37">
       <c r="A67" s="8" t="s">
         <v>61</v>
       </c>
@@ -6597,7 +6589,7 @@
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37">
       <c r="A68" s="6" t="s">
         <v>62</v>
       </c>
@@ -6640,7 +6632,7 @@
       <c r="AJ68" s="7"/>
       <c r="AK68" s="7"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37">
       <c r="A69" s="8" t="s">
         <v>63</v>
       </c>
@@ -6683,7 +6675,7 @@
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37">
       <c r="A70" s="6" t="s">
         <v>64</v>
       </c>
@@ -6726,7 +6718,7 @@
       <c r="AJ70" s="7"/>
       <c r="AK70" s="7"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37">
       <c r="A71" s="8" t="s">
         <v>65</v>
       </c>
@@ -6769,7 +6761,7 @@
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
@@ -6812,7 +6804,7 @@
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37">
       <c r="A73" s="8" t="s">
         <v>67</v>
       </c>
@@ -6855,7 +6847,7 @@
       <c r="AJ73" s="9"/>
       <c r="AK73" s="9"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37">
       <c r="A74" s="35" t="s">
         <v>68</v>
       </c>
@@ -6931,7 +6923,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6943,7 +6935,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6955,7 +6947,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6967,7 +6959,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6979,7 +6971,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6993,12 +6985,12 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -7012,7 +7004,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7029,7 +7021,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7040,7 +7032,7 @@
         <v>58.591498999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7051,7 +7043,7 @@
         <v>67.924413999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7062,7 +7054,7 @@
         <v>76.145567</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7080,7 +7072,7 @@
         <v>85.971186000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7098,7 +7090,7 @@
         <v>96.04539299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7116,7 +7108,7 @@
         <v>105.140455</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7134,7 +7126,7 @@
         <v>121.12909199999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -7146,13 +7138,13 @@
         <v>112.8</v>
       </c>
       <c r="D10" s="5">
-        <v>6046.8367309570312</v>
+        <v>6046.8367309570313</v>
       </c>
       <c r="E10" s="5">
         <v>125.57747800000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -7170,7 +7162,7 @@
         <v>99.382306999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -7188,7 +7180,7 @@
         <v>143.25536400000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -7206,7 +7198,7 @@
         <v>177.108566</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -7224,7 +7216,7 @@
         <v>183.31275300000004</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -7242,7 +7234,7 @@
         <v>172.04403400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -7260,7 +7252,7 @@
         <v>186.019372</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7278,7 +7270,7 @@
         <v>201.32204200000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -7296,7 +7288,7 @@
         <v>246.11897900000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -7314,7 +7306,7 @@
         <v>312.55251800000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7332,7 +7324,7 @@
         <v>361.04267200000004</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -7363,16 +7355,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -7389,7 +7381,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7409,7 +7401,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7430,7 +7422,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7451,7 +7443,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7472,7 +7464,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7493,7 +7485,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7514,7 +7506,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7535,7 +7527,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7556,7 +7548,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -7577,7 +7569,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -7598,7 +7590,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -7619,7 +7611,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -7640,7 +7632,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -7661,7 +7653,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -7682,7 +7674,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -7703,7 +7695,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7724,7 +7716,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -7745,7 +7737,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -7766,7 +7758,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7787,7 +7779,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -7823,16 +7815,16 @@
       <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -7852,7 +7844,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7872,7 +7864,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7898,7 +7890,7 @@
         <v>447.61374899999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7922,7 +7914,7 @@
         <v>424.685877</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7946,7 +7938,7 @@
         <v>470.54162100000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7970,7 +7962,7 @@
         <v>767.02960299999995</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7994,7 +7986,7 @@
         <v>674.22585800000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -8018,7 +8010,7 @@
         <v>671.66403600000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -8043,7 +8035,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -8070,7 +8062,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -8098,7 +8090,7 @@
       <c r="L11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -8126,7 +8118,7 @@
       <c r="L12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -8154,7 +8146,7 @@
       <c r="L13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -8183,7 +8175,7 @@
       <c r="L14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -8211,7 +8203,7 @@
       <c r="L15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -8239,7 +8231,7 @@
       <c r="L16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -8267,7 +8259,7 @@
       <c r="L17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -8295,7 +8287,7 @@
       <c r="L18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -8323,7 +8315,7 @@
       <c r="L19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -8351,7 +8343,7 @@
       <c r="L20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -8378,19 +8370,19 @@
       <c r="J21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="H26" s="2"/>
     </row>
   </sheetData>
@@ -8409,16 +8401,16 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
         <v>190</v>
       </c>
@@ -8444,7 +8436,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -8463,7 +8455,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -8472,7 +8464,7 @@
         <v>2.6211738386810759</v>
       </c>
       <c r="C3">
-        <v>384.62169599999999</v>
+        <v>13567145.704704</v>
       </c>
       <c r="D3">
         <v>2.56</v>
@@ -8484,7 +8476,7 @@
         <v>11873993.704704</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -8493,7 +8485,7 @@
         <v>2.6109348783737278</v>
       </c>
       <c r="C4" s="42">
-        <v>432.68009999999998</v>
+        <v>15262357.847399998</v>
       </c>
       <c r="D4">
         <v>2.5499999999999998</v>
@@ -8505,7 +8497,7 @@
         <v>13567145.704704</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -8513,7 +8505,7 @@
         <v>2.6006959180663798</v>
       </c>
       <c r="C5" s="42">
-        <v>496.37599999999998</v>
+        <v>17509167.024</v>
       </c>
       <c r="D5">
         <v>2.54</v>
@@ -8525,7 +8517,7 @@
         <v>15252034.346915999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -8533,7 +8525,7 @@
         <v>3.0508626846620399</v>
       </c>
       <c r="C6" s="42">
-        <v>543.46299999999997</v>
+        <v>19170113.862</v>
       </c>
       <c r="D6">
         <v>2.42</v>
@@ -8545,7 +8537,7 @@
         <v>15749019.786006</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -8553,7 +8545,7 @@
         <v>3.1113771591266901</v>
       </c>
       <c r="C7" s="42">
-        <v>571.63080000000002</v>
+        <v>20163704.839200001</v>
       </c>
       <c r="D7">
         <v>2.48</v>
@@ -8565,7 +8557,7 @@
         <v>15122391.179784</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -8573,7 +8565,7 @@
         <v>3.09207937561865</v>
       </c>
       <c r="C8" s="42">
-        <v>752.69680000000005</v>
+        <v>26550626.9232</v>
       </c>
       <c r="D8">
         <v>2.37</v>
@@ -8585,7 +8577,7 @@
         <v>20608702.998528</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -8593,7 +8585,7 @@
         <v>3.1150351404490899</v>
       </c>
       <c r="C9" s="42">
-        <v>842.58109999999999</v>
+        <v>29721205.7214</v>
       </c>
       <c r="D9">
         <v>2.35</v>
@@ -8605,7 +8597,7 @@
         <v>23289317.400419999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="18">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -8613,7 +8605,7 @@
         <v>3.7342289806146298</v>
       </c>
       <c r="C10" s="42">
-        <v>1017.696</v>
+        <v>35898208.704000004</v>
       </c>
       <c r="D10">
         <v>2.2799999999999998</v>
@@ -8626,7 +8618,7 @@
         <v>26830921.217274003</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="18">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -8634,7 +8626,7 @@
         <v>3.6116350854505699</v>
       </c>
       <c r="C11" s="42">
-        <v>1136.8019999999999</v>
+        <v>40099553.747999996</v>
       </c>
       <c r="D11">
         <v>2.46</v>
@@ -8647,7 +8639,7 @@
         <v>35094737.355630003</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="18">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -8655,7 +8647,7 @@
         <v>4.1711999999999998</v>
       </c>
       <c r="C12" s="42">
-        <v>1410.712</v>
+        <v>49761455.088</v>
       </c>
       <c r="D12">
         <v>2.7545000000000002</v>
@@ -8668,7 +8660,7 @@
         <v>42975239.260650001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="18">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -8676,7 +8668,7 @@
         <v>4.7247000000000003</v>
       </c>
       <c r="C13" s="42">
-        <v>1755.4659999999999</v>
+        <v>61922307.683999993</v>
       </c>
       <c r="D13">
         <v>2.8769</v>
@@ -8689,7 +8681,7 @@
         <v>53778977.547102004</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="18">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -8697,7 +8689,7 @@
         <v>4.6726999999999999</v>
       </c>
       <c r="C14" s="42">
-        <v>1824.9770000000001</v>
+        <v>64374238.698000006</v>
       </c>
       <c r="D14">
         <v>2.9571999999999998</v>
@@ -8710,7 +8702,7 @@
         <v>56518569.477336004</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="18">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -8718,7 +8710,7 @@
         <v>4.5137</v>
       </c>
       <c r="C15" s="42">
-        <v>1520.327</v>
+        <v>53628014.597999997</v>
       </c>
       <c r="D15">
         <v>3.1667999999999998</v>
@@ -8731,7 +8723,7 @@
         <v>45537007.619892001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="18">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -8739,7 +8731,7 @@
         <v>4.4260999999999999</v>
       </c>
       <c r="C16" s="42">
-        <v>1343.3530000000001</v>
+        <v>47385433.722000003</v>
       </c>
       <c r="D16">
         <v>3.2705000000000002</v>
@@ -8752,7 +8744,7 @@
         <v>39909789.610542007</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="18">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -8760,7 +8752,7 @@
         <v>4.3685</v>
       </c>
       <c r="C17" s="42">
-        <v>1227.7149999999999</v>
+        <v>43306418.909999996</v>
       </c>
       <c r="D17">
         <v>3.3662999999999998</v>
@@ -8773,7 +8765,7 @@
         <v>40209714.238356002</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="18">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -8781,7 +8773,7 @@
         <v>4.3914</v>
       </c>
       <c r="C18" s="42">
-        <v>1307.6379999999999</v>
+        <v>46125622.811999999</v>
       </c>
       <c r="D18">
         <v>3.5173000000000001</v>
@@ -8794,7 +8786,7 @@
         <v>43624963.306727998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="18">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -8802,7 +8794,7 @@
         <v>4.2782999999999998</v>
       </c>
       <c r="C19" s="42">
-        <v>1288.577</v>
+        <v>45453265.097999997</v>
       </c>
       <c r="D19">
         <v>3.5678000000000001</v>
@@ -8815,7 +8807,7 @@
         <v>42306183.016679995</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="18">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -8823,7 +8815,7 @@
         <v>4.4542999999999999</v>
       </c>
       <c r="C20" s="42">
-        <v>1272.7950000000001</v>
+        <v>44896570.830000006</v>
       </c>
       <c r="D20">
         <v>3.6536</v>
@@ -8836,7 +8828,7 @@
         <v>40434691.598711997</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="18">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -8844,8 +8836,7 @@
         <v>4.3593999999999999</v>
       </c>
       <c r="C21">
-        <f>C20+(C20*0.18)</f>
-        <v>1501.8981000000001</v>
+        <v>52977953.579400003</v>
       </c>
       <c r="D21">
         <v>3.5962000000000001</v>
@@ -8859,16 +8850,16 @@
         <v>47712936.086480156</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="18">
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="18">
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="18">
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="18">
       <c r="H25" s="41"/>
     </row>
   </sheetData>
@@ -8884,9 +8875,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -8902,7 +8893,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8916,9 +8907,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -8934,7 +8925,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8946,7 +8937,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelenaorourke/Documents/GitHub/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07B0BEB-B33E-F644-8F6C-195F13CCC193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9661CA26-5B3F-3D4C-96E9-7E1F02622925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
@@ -8409,7 +8409,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8472,7 +8472,8 @@
         <v>2.6211738386810759</v>
       </c>
       <c r="C3">
-        <v>384.62169599999999</v>
+        <f>M3*35273</f>
+        <v>13566761.083007999</v>
       </c>
       <c r="D3">
         <v>2.56</v>
@@ -8492,8 +8493,9 @@
         <f>B5*D4/D5</f>
         <v>2.6109348783737278</v>
       </c>
-      <c r="C4" s="42">
-        <v>432.68009999999998</v>
+      <c r="C4">
+        <f t="shared" ref="C4:C21" si="0">M4*35273</f>
+        <v>15261925.167299999</v>
       </c>
       <c r="D4">
         <v>2.5499999999999998</v>
@@ -8512,8 +8514,9 @@
       <c r="B5">
         <v>2.6006959180663798</v>
       </c>
-      <c r="C5" s="42">
-        <v>496.37599999999998</v>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>17508670.647999998</v>
       </c>
       <c r="D5">
         <v>2.54</v>
@@ -8532,8 +8535,9 @@
       <c r="B6">
         <v>3.0508626846620399</v>
       </c>
-      <c r="C6" s="42">
-        <v>543.46299999999997</v>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>19169570.399</v>
       </c>
       <c r="D6">
         <v>2.42</v>
@@ -8552,8 +8556,9 @@
       <c r="B7">
         <v>3.1113771591266901</v>
       </c>
-      <c r="C7" s="42">
-        <v>571.63080000000002</v>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>20163133.2084</v>
       </c>
       <c r="D7">
         <v>2.48</v>
@@ -8572,8 +8577,9 @@
       <c r="B8">
         <v>3.09207937561865</v>
       </c>
-      <c r="C8" s="42">
-        <v>752.69680000000005</v>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>26549874.226400003</v>
       </c>
       <c r="D8">
         <v>2.37</v>
@@ -8592,8 +8598,9 @@
       <c r="B9">
         <v>3.1150351404490899</v>
       </c>
-      <c r="C9" s="42">
-        <v>842.58109999999999</v>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>29720363.140299998</v>
       </c>
       <c r="D9">
         <v>2.35</v>
@@ -8612,8 +8619,9 @@
       <c r="B10">
         <v>3.7342289806146298</v>
       </c>
-      <c r="C10" s="42">
-        <v>1017.696</v>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>35897191.008000001</v>
       </c>
       <c r="D10">
         <v>2.2799999999999998</v>
@@ -8633,8 +8641,9 @@
       <c r="B11">
         <v>3.6116350854505699</v>
       </c>
-      <c r="C11" s="42">
-        <v>1136.8019999999999</v>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>40098416.945999995</v>
       </c>
       <c r="D11">
         <v>2.46</v>
@@ -8654,8 +8663,9 @@
       <c r="B12">
         <v>4.1711999999999998</v>
       </c>
-      <c r="C12" s="42">
-        <v>1410.712</v>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>49760044.376000002</v>
       </c>
       <c r="D12">
         <v>2.7545000000000002</v>
@@ -8675,8 +8685,9 @@
       <c r="B13">
         <v>4.7247000000000003</v>
       </c>
-      <c r="C13" s="42">
-        <v>1755.4659999999999</v>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>61920552.217999995</v>
       </c>
       <c r="D13">
         <v>2.8769</v>
@@ -8696,8 +8707,9 @@
       <c r="B14">
         <v>4.6726999999999999</v>
       </c>
-      <c r="C14" s="42">
-        <v>1824.9770000000001</v>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>64372413.721000001</v>
       </c>
       <c r="D14">
         <v>2.9571999999999998</v>
@@ -8717,8 +8729,9 @@
       <c r="B15">
         <v>4.5137</v>
       </c>
-      <c r="C15" s="42">
-        <v>1520.327</v>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>53626494.270999998</v>
       </c>
       <c r="D15">
         <v>3.1667999999999998</v>
@@ -8738,8 +8751,9 @@
       <c r="B16">
         <v>4.4260999999999999</v>
       </c>
-      <c r="C16" s="42">
-        <v>1343.3530000000001</v>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>47384090.369000003</v>
       </c>
       <c r="D16">
         <v>3.2705000000000002</v>
@@ -8759,8 +8773,9 @@
       <c r="B17">
         <v>4.3685</v>
       </c>
-      <c r="C17" s="42">
-        <v>1227.7149999999999</v>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>43305191.195</v>
       </c>
       <c r="D17">
         <v>3.3662999999999998</v>
@@ -8780,8 +8795,9 @@
       <c r="B18">
         <v>4.3914</v>
       </c>
-      <c r="C18" s="42">
-        <v>1307.6379999999999</v>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>46124315.173999995</v>
       </c>
       <c r="D18">
         <v>3.5173000000000001</v>
@@ -8801,8 +8817,9 @@
       <c r="B19">
         <v>4.2782999999999998</v>
       </c>
-      <c r="C19" s="42">
-        <v>1288.577</v>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>45451976.520999998</v>
       </c>
       <c r="D19">
         <v>3.5678000000000001</v>
@@ -8822,8 +8839,9 @@
       <c r="B20">
         <v>4.4542999999999999</v>
       </c>
-      <c r="C20" s="42">
-        <v>1272.7950000000001</v>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>44895298.035000004</v>
       </c>
       <c r="D20">
         <v>3.6536</v>
@@ -8844,8 +8862,8 @@
         <v>4.3593999999999999</v>
       </c>
       <c r="C21">
-        <f>C20+(C20*0.18)</f>
-        <v>1501.8981000000001</v>
+        <f t="shared" si="0"/>
+        <v>52976451.681300007</v>
       </c>
       <c r="D21">
         <v>3.5962000000000001</v>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/MIT/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6AFD7E-4A30-6941-9A38-D7BF791A9CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9536BE-3C16-C849-A55B-3BF010956E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="15" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -1763,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
@@ -7092,8 +7092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEAF772-8B76-4702-B768-A08EDD9553AC}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7180,7 +7180,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="5">
-        <v>1991.2932632688505</v>
+        <v>2096.3778424944198</v>
       </c>
       <c r="E5" s="5">
         <v>76.145567</v>
@@ -7198,7 +7198,7 @@
         <v>78.5</v>
       </c>
       <c r="D6" s="5">
-        <v>2130.5714445568283</v>
+        <v>2375.8771057128938</v>
       </c>
       <c r="E6" s="5">
         <v>85.971186000000003</v>
@@ -7216,7 +7216,7 @@
         <v>90</v>
       </c>
       <c r="D7" s="5">
-        <v>2576.0997674851205</v>
+        <v>3256.0443542480489</v>
       </c>
       <c r="E7" s="5">
         <v>96.04539299999999</v>
@@ -7234,7 +7234,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="5">
-        <v>3306.6348225911474</v>
+        <v>4287.9830078124996</v>
       </c>
       <c r="E8" s="5">
         <v>105.140455</v>
@@ -7252,7 +7252,7 @@
         <v>86.6</v>
       </c>
       <c r="D9" s="5">
-        <v>4518.171704779732</v>
+        <v>6010.4877522786455</v>
       </c>
       <c r="E9" s="5">
         <v>121.12909199999999</v>
@@ -7270,7 +7270,7 @@
         <v>112.8</v>
       </c>
       <c r="D10" s="5">
-        <v>5448.4358303493918</v>
+        <v>6046.8367309570312</v>
       </c>
       <c r="E10" s="5">
         <v>125.57747800000001</v>
@@ -7288,7 +7288,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="5">
-        <v>5836.5876939561631</v>
+        <v>5452.4385986328125</v>
       </c>
       <c r="E11" s="5">
         <v>99.382306999999997</v>
@@ -7306,7 +7306,7 @@
         <v>125</v>
       </c>
       <c r="D12" s="5">
-        <v>5492.9231442182499</v>
+        <v>4979.4941030649043</v>
       </c>
       <c r="E12" s="5">
         <v>143.25536400000001</v>
@@ -7324,7 +7324,7 @@
         <v>122.429</v>
       </c>
       <c r="D13" s="5">
-        <v>5126.7217704577333</v>
+        <v>4948.2326096754823</v>
       </c>
       <c r="E13" s="5">
         <v>177.108566</v>
@@ -7342,7 +7342,7 @@
         <v>150.1086</v>
       </c>
       <c r="D14" s="5">
-        <v>5053.8357492523764</v>
+        <v>5233.7805350167409</v>
       </c>
       <c r="E14" s="5">
         <v>183.31275300000004</v>
@@ -7360,7 +7360,7 @@
         <v>159.69</v>
       </c>
       <c r="D15" s="5">
-        <v>5240.9247684688362</v>
+        <v>5540.7611607142853</v>
       </c>
       <c r="E15" s="5">
         <v>172.04403400000001</v>
@@ -7378,7 +7378,7 @@
         <v>165</v>
       </c>
       <c r="D16" s="5">
-        <v>5462.1717994326636</v>
+        <v>5611.9737025669647</v>
       </c>
       <c r="E16" s="5">
         <v>186.019372</v>
@@ -7396,7 +7396,7 @@
         <v>194</v>
       </c>
       <c r="D17" s="5">
-        <v>5728.4510850694451</v>
+        <v>6032.6183919270834</v>
       </c>
       <c r="E17" s="5">
         <v>201.32204200000001</v>
@@ -7414,7 +7414,7 @@
         <v>195.35410000000002</v>
       </c>
       <c r="D18" s="5">
-        <v>7515.9921022445442</v>
+        <v>10903.384212239584</v>
       </c>
       <c r="E18" s="5">
         <v>246.11897900000002</v>
@@ -7432,7 +7432,7 @@
         <v>211.32310000000004</v>
       </c>
       <c r="D19" s="5">
-        <v>10531.047970920139</v>
+        <v>14657.141308593749</v>
       </c>
       <c r="E19" s="5">
         <v>312.55251800000002</v>
@@ -7450,7 +7450,7 @@
         <v>253.37480000000002</v>
       </c>
       <c r="D20" s="5">
-        <v>13782.472873263891</v>
+        <v>15786.893098958333</v>
       </c>
       <c r="E20" s="5">
         <v>361.04267200000004</v>
@@ -7468,7 +7468,7 @@
         <v>298.08800000000002</v>
       </c>
       <c r="D21" s="5">
-        <v>13854.956720648872</v>
+        <v>11120.835754394531</v>
       </c>
       <c r="E21" s="5">
         <v>439.40106200000008</v>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelenaorourke/Documents/GitHub/generalization/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9661CA26-5B3F-3D4C-96E9-7E1F02622925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C1C112-8609-8940-B412-01A9C7918C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -70,7 +70,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -80,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="357">
   <si>
     <t>Al</t>
   </si>
@@ -1710,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8409,7 +8411,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8437,6 +8439,9 @@
       <c r="G1" t="s">
         <v>207</v>
       </c>
+      <c r="L1" t="s">
+        <v>194</v>
+      </c>
       <c r="M1" t="s">
         <v>194</v>
       </c>
@@ -8458,6 +8463,9 @@
         <v>209</v>
       </c>
       <c r="F2" s="1"/>
+      <c r="L2" t="s">
+        <v>355</v>
+      </c>
       <c r="M2" s="42"/>
       <c r="Q2" t="s">
         <v>355</v>
@@ -8472,11 +8480,13 @@
         <v>2.6211738386810759</v>
       </c>
       <c r="C3">
-        <f>M3*35273</f>
-        <v>13566761.083007999</v>
+        <v>32158607.714417279</v>
       </c>
       <c r="D3">
         <v>2.56</v>
+      </c>
+      <c r="L3">
+        <v>13566761.083007999</v>
       </c>
       <c r="M3">
         <v>384.62169599999999</v>
@@ -8494,11 +8504,13 @@
         <v>2.6109348783737278</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C21" si="0">M4*35273</f>
-        <v>15261925.167299999</v>
+        <v>34756129.686718091</v>
       </c>
       <c r="D4">
         <v>2.5499999999999998</v>
+      </c>
+      <c r="L4">
+        <v>15261925.167299999</v>
       </c>
       <c r="M4" s="42">
         <v>432.68009999999998</v>
@@ -8515,11 +8527,13 @@
         <v>2.6006959180663798</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>17508670.647999998</v>
+        <v>38240248.805773944</v>
       </c>
       <c r="D5">
         <v>2.54</v>
+      </c>
+      <c r="L5">
+        <v>17508670.647999998</v>
       </c>
       <c r="M5" s="42">
         <v>496.37599999999998</v>
@@ -8536,11 +8550,13 @@
         <v>3.0508626846620399</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>19169570.399</v>
+        <v>33392445.494627818</v>
       </c>
       <c r="D6">
         <v>2.42</v>
+      </c>
+      <c r="L6">
+        <v>19169570.399</v>
       </c>
       <c r="M6" s="42">
         <v>543.46299999999997</v>
@@ -8557,11 +8573,13 @@
         <v>3.1113771591266901</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>20163133.2084</v>
+        <v>33248775.81758856</v>
       </c>
       <c r="D7">
         <v>2.48</v>
+      </c>
+      <c r="L7">
+        <v>20163133.2084</v>
       </c>
       <c r="M7" s="42">
         <v>571.63080000000002</v>
@@ -8578,11 +8596,13 @@
         <v>3.09207937561865</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>26549874.226400003</v>
+        <v>30743276.91313928</v>
       </c>
       <c r="D8">
         <v>2.37</v>
+      </c>
+      <c r="L8">
+        <v>26549874.226400003</v>
       </c>
       <c r="M8" s="42">
         <v>752.69680000000005</v>
@@ -8599,11 +8619,13 @@
         <v>3.1150351404490899</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>29720363.140299998</v>
+        <v>30864252.603043139</v>
       </c>
       <c r="D9">
         <v>2.35</v>
+      </c>
+      <c r="L9">
+        <v>29720363.140299998</v>
       </c>
       <c r="M9" s="42">
         <v>842.58109999999999</v>
@@ -8620,13 +8642,15 @@
         <v>3.7342289806146298</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>35897191.008000001</v>
+        <v>35319609.12352629</v>
       </c>
       <c r="D10">
         <v>2.2799999999999998</v>
       </c>
       <c r="H10" s="41"/>
+      <c r="L10">
+        <v>35897191.008000001</v>
+      </c>
       <c r="M10" s="42">
         <v>1017.696</v>
       </c>
@@ -8642,13 +8666,15 @@
         <v>3.6116350854505699</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>40098416.945999995</v>
+        <v>38898966.518224157</v>
       </c>
       <c r="D11">
         <v>2.46</v>
       </c>
       <c r="H11" s="41"/>
+      <c r="L11">
+        <v>40098416.945999995</v>
+      </c>
       <c r="M11" s="42">
         <v>1136.8019999999999</v>
       </c>
@@ -8664,13 +8690,15 @@
         <v>4.1711999999999998</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>49760044.376000002</v>
+        <v>37588090.75913588</v>
       </c>
       <c r="D12">
         <v>2.7545000000000002</v>
       </c>
       <c r="H12" s="41"/>
+      <c r="L12">
+        <v>49760044.376000002</v>
+      </c>
       <c r="M12" s="42">
         <v>1410.712</v>
       </c>
@@ -8686,13 +8714,15 @@
         <v>4.7247000000000003</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>61920552.217999995</v>
+        <v>30235459.474326681</v>
       </c>
       <c r="D13">
         <v>2.8769</v>
       </c>
       <c r="H13" s="41"/>
+      <c r="L13">
+        <v>61920552.217999995</v>
+      </c>
       <c r="M13" s="42">
         <v>1755.4659999999999</v>
       </c>
@@ -8708,13 +8738,15 @@
         <v>4.6726999999999999</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>64372413.721000001</v>
+        <v>34760511.443366013</v>
       </c>
       <c r="D14">
         <v>2.9571999999999998</v>
       </c>
       <c r="H14" s="41"/>
+      <c r="L14">
+        <v>64372413.721000001</v>
+      </c>
       <c r="M14" s="42">
         <v>1824.9770000000001</v>
       </c>
@@ -8730,13 +8762,15 @@
         <v>4.5137</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>53626494.270999998</v>
+        <v>36919530.56733261</v>
       </c>
       <c r="D15">
         <v>3.1667999999999998</v>
       </c>
       <c r="H15" s="41"/>
+      <c r="L15">
+        <v>53626494.270999998</v>
+      </c>
       <c r="M15" s="42">
         <v>1520.327</v>
       </c>
@@ -8752,13 +8786,15 @@
         <v>4.4260999999999999</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>47384090.369000003</v>
+        <v>39607390.179120421</v>
       </c>
       <c r="D16">
         <v>3.2705000000000002</v>
       </c>
       <c r="H16" s="41"/>
+      <c r="L16">
+        <v>47384090.369000003</v>
+      </c>
       <c r="M16" s="42">
         <v>1343.3530000000001</v>
       </c>
@@ -8774,13 +8810,15 @@
         <v>4.3685</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>43305191.195</v>
+        <v>42508448.15397431</v>
       </c>
       <c r="D17">
         <v>3.3662999999999998</v>
       </c>
       <c r="H17" s="41"/>
+      <c r="L17">
+        <v>43305191.195</v>
+      </c>
       <c r="M17" s="42">
         <v>1227.7149999999999</v>
       </c>
@@ -8796,13 +8834,15 @@
         <v>4.3914</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>46124315.173999995</v>
+        <v>42548544.823638499</v>
       </c>
       <c r="D18">
         <v>3.5173000000000001</v>
       </c>
       <c r="H18" s="41"/>
+      <c r="L18">
+        <v>46124315.173999995</v>
+      </c>
       <c r="M18" s="42">
         <v>1307.6379999999999</v>
       </c>
@@ -8818,13 +8858,15 @@
         <v>4.2782999999999998</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>45451976.520999998</v>
+        <v>42679109.372038342</v>
       </c>
       <c r="D19">
         <v>3.5678000000000001</v>
       </c>
       <c r="H19" s="41"/>
+      <c r="L19">
+        <v>45451976.520999998</v>
+      </c>
       <c r="M19" s="42">
         <v>1288.577</v>
       </c>
@@ -8840,13 +8882,15 @@
         <v>4.4542999999999999</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>44895298.035000004</v>
+        <v>45655005.588163659</v>
       </c>
       <c r="D20">
         <v>3.6536</v>
       </c>
       <c r="H20" s="41"/>
+      <c r="L20">
+        <v>44895298.035000004</v>
+      </c>
       <c r="M20" s="42">
         <v>1272.7950000000001</v>
       </c>
@@ -8862,13 +8906,16 @@
         <v>4.3593999999999999</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C21" si="0">M21*35273</f>
         <v>52976451.681300007</v>
       </c>
       <c r="D21">
         <v>3.5962000000000001</v>
       </c>
       <c r="H21" s="41"/>
+      <c r="L21">
+        <v>52976451.681300007</v>
+      </c>
       <c r="M21">
         <f>M20+(M20*0.18)</f>
         <v>1501.8981000000001</v>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C1C112-8609-8940-B412-01A9C7918C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77355F4E-6450-4B46-864E-7949541317E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="361">
   <si>
     <t>Al</t>
   </si>
@@ -540,9 +540,6 @@
     <t>Sn, self</t>
   </si>
   <si>
-    <t>Based on 400t production in 1900 from this paper (https://www.sciencedirect.com/science/article/pii/0301420782900253) and 4870 t production in 2019 below</t>
-  </si>
-  <si>
     <t>World Gold Council https://www.gold.org/goldhub/data/gold-production-by-country</t>
   </si>
   <si>
@@ -585,9 +582,6 @@
     <t>Our model, mod.demand_sectors.groupby(level=1,axis=1).sum().loc[2019]/mod.demand_sectors.sum(axis=1).loc[2019]</t>
   </si>
   <si>
-    <t>Our model, (np.log(mod.minemod.ml.loc[2019]['Head grade (%)']).var())</t>
-  </si>
-  <si>
     <t>Our model, (np.log(mod.minemod.ml.loc[2019]['Production (Mt)']*1000).var())</t>
   </si>
   <si>
@@ -717,9 +711,6 @@
     <t>World gold council for 2010-2019: https://www.gold.org/goldhub/data/gold-demand-by-country, remainder from USGS minerals yearbooks</t>
   </si>
   <si>
-    <t>World gold council for 2010-2019: https://www.gold.org/goldhub/data/gold-demand-by-country, Seeking Alpha 2003-2009: https://seekingalpha.com/article/1461891-is-it-time-to-buy-gold. Assumed 2001-2002 followed the same trend as primary supply</t>
-  </si>
-  <si>
     <t>Assuming no recycling</t>
   </si>
   <si>
@@ -1156,6 +1147,27 @@
   </si>
   <si>
     <t>Primary commodity price old</t>
+  </si>
+  <si>
+    <t>World gold council for 2010-2019: https://www.gold.org/goldhub/data/gold-demand-by-country, remainder using the BCG Recycled Content plot (exhibit 2, https://www.gold.org/goldhub/research/ups-and-downs-gold-recycling) to calculate total and secondary production from primary supply</t>
+  </si>
+  <si>
+    <t>World gold council for 2010-2019: https://www.gold.org/goldhub/data/gold-demand-by-country, Seeking Alpha 2003-2009: https://seekingalpha.com/article/1461891-is-it-time-to-buy-gold. Assumed 2001-2002 followed the same trend as primary supply. 2006-2015 validated by https://www.spdrgoldshares.com/media/GLD/file/GDT_Q1_2016.pdf (this one is on google scholar as Gold Demand Trends, Street 2016), table 10 in https://www.spdrgoldshares.com/media/GLD/file/GDT_Q1_2010.pdf, table 9 in https://www.spdrgoldshares.com/media/GLD/file/GDT_Q1_2012.pdf; for early years, taking the largest value I can find since it appears from price changes that demand exceeds supply</t>
+  </si>
+  <si>
+    <t>Actual demand</t>
+  </si>
+  <si>
+    <t>Other one is doing 5-yr rolling mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on 400t production in 1900 from this paper (https://www.sciencedirect.com/science/article/pii/0301420782900253) and 4870 t production in 2019 below (0.021225); took the mean of that and the value using 2001-2019 demand in the Au sheet (0.01344), giving </t>
+  </si>
+  <si>
+    <t>Our model, (np.log(mod.minemod.ml.loc[2019]['Head grade (%)']).var()) = 0.0177, trying with higher value due to no opening happening</t>
+  </si>
+  <si>
+    <t>CHECK THAT ALL THESE ARE USING STD DEV NOT VARIANCE</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1178,7 @@
     <numFmt numFmtId="164" formatCode="\Te"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,6 +1254,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1285,7 +1302,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1357,6 +1374,7 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1712,16 +1730,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="38" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="38" customFormat="1" ht="34" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>96</v>
       </c>
@@ -1771,7 +1789,7 @@
         <v>94</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="R1" s="38" t="s">
         <v>95</v>
@@ -1831,10 +1849,10 @@
         <v>109</v>
       </c>
       <c r="AK1" s="38" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="14.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1903,7 +1921,7 @@
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
     </row>
-    <row r="3" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="14.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1922,7 +1940,7 @@
         <v>97.8</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I3" s="8">
         <v>2.4049999999999998</v>
@@ -1961,7 +1979,7 @@
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V3" s="9" t="s">
         <v>134</v>
@@ -1970,37 +1988,37 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG3" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="AE3" s="21" t="s">
+      <c r="AH3" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AI3" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="14.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -2010,11 +2028,11 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J4" s="6">
         <v>2.5399999999999999E-2</v>
@@ -2053,7 +2071,7 @@
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="14.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2082,7 @@
         <v>3.3765999999999997E-2</v>
       </c>
       <c r="D5" s="8">
-        <v>2.1225000000000001E-2</v>
+        <v>1.7332E-2</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -2109,46 +2127,46 @@
         <v>21</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>133</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="14.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2202,48 +2220,48 @@
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>132</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AC6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG6" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AH6" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="14.5" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -2299,7 +2317,7 @@
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V7" s="9" t="s">
         <v>132</v>
@@ -2310,41 +2328,41 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AC7" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD7" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG7" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="AE7" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG7" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="AH7" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="14.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2400,7 +2418,7 @@
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>132</v>
@@ -2411,37 +2429,37 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="14.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2497,7 +2515,7 @@
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>132</v>
@@ -2508,37 +2526,37 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD9" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG9" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="AE9" s="9" t="s">
+      <c r="AH9" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="AF9" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG9" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH9" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
     </row>
-    <row r="10" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="14.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2597,7 +2615,7 @@
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>132</v>
@@ -2608,35 +2626,35 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AC10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AF10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="14.5" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -2688,7 +2706,7 @@
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>132</v>
@@ -2701,29 +2719,29 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AC11" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH11" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="AF11" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG11" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH11" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
     </row>
-    <row r="12" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="14.5" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>97</v>
       </c>
@@ -2785,44 +2803,44 @@
         <v>130</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AD12" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG12" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AE12" s="7" t="s">
+      <c r="AH12" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="AF12" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG12" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="AI12" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="14.5" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
@@ -2884,7 +2902,7 @@
         <v>130</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -2895,23 +2913,23 @@
         <v>107</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="14.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>99</v>
       </c>
@@ -2973,7 +2991,7 @@
         <v>130</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -2991,10 +3009,10 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="14.5" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -3073,7 +3091,7 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
     </row>
-    <row r="16" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="14.5" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>101</v>
       </c>
@@ -3151,10 +3169,10 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" ht="14.5" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>102</v>
       </c>
@@ -3216,42 +3234,42 @@
         <v>130</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AB17" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AC17" s="9" t="s">
         <v>107</v>
       </c>
       <c r="AD17" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG17" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="AE17" s="9" t="s">
+      <c r="AH17" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="AF17" s="9" t="s">
+      <c r="AI17" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="AG17" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="AH17" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI17" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
     </row>
-    <row r="18" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="14.5" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>103</v>
       </c>
@@ -3313,44 +3331,44 @@
         <v>130</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AC18" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AD18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="AE18" s="7" t="s">
+      <c r="AH18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="AF18" s="7" t="s">
+      <c r="AI18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="AG18" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH18" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI18" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
     </row>
-    <row r="19" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="14.5" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>104</v>
       </c>
@@ -3412,7 +3430,7 @@
         <v>130</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -3423,27 +3441,27 @@
         <v>107</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AE19" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG19" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH19" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="AF19" s="9" t="s">
+      <c r="AI19" s="24" t="s">
         <v>307</v>
-      </c>
-      <c r="AG19" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="AH19" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI19" s="24" t="s">
-        <v>310</v>
       </c>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
     </row>
-    <row r="20" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="14.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>105</v>
       </c>
@@ -3491,12 +3509,12 @@
         <v>130</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
@@ -3504,10 +3522,10 @@
         <v>107</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
@@ -3516,7 +3534,7 @@
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
     </row>
-    <row r="21" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="14.5" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -3576,13 +3594,13 @@
         <v>130</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9" t="s">
@@ -3591,21 +3609,21 @@
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG21" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH21" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI21" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="AG21" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="AH21" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI21" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
     </row>
-    <row r="22" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="14.5" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>135</v>
       </c>
@@ -3643,11 +3661,11 @@
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
@@ -3655,7 +3673,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
@@ -3666,7 +3684,7 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="6"/>
     </row>
-    <row r="23" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="14.5" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>136</v>
       </c>
@@ -3704,11 +3722,11 @@
       </c>
       <c r="T23" s="9"/>
       <c r="U23" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V23" s="9"/>
       <c r="W23" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
@@ -3716,7 +3734,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
@@ -3727,7 +3745,7 @@
       <c r="AJ23" s="9"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="14.5" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>137</v>
       </c>
@@ -3765,11 +3783,11 @@
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
@@ -3777,7 +3795,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
@@ -3788,7 +3806,7 @@
       <c r="AJ24" s="7"/>
       <c r="AK24" s="6"/>
     </row>
-    <row r="25" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="14.5" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>138</v>
       </c>
@@ -3826,11 +3844,11 @@
       </c>
       <c r="T25" s="9"/>
       <c r="U25" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
@@ -3838,7 +3856,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
@@ -3849,7 +3867,7 @@
       <c r="AJ25" s="9"/>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="14.5" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>139</v>
       </c>
@@ -3885,11 +3903,11 @@
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -3897,7 +3915,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
@@ -3908,7 +3926,7 @@
       <c r="AJ26" s="7"/>
       <c r="AK26" s="6"/>
     </row>
-    <row r="27" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="14.5" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>70</v>
       </c>
@@ -3964,7 +3982,7 @@
         <v>71</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V27" s="9" t="s">
         <v>129</v>
@@ -3975,11 +3993,11 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AC27" s="9" t="s">
         <v>77</v>
@@ -3989,13 +4007,13 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
     </row>
-    <row r="28" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="14.5" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>69</v>
       </c>
@@ -4049,7 +4067,7 @@
       </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>128</v>
@@ -4060,31 +4078,31 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AC28" s="7" t="s">
         <v>77</v>
       </c>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AF28" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
     </row>
-    <row r="29" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="14.5" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -4163,7 +4181,7 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
     </row>
-    <row r="30" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="14.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
@@ -4215,18 +4233,18 @@
       </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>132</v>
       </c>
       <c r="W30" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -4234,19 +4252,19 @@
         <v>77</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
     </row>
-    <row r="31" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="14.5" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
@@ -4323,7 +4341,7 @@
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9"/>
     </row>
-    <row r="32" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="14.5" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -4396,13 +4414,13 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
     </row>
-    <row r="33" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="14.5" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>73</v>
       </c>
@@ -4463,27 +4481,27 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AC33" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="14.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -4548,11 +4566,11 @@
         <v>77</v>
       </c>
       <c r="AD34" s="23" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
@@ -4560,7 +4578,7 @@
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
     </row>
-    <row r="35" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="14.5" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>76</v>
       </c>
@@ -4615,24 +4633,24 @@
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V35" s="9" t="s">
         <v>132</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AC35" s="9" t="s">
         <v>91</v>
@@ -4640,19 +4658,19 @@
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AG35" s="9"/>
       <c r="AH35" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9"/>
     </row>
-    <row r="36" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="14.5" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B36" s="6">
         <v>0.5</v>
@@ -4721,13 +4739,13 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
     </row>
-    <row r="37" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="14.5" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
@@ -4785,20 +4803,20 @@
         <v>92</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X37" s="9" t="s">
         <v>93</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AA37" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -4807,12 +4825,12 @@
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
       <c r="AI37" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
     </row>
-    <row r="38" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="14.5" customHeight="1">
       <c r="A38" s="30" t="s">
         <v>15</v>
       </c>
@@ -4859,7 +4877,7 @@
       </c>
       <c r="T38" s="7"/>
       <c r="U38" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V38" s="7" t="s">
         <v>90</v>
@@ -4896,7 +4914,7 @@
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
     </row>
-    <row r="39" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="14.5" customHeight="1">
       <c r="A39" s="31" t="s">
         <v>16</v>
       </c>
@@ -4942,7 +4960,7 @@
       </c>
       <c r="T39" s="9"/>
       <c r="U39" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V39" s="9" t="s">
         <v>89</v>
@@ -4979,7 +4997,7 @@
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
     </row>
-    <row r="40" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="14.5" customHeight="1">
       <c r="A40" s="30" t="s">
         <v>35</v>
       </c>
@@ -5026,7 +5044,7 @@
       </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V40" s="7" t="s">
         <v>89</v>
@@ -5063,12 +5081,12 @@
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
     </row>
-    <row r="41" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" ht="14.5" customHeight="1">
       <c r="A41" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="8">
-        <v>1.77E-2</v>
+        <v>0.13320000000000001</v>
       </c>
       <c r="C41" s="8">
         <v>6.0100000000000001E-2</v>
@@ -5107,9 +5125,11 @@
       <c r="S41" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T41" s="9"/>
+      <c r="T41" s="9" t="s">
+        <v>360</v>
+      </c>
       <c r="U41" s="9" t="s">
-        <v>166</v>
+        <v>359</v>
       </c>
       <c r="V41" s="9" t="s">
         <v>89</v>
@@ -5146,7 +5166,7 @@
       <c r="AJ41" s="9"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="14.5" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>37</v>
       </c>
@@ -5211,29 +5231,29 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="23" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" ht="14.5" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>125</v>
       </c>
@@ -5288,52 +5308,52 @@
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="V43" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="V43" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="W43" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="X43" s="8" t="s">
         <v>127</v>
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB43" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC43" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD43" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="AA43" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB43" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC43" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="AD43" s="8" t="s">
-        <v>350</v>
-      </c>
       <c r="AE43" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG43" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AH43" s="8" t="s">
         <v>127</v>
       </c>
       <c r="AI43" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" ht="14.5" customHeight="1">
       <c r="A44" s="30" t="s">
         <v>38</v>
       </c>
@@ -5383,7 +5403,7 @@
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V44" s="7" t="s">
         <v>88</v>
@@ -5394,7 +5414,7 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
@@ -5424,7 +5444,7 @@
       </c>
       <c r="AK44" s="7"/>
     </row>
-    <row r="45" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" ht="14.5" customHeight="1">
       <c r="A45" s="31" t="s">
         <v>39</v>
       </c>
@@ -5474,7 +5494,7 @@
       </c>
       <c r="T45" s="8"/>
       <c r="U45" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V45" s="9" t="s">
         <v>88</v>
@@ -5485,7 +5505,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
@@ -5515,7 +5535,7 @@
       </c>
       <c r="AK45" s="9"/>
     </row>
-    <row r="46" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" ht="14.5" customHeight="1">
       <c r="A46" s="30" t="s">
         <v>40</v>
       </c>
@@ -5565,7 +5585,7 @@
       </c>
       <c r="T46" s="6"/>
       <c r="U46" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V46" s="7" t="s">
         <v>88</v>
@@ -5604,7 +5624,7 @@
       </c>
       <c r="AK46" s="7"/>
     </row>
-    <row r="47" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" ht="14.5" customHeight="1">
       <c r="A47" s="31" t="s">
         <v>41</v>
       </c>
@@ -5654,7 +5674,7 @@
       </c>
       <c r="T47" s="8"/>
       <c r="U47" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V47" s="9" t="s">
         <v>88</v>
@@ -5693,7 +5713,7 @@
       </c>
       <c r="AK47" s="9"/>
     </row>
-    <row r="48" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" ht="14.5" customHeight="1">
       <c r="A48" s="30" t="s">
         <v>42</v>
       </c>
@@ -5743,7 +5763,7 @@
       </c>
       <c r="T48" s="6"/>
       <c r="U48" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V48" s="7" t="s">
         <v>88</v>
@@ -5782,7 +5802,7 @@
       </c>
       <c r="AK48" s="7"/>
     </row>
-    <row r="49" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" ht="14.5" customHeight="1">
       <c r="A49" s="33" t="s">
         <v>43</v>
       </c>
@@ -5825,7 +5845,7 @@
       <c r="AJ49" s="17"/>
       <c r="AK49" s="9"/>
     </row>
-    <row r="50" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="14.5" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -5868,7 +5888,7 @@
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
     </row>
-    <row r="51" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" ht="14.5" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5911,7 +5931,7 @@
       <c r="AJ51" s="9"/>
       <c r="AK51" s="9"/>
     </row>
-    <row r="52" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" ht="14.5" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
@@ -5954,7 +5974,7 @@
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
     </row>
-    <row r="53" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" ht="14.5" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>47</v>
       </c>
@@ -5997,7 +6017,7 @@
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
     </row>
-    <row r="54" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" ht="14.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
@@ -6040,7 +6060,7 @@
       <c r="AJ54" s="7"/>
       <c r="AK54" s="7"/>
     </row>
-    <row r="55" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" ht="14.5" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>49</v>
       </c>
@@ -6083,7 +6103,7 @@
       <c r="AJ55" s="9"/>
       <c r="AK55" s="9"/>
     </row>
-    <row r="56" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" ht="14.5" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
@@ -6126,7 +6146,7 @@
       <c r="AJ56" s="7"/>
       <c r="AK56" s="7"/>
     </row>
-    <row r="57" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" ht="14.5" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>51</v>
       </c>
@@ -6169,7 +6189,7 @@
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9"/>
     </row>
-    <row r="58" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" ht="14.5" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -6212,7 +6232,7 @@
       <c r="AJ58" s="7"/>
       <c r="AK58" s="7"/>
     </row>
-    <row r="59" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" ht="14.5" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>53</v>
       </c>
@@ -6255,7 +6275,7 @@
       <c r="AJ59" s="9"/>
       <c r="AK59" s="9"/>
     </row>
-    <row r="60" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" ht="14.5" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -6298,7 +6318,7 @@
       <c r="AJ60" s="7"/>
       <c r="AK60" s="7"/>
     </row>
-    <row r="61" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" ht="14.5" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>55</v>
       </c>
@@ -6341,7 +6361,7 @@
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
     </row>
-    <row r="62" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" ht="14.5" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -6384,7 +6404,7 @@
       <c r="AJ62" s="7"/>
       <c r="AK62" s="7"/>
     </row>
-    <row r="63" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" ht="14.5" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
@@ -6427,7 +6447,7 @@
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37">
       <c r="A64" s="6" t="s">
         <v>58</v>
       </c>
@@ -6470,7 +6490,7 @@
       <c r="AJ64" s="7"/>
       <c r="AK64" s="7"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -6513,7 +6533,7 @@
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37">
       <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
@@ -6556,7 +6576,7 @@
       <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37">
       <c r="A67" s="8" t="s">
         <v>61</v>
       </c>
@@ -6599,7 +6619,7 @@
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37">
       <c r="A68" s="6" t="s">
         <v>62</v>
       </c>
@@ -6642,7 +6662,7 @@
       <c r="AJ68" s="7"/>
       <c r="AK68" s="7"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37">
       <c r="A69" s="8" t="s">
         <v>63</v>
       </c>
@@ -6685,7 +6705,7 @@
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37">
       <c r="A70" s="6" t="s">
         <v>64</v>
       </c>
@@ -6728,7 +6748,7 @@
       <c r="AJ70" s="7"/>
       <c r="AK70" s="7"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37">
       <c r="A71" s="8" t="s">
         <v>65</v>
       </c>
@@ -6771,7 +6791,7 @@
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
@@ -6814,7 +6834,7 @@
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37">
       <c r="A73" s="8" t="s">
         <v>67</v>
       </c>
@@ -6857,7 +6877,7 @@
       <c r="AJ73" s="9"/>
       <c r="AK73" s="9"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37">
       <c r="A74" s="35" t="s">
         <v>68</v>
       </c>
@@ -6933,7 +6953,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6945,7 +6965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6957,7 +6977,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6969,7 +6989,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6981,7 +7001,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6995,43 +7015,43 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7042,7 +7062,7 @@
         <v>58.591498999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7053,7 +7073,7 @@
         <v>67.924413999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7064,7 +7084,7 @@
         <v>76.145567</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7082,7 +7102,7 @@
         <v>85.971186000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7100,7 +7120,7 @@
         <v>96.04539299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7118,7 +7138,7 @@
         <v>105.140455</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7136,7 +7156,7 @@
         <v>121.12909199999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -7154,7 +7174,7 @@
         <v>125.57747800000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -7172,7 +7192,7 @@
         <v>99.382306999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -7190,7 +7210,7 @@
         <v>143.25536400000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -7208,7 +7228,7 @@
         <v>177.108566</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -7226,7 +7246,7 @@
         <v>183.31275300000004</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -7244,7 +7264,7 @@
         <v>172.04403400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -7262,7 +7282,7 @@
         <v>186.019372</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7280,7 +7300,7 @@
         <v>201.32204200000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -7298,7 +7318,7 @@
         <v>246.11897900000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -7316,7 +7336,7 @@
         <v>312.55251800000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7334,7 +7354,7 @@
         <v>361.04267200000004</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -7361,11 +7381,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73D63CC-D9E2-4D18-93CD-FFAA257617FA}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
@@ -7374,44 +7394,44 @@
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
         <v>190</v>
       </c>
-      <c r="C1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>193</v>
       </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" ht="16">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7432,7 +7452,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7453,7 +7473,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7474,7 +7494,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7495,7 +7515,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7516,7 +7536,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -7537,7 +7557,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -7558,7 +7578,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -7579,7 +7599,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -7600,7 +7620,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -7621,7 +7641,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -7642,7 +7662,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -7663,7 +7683,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -7684,7 +7704,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -7705,7 +7725,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7726,7 +7746,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -7747,7 +7767,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -7768,7 +7788,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7789,7 +7809,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -7825,7 +7845,7 @@
       <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
@@ -7834,47 +7854,47 @@
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="B1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>199</v>
       </c>
-      <c r="G2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" ht="16">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -7900,7 +7920,7 @@
         <v>447.61374899999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -7924,7 +7944,7 @@
         <v>424.685877</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -7948,7 +7968,7 @@
         <v>470.54162100000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="16">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -7972,7 +7992,7 @@
         <v>767.02960299999995</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="16">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -7996,7 +8016,7 @@
         <v>674.22585800000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="16">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -8020,7 +8040,7 @@
         <v>671.66403600000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="16">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -8045,7 +8065,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -8072,7 +8092,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="16">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -8100,7 +8120,7 @@
       <c r="L11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="16">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -8128,7 +8148,7 @@
       <c r="L12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="16">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -8156,7 +8176,7 @@
       <c r="L13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="16">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -8185,7 +8205,7 @@
       <c r="L14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="16">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -8213,7 +8233,7 @@
       <c r="L15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="16">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -8241,7 +8261,7 @@
       <c r="L16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="16">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -8269,7 +8289,7 @@
       <c r="L17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="16">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -8297,7 +8317,7 @@
       <c r="L18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="16">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -8325,7 +8345,7 @@
       <c r="L19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="16">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -8353,7 +8373,7 @@
       <c r="L20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="16">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -8380,19 +8400,19 @@
       <c r="J21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="16">
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="16">
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="16">
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="16">
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="16">
       <c r="H26" s="2"/>
     </row>
   </sheetData>
@@ -8408,76 +8428,86 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="E2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" t="s">
+        <v>357</v>
+      </c>
       <c r="L2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M2" s="42"/>
       <c r="Q2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3">
-        <f>B4*D3/D4</f>
-        <v>2.6211738386810759</v>
+      <c r="B3" s="42">
+        <v>3.7280000000000002</v>
       </c>
       <c r="C3">
         <v>32158607.714417279</v>
@@ -8485,6 +8515,15 @@
       <c r="D3">
         <v>2.56</v>
       </c>
+      <c r="E3">
+        <v>0.94684931506849312</v>
+      </c>
+      <c r="F3">
+        <v>3.506849315068493</v>
+      </c>
+      <c r="H3" s="42">
+        <v>3.7280000000000002</v>
+      </c>
       <c r="L3">
         <v>13566761.083007999</v>
       </c>
@@ -8495,13 +8534,12 @@
         <v>11873993.704704</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4">
-        <f>B5*D4/D5</f>
-        <v>2.6109348783737278</v>
+      <c r="B4" s="42">
+        <v>3.3620000000000001</v>
       </c>
       <c r="C4">
         <v>34756129.686718091</v>
@@ -8509,6 +8547,15 @@
       <c r="D4">
         <v>2.5499999999999998</v>
       </c>
+      <c r="E4">
+        <v>1.0415492957746479</v>
+      </c>
+      <c r="F4">
+        <v>3.591549295774648</v>
+      </c>
+      <c r="H4" s="42">
+        <v>3.3620000000000001</v>
+      </c>
       <c r="L4">
         <v>15261925.167299999</v>
       </c>
@@ -8519,12 +8566,12 @@
         <v>13567145.704704</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5">
-        <v>2.6006959180663798</v>
+      <c r="B5" s="42">
+        <v>3.206</v>
       </c>
       <c r="C5">
         <v>38240248.805773944</v>
@@ -8532,6 +8579,15 @@
       <c r="D5">
         <v>2.54</v>
       </c>
+      <c r="E5">
+        <v>1.0885714285714287</v>
+      </c>
+      <c r="F5">
+        <v>3.628571428571429</v>
+      </c>
+      <c r="H5" s="42">
+        <v>3.206</v>
+      </c>
       <c r="L5">
         <v>17508670.647999998</v>
       </c>
@@ -8542,12 +8598,12 @@
         <v>15252034.346915999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6">
-        <v>3.0508626846620399</v>
+      <c r="B6" s="42">
+        <v>3.512</v>
       </c>
       <c r="C6">
         <v>33392445.494627818</v>
@@ -8555,6 +8611,15 @@
       <c r="D6">
         <v>2.42</v>
       </c>
+      <c r="E6">
+        <v>1.0371428571428571</v>
+      </c>
+      <c r="F6">
+        <v>3.4571428571428573</v>
+      </c>
+      <c r="H6" s="42">
+        <v>3.512</v>
+      </c>
       <c r="L6">
         <v>19169570.399</v>
       </c>
@@ -8565,12 +8630,12 @@
         <v>15749019.786006</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7">
-        <v>3.1113771591266901</v>
+      <c r="B7" s="42">
+        <v>3.7450000000000001</v>
       </c>
       <c r="C7">
         <v>33248775.81758856</v>
@@ -8578,6 +8643,15 @@
       <c r="D7">
         <v>2.48</v>
       </c>
+      <c r="E7">
+        <v>0.91726027397260279</v>
+      </c>
+      <c r="F7">
+        <v>3.397260273972603</v>
+      </c>
+      <c r="H7" s="42">
+        <v>3.7450000000000001</v>
+      </c>
       <c r="L7">
         <v>20163133.2084</v>
       </c>
@@ -8588,12 +8662,12 @@
         <v>15122391.179784</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8">
-        <v>3.09207937561865</v>
+      <c r="B8" s="42">
+        <v>3.4239999999999999</v>
       </c>
       <c r="C8">
         <v>30743276.91313928</v>
@@ -8601,6 +8675,15 @@
       <c r="D8">
         <v>2.37</v>
       </c>
+      <c r="E8">
+        <v>1.2761538461538462</v>
+      </c>
+      <c r="F8">
+        <v>3.6461538461538461</v>
+      </c>
+      <c r="H8" s="42">
+        <v>3.4239999999999999</v>
+      </c>
       <c r="L8">
         <v>26549874.226400003</v>
       </c>
@@ -8611,12 +8694,12 @@
         <v>20608702.998528</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9">
-        <v>3.1150351404490899</v>
+      <c r="B9" s="42">
+        <v>3.552</v>
       </c>
       <c r="C9">
         <v>30864252.603043139</v>
@@ -8624,6 +8707,15 @@
       <c r="D9">
         <v>2.35</v>
       </c>
+      <c r="E9">
+        <v>1.1574626865671642</v>
+      </c>
+      <c r="F9">
+        <v>3.5074626865671643</v>
+      </c>
+      <c r="H9" s="42">
+        <v>3.552</v>
+      </c>
       <c r="L9">
         <v>29720363.140299998</v>
       </c>
@@ -8634,12 +8726,12 @@
         <v>23289317.400419999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10">
-        <v>3.7342289806146298</v>
+      <c r="B10" s="42">
+        <v>3.806</v>
       </c>
       <c r="C10">
         <v>35319609.12352629</v>
@@ -8647,7 +8739,15 @@
       <c r="D10">
         <v>2.2799999999999998</v>
       </c>
-      <c r="H10" s="41"/>
+      <c r="E10">
+        <v>1.4577049180327868</v>
+      </c>
+      <c r="F10">
+        <v>3.7377049180327866</v>
+      </c>
+      <c r="H10" s="42">
+        <v>3.806</v>
+      </c>
       <c r="L10">
         <v>35897191.008000001</v>
       </c>
@@ -8658,12 +8758,12 @@
         <v>26830921.217274003</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11">
-        <v>3.6116350854505699</v>
+      <c r="B11" s="42">
+        <v>3.6116350000000002</v>
       </c>
       <c r="C11">
         <v>38898966.518224157</v>
@@ -8671,7 +8771,15 @@
       <c r="D11">
         <v>2.46</v>
       </c>
-      <c r="H11" s="41"/>
+      <c r="E11">
+        <v>1.7813793103448277</v>
+      </c>
+      <c r="F11">
+        <v>4.2413793103448274</v>
+      </c>
+      <c r="H11" s="42">
+        <v>3.6116350000000002</v>
+      </c>
       <c r="L11">
         <v>40098416.945999995</v>
       </c>
@@ -8682,11 +8790,11 @@
         <v>35094737.355630003</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="42">
         <v>4.1711999999999998</v>
       </c>
       <c r="C12">
@@ -8695,7 +8803,15 @@
       <c r="D12">
         <v>2.7545000000000002</v>
       </c>
-      <c r="H12" s="41"/>
+      <c r="E12">
+        <v>1.6710719654124919</v>
+      </c>
+      <c r="F12">
+        <v>4.4255719654124919</v>
+      </c>
+      <c r="H12" s="42">
+        <v>4.1711999999999998</v>
+      </c>
       <c r="L12">
         <v>49760044.376000002</v>
       </c>
@@ -8706,11 +8822,11 @@
         <v>42975239.260650001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="42">
         <v>4.7247000000000003</v>
       </c>
       <c r="C13">
@@ -8719,7 +8835,15 @@
       <c r="D13">
         <v>2.8769</v>
       </c>
-      <c r="H13" s="41"/>
+      <c r="E13">
+        <v>1.6260682952887595</v>
+      </c>
+      <c r="F13">
+        <v>4.5029682952887597</v>
+      </c>
+      <c r="H13" s="42">
+        <v>4.7247000000000003</v>
+      </c>
       <c r="L13">
         <v>61920552.217999995</v>
       </c>
@@ -8730,11 +8854,11 @@
         <v>53778977.547102004</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="42">
         <v>4.6726999999999999</v>
       </c>
       <c r="C14">
@@ -8743,7 +8867,15 @@
       <c r="D14">
         <v>2.9571999999999998</v>
       </c>
-      <c r="H14" s="41"/>
+      <c r="E14">
+        <v>1.636490651685955</v>
+      </c>
+      <c r="F14">
+        <v>4.5936906516859546</v>
+      </c>
+      <c r="H14" s="42">
+        <v>4.6726999999999999</v>
+      </c>
       <c r="L14">
         <v>64372413.721000001</v>
       </c>
@@ -8754,11 +8886,11 @@
         <v>56518569.477336004</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>2013</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="42">
         <v>4.5137</v>
       </c>
       <c r="C15">
@@ -8767,7 +8899,15 @@
       <c r="D15">
         <v>3.1667999999999998</v>
       </c>
-      <c r="H15" s="41"/>
+      <c r="E15">
+        <v>1.1952304507245022</v>
+      </c>
+      <c r="F15">
+        <v>4.362030450724502</v>
+      </c>
+      <c r="H15" s="42">
+        <v>4.5137</v>
+      </c>
       <c r="L15">
         <v>53626494.270999998</v>
       </c>
@@ -8778,11 +8918,11 @@
         <v>45537007.619892001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>2014</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="42">
         <v>4.4260999999999999</v>
       </c>
       <c r="C16">
@@ -8791,7 +8931,15 @@
       <c r="D16">
         <v>3.2705000000000002</v>
       </c>
-      <c r="H16" s="41"/>
+      <c r="E16">
+        <v>1.1295000626595046</v>
+      </c>
+      <c r="F16">
+        <v>4.4000000626595046</v>
+      </c>
+      <c r="H16" s="42">
+        <v>4.4260999999999999</v>
+      </c>
       <c r="L16">
         <v>47384090.369000003</v>
       </c>
@@ -8802,11 +8950,11 @@
         <v>39909789.610542007</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>2015</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="42">
         <v>4.3685</v>
       </c>
       <c r="C17">
@@ -8815,7 +8963,15 @@
       <c r="D17">
         <v>3.3662999999999998</v>
       </c>
-      <c r="H17" s="41"/>
+      <c r="E17">
+        <v>1.0668016412034791</v>
+      </c>
+      <c r="F17">
+        <v>4.4331016412034785</v>
+      </c>
+      <c r="H17" s="42">
+        <v>4.3685</v>
+      </c>
       <c r="L17">
         <v>43305191.195</v>
       </c>
@@ -8826,11 +8982,11 @@
         <v>40209714.238356002</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>2016</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="42">
         <v>4.3914</v>
       </c>
       <c r="C18">
@@ -8839,7 +8995,15 @@
       <c r="D18">
         <v>3.5173000000000001</v>
       </c>
-      <c r="H18" s="41"/>
+      <c r="E18">
+        <v>1.2321408911587837</v>
+      </c>
+      <c r="F18">
+        <v>4.749440891158784</v>
+      </c>
+      <c r="H18" s="42">
+        <v>4.3914</v>
+      </c>
       <c r="L18">
         <v>46124315.173999995</v>
       </c>
@@ -8850,11 +9014,11 @@
         <v>43624963.306727998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="42">
         <v>4.2782999999999998</v>
       </c>
       <c r="C19">
@@ -8863,7 +9027,15 @@
       <c r="D19">
         <v>3.5678000000000001</v>
       </c>
-      <c r="H19" s="41"/>
+      <c r="E19">
+        <v>1.112318600152481</v>
+      </c>
+      <c r="F19">
+        <v>4.6801186001524808</v>
+      </c>
+      <c r="H19" s="42">
+        <v>4.2782999999999998</v>
+      </c>
       <c r="L19">
         <v>45451976.520999998</v>
       </c>
@@ -8874,11 +9046,11 @@
         <v>42306183.016679995</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="42">
         <v>4.4542999999999999</v>
       </c>
       <c r="C20">
@@ -8887,7 +9059,15 @@
       <c r="D20">
         <v>3.6536</v>
       </c>
-      <c r="H20" s="41"/>
+      <c r="E20">
+        <v>1.1317010124660076</v>
+      </c>
+      <c r="F20">
+        <v>4.7853010124660074</v>
+      </c>
+      <c r="H20" s="42">
+        <v>4.4542999999999999</v>
+      </c>
       <c r="L20">
         <v>44895298.035000004</v>
       </c>
@@ -8898,11 +9078,11 @@
         <v>40434691.598711997</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>2019</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="42">
         <v>4.3593999999999999</v>
       </c>
       <c r="C21">
@@ -8912,7 +9092,15 @@
       <c r="D21">
         <v>3.5962000000000001</v>
       </c>
-      <c r="H21" s="41"/>
+      <c r="E21">
+        <v>1.2756181422894106</v>
+      </c>
+      <c r="F21">
+        <v>4.8718181422894107</v>
+      </c>
+      <c r="H21" s="42">
+        <v>4.3593999999999999</v>
+      </c>
       <c r="L21">
         <v>52976451.681300007</v>
       </c>
@@ -8924,17 +9112,68 @@
         <v>47712936.086480156</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="19">
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="19">
+      <c r="C23" s="43"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="19">
+      <c r="C24" s="43"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="19">
+      <c r="C25" s="43"/>
       <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="C26" s="43"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="C27" s="43"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="C28" s="43"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="C29" s="43"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="C30" s="43"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="C31" s="43"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="C32" s="43"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="43"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="43"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="43"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="43"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="43"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="43"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="43"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="43"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8949,11 +9188,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -8967,7 +9206,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8981,11 +9220,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8999,7 +9238,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9011,7 +9250,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77355F4E-6450-4B46-864E-7949541317E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F7DF0-DEFE-5B4E-A02B-45B87F0BD333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="7" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="365">
   <si>
     <t>Al</t>
   </si>
@@ -696,9 +696,6 @@
     <t>see page 375 in critical metals handbook for demand, pg 381 for price</t>
   </si>
   <si>
-    <t>see Critical Metals Handbook page 401 for primary W production, 407 for price</t>
-  </si>
-  <si>
     <t>using lots of data (C:\Users\ryter\Dropbox (MIT)\Group Research Folder_Olivetti\Displacement\08 Generalization\_Python\Integration\data\steel price.xlsx), but mostly from https://profitablenews.com/wp-content/uploads/2018/05/SteelBenchmarkerHRB.jpg (2002-2018), taking annual average and deflating, then 2019 was estimated based on the slight decrease shown here: https://i.pinimg.com/originals/73/78/38/7378388c1a0e89eed9e0d46f5fd6dcc4.jpg, 2001 is average of 2002-03. This version removes the differences associated with oil price, performed here: http://localhost:8888/notebooks/Dropbox%20(MIT)/Group%20Research%20Folder_Olivetti/Displacement/08%20Generalization/_Python/Integration/Generalization%20integration.ipynb#Demand-experimentation, section 8 prices and price adjustments</t>
   </si>
   <si>
@@ -1168,6 +1165,21 @@
   </si>
   <si>
     <t>CHECK THAT ALL THESE ARE USING STD DEV NOT VARIANCE</t>
+  </si>
+  <si>
+    <t>ICSG World Copper Factbooks 2012 and 2021, for 2002-2010 and 2010-2019 respectively, see https://icsg.org/wp-content/uploads/2021/11/ICSG-Factbook-2021.pdf (pages 40 and 55) and https://vdocument.in/2012-world-copper-factbook.html?page=43 (page 43). For 2010, took the average of the values from the 2012 and 2021 factbooks, and for 2001 assumed the same growth rate as for total demand.</t>
+  </si>
+  <si>
+    <t>2001-2016 from ICSG Statistical Yearbook 2018, with 2017-2019 from 2021 ICSG World Copper Factbook page 40</t>
+  </si>
+  <si>
+    <t>THE WORLD NICKEL FACTBOOK 2021 (insg.org), page 37, assuming that a negligible amount of nickel has been recycled outside the stainless steel industry, for 2015-2019. For 1995-2014, use figure 2 from Elshkaki et al 2017 (https://www.sciencedirect.com/science/article/pii/S0921344917301817) to get recycling input rate, and scale using primary demand reported in world nickel factbook page 24</t>
+  </si>
+  <si>
+    <t>Smelter production of tin which claims to include both primary and secondary sources, from British Geological Survey, found here: https://www2.bgs.ac.uk/mineralsuk/statistics/worldArchive.html</t>
+  </si>
+  <si>
+    <t>IGSG Factbook 2018</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1314,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1375,6 +1387,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1730,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1789,7 +1802,7 @@
         <v>94</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R1" s="38" t="s">
         <v>95</v>
@@ -1849,7 +1862,7 @@
         <v>109</v>
       </c>
       <c r="AK1" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="14.5" customHeight="1">
@@ -1988,32 +2001,32 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AB3" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE3" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="AE3" s="21" t="s">
+      <c r="AF3" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AI3" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>220</v>
       </c>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
@@ -2127,41 +2140,41 @@
         <v>21</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>133</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA5" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AB5" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>226</v>
       </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH5" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AI5" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
@@ -2231,31 +2244,31 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA6" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AB6" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="AC6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE6" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AF6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AG6" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="AG6" s="7" t="s">
+      <c r="AH6" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
@@ -2328,38 +2341,38 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA7" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AB7" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="AC7" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD7" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE7" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AF7" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AG7" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="AG7" s="9" t="s">
-        <v>244</v>
-      </c>
       <c r="AH7" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="14.5" customHeight="1">
@@ -2429,31 +2442,31 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA8" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="AA8" s="7" t="s">
+      <c r="AB8" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AF8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="AF8" s="7" t="s">
+      <c r="AG8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
@@ -2526,31 +2539,31 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA9" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="AA9" s="9" t="s">
+      <c r="AB9" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="AB9" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD9" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE9" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="AE9" s="9" t="s">
+      <c r="AF9" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="AF9" s="9" t="s">
+      <c r="AG9" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="AG9" s="9" t="s">
+      <c r="AH9" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="AH9" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
@@ -2626,29 +2639,29 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="AA10" s="7" t="s">
+      <c r="AB10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="AC10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AF10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
@@ -2719,23 +2732,23 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC11" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF11" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="AF11" s="9" t="s">
+      <c r="AG11" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="AG11" s="9" t="s">
+      <c r="AH11" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="AH11" s="9" t="s">
-        <v>272</v>
       </c>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
@@ -2809,35 +2822,35 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB12" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AD12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE12" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AE12" s="7" t="s">
+      <c r="AF12" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="AF12" s="7" t="s">
+      <c r="AG12" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AG12" s="7" t="s">
+      <c r="AH12" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AH12" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="AI12" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="14.5" customHeight="1">
@@ -2913,20 +2926,20 @@
         <v>107</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="14.5" customHeight="1">
@@ -3009,7 +3022,7 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="14.5" customHeight="1">
@@ -3169,7 +3182,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="14.5" customHeight="1">
@@ -3240,31 +3253,31 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB17" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="AC17" s="9" t="s">
         <v>107</v>
       </c>
       <c r="AD17" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE17" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="AE17" s="9" t="s">
+      <c r="AF17" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="AF17" s="9" t="s">
+      <c r="AG17" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="AG17" s="9" t="s">
+      <c r="AH17" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="AH17" s="9" t="s">
+      <c r="AI17" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="AI17" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
@@ -3336,34 +3349,34 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA18" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AA18" s="7" t="s">
+      <c r="AB18" s="23" t="s">
         <v>295</v>
-      </c>
-      <c r="AB18" s="23" t="s">
-        <v>296</v>
       </c>
       <c r="AC18" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AD18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE18" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="AE18" s="7" t="s">
+      <c r="AF18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="AF18" s="7" t="s">
+      <c r="AG18" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="AG18" s="7" t="s">
+      <c r="AH18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="AH18" s="7" t="s">
+      <c r="AI18" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="AI18" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
@@ -3441,22 +3454,22 @@
         <v>107</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AE19" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF19" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="AF19" s="9" t="s">
+      <c r="AG19" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="AG19" s="9" t="s">
+      <c r="AH19" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="AH19" s="9" t="s">
+      <c r="AI19" s="24" t="s">
         <v>306</v>
-      </c>
-      <c r="AI19" s="24" t="s">
-        <v>307</v>
       </c>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
@@ -3514,7 +3527,7 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
@@ -3522,10 +3535,10 @@
         <v>107</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
@@ -3600,7 +3613,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9" t="s">
@@ -3609,16 +3622,16 @@
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG21" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="AG21" s="9" t="s">
+      <c r="AH21" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="AH21" s="9" t="s">
+      <c r="AI21" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="AI21" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
@@ -3993,11 +4006,11 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC27" s="9" t="s">
         <v>77</v>
@@ -4007,7 +4020,7 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
@@ -4078,25 +4091,25 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC28" s="7" t="s">
         <v>77</v>
       </c>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF28" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="AF28" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
@@ -4244,7 +4257,7 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -4252,13 +4265,13 @@
         <v>77</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
@@ -4414,7 +4427,7 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7"/>
@@ -4481,24 +4494,24 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AC33" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="14.5" customHeight="1">
@@ -4566,11 +4579,11 @@
         <v>77</v>
       </c>
       <c r="AD34" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
@@ -4644,13 +4657,13 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA35" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="AA35" s="9" t="s">
+      <c r="AB35" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="AB35" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="AC35" s="9" t="s">
         <v>91</v>
@@ -4658,11 +4671,11 @@
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG35" s="9"/>
       <c r="AH35" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9"/>
@@ -4670,7 +4683,7 @@
     </row>
     <row r="36" spans="1:37" ht="14.5" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B36" s="6">
         <v>0.5</v>
@@ -4739,7 +4752,7 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
@@ -4810,13 +4823,13 @@
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA37" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="AA37" s="21" t="s">
-        <v>337</v>
-      </c>
       <c r="AB37" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -4825,7 +4838,7 @@
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
       <c r="AI37" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
@@ -5126,10 +5139,10 @@
         <v>34</v>
       </c>
       <c r="T41" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V41" s="9" t="s">
         <v>89</v>
@@ -5231,26 +5244,26 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC42" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="AC42" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="14.5" customHeight="1">
@@ -5321,19 +5334,19 @@
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA43" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="AA43" s="8" t="s">
+      <c r="AB43" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC43" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="AB43" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="AC43" s="8" t="s">
+      <c r="AD43" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="AD43" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="AE43" s="8" t="s">
         <v>174</v>
@@ -5414,7 +5427,7 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
@@ -5505,7 +5518,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
@@ -6949,60 +6962,660 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7771608-927F-4E4B-98C0-8BD1C2D780A9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029A80B4-7C9F-4455-863A-277E0A0ADA6C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7E4D7B-7CFC-4824-AFEA-E4C07C4B6BC5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09EBD6-8E7D-4D2E-919E-2C3665CCA70F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E28CC3-7415-4459-ACB5-EE32C9212512}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7012,7 +7625,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7039,16 +7652,16 @@
         <v>180</v>
       </c>
       <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
         <v>208</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>209</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>210</v>
-      </c>
-      <c r="E2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7381,8 +7994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73D63CC-D9E2-4D18-93CD-FFAA257617FA}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7408,7 +8021,7 @@
         <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7419,7 +8032,7 @@
         <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
         <v>194</v>
@@ -7842,7 +8455,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A21"/>
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7871,7 +8484,7 @@
         <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -7882,7 +8495,7 @@
         <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>200</v>
@@ -8431,13 +9044,13 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -8457,10 +9070,10 @@
         <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L1" t="s">
         <v>192</v>
@@ -8469,7 +9082,7 @@
         <v>192</v>
       </c>
       <c r="Q1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -8477,29 +9090,29 @@
         <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M2" s="42"/>
       <c r="Q2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -9182,17 +9795,129 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4E14CA-A602-4FF7-9D44-04838930B2AC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>203</v>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -9202,29 +9927,742 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD8560D-51C4-4FC5-A30A-D50BD25B2BD4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1990</v>
+      </c>
+      <c r="B3">
+        <v>227.46799999999999</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1991</v>
+      </c>
+      <c r="B4">
+        <v>203.57</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1992</v>
+      </c>
+      <c r="B5">
+        <v>203.13800000000001</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1993</v>
+      </c>
+      <c r="B6">
+        <v>197.32599999999999</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1994</v>
+      </c>
+      <c r="B7">
+        <v>231.25700000000001</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1995</v>
+      </c>
+      <c r="B8">
+        <v>219.834</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1996</v>
+      </c>
+      <c r="B9">
+        <v>230.744</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1997</v>
+      </c>
+      <c r="B10">
+        <v>238.179</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1998</v>
+      </c>
+      <c r="B11">
+        <v>237.03</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1999</v>
+      </c>
+      <c r="B12">
+        <v>248.10300000000001</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="B13">
+        <v>260.66899999999998</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14">
+        <v>2001</v>
+      </c>
+      <c r="B14">
+        <v>280.69499999999999</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2002</v>
+      </c>
+      <c r="B15">
+        <v>264.428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2003</v>
+      </c>
+      <c r="B16">
+        <v>275.28199999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="B17">
+        <v>313.08999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>2005</v>
+      </c>
+      <c r="B18">
+        <v>333.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>2006</v>
+      </c>
+      <c r="B19">
+        <v>327.00200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>2007</v>
+      </c>
+      <c r="B20">
+        <v>335.40800000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21">
+        <v>326.262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>2009</v>
+      </c>
+      <c r="B22">
+        <v>318.16300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23">
+        <v>351.84800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>2011</v>
+      </c>
+      <c r="B24">
+        <v>364.58600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>2012</v>
+      </c>
+      <c r="B25">
+        <v>357.89600000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>2013</v>
+      </c>
+      <c r="B26">
+        <v>346.137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>2014</v>
+      </c>
+      <c r="B27">
+        <v>391.78300000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>2015</v>
+      </c>
+      <c r="B28">
+        <v>348.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>2016</v>
+      </c>
+      <c r="B29">
+        <v>362.06099999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="B30">
+        <v>369.08800000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>2018</v>
+      </c>
+      <c r="B31">
+        <v>373.03500000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>2019</v>
+      </c>
+      <c r="B32">
+        <v>371.81700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>2020</v>
+      </c>
+      <c r="B33">
+        <v>367.46699999999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FAA359-5A00-444B-B37D-5A9C733CE8E6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
         <v>202</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3">
+        <v>1969</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1970</v>
+      </c>
+      <c r="D4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1971</v>
+      </c>
+      <c r="D5">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1972</v>
+      </c>
+      <c r="D6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1973</v>
+      </c>
+      <c r="D7">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1974</v>
+      </c>
+      <c r="D8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1975</v>
+      </c>
+      <c r="D9">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1976</v>
+      </c>
+      <c r="D10">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1977</v>
+      </c>
+      <c r="D11">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1978</v>
+      </c>
+      <c r="D12">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1979</v>
+      </c>
+      <c r="D13">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1980</v>
+      </c>
+      <c r="D14">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1981</v>
+      </c>
+      <c r="D15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1982</v>
+      </c>
+      <c r="D16">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1983</v>
+      </c>
+      <c r="D17">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1984</v>
+      </c>
+      <c r="D18">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1985</v>
+      </c>
+      <c r="D19">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1986</v>
+      </c>
+      <c r="D20">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1987</v>
+      </c>
+      <c r="D21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1988</v>
+      </c>
+      <c r="D22">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1989</v>
+      </c>
+      <c r="D23">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1990</v>
+      </c>
+      <c r="D24">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1991</v>
+      </c>
+      <c r="D25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1992</v>
+      </c>
+      <c r="D26">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1993</v>
+      </c>
+      <c r="D27">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>1994</v>
+      </c>
+      <c r="D28">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1995</v>
+      </c>
+      <c r="D29">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>1996</v>
+      </c>
+      <c r="D30">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1997</v>
+      </c>
+      <c r="D31">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1998</v>
+      </c>
+      <c r="D32">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1999</v>
+      </c>
+      <c r="D33">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>2000</v>
+      </c>
+      <c r="D34">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>2001</v>
+      </c>
+      <c r="D35">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>2002</v>
+      </c>
+      <c r="D36">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>2003</v>
+      </c>
+      <c r="D37">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>2004</v>
+      </c>
+      <c r="D38">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>2005</v>
+      </c>
+      <c r="D39">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>2006</v>
+      </c>
+      <c r="D40">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>2007</v>
+      </c>
+      <c r="D41">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>2008</v>
+      </c>
+      <c r="D42">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>2009</v>
+      </c>
+      <c r="D43">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>2010</v>
+      </c>
+      <c r="D44">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>2011</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>2012</v>
+      </c>
+      <c r="D46">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>2013</v>
+      </c>
+      <c r="D47">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>2014</v>
+      </c>
+      <c r="D48">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>2015</v>
+      </c>
+      <c r="D49">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>2016</v>
+      </c>
+      <c r="D50">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>2017</v>
+      </c>
+      <c r="D51">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>2018</v>
+      </c>
+      <c r="D52">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>2019</v>
+      </c>
+      <c r="D53">
+        <v>1850</v>
       </c>
     </row>
   </sheetData>
@@ -9234,24 +10672,1170 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70BBC54-9A6A-4436-A684-DF848EF748EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3">
+        <v>1950</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="44">
+        <v>2385.7328498409602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1951</v>
+      </c>
+      <c r="D4" s="44">
+        <v>2491.7023564716101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1952</v>
+      </c>
+      <c r="D5" s="44">
+        <v>2565.8650655053102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1953</v>
+      </c>
+      <c r="D6" s="44">
+        <v>2586.99455908245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1954</v>
+      </c>
+      <c r="D7" s="44">
+        <v>2639.9402300258098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1955</v>
+      </c>
+      <c r="D8" s="44">
+        <v>2926.20140839841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1956</v>
+      </c>
+      <c r="D9" s="44">
+        <v>3212.4719665402799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1957</v>
+      </c>
+      <c r="D10" s="44">
+        <v>3286.6284223944599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1958</v>
+      </c>
+      <c r="D11" s="44">
+        <v>3191.10172555186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1959</v>
+      </c>
+      <c r="D12" s="44">
+        <v>3445.5498531479898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1960</v>
+      </c>
+      <c r="B13">
+        <v>5790.4642289348103</v>
+      </c>
+      <c r="D13" s="44">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1961</v>
+      </c>
+      <c r="B14">
+        <v>6290.0635930047702</v>
+      </c>
+      <c r="D14" s="44">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1962</v>
+      </c>
+      <c r="B15">
+        <v>6288.0635930047702</v>
+      </c>
+      <c r="D15" s="44">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1963</v>
+      </c>
+      <c r="B16">
+        <v>6711.4467408585006</v>
+      </c>
+      <c r="D16" s="44">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1964</v>
+      </c>
+      <c r="B17">
+        <v>7820.1192368839402</v>
+      </c>
+      <c r="D17" s="44">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1965</v>
+      </c>
+      <c r="B18">
+        <v>8056.2750397456202</v>
+      </c>
+      <c r="D18" s="44">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1966</v>
+      </c>
+      <c r="B19">
+        <v>8320.9936406995203</v>
+      </c>
+      <c r="D19" s="44">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1967</v>
+      </c>
+      <c r="B20">
+        <v>7994.6820349761501</v>
+      </c>
+      <c r="D20" s="44">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1968</v>
+      </c>
+      <c r="B21">
+        <v>8462.5866454689894</v>
+      </c>
+      <c r="D21" s="44">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1969</v>
+      </c>
+      <c r="B22">
+        <v>9286.4435612082598</v>
+      </c>
+      <c r="D22" s="44">
+        <v>5682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1970</v>
+      </c>
+      <c r="B23">
+        <v>9275.1017488076304</v>
+      </c>
+      <c r="D23" s="44">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1971</v>
+      </c>
+      <c r="B24">
+        <v>9350.0540540540496</v>
+      </c>
+      <c r="D24" s="44">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1972</v>
+      </c>
+      <c r="B25">
+        <v>10085.084260731321</v>
+      </c>
+      <c r="D25" s="44">
+        <v>6541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1973</v>
+      </c>
+      <c r="B26">
+        <v>11162.89348171701</v>
+      </c>
+      <c r="D26" s="44">
+        <v>6915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1974</v>
+      </c>
+      <c r="B27">
+        <v>10545.29411764705</v>
+      </c>
+      <c r="D27" s="44">
+        <v>7097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>1975</v>
+      </c>
+      <c r="B28">
+        <v>9241.5023847376706</v>
+      </c>
+      <c r="D28" s="44">
+        <v>6735</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1976</v>
+      </c>
+      <c r="B29">
+        <v>10602.593004769471</v>
+      </c>
+      <c r="D29" s="44">
+        <v>7289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>1977</v>
+      </c>
+      <c r="B30">
+        <v>11082.437201907789</v>
+      </c>
+      <c r="D30" s="44">
+        <v>7444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1978</v>
+      </c>
+      <c r="B31">
+        <v>11727.31796502384</v>
+      </c>
+      <c r="D31" s="44">
+        <v>7306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1979</v>
+      </c>
+      <c r="B32">
+        <v>12375.82193958664</v>
+      </c>
+      <c r="D32" s="44">
+        <v>7371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1980</v>
+      </c>
+      <c r="B33">
+        <v>11981.05564387917</v>
+      </c>
+      <c r="D33" s="44">
+        <v>7227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1981</v>
+      </c>
+      <c r="B34">
+        <v>12119.774244833061</v>
+      </c>
+      <c r="D34" s="44">
+        <v>7721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1982</v>
+      </c>
+      <c r="B35">
+        <v>11439.761526232111</v>
+      </c>
+      <c r="D35" s="44">
+        <v>7745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1983</v>
+      </c>
+      <c r="B36">
+        <v>11882.01907790143</v>
+      </c>
+      <c r="D36" s="44">
+        <v>7824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1984</v>
+      </c>
+      <c r="B37">
+        <v>12559.5707472178</v>
+      </c>
+      <c r="D37" s="44">
+        <v>8135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1985</v>
+      </c>
+      <c r="B38">
+        <v>12456.18759936407</v>
+      </c>
+      <c r="D38" s="44">
+        <v>8288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>1986</v>
+      </c>
+      <c r="B39">
+        <v>12852.85850556438</v>
+      </c>
+      <c r="D39" s="44">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1987</v>
+      </c>
+      <c r="B40">
+        <v>13189.661367249601</v>
+      </c>
+      <c r="D40" s="44">
+        <v>8620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>1988</v>
+      </c>
+      <c r="B41">
+        <v>13615.535771065181</v>
+      </c>
+      <c r="D41" s="44">
+        <v>8773</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>1989</v>
+      </c>
+      <c r="B42">
+        <v>13939.50556438791</v>
+      </c>
+      <c r="D42" s="44">
+        <v>9086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>1990</v>
+      </c>
+      <c r="B43">
+        <v>13874.871224165341</v>
+      </c>
+      <c r="D43" s="44">
+        <v>9227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>1991</v>
+      </c>
+      <c r="B44">
+        <v>13570.94912559618</v>
+      </c>
+      <c r="D44" s="44">
+        <v>9373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>1992</v>
+      </c>
+      <c r="B45">
+        <v>14074.267090620029</v>
+      </c>
+      <c r="D45" s="44">
+        <v>9497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>1993</v>
+      </c>
+      <c r="B46">
+        <v>14152.57233704292</v>
+      </c>
+      <c r="D46" s="44">
+        <v>9571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>1994</v>
+      </c>
+      <c r="B47">
+        <v>15025.818759936399</v>
+      </c>
+      <c r="D47" s="44">
+        <v>9539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>1995</v>
+      </c>
+      <c r="B48">
+        <v>15524.717011128771</v>
+      </c>
+      <c r="D48" s="44">
+        <v>10070</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1996</v>
+      </c>
+      <c r="B49">
+        <v>16298.220985691571</v>
+      </c>
+      <c r="D49" s="44">
+        <v>11084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>1997</v>
+      </c>
+      <c r="B50">
+        <v>17228.263910969792</v>
+      </c>
+      <c r="D50" s="44">
+        <v>11514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1998</v>
+      </c>
+      <c r="B51">
+        <v>17875.612082670901</v>
+      </c>
+      <c r="D51" s="44">
+        <v>12228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>1999</v>
+      </c>
+      <c r="B52">
+        <v>19129.20031796502</v>
+      </c>
+      <c r="D52" s="44">
+        <v>12767</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>2000</v>
+      </c>
+      <c r="B53">
+        <v>20776</v>
+      </c>
+      <c r="D53" s="44">
+        <v>13199</v>
+      </c>
+      <c r="E53">
+        <v>6952.0186409456373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>2001</v>
+      </c>
+      <c r="B54">
+        <v>20067</v>
+      </c>
+      <c r="D54" s="44">
+        <v>13636</v>
+      </c>
+      <c r="E54">
+        <v>7029.967721237299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>2002</v>
+      </c>
+      <c r="B55">
+        <v>20292</v>
+      </c>
+      <c r="D55" s="44">
+        <v>13487</v>
+      </c>
+      <c r="E55">
+        <v>6858.9913693972994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>2003</v>
+      </c>
+      <c r="B56">
+        <v>20703</v>
+      </c>
+      <c r="D56" s="44">
+        <v>13699</v>
+      </c>
+      <c r="E56">
+        <v>7475.7839077943008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>2004</v>
+      </c>
+      <c r="B57">
+        <v>22137</v>
+      </c>
+      <c r="D57" s="44">
+        <v>14594</v>
+      </c>
+      <c r="E57">
+        <v>7475.9243112857002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>2005</v>
+      </c>
+      <c r="B58">
+        <v>21872</v>
+      </c>
+      <c r="D58" s="44">
+        <v>14927</v>
+      </c>
+      <c r="E58">
+        <v>8402.4118511779016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>2006</v>
+      </c>
+      <c r="B59">
+        <v>22009</v>
+      </c>
+      <c r="D59" s="44">
+        <v>14983</v>
+      </c>
+      <c r="E59">
+        <v>8504.8712991395023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>2007</v>
+      </c>
+      <c r="B60">
+        <v>23753</v>
+      </c>
+      <c r="D60" s="44">
+        <v>15508</v>
+      </c>
+      <c r="E60">
+        <v>8230.7334818801992</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>2008</v>
+      </c>
+      <c r="B61">
+        <v>23145</v>
+      </c>
+      <c r="D61" s="44">
+        <v>15537</v>
+      </c>
+      <c r="E61">
+        <v>7235.8694416013004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>2009</v>
+      </c>
+      <c r="B62">
+        <v>23145</v>
+      </c>
+      <c r="D62" s="44">
+        <v>15945</v>
+      </c>
+      <c r="E62">
+        <v>8354.0918708251647</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>2010</v>
+      </c>
+      <c r="B63">
+        <v>24194.52173168564</v>
+      </c>
+      <c r="D63" s="44">
+        <v>15990</v>
+      </c>
+      <c r="E63">
+        <v>9046.3264891723593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>2011</v>
+      </c>
+      <c r="B64">
+        <v>25089.29089953471</v>
+      </c>
+      <c r="D64" s="44">
+        <v>15965</v>
+      </c>
+      <c r="E64">
+        <v>9043.9376022742108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>2012</v>
+      </c>
+      <c r="B65">
+        <v>25297.975557049198</v>
+      </c>
+      <c r="D65" s="44">
+        <v>16692</v>
+      </c>
+      <c r="E65">
+        <v>9252.9652058623305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>2013</v>
+      </c>
+      <c r="B66">
+        <v>26259.767623756532</v>
+      </c>
+      <c r="D66" s="44">
+        <v>18190</v>
+      </c>
+      <c r="E66">
+        <v>9652.3273730605197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>2014</v>
+      </c>
+      <c r="B67">
+        <v>27894.831923939641</v>
+      </c>
+      <c r="D67" s="44">
+        <v>18426</v>
+      </c>
+      <c r="E67">
+        <v>9480.77543268714</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>2015</v>
+      </c>
+      <c r="B68">
+        <v>27978.19375439177</v>
+      </c>
+      <c r="D68" s="44">
+        <v>19149</v>
+      </c>
+      <c r="E68">
+        <v>9415.0511819017902</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>2016</v>
+      </c>
+      <c r="B69">
+        <v>28520.721798863349</v>
+      </c>
+      <c r="D69" s="44">
+        <v>20357</v>
+      </c>
+      <c r="E69">
+        <v>9983.9347356099406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>2017</v>
+      </c>
+      <c r="B70">
+        <v>29751.152073732701</v>
+      </c>
+      <c r="D70" s="44">
+        <v>20038</v>
+      </c>
+      <c r="E70">
+        <v>9980.2319609177994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>2018</v>
+      </c>
+      <c r="B71">
+        <v>30709.677419354801</v>
+      </c>
+      <c r="D71">
+        <v>20539</v>
+      </c>
+      <c r="E71">
+        <v>9619.4503171247306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>2019</v>
+      </c>
+      <c r="B72">
+        <v>30046.0829493087</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A510BC-6699-4D7F-A1BA-2D5B6A269B1B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3">
+        <v>1995</v>
+      </c>
+      <c r="B3">
+        <v>1469.917875310188</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="E3">
+        <v>461.47509857472789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1996</v>
+      </c>
+      <c r="B4">
+        <v>1432.5767347969486</v>
+      </c>
+      <c r="E4">
+        <v>461.65741021908769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1997</v>
+      </c>
+      <c r="B5">
+        <v>1558.8604356972196</v>
+      </c>
+      <c r="E5">
+        <v>508.20377528446966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1998</v>
+      </c>
+      <c r="B6">
+        <v>1566.6470888700878</v>
+      </c>
+      <c r="E6">
+        <v>530.06172301643778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1999</v>
+      </c>
+      <c r="B7">
+        <v>1635.0227035488601</v>
+      </c>
+      <c r="E7">
+        <v>523.39043338001011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+      <c r="B8">
+        <v>1661.7302002671909</v>
+      </c>
+      <c r="E8">
+        <v>507.88404642104092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2001</v>
+      </c>
+      <c r="B9">
+        <v>1646.5508055892237</v>
+      </c>
+      <c r="E9">
+        <v>506.77594630217362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2002</v>
+      </c>
+      <c r="B10">
+        <v>1828.5151622065189</v>
+      </c>
+      <c r="E10">
+        <v>623.07426164366882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2003</v>
+      </c>
+      <c r="B11">
+        <v>1852.2122080473666</v>
+      </c>
+      <c r="E11">
+        <v>599.86699228751672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12">
+        <v>1918.1720841064041</v>
+      </c>
+      <c r="E12">
+        <v>637.68427922835428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2005</v>
+      </c>
+      <c r="B13">
+        <v>1807.1371119820149</v>
+      </c>
+      <c r="E13">
+        <v>526.64930710397505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14">
+        <v>2007.3552125204042</v>
+      </c>
+      <c r="E14">
+        <v>572.08316749226424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2007</v>
+      </c>
+      <c r="B15">
+        <v>1863.4250041489902</v>
+      </c>
+      <c r="E15">
+        <v>512.58072647544986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16">
+        <v>1854.4805365204747</v>
+      </c>
+      <c r="E16">
+        <v>536.46927948483471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2009</v>
+      </c>
+      <c r="B17">
+        <v>1773.6215012491273</v>
+      </c>
+      <c r="E17">
+        <v>502.5145594104772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2010</v>
+      </c>
+      <c r="B18">
+        <v>2070.5609888925214</v>
+      </c>
+      <c r="E18">
+        <v>574.31333410828154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2011</v>
+      </c>
+      <c r="B19">
+        <v>2253.2043546584018</v>
+      </c>
+      <c r="E19">
+        <v>611.5533227634719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20">
+        <v>2317.9463444890989</v>
+      </c>
+      <c r="E20">
+        <v>615.31970283806891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>2013</v>
+      </c>
+      <c r="B21">
+        <v>2457.656878677687</v>
+      </c>
+      <c r="E21">
+        <v>637.76944903416688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2014</v>
+      </c>
+      <c r="B22">
+        <v>2551.1525244544005</v>
+      </c>
+      <c r="E22">
+        <v>646.83732745628015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>2015</v>
+      </c>
+      <c r="B23">
+        <v>2543.4257897672492</v>
+      </c>
+      <c r="E23">
+        <v>629.729729729729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>2016</v>
+      </c>
+      <c r="B24">
+        <v>2727.9397596470685</v>
+      </c>
+      <c r="E24">
+        <v>659.45945945945903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25">
+        <v>2940.1957304396319</v>
+      </c>
+      <c r="E25">
+        <v>721.62162162162201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>2018</v>
+      </c>
+      <c r="B26">
+        <v>3118.0315399827541</v>
+      </c>
+      <c r="E26">
+        <v>754.05405405405395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27">
+        <v>3226.8622280817385</v>
+      </c>
+      <c r="E27">
+        <v>787.83783783783804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>2020</v>
+      </c>
+      <c r="B28">
+        <v>3190.6115308554304</v>
+      </c>
+      <c r="E28">
+        <v>779.72972972973002</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf" xr:uid="{6A9BA9A3-4A78-4B4E-BD43-8AA40E877029}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf" xr:uid="{C0AE32C9-51D6-3144-A647-96668195AEB2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F7DF0-DEFE-5B4E-A02B-45B87F0BD333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB1F97-E8A8-2A44-A577-EE5485450B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="7" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="-5040" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="364">
   <si>
     <t>Al</t>
   </si>
@@ -664,9 +664,6 @@
   </si>
   <si>
     <t>Primary commodity price</t>
-  </si>
-  <si>
-    <t>baseline_scenario.xlsx for aluminum, sheet ref_prices</t>
   </si>
   <si>
     <t>baseline_scenario.xlsx for aluminum, sheet smelter_prod</t>
@@ -1802,7 +1799,7 @@
         <v>94</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R1" s="38" t="s">
         <v>95</v>
@@ -1862,7 +1859,7 @@
         <v>109</v>
       </c>
       <c r="AK1" s="38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="14.5" customHeight="1">
@@ -2001,32 +1998,32 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AB3" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE3" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="AE3" s="21" t="s">
+      <c r="AF3" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AI3" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
@@ -2140,41 +2137,41 @@
         <v>21</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>133</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA5" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AB5" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH5" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AI5" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
@@ -2244,31 +2241,31 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA6" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AB6" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="AC6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE6" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AF6" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AG6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="AG6" s="7" t="s">
+      <c r="AH6" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
@@ -2341,38 +2338,38 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA7" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AB7" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="AC7" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD7" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE7" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AF7" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AG7" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="AG7" s="9" t="s">
-        <v>243</v>
-      </c>
       <c r="AH7" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="14.5" customHeight="1">
@@ -2442,31 +2439,31 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="AA8" s="7" t="s">
+      <c r="AB8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AF8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AF8" s="7" t="s">
+      <c r="AG8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH8" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
@@ -2539,31 +2536,31 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA9" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="AA9" s="9" t="s">
+      <c r="AB9" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="AB9" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD9" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE9" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="AE9" s="9" t="s">
+      <c r="AF9" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="AF9" s="9" t="s">
+      <c r="AG9" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="AG9" s="9" t="s">
+      <c r="AH9" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="AH9" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
@@ -2639,29 +2636,29 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="AA10" s="7" t="s">
+      <c r="AB10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="AC10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AF10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
@@ -2732,23 +2729,23 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC11" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF11" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="AF11" s="9" t="s">
+      <c r="AG11" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="AG11" s="9" t="s">
+      <c r="AH11" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="AH11" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
@@ -2822,35 +2819,35 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB12" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AD12" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE12" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AE12" s="7" t="s">
+      <c r="AF12" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AF12" s="7" t="s">
+      <c r="AG12" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="AG12" s="7" t="s">
+      <c r="AH12" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AH12" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="AI12" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="14.5" customHeight="1">
@@ -2926,20 +2923,20 @@
         <v>107</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="14.5" customHeight="1">
@@ -3022,7 +3019,7 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="14.5" customHeight="1">
@@ -3182,7 +3179,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="14.5" customHeight="1">
@@ -3253,31 +3250,31 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB17" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="AC17" s="9" t="s">
         <v>107</v>
       </c>
       <c r="AD17" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE17" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="AE17" s="9" t="s">
+      <c r="AF17" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="AF17" s="9" t="s">
+      <c r="AG17" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="AG17" s="9" t="s">
+      <c r="AH17" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="AH17" s="9" t="s">
+      <c r="AI17" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="AI17" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
@@ -3349,34 +3346,34 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA18" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="AA18" s="7" t="s">
+      <c r="AB18" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="AB18" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="AC18" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AD18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE18" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="AE18" s="7" t="s">
+      <c r="AF18" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="AF18" s="7" t="s">
+      <c r="AG18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="AG18" s="7" t="s">
+      <c r="AH18" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="AH18" s="7" t="s">
+      <c r="AI18" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="AI18" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
@@ -3454,22 +3451,22 @@
         <v>107</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AE19" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF19" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="AF19" s="9" t="s">
+      <c r="AG19" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="AG19" s="9" t="s">
+      <c r="AH19" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="AH19" s="9" t="s">
+      <c r="AI19" s="24" t="s">
         <v>305</v>
-      </c>
-      <c r="AI19" s="24" t="s">
-        <v>306</v>
       </c>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
@@ -3527,7 +3524,7 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
@@ -3535,10 +3532,10 @@
         <v>107</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
@@ -3613,7 +3610,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9" t="s">
@@ -3622,16 +3619,16 @@
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG21" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="AG21" s="9" t="s">
+      <c r="AH21" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="AH21" s="9" t="s">
+      <c r="AI21" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="AI21" s="9" t="s">
-        <v>313</v>
       </c>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
@@ -4006,11 +4003,11 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC27" s="9" t="s">
         <v>77</v>
@@ -4020,7 +4017,7 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
@@ -4091,25 +4088,25 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC28" s="7" t="s">
         <v>77</v>
       </c>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF28" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="AF28" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
@@ -4257,7 +4254,7 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -4265,13 +4262,13 @@
         <v>77</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
@@ -4427,7 +4424,7 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7"/>
@@ -4494,24 +4491,24 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AC33" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="14.5" customHeight="1">
@@ -4579,11 +4576,11 @@
         <v>77</v>
       </c>
       <c r="AD34" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
@@ -4657,13 +4654,13 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA35" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="AA35" s="9" t="s">
+      <c r="AB35" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="AB35" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="AC35" s="9" t="s">
         <v>91</v>
@@ -4671,11 +4668,11 @@
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG35" s="9"/>
       <c r="AH35" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9"/>
@@ -4683,7 +4680,7 @@
     </row>
     <row r="36" spans="1:37" ht="14.5" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B36" s="6">
         <v>0.5</v>
@@ -4752,7 +4749,7 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
@@ -4823,13 +4820,13 @@
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA37" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="AA37" s="21" t="s">
-        <v>336</v>
-      </c>
       <c r="AB37" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -4838,7 +4835,7 @@
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
       <c r="AI37" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
@@ -5139,10 +5136,10 @@
         <v>34</v>
       </c>
       <c r="T41" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V41" s="9" t="s">
         <v>89</v>
@@ -5244,26 +5241,26 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC42" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="AC42" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="14.5" customHeight="1">
@@ -5334,19 +5331,19 @@
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA43" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="AA43" s="8" t="s">
+      <c r="AB43" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC43" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="AB43" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC43" s="8" t="s">
+      <c r="AD43" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="AD43" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="AE43" s="8" t="s">
         <v>174</v>
@@ -5427,7 +5424,7 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
@@ -5518,7 +5515,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
@@ -6965,7 +6962,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6978,10 +6975,10 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7110,10 +7107,10 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7242,10 +7239,10 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7374,10 +7371,10 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7506,10 +7503,10 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7644,7 +7641,7 @@
         <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7652,16 +7649,16 @@
         <v>180</v>
       </c>
       <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
         <v>207</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>209</v>
-      </c>
-      <c r="E2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8015,13 +8012,10 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
         <v>189</v>
-      </c>
-      <c r="F1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -8032,16 +8026,13 @@
         <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
         <v>190</v>
-      </c>
-      <c r="F2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -8060,9 +8051,6 @@
       <c r="E3">
         <v>23586.24209233735</v>
       </c>
-      <c r="F3">
-        <v>1997.990544573149</v>
-      </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="16">
@@ -8081,9 +8069,6 @@
       <c r="E4">
         <v>25194.165146347539</v>
       </c>
-      <c r="F4">
-        <v>1838.4396229051929</v>
-      </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16">
@@ -8102,9 +8087,6 @@
       <c r="E5">
         <v>27745.08599541587</v>
       </c>
-      <c r="F5">
-        <v>1907.276112573717</v>
-      </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16">
@@ -8123,9 +8105,6 @@
       <c r="E6">
         <v>30515.48678321252</v>
       </c>
-      <c r="F6">
-        <v>2228.4588737757058</v>
-      </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16">
@@ -8144,9 +8123,6 @@
       <c r="E7">
         <v>32643.722467116389</v>
       </c>
-      <c r="F7">
-        <v>2382.448420935978</v>
-      </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="16">
@@ -8165,9 +8141,6 @@
       <c r="E8">
         <v>34462.637786284176</v>
       </c>
-      <c r="F8">
-        <v>3125.505594967824</v>
-      </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="16">
@@ -8186,9 +8159,6 @@
       <c r="E9">
         <v>37969.643535283409</v>
       </c>
-      <c r="F9">
-        <v>3117.6924239405012</v>
-      </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="16">
@@ -8207,9 +8177,6 @@
       <c r="E10">
         <v>37362.88382821971</v>
       </c>
-      <c r="F10">
-        <v>2922.3878569951462</v>
-      </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="16">
@@ -8228,9 +8195,6 @@
       <c r="E11">
         <v>34310.548171226808</v>
       </c>
-      <c r="F11">
-        <v>1906.5541133100689</v>
-      </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="16">
@@ -8249,9 +8213,6 @@
       <c r="E12">
         <v>40964.877386645618</v>
       </c>
-      <c r="F12">
-        <v>2445.3185389499299</v>
-      </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="16">
@@ -8270,9 +8231,6 @@
       <c r="E13">
         <v>44837.939514223071</v>
       </c>
-      <c r="F13">
-        <v>2612.789739630387</v>
-      </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="16">
@@ -8291,9 +8249,6 @@
       <c r="E14">
         <v>47385.393635782973</v>
       </c>
-      <c r="F14">
-        <v>2154.2061262851012</v>
-      </c>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="16">
@@ -8312,9 +8267,6 @@
       <c r="E15">
         <v>50616.171567437828</v>
       </c>
-      <c r="F15">
-        <v>1941.4559645999159</v>
-      </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="16">
@@ -8333,9 +8285,6 @@
       <c r="E16">
         <v>54441.448371809187</v>
       </c>
-      <c r="F16">
-        <v>1931.6562146455269</v>
-      </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="16">
@@ -8354,9 +8303,6 @@
       <c r="E17">
         <v>56457.355204526582</v>
       </c>
-      <c r="F17">
-        <v>1718.822515501764</v>
-      </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="16">
@@ -8375,9 +8321,6 @@
       <c r="E18">
         <v>59840.904293387277</v>
       </c>
-      <c r="F18">
-        <v>1638.030008156964</v>
-      </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="16">
@@ -8396,9 +8339,6 @@
       <c r="E19">
         <v>63286.825501539977</v>
       </c>
-      <c r="F19">
-        <v>1968.820192307692</v>
-      </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="16">
@@ -8417,9 +8357,6 @@
       <c r="E20">
         <v>65227.740682118529</v>
       </c>
-      <c r="F20">
-        <v>2058.2133831903961</v>
-      </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="16">
@@ -8438,9 +8375,6 @@
       </c>
       <c r="E21">
         <v>64388.651379406132</v>
-      </c>
-      <c r="F21">
-        <v>1710.9266016454696</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -8475,16 +8409,16 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" t="s">
         <v>195</v>
       </c>
-      <c r="E1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" t="s">
-        <v>196</v>
-      </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -8492,19 +8426,19 @@
         <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" t="s">
         <v>198</v>
-      </c>
-      <c r="C2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16">
@@ -9061,19 +8995,19 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" t="s">
         <v>195</v>
       </c>
-      <c r="E1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" t="s">
-        <v>196</v>
-      </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L1" t="s">
         <v>192</v>
@@ -9082,7 +9016,7 @@
         <v>192</v>
       </c>
       <c r="Q1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -9090,29 +9024,29 @@
         <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M2" s="42"/>
       <c r="Q2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -9797,7 +9731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4E14CA-A602-4FF7-9D44-04838930B2AC}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -9811,10 +9745,10 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9943,10 +9877,10 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9954,7 +9888,7 @@
         <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -10241,10 +10175,10 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10252,7 +10186,7 @@
         <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -10674,7 +10608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70BBC54-9A6A-4436-A684-DF848EF748EA}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -10688,10 +10622,10 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10699,13 +10633,13 @@
         <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -11526,10 +11460,10 @@
         <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11537,11 +11471,11 @@
         <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB1F97-E8A8-2A44-A577-EE5485450B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE9E21-FFFE-FE44-A271-69CE67A39F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5040" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -31,6 +31,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="381">
   <si>
     <t>Al</t>
   </si>
@@ -507,9 +508,6 @@
     <t>collection_rate_target_transport</t>
   </si>
   <si>
-    <t>Appears all gold gets refined</t>
-  </si>
-  <si>
     <t>90% comes from jewelry, rest from electronics, 10-year average shows 33% from recycling https://www.gold.org/gold-supply; https://www.gold.org/about-gold/market-structure-and-flows</t>
   </si>
   <si>
@@ -609,18 +607,9 @@
     <t>Scrapmonster.com, showed 0.88 USD/lb zinc scrap, reported 02/24/22, accessed 5/30/22 for N America</t>
   </si>
   <si>
-    <t>Scrapmonster.com, showed 18.33 USD/oz silver scrap, reported 02/27/22, accessed 5/30/22 for N America</t>
-  </si>
-  <si>
-    <t>talk to Rich</t>
-  </si>
-  <si>
     <t>assumed 95%, no basis</t>
   </si>
   <si>
-    <t>talk to Dragan</t>
-  </si>
-  <si>
     <t>Our model, np.exp(np.log(mod.minemod.ml.loc[2019]['Head grade (%)']).mean()), dividing by 1.93, the ratio of alumina per aluminum since our grade is in %Al2O3</t>
   </si>
   <si>
@@ -783,105 +772,54 @@
     <t>https://www.statista.com/statistics/1131720/china-refined-nickel-consumption-volume/</t>
   </si>
   <si>
-    <t>https://www.silverinstitute.org/wp-content/uploads/2018/09/ChineseSilverMarket20182.pdf</t>
-  </si>
-  <si>
     <t>https://www.statista.com/statistics/1131866/china-zinc-slab-consumption-volume/</t>
   </si>
   <si>
-    <t>https://www.statista.com/statistics/1131647/china-refined-lead-consumption-volume/</t>
-  </si>
-  <si>
     <t>https://www.imoa.info/molybdenum/molybdenum-global-production-use.php</t>
   </si>
   <si>
     <t>tungsten carbide products 2016</t>
   </si>
   <si>
-    <t>solders //https://www.internationaltin.org/pandemic-not-all-bad-news-for-tin/</t>
-  </si>
-  <si>
     <t>sputtering targets</t>
   </si>
   <si>
-    <t>stainless steel</t>
-  </si>
-  <si>
     <t>jewelry</t>
   </si>
   <si>
-    <t>galvanizinghttps://www.statista.com/statistics/240626/share-of-zinc-consumption-by-category/</t>
-  </si>
-  <si>
-    <t>https://www.essentialchemicalindustry.org/metals/lead.html</t>
-  </si>
-  <si>
     <t>solar</t>
   </si>
   <si>
     <t>steels &amp; superalloys 2016</t>
   </si>
   <si>
-    <t>chemicals tinplate</t>
-  </si>
-  <si>
     <t>alloy additives //https://www.sciencedirect.com/science/article/pii/S0921344917301556</t>
   </si>
   <si>
     <t>batteries</t>
   </si>
   <si>
-    <t>coins and bars</t>
-  </si>
-  <si>
-    <t>die-casting alloys</t>
-  </si>
-  <si>
     <t>foundries</t>
   </si>
   <si>
     <t>tungsten metal products 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">batteries </t>
-  </si>
-  <si>
     <t>chemicals and carbides</t>
   </si>
   <si>
-    <t>special steels</t>
-  </si>
-  <si>
     <t>silverware</t>
   </si>
   <si>
-    <t>brass&amp;casting</t>
-  </si>
-  <si>
-    <t>lead compounds</t>
-  </si>
-  <si>
     <t>mo-metals</t>
   </si>
   <si>
     <t>chemicals &amp; others 2016</t>
   </si>
   <si>
-    <t>tin copper</t>
-  </si>
-  <si>
     <t>mill produts</t>
   </si>
   <si>
-    <t>electroplating</t>
-  </si>
-  <si>
-    <t>industrial fabrication</t>
-  </si>
-  <si>
-    <t>oxides &amp;chemicals</t>
-  </si>
-  <si>
     <t xml:space="preserve">chemicals </t>
   </si>
   <si>
@@ -891,18 +829,9 @@
     <t>https://www.sprott.com/media/2268/world-silver-survey-2019.pdf</t>
   </si>
   <si>
-    <t>semi-manufacturers</t>
-  </si>
-  <si>
-    <t>protective sheathing</t>
-  </si>
-  <si>
     <t>nickel alloys</t>
   </si>
   <si>
-    <t>I calculated with a loss of zero because I could not find any data online</t>
-  </si>
-  <si>
     <t>980 tonnes of recycled material 2014 data (2800-980)/2800</t>
   </si>
   <si>
@@ -945,9 +874,6 @@
     <t>https://tantaline.com/technology/corrosion-properties/</t>
   </si>
   <si>
-    <t>https://www.nickel-japan.com/magazine/pdf/201403_EN.pdf</t>
-  </si>
-  <si>
     <t>https://www.sii.co.jp/en/me/battery/products/silver-oxide/expiry-guide/#:~:text=The%20recommended%20usage%20period%20of,from%20the%20month%20of%20manufacturing.</t>
   </si>
   <si>
@@ -972,9 +898,6 @@
     <t>https://www.electronicsweekly.com/news/now-alternative-solid-tantalum-capacitors-2017-03/#:~:text=Whilst%20MLCCs%20are%20susceptible%20to,of%202%20years%20or%20less.</t>
   </si>
   <si>
-    <t>https://data.energizer.com/pdfs/nickelmetalhydride_appman.pdf</t>
-  </si>
-  <si>
     <t>https://blog.epectec.com/understanding-how-solder-and-coatings-impact-pcb-shelf-life#:~:text=Depending%20on%20the%20solder%20that,last%20up%20to%2010%20years.</t>
   </si>
   <si>
@@ -1038,9 +961,6 @@
     <t>year is 2017 // http://www.iue.cas.cn/xwzx/kydt/202007/P020200724633579351342.pdf</t>
   </si>
   <si>
-    <t>1100/3900</t>
-  </si>
-  <si>
     <t>https://sustainability.zinc.org/recycling/</t>
   </si>
   <si>
@@ -1068,9 +988,6 @@
     <t>https://www.researchgate.net/publication/260189335_The_Evolving_Copper-Tellurium_Byproduct_System_A_Review_of_Changing_Production_Techniques_Their_Implications</t>
   </si>
   <si>
-    <t>https://www.copper.org/publications/newsletters/innovations/2001/08/hydrometallurgy.html</t>
-  </si>
-  <si>
     <t>data from 2018: https://www.sciencedirect.com/science/article/pii/S0263436821000780#bb0015</t>
   </si>
   <si>
@@ -1098,12 +1015,6 @@
     <t>https://pubs.usgs.gov/periodicals/mcs2021/mcs2021-platinum.pdf</t>
   </si>
   <si>
-    <t>https://www.statista.com/statistics/1009446/tungsten-price/</t>
-  </si>
-  <si>
-    <t>https://www.argusmedia.com/en/news/2222244-eu-tantalum-prices-rebound-on-higher-input-costs</t>
-  </si>
-  <si>
     <t>https://trade-metal.com/news-copper-scrap-prices-review-12.html</t>
   </si>
   <si>
@@ -1177,6 +1088,147 @@
   </si>
   <si>
     <t>IGSG Factbook 2018</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>The Silver Institute, World Silver Surveys, taking the maximum value reported in the surveys from 2001-2022, https://www.silverinstitute.org/all-world-silver-surveys/. Using total demand after hedging adjustments (appears equal to total supply)</t>
+  </si>
+  <si>
+    <t>The Silver Institute, World Silver Surveys, taking the maximum value reported in the surveys from 2001-2022, https://www.silverinstitute.org/all-world-silver-surveys/. Using scrap supply reported, assuming that only the scrap that is consumed is reported as collected</t>
+  </si>
+  <si>
+    <t>International Zinc Association Publication: Zinc Recycling 2050 Demand and Supply, https://www.zinc.org/wp-content/uploads/sites/24/2022/03/2050-Demand-Supply_VF_3_22.pdf, figure 3</t>
+  </si>
+  <si>
+    <t>International Zinc Association Publication: Zinc Recycling 2050 Demand and Supply, https://www.zinc.org/wp-content/uploads/sites/24/2022/03/2050-Demand-Supply_VF_3_22.pdf, figure 4</t>
+  </si>
+  <si>
+    <t>1990-2005: http://large.stanford.edu/publications/power/references/docs/ILZSG.pdf (page 35, has data back to the 1970s), 2017-2021: https://www.ilzsg.org/static/statistics.aspx?from=1, 2005-2016: used page 21 of https://gdb-online.org/www.blei-online.org/wp-content/uploads/2021/10/ILZSG-Lead-Factbook.pdf, asserted alignment between this data and previously existing data by assuming a linear change in the ratio between the original data and this data for years where there was overlap, and multiplying this data by this ratio to maximize continuity</t>
+  </si>
+  <si>
+    <t>Total production minus mine prod</t>
+  </si>
+  <si>
+    <t>Mine production</t>
+  </si>
+  <si>
+    <t>2007-2018: used page 21 of https://gdb-online.org/www.blei-online.org/wp-content/uploads/2021/10/ILZSG-Lead-Factbook.pdf, 1990-2004: use Total production minus Mine production from page 21 of https://gdb-online.org/www.blei-online.org/wp-content/uploads/2021/10/ILZSG-Lead-Factbook.pdf. 2018-2021 use Metal production minus Mine production from https://www.ilzsg.org/static/statistics.aspx?from=1. For 2005, interpolate recycling input rate from 2004 and 2006 and calculate scrap demand from that</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/1131647/china-refined-lead-consumption-volume/, 5.08/12.162</t>
+  </si>
+  <si>
+    <t>S&amp;P Global Market Intelligence, using recovered metal content for all nickel-producing mines in 2019. Assuming SX-EW if payable percent is 100%.", https://feeco.com/sx-ew-moves-into-new-metal-markets/</t>
+  </si>
+  <si>
+    <t>S&amp;P Global Market Intelligence, using recovered metal content for all nickel-producing mines in 2019. Assuming SX-EW if payable percent is 100%.", https://feeco.com/sx-ew-moves-into-new-metal-markets/, https://www.copper.org/publications/newsletters/innovations/2001/08/hydrometallurgy.html</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/1009446/tungsten-price/, https://www.metalary.com/tungsten-price/</t>
+  </si>
+  <si>
+    <t>https://www.argusmedia.com/en/news/2222244-eu-tantalum-prices-rebound-on-higher-input-costs, https://www.statista.com/statistics/1009173/tantalum-price/, reported 161 USD/kg</t>
+  </si>
+  <si>
+    <t>https://www.argusmedia.com/en/news/2222244-eu-tantalum-prices-rebound-on-higher-input-costs, reported 135 USD/lb</t>
+  </si>
+  <si>
+    <t>https://www.macrotrends.net/1470/historical-silver-prices-100-year-chart</t>
+  </si>
+  <si>
+    <t>Scrapmonster.com, showed 18.33 USD/oz silver scrap, reported 02/27/22, accessed 5/30/22 for N America, https://www.scrapmonster.com/news/29th-october-2019-scrap-gold-silver-and-platinum-prices-dipped-on-index/1/73213 - 14.86 USD/oz</t>
+  </si>
+  <si>
+    <t>https://platinuminvestment.com/about/60-seconds-in-platinum/2020/06/24#:~:text=China%20is%20the%20second%20largest,per%20cent%20of%20global%20demand</t>
+  </si>
+  <si>
+    <t>https://pubs.usgs.gov/periodicals/mcs2021/mcs2021-tellurium.pdf</t>
+  </si>
+  <si>
+    <t>https://d9-wret.s3.us-west-2.amazonaws.com/assets/palladium/production/mineral-pubs/zinc/zinc_mcs96.pdf</t>
+  </si>
+  <si>
+    <t>https://www.silverinstitute.org/wp-content/uploads/2018/09/ChineseSilverMarket20182.pdf - using this sector as industrial</t>
+  </si>
+  <si>
+    <t>bar and coin</t>
+  </si>
+  <si>
+    <t>From the Ag sheet</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0921344916300064, table 1 , The anthropogenic cycle of zinc: Status quo and perspectives, Meylan 2017</t>
+  </si>
+  <si>
+    <t>Anthropogenic nickel supply, demand, and associated energy and water use - ScienceDirect, https://www.sciencedirect.com/science/article/pii/S0921344917301817, figure 1 using most recent year</t>
+  </si>
+  <si>
+    <t>solder</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>tin platings brass</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>brass</t>
+  </si>
+  <si>
+    <t>all electronics</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>cans-other?</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>bc and electronics</t>
+  </si>
+  <si>
+    <t>Measuring the sustainability of tin in China - ScienceDirect, https://www.sciencedirect.com/science/article/pii/S0048969718312373, table 1, assuming that solder is evenly distributed between electrical and industrial, chemicals are fully in construction, tin platings are other, brass and bronze are evenly distributed between construction and transportation, batterials are in transportation, and float glass is evenly distributed between buildings and automotive</t>
+  </si>
+  <si>
+    <t>Assuming same as aluminum</t>
+  </si>
+  <si>
+    <t>https://www.sprott.com/media/2268/world-silver-survey-2019.pdf, using this sector as industrial; renamed as per gold</t>
+  </si>
+  <si>
+    <t>https://www.essentialchemicalindustry.org/metals/lead.html, where batteries are primarily used in transportation, we assume compounds are industrial, no electrical use, building industry is construction, and all the rest is other</t>
+  </si>
+  <si>
+    <t>expect these other uses to be more dissipative</t>
+  </si>
+  <si>
+    <t>Study finds nearly 100 percent recycling rate for lead ...</t>
+  </si>
+  <si>
+    <t>Same values from Au</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0921344917301817, table 2</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0048969718312373, using table 1, the subjective recycling possiblity labels as easy=0.75, moderate=0.5, difficult as 0.05. Blend of difficult and moderate was given 0.25</t>
+  </si>
+  <si>
+    <t>Assuming half of gold jewelry can be directly remelted</t>
+  </si>
+  <si>
+    <t>Assuming half of silver jewelry can be directly remelted</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1239,7 @@
     <numFmt numFmtId="164" formatCode="\Te"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,8 +1320,20 @@
       <color theme="1"/>
       <name val="Var(--jp-code-font-family)"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1287,22 +1351,25 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1311,7 +1378,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1371,11 +1438,6 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1385,13 +1447,990 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\Te"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1402,6 +2441,1133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Sheet1!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet1!$B$69:$AG$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.92500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169.2428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193.83500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>179.92222222222222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>183.39000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>188.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>188.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>188.48000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>194.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>198.76999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>196.53000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>195.38000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>195.73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>225.97777777777779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256.87777777777779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>245.65555555555551</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>190.61111111111111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168.26249999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>151.25714285714284</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>158.85</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>162.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>171.23333333333335</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>184.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>180.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7348-C64D-9341-5088CE44A817}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Sheet1!$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet1!$B$71:$AG$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>197.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>198.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>203.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>207.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>228.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>261.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>192.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>166.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>164.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>167.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>167.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>170.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>182.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>196.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>180.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7348-C64D-9341-5088CE44A817}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="662318752"/>
+        <c:axId val="662047088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="662318752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662047088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="662047088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662318752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6296167A-4490-CE4F-A274-5315865BF158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1439,6 +3605,464 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Mean total</v>
+          </cell>
+          <cell r="B68">
+            <v>714.9</v>
+          </cell>
+          <cell r="C68">
+            <v>728.65</v>
+          </cell>
+          <cell r="D68">
+            <v>770.6</v>
+          </cell>
+          <cell r="E68">
+            <v>765.55000000000007</v>
+          </cell>
+          <cell r="F68">
+            <v>768.4799999999999</v>
+          </cell>
+          <cell r="G68">
+            <v>811.65</v>
+          </cell>
+          <cell r="H68">
+            <v>842.88571428571436</v>
+          </cell>
+          <cell r="I68">
+            <v>827.72500000000002</v>
+          </cell>
+          <cell r="J68">
+            <v>882.65555555555545</v>
+          </cell>
+          <cell r="K68">
+            <v>929.14</v>
+          </cell>
+          <cell r="L68">
+            <v>875.99999999999977</v>
+          </cell>
+          <cell r="M68">
+            <v>860.32999999999993</v>
+          </cell>
+          <cell r="N68">
+            <v>877.61</v>
+          </cell>
+          <cell r="O68">
+            <v>875.17000000000007</v>
+          </cell>
+          <cell r="P68">
+            <v>931.76</v>
+          </cell>
+          <cell r="Q68">
+            <v>916.54</v>
+          </cell>
+          <cell r="R68">
+            <v>895.96</v>
+          </cell>
+          <cell r="S68">
+            <v>904.56000000000006</v>
+          </cell>
+          <cell r="T68">
+            <v>916.38000000000011</v>
+          </cell>
+          <cell r="U68">
+            <v>1072.2888888888888</v>
+          </cell>
+          <cell r="V68">
+            <v>1041.9666666666665</v>
+          </cell>
+          <cell r="W68">
+            <v>1005.7111111111111</v>
+          </cell>
+          <cell r="X68">
+            <v>1014.3444444444444</v>
+          </cell>
+          <cell r="Y68">
+            <v>1040.75</v>
+          </cell>
+          <cell r="Z68">
+            <v>1052.257142857143</v>
+          </cell>
+          <cell r="AA68">
+            <v>1002.4</v>
+          </cell>
+          <cell r="AB68">
+            <v>981.24</v>
+          </cell>
+          <cell r="AC68">
+            <v>989.52499999999986</v>
+          </cell>
+          <cell r="AD68">
+            <v>989.06666666666661</v>
+          </cell>
+          <cell r="AE68">
+            <v>913.16666666666663</v>
+          </cell>
+          <cell r="AF68">
+            <v>1041</v>
+          </cell>
+          <cell r="AG68">
+            <v>1101.8</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>141.9</v>
+          </cell>
+          <cell r="C69">
+            <v>148.30000000000001</v>
+          </cell>
+          <cell r="D69">
+            <v>148.5</v>
+          </cell>
+          <cell r="E69">
+            <v>151.92500000000001</v>
+          </cell>
+          <cell r="F69">
+            <v>162.82</v>
+          </cell>
+          <cell r="G69">
+            <v>158.30000000000001</v>
+          </cell>
+          <cell r="H69">
+            <v>169.2428571428571</v>
+          </cell>
+          <cell r="I69">
+            <v>193.83500000000001</v>
+          </cell>
+          <cell r="J69">
+            <v>179.92222222222222</v>
+          </cell>
+          <cell r="K69">
+            <v>180.43</v>
+          </cell>
+          <cell r="L69">
+            <v>183.39000000000001</v>
+          </cell>
+          <cell r="M69">
+            <v>188.94</v>
+          </cell>
+          <cell r="N69">
+            <v>188.07</v>
+          </cell>
+          <cell r="O69">
+            <v>188.48000000000002</v>
+          </cell>
+          <cell r="P69">
+            <v>194.05</v>
+          </cell>
+          <cell r="Q69">
+            <v>198.76999999999998</v>
+          </cell>
+          <cell r="R69">
+            <v>196.53000000000003</v>
+          </cell>
+          <cell r="S69">
+            <v>195.38000000000002</v>
+          </cell>
+          <cell r="T69">
+            <v>195.73</v>
+          </cell>
+          <cell r="U69">
+            <v>225.97777777777779</v>
+          </cell>
+          <cell r="V69">
+            <v>256.87777777777779</v>
+          </cell>
+          <cell r="W69">
+            <v>245.65555555555551</v>
+          </cell>
+          <cell r="X69">
+            <v>190.61111111111111</v>
+          </cell>
+          <cell r="Y69">
+            <v>168.26249999999999</v>
+          </cell>
+          <cell r="Z69">
+            <v>151.25714285714284</v>
+          </cell>
+          <cell r="AA69">
+            <v>151</v>
+          </cell>
+          <cell r="AB69">
+            <v>154.91999999999999</v>
+          </cell>
+          <cell r="AC69">
+            <v>158.85</v>
+          </cell>
+          <cell r="AD69">
+            <v>162.69999999999999</v>
+          </cell>
+          <cell r="AE69">
+            <v>171.23333333333335</v>
+          </cell>
+          <cell r="AF69">
+            <v>184.6</v>
+          </cell>
+          <cell r="AG69">
+            <v>180.5</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Max total</v>
+          </cell>
+          <cell r="B70">
+            <v>714.9</v>
+          </cell>
+          <cell r="C70">
+            <v>729.8</v>
+          </cell>
+          <cell r="D70">
+            <v>771.6</v>
+          </cell>
+          <cell r="E70">
+            <v>767.6</v>
+          </cell>
+          <cell r="F70">
+            <v>769.6</v>
+          </cell>
+          <cell r="G70">
+            <v>812.9</v>
+          </cell>
+          <cell r="H70">
+            <v>845.1</v>
+          </cell>
+          <cell r="I70">
+            <v>833.4</v>
+          </cell>
+          <cell r="J70">
+            <v>887.2</v>
+          </cell>
+          <cell r="K70">
+            <v>946.3</v>
+          </cell>
+          <cell r="L70">
+            <v>886.1</v>
+          </cell>
+          <cell r="M70">
+            <v>870.7</v>
+          </cell>
+          <cell r="N70">
+            <v>889.8</v>
+          </cell>
+          <cell r="O70">
+            <v>882.4</v>
+          </cell>
+          <cell r="P70">
+            <v>955.1</v>
+          </cell>
+          <cell r="Q70">
+            <v>926</v>
+          </cell>
+          <cell r="R70">
+            <v>913</v>
+          </cell>
+          <cell r="S70">
+            <v>915</v>
+          </cell>
+          <cell r="T70">
+            <v>931.7</v>
+          </cell>
+          <cell r="U70">
+            <v>1076.2</v>
+          </cell>
+          <cell r="V70">
+            <v>1045.4000000000001</v>
+          </cell>
+          <cell r="W70">
+            <v>1048.3</v>
+          </cell>
+          <cell r="X70">
+            <v>1071.2</v>
+          </cell>
+          <cell r="Y70">
+            <v>1061.8</v>
+          </cell>
+          <cell r="Z70">
+            <v>1070.4000000000001</v>
+          </cell>
+          <cell r="AA70">
+            <v>1025.8</v>
+          </cell>
+          <cell r="AB70">
+            <v>1032.5999999999999</v>
+          </cell>
+          <cell r="AC70">
+            <v>1004.3</v>
+          </cell>
+          <cell r="AD70">
+            <v>995.4</v>
+          </cell>
+          <cell r="AE70">
+            <v>963.4</v>
+          </cell>
+          <cell r="AF70">
+            <v>1049</v>
+          </cell>
+          <cell r="AG70">
+            <v>1101.8</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>141.9</v>
+          </cell>
+          <cell r="C71">
+            <v>148.30000000000001</v>
+          </cell>
+          <cell r="D71">
+            <v>148.5</v>
+          </cell>
+          <cell r="E71">
+            <v>152</v>
+          </cell>
+          <cell r="F71">
+            <v>162.9</v>
+          </cell>
+          <cell r="G71">
+            <v>158.4</v>
+          </cell>
+          <cell r="H71">
+            <v>169.3</v>
+          </cell>
+          <cell r="I71">
+            <v>193.98</v>
+          </cell>
+          <cell r="J71">
+            <v>181.6</v>
+          </cell>
+          <cell r="K71">
+            <v>180.8</v>
+          </cell>
+          <cell r="L71">
+            <v>189</v>
+          </cell>
+          <cell r="M71">
+            <v>197.3</v>
+          </cell>
+          <cell r="N71">
+            <v>196</v>
+          </cell>
+          <cell r="O71">
+            <v>198.7</v>
+          </cell>
+          <cell r="P71">
+            <v>203.4</v>
+          </cell>
+          <cell r="Q71">
+            <v>207.1</v>
+          </cell>
+          <cell r="R71">
+            <v>204.2</v>
+          </cell>
+          <cell r="S71">
+            <v>202</v>
+          </cell>
+          <cell r="T71">
+            <v>201.2</v>
+          </cell>
+          <cell r="U71">
+            <v>228.8</v>
+          </cell>
+          <cell r="V71">
+            <v>261.5</v>
+          </cell>
+          <cell r="W71">
+            <v>255.5</v>
+          </cell>
+          <cell r="X71">
+            <v>192.7</v>
+          </cell>
+          <cell r="Y71">
+            <v>175</v>
+          </cell>
+          <cell r="Z71">
+            <v>166.5</v>
+          </cell>
+          <cell r="AA71">
+            <v>164.5</v>
+          </cell>
+          <cell r="AB71">
+            <v>167.8</v>
+          </cell>
+          <cell r="AC71">
+            <v>167.8</v>
+          </cell>
+          <cell r="AD71">
+            <v>170.5</v>
+          </cell>
+          <cell r="AE71">
+            <v>182.1</v>
+          </cell>
+          <cell r="AF71">
+            <v>196.2</v>
+          </cell>
+          <cell r="AG71">
+            <v>180.5</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}" name="Table2" displayName="Table2" ref="A1:AK74" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="A1:AK74" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}"/>
+  <tableColumns count="37">
+    <tableColumn id="1" xr3:uid="{40ADE3C0-5A2A-EF4F-8C0A-E78782D82E02}" name="All reported for 2019" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{615A6B59-EBEC-C844-A1FB-87796630DC11}" name="Al" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{8BEB2A1A-6045-C140-997C-34C452B1D3D0}" name="Steel" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{5C86A66D-6EE9-B146-B55C-D8757F17B037}" name="Au" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{A6078A25-9A0C-A64B-9EE1-BA43315A365F}" name="Co" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{E0CEDA03-DC55-3B44-A7E5-0053003CDB10}" name="REEs" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{5865B79F-C134-2C40-BDEB-BBEAD1CBA704}" name="W" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{2C843D4E-B4BF-1B45-83BE-B63E46646133}" name="Sn" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{A5579C27-C0E7-FB46-A381-F1A4B88888E9}" name="Ta" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{57F0C03A-F849-764C-9937-672AC7FA7056}" name="Cu" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{58BB8033-7C57-D848-942D-0BA35942A4E5}" name="Ni" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{7D2E504B-DE0F-5048-8A9E-3349B8C91362}" name="Ag" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{20ADECBC-5BD7-1F43-B665-1C03CE65BE68}" name="Zn" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{F86548EA-FD6C-A542-8346-EE943D12FCEB}" name="Pb" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{D9E7B89D-2742-EE4A-A97B-9AA324E90CDA}" name="Mo" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{393A35BC-6237-DC47-B65B-B89C8241358C}" name="Pt" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{05D2296D-799C-314E-8B01-0CF90882530E}" name="Te" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{557B8136-A6CC-1240-B516-243DE5E1D903}" name="Li" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{40279C4B-C46A-C043-BFA9-9E1B21916E95}" name="Module" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{66B61934-2D32-564F-96D5-09E9629E5D56}" name="Notes" dataDxfId="17"/>
+    <tableColumn id="21" xr3:uid="{645E4E69-6F50-804C-881D-880C834B0203}" name="Al notes" dataDxfId="16"/>
+    <tableColumn id="22" xr3:uid="{90DD4288-CE4B-6044-A517-09272624FD8D}" name="Steel notes" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{147C405E-F3EA-7A4A-B2B2-24BF3CD11D9B}" name="Au notes" dataDxfId="14"/>
+    <tableColumn id="24" xr3:uid="{F16BEC0B-1427-144A-8799-B5F379A06D94}" name="Co notes" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{DB7EFCEC-6DAF-134B-8C11-E0A0DB189656}" name="REEs notes" dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{D80FA022-D2D4-7E4F-8FC4-237080C65C3B}" name="W notes" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{6F235120-4D08-EA44-8D0E-93E8DA46A412}" name="Sn notes" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{E8A3ED14-7138-1747-937A-59AE67C88670}" name="Ta notes" dataDxfId="9"/>
+    <tableColumn id="29" xr3:uid="{8414FDCB-8789-3140-BAD7-FF7E6B2D2B2E}" name="Cu notes" dataDxfId="8"/>
+    <tableColumn id="30" xr3:uid="{528927B4-EB07-BA42-8453-4372AA6AA6F7}" name="Ni notes" dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{00A41D60-8D5D-4F46-AEA2-F8B47E88F804}" name="Ag notes" dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{CEFD473E-CB57-2D4E-AC03-EF8A9102460F}" name="Zn notes" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{B9002D23-6D76-254D-AD25-D4D170F9ED6C}" name="Pb notes" dataDxfId="4"/>
+    <tableColumn id="34" xr3:uid="{DBC52FBD-93CC-ED4B-9723-C7D95A6F9AAC}" name="Mo notes" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{C7BCB0B4-C007-984B-B50C-A9B456069155}" name="Pt notes" dataDxfId="2"/>
+    <tableColumn id="36" xr3:uid="{DE757BB8-09AD-9C43-9442-34299E449C4B}" name="Li notes" dataDxfId="1"/>
+    <tableColumn id="37" xr3:uid="{5CC38546-ED90-B24C-83FB-87EE19E5E686}" name="Te notes" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1738,128 +4362,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
-  <dimension ref="A1:AK74"/>
+  <dimension ref="A1:AK94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="8.83203125" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" customWidth="1"/>
+    <col min="25" max="25" width="11.5" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
+    <col min="28" max="28" width="9.83203125" customWidth="1"/>
+    <col min="29" max="29" width="10.1640625" customWidth="1"/>
+    <col min="30" max="30" width="9.83203125" customWidth="1"/>
+    <col min="31" max="31" width="10.1640625" customWidth="1"/>
+    <col min="32" max="32" width="10" customWidth="1"/>
+    <col min="33" max="33" width="10.1640625" customWidth="1"/>
+    <col min="34" max="34" width="10.83203125" customWidth="1"/>
+    <col min="35" max="35" width="9.83203125" customWidth="1"/>
+    <col min="36" max="36" width="9.5" customWidth="1"/>
+    <col min="37" max="37" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="38" customFormat="1" ht="34" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:37" s="35" customFormat="1" ht="34" customHeight="1">
+      <c r="A1" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="R1" s="38" t="s">
+      <c r="Q1" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="R1" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AA1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AD1" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AE1" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AF1" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AG1" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AH1" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AI1" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AJ1" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="38" t="s">
-        <v>349</v>
+      <c r="AK1" s="35" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="14.5" customHeight="1">
@@ -1876,7 +4521,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
@@ -1888,7 +4533,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>10</v>
@@ -1914,7 +4559,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
@@ -1949,8 +4594,8 @@
       <c r="G3" s="8">
         <v>97.8</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>175</v>
+      <c r="H3">
+        <v>371.81700000000001</v>
       </c>
       <c r="I3" s="8">
         <v>2.4049999999999998</v>
@@ -1958,26 +4603,26 @@
       <c r="J3" s="19">
         <v>23600</v>
       </c>
-      <c r="K3" s="8">
-        <v>2441</v>
+      <c r="K3">
+        <v>3226.8622280817385</v>
       </c>
       <c r="L3" s="8">
-        <v>30993.75</v>
-      </c>
-      <c r="M3" s="19">
-        <v>13727</v>
-      </c>
-      <c r="N3" s="8">
-        <v>12162</v>
+        <v>26.7</v>
+      </c>
+      <c r="M3">
+        <v>17448.642054092597</v>
+      </c>
+      <c r="N3">
+        <v>12244</v>
       </c>
       <c r="O3" s="8">
-        <v>261405.3</v>
+        <v>261.40530000000001</v>
       </c>
       <c r="P3" s="8">
-        <v>243</v>
+        <v>0.18</v>
       </c>
       <c r="Q3" s="20">
-        <v>260</v>
+        <v>0.52</v>
       </c>
       <c r="R3" s="8">
         <v>298.08800000000002</v>
@@ -1989,7 +4634,7 @@
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V3" s="9" t="s">
         <v>134</v>
@@ -1998,32 +4643,32 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="AE3" s="21" t="s">
+      <c r="AI3" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
@@ -2037,13 +4682,9 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="I4" s="6"/>
       <c r="J4" s="6">
         <v>2.5399999999999999E-2</v>
       </c>
@@ -2115,7 +4756,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="M5" s="8">
-        <v>0.161</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="N5" s="8">
         <v>7.4999999999999997E-2</v>
@@ -2137,41 +4778,43 @@
         <v>21</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>133</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF5" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI5" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
@@ -2202,25 +4845,26 @@
         <v>0.52644999999999997</v>
       </c>
       <c r="K6" s="6">
-        <v>1300</v>
+        <v>0.53</v>
       </c>
       <c r="L6" s="6">
-        <v>3390</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="M6" s="6">
-        <v>6820</v>
+        <v>0.48980000000000001</v>
       </c>
       <c r="N6" s="6">
-        <v>5920</v>
+        <f>5.08/12.162</f>
+        <v>0.41769445814833084</v>
       </c>
       <c r="O6" s="6">
-        <v>215000</v>
+        <v>0.35589999999999999</v>
       </c>
       <c r="P6" s="6">
-        <v>29</v>
+        <v>0.26</v>
       </c>
       <c r="Q6" s="18">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="R6" s="6">
         <v>0</v>
@@ -2230,46 +4874,50 @@
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>132</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AC6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>232</v>
+        <v>354</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="AG6" s="42" t="s">
+        <v>343</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="AI6" s="7"/>
+        <v>229</v>
+      </c>
+      <c r="AI6" s="43" t="s">
+        <v>351</v>
+      </c>
       <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
+      <c r="AK6" s="43" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="7" spans="1:37" ht="14.5" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -2289,23 +4937,26 @@
       <c r="G7" s="8">
         <v>0.65</v>
       </c>
-      <c r="H7" s="8">
-        <v>0.49</v>
+      <c r="H7">
+        <f>1-SUM(H8:H11)</f>
+        <v>0.19100000000000006</v>
       </c>
       <c r="I7" s="8">
-        <v>14.5</v>
+        <f>14.5/100</f>
+        <v>0.14499999999999999</v>
       </c>
       <c r="J7" s="8">
         <v>0.3</v>
       </c>
-      <c r="K7" s="8">
-        <v>71</v>
+      <c r="K7" s="6">
+        <v>0.17605633802816922</v>
       </c>
       <c r="L7" s="8">
-        <v>21.2</v>
+        <f>(578.6/1033.5)-0.000001</f>
+        <v>0.55984418626028054</v>
       </c>
       <c r="M7" s="8">
-        <v>60</v>
+        <v>0.33</v>
       </c>
       <c r="N7" s="8">
         <v>0.05</v>
@@ -2327,49 +4978,49 @@
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V7" s="9" t="s">
         <v>132</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA7" s="9" t="s">
-        <v>237</v>
+        <v>230</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AC7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AD7" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG7" s="9" t="s">
-        <v>242</v>
+      <c r="AD7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE7" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF7" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG7" s="45" t="s">
+        <v>373</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="14.5" customHeight="1">
@@ -2390,26 +5041,27 @@
       <c r="G8" s="6">
         <v>0.1</v>
       </c>
-      <c r="H8" s="6">
-        <v>0.18</v>
+      <c r="H8">
+        <f>(48.3/2+1+5.2/2)/100</f>
+        <v>0.27750000000000002</v>
       </c>
       <c r="I8" s="6">
-        <v>19.100000000000001</v>
+        <v>0.191</v>
       </c>
       <c r="J8" s="6">
         <v>0.24</v>
       </c>
       <c r="K8" s="6">
-        <v>7</v>
-      </c>
-      <c r="L8" s="6">
-        <v>18</v>
+        <v>0.12103873239436645</v>
+      </c>
+      <c r="L8" s="15">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="M8" s="6">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0.8</v>
+        <v>0.19</v>
+      </c>
+      <c r="N8" s="15">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="O8" s="6">
         <v>0.05</v>
@@ -2428,42 +5080,34 @@
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>132</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AD8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>247</v>
-      </c>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
       <c r="AH8" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
@@ -2487,23 +5131,25 @@
       <c r="G9" s="8">
         <v>0.08</v>
       </c>
-      <c r="H9" s="8">
-        <v>0.12</v>
+      <c r="H9">
+        <f>48.3/2/100</f>
+        <v>0.24149999999999999</v>
       </c>
       <c r="I9" s="8">
-        <v>25.92</v>
+        <v>0.25919999999999999</v>
       </c>
       <c r="J9" s="8">
         <v>0.1</v>
       </c>
-      <c r="K9" s="8">
-        <v>6</v>
+      <c r="K9" s="6">
+        <v>0.30589788732394352</v>
       </c>
       <c r="L9" s="8">
-        <v>6.1</v>
+        <f>181.2/1033.5</f>
+        <v>0.1753265602322206</v>
       </c>
       <c r="M9" s="8">
-        <v>11</v>
+        <v>0.08</v>
       </c>
       <c r="N9" s="22">
         <v>0.09</v>
@@ -2525,42 +5171,36 @@
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>132</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA9" s="9" t="s">
-        <v>252</v>
+        <v>238</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AD9" s="9" t="s">
-        <v>254</v>
-      </c>
+      <c r="AD9" s="9"/>
       <c r="AE9" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF9" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG9" s="9" t="s">
-        <v>257</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
       <c r="AH9" s="9" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
@@ -2586,26 +5226,29 @@
       <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="H10" s="6">
-        <v>7.0000000000000007E-2</v>
+      <c r="H10">
+        <f>(7+14.7)/100</f>
+        <v>0.217</v>
       </c>
       <c r="I10" s="6">
-        <v>10.7</v>
+        <v>0.107</v>
       </c>
       <c r="J10" s="6">
         <v>0.25</v>
       </c>
-      <c r="K10" s="6">
-        <v>6</v>
+      <c r="K10" s="8">
+        <v>0.23019366197183075</v>
       </c>
       <c r="L10" s="6">
-        <v>57.6</v>
+        <f>61.1/1033.5</f>
+        <v>5.9119496855345913E-2</v>
       </c>
       <c r="M10" s="6">
-        <v>9</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0.03</v>
+        <v>0.15</v>
+      </c>
+      <c r="N10" s="51">
+        <f>1-N11-N9-N8-N7</f>
+        <v>5.9998999999999955E-2</v>
       </c>
       <c r="O10" s="6">
         <v>0.13</v>
@@ -2625,40 +5268,36 @@
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>132</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA10" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="AC10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AD10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>264</v>
-      </c>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
@@ -2682,22 +5321,28 @@
       <c r="G11" s="8">
         <v>0.17</v>
       </c>
-      <c r="H11" s="8">
-        <v>0.05</v>
+      <c r="H11">
+        <f>7.3/100</f>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="I11" s="8">
-        <v>29.8</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="J11" s="8">
         <v>0.11</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="K11" s="8">
+        <v>0.16681338028169013</v>
+      </c>
+      <c r="L11" s="8">
+        <f>212.5/1033.5</f>
+        <v>0.20561199806482824</v>
+      </c>
       <c r="M11" s="8">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="N11" s="8">
-        <v>0.03</v>
+        <v>0.8</v>
       </c>
       <c r="O11" s="8">
         <v>0.03</v>
@@ -2716,36 +5361,34 @@
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>132</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
+      <c r="AA11" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="AB11" s="9" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AC11" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF11" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG11" s="9" t="s">
-        <v>269</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
       <c r="AH11" s="9" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
@@ -2770,7 +5413,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="H12" s="6">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="I12" s="6">
         <v>0.65</v>
@@ -2813,41 +5456,41 @@
         <v>130</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7" t="s">
-        <v>271</v>
+        <v>371</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="AE12" s="7" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="AF12" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="AG12" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="AH12" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="AI12" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="14.5" customHeight="1">
@@ -2869,7 +5512,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="H13" s="8">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="I13" s="8">
         <v>0.65</v>
@@ -2912,7 +5555,7 @@
         <v>130</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -2923,20 +5566,20 @@
         <v>107</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="9" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="14.5" customHeight="1">
@@ -2958,7 +5601,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="H14" s="6">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="I14" s="6">
         <v>0.65000000000000013</v>
@@ -3001,7 +5644,7 @@
         <v>130</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -3019,7 +5662,7 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="14.5" customHeight="1">
@@ -3041,7 +5684,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="H15" s="8">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="I15" s="8">
         <v>0.65</v>
@@ -3120,7 +5763,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="H16" s="6">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="I16" s="6">
         <v>0.65</v>
@@ -3179,7 +5822,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="14.5" customHeight="1">
@@ -3212,8 +5855,8 @@
       <c r="K17" s="8">
         <v>50</v>
       </c>
-      <c r="L17" s="8">
-        <v>10</v>
+      <c r="L17" s="46">
+        <v>30</v>
       </c>
       <c r="M17" s="8">
         <v>100</v>
@@ -3244,37 +5887,37 @@
         <v>130</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="AB17" s="9" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="AC17" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AD17" s="9" t="s">
-        <v>286</v>
+      <c r="AD17" s="45" t="s">
+        <v>377</v>
       </c>
       <c r="AE17" s="9" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="AH17" s="9" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
@@ -3307,10 +5950,10 @@
         <v>30</v>
       </c>
       <c r="K18" s="6">
-        <v>5</v>
-      </c>
-      <c r="L18" s="6">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="L18" s="52">
+        <v>1000000</v>
       </c>
       <c r="M18" s="6">
         <v>15</v>
@@ -3341,39 +5984,37 @@
         <v>130</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="23" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="AC18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AD18" s="7" t="s">
-        <v>295</v>
+      <c r="AD18" s="45" t="s">
+        <v>377</v>
       </c>
       <c r="AE18" s="7" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="AF18" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="AG18" s="7" t="s">
-        <v>298</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="AG18" s="7"/>
       <c r="AH18" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
@@ -3406,16 +6047,16 @@
         <v>20</v>
       </c>
       <c r="K19" s="8">
-        <v>20</v>
-      </c>
-      <c r="L19" s="8">
-        <v>80</v>
+        <v>25</v>
+      </c>
+      <c r="L19" s="46">
+        <v>3</v>
       </c>
       <c r="M19" s="8">
         <v>72</v>
       </c>
       <c r="N19" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O19" s="8">
         <v>25</v>
@@ -3440,7 +6081,7 @@
         <v>130</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -3450,23 +6091,23 @@
       <c r="AC19" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" s="9" t="s">
-        <v>297</v>
+      <c r="AD19" s="45" t="s">
+        <v>377</v>
       </c>
       <c r="AE19" s="9" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="AH19" s="9" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="AI19" s="24" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
@@ -3489,19 +6130,27 @@
       <c r="G20" s="6">
         <v>1</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6">
+        <v>15</v>
+      </c>
       <c r="I20" s="6">
         <v>40</v>
       </c>
       <c r="J20" s="6">
         <v>10</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6">
-        <v>30</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="K20" s="6">
+        <v>15</v>
+      </c>
+      <c r="L20" s="47">
+        <v>80</v>
+      </c>
+      <c r="M20" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="N20" s="6">
+        <v>5</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="18"/>
@@ -3519,26 +6168,28 @@
         <v>130</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AD20" s="7" t="s">
-        <v>283</v>
+      <c r="AD20" s="45" t="s">
+        <v>377</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
+      <c r="AG20" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
@@ -3572,9 +6223,11 @@
         <v>15</v>
       </c>
       <c r="K21" s="8">
-        <v>50</v>
-      </c>
-      <c r="L21" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="L21" s="8">
+        <v>10</v>
+      </c>
       <c r="M21" s="8">
         <v>80</v>
       </c>
@@ -3604,31 +6257,32 @@
         <v>130</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="AB21" s="9"/>
+        <v>282</v>
+      </c>
       <c r="AC21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" s="9"/>
+      <c r="AD21" s="45" t="s">
+        <v>377</v>
+      </c>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="AH21" s="9" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
@@ -3651,15 +6305,25 @@
       <c r="G22" s="25">
         <v>0.46</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6">
+        <v>0.25</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6">
         <v>0.64800000000000002</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="K22" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="L22" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.1</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="26"/>
@@ -3671,24 +6335,33 @@
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="X22" s="7"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
+      <c r="AD22" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE22" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF22" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG22" s="7" t="s">
+        <v>374</v>
+      </c>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
@@ -3712,15 +6385,25 @@
       <c r="G23" s="27">
         <v>0.22</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8">
+        <v>0.75</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8">
         <v>0.495</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="K23" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.1</v>
+      </c>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="28"/>
@@ -3732,24 +6415,33 @@
       </c>
       <c r="T23" s="9"/>
       <c r="U23" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="V23" s="9"/>
       <c r="W23" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="45" t="s">
+        <v>378</v>
+      </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
+        <v>183</v>
+      </c>
+      <c r="AD23" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF23" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG23" s="7" t="s">
+        <v>374</v>
+      </c>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
@@ -3773,15 +6465,25 @@
       <c r="G24" s="25">
         <v>0.05</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6">
+        <v>0.05</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="K24" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0.1</v>
+      </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="26"/>
@@ -3793,24 +6495,33 @@
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB24" s="6"/>
       <c r="AC24" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="AD24" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE24" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF24" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG24" s="7" t="s">
+        <v>374</v>
+      </c>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
@@ -3831,18 +6542,28 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="27">
-        <v>0.17</v>
-      </c>
-      <c r="H25" s="8"/>
+      <c r="G25" s="44">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.75</v>
+      </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8">
         <v>0.34649999999999997</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="K25" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.1</v>
+      </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="28"/>
@@ -3854,24 +6575,33 @@
       </c>
       <c r="T25" s="9"/>
       <c r="U25" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB25" s="8"/>
       <c r="AC25" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
+        <v>183</v>
+      </c>
+      <c r="AD25" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF25" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG25" s="7" t="s">
+        <v>374</v>
+      </c>
       <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
@@ -3892,16 +6622,28 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.5</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6">
         <v>0.63700000000000001</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="K26" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.99299999999999999</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="26"/>
@@ -3913,24 +6655,34 @@
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB26" s="8"/>
       <c r="AC26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="AD26" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE26" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF26" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
@@ -3958,7 +6710,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I27" s="8">
-        <v>35.700000000000003</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="J27" s="8">
         <v>0.3624</v>
@@ -3992,32 +6744,34 @@
         <v>71</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V27" s="9" t="s">
         <v>129</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="21" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="21" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="AC27" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
+      <c r="AE27" s="9" t="s">
+        <v>356</v>
+      </c>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
@@ -4044,8 +6798,8 @@
       <c r="H28" s="6">
         <v>6.2E-2</v>
       </c>
-      <c r="I28" s="6">
-        <v>35.700000000000003</v>
+      <c r="I28" s="8">
+        <v>0.35699999999999998</v>
       </c>
       <c r="J28" s="6">
         <v>0.38300000000000001</v>
@@ -4054,7 +6808,7 @@
         <v>0.47</v>
       </c>
       <c r="L28" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="M28" s="6">
         <v>0.39</v>
@@ -4077,36 +6831,36 @@
       </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>128</v>
       </c>
       <c r="W28" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="23" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="AC28" s="7" t="s">
         <v>77</v>
       </c>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="AF28" s="7" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
@@ -4173,7 +6927,9 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
+      <c r="W29" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
@@ -4243,18 +6999,18 @@
       </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>132</v>
       </c>
       <c r="W30" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="23" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -4262,13 +7018,13 @@
         <v>77</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="29" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
@@ -4285,7 +7041,8 @@
         <v>0</v>
       </c>
       <c r="D31" s="8">
-        <v>1</v>
+        <f>1-0.52/2</f>
+        <v>0.74</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="10"/>
@@ -4305,7 +7062,8 @@
         <v>1</v>
       </c>
       <c r="L31" s="8">
-        <v>1</v>
+        <f>1-$L$11/2</f>
+        <v>0.89719400096758584</v>
       </c>
       <c r="M31" s="8">
         <v>1</v>
@@ -4332,7 +7090,7 @@
         <v>131</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>140</v>
+        <v>379</v>
       </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
@@ -4343,7 +7101,9 @@
         <v>77</v>
       </c>
       <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
+      <c r="AE31" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
@@ -4361,8 +7121,9 @@
       <c r="C32" s="6">
         <v>0</v>
       </c>
-      <c r="D32" s="6">
-        <v>1</v>
+      <c r="D32" s="8">
+        <f>1-0.52/2</f>
+        <v>0.74</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="11"/>
@@ -4381,8 +7142,9 @@
       <c r="K32" s="6">
         <v>1</v>
       </c>
-      <c r="L32" s="6">
-        <v>1</v>
+      <c r="L32" s="8">
+        <f>1-$L$11/2</f>
+        <v>0.89719400096758584</v>
       </c>
       <c r="M32" s="6">
         <v>1</v>
@@ -4408,8 +7170,8 @@
       <c r="V32" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="W32" s="7" t="s">
-        <v>140</v>
+      <c r="W32" s="9" t="s">
+        <v>379</v>
       </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -4420,11 +7182,13 @@
         <v>77</v>
       </c>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
+      <c r="AE32" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7"/>
@@ -4441,9 +7205,11 @@
         <v>0</v>
       </c>
       <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8"/>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.69099999999999995</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="8">
         <v>0</v>
@@ -4458,22 +7224,22 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="K33" s="8">
-        <v>1</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="L33" s="8">
-        <v>1</v>
+        <v>8.0999999999999996E-4</v>
       </c>
       <c r="M33" s="8">
-        <v>1</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="N33" s="8">
         <v>0</v>
       </c>
       <c r="O33" s="8">
-        <v>1</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="P33" s="8">
-        <v>1</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="Q33" s="20">
         <v>1</v>
@@ -4491,24 +7257,24 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="AC33" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="21" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="14.5" customHeight="1">
@@ -4522,9 +7288,11 @@
         <v>0</v>
       </c>
       <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.69099999999999995</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="6">
         <v>0</v>
@@ -4539,22 +7307,22 @@
         <v>1.2E-2</v>
       </c>
       <c r="K34" s="6">
-        <v>1</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="L34" s="6">
-        <v>1</v>
+        <v>8.0999999999999996E-4</v>
       </c>
       <c r="M34" s="6">
-        <v>1</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="N34" s="6">
         <v>0</v>
       </c>
       <c r="O34" s="6">
-        <v>1</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="P34" s="6">
-        <v>1</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="Q34" s="18">
         <v>1</v>
@@ -4576,11 +7344,11 @@
         <v>77</v>
       </c>
       <c r="AD34" s="23" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
@@ -4643,24 +7411,24 @@
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V35" s="9" t="s">
         <v>132</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="AC35" s="9" t="s">
         <v>91</v>
@@ -4668,11 +7436,11 @@
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="AG35" s="9"/>
       <c r="AH35" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9"/>
@@ -4680,7 +7448,7 @@
     </row>
     <row r="36" spans="1:37" ht="14.5" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="B36" s="6">
         <v>0.5</v>
@@ -4749,7 +7517,7 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
@@ -4771,13 +7539,13 @@
       <c r="E37" s="8"/>
       <c r="F37" s="10"/>
       <c r="G37" s="19">
-        <v>83800</v>
+        <v>83.8</v>
       </c>
       <c r="H37" s="8">
-        <v>296000</v>
+        <v>296</v>
       </c>
       <c r="I37" s="8">
-        <v>1850</v>
+        <v>1.85</v>
       </c>
       <c r="J37" s="8">
         <v>20400</v>
@@ -4786,7 +7554,7 @@
         <v>2610</v>
       </c>
       <c r="L37" s="8">
-        <v>26500</v>
+        <v>26.5</v>
       </c>
       <c r="M37" s="8">
         <v>12700</v>
@@ -4795,10 +7563,10 @@
         <v>4720</v>
       </c>
       <c r="O37" s="8">
-        <v>294000</v>
+        <v>294</v>
       </c>
       <c r="P37" s="8">
-        <v>186</v>
+        <v>0.186</v>
       </c>
       <c r="Q37" s="20">
         <v>0.52</v>
@@ -4813,20 +7581,20 @@
         <v>92</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X37" s="9" t="s">
         <v>93</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="AA37" s="21" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -4835,7 +7603,7 @@
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
       <c r="AI37" s="9" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
@@ -4887,7 +7655,7 @@
       </c>
       <c r="T38" s="7"/>
       <c r="U38" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="V38" s="7" t="s">
         <v>90</v>
@@ -4970,7 +7738,7 @@
       </c>
       <c r="T39" s="9"/>
       <c r="U39" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V39" s="9" t="s">
         <v>89</v>
@@ -5022,7 +7790,6 @@
         <v>2.2100000000000001E-4</v>
       </c>
       <c r="E40" s="6"/>
-      <c r="F40" s="11"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5054,7 +7821,7 @@
       </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="V40" s="7" t="s">
         <v>89</v>
@@ -5136,10 +7903,10 @@
         <v>34</v>
       </c>
       <c r="T41" s="9" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="V41" s="9" t="s">
         <v>89</v>
@@ -5194,13 +7961,13 @@
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="6">
-        <v>270</v>
+        <v>30800</v>
       </c>
       <c r="H42" s="15">
         <v>19444</v>
       </c>
       <c r="I42" s="6">
-        <v>275000</v>
+        <v>161000</v>
       </c>
       <c r="J42" s="6">
         <v>6018.558</v>
@@ -5208,8 +7975,9 @@
       <c r="K42" s="6">
         <v>14285.808000000001</v>
       </c>
-      <c r="L42" s="15">
-        <v>523418</v>
+      <c r="L42" s="11">
+        <f>16.22*35274</f>
+        <v>572144.27999999991</v>
       </c>
       <c r="M42" s="6">
         <v>2535.29</v>
@@ -5241,26 +8009,28 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="23" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="23" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
+      <c r="AE42" s="43" t="s">
+        <v>349</v>
+      </c>
       <c r="AF42" s="7"/>
       <c r="AG42" s="23" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="14.5" customHeight="1">
@@ -5295,8 +8065,8 @@
         <v>1394</v>
       </c>
       <c r="L43" s="14">
-        <f>L42-18.33*35274</f>
-        <v>-123154.41999999993</v>
+        <f>L42-14.86*35274</f>
+        <v>47972.639999999956</v>
       </c>
       <c r="M43" s="8">
         <f>M42-0.88*2204.6</f>
@@ -5318,47 +8088,47 @@
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="W43" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="V43" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="W43" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="X43" s="8" t="s">
         <v>127</v>
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="24" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="AA43" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="AB43" s="24" t="s">
-        <v>338</v>
+        <v>313</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="AC43" s="8" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="AD43" s="8" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>174</v>
+        <v>350</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG43" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH43" s="8" t="s">
         <v>127</v>
       </c>
       <c r="AI43" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
@@ -5413,7 +8183,7 @@
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V44" s="7" t="s">
         <v>88</v>
@@ -5424,7 +8194,7 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
@@ -5504,7 +8274,7 @@
       </c>
       <c r="T45" s="8"/>
       <c r="U45" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V45" s="9" t="s">
         <v>88</v>
@@ -5515,7 +8285,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
@@ -5595,7 +8365,7 @@
       </c>
       <c r="T46" s="6"/>
       <c r="U46" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V46" s="7" t="s">
         <v>88</v>
@@ -5684,7 +8454,7 @@
       </c>
       <c r="T47" s="8"/>
       <c r="U47" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V47" s="9" t="s">
         <v>88</v>
@@ -5773,7 +8543,7 @@
       </c>
       <c r="T48" s="6"/>
       <c r="U48" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V48" s="7" t="s">
         <v>88</v>
@@ -6888,49 +9658,155 @@
       <c r="AK73" s="9"/>
     </row>
     <row r="74" spans="1:37">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35" t="s">
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="48"/>
+      <c r="O74" s="48"/>
+      <c r="P74" s="48"/>
+      <c r="Q74" s="49"/>
+      <c r="R74" s="48"/>
+      <c r="S74" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
-      <c r="Z74" s="37"/>
-      <c r="AA74" s="37"/>
-      <c r="AB74" s="37"/>
-      <c r="AC74" s="37"/>
-      <c r="AD74" s="37"/>
-      <c r="AE74" s="37"/>
-      <c r="AF74" s="37"/>
-      <c r="AG74" s="37"/>
-      <c r="AH74" s="37"/>
-      <c r="AI74" s="37"/>
-      <c r="AJ74" s="37"/>
-      <c r="AK74" s="37"/>
+      <c r="T74" s="50"/>
+      <c r="U74" s="50"/>
+      <c r="V74" s="50"/>
+      <c r="W74" s="50"/>
+      <c r="X74" s="50"/>
+      <c r="Y74" s="50"/>
+      <c r="Z74" s="50"/>
+      <c r="AA74" s="50"/>
+      <c r="AB74" s="50"/>
+      <c r="AC74" s="50"/>
+      <c r="AD74" s="50"/>
+      <c r="AE74" s="50"/>
+      <c r="AF74" s="50"/>
+      <c r="AG74" s="50"/>
+      <c r="AH74" s="50"/>
+      <c r="AI74" s="50"/>
+      <c r="AJ74" s="50"/>
+      <c r="AK74" s="50"/>
+    </row>
+    <row r="90" spans="1:30">
+      <c r="A90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90">
+        <f>1-SUM(B91:B94)</f>
+        <v>0.19100000000000006</v>
+      </c>
+      <c r="F90" t="s">
+        <v>359</v>
+      </c>
+      <c r="G90" t="s">
+        <v>360</v>
+      </c>
+      <c r="H90" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
+      <c r="A91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91">
+        <f>(48.3/2+1+5.2/2)/100</f>
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="F91">
+        <v>48.3</v>
+      </c>
+      <c r="G91">
+        <v>15.5</v>
+      </c>
+      <c r="H91">
+        <v>14.7</v>
+      </c>
+      <c r="AA91">
+        <v>5.2</v>
+      </c>
+      <c r="AB91">
+        <v>7.3</v>
+      </c>
+      <c r="AC91">
+        <v>2</v>
+      </c>
+      <c r="AD91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
+      <c r="A92" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92">
+        <f>48.3/2/100</f>
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="F92" t="s">
+        <v>365</v>
+      </c>
+      <c r="G92" t="s">
+        <v>366</v>
+      </c>
+      <c r="H92" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
+      <c r="A93" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93">
+        <f>(7+14.7)/100</f>
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
+      <c r="A94" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94">
+        <f>7.3/100</f>
+        <v>7.2999999999999995E-2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AA37" r:id="rId1" xr:uid="{6C67CDAA-2665-4775-9282-51BF337D6400}"/>
     <hyperlink ref="Z18" r:id="rId2" xr:uid="{DA6EF610-1C91-4FFC-B33E-FCB1533D420F}"/>
@@ -6938,282 +9814,736 @@
     <hyperlink ref="Z3" r:id="rId4" xr:uid="{058CD847-D57F-4B41-8903-40B77D35105D}"/>
     <hyperlink ref="Z27" r:id="rId5" display="https://www.sciencedirect.com/science/article/pii/S0263436821000780" xr:uid="{895943B2-F3C7-4D0B-B90F-3A30C24BE91A}"/>
     <hyperlink ref="Z30" r:id="rId6" xr:uid="{FFFDAB7D-1256-45F7-AFB1-D22344886650}"/>
-    <hyperlink ref="Z42" r:id="rId7" xr:uid="{97F82DFC-6810-4593-8955-863ACBB3DF37}"/>
+    <hyperlink ref="Z42" r:id="rId7" display="https://www.statista.com/statistics/1009446/tungsten-price/" xr:uid="{97F82DFC-6810-4593-8955-863ACBB3DF37}"/>
     <hyperlink ref="AA5" r:id="rId8" display="https://pubs.usgs.gov/periodicals/mcs2020/mcs2020-tin.pdf" xr:uid="{A3F1EB02-E5A1-49A7-8496-FD8516064D80}"/>
     <hyperlink ref="AB3" r:id="rId9" xr:uid="{ED5EB351-2DB6-48D4-A8B2-6EB12F62BC77}"/>
     <hyperlink ref="AB43" r:id="rId10" xr:uid="{846992AD-3ACB-4557-A7FA-7B00720CF198}"/>
-    <hyperlink ref="AB42" r:id="rId11" xr:uid="{B03EDC8A-A85B-4AE1-81A1-8460229585D4}"/>
+    <hyperlink ref="AB42" r:id="rId11" display="https://www.argusmedia.com/en/news/2222244-eu-tantalum-prices-rebound-on-higher-input-costs" xr:uid="{B03EDC8A-A85B-4AE1-81A1-8460229585D4}"/>
     <hyperlink ref="AB27" r:id="rId12" xr:uid="{F9134EB4-AF7C-4CC4-BB1D-F4A8A307BE54}"/>
     <hyperlink ref="AB28" r:id="rId13" xr:uid="{E0E0ACF1-2E42-4611-9CCF-374D8A3492D0}"/>
     <hyperlink ref="Z43" r:id="rId14" xr:uid="{9E254A45-F310-4AC5-BD1A-6656B4CE3760}"/>
     <hyperlink ref="AG42" r:id="rId15" xr:uid="{6B03944F-71E5-41D8-B06A-84DE89DA203B}"/>
     <hyperlink ref="AH33" r:id="rId16" xr:uid="{908B8CEB-0A15-4A26-8D30-F41FB42DECF8}"/>
     <hyperlink ref="AI19" r:id="rId17" display="https://www.mdpi.com/2079-9276/10/9/93/pdf" xr:uid="{6918E342-8074-47B2-B087-613D5AC7C8D0}"/>
-    <hyperlink ref="AD34" r:id="rId18" xr:uid="{BF4C9410-63BA-47BC-A63D-15337BE7BC5D}"/>
+    <hyperlink ref="AD34" r:id="rId18" display="https://www.copper.org/publications/newsletters/innovations/2001/08/hydrometallurgy.html" xr:uid="{BF4C9410-63BA-47BC-A63D-15337BE7BC5D}"/>
     <hyperlink ref="AE3" r:id="rId19" location=":~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." display="https://www.globenewswire.com/news-release/2020/04/22/2020156/0/en/Global-Silver-Demand-Edged-Higher-in-2019-With-Investment-Demand-Up-12-While-Silver-Mine-Supply-Fell-for-the-Fourth-Consecutive-Year.html#:~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." xr:uid="{7E3C5FCD-8F51-4490-BBE5-6F141696AF97}"/>
+    <hyperlink ref="AG6" r:id="rId20" xr:uid="{0F67CDD1-7035-DC44-9CA6-CA547F4A120E}"/>
+    <hyperlink ref="AE7" r:id="rId21" xr:uid="{798E403D-86FA-8F4E-A18B-F39FDE87D1E1}"/>
+    <hyperlink ref="AF7" r:id="rId22" xr:uid="{0E247788-8755-934D-922D-DF24A7747C35}"/>
+    <hyperlink ref="AD7" r:id="rId23" display="https://www.sciencedirect.com/science/article/pii/S0921344917301817" xr:uid="{00987C5A-86EF-7449-830B-14136FA25644}"/>
+    <hyperlink ref="AA7" r:id="rId24" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{2FC36872-A372-8149-979C-5C1EB12DAB3C}"/>
+    <hyperlink ref="AA8" r:id="rId25" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{6485F26B-C8ED-7D47-AA92-D1F7CF8E46F1}"/>
+    <hyperlink ref="AA9" r:id="rId26" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{D2CF26CA-B025-4C41-899C-2215D4981909}"/>
+    <hyperlink ref="AA10" r:id="rId27" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{1F472A81-9D59-9340-B578-AD40B57FC5DB}"/>
+    <hyperlink ref="AA11" r:id="rId28" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{6A858768-DF1D-7A42-9B84-D34C269B492D}"/>
+    <hyperlink ref="AG7" r:id="rId29" xr:uid="{BDB1FBCE-8E5B-E446-9521-78DC3859DF64}"/>
+    <hyperlink ref="AG26" r:id="rId30" display="https://www.recyclingtoday.com/article/battery-council-international-lead-battery-recycling/" xr:uid="{EEE1D733-973D-194D-89E1-ED66138A0CA6}"/>
+    <hyperlink ref="AF22" r:id="rId31" xr:uid="{1EBCFBC8-5E0B-3343-B5E4-413BE8F9F076}"/>
+    <hyperlink ref="AD17" r:id="rId32" xr:uid="{5BF8B3C9-6734-4540-AB66-56985B2BD4D4}"/>
+    <hyperlink ref="AD18" r:id="rId33" xr:uid="{3F6D9065-8733-8048-969F-D3F9B2D846FF}"/>
+    <hyperlink ref="AD19" r:id="rId34" xr:uid="{DDC6013A-65C0-C747-8B90-58FABD091EA8}"/>
+    <hyperlink ref="AD20" r:id="rId35" xr:uid="{34C61E79-65B5-784B-91E7-D6EFA72E1C16}"/>
+    <hyperlink ref="AD21" r:id="rId36" xr:uid="{28856D38-242E-DF4D-A9C7-34619BAC263B}"/>
+    <hyperlink ref="AD22" r:id="rId37" xr:uid="{DD334BF5-7CCC-854C-87DB-FD9A495C64E3}"/>
+    <hyperlink ref="AD23" r:id="rId38" xr:uid="{960BA8A2-4FFC-D049-A2D2-78ED92322EB5}"/>
+    <hyperlink ref="AD24" r:id="rId39" xr:uid="{9776F84E-607F-4340-99D2-0CF5831412A8}"/>
+    <hyperlink ref="AD25" r:id="rId40" xr:uid="{E9CAE11E-46BE-D941-AC51-89FBCFAD8F10}"/>
+    <hyperlink ref="AD26" r:id="rId41" xr:uid="{08C1E42C-92E1-A54A-9894-BB1716DCEAAE}"/>
+    <hyperlink ref="AA22" r:id="rId42" xr:uid="{AB2B8C02-763D-B846-8D3A-C52B9C52ECE4}"/>
+    <hyperlink ref="AA23" r:id="rId43" xr:uid="{D83C3CF7-5DCF-3B40-A3CE-426314CA2F28}"/>
+    <hyperlink ref="AA24" r:id="rId44" xr:uid="{3658CDFA-B475-A248-8C69-D9B9ABC6614B}"/>
+    <hyperlink ref="AA25" r:id="rId45" xr:uid="{8080BCC5-66E2-2349-97CE-9A809D50840E}"/>
+    <hyperlink ref="AA26" r:id="rId46" xr:uid="{BBF2DF10-2671-734D-88B6-394D9C60D4A5}"/>
+    <hyperlink ref="AF23" r:id="rId47" xr:uid="{DEC718A9-543E-DA46-97C4-748B0830EED9}"/>
+    <hyperlink ref="AF24" r:id="rId48" xr:uid="{841D0090-CE2C-6B4D-8911-C602FC5CA170}"/>
+    <hyperlink ref="AF25" r:id="rId49" xr:uid="{EF554BD6-D3AF-2A4B-AB8C-E9433478750A}"/>
+    <hyperlink ref="AF26" r:id="rId50" xr:uid="{F7723C52-BBC3-F24E-AAE4-A9B42CB8045B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
+  <tableParts count="1">
+    <tablePart r:id="rId52"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7771608-927F-4E4B-98C0-8BD1C2D780A9}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1991</v>
+      </c>
+      <c r="B3">
+        <v>19.179588989644255</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3">
+        <v>3.8069431775500351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1992</v>
+      </c>
+      <c r="B4">
+        <v>19.579331437463111</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>3.9786446316467243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1993</v>
+      </c>
+      <c r="B5">
+        <v>20.700756559532117</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <v>3.9840103020872455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1994</v>
+      </c>
+      <c r="B6">
+        <v>20.593443150721683</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <v>4.0779095347963734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1995</v>
+      </c>
+      <c r="B7">
+        <v>20.6470998551269</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <v>4.3703385738047968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1996</v>
+      </c>
+      <c r="B8">
+        <v>21.808767505499812</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <v>4.2496109888930622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1997</v>
+      </c>
+      <c r="B9">
+        <v>22.672640446423781</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <v>4.5420400279014865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1998</v>
+      </c>
+      <c r="B10">
+        <v>22.358748725653271</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10">
+        <v>5.204163760261844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1999</v>
+      </c>
+      <c r="B11">
+        <v>23.802114074153568</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11">
+        <v>4.8720287599935608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>25.38766968932768</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12">
+        <v>4.8505660782314761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2001</v>
+      </c>
+      <c r="B13">
+        <v>23.772602886730695</v>
+      </c>
+      <c r="E13">
+        <v>5.0705585662928581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2002</v>
+      </c>
+      <c r="B14">
+        <v>23.35944626281054</v>
+      </c>
+      <c r="E14">
+        <v>5.2932338895745019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2003</v>
+      </c>
+      <c r="B15">
+        <v>23.871867789880344</v>
+      </c>
+      <c r="E15">
+        <v>5.2583570317111121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2004</v>
+      </c>
+      <c r="B16">
+        <v>23.67333798358105</v>
+      </c>
+      <c r="E16">
+        <v>5.3307935826581527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2005</v>
+      </c>
+      <c r="B17">
+        <v>25.623759188710629</v>
+      </c>
+      <c r="E17">
+        <v>5.4568868380104094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18">
+        <v>24.843054139614743</v>
+      </c>
+      <c r="E18">
+        <v>5.5561517411600576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2007</v>
+      </c>
+      <c r="B19">
+        <v>24.494285560980845</v>
+      </c>
+      <c r="E19">
+        <v>5.4783495197724958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20">
+        <v>24.547942265386059</v>
+      </c>
+      <c r="E20">
+        <v>5.4193271449267586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>2009</v>
+      </c>
+      <c r="B21">
+        <v>24.995975747169609</v>
+      </c>
+      <c r="E21">
+        <v>5.3978644631646722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2010</v>
+      </c>
+      <c r="B22">
+        <v>28.872672640446424</v>
+      </c>
+      <c r="E22">
+        <v>6.1383269839566461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>2011</v>
+      </c>
+      <c r="B23">
+        <v>28.046359392606107</v>
+      </c>
+      <c r="E23">
+        <v>7.0156141009819182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>2012</v>
+      </c>
+      <c r="B24">
+        <v>28.124161613993667</v>
+      </c>
+      <c r="E24">
+        <v>6.8546439877662708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>2013</v>
+      </c>
+      <c r="B25">
+        <v>28.738530879433384</v>
+      </c>
+      <c r="E25">
+        <v>5.1698234694425063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>2014</v>
+      </c>
+      <c r="B26">
+        <v>28.486344368728872</v>
+      </c>
+      <c r="E26">
+        <v>4.6949616354563499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>2015</v>
+      </c>
+      <c r="B27">
+        <v>28.717068197671303</v>
+      </c>
+      <c r="E27">
+        <v>4.4669206417341849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>2016</v>
+      </c>
+      <c r="B28">
+        <v>27.520523689434992</v>
+      </c>
+      <c r="E28">
+        <v>4.4132639373289697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>2017</v>
+      </c>
+      <c r="B29">
+        <v>27.702956484412727</v>
+      </c>
+      <c r="E29">
+        <v>4.5017974995975756</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>2018</v>
+      </c>
+      <c r="B30">
+        <v>26.943714117078926</v>
+      </c>
+      <c r="E30">
+        <v>4.5017974995975756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>2019</v>
+      </c>
+      <c r="B31">
+        <v>26.704941782475718</v>
+      </c>
+      <c r="E31">
+        <v>4.5742340505446153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>2020</v>
+      </c>
+      <c r="B32">
+        <v>25.846434511992275</v>
+      </c>
+      <c r="E32">
+        <v>4.885442936094865</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>2021</v>
+      </c>
+      <c r="B33">
+        <v>28.142941460535493</v>
+      </c>
+      <c r="E33">
+        <v>5.2637227021516342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>2022</v>
+      </c>
+      <c r="B34">
+        <v>29.55947845683318</v>
+      </c>
+      <c r="E34">
+        <v>4.8425175725706922</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029A80B4-7C9F-4455-863A-277E0A0ADA6C}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16">
       <c r="A3">
-        <v>2001</v>
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>10351.0764090917</v>
       </c>
       <c r="C3" s="3"/>
+      <c r="E3" s="41">
+        <v>2773.9087386823398</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2002</v>
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>9866.3488428836899</v>
+      </c>
+      <c r="E4" s="41">
+        <v>2928.8230456715701</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2003</v>
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>9828.3789110155994</v>
+      </c>
+      <c r="E5" s="41">
+        <v>2839.615578167</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2004</v>
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>10237.2191670264</v>
+      </c>
+      <c r="E6" s="41">
+        <v>2772.58314615476</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2005</v>
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>11502.3667861634</v>
+      </c>
+      <c r="E7" s="41">
+        <v>2883.1146514796301</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2006</v>
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>12022.857035605</v>
+      </c>
+      <c r="E8" s="41">
+        <v>3237.7352006186102</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2007</v>
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>12543.399838585501</v>
+      </c>
+      <c r="C9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="41">
+        <v>3592.3557497575903</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2008</v>
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>13026.787289551199</v>
+      </c>
+      <c r="E10" s="41">
+        <v>3946.9762988965699</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2009</v>
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>13249.404080406901</v>
+      </c>
+      <c r="E11" s="41">
+        <v>4124.0656413781198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2010</v>
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>13025.236960153099</v>
+      </c>
+      <c r="E12" s="41">
+        <v>4234.58078136315</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2011</v>
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>13583.0402222264</v>
+      </c>
+      <c r="E13" s="41">
+        <v>4034.3835790179996</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2012</v>
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>14066.2700125753</v>
+      </c>
+      <c r="E14" s="41">
+        <v>4033.9417148421398</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>14475.0577150472</v>
+      </c>
+      <c r="E15" s="41">
+        <v>4055.6912514984501</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>14809.429606411501</v>
+      </c>
+      <c r="E16" s="41">
+        <v>4410.3118006374398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>2014</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+      <c r="B17">
+        <v>15255.504044745499</v>
+      </c>
+      <c r="E17" s="41">
+        <v>4676.1831117875499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
         <v>2015</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+      <c r="B18">
+        <v>15664.3705775258</v>
+      </c>
+      <c r="E18" s="41">
+        <v>4897.6552559334596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
         <v>2016</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+      <c r="B19">
+        <v>16073.184556767199</v>
+      </c>
+      <c r="E19" s="41">
+        <v>5052.5531975828408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+      <c r="B20">
+        <v>16593.7273597477</v>
+      </c>
+      <c r="E20" s="41">
+        <v>5296.2167425609305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
         <v>2018</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+      <c r="B21">
+        <v>17077.0097036355</v>
+      </c>
+      <c r="E21" s="41">
+        <v>5673.0286925320897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
         <v>2019</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029A80B4-7C9F-4455-863A-277E0A0ADA6C}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3">
-        <v>2001</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>2019</v>
+      <c r="B22">
+        <v>17448.642054092597</v>
+      </c>
+      <c r="E22" s="41">
+        <v>6205.1804483284905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23">
+        <v>16889.367292929597</v>
+      </c>
+      <c r="E23" s="41">
+        <v>6226.8972543050995</v>
       </c>
     </row>
   </sheetData>
@@ -7223,129 +10553,401 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7E4D7B-7CFC-4824-AFEA-E4C07C4B6BC5}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E22"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="16">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
+        <v>1990</v>
+      </c>
+      <c r="B3">
+        <v>5403</v>
+      </c>
+      <c r="E3" s="41">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1991</v>
+      </c>
+      <c r="B4">
+        <v>5255</v>
+      </c>
+      <c r="E4" s="41">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1992</v>
+      </c>
+      <c r="B5">
+        <v>5279</v>
+      </c>
+      <c r="E5" s="41">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>1993</v>
+      </c>
+      <c r="B6">
+        <v>5224</v>
+      </c>
+      <c r="E6" s="41">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>1994</v>
+      </c>
+      <c r="B7">
+        <v>5486</v>
+      </c>
+      <c r="E7" s="41">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>1995</v>
+      </c>
+      <c r="B8">
+        <v>5870</v>
+      </c>
+      <c r="E8" s="41">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>1996</v>
+      </c>
+      <c r="B9">
+        <v>5975</v>
+      </c>
+      <c r="E9" s="41">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>1997</v>
+      </c>
+      <c r="B10">
+        <v>6053</v>
+      </c>
+      <c r="E10" s="41">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>1998</v>
+      </c>
+      <c r="B11">
+        <v>6067</v>
+      </c>
+      <c r="E11" s="41">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>1999</v>
+      </c>
+      <c r="B12">
+        <v>6242</v>
+      </c>
+      <c r="E12" s="41">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="B13">
+        <v>6508</v>
+      </c>
+      <c r="E13" s="41">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
         <v>2001</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="B14">
+        <v>6482</v>
+      </c>
+      <c r="E14" s="41">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
         <v>2002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="B15">
+        <v>6647</v>
+      </c>
+      <c r="E15" s="41">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
         <v>2003</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="B16">
+        <v>6826</v>
+      </c>
+      <c r="E16" s="41">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>2004</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="B17">
+        <v>7141</v>
+      </c>
+      <c r="E17" s="41">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
         <v>2005</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="B18">
+        <v>7652</v>
+      </c>
+      <c r="E18" s="41">
+        <v>4316.50818139284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
         <v>2006</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="B19" s="41">
+        <v>8042.6223021582719</v>
+      </c>
+      <c r="E19" s="41">
+        <v>4854.7482013480203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
         <v>2007</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="B20" s="41">
+        <v>8243.8446043165368</v>
+      </c>
+      <c r="E20" s="41">
+        <v>5198.2613767341099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
         <v>2008</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="B21" s="41">
+        <v>9064.5039568345273</v>
+      </c>
+      <c r="E21" s="41">
+        <v>5444.4611366192803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
         <v>2009</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="B22" s="41">
+        <v>9174.295683453227</v>
+      </c>
+      <c r="E22" s="41">
+        <v>5812.6119620613499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>2010</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="B23" s="41">
+        <v>9810.2935251798444</v>
+      </c>
+      <c r="E23" s="41">
+        <v>6083.0428684506496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>2011</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="B24" s="41">
+        <v>10504.199999999899</v>
+      </c>
+      <c r="E24" s="41">
+        <v>5963.3187353952198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
         <v>2012</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="B25" s="41">
+        <v>10623.157194244588</v>
+      </c>
+      <c r="E25" s="41">
+        <v>6209.4124508755604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
         <v>2013</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="B26" s="41">
+        <v>11329.666187050343</v>
+      </c>
+      <c r="E26" s="41">
+        <v>6357.9806620453201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
         <v>2014</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+      <c r="B27" s="41">
+        <v>11171.206834532331</v>
+      </c>
+      <c r="E27" s="41">
+        <v>6335.9057517727697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
         <v>2015</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+      <c r="B28" s="41">
+        <v>11190.713669064722</v>
+      </c>
+      <c r="E28" s="41">
+        <v>6581.9287709832197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
         <v>2016</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+      <c r="B29" s="41">
+        <v>11261.582374100692</v>
+      </c>
+      <c r="E29" s="41">
+        <v>7169.52081815783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+      <c r="B30">
+        <v>12104</v>
+      </c>
+      <c r="E30" s="41">
+        <v>7269.2732549698803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
         <v>2018</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+      <c r="B31">
+        <v>12290</v>
+      </c>
+      <c r="E31" s="41">
+        <v>7674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
         <v>2019</v>
+      </c>
+      <c r="B32">
+        <v>12244</v>
+      </c>
+      <c r="E32" s="41">
+        <v>7599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>2020</v>
+      </c>
+      <c r="B33">
+        <v>11375</v>
+      </c>
+      <c r="E33" s="41">
+        <v>7427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>2021</v>
+      </c>
+      <c r="B34">
+        <v>12205</v>
+      </c>
+      <c r="E34" s="41">
+        <v>7717</v>
       </c>
     </row>
   </sheetData>
@@ -7365,21 +10967,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
@@ -7497,21 +11099,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
@@ -7622,7 +11224,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7632,33 +11234,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" t="s">
-        <v>192</v>
-      </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8006,33 +11608,33 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -8403,42 +12005,42 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16">
@@ -8989,71 +12591,71 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H1" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="L1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q1" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="H2" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="L2" t="s">
-        <v>350</v>
-      </c>
-      <c r="M2" s="42"/>
+        <v>320</v>
+      </c>
+      <c r="M2" s="39"/>
       <c r="Q2" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="39">
         <v>3.7280000000000002</v>
       </c>
       <c r="C3">
@@ -9068,7 +12670,7 @@
       <c r="F3">
         <v>3.506849315068493</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="39">
         <v>3.7280000000000002</v>
       </c>
       <c r="L3">
@@ -9085,7 +12687,7 @@
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="39">
         <v>3.3620000000000001</v>
       </c>
       <c r="C4">
@@ -9100,13 +12702,13 @@
       <c r="F4">
         <v>3.591549295774648</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="39">
         <v>3.3620000000000001</v>
       </c>
       <c r="L4">
         <v>15261925.167299999</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="39">
         <v>432.68009999999998</v>
       </c>
       <c r="Q4">
@@ -9117,7 +12719,7 @@
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="39">
         <v>3.206</v>
       </c>
       <c r="C5">
@@ -9132,13 +12734,13 @@
       <c r="F5">
         <v>3.628571428571429</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="39">
         <v>3.206</v>
       </c>
       <c r="L5">
         <v>17508670.647999998</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="39">
         <v>496.37599999999998</v>
       </c>
       <c r="Q5">
@@ -9149,7 +12751,7 @@
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="39">
         <v>3.512</v>
       </c>
       <c r="C6">
@@ -9164,13 +12766,13 @@
       <c r="F6">
         <v>3.4571428571428573</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="39">
         <v>3.512</v>
       </c>
       <c r="L6">
         <v>19169570.399</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="39">
         <v>543.46299999999997</v>
       </c>
       <c r="Q6">
@@ -9181,7 +12783,7 @@
       <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="39">
         <v>3.7450000000000001</v>
       </c>
       <c r="C7">
@@ -9196,13 +12798,13 @@
       <c r="F7">
         <v>3.397260273972603</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="39">
         <v>3.7450000000000001</v>
       </c>
       <c r="L7">
         <v>20163133.2084</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="39">
         <v>571.63080000000002</v>
       </c>
       <c r="Q7">
@@ -9213,7 +12815,7 @@
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="39">
         <v>3.4239999999999999</v>
       </c>
       <c r="C8">
@@ -9228,13 +12830,13 @@
       <c r="F8">
         <v>3.6461538461538461</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="39">
         <v>3.4239999999999999</v>
       </c>
       <c r="L8">
         <v>26549874.226400003</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="39">
         <v>752.69680000000005</v>
       </c>
       <c r="Q8">
@@ -9245,7 +12847,7 @@
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="39">
         <v>3.552</v>
       </c>
       <c r="C9">
@@ -9260,13 +12862,13 @@
       <c r="F9">
         <v>3.5074626865671643</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="39">
         <v>3.552</v>
       </c>
       <c r="L9">
         <v>29720363.140299998</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="39">
         <v>842.58109999999999</v>
       </c>
       <c r="Q9">
@@ -9277,7 +12879,7 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="39">
         <v>3.806</v>
       </c>
       <c r="C10">
@@ -9292,13 +12894,13 @@
       <c r="F10">
         <v>3.7377049180327866</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="39">
         <v>3.806</v>
       </c>
       <c r="L10">
         <v>35897191.008000001</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="39">
         <v>1017.696</v>
       </c>
       <c r="Q10">
@@ -9309,7 +12911,7 @@
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="39">
         <v>3.6116350000000002</v>
       </c>
       <c r="C11">
@@ -9324,13 +12926,13 @@
       <c r="F11">
         <v>4.2413793103448274</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="39">
         <v>3.6116350000000002</v>
       </c>
       <c r="L11">
         <v>40098416.945999995</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="39">
         <v>1136.8019999999999</v>
       </c>
       <c r="Q11">
@@ -9341,7 +12943,7 @@
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="39">
         <v>4.1711999999999998</v>
       </c>
       <c r="C12">
@@ -9356,13 +12958,13 @@
       <c r="F12">
         <v>4.4255719654124919</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="39">
         <v>4.1711999999999998</v>
       </c>
       <c r="L12">
         <v>49760044.376000002</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="39">
         <v>1410.712</v>
       </c>
       <c r="Q12">
@@ -9373,7 +12975,7 @@
       <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="39">
         <v>4.7247000000000003</v>
       </c>
       <c r="C13">
@@ -9388,13 +12990,13 @@
       <c r="F13">
         <v>4.5029682952887597</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="39">
         <v>4.7247000000000003</v>
       </c>
       <c r="L13">
         <v>61920552.217999995</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="39">
         <v>1755.4659999999999</v>
       </c>
       <c r="Q13">
@@ -9405,7 +13007,7 @@
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="39">
         <v>4.6726999999999999</v>
       </c>
       <c r="C14">
@@ -9420,13 +13022,13 @@
       <c r="F14">
         <v>4.5936906516859546</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="39">
         <v>4.6726999999999999</v>
       </c>
       <c r="L14">
         <v>64372413.721000001</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="39">
         <v>1824.9770000000001</v>
       </c>
       <c r="Q14">
@@ -9437,7 +13039,7 @@
       <c r="A15">
         <v>2013</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="39">
         <v>4.5137</v>
       </c>
       <c r="C15">
@@ -9452,13 +13054,13 @@
       <c r="F15">
         <v>4.362030450724502</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="39">
         <v>4.5137</v>
       </c>
       <c r="L15">
         <v>53626494.270999998</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="39">
         <v>1520.327</v>
       </c>
       <c r="Q15">
@@ -9469,7 +13071,7 @@
       <c r="A16">
         <v>2014</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="39">
         <v>4.4260999999999999</v>
       </c>
       <c r="C16">
@@ -9484,13 +13086,13 @@
       <c r="F16">
         <v>4.4000000626595046</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="39">
         <v>4.4260999999999999</v>
       </c>
       <c r="L16">
         <v>47384090.369000003</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="39">
         <v>1343.3530000000001</v>
       </c>
       <c r="Q16">
@@ -9501,7 +13103,7 @@
       <c r="A17">
         <v>2015</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="39">
         <v>4.3685</v>
       </c>
       <c r="C17">
@@ -9516,13 +13118,13 @@
       <c r="F17">
         <v>4.4331016412034785</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="39">
         <v>4.3685</v>
       </c>
       <c r="L17">
         <v>43305191.195</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="39">
         <v>1227.7149999999999</v>
       </c>
       <c r="Q17">
@@ -9533,7 +13135,7 @@
       <c r="A18">
         <v>2016</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="39">
         <v>4.3914</v>
       </c>
       <c r="C18">
@@ -9548,13 +13150,13 @@
       <c r="F18">
         <v>4.749440891158784</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="39">
         <v>4.3914</v>
       </c>
       <c r="L18">
         <v>46124315.173999995</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="39">
         <v>1307.6379999999999</v>
       </c>
       <c r="Q18">
@@ -9565,7 +13167,7 @@
       <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="39">
         <v>4.2782999999999998</v>
       </c>
       <c r="C19">
@@ -9580,13 +13182,13 @@
       <c r="F19">
         <v>4.6801186001524808</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="39">
         <v>4.2782999999999998</v>
       </c>
       <c r="L19">
         <v>45451976.520999998</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="39">
         <v>1288.577</v>
       </c>
       <c r="Q19">
@@ -9597,7 +13199,7 @@
       <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="39">
         <v>4.4542999999999999</v>
       </c>
       <c r="C20">
@@ -9612,13 +13214,13 @@
       <c r="F20">
         <v>4.7853010124660074</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="39">
         <v>4.4542999999999999</v>
       </c>
       <c r="L20">
         <v>44895298.035000004</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="39">
         <v>1272.7950000000001</v>
       </c>
       <c r="Q20">
@@ -9629,7 +13231,7 @@
       <c r="A21">
         <v>2019</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="39">
         <v>4.3593999999999999</v>
       </c>
       <c r="C21">
@@ -9645,7 +13247,7 @@
       <c r="F21">
         <v>4.8718181422894107</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="39">
         <v>4.3593999999999999</v>
       </c>
       <c r="L21">
@@ -9660,67 +13262,67 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="19">
-      <c r="H22" s="41"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:17" ht="19">
-      <c r="C23" s="43"/>
-      <c r="H23" s="41"/>
+      <c r="C23" s="40"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:17" ht="19">
-      <c r="C24" s="43"/>
-      <c r="H24" s="41"/>
+      <c r="C24" s="40"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="19">
-      <c r="C25" s="43"/>
-      <c r="H25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="C26" s="43"/>
+      <c r="C26" s="40"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="C27" s="43"/>
+      <c r="C27" s="40"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="C28" s="43"/>
+      <c r="C28" s="40"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="C29" s="43"/>
+      <c r="C29" s="40"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="C30" s="43"/>
+      <c r="C30" s="40"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="C31" s="43"/>
+      <c r="C31" s="40"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="C32" s="43"/>
+      <c r="C32" s="40"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="43"/>
+      <c r="C33" s="40"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="43"/>
+      <c r="C34" s="40"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="43"/>
+      <c r="C35" s="40"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="43"/>
+      <c r="C36" s="40"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="43"/>
+      <c r="C37" s="40"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="43"/>
+      <c r="C38" s="40"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="43"/>
+      <c r="C39" s="40"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="43"/>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="43"/>
+      <c r="C41" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9731,7 +13333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4E14CA-A602-4FF7-9D44-04838930B2AC}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -9739,21 +13341,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
@@ -9864,31 +13466,31 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -10169,24 +13771,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -10616,30 +14218,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -10647,7 +14249,7 @@
         <v>1950</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="44">
+      <c r="D3" s="41">
         <v>2385.7328498409602</v>
       </c>
     </row>
@@ -10655,7 +14257,7 @@
       <c r="A4">
         <v>1951</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="41">
         <v>2491.7023564716101</v>
       </c>
     </row>
@@ -10663,7 +14265,7 @@
       <c r="A5">
         <v>1952</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="41">
         <v>2565.8650655053102</v>
       </c>
     </row>
@@ -10671,7 +14273,7 @@
       <c r="A6">
         <v>1953</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="41">
         <v>2586.99455908245</v>
       </c>
     </row>
@@ -10679,7 +14281,7 @@
       <c r="A7">
         <v>1954</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="41">
         <v>2639.9402300258098</v>
       </c>
     </row>
@@ -10687,7 +14289,7 @@
       <c r="A8">
         <v>1955</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="41">
         <v>2926.20140839841</v>
       </c>
     </row>
@@ -10695,7 +14297,7 @@
       <c r="A9">
         <v>1956</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="41">
         <v>3212.4719665402799</v>
       </c>
     </row>
@@ -10703,7 +14305,7 @@
       <c r="A10">
         <v>1957</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="41">
         <v>3286.6284223944599</v>
       </c>
     </row>
@@ -10711,7 +14313,7 @@
       <c r="A11">
         <v>1958</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="41">
         <v>3191.10172555186</v>
       </c>
     </row>
@@ -10719,7 +14321,7 @@
       <c r="A12">
         <v>1959</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="41">
         <v>3445.5498531479898</v>
       </c>
     </row>
@@ -10730,7 +14332,7 @@
       <c r="B13">
         <v>5790.4642289348103</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="41">
         <v>3924</v>
       </c>
     </row>
@@ -10741,7 +14343,7 @@
       <c r="B14">
         <v>6290.0635930047702</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="41">
         <v>4081</v>
       </c>
     </row>
@@ -10752,7 +14354,7 @@
       <c r="B15">
         <v>6288.0635930047702</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="41">
         <v>4216</v>
       </c>
     </row>
@@ -10763,7 +14365,7 @@
       <c r="B16">
         <v>6711.4467408585006</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="41">
         <v>4286</v>
       </c>
     </row>
@@ -10774,7 +14376,7 @@
       <c r="B17">
         <v>7820.1192368839402</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>4443</v>
       </c>
     </row>
@@ -10785,7 +14387,7 @@
       <c r="B18">
         <v>8056.2750397456202</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="41">
         <v>4769</v>
       </c>
     </row>
@@ -10796,7 +14398,7 @@
       <c r="B19">
         <v>8320.9936406995203</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="41">
         <v>4987</v>
       </c>
     </row>
@@ -10807,7 +14409,7 @@
       <c r="B20">
         <v>7994.6820349761501</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="41">
         <v>4743</v>
       </c>
     </row>
@@ -10818,7 +14420,7 @@
       <c r="B21">
         <v>8462.5866454689894</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="41">
         <v>5010</v>
       </c>
     </row>
@@ -10829,7 +14431,7 @@
       <c r="B22">
         <v>9286.4435612082598</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="41">
         <v>5682</v>
       </c>
     </row>
@@ -10840,7 +14442,7 @@
       <c r="B23">
         <v>9275.1017488076304</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="41">
         <v>5900</v>
       </c>
     </row>
@@ -10851,7 +14453,7 @@
       <c r="B24">
         <v>9350.0540540540496</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="41">
         <v>5941</v>
       </c>
     </row>
@@ -10862,7 +14464,7 @@
       <c r="B25">
         <v>10085.084260731321</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="41">
         <v>6541</v>
       </c>
     </row>
@@ -10873,7 +14475,7 @@
       <c r="B26">
         <v>11162.89348171701</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="41">
         <v>6915</v>
       </c>
     </row>
@@ -10884,7 +14486,7 @@
       <c r="B27">
         <v>10545.29411764705</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="41">
         <v>7097</v>
       </c>
     </row>
@@ -10895,7 +14497,7 @@
       <c r="B28">
         <v>9241.5023847376706</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="41">
         <v>6735</v>
       </c>
     </row>
@@ -10906,7 +14508,7 @@
       <c r="B29">
         <v>10602.593004769471</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="41">
         <v>7289</v>
       </c>
     </row>
@@ -10917,7 +14519,7 @@
       <c r="B30">
         <v>11082.437201907789</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="41">
         <v>7444</v>
       </c>
     </row>
@@ -10928,7 +14530,7 @@
       <c r="B31">
         <v>11727.31796502384</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="41">
         <v>7306</v>
       </c>
     </row>
@@ -10939,7 +14541,7 @@
       <c r="B32">
         <v>12375.82193958664</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="41">
         <v>7371</v>
       </c>
     </row>
@@ -10950,7 +14552,7 @@
       <c r="B33">
         <v>11981.05564387917</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="41">
         <v>7227</v>
       </c>
     </row>
@@ -10961,7 +14563,7 @@
       <c r="B34">
         <v>12119.774244833061</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="41">
         <v>7721</v>
       </c>
     </row>
@@ -10972,7 +14574,7 @@
       <c r="B35">
         <v>11439.761526232111</v>
       </c>
-      <c r="D35" s="44">
+      <c r="D35" s="41">
         <v>7745</v>
       </c>
     </row>
@@ -10983,7 +14585,7 @@
       <c r="B36">
         <v>11882.01907790143</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="41">
         <v>7824</v>
       </c>
     </row>
@@ -10994,7 +14596,7 @@
       <c r="B37">
         <v>12559.5707472178</v>
       </c>
-      <c r="D37" s="44">
+      <c r="D37" s="41">
         <v>8135</v>
       </c>
     </row>
@@ -11005,7 +14607,7 @@
       <c r="B38">
         <v>12456.18759936407</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="41">
         <v>8288</v>
       </c>
     </row>
@@ -11016,7 +14618,7 @@
       <c r="B39">
         <v>12852.85850556438</v>
       </c>
-      <c r="D39" s="44">
+      <c r="D39" s="41">
         <v>8295</v>
       </c>
     </row>
@@ -11027,7 +14629,7 @@
       <c r="B40">
         <v>13189.661367249601</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="41">
         <v>8620</v>
       </c>
     </row>
@@ -11038,7 +14640,7 @@
       <c r="B41">
         <v>13615.535771065181</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="41">
         <v>8773</v>
       </c>
     </row>
@@ -11049,7 +14651,7 @@
       <c r="B42">
         <v>13939.50556438791</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="41">
         <v>9086</v>
       </c>
     </row>
@@ -11060,7 +14662,7 @@
       <c r="B43">
         <v>13874.871224165341</v>
       </c>
-      <c r="D43" s="44">
+      <c r="D43" s="41">
         <v>9227</v>
       </c>
     </row>
@@ -11071,7 +14673,7 @@
       <c r="B44">
         <v>13570.94912559618</v>
       </c>
-      <c r="D44" s="44">
+      <c r="D44" s="41">
         <v>9373</v>
       </c>
     </row>
@@ -11082,7 +14684,7 @@
       <c r="B45">
         <v>14074.267090620029</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="41">
         <v>9497</v>
       </c>
     </row>
@@ -11093,7 +14695,7 @@
       <c r="B46">
         <v>14152.57233704292</v>
       </c>
-      <c r="D46" s="44">
+      <c r="D46" s="41">
         <v>9571</v>
       </c>
     </row>
@@ -11104,7 +14706,7 @@
       <c r="B47">
         <v>15025.818759936399</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="41">
         <v>9539</v>
       </c>
     </row>
@@ -11115,7 +14717,7 @@
       <c r="B48">
         <v>15524.717011128771</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="41">
         <v>10070</v>
       </c>
     </row>
@@ -11126,7 +14728,7 @@
       <c r="B49">
         <v>16298.220985691571</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="41">
         <v>11084</v>
       </c>
     </row>
@@ -11137,7 +14739,7 @@
       <c r="B50">
         <v>17228.263910969792</v>
       </c>
-      <c r="D50" s="44">
+      <c r="D50" s="41">
         <v>11514</v>
       </c>
     </row>
@@ -11148,7 +14750,7 @@
       <c r="B51">
         <v>17875.612082670901</v>
       </c>
-      <c r="D51" s="44">
+      <c r="D51" s="41">
         <v>12228</v>
       </c>
     </row>
@@ -11159,7 +14761,7 @@
       <c r="B52">
         <v>19129.20031796502</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="41">
         <v>12767</v>
       </c>
     </row>
@@ -11170,7 +14772,7 @@
       <c r="B53">
         <v>20776</v>
       </c>
-      <c r="D53" s="44">
+      <c r="D53" s="41">
         <v>13199</v>
       </c>
       <c r="E53">
@@ -11184,7 +14786,7 @@
       <c r="B54">
         <v>20067</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="41">
         <v>13636</v>
       </c>
       <c r="E54">
@@ -11198,7 +14800,7 @@
       <c r="B55">
         <v>20292</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="41">
         <v>13487</v>
       </c>
       <c r="E55">
@@ -11212,7 +14814,7 @@
       <c r="B56">
         <v>20703</v>
       </c>
-      <c r="D56" s="44">
+      <c r="D56" s="41">
         <v>13699</v>
       </c>
       <c r="E56">
@@ -11226,7 +14828,7 @@
       <c r="B57">
         <v>22137</v>
       </c>
-      <c r="D57" s="44">
+      <c r="D57" s="41">
         <v>14594</v>
       </c>
       <c r="E57">
@@ -11240,7 +14842,7 @@
       <c r="B58">
         <v>21872</v>
       </c>
-      <c r="D58" s="44">
+      <c r="D58" s="41">
         <v>14927</v>
       </c>
       <c r="E58">
@@ -11254,7 +14856,7 @@
       <c r="B59">
         <v>22009</v>
       </c>
-      <c r="D59" s="44">
+      <c r="D59" s="41">
         <v>14983</v>
       </c>
       <c r="E59">
@@ -11268,7 +14870,7 @@
       <c r="B60">
         <v>23753</v>
       </c>
-      <c r="D60" s="44">
+      <c r="D60" s="41">
         <v>15508</v>
       </c>
       <c r="E60">
@@ -11282,7 +14884,7 @@
       <c r="B61">
         <v>23145</v>
       </c>
-      <c r="D61" s="44">
+      <c r="D61" s="41">
         <v>15537</v>
       </c>
       <c r="E61">
@@ -11296,7 +14898,7 @@
       <c r="B62">
         <v>23145</v>
       </c>
-      <c r="D62" s="44">
+      <c r="D62" s="41">
         <v>15945</v>
       </c>
       <c r="E62">
@@ -11310,7 +14912,7 @@
       <c r="B63">
         <v>24194.52173168564</v>
       </c>
-      <c r="D63" s="44">
+      <c r="D63" s="41">
         <v>15990</v>
       </c>
       <c r="E63">
@@ -11324,7 +14926,7 @@
       <c r="B64">
         <v>25089.29089953471</v>
       </c>
-      <c r="D64" s="44">
+      <c r="D64" s="41">
         <v>15965</v>
       </c>
       <c r="E64">
@@ -11338,7 +14940,7 @@
       <c r="B65">
         <v>25297.975557049198</v>
       </c>
-      <c r="D65" s="44">
+      <c r="D65" s="41">
         <v>16692</v>
       </c>
       <c r="E65">
@@ -11352,7 +14954,7 @@
       <c r="B66">
         <v>26259.767623756532</v>
       </c>
-      <c r="D66" s="44">
+      <c r="D66" s="41">
         <v>18190</v>
       </c>
       <c r="E66">
@@ -11366,7 +14968,7 @@
       <c r="B67">
         <v>27894.831923939641</v>
       </c>
-      <c r="D67" s="44">
+      <c r="D67" s="41">
         <v>18426</v>
       </c>
       <c r="E67">
@@ -11380,7 +14982,7 @@
       <c r="B68">
         <v>27978.19375439177</v>
       </c>
-      <c r="D68" s="44">
+      <c r="D68" s="41">
         <v>19149</v>
       </c>
       <c r="E68">
@@ -11394,7 +14996,7 @@
       <c r="B69">
         <v>28520.721798863349</v>
       </c>
-      <c r="D69" s="44">
+      <c r="D69" s="41">
         <v>20357</v>
       </c>
       <c r="E69">
@@ -11408,7 +15010,7 @@
       <c r="B70">
         <v>29751.152073732701</v>
       </c>
-      <c r="D70" s="44">
+      <c r="D70" s="41">
         <v>20038</v>
       </c>
       <c r="E70">
@@ -11447,35 +15049,35 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE9E21-FFFE-FE44-A271-69CE67A39F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1504B1-07D6-E646-A697-8E026F886490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="200" yWindow="-18200" windowWidth="28800" windowHeight="16040" activeTab="7" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -31,7 +31,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="369">
   <si>
     <t>Al</t>
   </si>
@@ -796,9 +795,6 @@
     <t>alloy additives //https://www.sciencedirect.com/science/article/pii/S0921344917301556</t>
   </si>
   <si>
-    <t>batteries</t>
-  </si>
-  <si>
     <t>foundries</t>
   </si>
   <si>
@@ -874,12 +870,6 @@
     <t>https://tantaline.com/technology/corrosion-properties/</t>
   </si>
   <si>
-    <t>https://www.sii.co.jp/en/me/battery/products/silver-oxide/expiry-guide/#:~:text=The%20recommended%20usage%20period%20of,from%20the%20month%20of%20manufacturing.</t>
-  </si>
-  <si>
-    <t>https://galvanizeit.org/hot-dip-galvanizing/what-is-zinc/facts-about-zinc</t>
-  </si>
-  <si>
     <t>https://money.usnews.com/money/personal-finance/family-finance/articles/how-long-can-you-expect-your-roof-or-fridge-to-last#:~:text=Slate%2C%20copper%20and%20tile%20roofs,20%20years%2C%20the%20NAHB%20found.</t>
   </si>
   <si>
@@ -898,12 +888,6 @@
     <t>https://www.electronicsweekly.com/news/now-alternative-solid-tantalum-capacitors-2017-03/#:~:text=Whilst%20MLCCs%20are%20susceptible%20to,of%202%20years%20or%20less.</t>
   </si>
   <si>
-    <t>https://blog.epectec.com/understanding-how-solder-and-coatings-impact-pcb-shelf-life#:~:text=Depending%20on%20the%20solder%20that,last%20up%20to%2010%20years.</t>
-  </si>
-  <si>
-    <t>https://www.pv-magazine.com/2022/01/25/nickel-zinc-batteries-for-large-scale-backup-power/</t>
-  </si>
-  <si>
     <t>https://www.power-sonic.com/blog/features-of-sealed-lead-acid-batteries/#:~:text=Sealed%20lead%20acid%20batteries%20can,manufacturing%20process%20of%20the%20battery.</t>
   </si>
   <si>
@@ -913,12 +897,6 @@
     <t>https://digitalworld839.com/how-long-does-a-monitor-last/#:~:text=LCD%20monitors%20usually%20have%20a,for%20eight%20hours%20a%20day.</t>
   </si>
   <si>
-    <t>nuclear reactors :: https://www.energy.gov/ne/articles/whats-lifespan-nuclear-reactor-much-longer-you-might-think</t>
-  </si>
-  <si>
-    <t>https://crossroadsgalvanizing.com/2020/04/08/life-expectancy-of-galvanized-steel/</t>
-  </si>
-  <si>
     <t>solder /// https://www.evilmadscientist.com/2013/solder-expire/#:~:text=Flux%20cored%20solder%20wire%20has,years%20from%20date%20of%20manufacture.</t>
   </si>
   <si>
@@ -931,15 +909,9 @@
     <t>chemical ::: https://www.sciencedirect.com/science/article/pii/S0263436821000780</t>
   </si>
   <si>
-    <t>solar panels :: https://www.greenbiz.com/article/what-will-happen-solar-panels-after-their-useful-lives-are-over#:~:text=The%20industry%20standard%20life%20span,t%20long%20from%20being%20retired.</t>
-  </si>
-  <si>
     <t>https://blog.evbox.com/ev-battery-longevity#:~:text=How%20long%20do%20EV%20batteries,costs%20associated%20with%20battery%20replacement.</t>
   </si>
   <si>
-    <t>https://www.buildingenclosureonline.com/articles/88937-transit-centre-showcases-zinc-cladding-to-create-distinctive-durable-design</t>
-  </si>
-  <si>
     <t>https://www.heatandplumb.com/blog/how-often-should-radiators-be-replaced#:~:text=If%20you're%20asking%20%E2%80%9Chow,of%20how%20they're%20performing.</t>
   </si>
   <si>
@@ -1090,9 +1062,6 @@
     <t>IGSG Factbook 2018</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>The Silver Institute, World Silver Surveys, taking the maximum value reported in the surveys from 2001-2022, https://www.silverinstitute.org/all-world-silver-surveys/. Using total demand after hedging adjustments (appears equal to total supply)</t>
   </si>
   <si>
@@ -1165,39 +1134,6 @@
     <t>Anthropogenic nickel supply, demand, and associated energy and water use - ScienceDirect, https://www.sciencedirect.com/science/article/pii/S0921344917301817, figure 1 using most recent year</t>
   </si>
   <si>
-    <t>solder</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>tin platings brass</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>brass</t>
-  </si>
-  <si>
-    <t>all electronics</t>
-  </si>
-  <si>
-    <t>construction</t>
-  </si>
-  <si>
-    <t>cans-other?</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>bc and electronics</t>
-  </si>
-  <si>
     <t>Measuring the sustainability of tin in China - ScienceDirect, https://www.sciencedirect.com/science/article/pii/S0048969718312373, table 1, assuming that solder is evenly distributed between electrical and industrial, chemicals are fully in construction, tin platings are other, brass and bronze are evenly distributed between construction and transportation, batterials are in transportation, and float glass is evenly distributed between buildings and automotive</t>
   </si>
   <si>
@@ -1229,15 +1165,43 @@
   </si>
   <si>
     <t>Assuming half of silver jewelry can be directly remelted</t>
+  </si>
+  <si>
+    <t>assumed same as steel</t>
+  </si>
+  <si>
+    <t>assumed same as gold</t>
+  </si>
+  <si>
+    <t>https://www2.bgs.ac.uk/mineralsuk/statistics/wms.cfc?method=searchWMS</t>
+  </si>
+  <si>
+    <t>BGS: searched for Pt mine all countries, then manually added skipping Palladium and "other Pt metals" rows</t>
+  </si>
+  <si>
+    <t>Using SP Global as well, standard deviation of ore treated</t>
+  </si>
+  <si>
+    <t>Using SP Global as well, reported head grade (modeled were fewer in number)</t>
+  </si>
+  <si>
+    <t>Using SP Global as well, reported head grade (modeled were fewer in number), standard deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also using SP global, on an ore treated basis due to data limitations </t>
+  </si>
+  <si>
+    <t>From SP Global Market Intelligence downloaded data, using ore processed multiplied by ore grade, since the mean production from the 7 mines with reported production seemed excessively large and perhaps incompatible with our model. 15 ore treated reported, 2 modeled recovered metal, 7 reported production, 4 reported grade, 2 modeled grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="\Te"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1333,7 +1297,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1351,18 +1315,6 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1378,7 +1330,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1455,17 +1407,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2497,15 +2446,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Sheet1!$A$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mean total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Mean total</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2520,109 +2461,106 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
-            <c:numRef>
-              <c:f>[2]Sheet1!$B$69:$AG$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>141.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>148.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>151.92500000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>162.82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>158.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>169.2428571428571</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>193.83500000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>179.92222222222222</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>180.43</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>183.39000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>188.94</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>188.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>188.48000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>194.05</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>198.76999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>196.53000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>195.38000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>195.73</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>225.97777777777779</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>256.87777777777779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>245.65555555555551</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>190.61111111111111</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>168.26249999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>151.25714285714284</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>154.91999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>158.85</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>162.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>171.23333333333335</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>184.6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>180.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>141.9</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>148.30000000000001</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>148.5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>151.92500000000001</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>162.82</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>158.30000000000001</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>169.2428571428571</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>193.83500000000001</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>179.92222222222222</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>180.43</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>183.39000000000001</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>188.94</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>188.07</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>188.48000000000002</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>194.05</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>198.76999999999998</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>196.53000000000003</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>195.38000000000002</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>195.73</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>225.97777777777779</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>256.87777777777779</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>245.65555555555551</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>190.61111111111111</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>168.26249999999999</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>151.25714285714284</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>151</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>154.91999999999999</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>158.85</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>162.69999999999999</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>171.23333333333335</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>184.6</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>180.5</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
@@ -2635,15 +2573,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Sheet1!$A$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Max total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Max total</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2658,109 +2588,106 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
-            <c:numRef>
-              <c:f>[2]Sheet1!$B$71:$AG$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>141.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>148.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>162.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>158.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>169.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>193.98</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>181.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>180.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>197.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>198.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>203.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>207.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>204.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>201.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>228.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>261.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>255.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>192.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>166.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>164.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>167.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>167.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>170.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>182.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>196.2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>180.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>141.9</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>148.30000000000001</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>148.5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>152</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>162.9</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>158.4</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>169.3</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>193.98</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>181.6</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>180.8</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>189</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>197.3</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>196</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>198.7</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>203.4</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>207.1</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>204.2</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>202</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>201.2</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>228.8</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>261.5</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>255.5</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>192.7</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>175</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>166.5</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>164.5</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>167.8</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>167.8</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>170.5</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>182.1</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>196.2</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>180.5</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
@@ -3607,418 +3534,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>Mean total</v>
-          </cell>
-          <cell r="B68">
-            <v>714.9</v>
-          </cell>
-          <cell r="C68">
-            <v>728.65</v>
-          </cell>
-          <cell r="D68">
-            <v>770.6</v>
-          </cell>
-          <cell r="E68">
-            <v>765.55000000000007</v>
-          </cell>
-          <cell r="F68">
-            <v>768.4799999999999</v>
-          </cell>
-          <cell r="G68">
-            <v>811.65</v>
-          </cell>
-          <cell r="H68">
-            <v>842.88571428571436</v>
-          </cell>
-          <cell r="I68">
-            <v>827.72500000000002</v>
-          </cell>
-          <cell r="J68">
-            <v>882.65555555555545</v>
-          </cell>
-          <cell r="K68">
-            <v>929.14</v>
-          </cell>
-          <cell r="L68">
-            <v>875.99999999999977</v>
-          </cell>
-          <cell r="M68">
-            <v>860.32999999999993</v>
-          </cell>
-          <cell r="N68">
-            <v>877.61</v>
-          </cell>
-          <cell r="O68">
-            <v>875.17000000000007</v>
-          </cell>
-          <cell r="P68">
-            <v>931.76</v>
-          </cell>
-          <cell r="Q68">
-            <v>916.54</v>
-          </cell>
-          <cell r="R68">
-            <v>895.96</v>
-          </cell>
-          <cell r="S68">
-            <v>904.56000000000006</v>
-          </cell>
-          <cell r="T68">
-            <v>916.38000000000011</v>
-          </cell>
-          <cell r="U68">
-            <v>1072.2888888888888</v>
-          </cell>
-          <cell r="V68">
-            <v>1041.9666666666665</v>
-          </cell>
-          <cell r="W68">
-            <v>1005.7111111111111</v>
-          </cell>
-          <cell r="X68">
-            <v>1014.3444444444444</v>
-          </cell>
-          <cell r="Y68">
-            <v>1040.75</v>
-          </cell>
-          <cell r="Z68">
-            <v>1052.257142857143</v>
-          </cell>
-          <cell r="AA68">
-            <v>1002.4</v>
-          </cell>
-          <cell r="AB68">
-            <v>981.24</v>
-          </cell>
-          <cell r="AC68">
-            <v>989.52499999999986</v>
-          </cell>
-          <cell r="AD68">
-            <v>989.06666666666661</v>
-          </cell>
-          <cell r="AE68">
-            <v>913.16666666666663</v>
-          </cell>
-          <cell r="AF68">
-            <v>1041</v>
-          </cell>
-          <cell r="AG68">
-            <v>1101.8</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>141.9</v>
-          </cell>
-          <cell r="C69">
-            <v>148.30000000000001</v>
-          </cell>
-          <cell r="D69">
-            <v>148.5</v>
-          </cell>
-          <cell r="E69">
-            <v>151.92500000000001</v>
-          </cell>
-          <cell r="F69">
-            <v>162.82</v>
-          </cell>
-          <cell r="G69">
-            <v>158.30000000000001</v>
-          </cell>
-          <cell r="H69">
-            <v>169.2428571428571</v>
-          </cell>
-          <cell r="I69">
-            <v>193.83500000000001</v>
-          </cell>
-          <cell r="J69">
-            <v>179.92222222222222</v>
-          </cell>
-          <cell r="K69">
-            <v>180.43</v>
-          </cell>
-          <cell r="L69">
-            <v>183.39000000000001</v>
-          </cell>
-          <cell r="M69">
-            <v>188.94</v>
-          </cell>
-          <cell r="N69">
-            <v>188.07</v>
-          </cell>
-          <cell r="O69">
-            <v>188.48000000000002</v>
-          </cell>
-          <cell r="P69">
-            <v>194.05</v>
-          </cell>
-          <cell r="Q69">
-            <v>198.76999999999998</v>
-          </cell>
-          <cell r="R69">
-            <v>196.53000000000003</v>
-          </cell>
-          <cell r="S69">
-            <v>195.38000000000002</v>
-          </cell>
-          <cell r="T69">
-            <v>195.73</v>
-          </cell>
-          <cell r="U69">
-            <v>225.97777777777779</v>
-          </cell>
-          <cell r="V69">
-            <v>256.87777777777779</v>
-          </cell>
-          <cell r="W69">
-            <v>245.65555555555551</v>
-          </cell>
-          <cell r="X69">
-            <v>190.61111111111111</v>
-          </cell>
-          <cell r="Y69">
-            <v>168.26249999999999</v>
-          </cell>
-          <cell r="Z69">
-            <v>151.25714285714284</v>
-          </cell>
-          <cell r="AA69">
-            <v>151</v>
-          </cell>
-          <cell r="AB69">
-            <v>154.91999999999999</v>
-          </cell>
-          <cell r="AC69">
-            <v>158.85</v>
-          </cell>
-          <cell r="AD69">
-            <v>162.69999999999999</v>
-          </cell>
-          <cell r="AE69">
-            <v>171.23333333333335</v>
-          </cell>
-          <cell r="AF69">
-            <v>184.6</v>
-          </cell>
-          <cell r="AG69">
-            <v>180.5</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>Max total</v>
-          </cell>
-          <cell r="B70">
-            <v>714.9</v>
-          </cell>
-          <cell r="C70">
-            <v>729.8</v>
-          </cell>
-          <cell r="D70">
-            <v>771.6</v>
-          </cell>
-          <cell r="E70">
-            <v>767.6</v>
-          </cell>
-          <cell r="F70">
-            <v>769.6</v>
-          </cell>
-          <cell r="G70">
-            <v>812.9</v>
-          </cell>
-          <cell r="H70">
-            <v>845.1</v>
-          </cell>
-          <cell r="I70">
-            <v>833.4</v>
-          </cell>
-          <cell r="J70">
-            <v>887.2</v>
-          </cell>
-          <cell r="K70">
-            <v>946.3</v>
-          </cell>
-          <cell r="L70">
-            <v>886.1</v>
-          </cell>
-          <cell r="M70">
-            <v>870.7</v>
-          </cell>
-          <cell r="N70">
-            <v>889.8</v>
-          </cell>
-          <cell r="O70">
-            <v>882.4</v>
-          </cell>
-          <cell r="P70">
-            <v>955.1</v>
-          </cell>
-          <cell r="Q70">
-            <v>926</v>
-          </cell>
-          <cell r="R70">
-            <v>913</v>
-          </cell>
-          <cell r="S70">
-            <v>915</v>
-          </cell>
-          <cell r="T70">
-            <v>931.7</v>
-          </cell>
-          <cell r="U70">
-            <v>1076.2</v>
-          </cell>
-          <cell r="V70">
-            <v>1045.4000000000001</v>
-          </cell>
-          <cell r="W70">
-            <v>1048.3</v>
-          </cell>
-          <cell r="X70">
-            <v>1071.2</v>
-          </cell>
-          <cell r="Y70">
-            <v>1061.8</v>
-          </cell>
-          <cell r="Z70">
-            <v>1070.4000000000001</v>
-          </cell>
-          <cell r="AA70">
-            <v>1025.8</v>
-          </cell>
-          <cell r="AB70">
-            <v>1032.5999999999999</v>
-          </cell>
-          <cell r="AC70">
-            <v>1004.3</v>
-          </cell>
-          <cell r="AD70">
-            <v>995.4</v>
-          </cell>
-          <cell r="AE70">
-            <v>963.4</v>
-          </cell>
-          <cell r="AF70">
-            <v>1049</v>
-          </cell>
-          <cell r="AG70">
-            <v>1101.8</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>141.9</v>
-          </cell>
-          <cell r="C71">
-            <v>148.30000000000001</v>
-          </cell>
-          <cell r="D71">
-            <v>148.5</v>
-          </cell>
-          <cell r="E71">
-            <v>152</v>
-          </cell>
-          <cell r="F71">
-            <v>162.9</v>
-          </cell>
-          <cell r="G71">
-            <v>158.4</v>
-          </cell>
-          <cell r="H71">
-            <v>169.3</v>
-          </cell>
-          <cell r="I71">
-            <v>193.98</v>
-          </cell>
-          <cell r="J71">
-            <v>181.6</v>
-          </cell>
-          <cell r="K71">
-            <v>180.8</v>
-          </cell>
-          <cell r="L71">
-            <v>189</v>
-          </cell>
-          <cell r="M71">
-            <v>197.3</v>
-          </cell>
-          <cell r="N71">
-            <v>196</v>
-          </cell>
-          <cell r="O71">
-            <v>198.7</v>
-          </cell>
-          <cell r="P71">
-            <v>203.4</v>
-          </cell>
-          <cell r="Q71">
-            <v>207.1</v>
-          </cell>
-          <cell r="R71">
-            <v>204.2</v>
-          </cell>
-          <cell r="S71">
-            <v>202</v>
-          </cell>
-          <cell r="T71">
-            <v>201.2</v>
-          </cell>
-          <cell r="U71">
-            <v>228.8</v>
-          </cell>
-          <cell r="V71">
-            <v>261.5</v>
-          </cell>
-          <cell r="W71">
-            <v>255.5</v>
-          </cell>
-          <cell r="X71">
-            <v>192.7</v>
-          </cell>
-          <cell r="Y71">
-            <v>175</v>
-          </cell>
-          <cell r="Z71">
-            <v>166.5</v>
-          </cell>
-          <cell r="AA71">
-            <v>164.5</v>
-          </cell>
-          <cell r="AB71">
-            <v>167.8</v>
-          </cell>
-          <cell r="AC71">
-            <v>167.8</v>
-          </cell>
-          <cell r="AD71">
-            <v>170.5</v>
-          </cell>
-          <cell r="AE71">
-            <v>182.1</v>
-          </cell>
-          <cell r="AF71">
-            <v>196.2</v>
-          </cell>
-          <cell r="AG71">
-            <v>180.5</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}" name="Table2" displayName="Table2" ref="A1:AK74" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="A1:AK74" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}"/>
@@ -4362,11 +3877,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
-  <dimension ref="A1:AK94"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4444,7 +3959,7 @@
         <v>94</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="R1" s="35" t="s">
         <v>95</v>
@@ -4504,7 +4019,7 @@
         <v>109</v>
       </c>
       <c r="AK1" s="35" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="14.5" customHeight="1">
@@ -4784,7 +4299,7 @@
         <v>133</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
@@ -4805,7 +4320,7 @@
         <v>220</v>
       </c>
       <c r="AF5" s="43" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AG5" s="9" t="s">
         <v>221</v>
@@ -4900,23 +4415,23 @@
         <v>227</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AF6" s="7" t="s">
         <v>228</v>
       </c>
       <c r="AG6" s="42" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AH6" s="7" t="s">
         <v>229</v>
       </c>
       <c r="AI6" s="43" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="43" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="14.5" customHeight="1">
@@ -4992,7 +4507,7 @@
         <v>230</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>231</v>
@@ -5001,16 +4516,16 @@
         <v>78</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="AE7" s="45" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="AF7" s="45" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="AG7" s="45" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>229</v>
@@ -5094,7 +4609,7 @@
         <v>234</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AB8" s="7" t="s">
         <v>235</v>
@@ -5107,7 +4622,7 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
@@ -5182,25 +4697,25 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB9" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB9" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
@@ -5246,7 +4761,7 @@
       <c r="M10" s="6">
         <v>0.15</v>
       </c>
-      <c r="N10" s="51">
+      <c r="N10" s="49">
         <f>1-N11-N9-N8-N7</f>
         <v>5.9998999999999955E-2</v>
       </c>
@@ -5279,25 +4794,25 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="AC10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AD10" s="7"/>
       <c r="AE10" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
@@ -5373,10 +4888,10 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="1" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AC11" s="9" t="s">
         <v>78</v>
@@ -5388,7 +4903,7 @@
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
@@ -5462,35 +4977,35 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AD12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE12" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AE12" s="7" t="s">
+      <c r="AF12" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="AF12" s="7" t="s">
+      <c r="AG12" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="AG12" s="7" t="s">
+      <c r="AH12" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="AI12" s="7" t="s">
         <v>214</v>
       </c>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="14.5" customHeight="1">
@@ -5566,20 +5081,20 @@
         <v>107</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="14.5" customHeight="1">
@@ -5662,7 +5177,7 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="14.5" customHeight="1">
@@ -5822,7 +5337,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="14.5" customHeight="1">
@@ -5855,11 +5370,11 @@
       <c r="K17" s="8">
         <v>50</v>
       </c>
-      <c r="L17" s="46">
-        <v>30</v>
+      <c r="L17" s="8">
+        <v>50</v>
       </c>
       <c r="M17" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N17" s="8">
         <v>50</v>
@@ -5893,31 +5408,31 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB17" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>261</v>
       </c>
       <c r="AC17" s="9" t="s">
         <v>107</v>
       </c>
       <c r="AD17" s="45" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AE17" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG17" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH17" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="AF17" s="9" t="s">
+      <c r="AI17" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="AG17" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH17" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI17" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
@@ -5952,11 +5467,11 @@
       <c r="K18" s="6">
         <v>15</v>
       </c>
-      <c r="L18" s="52">
-        <v>1000000</v>
+      <c r="L18" s="6">
+        <v>3</v>
       </c>
       <c r="M18" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N18" s="6">
         <v>5</v>
@@ -5989,32 +5504,32 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AC18" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AD18" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE18" s="7" t="s">
-        <v>270</v>
+        <v>356</v>
+      </c>
+      <c r="AE18" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="AF18" s="7" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
@@ -6049,11 +5564,11 @@
       <c r="K19" s="8">
         <v>25</v>
       </c>
-      <c r="L19" s="46">
-        <v>3</v>
+      <c r="L19" s="8">
+        <v>30</v>
       </c>
       <c r="M19" s="8">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="N19" s="8">
         <v>20</v>
@@ -6092,22 +5607,22 @@
         <v>107</v>
       </c>
       <c r="AD19" s="45" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AE19" s="9" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AH19" s="9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AI19" s="24" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
@@ -6142,11 +5657,11 @@
       <c r="K20" s="6">
         <v>15</v>
       </c>
-      <c r="L20" s="47">
-        <v>80</v>
-      </c>
-      <c r="M20" s="15">
-        <v>1000000</v>
+      <c r="L20" s="6">
+        <v>15</v>
+      </c>
+      <c r="M20" s="6">
+        <v>15</v>
       </c>
       <c r="N20" s="6">
         <v>5</v>
@@ -6173,7 +5688,7 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
@@ -6181,14 +5696,16 @@
         <v>107</v>
       </c>
       <c r="AD20" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE20" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF20" s="7"/>
+        <v>356</v>
+      </c>
+      <c r="AE20" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF20" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="AG20" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
@@ -6226,10 +5743,10 @@
         <v>22</v>
       </c>
       <c r="L21" s="8">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M21" s="8">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N21" s="8">
         <v>17</v>
@@ -6263,26 +5780,28 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>107</v>
       </c>
       <c r="AD21" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE21" s="9"/>
+        <v>356</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="AF21" s="9" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AH21" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
@@ -6344,23 +5863,23 @@
       <c r="X22" s="7"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="45" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="7" t="s">
         <v>183</v>
       </c>
       <c r="AD22" s="45" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AE22" s="7" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AF22" s="42" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="AG22" s="7" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
@@ -6424,23 +5943,23 @@
       <c r="X23" s="9"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="45" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9" t="s">
         <v>183</v>
       </c>
       <c r="AD23" s="45" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AE23" s="7" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AF23" s="42" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="AG23" s="7" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
@@ -6504,23 +6023,23 @@
       <c r="X24" s="7"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="45" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="7" t="s">
         <v>183</v>
       </c>
       <c r="AD24" s="45" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AE24" s="7" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AF24" s="42" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="AG24" s="7" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
@@ -6584,23 +6103,23 @@
       <c r="X25" s="9"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="45" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="AB25" s="8"/>
       <c r="AC25" s="9" t="s">
         <v>183</v>
       </c>
       <c r="AD25" s="45" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AE25" s="7" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AF25" s="42" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="AG25" s="7" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
@@ -6665,23 +6184,23 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="45" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="AB26" s="8"/>
       <c r="AC26" s="7" t="s">
         <v>183</v>
       </c>
       <c r="AD26" s="45" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AE26" s="7" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AF26" s="42" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
@@ -6755,23 +6274,23 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="21" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="21" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AC27" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
@@ -6842,25 +6361,25 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="23" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AC28" s="7" t="s">
         <v>77</v>
       </c>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="AF28" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
@@ -7010,7 +6529,7 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="23" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -7018,13 +6537,13 @@
         <v>77</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="29" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
@@ -7090,7 +6609,7 @@
         <v>131</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
@@ -7102,7 +6621,7 @@
       </c>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
@@ -7171,7 +6690,7 @@
         <v>131</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -7183,7 +6702,7 @@
       </c>
       <c r="AD32" s="7"/>
       <c r="AE32" s="9" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
@@ -7257,24 +6776,24 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="AC33" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="21" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="14.5" customHeight="1">
@@ -7344,11 +6863,11 @@
         <v>77</v>
       </c>
       <c r="AD34" s="23" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
@@ -7422,13 +6941,13 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AC35" s="9" t="s">
         <v>91</v>
@@ -7436,7 +6955,7 @@
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="AG35" s="9"/>
       <c r="AH35" s="9" t="s">
@@ -7448,7 +6967,7 @@
     </row>
     <row r="36" spans="1:37" ht="14.5" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B36" s="6">
         <v>0.5</v>
@@ -7517,7 +7036,7 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
@@ -7588,10 +7107,10 @@
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AA37" s="21" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AB37" s="9" t="s">
         <v>208</v>
@@ -7603,7 +7122,7 @@
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
       <c r="AI37" s="9" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
@@ -7625,7 +7144,9 @@
       <c r="E38" s="6"/>
       <c r="F38" s="11"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="6">
+        <v>4.5032618547779402</v>
+      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6">
         <v>12.449078</v>
@@ -7660,13 +7181,15 @@
       <c r="V38" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="W38" s="7" t="s">
+      <c r="W38" s="42" t="s">
         <v>112</v>
       </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
+      <c r="AA38" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7" t="s">
         <v>112</v>
@@ -7697,39 +7220,51 @@
         <v>16</v>
       </c>
       <c r="B39" s="8">
-        <v>0.995</v>
+        <f>0.995^0.5</f>
+        <v>0.99749686716300012</v>
       </c>
       <c r="C39" s="8">
-        <v>1.75414</v>
+        <f>1.75414^0.5</f>
+        <v>1.3244395040922028</v>
       </c>
       <c r="D39" s="8">
-        <v>1.119928</v>
+        <f>1.119928^0.5</f>
+        <v>1.0582665070765493</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="H39" s="50">
+        <v>0.74194119079264453</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8">
-        <v>4.5063310000000003</v>
+        <f>4.506331^0.5</f>
+        <v>2.1228120500882786</v>
       </c>
       <c r="K39" s="8">
-        <v>0.73005399999999998</v>
+        <f>0.730054^0.5</f>
+        <v>0.85443197505711355</v>
       </c>
       <c r="L39" s="8">
-        <v>1.164431</v>
+        <f>1.164431^0.5</f>
+        <v>1.0790880408937911</v>
       </c>
       <c r="M39" s="8">
-        <v>2.6196540000000001</v>
+        <f>2.619654^0.5</f>
+        <v>1.6185345223380316</v>
       </c>
       <c r="N39" s="8">
-        <v>2.6128360000000002</v>
+        <f>2.612836^0.5</f>
+        <v>1.6164269238044757</v>
       </c>
       <c r="O39" s="8">
-        <v>8.2200999999999996E-2</v>
+        <f>0.082201^0.5</f>
+        <v>0.2867071676815911</v>
       </c>
       <c r="P39" s="8">
-        <v>0.60348800000000002</v>
+        <f>0.603488^0.5</f>
+        <v>0.77684490086503111</v>
       </c>
       <c r="Q39" s="20"/>
       <c r="R39" s="8"/>
@@ -7749,7 +7284,9 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
+      <c r="AA39" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9" t="s">
         <v>112</v>
@@ -7791,7 +7328,9 @@
       </c>
       <c r="E40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="51">
+        <v>1.0968131213886334</v>
+      </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6">
         <v>0.64898900000000004</v>
@@ -7832,7 +7371,9 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
+      <c r="AA40" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7" t="s">
         <v>112</v>
@@ -7863,39 +7404,48 @@
         <v>36</v>
       </c>
       <c r="B41" s="8">
-        <v>0.13320000000000001</v>
+        <f>0.1332^0.5</f>
+        <v>0.3649657518178932</v>
       </c>
       <c r="C41" s="8">
-        <v>6.0100000000000001E-2</v>
+        <f>0.0601^0.5</f>
+        <v>0.24515301344262524</v>
       </c>
       <c r="D41" s="8">
-        <v>0.90450399999999997</v>
+        <v>0.95105399999999995</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="10"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="50">
+        <v>0.57791694994750731</v>
+      </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8">
-        <v>0.52081299999999997</v>
+        <v>0.72167400000000004</v>
       </c>
       <c r="K41" s="8">
-        <v>0.39409699999999998</v>
+        <v>0.627772</v>
       </c>
       <c r="L41" s="8">
-        <v>0.59282599999999996</v>
+        <f>0.592826^0.5</f>
+        <v>0.76995194655251054</v>
       </c>
       <c r="M41" s="8">
-        <v>0.385681</v>
+        <f>0.385681^0.5</f>
+        <v>0.62103220528407377</v>
       </c>
       <c r="N41" s="8">
-        <v>0.55151899999999998</v>
+        <f>0.551519^0.5</f>
+        <v>0.74264325217428584</v>
       </c>
       <c r="O41" s="8">
-        <v>1.142E-3</v>
+        <f>0.001142^0.5</f>
+        <v>3.3793490497431605E-2</v>
       </c>
       <c r="P41" s="8">
-        <v>0.119309</v>
+        <f>0.119309^0.5</f>
+        <v>0.34541134897394438</v>
       </c>
       <c r="Q41" s="20"/>
       <c r="R41" s="8"/>
@@ -7903,10 +7453,10 @@
         <v>34</v>
       </c>
       <c r="T41" s="9" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="V41" s="9" t="s">
         <v>89</v>
@@ -7917,7 +7467,9 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
+      <c r="AA41" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9" t="s">
         <v>112</v>
@@ -8009,28 +7561,28 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="23" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="23" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="AD42" s="7"/>
       <c r="AE42" s="43" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AF42" s="7"/>
       <c r="AG42" s="23" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="14.5" customHeight="1">
@@ -8101,22 +7653,22 @@
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="24" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="AA43" s="8" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AC43" s="8" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AD43" s="8" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AF43" s="8" t="s">
         <v>172</v>
@@ -8151,7 +7703,9 @@
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="6">
+        <v>0.43914889552565523</v>
+      </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6">
         <v>0.33660000000000001</v>
@@ -8194,9 +7748,11 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA44" s="7"/>
+        <v>307</v>
+      </c>
+      <c r="AA44" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7" t="s">
         <v>124</v>
@@ -8242,7 +7798,9 @@
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="H45" s="8">
+        <v>0.51673572270432799</v>
+      </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8">
         <v>0.61550000000000005</v>
@@ -8285,9 +7843,9 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA45" s="9"/>
+        <v>308</v>
+      </c>
+      <c r="AA45" s="7"/>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9" t="s">
         <v>124</v>
@@ -8333,7 +7891,9 @@
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6">
         <v>2.8199999999999999E-2</v>
@@ -8422,7 +7982,9 @@
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="H47" s="5">
+        <v>4.4115380000000003E-2</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8">
         <v>1.9699999999999999E-2</v>
@@ -8465,7 +8027,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
+      <c r="AA47" s="7"/>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9" t="s">
         <v>124</v>
@@ -8511,7 +8073,9 @@
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6">
         <v>0</v>
@@ -9658,152 +9222,47 @@
       <c r="AK73" s="9"/>
     </row>
     <row r="74" spans="1:37">
-      <c r="A74" s="48" t="s">
+      <c r="A74" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="48"/>
-      <c r="P74" s="48"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="48"/>
-      <c r="S74" s="48" t="s">
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="46"/>
+      <c r="S74" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="T74" s="50"/>
-      <c r="U74" s="50"/>
-      <c r="V74" s="50"/>
-      <c r="W74" s="50"/>
-      <c r="X74" s="50"/>
-      <c r="Y74" s="50"/>
-      <c r="Z74" s="50"/>
-      <c r="AA74" s="50"/>
-      <c r="AB74" s="50"/>
-      <c r="AC74" s="50"/>
-      <c r="AD74" s="50"/>
-      <c r="AE74" s="50"/>
-      <c r="AF74" s="50"/>
-      <c r="AG74" s="50"/>
-      <c r="AH74" s="50"/>
-      <c r="AI74" s="50"/>
-      <c r="AJ74" s="50"/>
-      <c r="AK74" s="50"/>
-    </row>
-    <row r="90" spans="1:30">
-      <c r="A90" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90">
-        <f>1-SUM(B91:B94)</f>
-        <v>0.19100000000000006</v>
-      </c>
-      <c r="F90" t="s">
-        <v>359</v>
-      </c>
-      <c r="G90" t="s">
-        <v>360</v>
-      </c>
-      <c r="H90" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>362</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30">
-      <c r="A91" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91">
-        <f>(48.3/2+1+5.2/2)/100</f>
-        <v>0.27750000000000002</v>
-      </c>
-      <c r="F91">
-        <v>48.3</v>
-      </c>
-      <c r="G91">
-        <v>15.5</v>
-      </c>
-      <c r="H91">
-        <v>14.7</v>
-      </c>
-      <c r="AA91">
-        <v>5.2</v>
-      </c>
-      <c r="AB91">
-        <v>7.3</v>
-      </c>
-      <c r="AC91">
-        <v>2</v>
-      </c>
-      <c r="AD91">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30">
-      <c r="A92" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92">
-        <f>48.3/2/100</f>
-        <v>0.24149999999999999</v>
-      </c>
-      <c r="F92" t="s">
-        <v>365</v>
-      </c>
-      <c r="G92" t="s">
-        <v>366</v>
-      </c>
-      <c r="H92" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30">
-      <c r="A93" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93">
-        <f>(7+14.7)/100</f>
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30">
-      <c r="A94" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B94">
-        <f>7.3/100</f>
-        <v>7.2999999999999995E-2</v>
-      </c>
+      <c r="T74" s="48"/>
+      <c r="U74" s="48"/>
+      <c r="V74" s="48"/>
+      <c r="W74" s="48"/>
+      <c r="X74" s="48"/>
+      <c r="Y74" s="48"/>
+      <c r="Z74" s="48"/>
+      <c r="AA74" s="48"/>
+      <c r="AB74" s="48"/>
+      <c r="AC74" s="48"/>
+      <c r="AD74" s="48"/>
+      <c r="AE74" s="48"/>
+      <c r="AF74" s="48"/>
+      <c r="AG74" s="48"/>
+      <c r="AH74" s="48"/>
+      <c r="AI74" s="48"/>
+      <c r="AJ74" s="48"/>
+      <c r="AK74" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -9858,11 +9317,12 @@
     <hyperlink ref="AF24" r:id="rId48" xr:uid="{841D0090-CE2C-6B4D-8911-C602FC5CA170}"/>
     <hyperlink ref="AF25" r:id="rId49" xr:uid="{EF554BD6-D3AF-2A4B-AB8C-E9433478750A}"/>
     <hyperlink ref="AF26" r:id="rId50" xr:uid="{F7723C52-BBC3-F24E-AAE4-A9B42CB8045B}"/>
+    <hyperlink ref="W38" r:id="rId51" xr:uid="{324D83B3-AFAE-2543-8E69-C10D887EE7AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId52"/>
   <tableParts count="1">
-    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId53"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9871,8 +9331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7771608-927F-4E4B-98C0-8BD1C2D780A9}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9901,10 +9361,13 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>325</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="E2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9914,7 +9377,6 @@
       <c r="B3">
         <v>19.179588989644255</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3">
         <v>3.8069431775500351</v>
       </c>
@@ -9926,7 +9388,6 @@
       <c r="B4">
         <v>19.579331437463111</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4">
         <v>3.9786446316467243</v>
       </c>
@@ -9938,7 +9399,6 @@
       <c r="B5">
         <v>20.700756559532117</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5">
         <v>3.9840103020872455</v>
       </c>
@@ -9950,7 +9410,6 @@
       <c r="B6">
         <v>20.593443150721683</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6">
         <v>4.0779095347963734</v>
       </c>
@@ -9962,7 +9421,6 @@
       <c r="B7">
         <v>20.6470998551269</v>
       </c>
-      <c r="D7" s="1"/>
       <c r="E7">
         <v>4.3703385738047968</v>
       </c>
@@ -9974,7 +9432,6 @@
       <c r="B8">
         <v>21.808767505499812</v>
       </c>
-      <c r="D8" s="1"/>
       <c r="E8">
         <v>4.2496109888930622</v>
       </c>
@@ -9986,7 +9443,6 @@
       <c r="B9">
         <v>22.672640446423781</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9">
         <v>4.5420400279014865</v>
       </c>
@@ -9998,7 +9454,6 @@
       <c r="B10">
         <v>22.358748725653271</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="E10">
         <v>5.204163760261844</v>
       </c>
@@ -10010,7 +9465,9 @@
       <c r="B11">
         <v>23.802114074153568</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11">
+        <v>17.020807000000001</v>
+      </c>
       <c r="E11">
         <v>4.8720287599935608</v>
       </c>
@@ -10022,7 +9479,9 @@
       <c r="B12">
         <v>25.38766968932768</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12">
+        <v>18.202192999999998</v>
+      </c>
       <c r="E12">
         <v>4.8505660782314761</v>
       </c>
@@ -10034,6 +9493,9 @@
       <c r="B13">
         <v>23.772602886730695</v>
       </c>
+      <c r="D13">
+        <v>19.002631000000001</v>
+      </c>
       <c r="E13">
         <v>5.0705585662928581</v>
       </c>
@@ -10045,6 +9507,9 @@
       <c r="B14">
         <v>23.35944626281054</v>
       </c>
+      <c r="D14">
+        <v>18.904408</v>
+      </c>
       <c r="E14">
         <v>5.2932338895745019</v>
       </c>
@@ -10056,6 +9521,9 @@
       <c r="B15">
         <v>23.871867789880344</v>
       </c>
+      <c r="D15">
+        <v>18.82685</v>
+      </c>
       <c r="E15">
         <v>5.2583570317111121</v>
       </c>
@@ -10067,6 +9535,9 @@
       <c r="B16">
         <v>23.67333798358105</v>
       </c>
+      <c r="D16">
+        <v>19.891030999999998</v>
+      </c>
       <c r="E16">
         <v>5.3307935826581527</v>
       </c>
@@ -10078,6 +9549,9 @@
       <c r="B17">
         <v>25.623759188710629</v>
       </c>
+      <c r="D17">
+        <v>20.752817999999998</v>
+      </c>
       <c r="E17">
         <v>5.4568868380104094</v>
       </c>
@@ -10089,6 +9563,9 @@
       <c r="B18">
         <v>24.843054139614743</v>
       </c>
+      <c r="D18">
+        <v>20.207038000000001</v>
+      </c>
       <c r="E18">
         <v>5.5561517411600576</v>
       </c>
@@ -10100,6 +9577,9 @@
       <c r="B19">
         <v>24.494285560980845</v>
       </c>
+      <c r="D19">
+        <v>20.918483000000002</v>
+      </c>
       <c r="E19">
         <v>5.4783495197724958</v>
       </c>
@@ -10111,6 +9591,9 @@
       <c r="B20">
         <v>24.547942265386059</v>
       </c>
+      <c r="D20">
+        <v>21.436884999999997</v>
+      </c>
       <c r="E20">
         <v>5.4193271449267586</v>
       </c>
@@ -10122,6 +9605,9 @@
       <c r="B21">
         <v>24.995975747169609</v>
       </c>
+      <c r="D21">
+        <v>22.324262999999998</v>
+      </c>
       <c r="E21">
         <v>5.3978644631646722</v>
       </c>
@@ -10133,6 +9619,9 @@
       <c r="B22">
         <v>28.872672640446424</v>
       </c>
+      <c r="D22">
+        <v>23.391197999999999</v>
+      </c>
       <c r="E22">
         <v>6.1383269839566461</v>
       </c>
@@ -10144,6 +9633,9 @@
       <c r="B23">
         <v>28.046359392606107</v>
       </c>
+      <c r="D23">
+        <v>23.379133999999997</v>
+      </c>
       <c r="E23">
         <v>7.0156141009819182</v>
       </c>
@@ -10155,6 +9647,9 @@
       <c r="B24">
         <v>28.124161613993667</v>
       </c>
+      <c r="D24">
+        <v>25.035924999999999</v>
+      </c>
       <c r="E24">
         <v>6.8546439877662708</v>
       </c>
@@ -10166,6 +9661,9 @@
       <c r="B25">
         <v>28.738530879433384</v>
       </c>
+      <c r="D25">
+        <v>25.961294000000002</v>
+      </c>
       <c r="E25">
         <v>5.1698234694425063</v>
       </c>
@@ -10177,6 +9675,9 @@
       <c r="B26">
         <v>28.486344368728872</v>
       </c>
+      <c r="D26">
+        <v>27.434650000000001</v>
+      </c>
       <c r="E26">
         <v>4.6949616354563499</v>
       </c>
@@ -10188,6 +9689,9 @@
       <c r="B27">
         <v>28.717068197671303</v>
       </c>
+      <c r="D27">
+        <v>28.143955999999999</v>
+      </c>
       <c r="E27">
         <v>4.4669206417341849</v>
       </c>
@@ -10199,6 +9703,9 @@
       <c r="B28">
         <v>27.520523689434992</v>
       </c>
+      <c r="D28">
+        <v>28.132810000000003</v>
+      </c>
       <c r="E28">
         <v>4.4132639373289697</v>
       </c>
@@ -10210,6 +9717,9 @@
       <c r="B29">
         <v>27.702956484412727</v>
       </c>
+      <c r="D29">
+        <v>27.218978</v>
+      </c>
       <c r="E29">
         <v>4.5017974995975756</v>
       </c>
@@ -10221,6 +9731,9 @@
       <c r="B30">
         <v>26.943714117078926</v>
       </c>
+      <c r="D30">
+        <v>28.006637999999999</v>
+      </c>
       <c r="E30">
         <v>4.5017974995975756</v>
       </c>
@@ -10232,6 +9745,9 @@
       <c r="B31">
         <v>26.704941782475718</v>
       </c>
+      <c r="D31">
+        <v>28.35378</v>
+      </c>
       <c r="E31">
         <v>4.5742340505446153</v>
       </c>
@@ -10242,6 +9758,9 @@
       </c>
       <c r="B32">
         <v>25.846434511992275</v>
+      </c>
+      <c r="D32">
+        <v>24.563119999999998</v>
       </c>
       <c r="E32">
         <v>4.885442936094865</v>
@@ -10278,10 +9797,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029A80B4-7C9F-4455-863A-277E0A0ADA6C}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10305,244 +9824,315 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>327</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
+        <v>1999</v>
+      </c>
+      <c r="D3">
+        <v>8084.6930000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>10351.0764090917</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="41">
+      <c r="C4" s="3"/>
+      <c r="D4">
+        <v>8806.5939999999991</v>
+      </c>
+      <c r="E4" s="41">
         <v>2773.9087386823398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4">
-        <v>9866.3488428836899</v>
-      </c>
-      <c r="E4" s="41">
-        <v>2928.8230456715701</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B5">
-        <v>9828.3789110155994</v>
+        <v>9866.3488428836899</v>
+      </c>
+      <c r="D5">
+        <v>9103.3119999999999</v>
       </c>
       <c r="E5" s="41">
-        <v>2839.615578167</v>
+        <v>2928.8230456715701</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B6">
-        <v>10237.2191670264</v>
+        <v>9828.3789110155994</v>
+      </c>
+      <c r="D6">
+        <v>8968.4140000000007</v>
       </c>
       <c r="E6" s="41">
-        <v>2772.58314615476</v>
+        <v>2839.615578167</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B7">
-        <v>11502.3667861634</v>
+        <v>10237.2191670264</v>
+      </c>
+      <c r="D7">
+        <v>9567.0429999999997</v>
       </c>
       <c r="E7" s="41">
-        <v>2883.1146514796301</v>
+        <v>2772.58314615476</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B8">
-        <v>12022.857035605</v>
+        <v>11502.3667861634</v>
+      </c>
+      <c r="D8">
+        <v>9699.4989999999998</v>
       </c>
       <c r="E8" s="41">
-        <v>3237.7352006186102</v>
+        <v>2883.1146514796301</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B9">
-        <v>12543.399838585501</v>
-      </c>
-      <c r="C9" t="s">
-        <v>334</v>
+        <v>12022.857035605</v>
+      </c>
+      <c r="D9">
+        <v>10116.144</v>
       </c>
       <c r="E9" s="41">
-        <v>3592.3557497575903</v>
+        <v>3237.7352006186102</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B10">
-        <v>13026.787289551199</v>
+        <v>12543.399838585501</v>
+      </c>
+      <c r="D10">
+        <v>10526.22</v>
       </c>
       <c r="E10" s="41">
-        <v>3946.9762988965699</v>
+        <v>3592.3557497575903</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B11">
-        <v>13249.404080406901</v>
+        <v>13026.787289551199</v>
+      </c>
+      <c r="D11">
+        <v>11224.59</v>
       </c>
       <c r="E11" s="41">
-        <v>4124.0656413781198</v>
+        <v>3946.9762988965699</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B12">
-        <v>13025.236960153099</v>
+        <v>13249.404080406901</v>
+      </c>
+      <c r="D12">
+        <v>11993.606</v>
       </c>
       <c r="E12" s="41">
-        <v>4234.58078136315</v>
+        <v>4124.0656413781198</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B13">
-        <v>13583.0402222264</v>
+        <v>13025.236960153099</v>
+      </c>
+      <c r="D13">
+        <v>11641.802</v>
       </c>
       <c r="E13" s="41">
-        <v>4034.3835790179996</v>
+        <v>4234.58078136315</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B14">
-        <v>14066.2700125753</v>
+        <v>13583.0402222264</v>
+      </c>
+      <c r="D14">
+        <v>12488.805</v>
       </c>
       <c r="E14" s="41">
-        <v>4033.9417148421398</v>
+        <v>4034.3835790179996</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B15">
-        <v>14475.0577150472</v>
+        <v>14066.2700125753</v>
+      </c>
+      <c r="D15">
+        <v>12525.08</v>
       </c>
       <c r="E15" s="41">
-        <v>4055.6912514984501</v>
+        <v>4033.9417148421398</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B16">
-        <v>14809.429606411501</v>
+        <v>14475.0577150472</v>
+      </c>
+      <c r="D16">
+        <v>13440.331</v>
       </c>
       <c r="E16" s="41">
-        <v>4410.3118006374398</v>
+        <v>4055.6912514984501</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B17">
-        <v>15255.504044745499</v>
+        <v>14809.429606411501</v>
+      </c>
+      <c r="D17">
+        <v>13617.076999999999</v>
       </c>
       <c r="E17" s="41">
-        <v>4676.1831117875499</v>
+        <v>4410.3118006374398</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B18">
-        <v>15664.3705775258</v>
+        <v>15255.504044745499</v>
+      </c>
+      <c r="D18">
+        <v>13629.556</v>
       </c>
       <c r="E18" s="41">
-        <v>4897.6552559334596</v>
+        <v>4676.1831117875499</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B19">
-        <v>16073.184556767199</v>
+        <v>15664.3705775258</v>
+      </c>
+      <c r="D19">
+        <v>13413.387000000001</v>
       </c>
       <c r="E19" s="41">
-        <v>5052.5531975828408</v>
+        <v>4897.6552559334596</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B20">
-        <v>16593.7273597477</v>
+        <v>16073.184556767199</v>
+      </c>
+      <c r="D20">
+        <v>12532.841</v>
       </c>
       <c r="E20" s="41">
-        <v>5296.2167425609305</v>
+        <v>5052.5531975828408</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B21">
-        <v>17077.0097036355</v>
+        <v>16593.7273597477</v>
+      </c>
+      <c r="D21">
+        <v>11925.4</v>
       </c>
       <c r="E21" s="41">
-        <v>5673.0286925320897</v>
+        <v>5296.2167425609305</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B22">
-        <v>17448.642054092597</v>
+        <v>17077.0097036355</v>
+      </c>
+      <c r="D22">
+        <v>12227.674999999999</v>
       </c>
       <c r="E22" s="41">
-        <v>6205.1804483284905</v>
+        <v>5673.0286925320897</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23">
+        <v>17448.642054092597</v>
+      </c>
+      <c r="D23">
+        <v>12483.251</v>
+      </c>
+      <c r="E23" s="41">
+        <v>6205.1804483284905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>2020</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>16889.367292929597</v>
       </c>
-      <c r="E23" s="41">
+      <c r="D24">
+        <v>11530.290999999999</v>
+      </c>
+      <c r="E24" s="41">
         <v>6226.8972543050995</v>
       </c>
     </row>
@@ -10556,7 +10146,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10583,19 +10173,22 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>329</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="E2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="I2" t="s">
         <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10704,6 +10297,9 @@
       <c r="B12">
         <v>6242</v>
       </c>
+      <c r="D12">
+        <v>3026.49</v>
+      </c>
       <c r="E12" s="41">
         <v>3322</v>
       </c>
@@ -10715,6 +10311,9 @@
       <c r="B13">
         <v>6508</v>
       </c>
+      <c r="D13">
+        <v>3051.6840000000002</v>
+      </c>
       <c r="E13" s="41">
         <v>3596</v>
       </c>
@@ -10726,6 +10325,9 @@
       <c r="B14">
         <v>6482</v>
       </c>
+      <c r="D14">
+        <v>3099.54</v>
+      </c>
       <c r="E14" s="41">
         <v>3584</v>
       </c>
@@ -10737,6 +10339,9 @@
       <c r="B15">
         <v>6647</v>
       </c>
+      <c r="D15">
+        <v>2866.3180000000002</v>
+      </c>
       <c r="E15" s="41">
         <v>3846</v>
       </c>
@@ -10748,6 +10353,9 @@
       <c r="B16">
         <v>6826</v>
       </c>
+      <c r="D16">
+        <v>3186.7950000000001</v>
+      </c>
       <c r="E16" s="41">
         <v>3649</v>
       </c>
@@ -10759,6 +10367,9 @@
       <c r="B17">
         <v>7141</v>
       </c>
+      <c r="D17">
+        <v>3194.8409999999999</v>
+      </c>
       <c r="E17" s="41">
         <v>3746</v>
       </c>
@@ -10770,6 +10381,9 @@
       <c r="B18">
         <v>7652</v>
       </c>
+      <c r="D18">
+        <v>3497.0140000000001</v>
+      </c>
       <c r="E18" s="41">
         <v>4316.50818139284</v>
       </c>
@@ -10781,6 +10395,9 @@
       <c r="B19" s="41">
         <v>8042.6223021582719</v>
       </c>
+      <c r="D19">
+        <v>3582.8589999999999</v>
+      </c>
       <c r="E19" s="41">
         <v>4854.7482013480203</v>
       </c>
@@ -10792,6 +10409,9 @@
       <c r="B20" s="41">
         <v>8243.8446043165368</v>
       </c>
+      <c r="D20">
+        <v>3715.991</v>
+      </c>
       <c r="E20" s="41">
         <v>5198.2613767341099</v>
       </c>
@@ -10803,6 +10423,9 @@
       <c r="B21" s="41">
         <v>9064.5039568345273</v>
       </c>
+      <c r="D21">
+        <v>3819.384</v>
+      </c>
       <c r="E21" s="41">
         <v>5444.4611366192803</v>
       </c>
@@ -10814,6 +10437,9 @@
       <c r="B22" s="41">
         <v>9174.295683453227</v>
       </c>
+      <c r="D22">
+        <v>3888.8389999999999</v>
+      </c>
       <c r="E22" s="41">
         <v>5812.6119620613499</v>
       </c>
@@ -10825,6 +10451,9 @@
       <c r="B23" s="41">
         <v>9810.2935251798444</v>
       </c>
+      <c r="D23">
+        <v>4360.0259999999998</v>
+      </c>
       <c r="E23" s="41">
         <v>6083.0428684506496</v>
       </c>
@@ -10836,6 +10465,9 @@
       <c r="B24" s="41">
         <v>10504.199999999899</v>
       </c>
+      <c r="D24">
+        <v>4771.4889999999996</v>
+      </c>
       <c r="E24" s="41">
         <v>5963.3187353952198</v>
       </c>
@@ -10847,6 +10479,9 @@
       <c r="B25" s="41">
         <v>10623.157194244588</v>
       </c>
+      <c r="D25">
+        <v>5113.1279999999997</v>
+      </c>
       <c r="E25" s="41">
         <v>6209.4124508755604</v>
       </c>
@@ -10858,6 +10493,9 @@
       <c r="B26" s="41">
         <v>11329.666187050343</v>
       </c>
+      <c r="D26">
+        <v>5309.9859999999999</v>
+      </c>
       <c r="E26" s="41">
         <v>6357.9806620453201</v>
       </c>
@@ -10869,6 +10507,9 @@
       <c r="B27" s="41">
         <v>11171.206834532331</v>
       </c>
+      <c r="D27">
+        <v>5320.74</v>
+      </c>
       <c r="E27" s="41">
         <v>6335.9057517727697</v>
       </c>
@@ -10880,6 +10521,9 @@
       <c r="B28" s="41">
         <v>11190.713669064722</v>
       </c>
+      <c r="D28">
+        <v>5038.9870000000001</v>
+      </c>
       <c r="E28" s="41">
         <v>6581.9287709832197</v>
       </c>
@@ -10891,6 +10535,9 @@
       <c r="B29" s="41">
         <v>11261.582374100692</v>
       </c>
+      <c r="D29">
+        <v>4858.1750000000002</v>
+      </c>
       <c r="E29" s="41">
         <v>7169.52081815783</v>
       </c>
@@ -10902,6 +10549,9 @@
       <c r="B30">
         <v>12104</v>
       </c>
+      <c r="D30">
+        <v>4482.6620000000003</v>
+      </c>
       <c r="E30" s="41">
         <v>7269.2732549698803</v>
       </c>
@@ -10913,6 +10563,9 @@
       <c r="B31">
         <v>12290</v>
       </c>
+      <c r="D31">
+        <v>4471.6390000000001</v>
+      </c>
       <c r="E31" s="41">
         <v>7674</v>
       </c>
@@ -10924,6 +10577,9 @@
       <c r="B32">
         <v>12244</v>
       </c>
+      <c r="D32">
+        <v>4818.7460000000001</v>
+      </c>
       <c r="E32" s="41">
         <v>7599</v>
       </c>
@@ -10934,6 +10590,9 @@
       </c>
       <c r="B33">
         <v>11375</v>
+      </c>
+      <c r="D33">
+        <v>4543.9809999999998</v>
       </c>
       <c r="E33" s="41">
         <v>7427</v>
@@ -10957,10 +10616,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09EBD6-8E7D-4D2E-919E-2C3665CCA70F}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10984,102 +10643,185 @@
         <v>176</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16">
       <c r="A3">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C3" s="3"/>
+      <c r="D3">
+        <v>131.78700000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2002</v>
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>135.761</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2003</v>
+        <v>2001</v>
+      </c>
+      <c r="D5">
+        <v>135.233</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2004</v>
+        <v>2002</v>
+      </c>
+      <c r="D6">
+        <v>124.62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2005</v>
+        <v>2003</v>
+      </c>
+      <c r="D7">
+        <v>133.73099999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2006</v>
+        <v>2004</v>
+      </c>
+      <c r="D8">
+        <v>160.80199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2007</v>
+        <v>2005</v>
+      </c>
+      <c r="D9">
+        <v>177.709</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2008</v>
+        <v>2006</v>
+      </c>
+      <c r="D10">
+        <v>189.42699999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2009</v>
+        <v>2007</v>
+      </c>
+      <c r="D11">
+        <v>213.22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2010</v>
+        <v>2008</v>
+      </c>
+      <c r="D12">
+        <v>219.12299999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2011</v>
+        <v>2009</v>
+      </c>
+      <c r="D13">
+        <v>220.66900000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2012</v>
+        <v>2010</v>
+      </c>
+      <c r="D14">
+        <v>245.07</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2013</v>
+        <v>2011</v>
+      </c>
+      <c r="D15">
+        <v>263.82400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="D16">
+        <v>275.572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2013</v>
+      </c>
+      <c r="D17">
+        <v>282.01799999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>2014</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+      <c r="D18">
+        <v>304.72899999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
         <v>2015</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+      <c r="D19">
+        <v>290.24099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
         <v>2016</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+      <c r="D20">
+        <v>284.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+      <c r="D21">
+        <v>290.26299999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>2018</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+      <c r="D22">
+        <v>289.42500000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
         <v>2019</v>
+      </c>
+      <c r="D23">
+        <v>284.97399999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="D24">
+        <v>297.36099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11092,7 +10834,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E22"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11116,102 +10858,161 @@
         <v>176</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="C3" s="3"/>
+      <c r="D3">
+        <v>184.27199999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>2002</v>
       </c>
+      <c r="D4">
+        <v>182.12299999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <v>2003</v>
       </c>
+      <c r="D5">
+        <v>197.12</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>2004</v>
       </c>
+      <c r="D6">
+        <v>200.32499999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>2005</v>
       </c>
+      <c r="D7">
+        <v>215.774</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>2006</v>
       </c>
+      <c r="D8">
+        <v>217.38900000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>2007</v>
       </c>
+      <c r="D9">
+        <v>214.768</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <v>2008</v>
       </c>
+      <c r="D10">
+        <v>192.114</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
         <v>2009</v>
       </c>
+      <c r="D11">
+        <v>183.01900000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
         <v>2010</v>
       </c>
+      <c r="D12">
+        <v>192.80500000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
         <v>2011</v>
       </c>
+      <c r="D13">
+        <v>200.56899999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
         <v>2012</v>
       </c>
+      <c r="D14">
+        <v>179.65</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
         <v>2013</v>
       </c>
+      <c r="D15">
+        <v>192.84700000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
         <v>2014</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16">
+        <v>148.10300000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>2015</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="D17">
+        <v>192.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>2016</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18">
+        <v>189.071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="D19">
+        <v>185.886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>2018</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="D20">
+        <v>195.07900000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>2019</v>
+      </c>
+      <c r="D21">
+        <v>187.04499999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12609,7 +12410,7 @@
         <v>199</v>
       </c>
       <c r="H1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L1" t="s">
         <v>188</v>
@@ -12618,7 +12419,7 @@
         <v>188</v>
       </c>
       <c r="Q1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -12626,29 +12427,29 @@
         <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M2" s="39"/>
       <c r="Q2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13334,7 +13135,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13358,105 +13159,167 @@
         <v>176</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="C3" s="3"/>
+      <c r="D3">
+        <v>35.143000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>2002</v>
       </c>
+      <c r="D4">
+        <v>45.418999999999997</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <v>2003</v>
       </c>
+      <c r="D5">
+        <v>48.030999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>2004</v>
       </c>
+      <c r="D6">
+        <v>66.912000000000006</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>2005</v>
       </c>
+      <c r="D7">
+        <v>60.619</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>2006</v>
       </c>
+      <c r="D8">
+        <v>60.347000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>2007</v>
       </c>
+      <c r="D9">
+        <v>58.36</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <v>2008</v>
       </c>
+      <c r="D10">
+        <v>66.736999999999995</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
         <v>2009</v>
       </c>
+      <c r="D11">
+        <v>63.31</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
         <v>2010</v>
       </c>
+      <c r="D12">
+        <v>63.418999999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
         <v>2011</v>
       </c>
+      <c r="D13">
+        <v>73.025000000000006</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
         <v>2012</v>
       </c>
+      <c r="D14">
+        <v>74.018000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
         <v>2013</v>
       </c>
+      <c r="D15">
+        <v>76.650999999999996</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
         <v>2014</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16">
+        <v>80.634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>2015</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="D17">
+        <v>83.010999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>2016</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18">
+        <v>80.393000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="D19">
+        <v>83.572999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>2018</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="D20">
+        <v>81.186999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>2019</v>
       </c>
+      <c r="D21">
+        <v>90.4</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{BF6C4004-0780-AD44-B728-E0C63F9DE10C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13466,7 +13329,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13490,7 +13353,7 @@
         <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -13501,7 +13364,13 @@
       <c r="B3">
         <v>227.46799999999999</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3">
+        <v>210.60900000000001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E32" si="0">B3-D3</f>
+        <v>16.85899999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
@@ -13510,7 +13379,13 @@
       <c r="B4">
         <v>203.57</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4">
+        <v>193.32499999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>10.245000000000005</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
@@ -13519,7 +13394,13 @@
       <c r="B5">
         <v>203.13800000000001</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5">
+        <v>185.542</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>17.596000000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -13528,7 +13409,13 @@
       <c r="B6">
         <v>197.32599999999999</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6">
+        <v>185.87700000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>11.448999999999984</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
@@ -13537,7 +13424,13 @@
       <c r="B7">
         <v>231.25700000000001</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7">
+        <v>184.40899999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>46.848000000000013</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
@@ -13546,7 +13439,13 @@
       <c r="B8">
         <v>219.834</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8">
+        <v>198.006</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>21.828000000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
@@ -13555,7 +13454,13 @@
       <c r="B9">
         <v>230.744</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9">
+        <v>223.40100000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>7.3429999999999893</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
@@ -13564,7 +13469,13 @@
       <c r="B10">
         <v>238.179</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10">
+        <v>221.51599999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>16.663000000000011</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
@@ -13573,7 +13484,13 @@
       <c r="B11">
         <v>237.03</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11">
+        <v>212.01400000000001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>25.015999999999991</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
@@ -13582,7 +13499,13 @@
       <c r="B12">
         <v>248.10300000000001</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12">
+        <v>220.06200000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>28.040999999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
@@ -13591,7 +13514,13 @@
       <c r="B13">
         <v>260.66899999999998</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13">
+        <v>249.02600000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>11.642999999999972</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="16">
       <c r="A14">
@@ -13601,6 +13530,13 @@
         <v>280.69499999999999</v>
       </c>
       <c r="C14" s="3"/>
+      <c r="D14" s="2">
+        <v>244.29499999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>36.400000000000006</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
@@ -13609,6 +13545,13 @@
       <c r="B15">
         <v>264.428</v>
       </c>
+      <c r="D15">
+        <v>234.91499999999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>29.513000000000005</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
@@ -13617,141 +13560,266 @@
       <c r="B16">
         <v>275.28199999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16">
+        <v>257.041</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>18.240999999999985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2004</v>
       </c>
       <c r="B17">
         <v>313.08999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <v>285.44200000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>27.647999999999968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2005</v>
       </c>
       <c r="B18">
         <v>333.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18">
+        <v>297.81200000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>35.788000000000011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>2006</v>
       </c>
       <c r="B19">
         <v>327.00200000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19">
+        <v>296.48</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>30.521999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>2007</v>
       </c>
       <c r="B20">
         <v>335.40800000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20">
+        <v>342.53100000000001</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2008</v>
       </c>
       <c r="B21">
         <v>326.262</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21">
+        <v>313.90699999999998</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>12.355000000000018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>2009</v>
       </c>
       <c r="B22">
         <v>318.16300000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22">
+        <v>314.53899999999999</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3.6240000000000236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2010</v>
       </c>
       <c r="B23">
         <v>351.84800000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23">
+        <v>328.03500000000003</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>23.812999999999988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>2011</v>
       </c>
       <c r="B24">
         <v>364.58600000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24">
+        <v>327.23700000000002</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>37.34899999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>2012</v>
       </c>
       <c r="B25">
         <v>357.89600000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25">
+        <v>314.19900000000001</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>43.697000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>2013</v>
       </c>
       <c r="B26">
         <v>346.137</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26">
+        <v>297.916</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>48.221000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>2014</v>
       </c>
       <c r="B27">
         <v>391.78300000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27">
+        <v>311.27699999999999</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>80.506000000000029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>2015</v>
       </c>
       <c r="B28">
         <v>348.48</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28">
+        <v>315.57100000000003</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>32.908999999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>2016</v>
       </c>
       <c r="B29">
         <v>362.06099999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>46.161000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>2017</v>
       </c>
       <c r="B30">
         <v>369.08800000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30">
+        <v>336.887</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>32.201000000000022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>2018</v>
       </c>
       <c r="B31">
         <v>373.03500000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31">
+        <v>324.733</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>48.302000000000021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>2019</v>
       </c>
       <c r="B32">
         <v>371.81700000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32">
+        <v>310.661</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>61.156000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>2020</v>
       </c>
       <c r="B33">
         <v>367.46699999999998</v>
+      </c>
+      <c r="D33">
+        <v>278.34100000000001</v>
+      </c>
+      <c r="E33">
+        <f>B33-D33</f>
+        <v>89.125999999999976</v>
       </c>
     </row>
   </sheetData>
@@ -13764,7 +13832,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14208,10 +14276,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70BBC54-9A6A-4436-A684-DF848EF748EA}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14235,27 +14303,26 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>1950</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>1951</v>
+      </c>
       <c r="D3" s="41">
         <v>2385.7328498409602</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="D4" s="41">
         <v>2491.7023564716101</v>
@@ -14263,7 +14330,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="D5" s="41">
         <v>2565.8650655053102</v>
@@ -14271,7 +14338,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="D6" s="41">
         <v>2586.99455908245</v>
@@ -14279,7 +14346,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="D7" s="41">
         <v>2639.9402300258098</v>
@@ -14287,7 +14354,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="D8" s="41">
         <v>2926.20140839841</v>
@@ -14295,7 +14362,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="D9" s="41">
         <v>3212.4719665402799</v>
@@ -14303,7 +14370,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D10" s="41">
         <v>3286.6284223944599</v>
@@ -14311,7 +14378,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="D11" s="41">
         <v>3191.10172555186</v>
@@ -14319,7 +14386,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>1959</v>
+        <v>1960</v>
+      </c>
+      <c r="B12">
+        <v>5790.4642289348103</v>
       </c>
       <c r="D12" s="41">
         <v>3445.5498531479898</v>
@@ -14327,10 +14397,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B13">
-        <v>5790.4642289348103</v>
+        <v>6290.0635930047702</v>
       </c>
       <c r="D13" s="41">
         <v>3924</v>
@@ -14338,10 +14408,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B14">
-        <v>6290.0635930047702</v>
+        <v>6288.0635930047702</v>
       </c>
       <c r="D14" s="41">
         <v>4081</v>
@@ -14349,10 +14419,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B15">
-        <v>6288.0635930047702</v>
+        <v>6711.4467408585006</v>
       </c>
       <c r="D15" s="41">
         <v>4216</v>
@@ -14360,10 +14430,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B16">
-        <v>6711.4467408585006</v>
+        <v>7820.1192368839402</v>
       </c>
       <c r="D16" s="41">
         <v>4286</v>
@@ -14371,10 +14441,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B17">
-        <v>7820.1192368839402</v>
+        <v>8056.2750397456202</v>
       </c>
       <c r="D17" s="41">
         <v>4443</v>
@@ -14382,10 +14452,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B18">
-        <v>8056.2750397456202</v>
+        <v>8320.9936406995203</v>
       </c>
       <c r="D18" s="41">
         <v>4769</v>
@@ -14393,10 +14463,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B19">
-        <v>8320.9936406995203</v>
+        <v>7994.6820349761501</v>
       </c>
       <c r="D19" s="41">
         <v>4987</v>
@@ -14404,10 +14474,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B20">
-        <v>7994.6820349761501</v>
+        <v>8462.5866454689894</v>
       </c>
       <c r="D20" s="41">
         <v>4743</v>
@@ -14415,10 +14485,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B21">
-        <v>8462.5866454689894</v>
+        <v>9286.4435612082598</v>
       </c>
       <c r="D21" s="41">
         <v>5010</v>
@@ -14426,10 +14496,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B22">
-        <v>9286.4435612082598</v>
+        <v>9275.1017488076304</v>
       </c>
       <c r="D22" s="41">
         <v>5682</v>
@@ -14437,10 +14507,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B23">
-        <v>9275.1017488076304</v>
+        <v>9350.0540540540496</v>
       </c>
       <c r="D23" s="41">
         <v>5900</v>
@@ -14448,10 +14518,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B24">
-        <v>9350.0540540540496</v>
+        <v>10085.084260731321</v>
       </c>
       <c r="D24" s="41">
         <v>5941</v>
@@ -14459,10 +14529,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B25">
-        <v>10085.084260731321</v>
+        <v>11162.89348171701</v>
       </c>
       <c r="D25" s="41">
         <v>6541</v>
@@ -14470,10 +14540,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B26">
-        <v>11162.89348171701</v>
+        <v>10545.29411764705</v>
       </c>
       <c r="D26" s="41">
         <v>6915</v>
@@ -14481,10 +14551,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B27">
-        <v>10545.29411764705</v>
+        <v>9241.5023847376706</v>
       </c>
       <c r="D27" s="41">
         <v>7097</v>
@@ -14492,10 +14562,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B28">
-        <v>9241.5023847376706</v>
+        <v>10602.593004769471</v>
       </c>
       <c r="D28" s="41">
         <v>6735</v>
@@ -14503,10 +14573,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B29">
-        <v>10602.593004769471</v>
+        <v>11082.437201907789</v>
       </c>
       <c r="D29" s="41">
         <v>7289</v>
@@ -14514,10 +14584,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B30">
-        <v>11082.437201907789</v>
+        <v>11727.31796502384</v>
       </c>
       <c r="D30" s="41">
         <v>7444</v>
@@ -14525,10 +14595,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B31">
-        <v>11727.31796502384</v>
+        <v>12375.82193958664</v>
       </c>
       <c r="D31" s="41">
         <v>7306</v>
@@ -14536,10 +14606,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B32">
-        <v>12375.82193958664</v>
+        <v>11981.05564387917</v>
       </c>
       <c r="D32" s="41">
         <v>7371</v>
@@ -14547,10 +14617,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B33">
-        <v>11981.05564387917</v>
+        <v>12119.774244833061</v>
       </c>
       <c r="D33" s="41">
         <v>7227</v>
@@ -14558,10 +14628,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B34">
-        <v>12119.774244833061</v>
+        <v>11439.761526232111</v>
       </c>
       <c r="D34" s="41">
         <v>7721</v>
@@ -14569,10 +14639,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B35">
-        <v>11439.761526232111</v>
+        <v>11882.01907790143</v>
       </c>
       <c r="D35" s="41">
         <v>7745</v>
@@ -14580,10 +14650,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B36">
-        <v>11882.01907790143</v>
+        <v>12559.5707472178</v>
       </c>
       <c r="D36" s="41">
         <v>7824</v>
@@ -14591,10 +14661,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B37">
-        <v>12559.5707472178</v>
+        <v>12456.18759936407</v>
       </c>
       <c r="D37" s="41">
         <v>8135</v>
@@ -14602,10 +14672,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B38">
-        <v>12456.18759936407</v>
+        <v>12852.85850556438</v>
       </c>
       <c r="D38" s="41">
         <v>8288</v>
@@ -14613,10 +14683,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B39">
-        <v>12852.85850556438</v>
+        <v>13189.661367249601</v>
       </c>
       <c r="D39" s="41">
         <v>8295</v>
@@ -14624,10 +14694,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B40">
-        <v>13189.661367249601</v>
+        <v>13615.535771065181</v>
       </c>
       <c r="D40" s="41">
         <v>8620</v>
@@ -14635,10 +14705,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B41">
-        <v>13615.535771065181</v>
+        <v>13939.50556438791</v>
       </c>
       <c r="D41" s="41">
         <v>8773</v>
@@ -14646,10 +14716,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B42">
-        <v>13939.50556438791</v>
+        <v>13874.871224165341</v>
       </c>
       <c r="D42" s="41">
         <v>9086</v>
@@ -14657,10 +14727,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B43">
-        <v>13874.871224165341</v>
+        <v>13570.94912559618</v>
       </c>
       <c r="D43" s="41">
         <v>9227</v>
@@ -14668,10 +14738,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B44">
-        <v>13570.94912559618</v>
+        <v>14074.267090620029</v>
       </c>
       <c r="D44" s="41">
         <v>9373</v>
@@ -14679,10 +14749,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B45">
-        <v>14074.267090620029</v>
+        <v>14152.57233704292</v>
       </c>
       <c r="D45" s="41">
         <v>9497</v>
@@ -14690,10 +14760,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B46">
-        <v>14152.57233704292</v>
+        <v>15025.818759936399</v>
       </c>
       <c r="D46" s="41">
         <v>9571</v>
@@ -14701,10 +14771,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B47">
-        <v>15025.818759936399</v>
+        <v>15524.717011128771</v>
       </c>
       <c r="D47" s="41">
         <v>9539</v>
@@ -14712,10 +14782,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B48">
-        <v>15524.717011128771</v>
+        <v>16298.220985691571</v>
       </c>
       <c r="D48" s="41">
         <v>10070</v>
@@ -14723,10 +14793,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B49">
-        <v>16298.220985691571</v>
+        <v>17228.263910969792</v>
       </c>
       <c r="D49" s="41">
         <v>11084</v>
@@ -14734,10 +14804,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B50">
-        <v>17228.263910969792</v>
+        <v>17875.612082670901</v>
       </c>
       <c r="D50" s="41">
         <v>11514</v>
@@ -14745,10 +14815,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B51">
-        <v>17875.612082670901</v>
+        <v>19129.20031796502</v>
       </c>
       <c r="D51" s="41">
         <v>12228</v>
@@ -14756,10 +14826,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B52">
-        <v>19129.20031796502</v>
+        <v>20776</v>
       </c>
       <c r="D52" s="41">
         <v>12767</v>
@@ -14767,10 +14837,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B53">
-        <v>20776</v>
+        <v>20067</v>
       </c>
       <c r="D53" s="41">
         <v>13199</v>
@@ -14781,10 +14851,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B54">
-        <v>20067</v>
+        <v>20292</v>
       </c>
       <c r="D54" s="41">
         <v>13636</v>
@@ -14795,10 +14865,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B55">
-        <v>20292</v>
+        <v>20703</v>
       </c>
       <c r="D55" s="41">
         <v>13487</v>
@@ -14809,10 +14879,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B56">
-        <v>20703</v>
+        <v>22137</v>
       </c>
       <c r="D56" s="41">
         <v>13699</v>
@@ -14823,10 +14893,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B57">
-        <v>22137</v>
+        <v>21872</v>
       </c>
       <c r="D57" s="41">
         <v>14594</v>
@@ -14837,10 +14907,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B58">
-        <v>21872</v>
+        <v>22009</v>
       </c>
       <c r="D58" s="41">
         <v>14927</v>
@@ -14851,10 +14921,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B59">
-        <v>22009</v>
+        <v>23753</v>
       </c>
       <c r="D59" s="41">
         <v>14983</v>
@@ -14865,10 +14935,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B60">
-        <v>23753</v>
+        <v>23145</v>
       </c>
       <c r="D60" s="41">
         <v>15508</v>
@@ -14879,7 +14949,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B61">
         <v>23145</v>
@@ -14893,10 +14963,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B62">
-        <v>23145</v>
+        <v>24194.52173168564</v>
       </c>
       <c r="D62" s="41">
         <v>15945</v>
@@ -14907,10 +14977,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B63">
-        <v>24194.52173168564</v>
+        <v>25089.29089953471</v>
       </c>
       <c r="D63" s="41">
         <v>15990</v>
@@ -14921,10 +14991,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B64">
-        <v>25089.29089953471</v>
+        <v>25297.975557049198</v>
       </c>
       <c r="D64" s="41">
         <v>15965</v>
@@ -14935,10 +15005,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B65">
-        <v>25297.975557049198</v>
+        <v>26259.767623756532</v>
       </c>
       <c r="D65" s="41">
         <v>16692</v>
@@ -14949,10 +15019,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B66">
-        <v>26259.767623756532</v>
+        <v>27894.831923939641</v>
       </c>
       <c r="D66" s="41">
         <v>18190</v>
@@ -14963,10 +15033,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B67">
-        <v>27894.831923939641</v>
+        <v>27978.19375439177</v>
       </c>
       <c r="D67" s="41">
         <v>18426</v>
@@ -14977,10 +15047,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B68">
-        <v>27978.19375439177</v>
+        <v>28520.721798863349</v>
       </c>
       <c r="D68" s="41">
         <v>19149</v>
@@ -14991,10 +15061,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B69">
-        <v>28520.721798863349</v>
+        <v>29751.152073732701</v>
       </c>
       <c r="D69" s="41">
         <v>20357</v>
@@ -15005,10 +15075,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B70">
-        <v>29751.152073732701</v>
+        <v>30709.677419354801</v>
       </c>
       <c r="D70" s="41">
         <v>20038</v>
@@ -15019,24 +15089,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B71">
-        <v>30709.677419354801</v>
+        <v>30046.0829493087</v>
       </c>
       <c r="D71">
         <v>20539</v>
       </c>
       <c r="E71">
         <v>9619.4503171247306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72">
-        <v>2019</v>
-      </c>
-      <c r="B72">
-        <v>30046.0829493087</v>
       </c>
     </row>
   </sheetData>
@@ -15049,7 +15111,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15073,11 +15135,13 @@
         <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -15088,6 +15152,9 @@
         <v>1469.917875310188</v>
       </c>
       <c r="C3" s="3"/>
+      <c r="D3">
+        <v>1022.922</v>
+      </c>
       <c r="E3">
         <v>461.47509857472789</v>
       </c>
@@ -15099,6 +15166,9 @@
       <c r="B4">
         <v>1432.5767347969486</v>
       </c>
+      <c r="D4">
+        <v>1061.732</v>
+      </c>
       <c r="E4">
         <v>461.65741021908769</v>
       </c>
@@ -15110,6 +15180,9 @@
       <c r="B5">
         <v>1558.8604356972196</v>
       </c>
+      <c r="D5">
+        <v>1096.1959999999999</v>
+      </c>
       <c r="E5">
         <v>508.20377528446966</v>
       </c>
@@ -15121,6 +15194,9 @@
       <c r="B6">
         <v>1566.6470888700878</v>
       </c>
+      <c r="D6">
+        <v>1130.6079999999999</v>
+      </c>
       <c r="E6">
         <v>530.06172301643778</v>
       </c>
@@ -15132,6 +15208,9 @@
       <c r="B7">
         <v>1635.0227035488601</v>
       </c>
+      <c r="D7">
+        <v>1104.134</v>
+      </c>
       <c r="E7">
         <v>523.39043338001011</v>
       </c>
@@ -15143,6 +15222,9 @@
       <c r="B8">
         <v>1661.7302002671909</v>
       </c>
+      <c r="D8">
+        <v>1226.5060000000001</v>
+      </c>
       <c r="E8">
         <v>507.88404642104092</v>
       </c>
@@ -15154,6 +15236,9 @@
       <c r="B9">
         <v>1646.5508055892237</v>
       </c>
+      <c r="D9">
+        <v>1280.5909999999999</v>
+      </c>
       <c r="E9">
         <v>506.77594630217362</v>
       </c>
@@ -15165,6 +15250,9 @@
       <c r="B10">
         <v>1828.5151622065189</v>
       </c>
+      <c r="D10">
+        <v>1291.55</v>
+      </c>
       <c r="E10">
         <v>623.07426164366882</v>
       </c>
@@ -15176,6 +15264,9 @@
       <c r="B11">
         <v>1852.2122080473666</v>
       </c>
+      <c r="D11">
+        <v>1320.856</v>
+      </c>
       <c r="E11">
         <v>599.86699228751672</v>
       </c>
@@ -15187,6 +15278,9 @@
       <c r="B12">
         <v>1918.1720841064041</v>
       </c>
+      <c r="D12">
+        <v>1389.83</v>
+      </c>
       <c r="E12">
         <v>637.68427922835428</v>
       </c>
@@ -15198,6 +15292,9 @@
       <c r="B13">
         <v>1807.1371119820149</v>
       </c>
+      <c r="D13">
+        <v>1432.046</v>
+      </c>
       <c r="E13">
         <v>526.64930710397505</v>
       </c>
@@ -15209,6 +15306,9 @@
       <c r="B14">
         <v>2007.3552125204042</v>
       </c>
+      <c r="D14">
+        <v>1562.2090000000001</v>
+      </c>
       <c r="E14">
         <v>572.08316749226424</v>
       </c>
@@ -15220,6 +15320,9 @@
       <c r="B15">
         <v>1863.4250041489902</v>
       </c>
+      <c r="D15">
+        <v>1584.009</v>
+      </c>
       <c r="E15">
         <v>512.58072647544986</v>
       </c>
@@ -15231,6 +15334,9 @@
       <c r="B16">
         <v>1854.4805365204747</v>
       </c>
+      <c r="D16">
+        <v>1551.0530000000001</v>
+      </c>
       <c r="E16">
         <v>536.46927948483471</v>
       </c>
@@ -15242,6 +15348,9 @@
       <c r="B17">
         <v>1773.6215012491273</v>
       </c>
+      <c r="D17">
+        <v>1351.752</v>
+      </c>
       <c r="E17">
         <v>502.5145594104772</v>
       </c>
@@ -15253,6 +15362,9 @@
       <c r="B18">
         <v>2070.5609888925214</v>
       </c>
+      <c r="D18">
+        <v>1605.13</v>
+      </c>
       <c r="E18">
         <v>574.31333410828154</v>
       </c>
@@ -15264,6 +15376,9 @@
       <c r="B19">
         <v>2253.2043546584018</v>
       </c>
+      <c r="D19">
+        <v>2129.2730000000001</v>
+      </c>
       <c r="E19">
         <v>611.5533227634719</v>
       </c>
@@ -15275,6 +15390,9 @@
       <c r="B20">
         <v>2317.9463444890989</v>
       </c>
+      <c r="D20">
+        <v>2709.4760000000001</v>
+      </c>
       <c r="E20">
         <v>615.31970283806891</v>
       </c>
@@ -15286,6 +15404,9 @@
       <c r="B21">
         <v>2457.656878677687</v>
       </c>
+      <c r="D21">
+        <v>3090.2919999999999</v>
+      </c>
       <c r="E21">
         <v>637.76944903416688</v>
       </c>
@@ -15297,6 +15418,9 @@
       <c r="B22">
         <v>2551.1525244544005</v>
       </c>
+      <c r="D22">
+        <v>2074.3649999999998</v>
+      </c>
       <c r="E22">
         <v>646.83732745628015</v>
       </c>
@@ -15308,6 +15432,9 @@
       <c r="B23">
         <v>2543.4257897672492</v>
       </c>
+      <c r="D23">
+        <v>2163.6880000000001</v>
+      </c>
       <c r="E23">
         <v>629.729729729729</v>
       </c>
@@ -15319,6 +15446,9 @@
       <c r="B24">
         <v>2727.9397596470685</v>
       </c>
+      <c r="D24">
+        <v>1993.057</v>
+      </c>
       <c r="E24">
         <v>659.45945945945903</v>
       </c>
@@ -15330,6 +15460,9 @@
       <c r="B25">
         <v>2940.1957304396319</v>
       </c>
+      <c r="D25">
+        <v>2136.8220000000001</v>
+      </c>
       <c r="E25">
         <v>721.62162162162201</v>
       </c>
@@ -15341,6 +15474,9 @@
       <c r="B26">
         <v>3118.0315399827541</v>
       </c>
+      <c r="D26">
+        <v>2383.8649999999998</v>
+      </c>
       <c r="E26">
         <v>754.05405405405395</v>
       </c>
@@ -15352,6 +15488,9 @@
       <c r="B27">
         <v>3226.8622280817385</v>
       </c>
+      <c r="D27">
+        <v>2673.57</v>
+      </c>
       <c r="E27">
         <v>787.83783783783804</v>
       </c>
@@ -15362,6 +15501,9 @@
       </c>
       <c r="B28">
         <v>3190.6115308554304</v>
+      </c>
+      <c r="D28">
+        <v>2510.1309999999999</v>
       </c>
       <c r="E28">
         <v>779.72972972973002</v>
@@ -15371,6 +15513,7 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf" xr:uid="{6A9BA9A3-4A78-4B4E-BD43-8AA40E877029}"/>
     <hyperlink ref="B2" r:id="rId2" display="https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf" xr:uid="{C0AE32C9-51D6-3144-A647-96668195AEB2}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{B8A1A0BD-AEBA-7B49-BDAE-EAAE6AD91882}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1504B1-07D6-E646-A697-8E026F886490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4F9E2E-87E9-924B-97C8-C0324498E57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="-18200" windowWidth="28800" windowHeight="16040" activeTab="7" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="416">
   <si>
     <t>Al</t>
   </si>
@@ -370,9 +370,6 @@
   </si>
   <si>
     <t>Li</t>
-  </si>
-  <si>
-    <t>All reported for 2019</t>
   </si>
   <si>
     <t>fabrication_efficiency_construction</t>
@@ -621,21 +618,6 @@
     <t>From our aluminum model, mod.old_cr for construction=BC, electrical=EE, industrial=ME, transport=TR, other=mod.old_collected.groupby(level=1,axis=1).sum()[['CD','CP-cans','CP-foil','CP-others','Others']].sum(axis=1)/mod.old_generated.groupby(level=1,axis=1).sum()[['CD','CP-cans','CP-foil','CP-others','Others']].sum(axis=1)</t>
   </si>
   <si>
-    <t>Electronics. Used WEEE collection*recovery from copper (see Cu notes in this row for the file path)</t>
-  </si>
-  <si>
-    <t>Not a necesssary sector</t>
-  </si>
-  <si>
-    <t>Jewelry. Assumed high.</t>
-  </si>
-  <si>
-    <t>Other. Assumed low</t>
-  </si>
-  <si>
-    <t>Bar and Coin. Assumed high</t>
-  </si>
-  <si>
     <t>From C:\Users\ryter\Dropbox (MIT)\Group Research Folder_Olivetti\Displacement\00 Simulation\06 Module integration\Data\scrap supply\All accounting matrix.xlsx, construction=C&amp;D, electrical=IEW, industrial=INEW, other=WEEE, transport=ELV; multiplied collection*sorting</t>
   </si>
   <si>
@@ -1152,9 +1134,6 @@
     <t>Study finds nearly 100 percent recycling rate for lead ...</t>
   </si>
   <si>
-    <t>Same values from Au</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0921344917301817, table 2</t>
   </si>
   <si>
@@ -1192,6 +1171,168 @@
   </si>
   <si>
     <t>From SP Global Market Intelligence downloaded data, using ore processed multiplied by ore grade, since the mean production from the 7 mines with reported production seemed excessively large and perhaps incompatible with our model. 15 ore treated reported, 2 modeled recovered metal, 7 reported production, 4 reported grade, 2 modeled grade</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Future average growth rate of the underlying volume drivers</t>
+  </si>
+  <si>
+    <t>Historical average growth rate of the underlying volume drivers</t>
+  </si>
+  <si>
+    <t>Total commodity demand (consumption) in 2019</t>
+  </si>
+  <si>
+    <t>Fraction of total demand (consumption) coming from China</t>
+  </si>
+  <si>
+    <t>Fabrication efficiency of semifabrication - transport</t>
+  </si>
+  <si>
+    <t>Fabrication efficiency of semifabrication - other</t>
+  </si>
+  <si>
+    <t>Mean product lifetime of sector - construction</t>
+  </si>
+  <si>
+    <t>Sectoral fraction of scrap generated available for use, or the product of collection rate and sorting efficiency - other</t>
+  </si>
+  <si>
+    <t>Global recycling input rate (fraction of consumption coming from scrap, including post-consumer, post-industrial, and refined scrap</t>
+  </si>
+  <si>
+    <t>China recycling input rate (fraction of consumption coming from scrap, including post-consumer, post-industrial, and refined scrap</t>
+  </si>
+  <si>
+    <t>Fraction of total refined commodity production, global (will always be 1)</t>
+  </si>
+  <si>
+    <t>China fraction of total refined commodity production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of China's scrap consumption that first undergoes a refining process to remove impurities (the remainder being directly remelted/blended with primary to reach target composition). Currently not a very relevant metric since we don't have the composition-based model integrated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of global scrap consumption that first undergoes a refining process to remove impurities (the remainder being directly remelted/blended with primary to reach target composition). Currently not a very relevant metric since we don't have the composition-based model integrated. </t>
+  </si>
+  <si>
+    <t>Fraction of global mine production coming from SX-EW process, or any other process that produces the refined product directly (e.g. lithium brines)</t>
+  </si>
+  <si>
+    <t>Fraction of China's mine production coming from SX-EW process, or any other process that produces the refined product directly (e.g. lithium brines)</t>
+  </si>
+  <si>
+    <t>Total commodity production in 2019 (mine production plus scrap supply)</t>
+  </si>
+  <si>
+    <t>Fraction of post-industrial scrap that is sold on the open market as new scrap, where the remainder of fabrication efficiency losses are runaround/home scrap</t>
+  </si>
+  <si>
+    <t>The natural log of mine production is normally distributed; this is the exponentiated mean of that distribution.</t>
+  </si>
+  <si>
+    <t>The natural log of mine production is normally distributed; this is the standard deviation of that distribution.</t>
+  </si>
+  <si>
+    <t>The natural log of ore grade is normally distributed; this is the exponentiated mean of that distribution.</t>
+  </si>
+  <si>
+    <t>The mean scrap spread (difference between refined price and scrap price) in 2019, choosing the highest-grade scrap for which data were available. See commodity-specific notes for more details.</t>
+  </si>
+  <si>
+    <t>The mean price of the refined commodity in 2019 (see commodity-level notes for deviations from elemental composition)</t>
+  </si>
+  <si>
+    <t>Fraction of mines that are primarily categorized as stockpile mines</t>
+  </si>
+  <si>
+    <t>Fraction of mines that are primarily categorized as placer mines</t>
+  </si>
+  <si>
+    <t>Fraction of mines that are primarily categorized as underground mines</t>
+  </si>
+  <si>
+    <t>Fraction of mines that are primarily categorized as open pit mines</t>
+  </si>
+  <si>
+    <t>Fraction of mines that are primarily categorized as tailings mines</t>
+  </si>
+  <si>
+    <t>Currently just listing the primary sources of the commodity, but ideally will have it as "percent production from each main-element mine." This is not an actual input to the model, just information I would like to compile so we're only using the correct commodities with the primary-only/monoproduct mining model</t>
+  </si>
+  <si>
+    <t>Sector distribution of demand - construction (industrial for gold/silver)</t>
+  </si>
+  <si>
+    <t>Sector distribution of demand - electrical (electronics for gold/silver)</t>
+  </si>
+  <si>
+    <t>Sector distribution of demand - industrial (bar and coin for gold/silver)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector distribution of demand - other </t>
+  </si>
+  <si>
+    <t>Sector distribution of demand - transport (jewelry for gold/silver)</t>
+  </si>
+  <si>
+    <t>Mean product lifetime of sector - transport (jewelry for gold/silver)</t>
+  </si>
+  <si>
+    <t>Sectoral fraction of scrap generated available for use, or the product of collection rate and sorting efficiency - transport (jewelry for gold/silver)</t>
+  </si>
+  <si>
+    <t>Fabrication efficiency of semifabrication - industrial (bar and coin for gold/silver)</t>
+  </si>
+  <si>
+    <t>Mean product lifetime of sector - industrial (bar and coin for gold/silver)</t>
+  </si>
+  <si>
+    <t>Sectoral fraction of scrap generated available for use, or the product of collection rate and sorting efficiency - industrial (bar and coin for gold/silver)</t>
+  </si>
+  <si>
+    <t>Fabrication efficiency of semifabrication - electrical (electronics for gold/silver)</t>
+  </si>
+  <si>
+    <t>Mean product lifetime of sector - electrical (electronics for gold/silver)</t>
+  </si>
+  <si>
+    <t>Sectoral fraction of scrap generated available for use, or the product of collection rate and sorting efficiency - electrical (electronics for gold/silver)</t>
+  </si>
+  <si>
+    <t>Fabrication efficiency of semifabrication - construction (industrial for gold/silver)</t>
+  </si>
+  <si>
+    <t>Mean product lifetime of sector - construction (industrial for gold/silver)</t>
+  </si>
+  <si>
+    <t>Sectoral fraction of scrap generated available for use, or the product of collection rate and sorting efficiency - construction (industrial for gold/silver)</t>
+  </si>
+  <si>
+    <t>Jewelry. Mean value from Gunn (2014), Critical Metals Handbook, Figure 3.5 (pg 50)</t>
+  </si>
+  <si>
+    <t>Other. Assumed low, fits with approximation of other categories from Gunn (2014), Critical Metals Handbook, Figure 3.5 (pg 50)</t>
+  </si>
+  <si>
+    <t>Bar and Coin. Mean value from Gunn (2014), Critical Metals Handbook, Figure 3.5 (pg 50)</t>
+  </si>
+  <si>
+    <t>Electronics. Mean value from Gunn (2014), Critical Metals Handbook, Figure 3.5 (pg 50)</t>
+  </si>
+  <si>
+    <t>Not a necesssary sector. Mean value from Gunn (2014), Critical Metals Handbook, Figure 3.5 (pg 50)</t>
+  </si>
+  <si>
+    <t>Mean value from Gunn (2014), Critical Metals Handbook, Figure 3.5 (pg 50)</t>
+  </si>
+  <si>
+    <t>The weighted mean of our volume drivers developed for copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable name in the Python model. All reported for 2019 where available or most recent year. </t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1471,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1380,9 +1521,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1403,7 +1542,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1415,13 +1553,14 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
     <dxf>
       <font>
         <b val="0"/>
@@ -1938,6 +2077,30 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="\Te"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
@@ -3535,10 +3698,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}" name="Table2" displayName="Table2" ref="A1:AK74" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
-  <autoFilter ref="A1:AK74" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}"/>
-  <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{40ADE3C0-5A2A-EF4F-8C0A-E78782D82E02}" name="All reported for 2019" dataDxfId="36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}" name="Table2" displayName="Table2" ref="A1:AL74" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+  <autoFilter ref="A1:AL74" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}"/>
+  <tableColumns count="38">
+    <tableColumn id="1" xr3:uid="{40ADE3C0-5A2A-EF4F-8C0A-E78782D82E02}" name="Variable name in the Python model. All reported for 2019 where available or most recent year. " dataDxfId="37"/>
+    <tableColumn id="38" xr3:uid="{F1CC51E3-9D58-CB4E-B592-23659F5AD648}" name="Description" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{615A6B59-EBEC-C844-A1FB-87796630DC11}" name="Al" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{8BEB2A1A-6045-C140-997C-34C452B1D3D0}" name="Steel" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{5C86A66D-6EE9-B146-B55C-D8757F17B037}" name="Au" dataDxfId="33"/>
@@ -3877,157 +4041,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
-  <dimension ref="A1:AK74"/>
+  <dimension ref="A1:AL74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="8.83203125" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" customWidth="1"/>
-    <col min="21" max="21" width="9.83203125" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" customWidth="1"/>
-    <col min="24" max="24" width="10.1640625" customWidth="1"/>
-    <col min="25" max="25" width="11.5" customWidth="1"/>
-    <col min="26" max="26" width="9.83203125" customWidth="1"/>
-    <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="28" max="28" width="9.83203125" customWidth="1"/>
-    <col min="29" max="29" width="10.1640625" customWidth="1"/>
-    <col min="30" max="30" width="9.83203125" customWidth="1"/>
-    <col min="31" max="31" width="10.1640625" customWidth="1"/>
-    <col min="32" max="32" width="10" customWidth="1"/>
-    <col min="33" max="33" width="10.1640625" customWidth="1"/>
-    <col min="34" max="34" width="10.83203125" customWidth="1"/>
-    <col min="35" max="35" width="9.83203125" customWidth="1"/>
-    <col min="36" max="36" width="9.5" customWidth="1"/>
-    <col min="37" max="37" width="10" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
+    <col min="3" max="19" width="8.83203125" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" customWidth="1"/>
+    <col min="28" max="28" width="10" customWidth="1"/>
+    <col min="29" max="29" width="9.83203125" customWidth="1"/>
+    <col min="30" max="30" width="10.1640625" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" customWidth="1"/>
+    <col min="32" max="32" width="10.1640625" customWidth="1"/>
+    <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="34" max="34" width="10.1640625" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" customWidth="1"/>
+    <col min="36" max="36" width="9.83203125" customWidth="1"/>
+    <col min="37" max="37" width="9.5" customWidth="1"/>
+    <col min="38" max="38" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="35" customFormat="1" ht="34" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:38" s="33" customFormat="1" ht="34" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="L1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="35" t="s">
+      <c r="P1" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE1" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="W1" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="X1" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y1" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA1" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB1" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC1" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AF1" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AG1" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AH1" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AI1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AH1" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AJ1" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="AJ1" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK1" s="35" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL1" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="14.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>391</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
@@ -4036,47 +4204,49 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="18"/>
+      <c r="S2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="X2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
@@ -4090,109 +4260,115 @@
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
-    </row>
-    <row r="3" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL2" s="7"/>
+    </row>
+    <row r="3" spans="1:38" ht="14.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="8">
         <v>99671</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="8">
         <v>1767000</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>4.3593999999999999</v>
       </c>
-      <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
         <v>97.8</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>371.81700000000001</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>2.4049999999999998</v>
       </c>
-      <c r="J3" s="19">
+      <c r="K3" s="19">
         <v>23600</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3226.8622280817385</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>26.7</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>17448.642054092597</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>12244</v>
       </c>
-      <c r="O3" s="8">
+      <c r="P3" s="8">
         <v>261.40530000000001</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <v>0.18</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="R3" s="20">
         <v>0.52</v>
       </c>
-      <c r="R3" s="8">
+      <c r="S3" s="8">
         <v>298.08800000000002</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="9" t="s">
-        <v>165</v>
-      </c>
       <c r="V3" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="W3" s="9"/>
+        <v>164</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
-      <c r="Z3" s="21" t="s">
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AI3" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
-    </row>
-    <row r="4" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL3" s="9"/>
+    </row>
+    <row r="4" spans="1:38" ht="14.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>363</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4200,26 +4376,26 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="18">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="18">
         <v>1</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="6"/>
+      <c r="T4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -4228,7 +4404,9 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -4236,784 +4414,809 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
-    </row>
-    <row r="5" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL4" s="7"/>
+    </row>
+    <row r="5" spans="1:38" ht="14.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="8">
         <v>0.04</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="8">
         <v>3.3765999999999997E-2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>1.7332E-2</v>
       </c>
-      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="8">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
         <v>0.08</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>0.02</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>0.03</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>0.06</v>
       </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <v>2.4E-2</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="O5" s="8">
+      <c r="P5" s="8">
         <v>0.05</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="R5" s="20">
         <v>0.08</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="8"/>
+      <c r="T5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="V5" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG5" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH5" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="V5" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9" t="s">
+      <c r="AI5" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="AB5" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF5" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
-    </row>
-    <row r="6" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="1:38" ht="14.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.45100000000000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="6">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>0.41267999999999999</v>
       </c>
-      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
         <v>0.6</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
         <v>0.52644999999999997</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>0.53</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>0.17499999999999999</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>0.48980000000000001</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <f>5.08/12.162</f>
         <v>0.41769445814833084</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>0.35589999999999999</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>0.26</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="R6" s="18">
         <v>0.625</v>
       </c>
-      <c r="R6" s="6">
+      <c r="S6" s="6">
         <v>0</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="U6" s="7"/>
       <c r="V6" s="7" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="X6" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="Z6" s="7"/>
       <c r="AA6" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AC6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="AE6" s="7" t="s">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG6" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI6" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="43" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="14.5" customHeight="1">
+        <v>338</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH6" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ6" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="14.5" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="8">
         <v>0.251</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="8">
         <v>0.52</v>
       </c>
-      <c r="D7" s="14">
+      <c r="E7" s="14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
         <v>0.65</v>
       </c>
-      <c r="H7">
-        <f>1-SUM(H8:H11)</f>
+      <c r="I7">
+        <f>1-SUM(I8:I11)</f>
         <v>0.19100000000000006</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <f>14.5/100</f>
         <v>0.14499999999999999</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>0.3</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>0.17605633802816922</v>
       </c>
-      <c r="L7" s="8">
+      <c r="M7" s="8">
         <f>(578.6/1033.5)-0.000001</f>
         <v>0.55984418626028054</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>0.33</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <v>0.05</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <v>0.71</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <v>0.06</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="R7" s="20">
         <v>0.4</v>
       </c>
-      <c r="R7" s="8">
+      <c r="S7" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="U7" s="9"/>
       <c r="V7" s="9" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="X7" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>231</v>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="AC7" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE7" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="AF7" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG7" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH7" s="9" t="s">
-        <v>229</v>
+      <c r="AE7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF7" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG7" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH7" s="42" t="s">
+        <v>346</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="14.5" customHeight="1">
+        <v>223</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="14.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="6">
         <v>0.11899999999999999</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <v>0.03</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>0.09</v>
       </c>
-      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
         <v>0.1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f>(48.3/2+1+5.2/2)/100</f>
         <v>0.27750000000000002</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>0.191</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>0.24</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>0.12103873239436645</v>
       </c>
-      <c r="L8" s="15">
+      <c r="M8" s="15">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>0.19</v>
       </c>
-      <c r="N8" s="15">
+      <c r="O8" s="15">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <v>0.05</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <v>0.03</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="R8" s="18">
         <v>0.15</v>
       </c>
-      <c r="R8" s="6">
+      <c r="S8" s="6">
         <v>0.05</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="U8" s="7"/>
       <c r="V8" s="7" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="X8" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>235</v>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="AC8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
-    </row>
-    <row r="9" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL8" s="7"/>
+    </row>
+    <row r="9" spans="1:38" ht="14.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="8">
         <v>0.11899999999999999</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
         <v>0.26</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>0.27</v>
       </c>
-      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="8">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
         <v>0.08</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f>48.3/2/100</f>
         <v>0.24149999999999999</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>0.25919999999999999</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>0.1</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>0.30589788732394352</v>
       </c>
-      <c r="L9" s="8">
+      <c r="M9" s="8">
         <f>181.2/1033.5</f>
         <v>0.1753265602322206</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <v>0.08</v>
       </c>
-      <c r="N9" s="22">
+      <c r="O9" s="22">
         <v>0.09</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>0.08</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <v>0.39</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="R9" s="20">
         <v>0.2</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>0</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="T9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="U9" s="9"/>
       <c r="V9" s="9" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="X9" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB9" s="9" t="s">
-        <v>238</v>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="AC9" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="AG9" s="9"/>
-      <c r="AH9" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
-    </row>
-    <row r="10" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL9" s="9"/>
+    </row>
+    <row r="10" spans="1:38" ht="14.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6">
-        <f>1-B11-B7-B9-B8</f>
+      <c r="B10" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="6">
+        <f>1-C11-C7-C9-C8</f>
         <v>0.23799999999999999</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="6">
         <v>0.02</v>
       </c>
-      <c r="D10" s="6">
-        <f>1-D11-D9-D8</f>
+      <c r="E10" s="6">
+        <f>1-E11-E9-E8</f>
         <v>0.11999999999999997</v>
       </c>
-      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f>(7+14.7)/100</f>
         <v>0.217</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>0.107</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>0.25</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <v>0.23019366197183075</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <f>61.1/1033.5</f>
         <v>5.9119496855345913E-2</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <v>0.15</v>
       </c>
-      <c r="N10" s="49">
-        <f>1-N11-N9-N8-N7</f>
+      <c r="O10" s="46">
+        <f>1-O11-O9-O8-O7</f>
         <v>5.9998999999999955E-2</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>0.13</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>0.11</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="R10" s="18">
         <v>0.2</v>
       </c>
-      <c r="R10" s="6">
-        <f>1-R11-R7-R8</f>
+      <c r="S10" s="6">
+        <f>1-S11-S7-S8</f>
         <v>0.31</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="U10" s="7"/>
       <c r="V10" s="7" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="X10" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>242</v>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="AC10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="AG10" s="7"/>
-      <c r="AH10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
-    </row>
-    <row r="11" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL10" s="7"/>
+    </row>
+    <row r="11" spans="1:38" ht="14.5" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="8">
         <v>0.27300000000000002</v>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="8">
         <v>0.17</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>0.52</v>
       </c>
-      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
         <v>0.17</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f>7.3/100</f>
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>0.29799999999999999</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>0.11</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <v>0.16681338028169013</v>
       </c>
-      <c r="L11" s="8">
+      <c r="M11" s="8">
         <f>212.5/1033.5</f>
         <v>0.20561199806482824</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N11" s="8">
         <v>0.25</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>0.8</v>
       </c>
-      <c r="O11" s="8">
+      <c r="P11" s="8">
         <v>0.03</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="8">
         <v>0.41</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="R11" s="20">
         <v>0.05</v>
       </c>
-      <c r="R11" s="8">
+      <c r="S11" s="8">
         <v>0.5</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="T11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="U11" s="9"/>
       <c r="V11" s="9" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="X11" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB11" s="9" t="s">
-        <v>244</v>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="AC11" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AF11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="AG11" s="9"/>
-      <c r="AH11" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
-    </row>
-    <row r="12" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL11" s="9"/>
+    </row>
+    <row r="12" spans="1:38" ht="14.5" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.9</v>
+        <v>96</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="C12" s="6">
         <v>0.9</v>
       </c>
       <c r="D12" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="6">
         <v>0.95</v>
       </c>
-      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
         <v>0.90300000000000002</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>0.9</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>0.65</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <v>0.95</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <v>0.996</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <v>0.82399999999999995</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <v>0.79700000000000004</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12" s="6">
         <v>0.96</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="6">
         <v>0.61</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="R12" s="18">
         <v>1</v>
       </c>
-      <c r="R12" s="6">
+      <c r="S12" s="6">
         <v>0.95</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="U12" s="7"/>
       <c r="V12" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="X12" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="7" t="s">
-        <v>350</v>
-      </c>
+      <c r="AA12" s="7"/>
       <c r="AB12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="AC12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE12" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF12" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG12" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI12" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="14.5" customHeight="1">
+    </row>
+    <row r="13" spans="1:38" ht="14.5" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.95</v>
+        <v>97</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="C13" s="8">
         <v>0.95</v>
@@ -5021,171 +5224,177 @@
       <c r="D13" s="8">
         <v>0.95</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <v>0.95</v>
+      </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="8">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
         <v>0.90300000000000002</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>0.95</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>0.65</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>0.9</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <v>0.996</v>
       </c>
-      <c r="L13" s="8">
+      <c r="M13" s="8">
         <v>0.82399999999999995</v>
       </c>
-      <c r="M13" s="8">
+      <c r="N13" s="8">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N13" s="8">
+      <c r="O13" s="8">
         <v>0.79700000000000004</v>
       </c>
-      <c r="O13" s="8">
+      <c r="P13" s="8">
         <v>0.96</v>
       </c>
-      <c r="P13" s="8">
+      <c r="Q13" s="8">
         <v>0.61</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="R13" s="20">
         <v>1</v>
       </c>
-      <c r="R13" s="8">
+      <c r="S13" s="8">
         <v>0.95</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="T13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="U13" s="9"/>
       <c r="V13" s="9" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="X13" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="AC13" s="9"/>
       <c r="AD13" s="9" t="s">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF13" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>239</v>
+      </c>
       <c r="AG13" s="9"/>
-      <c r="AH13" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="AJ13" s="9"/>
-      <c r="AK13" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="14.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.9</v>
+        <v>98</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="C14" s="6">
         <v>0.9</v>
       </c>
       <c r="D14" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="6">
         <v>0.95</v>
       </c>
-      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>0.90300000000000002</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>0.9</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>0.65000000000000013</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>0.85</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>0.996</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>0.82399999999999995</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>0.79700000000000004</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <v>0.96</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <v>0.61</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="R14" s="18">
         <v>1</v>
       </c>
-      <c r="R14" s="6">
+      <c r="S14" s="6">
         <v>0.95</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="T14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="U14" s="7"/>
       <c r="V14" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="X14" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
-      <c r="AK14" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="14.5" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0.95</v>
+        <v>99</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="C15" s="8">
         <v>0.95</v>
@@ -5193,64 +5402,66 @@
       <c r="D15" s="8">
         <v>0.95</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8">
+      <c r="E15" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8">
         <v>0.90300000000000002</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>0.95</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>0.65</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>0.75</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <v>0.996</v>
       </c>
-      <c r="L15" s="8">
+      <c r="M15" s="8">
         <v>0.82399999999999995</v>
       </c>
-      <c r="M15" s="8">
+      <c r="N15" s="8">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N15" s="8">
+      <c r="O15" s="8">
         <v>0.79700000000000004</v>
       </c>
-      <c r="O15" s="8">
+      <c r="P15" s="8">
         <v>0.96</v>
       </c>
-      <c r="P15" s="8">
+      <c r="Q15" s="8">
         <v>0.61</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="R15" s="20">
         <v>1</v>
       </c>
-      <c r="R15" s="8">
+      <c r="S15" s="8">
         <v>0.95</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="T15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="U15" s="9"/>
       <c r="V15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="W15" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
-      <c r="AC15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -5258,94 +5469,98 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
-    </row>
-    <row r="16" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL15" s="9"/>
+    </row>
+    <row r="16" spans="1:38" ht="14.5" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.9</v>
+        <v>100</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="C16" s="6">
         <v>0.9</v>
       </c>
       <c r="D16" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="6">
         <v>0.95</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="6">
+      <c r="F16" s="6"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="6">
         <v>0.90300000000000002</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>0.9</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>0.65</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>0.8</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <v>0.996</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>0.82399999999999995</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <v>0.79700000000000004</v>
       </c>
-      <c r="O16" s="6">
+      <c r="P16" s="6">
         <v>0.96</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="6">
         <v>0.61</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="R16" s="18">
         <v>1</v>
       </c>
-      <c r="R16" s="6">
+      <c r="S16" s="6">
         <v>0.95</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="U16" s="7"/>
       <c r="V16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W16" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="14.5" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="8">
-        <v>50</v>
+        <v>101</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="C17" s="8">
         <v>50</v>
@@ -5353,22 +5568,22 @@
       <c r="D17" s="8">
         <v>50</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8">
+      <c r="E17" s="8">
+        <v>50</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8">
         <v>1</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>50</v>
-      </c>
-      <c r="I17" s="8">
-        <v>40</v>
       </c>
       <c r="J17" s="8">
         <v>40</v>
       </c>
       <c r="K17" s="8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L17" s="8">
         <v>50</v>
@@ -5380,259 +5595,268 @@
         <v>50</v>
       </c>
       <c r="O17" s="8">
+        <v>50</v>
+      </c>
+      <c r="P17" s="8">
         <v>75</v>
       </c>
-      <c r="P17" s="8">
+      <c r="Q17" s="8">
         <v>25</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="R17" s="20">
         <v>5</v>
       </c>
-      <c r="R17" s="8">
+      <c r="S17" s="8">
         <v>0</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="T17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="U17" s="9"/>
       <c r="V17" s="9" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="X17" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="9" t="s">
-        <v>259</v>
-      </c>
+      <c r="AA17" s="9"/>
       <c r="AB17" s="9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AC17" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD17" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE17" s="9" t="s">
-        <v>361</v>
+        <v>254</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE17" s="42" t="s">
+        <v>349</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="AH17" s="9" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AJ17" s="9"/>
+        <v>256</v>
+      </c>
+      <c r="AJ17" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="AK17" s="9"/>
-    </row>
-    <row r="18" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL17" s="9"/>
+    </row>
+    <row r="18" spans="1:38" ht="14.5" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="6">
-        <v>25</v>
+        <v>102</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="C18" s="6">
         <v>25</v>
       </c>
       <c r="D18" s="6">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6">
         <v>3</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="6">
+      <c r="F18" s="6"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="6">
         <v>3</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>15</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>20</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>30</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <v>15</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="6">
         <v>25</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <v>5</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="6">
         <v>50</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <v>15</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="R18" s="18">
         <v>30</v>
       </c>
-      <c r="R18" s="6">
+      <c r="S18" s="6">
         <v>0</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="U18" s="7"/>
       <c r="V18" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="X18" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA18" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB18" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD18" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE18" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF18" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7" t="s">
-        <v>268</v>
-      </c>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC18" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE18" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF18" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG18" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH18" s="7"/>
       <c r="AI18" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AJ18" s="7"/>
+        <v>262</v>
+      </c>
+      <c r="AJ18" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="AK18" s="7"/>
-    </row>
-    <row r="19" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL18" s="7"/>
+    </row>
+    <row r="19" spans="1:38" ht="14.5" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="8">
-        <v>20</v>
+        <v>103</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="C19" s="8">
         <v>20</v>
       </c>
       <c r="D19" s="8">
+        <v>20</v>
+      </c>
+      <c r="E19" s="8">
         <v>30</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="8">
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8">
         <v>25</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>50</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <v>40</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>20</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <v>25</v>
       </c>
-      <c r="L19" s="8">
+      <c r="M19" s="8">
         <v>30</v>
-      </c>
-      <c r="M19" s="8">
-        <v>20</v>
       </c>
       <c r="N19" s="8">
         <v>20</v>
       </c>
       <c r="O19" s="8">
+        <v>20</v>
+      </c>
+      <c r="P19" s="8">
         <v>25</v>
       </c>
-      <c r="P19" s="8">
+      <c r="Q19" s="8">
         <v>100</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="R19" s="20">
         <v>10</v>
       </c>
-      <c r="R19" s="8">
+      <c r="S19" s="8">
         <v>0</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="T19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="U19" s="9"/>
       <c r="V19" s="9" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="X19" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
-      <c r="AC19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD19" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE19" s="9" t="s">
-        <v>361</v>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE19" s="42" t="s">
+        <v>349</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="AH19" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI19" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ19" s="9"/>
+        <v>264</v>
+      </c>
+      <c r="AI19" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ19" s="24" t="s">
+        <v>266</v>
+      </c>
       <c r="AK19" s="9"/>
-    </row>
-    <row r="20" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL19" s="9"/>
+    </row>
+    <row r="20" spans="1:38" ht="14.5" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="6">
-        <v>15</v>
+        <v>104</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="C20" s="6">
         <v>15</v>
@@ -5640,22 +5864,22 @@
       <c r="D20" s="6">
         <v>15</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="6">
+      <c r="E20" s="6">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="6">
         <v>1</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>15</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>40</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <v>10</v>
-      </c>
-      <c r="K20" s="6">
-        <v>15</v>
       </c>
       <c r="L20" s="6">
         <v>15</v>
@@ -5664,733 +5888,760 @@
         <v>15</v>
       </c>
       <c r="N20" s="6">
+        <v>15</v>
+      </c>
+      <c r="O20" s="6">
         <v>5</v>
       </c>
-      <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="6">
+      <c r="Q20" s="6"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="6">
         <v>4</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="T20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="U20" s="7"/>
       <c r="V20" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="X20" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD20" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE20" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF20" s="7" t="s">
-        <v>360</v>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE20" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="AG20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH20" s="7"/>
+        <v>353</v>
+      </c>
+      <c r="AH20" s="7" t="s">
+        <v>261</v>
+      </c>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
-    </row>
-    <row r="21" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL20" s="7"/>
+    </row>
+    <row r="21" spans="1:38" ht="14.5" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="8">
-        <v>15</v>
+        <v>105</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="C21" s="8">
         <v>15</v>
       </c>
       <c r="D21" s="8">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8">
         <v>35</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8">
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8">
         <v>20</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>15</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <v>20</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>15</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <v>22</v>
       </c>
-      <c r="L21" s="8">
+      <c r="M21" s="8">
         <v>35</v>
       </c>
-      <c r="M21" s="8">
+      <c r="N21" s="8">
         <v>15</v>
       </c>
-      <c r="N21" s="8">
+      <c r="O21" s="8">
         <v>17</v>
       </c>
-      <c r="O21" s="8">
+      <c r="P21" s="8">
         <v>5</v>
       </c>
-      <c r="P21" s="8">
+      <c r="Q21" s="8">
         <v>3</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="R21" s="20">
         <v>20</v>
       </c>
-      <c r="R21" s="8">
+      <c r="S21" s="8">
         <v>16</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="T21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="U21" s="9"/>
       <c r="V21" s="9" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="X21" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
-      <c r="AA21" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC21" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD21" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE21" s="9" t="s">
-        <v>361</v>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE21" s="42" t="s">
+        <v>349</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="AH21" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ21" s="9"/>
+        <v>270</v>
+      </c>
+      <c r="AJ21" s="9" t="s">
+        <v>271</v>
+      </c>
       <c r="AK21" s="9"/>
-    </row>
-    <row r="22" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL21" s="9"/>
+    </row>
+    <row r="22" spans="1:38" ht="14.5" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0.64749999999999996</v>
+        <v>134</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="C22" s="6">
         <v>0.64749999999999996</v>
       </c>
-      <c r="D22" s="15">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="E22" s="49">
+        <v>0.8</v>
+      </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>0.46</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>0.25</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6">
         <v>0.64800000000000002</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="6">
         <v>0.87</v>
       </c>
-      <c r="L22" s="15">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M22" s="6">
+      <c r="M22" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="6">
         <v>0.23</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22" s="6">
         <v>0.1</v>
       </c>
-      <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="6">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="6">
         <v>0</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="T22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T22" s="7"/>
-      <c r="U22" s="12" t="s">
+      <c r="U22" s="7"/>
+      <c r="V22" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="X22" s="7"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD22" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE22" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF22" s="42" t="s">
+      <c r="AE22" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG22" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH22" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="AG22" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
-      <c r="AK22" s="6"/>
-    </row>
-    <row r="23" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="6"/>
+    </row>
+    <row r="23" spans="1:38" ht="14.5" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.72899999999999998</v>
+        <v>135</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="C23" s="8">
         <v>0.72899999999999998</v>
       </c>
       <c r="D23" s="8">
-        <v>0.34649999999999997</v>
-      </c>
-      <c r="E23" s="8"/>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="E23" s="8">
+        <v>12.5</v>
+      </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="27">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
         <v>0.22</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>0.75</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8">
         <v>0.495</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <v>0.87</v>
       </c>
-      <c r="L23" s="8">
-        <v>0.34649999999999997</v>
-      </c>
       <c r="M23" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="N23" s="8">
         <v>0.22</v>
       </c>
-      <c r="N23" s="8">
+      <c r="O23" s="8">
         <v>0.1</v>
       </c>
-      <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="8">
+      <c r="Q23" s="8"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="8">
         <v>0</v>
       </c>
-      <c r="S23" s="8" t="s">
+      <c r="T23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="13" t="s">
+      <c r="U23" s="9"/>
+      <c r="V23" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y23" s="9"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="X23" s="9"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD23" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE23" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF23" s="42" t="s">
+      <c r="AE23" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF23" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG23" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH23" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="AG23" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
-      <c r="AK23" s="8"/>
-    </row>
-    <row r="24" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="8"/>
+    </row>
+    <row r="24" spans="1:38" ht="14.5" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.76690000000000003</v>
+        <v>136</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="C24" s="6">
         <v>0.76690000000000003</v>
       </c>
       <c r="D24" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.95</v>
+      </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="25">
-        <v>0.05</v>
-      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="6">
         <v>0.05</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6">
+      <c r="I24" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="6">
         <v>0.87</v>
       </c>
-      <c r="L24" s="6">
-        <v>0.9</v>
-      </c>
       <c r="M24" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="N24" s="6">
         <v>0.19</v>
       </c>
-      <c r="N24" s="6">
+      <c r="O24" s="6">
         <v>0.1</v>
       </c>
-      <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="6">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="6">
         <v>0</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="T24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="7"/>
-      <c r="U24" s="12" t="s">
+      <c r="U24" s="7"/>
+      <c r="V24" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y24" s="7"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="X24" s="7"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD24" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE24" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF24" s="42" t="s">
+      <c r="AE24" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF24" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG24" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH24" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="AG24" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
-      <c r="AK24" s="6"/>
-    </row>
-    <row r="25" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="6"/>
+    </row>
+    <row r="25" spans="1:38" ht="14.5" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0.46850000000000003</v>
+        <v>137</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="C25" s="8">
         <v>0.46850000000000003</v>
       </c>
       <c r="D25" s="8">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="E25" s="8">
         <v>0.2</v>
       </c>
-      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="44">
+      <c r="G25" s="8"/>
+      <c r="H25" s="14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H25" s="8">
+      <c r="I25" s="8">
         <v>0.75</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8">
         <v>0.34649999999999997</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L25" s="8">
         <v>0.48</v>
       </c>
-      <c r="L25" s="8">
+      <c r="M25" s="8">
         <v>0.2</v>
       </c>
-      <c r="M25" s="8">
+      <c r="N25" s="8">
         <v>0.11</v>
       </c>
-      <c r="N25" s="8">
+      <c r="O25" s="8">
         <v>0.1</v>
       </c>
-      <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="8">
+      <c r="Q25" s="8"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="8">
         <v>0</v>
       </c>
-      <c r="S25" s="8" t="s">
+      <c r="T25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T25" s="9"/>
-      <c r="U25" s="13" t="s">
+      <c r="U25" s="9"/>
+      <c r="V25" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y25" s="9"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="X25" s="9"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD25" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE25" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF25" s="42" t="s">
+      <c r="AE25" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG25" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH25" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="AG25" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
-      <c r="AK25" s="8"/>
-    </row>
-    <row r="26" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="8"/>
+    </row>
+    <row r="26" spans="1:38" ht="14.5" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0.75</v>
+        <v>138</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="C26" s="6">
         <v>0.75</v>
       </c>
       <c r="D26" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.95</v>
+      </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="6">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
         <v>0.17</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="6">
         <v>0.5</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6">
         <v>0.63700000000000001</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="6">
         <v>0.74</v>
       </c>
-      <c r="L26" s="6">
-        <v>0.9</v>
-      </c>
       <c r="M26" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="N26" s="6">
         <v>0.26</v>
       </c>
-      <c r="N26" s="6">
+      <c r="O26" s="6">
         <v>0.99299999999999999</v>
       </c>
-      <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="6">
+      <c r="Q26" s="6"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="6">
         <v>0.45</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="T26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T26" s="7"/>
-      <c r="U26" s="12" t="s">
+      <c r="U26" s="7"/>
+      <c r="V26" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD26" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE26" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF26" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AH26" s="7"/>
+      <c r="AE26" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG26" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
-      <c r="AK26" s="6"/>
-    </row>
-    <row r="27" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="6"/>
+    </row>
+    <row r="27" spans="1:38" ht="14.5" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="8">
         <v>0.34250000000000003</v>
       </c>
-      <c r="C27" s="8">
+      <c r="D27" s="8">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D27" s="8">
+      <c r="E27" s="8">
         <v>0.26156000000000001</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8">
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8">
         <v>0.38300000000000001</v>
       </c>
-      <c r="H27" s="8">
+      <c r="I27" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J27" s="8">
         <v>0.35699999999999998</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <v>0.3624</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <v>0.47</v>
       </c>
-      <c r="L27" s="8">
+      <c r="M27" s="8">
         <v>0.17</v>
       </c>
-      <c r="M27" s="8">
+      <c r="N27" s="8">
         <v>0.39</v>
       </c>
-      <c r="N27" s="8">
+      <c r="O27" s="8">
         <v>0.73</v>
       </c>
-      <c r="O27" s="8">
+      <c r="P27" s="8">
         <v>0.21</v>
       </c>
-      <c r="P27" s="8">
+      <c r="Q27" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="R27" s="20">
         <v>2.7500000000000002E-4</v>
       </c>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8" t="s">
+      <c r="S27" s="8"/>
+      <c r="T27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T27" s="9" t="s">
+      <c r="U27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="U27" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="V27" s="9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="X27" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC27" s="9" t="s">
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9" t="s">
+        <v>340</v>
+      </c>
       <c r="AG27" s="9"/>
-      <c r="AH27" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="AI27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9" t="s">
+        <v>274</v>
+      </c>
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
-    </row>
-    <row r="28" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL27" s="9"/>
+    </row>
+    <row r="28" spans="1:38" ht="14.5" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="6">
         <v>0.24399999999999999</v>
       </c>
-      <c r="C28" s="6">
+      <c r="D28" s="6">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="6">
         <v>0.26156000000000001</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="6">
+      <c r="F28" s="6"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="6">
         <v>0.46</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <v>6.2E-2</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="8">
         <v>0.35699999999999998</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <v>0.38300000000000001</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <v>0.47</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <v>0.17</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <v>0.39</v>
       </c>
-      <c r="N28" s="6">
+      <c r="O28" s="6">
         <v>0.73</v>
       </c>
-      <c r="O28" s="6">
+      <c r="P28" s="6">
         <v>0.21</v>
       </c>
-      <c r="P28" s="6">
+      <c r="Q28" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="R28" s="18">
         <v>2.7500000000000002E-4</v>
       </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6" t="s">
+      <c r="S28" s="6"/>
+      <c r="T28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7" t="s">
-        <v>160</v>
-      </c>
+      <c r="U28" s="7"/>
       <c r="V28" s="7" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="W28" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="X28" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC28" s="7" t="s">
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7" t="s">
-        <v>346</v>
-      </c>
+      <c r="AE28" s="7"/>
       <c r="AF28" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="AI28" s="7"/>
+        <v>340</v>
+      </c>
+      <c r="AG28" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
-    </row>
-    <row r="29" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL28" s="7"/>
+    </row>
+    <row r="29" spans="1:38" ht="14.5" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="8">
-        <v>1</v>
+      <c r="B29" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -6401,10 +6652,10 @@
       <c r="E29" s="8">
         <v>1</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <v>1</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="10">
         <v>1</v>
       </c>
       <c r="H29" s="8">
@@ -6434,30 +6685,32 @@
       <c r="P29" s="8">
         <v>1</v>
       </c>
-      <c r="Q29" s="20">
+      <c r="Q29" s="8">
         <v>1</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="20">
         <v>1</v>
       </c>
-      <c r="S29" s="8" t="s">
+      <c r="S29" s="8">
+        <v>1</v>
+      </c>
+      <c r="T29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
-      <c r="W29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="X29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="9" t="s">
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
       <c r="AG29" s="9"/>
@@ -6465,109 +6718,113 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
-    </row>
-    <row r="30" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL29" s="9"/>
+    </row>
+    <row r="30" spans="1:38" ht="14.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="6">
         <v>0.57769999999999999</v>
       </c>
-      <c r="C30" s="6">
+      <c r="D30" s="6">
         <v>0.53300000000000003</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="6">
         <v>0.1065</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="6">
+      <c r="F30" s="6"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="6">
         <v>0.64</v>
       </c>
-      <c r="H30" s="6">
+      <c r="I30" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6">
         <v>0.43180000000000002</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="6">
         <v>0.13</v>
       </c>
-      <c r="M30" s="6">
+      <c r="N30" s="6">
         <v>0.33</v>
       </c>
-      <c r="N30" s="6">
+      <c r="O30" s="6">
         <v>0.42</v>
       </c>
-      <c r="O30" s="6">
+      <c r="P30" s="6">
         <v>0.498</v>
       </c>
-      <c r="P30" s="6">
+      <c r="Q30" s="6">
         <v>0.11700000000000001</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="R30" s="18">
         <v>0.625</v>
       </c>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6" t="s">
+      <c r="S30" s="6"/>
+      <c r="T30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7" t="s">
-        <v>161</v>
-      </c>
+      <c r="U30" s="7"/>
       <c r="V30" s="7" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="W30" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="X30" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="23" t="s">
+        <v>278</v>
+      </c>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="7" t="s">
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AD30" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="AE30" s="7"/>
+      <c r="AE30" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
-      <c r="AH30" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="AI30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="27" t="s">
+        <v>280</v>
+      </c>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
-    </row>
-    <row r="31" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL30" s="7"/>
+    </row>
+    <row r="31" spans="1:38" ht="14.5" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="8">
-        <v>0</v>
+      <c r="B31" s="8" t="s">
+        <v>376</v>
       </c>
       <c r="C31" s="8">
         <v>0</v>
       </c>
       <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
         <f>1-0.52/2</f>
         <v>0.74</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="8">
         <v>1</v>
       </c>
@@ -6575,17 +6832,17 @@
         <v>1</v>
       </c>
       <c r="J31" s="8">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
         <v>0.38869999999999999</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L31" s="8">
         <v>1</v>
       </c>
-      <c r="L31" s="8">
-        <f>1-$L$11/2</f>
+      <c r="M31" s="8">
+        <f>1-$M$11/2</f>
         <v>0.89719400096758584</v>
-      </c>
-      <c r="M31" s="8">
-        <v>1</v>
       </c>
       <c r="N31" s="8">
         <v>1</v>
@@ -6596,59 +6853,62 @@
       <c r="P31" s="8">
         <v>1</v>
       </c>
-      <c r="Q31" s="20">
+      <c r="Q31" s="8">
         <v>1</v>
       </c>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8" t="s">
+      <c r="R31" s="20">
+        <v>1</v>
+      </c>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T31" s="9"/>
       <c r="U31" s="9"/>
-      <c r="V31" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="V31" s="9"/>
       <c r="W31" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="X31" s="9"/>
+        <v>130</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>351</v>
+      </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
-      <c r="AC31" s="9" t="s">
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9"/>
-    </row>
-    <row r="32" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL31" s="9"/>
+    </row>
+    <row r="32" spans="1:38" ht="14.5" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6">
-        <v>0</v>
+      <c r="B32" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
         <f>1-0.52/2</f>
         <v>0.74</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="6">
-        <v>1</v>
-      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="6">
         <v>1</v>
       </c>
@@ -6656,17 +6916,17 @@
         <v>1</v>
       </c>
       <c r="J32" s="6">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6">
         <v>0.312</v>
       </c>
-      <c r="K32" s="6">
+      <c r="L32" s="6">
         <v>1</v>
       </c>
-      <c r="L32" s="8">
-        <f>1-$L$11/2</f>
+      <c r="M32" s="8">
+        <f>1-$M$11/2</f>
         <v>0.89719400096758584</v>
-      </c>
-      <c r="M32" s="6">
-        <v>1</v>
       </c>
       <c r="N32" s="6">
         <v>1</v>
@@ -6677,62 +6937,65 @@
       <c r="P32" s="6">
         <v>1</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="6">
         <v>1</v>
       </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6" t="s">
+      <c r="R32" s="18">
+        <v>1</v>
+      </c>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="W32" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="X32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>351</v>
+      </c>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="7" t="s">
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="AG32" s="7"/>
-      <c r="AH32" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
-    </row>
-    <row r="33" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL32" s="7"/>
+    </row>
+    <row r="33" spans="1:38" ht="14.5" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="8">
-        <v>0</v>
+      <c r="B33" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="C33" s="8">
         <v>0</v>
       </c>
       <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E33" s="8">
+      <c r="F33" s="8">
         <v>0.69099999999999995</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="8">
         <v>0</v>
       </c>
@@ -6740,34 +7003,36 @@
         <v>0</v>
       </c>
       <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8">
         <v>0.13800000000000001</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <v>0.34300000000000003</v>
       </c>
-      <c r="L33" s="8">
+      <c r="M33" s="8">
         <v>8.0999999999999996E-4</v>
       </c>
-      <c r="M33" s="8">
+      <c r="N33" s="8">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="N33" s="8">
+      <c r="O33" s="8">
         <v>0</v>
       </c>
-      <c r="O33" s="8">
+      <c r="P33" s="8">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="P33" s="8">
+      <c r="Q33" s="8">
         <v>0.55900000000000005</v>
       </c>
-      <c r="Q33" s="20">
+      <c r="R33" s="20">
         <v>1</v>
       </c>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8" t="s">
+      <c r="S33" s="8"/>
+      <c r="T33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
@@ -6775,47 +7040,48 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
-      <c r="AB33" s="9" t="s">
-        <v>287</v>
-      </c>
+      <c r="AB33" s="9"/>
       <c r="AC33" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD33" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AD33" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE33" s="9"/>
+      <c r="AE33" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
-      <c r="AH33" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="AI33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="21" t="s">
+        <v>283</v>
+      </c>
       <c r="AJ33" s="9"/>
-      <c r="AK33" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" ht="14.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
-        <v>0</v>
+      <c r="B34" s="8" t="s">
+        <v>378</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
       </c>
       <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <v>0.69099999999999995</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="6">
         <v>0</v>
       </c>
@@ -6823,34 +7089,36 @@
         <v>0</v>
       </c>
       <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="K34" s="6">
+      <c r="L34" s="6">
         <v>0.34300000000000003</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <v>8.0999999999999996E-4</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N34" s="6">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O34" s="6">
         <v>0</v>
       </c>
-      <c r="O34" s="6">
+      <c r="P34" s="6">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="P34" s="6">
+      <c r="Q34" s="6">
         <v>0.55900000000000005</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="R34" s="18">
         <v>1</v>
       </c>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6" t="s">
+      <c r="S34" s="6"/>
+      <c r="T34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -6859,118 +7127,122 @@
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
-      <c r="AC34" s="7" t="s">
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AD34" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="AG34" s="7"/>
+      <c r="AE34" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
-    </row>
-    <row r="35" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL34" s="7"/>
+    </row>
+    <row r="35" spans="1:38" ht="14.5" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C35" s="8">
         <f>64866+33789</f>
         <v>98655</v>
       </c>
-      <c r="C35" s="8">
+      <c r="D35" s="8">
         <v>1869000</v>
       </c>
-      <c r="D35" s="8">
+      <c r="E35" s="8">
         <v>4.87</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="8">
+      <c r="F35" s="8"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="8">
         <v>108.5</v>
       </c>
-      <c r="H35" s="8">
+      <c r="I35" s="8">
         <v>307</v>
       </c>
-      <c r="I35" s="8">
+      <c r="J35" s="8">
         <v>2.8</v>
       </c>
-      <c r="J35" s="8">
+      <c r="K35" s="8">
         <v>30613</v>
       </c>
-      <c r="K35" s="8">
+      <c r="L35" s="8">
         <v>2721000</v>
       </c>
-      <c r="L35" s="8">
+      <c r="M35" s="8">
         <v>31968.75</v>
       </c>
-      <c r="M35" s="8">
+      <c r="N35" s="8">
         <v>13518</v>
       </c>
-      <c r="N35" s="8">
+      <c r="O35" s="8">
         <v>5920</v>
       </c>
-      <c r="O35" s="8">
+      <c r="P35" s="8">
         <v>260997</v>
       </c>
-      <c r="P35" s="8">
+      <c r="Q35" s="8">
         <v>260</v>
       </c>
-      <c r="Q35" s="20">
+      <c r="R35" s="20">
         <v>260</v>
       </c>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8" t="s">
+      <c r="S35" s="8"/>
+      <c r="T35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9" t="s">
-        <v>158</v>
-      </c>
+      <c r="U35" s="9"/>
       <c r="V35" s="9" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="X35" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="Y35" s="9"/>
-      <c r="Z35" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="Z35" s="9"/>
       <c r="AA35" s="9" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AC35" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
-      <c r="AF35" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9"/>
-    </row>
-    <row r="36" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL35" s="9"/>
+    </row>
+    <row r="36" spans="1:38" ht="14.5" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B36" s="6">
-        <v>0.5</v>
+        <v>289</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="C36" s="6">
         <v>0.5</v>
@@ -7009,10 +7281,10 @@
         <v>0.5</v>
       </c>
       <c r="O36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P36" s="6">
         <v>0.23</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0.5</v>
       </c>
       <c r="Q36" s="6">
         <v>0.5</v>
@@ -7020,7 +7292,9 @@
       <c r="R36" s="6">
         <v>0.5</v>
       </c>
-      <c r="S36" s="6"/>
+      <c r="S36" s="6">
+        <v>0.5</v>
+      </c>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
@@ -7035,1059 +7309,1093 @@
       <c r="AE36" s="6"/>
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
-      <c r="AH36" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
-    </row>
-    <row r="37" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL36" s="6"/>
+    </row>
+    <row r="37" spans="1:38" ht="14.5" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C37" s="8">
         <v>64866</v>
       </c>
-      <c r="C37" s="8">
+      <c r="D37" s="8">
         <v>1351500</v>
       </c>
-      <c r="D37" s="8">
+      <c r="E37" s="8">
         <v>3.5972</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="19">
+      <c r="F37" s="8"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="19">
         <v>83.8</v>
       </c>
-      <c r="H37" s="8">
+      <c r="I37" s="8">
         <v>296</v>
       </c>
-      <c r="I37" s="8">
+      <c r="J37" s="8">
         <v>1.85</v>
       </c>
-      <c r="J37" s="8">
+      <c r="K37" s="8">
         <v>20400</v>
       </c>
-      <c r="K37" s="8">
+      <c r="L37" s="8">
         <v>2610</v>
       </c>
-      <c r="L37" s="8">
+      <c r="M37" s="8">
         <v>26.5</v>
       </c>
-      <c r="M37" s="8">
+      <c r="N37" s="8">
         <v>12700</v>
       </c>
-      <c r="N37" s="8">
+      <c r="O37" s="8">
         <v>4720</v>
       </c>
-      <c r="O37" s="8">
+      <c r="P37" s="8">
         <v>294</v>
       </c>
-      <c r="P37" s="8">
+      <c r="Q37" s="8">
         <v>0.186</v>
       </c>
-      <c r="Q37" s="20">
+      <c r="R37" s="20">
         <v>0.52</v>
       </c>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8" t="s">
+      <c r="S37" s="8"/>
+      <c r="T37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T37" s="9"/>
       <c r="U37" s="9"/>
-      <c r="V37" s="9" t="s">
+      <c r="V37" s="9"/>
+      <c r="W37" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="W37" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="X37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y37" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA37" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB37" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB37" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC37" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
-      <c r="AI37" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="AJ37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="AK37" s="9"/>
-    </row>
-    <row r="38" spans="1:37" ht="14.5" customHeight="1">
-      <c r="A38" s="30" t="s">
+      <c r="AL37" s="9"/>
+    </row>
+    <row r="38" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="C38" s="6">
         <f>2353/5.1</f>
         <v>461.3725490196079</v>
       </c>
-      <c r="C38" s="6">
+      <c r="D38" s="6">
         <v>745.14</v>
       </c>
-      <c r="D38" s="6">
+      <c r="E38" s="6">
         <v>3.5370000000000002E-3</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6">
+      <c r="F38" s="6"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6">
         <v>4.5032618547779402</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6">
         <v>12.449078</v>
       </c>
-      <c r="K38" s="6">
+      <c r="L38" s="6">
         <v>24.843557000000001</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <v>8.0507999999999996E-2</v>
       </c>
-      <c r="M38" s="6">
+      <c r="N38" s="6">
         <v>16.420480999999999</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="6">
         <v>4.8053819999999998</v>
       </c>
-      <c r="O38" s="6">
+      <c r="P38" s="6">
         <v>8.8008670000000002</v>
       </c>
-      <c r="P38" s="6">
+      <c r="Q38" s="6">
         <v>5.6010000000000001E-3</v>
       </c>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6" t="s">
+      <c r="R38" s="18"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="U38" s="7"/>
       <c r="V38" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="W38" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="W38" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="X38" s="7"/>
+      <c r="X38" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
-      <c r="AA38" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7" t="s">
-        <v>112</v>
-      </c>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC38" s="7"/>
       <c r="AD38" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE38" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF38" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG38" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH38" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI38" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ38" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="AJ38" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="AK38" s="7"/>
-    </row>
-    <row r="39" spans="1:37" ht="14.5" customHeight="1">
-      <c r="A39" s="31" t="s">
+      <c r="AL38" s="7"/>
+    </row>
+    <row r="39" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A39" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="C39" s="8">
         <f>0.995^0.5</f>
         <v>0.99749686716300012</v>
       </c>
-      <c r="C39" s="8">
+      <c r="D39" s="8">
         <f>1.75414^0.5</f>
         <v>1.3244395040922028</v>
       </c>
-      <c r="D39" s="8">
+      <c r="E39" s="8">
         <f>1.119928^0.5</f>
         <v>1.0582665070765493</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="50">
+      <c r="F39" s="8"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="47">
         <v>0.74194119079264453</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8">
+      <c r="J39" s="8"/>
+      <c r="K39" s="8">
         <f>4.506331^0.5</f>
         <v>2.1228120500882786</v>
       </c>
-      <c r="K39" s="8">
+      <c r="L39" s="8">
         <f>0.730054^0.5</f>
         <v>0.85443197505711355</v>
       </c>
-      <c r="L39" s="8">
+      <c r="M39" s="8">
         <f>1.164431^0.5</f>
         <v>1.0790880408937911</v>
       </c>
-      <c r="M39" s="8">
+      <c r="N39" s="8">
         <f>2.619654^0.5</f>
         <v>1.6185345223380316</v>
       </c>
-      <c r="N39" s="8">
+      <c r="O39" s="8">
         <f>2.612836^0.5</f>
         <v>1.6164269238044757</v>
       </c>
-      <c r="O39" s="8">
+      <c r="P39" s="8">
         <f>0.082201^0.5</f>
         <v>0.2867071676815911</v>
       </c>
-      <c r="P39" s="8">
+      <c r="Q39" s="8">
         <f>0.603488^0.5</f>
         <v>0.77684490086503111</v>
       </c>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8" t="s">
+      <c r="R39" s="20"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9" t="s">
-        <v>164</v>
-      </c>
+      <c r="U39" s="9"/>
       <c r="V39" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="W39" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="W39" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="X39" s="9"/>
+      <c r="X39" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
-      <c r="AA39" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC39" s="9"/>
       <c r="AD39" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE39" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF39" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG39" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH39" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI39" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ39" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="AJ39" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="AK39" s="9"/>
-    </row>
-    <row r="40" spans="1:37" ht="14.5" customHeight="1">
-      <c r="A40" s="30" t="s">
+      <c r="AL39" s="9"/>
+    </row>
+    <row r="40" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A40" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" s="6">
         <f>39.886/1.93</f>
         <v>20.666321243523317</v>
       </c>
-      <c r="C40" s="6">
+      <c r="D40" s="6">
         <v>63.37</v>
       </c>
-      <c r="D40" s="6">
+      <c r="E40" s="6">
         <v>2.2100000000000001E-4</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="51">
+      <c r="F40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="48">
         <v>1.0968131213886334</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6">
         <v>0.64898900000000004</v>
       </c>
-      <c r="K40" s="6">
+      <c r="L40" s="6">
         <v>1.2763679999999999</v>
       </c>
-      <c r="L40" s="6">
+      <c r="M40" s="6">
         <v>1.6863E-2</v>
       </c>
-      <c r="M40" s="6">
+      <c r="N40" s="6">
         <v>3.8657819999999998</v>
       </c>
-      <c r="N40" s="6">
+      <c r="O40" s="6">
         <v>2.2956560000000001</v>
       </c>
-      <c r="O40" s="6">
+      <c r="P40" s="6">
         <v>0.19573199999999999</v>
       </c>
-      <c r="P40" s="6">
+      <c r="Q40" s="6">
         <v>1.7799999999999999E-4</v>
       </c>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6" t="s">
+      <c r="R40" s="18"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7" t="s">
-        <v>174</v>
-      </c>
+      <c r="U40" s="7"/>
       <c r="V40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="W40" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="W40" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="X40" s="7"/>
+      <c r="X40" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
-      <c r="AA40" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7" t="s">
-        <v>112</v>
-      </c>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC40" s="7"/>
       <c r="AD40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI40" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ40" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="AJ40" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="AK40" s="7"/>
-    </row>
-    <row r="41" spans="1:37" ht="14.5" customHeight="1">
-      <c r="A41" s="31" t="s">
+      <c r="AL40" s="7"/>
+    </row>
+    <row r="41" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A41" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="C41" s="8">
         <f>0.1332^0.5</f>
         <v>0.3649657518178932</v>
       </c>
-      <c r="C41" s="8">
+      <c r="D41" s="8">
         <f>0.0601^0.5</f>
         <v>0.24515301344262524</v>
       </c>
-      <c r="D41" s="8">
+      <c r="E41" s="8">
         <v>0.95105399999999995</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="50">
+      <c r="F41" s="8"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="47">
         <v>0.57791694994750731</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8">
+      <c r="J41" s="8"/>
+      <c r="K41" s="8">
         <v>0.72167400000000004</v>
       </c>
-      <c r="K41" s="8">
+      <c r="L41" s="8">
         <v>0.627772</v>
       </c>
-      <c r="L41" s="8">
+      <c r="M41" s="8">
         <f>0.592826^0.5</f>
         <v>0.76995194655251054</v>
       </c>
-      <c r="M41" s="8">
+      <c r="N41" s="8">
         <f>0.385681^0.5</f>
         <v>0.62103220528407377</v>
       </c>
-      <c r="N41" s="8">
+      <c r="O41" s="8">
         <f>0.551519^0.5</f>
         <v>0.74264325217428584</v>
       </c>
-      <c r="O41" s="8">
+      <c r="P41" s="8">
         <f>0.001142^0.5</f>
         <v>3.3793490497431605E-2</v>
       </c>
-      <c r="P41" s="8">
+      <c r="Q41" s="8">
         <f>0.119309^0.5</f>
         <v>0.34541134897394438</v>
       </c>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8" t="s">
+      <c r="R41" s="20"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T41" s="9" t="s">
-        <v>319</v>
-      </c>
       <c r="U41" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="V41" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="W41" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="W41" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="X41" s="9"/>
+      <c r="X41" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
-      <c r="AA41" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC41" s="9"/>
       <c r="AD41" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE41" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF41" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG41" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH41" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI41" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ41" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="AJ41" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="AK41" s="9"/>
-    </row>
-    <row r="42" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL41" s="9"/>
+    </row>
+    <row r="42" spans="1:38" ht="14.5" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C42" s="6">
         <v>1807.7719999999999</v>
       </c>
-      <c r="C42" s="6">
+      <c r="D42" s="6">
         <v>670</v>
       </c>
-      <c r="D42" s="15">
+      <c r="E42" s="15">
         <v>44806598</v>
       </c>
-      <c r="E42" s="15">
+      <c r="F42" s="15">
         <v>35736</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="6">
+      <c r="G42" s="11"/>
+      <c r="H42" s="6">
         <v>30800</v>
       </c>
-      <c r="H42" s="15">
+      <c r="I42" s="15">
         <v>19444</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <v>161000</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <v>6018.558</v>
       </c>
-      <c r="K42" s="6">
+      <c r="L42" s="6">
         <v>14285.808000000001</v>
       </c>
-      <c r="L42" s="11">
+      <c r="M42" s="11">
         <f>16.22*35274</f>
         <v>572144.27999999991</v>
       </c>
-      <c r="M42" s="6">
+      <c r="N42" s="6">
         <v>2535.29</v>
       </c>
-      <c r="N42" s="6">
+      <c r="O42" s="6">
         <v>2006.1859999999999</v>
       </c>
-      <c r="O42" s="15">
+      <c r="P42" s="15">
         <v>24647.428</v>
       </c>
-      <c r="P42" s="15">
+      <c r="Q42" s="15">
         <v>27710303</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="R42" s="18">
         <v>58419.6</v>
       </c>
-      <c r="R42" s="32">
+      <c r="S42" s="30">
         <v>11120.835754394531</v>
       </c>
-      <c r="S42" s="6" t="s">
+      <c r="T42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T42" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="U42" s="7"/>
+      <c r="U42" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
-      <c r="Z42" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="23" t="s">
+        <v>295</v>
+      </c>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
-      <c r="AK42" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" ht="14.5" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="8">
+        <v>124</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C43" s="8">
         <v>706</v>
       </c>
-      <c r="C43" s="8">
+      <c r="D43" s="8">
         <v>25</v>
       </c>
-      <c r="D43" s="14">
-        <f>D42-1000*35274</f>
+      <c r="E43" s="14">
+        <f>E42-1000*35274</f>
         <v>9532598</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="8">
+      <c r="F43" s="8"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="8">
         <v>15.968999999999999</v>
       </c>
-      <c r="H43" s="8">
+      <c r="I43" s="8">
         <v>4661</v>
       </c>
-      <c r="I43" s="8">
+      <c r="J43" s="8">
         <v>-27033</v>
       </c>
-      <c r="J43" s="8">
+      <c r="K43" s="8">
         <v>211</v>
       </c>
-      <c r="K43" s="8">
+      <c r="L43" s="8">
         <v>1394</v>
       </c>
-      <c r="L43" s="14">
-        <f>L42-14.86*35274</f>
+      <c r="M43" s="14">
+        <f>M42-14.86*35274</f>
         <v>47972.639999999956</v>
       </c>
-      <c r="M43" s="8">
-        <f>M42-0.88*2204.6</f>
+      <c r="N43" s="8">
+        <f>N42-0.88*2204.6</f>
         <v>595.24199999999996</v>
       </c>
-      <c r="N43" s="8">
-        <f>N42-0.77*2204.6</f>
+      <c r="O43" s="8">
+        <f>O42-0.77*2204.6</f>
         <v>308.64400000000001</v>
       </c>
-      <c r="O43" s="8">
+      <c r="P43" s="8">
         <v>23820</v>
       </c>
-      <c r="P43" s="14">
-        <f>P42-696.31*35274</f>
+      <c r="Q43" s="14">
+        <f>Q42-696.31*35274</f>
         <v>3148664.0600000024</v>
       </c>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="8"/>
+      <c r="R43" s="20"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
-      <c r="U43" s="8" t="s">
-        <v>167</v>
-      </c>
+      <c r="U43" s="8"/>
       <c r="V43" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="W43" s="8" t="s">
         <v>168</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA43" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC43" s="8" t="s">
-        <v>305</v>
+        <v>167</v>
+      </c>
+      <c r="Y43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB43" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="AD43" s="8" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>172</v>
+        <v>334</v>
       </c>
       <c r="AG43" s="8" t="s">
         <v>171</v>
       </c>
       <c r="AH43" s="8" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="AI43" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="9"/>
-    </row>
-    <row r="44" spans="1:37" ht="14.5" customHeight="1">
-      <c r="A44" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ43" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="9"/>
+    </row>
+    <row r="44" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A44" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="C44" s="6">
         <v>0</v>
       </c>
-      <c r="C44" s="6">
+      <c r="D44" s="6">
         <v>3.5595105672969966E-2</v>
       </c>
-      <c r="D44" s="6">
+      <c r="E44" s="6">
         <v>0.41146924083769632</v>
       </c>
-      <c r="E44" s="6">
+      <c r="F44" s="6">
         <v>0.23853211009174313</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6">
+      <c r="G44" s="11"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6">
         <v>0.43914889552565523</v>
       </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6">
+      <c r="J44" s="6"/>
+      <c r="K44" s="6">
         <v>0.33660000000000001</v>
       </c>
-      <c r="K44" s="6">
+      <c r="L44" s="6">
         <v>0.29027355623100304</v>
       </c>
-      <c r="L44" s="6">
+      <c r="M44" s="6">
         <v>0.56660119287056465</v>
       </c>
-      <c r="M44" s="6">
+      <c r="N44" s="6">
         <v>0.60416666666666663</v>
       </c>
-      <c r="N44" s="6">
+      <c r="O44" s="6">
         <v>0.68702522029778179</v>
       </c>
-      <c r="O44" s="6">
+      <c r="P44" s="6">
         <v>0.26022304832713755</v>
       </c>
-      <c r="P44" s="6">
+      <c r="Q44" s="6">
         <v>0.54192825112107623</v>
       </c>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="6">
+      <c r="R44" s="18"/>
+      <c r="S44" s="6">
         <v>0.22445561139028475</v>
       </c>
-      <c r="S44" s="6" t="s">
+      <c r="T44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="V44" s="7" t="s">
-        <v>88</v>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="W44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X44" s="7"/>
+      <c r="X44" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="Y44" s="7"/>
-      <c r="Z44" s="7" t="s">
-        <v>307</v>
-      </c>
+      <c r="Z44" s="7"/>
       <c r="AA44" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7" t="s">
-        <v>124</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AB44" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC44" s="7"/>
       <c r="AD44" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE44" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF44" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG44" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH44" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI44" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ44" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AK44" s="7"/>
-    </row>
-    <row r="45" spans="1:37" ht="14.5" customHeight="1">
-      <c r="A45" s="31" t="s">
+      <c r="AK44" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL44" s="7"/>
+    </row>
+    <row r="45" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A45" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="8">
+      <c r="D45" s="8">
         <v>0.46329254727474972</v>
       </c>
-      <c r="D45" s="8">
+      <c r="E45" s="8">
         <v>0.49825752617801045</v>
       </c>
-      <c r="E45" s="8">
+      <c r="F45" s="8">
         <v>0.67889908256880738</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8">
+      <c r="G45" s="10"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8">
         <v>0.51673572270432799</v>
       </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8">
+      <c r="J45" s="8"/>
+      <c r="K45" s="8">
         <v>0.61550000000000005</v>
       </c>
-      <c r="K45" s="8">
+      <c r="L45" s="8">
         <v>0.68844984802431608</v>
       </c>
-      <c r="L45" s="8">
+      <c r="M45" s="8">
         <v>0.37476819923156995</v>
       </c>
-      <c r="M45" s="8">
+      <c r="N45" s="8">
         <v>0.35165550595238093</v>
       </c>
-      <c r="N45" s="8">
+      <c r="O45" s="8">
         <v>0.2707383773928897</v>
       </c>
-      <c r="O45" s="8">
+      <c r="P45" s="8">
         <v>0.64312267657992561</v>
       </c>
-      <c r="P45" s="8">
+      <c r="Q45" s="8">
         <v>0.33004484304932735</v>
       </c>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="8">
+      <c r="R45" s="26"/>
+      <c r="S45" s="8">
         <v>0.45561139028475711</v>
       </c>
-      <c r="S45" s="8" t="s">
+      <c r="T45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="V45" s="9" t="s">
-        <v>88</v>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="W45" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="X45" s="9"/>
+      <c r="X45" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="Y45" s="9"/>
-      <c r="Z45" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="9"/>
       <c r="AD45" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE45" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF45" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG45" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH45" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI45" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ45" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AK45" s="9"/>
-    </row>
-    <row r="46" spans="1:37" ht="14.5" customHeight="1">
-      <c r="A46" s="30" t="s">
+      <c r="AK45" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL45" s="9"/>
+    </row>
+    <row r="46" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A46" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="C46" s="6">
         <v>0</v>
       </c>
-      <c r="C46" s="6">
+      <c r="D46" s="6">
         <v>1.1123470522803114E-3</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E46" s="6">
         <v>2.6333442408376963E-2</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F46" s="6">
         <v>4.5871559633027525E-2</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6">
+      <c r="G46" s="11"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6">
         <v>0</v>
       </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6">
+      <c r="J46" s="6"/>
+      <c r="K46" s="6">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="K46" s="6">
+      <c r="L46" s="6">
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="L46" s="6">
+      <c r="M46" s="6">
         <v>3.2714861804723751E-2</v>
       </c>
-      <c r="M46" s="6">
+      <c r="N46" s="6">
         <v>2.7994791666666668E-2</v>
       </c>
-      <c r="N46" s="6">
+      <c r="O46" s="6">
         <v>2.3701002734731084E-2</v>
       </c>
-      <c r="O46" s="6">
+      <c r="P46" s="6">
         <v>9.6654275092936809E-2</v>
       </c>
-      <c r="P46" s="6">
+      <c r="Q46" s="6">
         <v>0.12645739910313902</v>
       </c>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="6">
+      <c r="R46" s="25"/>
+      <c r="S46" s="6">
         <v>8.3752093802345051E-3</v>
       </c>
-      <c r="S46" s="6" t="s">
+      <c r="T46" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="V46" s="7" t="s">
-        <v>88</v>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="W46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X46" s="7"/>
+      <c r="X46" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
-      <c r="AC46" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="AC46" s="7"/>
       <c r="AD46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ46" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AK46" s="7"/>
-    </row>
-    <row r="47" spans="1:37" ht="14.5" customHeight="1">
-      <c r="A47" s="31" t="s">
+      <c r="AK46" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL46" s="7"/>
+    </row>
+    <row r="47" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A47" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="8">
         <v>0</v>
       </c>
-      <c r="C47" s="8">
+      <c r="D47" s="8">
         <v>0.5</v>
       </c>
-      <c r="D47" s="8">
+      <c r="E47" s="8">
         <v>6.1420157068062829E-2</v>
       </c>
-      <c r="E47" s="8">
+      <c r="F47" s="8">
         <v>3.669724770642202E-2</v>
       </c>
-      <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="5">
+      <c r="H47" s="8"/>
+      <c r="I47" s="5">
         <v>4.4115380000000003E-2</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8">
+      <c r="J47" s="8"/>
+      <c r="K47" s="8">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="K47" s="8">
+      <c r="L47" s="8">
         <v>0</v>
       </c>
-      <c r="L47" s="8">
+      <c r="M47" s="8">
         <v>2.5156055840595024E-2</v>
       </c>
-      <c r="M47" s="8">
+      <c r="N47" s="8">
         <v>1.6183035714285716E-2</v>
       </c>
-      <c r="N47" s="8">
+      <c r="O47" s="8">
         <v>1.8535399574597388E-2</v>
       </c>
-      <c r="O47" s="8">
+      <c r="P47" s="8">
         <v>0</v>
       </c>
-      <c r="P47" s="8">
+      <c r="Q47" s="8">
         <v>1.569506726457399E-3</v>
       </c>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="8">
+      <c r="R47" s="26"/>
+      <c r="S47" s="8">
         <v>3.350083752093802E-2</v>
       </c>
-      <c r="S47" s="8" t="s">
+      <c r="T47" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="V47" s="9" t="s">
-        <v>88</v>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="W47" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="X47" s="9"/>
+      <c r="X47" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9" t="s">
-        <v>124</v>
-      </c>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="9"/>
       <c r="AD47" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE47" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF47" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG47" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH47" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI47" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ47" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AK47" s="9"/>
-    </row>
-    <row r="48" spans="1:37" ht="14.5" customHeight="1">
-      <c r="A48" s="30" t="s">
+      <c r="AK47" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL47" s="9"/>
+    </row>
+    <row r="48" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A48" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="6">
-        <v>0</v>
+      <c r="B48" s="28" t="s">
+        <v>387</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
       </c>
       <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
         <v>2.5196335078534033E-3</v>
       </c>
-      <c r="E48" s="6">
+      <c r="F48" s="6">
         <v>0</v>
       </c>
-      <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="6">
+      <c r="H48" s="6"/>
+      <c r="I48" s="6">
         <v>0</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6">
-        <v>0</v>
-      </c>
+      <c r="J48" s="6"/>
       <c r="K48" s="6">
         <v>0</v>
       </c>
       <c r="L48" s="6">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
         <v>7.5969025254658709E-4</v>
-      </c>
-      <c r="M48" s="6">
-        <v>0</v>
       </c>
       <c r="N48" s="6">
         <v>0</v>
@@ -8098,59 +8406,62 @@
       <c r="P48" s="6">
         <v>0</v>
       </c>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="6">
+      <c r="Q48" s="6">
+        <v>0</v>
+      </c>
+      <c r="R48" s="25"/>
+      <c r="S48" s="6">
         <v>0.27805695142378561</v>
       </c>
-      <c r="S48" s="6" t="s">
+      <c r="T48" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="V48" s="7" t="s">
-        <v>88</v>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X48" s="7"/>
+      <c r="X48" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
-      <c r="AC48" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="AC48" s="7"/>
       <c r="AD48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ48" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AK48" s="7"/>
-    </row>
-    <row r="49" spans="1:37" ht="14.5" customHeight="1">
-      <c r="A49" s="33" t="s">
+      <c r="AK48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL48" s="7"/>
+    </row>
+    <row r="49" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A49" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="16"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -8165,14 +8476,14 @@
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16" t="s">
+      <c r="Q49" s="16"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="T49" s="16"/>
       <c r="U49" s="16"/>
-      <c r="V49" s="17"/>
+      <c r="V49" s="16"/>
       <c r="W49" s="17"/>
       <c r="X49" s="17"/>
       <c r="Y49" s="17"/>
@@ -8187,9 +8498,10 @@
       <c r="AH49" s="17"/>
       <c r="AI49" s="17"/>
       <c r="AJ49" s="17"/>
-      <c r="AK49" s="9"/>
-    </row>
-    <row r="50" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AK49" s="17"/>
+      <c r="AL49" s="9"/>
+    </row>
+    <row r="50" spans="1:38" ht="14.5" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -8208,12 +8520,12 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6" t="s">
+      <c r="Q50" s="6"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T50" s="7"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
@@ -8231,8 +8543,9 @@
       <c r="AI50" s="7"/>
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
-    </row>
-    <row r="51" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL50" s="7"/>
+    </row>
+    <row r="51" spans="1:38" ht="14.5" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>45</v>
       </c>
@@ -8251,12 +8564,12 @@
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8" t="s">
+      <c r="Q51" s="8"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
@@ -8274,8 +8587,9 @@
       <c r="AI51" s="9"/>
       <c r="AJ51" s="9"/>
       <c r="AK51" s="9"/>
-    </row>
-    <row r="52" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL51" s="9"/>
+    </row>
+    <row r="52" spans="1:38" ht="14.5" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
@@ -8294,12 +8608,12 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6" t="s">
+      <c r="Q52" s="6"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T52" s="7"/>
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
@@ -8317,8 +8631,9 @@
       <c r="AI52" s="7"/>
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
-    </row>
-    <row r="53" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL52" s="7"/>
+    </row>
+    <row r="53" spans="1:38" ht="14.5" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>47</v>
       </c>
@@ -8337,12 +8652,12 @@
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8" t="s">
+      <c r="Q53" s="8"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
@@ -8360,8 +8675,9 @@
       <c r="AI53" s="9"/>
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
-    </row>
-    <row r="54" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL53" s="9"/>
+    </row>
+    <row r="54" spans="1:38" ht="14.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
@@ -8380,12 +8696,12 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6" t="s">
+      <c r="Q54" s="6"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T54" s="7"/>
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
@@ -8403,8 +8719,9 @@
       <c r="AI54" s="7"/>
       <c r="AJ54" s="7"/>
       <c r="AK54" s="7"/>
-    </row>
-    <row r="55" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL54" s="7"/>
+    </row>
+    <row r="55" spans="1:38" ht="14.5" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>49</v>
       </c>
@@ -8423,12 +8740,12 @@
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8" t="s">
+      <c r="Q55" s="8"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
@@ -8446,8 +8763,9 @@
       <c r="AI55" s="9"/>
       <c r="AJ55" s="9"/>
       <c r="AK55" s="9"/>
-    </row>
-    <row r="56" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL55" s="9"/>
+    </row>
+    <row r="56" spans="1:38" ht="14.5" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
@@ -8466,12 +8784,12 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6" t="s">
+      <c r="Q56" s="6"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T56" s="7"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
@@ -8489,8 +8807,9 @@
       <c r="AI56" s="7"/>
       <c r="AJ56" s="7"/>
       <c r="AK56" s="7"/>
-    </row>
-    <row r="57" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL56" s="7"/>
+    </row>
+    <row r="57" spans="1:38" ht="14.5" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>51</v>
       </c>
@@ -8509,12 +8828,12 @@
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8" t="s">
+      <c r="Q57" s="8"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
@@ -8532,8 +8851,9 @@
       <c r="AI57" s="9"/>
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9"/>
-    </row>
-    <row r="58" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL57" s="9"/>
+    </row>
+    <row r="58" spans="1:38" ht="14.5" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -8552,12 +8872,12 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6" t="s">
+      <c r="Q58" s="6"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T58" s="7"/>
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
       <c r="W58" s="7"/>
@@ -8575,8 +8895,9 @@
       <c r="AI58" s="7"/>
       <c r="AJ58" s="7"/>
       <c r="AK58" s="7"/>
-    </row>
-    <row r="59" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL58" s="7"/>
+    </row>
+    <row r="59" spans="1:38" ht="14.5" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>53</v>
       </c>
@@ -8595,12 +8916,12 @@
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8" t="s">
+      <c r="Q59" s="8"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
@@ -8618,8 +8939,9 @@
       <c r="AI59" s="9"/>
       <c r="AJ59" s="9"/>
       <c r="AK59" s="9"/>
-    </row>
-    <row r="60" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL59" s="9"/>
+    </row>
+    <row r="60" spans="1:38" ht="14.5" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -8638,12 +8960,12 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6" t="s">
+      <c r="Q60" s="6"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T60" s="7"/>
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
@@ -8661,8 +8983,9 @@
       <c r="AI60" s="7"/>
       <c r="AJ60" s="7"/>
       <c r="AK60" s="7"/>
-    </row>
-    <row r="61" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL60" s="7"/>
+    </row>
+    <row r="61" spans="1:38" ht="14.5" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>55</v>
       </c>
@@ -8681,12 +9004,12 @@
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8" t="s">
+      <c r="Q61" s="8"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T61" s="9"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
@@ -8704,8 +9027,9 @@
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
-    </row>
-    <row r="62" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL61" s="9"/>
+    </row>
+    <row r="62" spans="1:38" ht="14.5" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -8724,12 +9048,12 @@
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6" t="s">
+      <c r="Q62" s="6"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T62" s="7"/>
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
@@ -8747,8 +9071,9 @@
       <c r="AI62" s="7"/>
       <c r="AJ62" s="7"/>
       <c r="AK62" s="7"/>
-    </row>
-    <row r="63" spans="1:37" ht="14.5" customHeight="1">
+      <c r="AL62" s="7"/>
+    </row>
+    <row r="63" spans="1:38" ht="14.5" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
@@ -8767,12 +9092,12 @@
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8" t="s">
+      <c r="Q63" s="8"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T63" s="9"/>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
@@ -8790,8 +9115,9 @@
       <c r="AI63" s="9"/>
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9"/>
-    </row>
-    <row r="64" spans="1:37">
+      <c r="AL63" s="9"/>
+    </row>
+    <row r="64" spans="1:38">
       <c r="A64" s="6" t="s">
         <v>58</v>
       </c>
@@ -8810,12 +9136,12 @@
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6" t="s">
+      <c r="Q64" s="6"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T64" s="7"/>
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
@@ -8833,8 +9159,9 @@
       <c r="AI64" s="7"/>
       <c r="AJ64" s="7"/>
       <c r="AK64" s="7"/>
-    </row>
-    <row r="65" spans="1:37">
+      <c r="AL64" s="7"/>
+    </row>
+    <row r="65" spans="1:38">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -8853,12 +9180,12 @@
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8" t="s">
+      <c r="Q65" s="8"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T65" s="9"/>
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
@@ -8876,8 +9203,9 @@
       <c r="AI65" s="9"/>
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
-    </row>
-    <row r="66" spans="1:37">
+      <c r="AL65" s="9"/>
+    </row>
+    <row r="66" spans="1:38">
       <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
@@ -8896,12 +9224,12 @@
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6" t="s">
+      <c r="Q66" s="6"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
@@ -8919,8 +9247,9 @@
       <c r="AI66" s="7"/>
       <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
-    </row>
-    <row r="67" spans="1:37">
+      <c r="AL66" s="7"/>
+    </row>
+    <row r="67" spans="1:38">
       <c r="A67" s="8" t="s">
         <v>61</v>
       </c>
@@ -8939,12 +9268,12 @@
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8" t="s">
+      <c r="Q67" s="8"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
@@ -8962,8 +9291,9 @@
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
-    </row>
-    <row r="68" spans="1:37">
+      <c r="AL67" s="9"/>
+    </row>
+    <row r="68" spans="1:38">
       <c r="A68" s="6" t="s">
         <v>62</v>
       </c>
@@ -8982,12 +9312,12 @@
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6" t="s">
+      <c r="Q68" s="6"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T68" s="7"/>
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
@@ -9005,8 +9335,9 @@
       <c r="AI68" s="7"/>
       <c r="AJ68" s="7"/>
       <c r="AK68" s="7"/>
-    </row>
-    <row r="69" spans="1:37">
+      <c r="AL68" s="7"/>
+    </row>
+    <row r="69" spans="1:38">
       <c r="A69" s="8" t="s">
         <v>63</v>
       </c>
@@ -9025,12 +9356,12 @@
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8" t="s">
+      <c r="Q69" s="8"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
@@ -9048,8 +9379,9 @@
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9"/>
-    </row>
-    <row r="70" spans="1:37">
+      <c r="AL69" s="9"/>
+    </row>
+    <row r="70" spans="1:38">
       <c r="A70" s="6" t="s">
         <v>64</v>
       </c>
@@ -9068,12 +9400,12 @@
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6" t="s">
+      <c r="Q70" s="6"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T70" s="7"/>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
@@ -9091,8 +9423,9 @@
       <c r="AI70" s="7"/>
       <c r="AJ70" s="7"/>
       <c r="AK70" s="7"/>
-    </row>
-    <row r="71" spans="1:37">
+      <c r="AL70" s="7"/>
+    </row>
+    <row r="71" spans="1:38">
       <c r="A71" s="8" t="s">
         <v>65</v>
       </c>
@@ -9111,12 +9444,12 @@
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8" t="s">
+      <c r="Q71" s="8"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
@@ -9134,8 +9467,9 @@
       <c r="AI71" s="9"/>
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
-    </row>
-    <row r="72" spans="1:37">
+      <c r="AL71" s="9"/>
+    </row>
+    <row r="72" spans="1:38">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
@@ -9154,12 +9488,12 @@
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6" t="s">
+      <c r="Q72" s="6"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T72" s="7"/>
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
@@ -9177,8 +9511,9 @@
       <c r="AI72" s="7"/>
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
-    </row>
-    <row r="73" spans="1:37">
+      <c r="AL72" s="7"/>
+    </row>
+    <row r="73" spans="1:38">
       <c r="A73" s="8" t="s">
         <v>67</v>
       </c>
@@ -9197,12 +9532,12 @@
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8" t="s">
+      <c r="Q73" s="8"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
@@ -9220,104 +9555,106 @@
       <c r="AI73" s="9"/>
       <c r="AJ73" s="9"/>
       <c r="AK73" s="9"/>
-    </row>
-    <row r="74" spans="1:37">
-      <c r="A74" s="46" t="s">
+      <c r="AL73" s="9"/>
+    </row>
+    <row r="74" spans="1:38">
+      <c r="A74" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="47"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="46" t="s">
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="T74" s="48"/>
-      <c r="U74" s="48"/>
-      <c r="V74" s="48"/>
-      <c r="W74" s="48"/>
-      <c r="X74" s="48"/>
-      <c r="Y74" s="48"/>
-      <c r="Z74" s="48"/>
-      <c r="AA74" s="48"/>
-      <c r="AB74" s="48"/>
-      <c r="AC74" s="48"/>
-      <c r="AD74" s="48"/>
-      <c r="AE74" s="48"/>
-      <c r="AF74" s="48"/>
-      <c r="AG74" s="48"/>
-      <c r="AH74" s="48"/>
-      <c r="AI74" s="48"/>
-      <c r="AJ74" s="48"/>
-      <c r="AK74" s="48"/>
+      <c r="U74" s="45"/>
+      <c r="V74" s="45"/>
+      <c r="W74" s="45"/>
+      <c r="X74" s="45"/>
+      <c r="Y74" s="45"/>
+      <c r="Z74" s="45"/>
+      <c r="AA74" s="45"/>
+      <c r="AB74" s="45"/>
+      <c r="AC74" s="45"/>
+      <c r="AD74" s="45"/>
+      <c r="AE74" s="45"/>
+      <c r="AF74" s="45"/>
+      <c r="AG74" s="45"/>
+      <c r="AH74" s="45"/>
+      <c r="AI74" s="45"/>
+      <c r="AJ74" s="45"/>
+      <c r="AK74" s="45"/>
+      <c r="AL74" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AA37" r:id="rId1" xr:uid="{6C67CDAA-2665-4775-9282-51BF337D6400}"/>
-    <hyperlink ref="Z18" r:id="rId2" xr:uid="{DA6EF610-1C91-4FFC-B33E-FCB1533D420F}"/>
-    <hyperlink ref="AB18" r:id="rId3" location=":~:text=Whilst%20MLCCs%20are%20susceptible%20to,of%202%20years%20or%20less." xr:uid="{FABCDFF4-E4CA-458B-BCEE-0CAD21F7BF23}"/>
-    <hyperlink ref="Z3" r:id="rId4" xr:uid="{058CD847-D57F-4B41-8903-40B77D35105D}"/>
-    <hyperlink ref="Z27" r:id="rId5" display="https://www.sciencedirect.com/science/article/pii/S0263436821000780" xr:uid="{895943B2-F3C7-4D0B-B90F-3A30C24BE91A}"/>
-    <hyperlink ref="Z30" r:id="rId6" xr:uid="{FFFDAB7D-1256-45F7-AFB1-D22344886650}"/>
-    <hyperlink ref="Z42" r:id="rId7" display="https://www.statista.com/statistics/1009446/tungsten-price/" xr:uid="{97F82DFC-6810-4593-8955-863ACBB3DF37}"/>
-    <hyperlink ref="AA5" r:id="rId8" display="https://pubs.usgs.gov/periodicals/mcs2020/mcs2020-tin.pdf" xr:uid="{A3F1EB02-E5A1-49A7-8496-FD8516064D80}"/>
-    <hyperlink ref="AB3" r:id="rId9" xr:uid="{ED5EB351-2DB6-48D4-A8B2-6EB12F62BC77}"/>
-    <hyperlink ref="AB43" r:id="rId10" xr:uid="{846992AD-3ACB-4557-A7FA-7B00720CF198}"/>
-    <hyperlink ref="AB42" r:id="rId11" display="https://www.argusmedia.com/en/news/2222244-eu-tantalum-prices-rebound-on-higher-input-costs" xr:uid="{B03EDC8A-A85B-4AE1-81A1-8460229585D4}"/>
-    <hyperlink ref="AB27" r:id="rId12" xr:uid="{F9134EB4-AF7C-4CC4-BB1D-F4A8A307BE54}"/>
-    <hyperlink ref="AB28" r:id="rId13" xr:uid="{E0E0ACF1-2E42-4611-9CCF-374D8A3492D0}"/>
-    <hyperlink ref="Z43" r:id="rId14" xr:uid="{9E254A45-F310-4AC5-BD1A-6656B4CE3760}"/>
-    <hyperlink ref="AG42" r:id="rId15" xr:uid="{6B03944F-71E5-41D8-B06A-84DE89DA203B}"/>
-    <hyperlink ref="AH33" r:id="rId16" xr:uid="{908B8CEB-0A15-4A26-8D30-F41FB42DECF8}"/>
-    <hyperlink ref="AI19" r:id="rId17" display="https://www.mdpi.com/2079-9276/10/9/93/pdf" xr:uid="{6918E342-8074-47B2-B087-613D5AC7C8D0}"/>
-    <hyperlink ref="AD34" r:id="rId18" display="https://www.copper.org/publications/newsletters/innovations/2001/08/hydrometallurgy.html" xr:uid="{BF4C9410-63BA-47BC-A63D-15337BE7BC5D}"/>
-    <hyperlink ref="AE3" r:id="rId19" location=":~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." display="https://www.globenewswire.com/news-release/2020/04/22/2020156/0/en/Global-Silver-Demand-Edged-Higher-in-2019-With-Investment-Demand-Up-12-While-Silver-Mine-Supply-Fell-for-the-Fourth-Consecutive-Year.html#:~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." xr:uid="{7E3C5FCD-8F51-4490-BBE5-6F141696AF97}"/>
-    <hyperlink ref="AG6" r:id="rId20" xr:uid="{0F67CDD1-7035-DC44-9CA6-CA547F4A120E}"/>
-    <hyperlink ref="AE7" r:id="rId21" xr:uid="{798E403D-86FA-8F4E-A18B-F39FDE87D1E1}"/>
-    <hyperlink ref="AF7" r:id="rId22" xr:uid="{0E247788-8755-934D-922D-DF24A7747C35}"/>
-    <hyperlink ref="AD7" r:id="rId23" display="https://www.sciencedirect.com/science/article/pii/S0921344917301817" xr:uid="{00987C5A-86EF-7449-830B-14136FA25644}"/>
-    <hyperlink ref="AA7" r:id="rId24" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{2FC36872-A372-8149-979C-5C1EB12DAB3C}"/>
-    <hyperlink ref="AA8" r:id="rId25" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{6485F26B-C8ED-7D47-AA92-D1F7CF8E46F1}"/>
-    <hyperlink ref="AA9" r:id="rId26" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{D2CF26CA-B025-4C41-899C-2215D4981909}"/>
-    <hyperlink ref="AA10" r:id="rId27" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{1F472A81-9D59-9340-B578-AD40B57FC5DB}"/>
-    <hyperlink ref="AA11" r:id="rId28" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{6A858768-DF1D-7A42-9B84-D34C269B492D}"/>
-    <hyperlink ref="AG7" r:id="rId29" xr:uid="{BDB1FBCE-8E5B-E446-9521-78DC3859DF64}"/>
-    <hyperlink ref="AG26" r:id="rId30" display="https://www.recyclingtoday.com/article/battery-council-international-lead-battery-recycling/" xr:uid="{EEE1D733-973D-194D-89E1-ED66138A0CA6}"/>
-    <hyperlink ref="AF22" r:id="rId31" xr:uid="{1EBCFBC8-5E0B-3343-B5E4-413BE8F9F076}"/>
-    <hyperlink ref="AD17" r:id="rId32" xr:uid="{5BF8B3C9-6734-4540-AB66-56985B2BD4D4}"/>
-    <hyperlink ref="AD18" r:id="rId33" xr:uid="{3F6D9065-8733-8048-969F-D3F9B2D846FF}"/>
-    <hyperlink ref="AD19" r:id="rId34" xr:uid="{DDC6013A-65C0-C747-8B90-58FABD091EA8}"/>
-    <hyperlink ref="AD20" r:id="rId35" xr:uid="{34C61E79-65B5-784B-91E7-D6EFA72E1C16}"/>
-    <hyperlink ref="AD21" r:id="rId36" xr:uid="{28856D38-242E-DF4D-A9C7-34619BAC263B}"/>
-    <hyperlink ref="AD22" r:id="rId37" xr:uid="{DD334BF5-7CCC-854C-87DB-FD9A495C64E3}"/>
-    <hyperlink ref="AD23" r:id="rId38" xr:uid="{960BA8A2-4FFC-D049-A2D2-78ED92322EB5}"/>
-    <hyperlink ref="AD24" r:id="rId39" xr:uid="{9776F84E-607F-4340-99D2-0CF5831412A8}"/>
-    <hyperlink ref="AD25" r:id="rId40" xr:uid="{E9CAE11E-46BE-D941-AC51-89FBCFAD8F10}"/>
-    <hyperlink ref="AD26" r:id="rId41" xr:uid="{08C1E42C-92E1-A54A-9894-BB1716DCEAAE}"/>
-    <hyperlink ref="AA22" r:id="rId42" xr:uid="{AB2B8C02-763D-B846-8D3A-C52B9C52ECE4}"/>
-    <hyperlink ref="AA23" r:id="rId43" xr:uid="{D83C3CF7-5DCF-3B40-A3CE-426314CA2F28}"/>
-    <hyperlink ref="AA24" r:id="rId44" xr:uid="{3658CDFA-B475-A248-8C69-D9B9ABC6614B}"/>
-    <hyperlink ref="AA25" r:id="rId45" xr:uid="{8080BCC5-66E2-2349-97CE-9A809D50840E}"/>
-    <hyperlink ref="AA26" r:id="rId46" xr:uid="{BBF2DF10-2671-734D-88B6-394D9C60D4A5}"/>
-    <hyperlink ref="AF23" r:id="rId47" xr:uid="{DEC718A9-543E-DA46-97C4-748B0830EED9}"/>
-    <hyperlink ref="AF24" r:id="rId48" xr:uid="{841D0090-CE2C-6B4D-8911-C602FC5CA170}"/>
-    <hyperlink ref="AF25" r:id="rId49" xr:uid="{EF554BD6-D3AF-2A4B-AB8C-E9433478750A}"/>
-    <hyperlink ref="AF26" r:id="rId50" xr:uid="{F7723C52-BBC3-F24E-AAE4-A9B42CB8045B}"/>
-    <hyperlink ref="W38" r:id="rId51" xr:uid="{324D83B3-AFAE-2543-8E69-C10D887EE7AB}"/>
+    <hyperlink ref="AB37" r:id="rId1" xr:uid="{6C67CDAA-2665-4775-9282-51BF337D6400}"/>
+    <hyperlink ref="AA18" r:id="rId2" xr:uid="{DA6EF610-1C91-4FFC-B33E-FCB1533D420F}"/>
+    <hyperlink ref="AC18" r:id="rId3" location=":~:text=Whilst%20MLCCs%20are%20susceptible%20to,of%202%20years%20or%20less." xr:uid="{FABCDFF4-E4CA-458B-BCEE-0CAD21F7BF23}"/>
+    <hyperlink ref="AA3" r:id="rId4" xr:uid="{058CD847-D57F-4B41-8903-40B77D35105D}"/>
+    <hyperlink ref="AA27" r:id="rId5" display="https://www.sciencedirect.com/science/article/pii/S0263436821000780" xr:uid="{895943B2-F3C7-4D0B-B90F-3A30C24BE91A}"/>
+    <hyperlink ref="AA30" r:id="rId6" xr:uid="{FFFDAB7D-1256-45F7-AFB1-D22344886650}"/>
+    <hyperlink ref="AA42" r:id="rId7" display="https://www.statista.com/statistics/1009446/tungsten-price/" xr:uid="{97F82DFC-6810-4593-8955-863ACBB3DF37}"/>
+    <hyperlink ref="AB5" r:id="rId8" display="https://pubs.usgs.gov/periodicals/mcs2020/mcs2020-tin.pdf" xr:uid="{A3F1EB02-E5A1-49A7-8496-FD8516064D80}"/>
+    <hyperlink ref="AC3" r:id="rId9" xr:uid="{ED5EB351-2DB6-48D4-A8B2-6EB12F62BC77}"/>
+    <hyperlink ref="AC43" r:id="rId10" xr:uid="{846992AD-3ACB-4557-A7FA-7B00720CF198}"/>
+    <hyperlink ref="AC42" r:id="rId11" display="https://www.argusmedia.com/en/news/2222244-eu-tantalum-prices-rebound-on-higher-input-costs" xr:uid="{B03EDC8A-A85B-4AE1-81A1-8460229585D4}"/>
+    <hyperlink ref="AC27" r:id="rId12" xr:uid="{F9134EB4-AF7C-4CC4-BB1D-F4A8A307BE54}"/>
+    <hyperlink ref="AC28" r:id="rId13" xr:uid="{E0E0ACF1-2E42-4611-9CCF-374D8A3492D0}"/>
+    <hyperlink ref="AA43" r:id="rId14" xr:uid="{9E254A45-F310-4AC5-BD1A-6656B4CE3760}"/>
+    <hyperlink ref="AH42" r:id="rId15" xr:uid="{6B03944F-71E5-41D8-B06A-84DE89DA203B}"/>
+    <hyperlink ref="AI33" r:id="rId16" xr:uid="{908B8CEB-0A15-4A26-8D30-F41FB42DECF8}"/>
+    <hyperlink ref="AJ19" r:id="rId17" display="https://www.mdpi.com/2079-9276/10/9/93/pdf" xr:uid="{6918E342-8074-47B2-B087-613D5AC7C8D0}"/>
+    <hyperlink ref="AE34" r:id="rId18" display="https://www.copper.org/publications/newsletters/innovations/2001/08/hydrometallurgy.html" xr:uid="{BF4C9410-63BA-47BC-A63D-15337BE7BC5D}"/>
+    <hyperlink ref="AF3" r:id="rId19" location=":~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." display="https://www.globenewswire.com/news-release/2020/04/22/2020156/0/en/Global-Silver-Demand-Edged-Higher-in-2019-With-Investment-Demand-Up-12-While-Silver-Mine-Supply-Fell-for-the-Fourth-Consecutive-Year.html#:~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." xr:uid="{7E3C5FCD-8F51-4490-BBE5-6F141696AF97}"/>
+    <hyperlink ref="AH6" r:id="rId20" xr:uid="{0F67CDD1-7035-DC44-9CA6-CA547F4A120E}"/>
+    <hyperlink ref="AF7" r:id="rId21" xr:uid="{798E403D-86FA-8F4E-A18B-F39FDE87D1E1}"/>
+    <hyperlink ref="AG7" r:id="rId22" xr:uid="{0E247788-8755-934D-922D-DF24A7747C35}"/>
+    <hyperlink ref="AE7" r:id="rId23" display="https://www.sciencedirect.com/science/article/pii/S0921344917301817" xr:uid="{00987C5A-86EF-7449-830B-14136FA25644}"/>
+    <hyperlink ref="AB7" r:id="rId24" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{2FC36872-A372-8149-979C-5C1EB12DAB3C}"/>
+    <hyperlink ref="AB8" r:id="rId25" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{6485F26B-C8ED-7D47-AA92-D1F7CF8E46F1}"/>
+    <hyperlink ref="AB9" r:id="rId26" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{D2CF26CA-B025-4C41-899C-2215D4981909}"/>
+    <hyperlink ref="AB10" r:id="rId27" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{1F472A81-9D59-9340-B578-AD40B57FC5DB}"/>
+    <hyperlink ref="AB11" r:id="rId28" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{6A858768-DF1D-7A42-9B84-D34C269B492D}"/>
+    <hyperlink ref="AH7" r:id="rId29" xr:uid="{BDB1FBCE-8E5B-E446-9521-78DC3859DF64}"/>
+    <hyperlink ref="AH26" r:id="rId30" display="https://www.recyclingtoday.com/article/battery-council-international-lead-battery-recycling/" xr:uid="{EEE1D733-973D-194D-89E1-ED66138A0CA6}"/>
+    <hyperlink ref="AG22" r:id="rId31" xr:uid="{1EBCFBC8-5E0B-3343-B5E4-413BE8F9F076}"/>
+    <hyperlink ref="AE17" r:id="rId32" xr:uid="{5BF8B3C9-6734-4540-AB66-56985B2BD4D4}"/>
+    <hyperlink ref="AE18" r:id="rId33" xr:uid="{3F6D9065-8733-8048-969F-D3F9B2D846FF}"/>
+    <hyperlink ref="AE19" r:id="rId34" xr:uid="{DDC6013A-65C0-C747-8B90-58FABD091EA8}"/>
+    <hyperlink ref="AE20" r:id="rId35" xr:uid="{34C61E79-65B5-784B-91E7-D6EFA72E1C16}"/>
+    <hyperlink ref="AE21" r:id="rId36" xr:uid="{28856D38-242E-DF4D-A9C7-34619BAC263B}"/>
+    <hyperlink ref="AE22" r:id="rId37" xr:uid="{DD334BF5-7CCC-854C-87DB-FD9A495C64E3}"/>
+    <hyperlink ref="AE23" r:id="rId38" xr:uid="{960BA8A2-4FFC-D049-A2D2-78ED92322EB5}"/>
+    <hyperlink ref="AE24" r:id="rId39" xr:uid="{9776F84E-607F-4340-99D2-0CF5831412A8}"/>
+    <hyperlink ref="AE25" r:id="rId40" xr:uid="{E9CAE11E-46BE-D941-AC51-89FBCFAD8F10}"/>
+    <hyperlink ref="AE26" r:id="rId41" xr:uid="{08C1E42C-92E1-A54A-9894-BB1716DCEAAE}"/>
+    <hyperlink ref="AB22" r:id="rId42" xr:uid="{AB2B8C02-763D-B846-8D3A-C52B9C52ECE4}"/>
+    <hyperlink ref="AB23" r:id="rId43" xr:uid="{D83C3CF7-5DCF-3B40-A3CE-426314CA2F28}"/>
+    <hyperlink ref="AB24" r:id="rId44" xr:uid="{3658CDFA-B475-A248-8C69-D9B9ABC6614B}"/>
+    <hyperlink ref="AB25" r:id="rId45" xr:uid="{8080BCC5-66E2-2349-97CE-9A809D50840E}"/>
+    <hyperlink ref="AB26" r:id="rId46" xr:uid="{BBF2DF10-2671-734D-88B6-394D9C60D4A5}"/>
+    <hyperlink ref="AG26" r:id="rId47" xr:uid="{F7723C52-BBC3-F24E-AAE4-A9B42CB8045B}"/>
+    <hyperlink ref="X38" r:id="rId48" xr:uid="{324D83B3-AFAE-2543-8E69-C10D887EE7AB}"/>
+    <hyperlink ref="AG23" r:id="rId49" xr:uid="{DEC718A9-543E-DA46-97C4-748B0830EED9}"/>
+    <hyperlink ref="AG24" r:id="rId50" xr:uid="{841D0090-CE2C-6B4D-8911-C602FC5CA170}"/>
+    <hyperlink ref="AG25" r:id="rId51" xr:uid="{EF554BD6-D3AF-2A4B-AB8C-E9433478750A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId52"/>
@@ -9344,30 +9681,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9807,30 +10144,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9852,7 +10189,7 @@
       <c r="D4">
         <v>8806.5939999999991</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="39">
         <v>2773.9087386823398</v>
       </c>
     </row>
@@ -9866,7 +10203,7 @@
       <c r="D5">
         <v>9103.3119999999999</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="39">
         <v>2928.8230456715701</v>
       </c>
     </row>
@@ -9880,7 +10217,7 @@
       <c r="D6">
         <v>8968.4140000000007</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="39">
         <v>2839.615578167</v>
       </c>
     </row>
@@ -9894,7 +10231,7 @@
       <c r="D7">
         <v>9567.0429999999997</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <v>2772.58314615476</v>
       </c>
     </row>
@@ -9908,7 +10245,7 @@
       <c r="D8">
         <v>9699.4989999999998</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>2883.1146514796301</v>
       </c>
     </row>
@@ -9922,7 +10259,7 @@
       <c r="D9">
         <v>10116.144</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="39">
         <v>3237.7352006186102</v>
       </c>
     </row>
@@ -9936,7 +10273,7 @@
       <c r="D10">
         <v>10526.22</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="39">
         <v>3592.3557497575903</v>
       </c>
     </row>
@@ -9950,7 +10287,7 @@
       <c r="D11">
         <v>11224.59</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="39">
         <v>3946.9762988965699</v>
       </c>
     </row>
@@ -9964,7 +10301,7 @@
       <c r="D12">
         <v>11993.606</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="39">
         <v>4124.0656413781198</v>
       </c>
     </row>
@@ -9978,7 +10315,7 @@
       <c r="D13">
         <v>11641.802</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="39">
         <v>4234.58078136315</v>
       </c>
     </row>
@@ -9992,7 +10329,7 @@
       <c r="D14">
         <v>12488.805</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="39">
         <v>4034.3835790179996</v>
       </c>
     </row>
@@ -10006,7 +10343,7 @@
       <c r="D15">
         <v>12525.08</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="39">
         <v>4033.9417148421398</v>
       </c>
     </row>
@@ -10020,7 +10357,7 @@
       <c r="D16">
         <v>13440.331</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="39">
         <v>4055.6912514984501</v>
       </c>
     </row>
@@ -10034,7 +10371,7 @@
       <c r="D17">
         <v>13617.076999999999</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="39">
         <v>4410.3118006374398</v>
       </c>
     </row>
@@ -10048,7 +10385,7 @@
       <c r="D18">
         <v>13629.556</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="39">
         <v>4676.1831117875499</v>
       </c>
     </row>
@@ -10062,7 +10399,7 @@
       <c r="D19">
         <v>13413.387000000001</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="39">
         <v>4897.6552559334596</v>
       </c>
     </row>
@@ -10076,7 +10413,7 @@
       <c r="D20">
         <v>12532.841</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="39">
         <v>5052.5531975828408</v>
       </c>
     </row>
@@ -10090,7 +10427,7 @@
       <c r="D21">
         <v>11925.4</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="39">
         <v>5296.2167425609305</v>
       </c>
     </row>
@@ -10104,7 +10441,7 @@
       <c r="D22">
         <v>12227.674999999999</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="39">
         <v>5673.0286925320897</v>
       </c>
     </row>
@@ -10118,7 +10455,7 @@
       <c r="D23">
         <v>12483.251</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="39">
         <v>6205.1804483284905</v>
       </c>
     </row>
@@ -10132,7 +10469,7 @@
       <c r="D24">
         <v>11530.290999999999</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="39">
         <v>6226.8972543050995</v>
       </c>
     </row>
@@ -10156,39 +10493,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10198,7 +10535,7 @@
       <c r="B3">
         <v>5403</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="39">
         <v>2290</v>
       </c>
     </row>
@@ -10209,7 +10546,7 @@
       <c r="B4">
         <v>5255</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="39">
         <v>2276</v>
       </c>
     </row>
@@ -10220,7 +10557,7 @@
       <c r="B5">
         <v>5279</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="39">
         <v>2468</v>
       </c>
     </row>
@@ -10231,7 +10568,7 @@
       <c r="B6">
         <v>5224</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="39">
         <v>2811</v>
       </c>
     </row>
@@ -10242,7 +10579,7 @@
       <c r="B7">
         <v>5486</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <v>2773</v>
       </c>
     </row>
@@ -10253,7 +10590,7 @@
       <c r="B8">
         <v>5870</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>3022</v>
       </c>
     </row>
@@ -10264,7 +10601,7 @@
       <c r="B9">
         <v>5975</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="39">
         <v>2841</v>
       </c>
     </row>
@@ -10275,7 +10612,7 @@
       <c r="B10">
         <v>6053</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="39">
         <v>3006</v>
       </c>
     </row>
@@ -10286,7 +10623,7 @@
       <c r="B11">
         <v>6067</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="39">
         <v>3032</v>
       </c>
     </row>
@@ -10300,7 +10637,7 @@
       <c r="D12">
         <v>3026.49</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="39">
         <v>3322</v>
       </c>
     </row>
@@ -10314,7 +10651,7 @@
       <c r="D13">
         <v>3051.6840000000002</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="39">
         <v>3596</v>
       </c>
     </row>
@@ -10328,7 +10665,7 @@
       <c r="D14">
         <v>3099.54</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="39">
         <v>3584</v>
       </c>
     </row>
@@ -10342,7 +10679,7 @@
       <c r="D15">
         <v>2866.3180000000002</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="39">
         <v>3846</v>
       </c>
     </row>
@@ -10356,7 +10693,7 @@
       <c r="D16">
         <v>3186.7950000000001</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="39">
         <v>3649</v>
       </c>
     </row>
@@ -10370,7 +10707,7 @@
       <c r="D17">
         <v>3194.8409999999999</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="39">
         <v>3746</v>
       </c>
     </row>
@@ -10384,7 +10721,7 @@
       <c r="D18">
         <v>3497.0140000000001</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="39">
         <v>4316.50818139284</v>
       </c>
     </row>
@@ -10392,13 +10729,13 @@
       <c r="A19">
         <v>2006</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="39">
         <v>8042.6223021582719</v>
       </c>
       <c r="D19">
         <v>3582.8589999999999</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="39">
         <v>4854.7482013480203</v>
       </c>
     </row>
@@ -10406,13 +10743,13 @@
       <c r="A20">
         <v>2007</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="39">
         <v>8243.8446043165368</v>
       </c>
       <c r="D20">
         <v>3715.991</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="39">
         <v>5198.2613767341099</v>
       </c>
     </row>
@@ -10420,13 +10757,13 @@
       <c r="A21">
         <v>2008</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="39">
         <v>9064.5039568345273</v>
       </c>
       <c r="D21">
         <v>3819.384</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="39">
         <v>5444.4611366192803</v>
       </c>
     </row>
@@ -10434,13 +10771,13 @@
       <c r="A22">
         <v>2009</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="39">
         <v>9174.295683453227</v>
       </c>
       <c r="D22">
         <v>3888.8389999999999</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="39">
         <v>5812.6119620613499</v>
       </c>
     </row>
@@ -10448,13 +10785,13 @@
       <c r="A23">
         <v>2010</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="39">
         <v>9810.2935251798444</v>
       </c>
       <c r="D23">
         <v>4360.0259999999998</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="39">
         <v>6083.0428684506496</v>
       </c>
     </row>
@@ -10462,13 +10799,13 @@
       <c r="A24">
         <v>2011</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="39">
         <v>10504.199999999899</v>
       </c>
       <c r="D24">
         <v>4771.4889999999996</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="39">
         <v>5963.3187353952198</v>
       </c>
     </row>
@@ -10476,13 +10813,13 @@
       <c r="A25">
         <v>2012</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="39">
         <v>10623.157194244588</v>
       </c>
       <c r="D25">
         <v>5113.1279999999997</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="39">
         <v>6209.4124508755604</v>
       </c>
     </row>
@@ -10490,13 +10827,13 @@
       <c r="A26">
         <v>2013</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="39">
         <v>11329.666187050343</v>
       </c>
       <c r="D26">
         <v>5309.9859999999999</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="39">
         <v>6357.9806620453201</v>
       </c>
     </row>
@@ -10504,13 +10841,13 @@
       <c r="A27">
         <v>2014</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="39">
         <v>11171.206834532331</v>
       </c>
       <c r="D27">
         <v>5320.74</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="39">
         <v>6335.9057517727697</v>
       </c>
     </row>
@@ -10518,13 +10855,13 @@
       <c r="A28">
         <v>2015</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="39">
         <v>11190.713669064722</v>
       </c>
       <c r="D28">
         <v>5038.9870000000001</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="39">
         <v>6581.9287709832197</v>
       </c>
     </row>
@@ -10532,13 +10869,13 @@
       <c r="A29">
         <v>2016</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="39">
         <v>11261.582374100692</v>
       </c>
       <c r="D29">
         <v>4858.1750000000002</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="39">
         <v>7169.52081815783</v>
       </c>
     </row>
@@ -10552,7 +10889,7 @@
       <c r="D30">
         <v>4482.6620000000003</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="39">
         <v>7269.2732549698803</v>
       </c>
     </row>
@@ -10566,7 +10903,7 @@
       <c r="D31">
         <v>4471.6390000000001</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="39">
         <v>7674</v>
       </c>
     </row>
@@ -10580,7 +10917,7 @@
       <c r="D32">
         <v>4818.7460000000001</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="39">
         <v>7599</v>
       </c>
     </row>
@@ -10594,7 +10931,7 @@
       <c r="D33">
         <v>4543.9809999999998</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="39">
         <v>7427</v>
       </c>
     </row>
@@ -10605,7 +10942,7 @@
       <c r="B34">
         <v>12205</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="39">
         <v>7717</v>
       </c>
     </row>
@@ -10626,25 +10963,25 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -10841,25 +11178,25 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -11035,33 +11372,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" t="s">
         <v>184</v>
-      </c>
-      <c r="C1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11409,33 +11746,33 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
-        <v>190</v>
-      </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -11806,42 +12143,42 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
       </c>
-      <c r="E1" t="s">
-        <v>196</v>
-      </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16">
@@ -12392,71 +12729,71 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
       </c>
-      <c r="E1" t="s">
-        <v>196</v>
-      </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L2" t="s">
-        <v>311</v>
-      </c>
-      <c r="M2" s="39"/>
+        <v>305</v>
+      </c>
+      <c r="M2" s="37"/>
       <c r="Q2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="37">
         <v>3.7280000000000002</v>
       </c>
       <c r="C3">
@@ -12471,7 +12808,7 @@
       <c r="F3">
         <v>3.506849315068493</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="37">
         <v>3.7280000000000002</v>
       </c>
       <c r="L3">
@@ -12488,7 +12825,7 @@
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="37">
         <v>3.3620000000000001</v>
       </c>
       <c r="C4">
@@ -12503,13 +12840,13 @@
       <c r="F4">
         <v>3.591549295774648</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="37">
         <v>3.3620000000000001</v>
       </c>
       <c r="L4">
         <v>15261925.167299999</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="37">
         <v>432.68009999999998</v>
       </c>
       <c r="Q4">
@@ -12520,7 +12857,7 @@
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="37">
         <v>3.206</v>
       </c>
       <c r="C5">
@@ -12535,13 +12872,13 @@
       <c r="F5">
         <v>3.628571428571429</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="37">
         <v>3.206</v>
       </c>
       <c r="L5">
         <v>17508670.647999998</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="37">
         <v>496.37599999999998</v>
       </c>
       <c r="Q5">
@@ -12552,7 +12889,7 @@
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="37">
         <v>3.512</v>
       </c>
       <c r="C6">
@@ -12567,13 +12904,13 @@
       <c r="F6">
         <v>3.4571428571428573</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <v>3.512</v>
       </c>
       <c r="L6">
         <v>19169570.399</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="37">
         <v>543.46299999999997</v>
       </c>
       <c r="Q6">
@@ -12584,7 +12921,7 @@
       <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="37">
         <v>3.7450000000000001</v>
       </c>
       <c r="C7">
@@ -12599,13 +12936,13 @@
       <c r="F7">
         <v>3.397260273972603</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="37">
         <v>3.7450000000000001</v>
       </c>
       <c r="L7">
         <v>20163133.2084</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="37">
         <v>571.63080000000002</v>
       </c>
       <c r="Q7">
@@ -12616,7 +12953,7 @@
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="37">
         <v>3.4239999999999999</v>
       </c>
       <c r="C8">
@@ -12631,13 +12968,13 @@
       <c r="F8">
         <v>3.6461538461538461</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="37">
         <v>3.4239999999999999</v>
       </c>
       <c r="L8">
         <v>26549874.226400003</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="37">
         <v>752.69680000000005</v>
       </c>
       <c r="Q8">
@@ -12648,7 +12985,7 @@
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="37">
         <v>3.552</v>
       </c>
       <c r="C9">
@@ -12663,13 +13000,13 @@
       <c r="F9">
         <v>3.5074626865671643</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="37">
         <v>3.552</v>
       </c>
       <c r="L9">
         <v>29720363.140299998</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="37">
         <v>842.58109999999999</v>
       </c>
       <c r="Q9">
@@ -12680,7 +13017,7 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="37">
         <v>3.806</v>
       </c>
       <c r="C10">
@@ -12695,13 +13032,13 @@
       <c r="F10">
         <v>3.7377049180327866</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <v>3.806</v>
       </c>
       <c r="L10">
         <v>35897191.008000001</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="37">
         <v>1017.696</v>
       </c>
       <c r="Q10">
@@ -12712,7 +13049,7 @@
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="37">
         <v>3.6116350000000002</v>
       </c>
       <c r="C11">
@@ -12727,13 +13064,13 @@
       <c r="F11">
         <v>4.2413793103448274</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="37">
         <v>3.6116350000000002</v>
       </c>
       <c r="L11">
         <v>40098416.945999995</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="37">
         <v>1136.8019999999999</v>
       </c>
       <c r="Q11">
@@ -12744,7 +13081,7 @@
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="37">
         <v>4.1711999999999998</v>
       </c>
       <c r="C12">
@@ -12759,13 +13096,13 @@
       <c r="F12">
         <v>4.4255719654124919</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>4.1711999999999998</v>
       </c>
       <c r="L12">
         <v>49760044.376000002</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="37">
         <v>1410.712</v>
       </c>
       <c r="Q12">
@@ -12776,7 +13113,7 @@
       <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="37">
         <v>4.7247000000000003</v>
       </c>
       <c r="C13">
@@ -12791,13 +13128,13 @@
       <c r="F13">
         <v>4.5029682952887597</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="37">
         <v>4.7247000000000003</v>
       </c>
       <c r="L13">
         <v>61920552.217999995</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="37">
         <v>1755.4659999999999</v>
       </c>
       <c r="Q13">
@@ -12808,7 +13145,7 @@
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="37">
         <v>4.6726999999999999</v>
       </c>
       <c r="C14">
@@ -12823,13 +13160,13 @@
       <c r="F14">
         <v>4.5936906516859546</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="37">
         <v>4.6726999999999999</v>
       </c>
       <c r="L14">
         <v>64372413.721000001</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="37">
         <v>1824.9770000000001</v>
       </c>
       <c r="Q14">
@@ -12840,7 +13177,7 @@
       <c r="A15">
         <v>2013</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="37">
         <v>4.5137</v>
       </c>
       <c r="C15">
@@ -12855,13 +13192,13 @@
       <c r="F15">
         <v>4.362030450724502</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="37">
         <v>4.5137</v>
       </c>
       <c r="L15">
         <v>53626494.270999998</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="37">
         <v>1520.327</v>
       </c>
       <c r="Q15">
@@ -12872,7 +13209,7 @@
       <c r="A16">
         <v>2014</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="37">
         <v>4.4260999999999999</v>
       </c>
       <c r="C16">
@@ -12887,13 +13224,13 @@
       <c r="F16">
         <v>4.4000000626595046</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="37">
         <v>4.4260999999999999</v>
       </c>
       <c r="L16">
         <v>47384090.369000003</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="37">
         <v>1343.3530000000001</v>
       </c>
       <c r="Q16">
@@ -12904,7 +13241,7 @@
       <c r="A17">
         <v>2015</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="37">
         <v>4.3685</v>
       </c>
       <c r="C17">
@@ -12919,13 +13256,13 @@
       <c r="F17">
         <v>4.4331016412034785</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="37">
         <v>4.3685</v>
       </c>
       <c r="L17">
         <v>43305191.195</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="37">
         <v>1227.7149999999999</v>
       </c>
       <c r="Q17">
@@ -12936,7 +13273,7 @@
       <c r="A18">
         <v>2016</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="37">
         <v>4.3914</v>
       </c>
       <c r="C18">
@@ -12951,13 +13288,13 @@
       <c r="F18">
         <v>4.749440891158784</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="37">
         <v>4.3914</v>
       </c>
       <c r="L18">
         <v>46124315.173999995</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="37">
         <v>1307.6379999999999</v>
       </c>
       <c r="Q18">
@@ -12968,7 +13305,7 @@
       <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="37">
         <v>4.2782999999999998</v>
       </c>
       <c r="C19">
@@ -12983,13 +13320,13 @@
       <c r="F19">
         <v>4.6801186001524808</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="37">
         <v>4.2782999999999998</v>
       </c>
       <c r="L19">
         <v>45451976.520999998</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="37">
         <v>1288.577</v>
       </c>
       <c r="Q19">
@@ -13000,7 +13337,7 @@
       <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="37">
         <v>4.4542999999999999</v>
       </c>
       <c r="C20">
@@ -13015,13 +13352,13 @@
       <c r="F20">
         <v>4.7853010124660074</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="37">
         <v>4.4542999999999999</v>
       </c>
       <c r="L20">
         <v>44895298.035000004</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="37">
         <v>1272.7950000000001</v>
       </c>
       <c r="Q20">
@@ -13032,7 +13369,7 @@
       <c r="A21">
         <v>2019</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="37">
         <v>4.3593999999999999</v>
       </c>
       <c r="C21">
@@ -13048,7 +13385,7 @@
       <c r="F21">
         <v>4.8718181422894107</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="37">
         <v>4.3593999999999999</v>
       </c>
       <c r="L21">
@@ -13063,67 +13400,67 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="19">
-      <c r="H22" s="38"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="19">
-      <c r="C23" s="40"/>
-      <c r="H23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:17" ht="19">
-      <c r="C24" s="40"/>
-      <c r="H24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:17" ht="19">
-      <c r="C25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="C26" s="40"/>
+      <c r="C26" s="38"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="C27" s="40"/>
+      <c r="C27" s="38"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="C28" s="40"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="C29" s="40"/>
+      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="C30" s="40"/>
+      <c r="C30" s="38"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="C31" s="40"/>
+      <c r="C31" s="38"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="C32" s="40"/>
+      <c r="C32" s="38"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="40"/>
+      <c r="C33" s="38"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="40"/>
+      <c r="C34" s="38"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="40"/>
+      <c r="C35" s="38"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="40"/>
+      <c r="C36" s="38"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="40"/>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="40"/>
+      <c r="C38" s="38"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="40"/>
+      <c r="C39" s="38"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="40"/>
+      <c r="C40" s="38"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="40"/>
+      <c r="C41" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13142,25 +13479,25 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -13336,24 +13673,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -13839,24 +14176,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -14278,7 +14615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70BBC54-9A6A-4436-A684-DF848EF748EA}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -14286,37 +14623,37 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <v>1951</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="39">
         <v>2385.7328498409602</v>
       </c>
     </row>
@@ -14324,7 +14661,7 @@
       <c r="A4">
         <v>1952</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="39">
         <v>2491.7023564716101</v>
       </c>
     </row>
@@ -14332,7 +14669,7 @@
       <c r="A5">
         <v>1953</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="39">
         <v>2565.8650655053102</v>
       </c>
     </row>
@@ -14340,7 +14677,7 @@
       <c r="A6">
         <v>1954</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="39">
         <v>2586.99455908245</v>
       </c>
     </row>
@@ -14348,7 +14685,7 @@
       <c r="A7">
         <v>1955</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="39">
         <v>2639.9402300258098</v>
       </c>
     </row>
@@ -14356,7 +14693,7 @@
       <c r="A8">
         <v>1956</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="39">
         <v>2926.20140839841</v>
       </c>
     </row>
@@ -14364,7 +14701,7 @@
       <c r="A9">
         <v>1957</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="39">
         <v>3212.4719665402799</v>
       </c>
     </row>
@@ -14372,7 +14709,7 @@
       <c r="A10">
         <v>1958</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="39">
         <v>3286.6284223944599</v>
       </c>
     </row>
@@ -14380,7 +14717,7 @@
       <c r="A11">
         <v>1959</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="39">
         <v>3191.10172555186</v>
       </c>
     </row>
@@ -14391,7 +14728,7 @@
       <c r="B12">
         <v>5790.4642289348103</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="39">
         <v>3445.5498531479898</v>
       </c>
     </row>
@@ -14402,7 +14739,7 @@
       <c r="B13">
         <v>6290.0635930047702</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="39">
         <v>3924</v>
       </c>
     </row>
@@ -14413,7 +14750,7 @@
       <c r="B14">
         <v>6288.0635930047702</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="39">
         <v>4081</v>
       </c>
     </row>
@@ -14424,7 +14761,7 @@
       <c r="B15">
         <v>6711.4467408585006</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="39">
         <v>4216</v>
       </c>
     </row>
@@ -14435,7 +14772,7 @@
       <c r="B16">
         <v>7820.1192368839402</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="39">
         <v>4286</v>
       </c>
     </row>
@@ -14446,7 +14783,7 @@
       <c r="B17">
         <v>8056.2750397456202</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="39">
         <v>4443</v>
       </c>
     </row>
@@ -14457,7 +14794,7 @@
       <c r="B18">
         <v>8320.9936406995203</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="39">
         <v>4769</v>
       </c>
     </row>
@@ -14468,7 +14805,7 @@
       <c r="B19">
         <v>7994.6820349761501</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="39">
         <v>4987</v>
       </c>
     </row>
@@ -14479,7 +14816,7 @@
       <c r="B20">
         <v>8462.5866454689894</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="39">
         <v>4743</v>
       </c>
     </row>
@@ -14490,7 +14827,7 @@
       <c r="B21">
         <v>9286.4435612082598</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="39">
         <v>5010</v>
       </c>
     </row>
@@ -14501,7 +14838,7 @@
       <c r="B22">
         <v>9275.1017488076304</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="39">
         <v>5682</v>
       </c>
     </row>
@@ -14512,7 +14849,7 @@
       <c r="B23">
         <v>9350.0540540540496</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="39">
         <v>5900</v>
       </c>
     </row>
@@ -14523,7 +14860,7 @@
       <c r="B24">
         <v>10085.084260731321</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="39">
         <v>5941</v>
       </c>
     </row>
@@ -14534,7 +14871,7 @@
       <c r="B25">
         <v>11162.89348171701</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="39">
         <v>6541</v>
       </c>
     </row>
@@ -14545,7 +14882,7 @@
       <c r="B26">
         <v>10545.29411764705</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="39">
         <v>6915</v>
       </c>
     </row>
@@ -14556,7 +14893,7 @@
       <c r="B27">
         <v>9241.5023847376706</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="39">
         <v>7097</v>
       </c>
     </row>
@@ -14567,7 +14904,7 @@
       <c r="B28">
         <v>10602.593004769471</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="39">
         <v>6735</v>
       </c>
     </row>
@@ -14578,7 +14915,7 @@
       <c r="B29">
         <v>11082.437201907789</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="39">
         <v>7289</v>
       </c>
     </row>
@@ -14589,7 +14926,7 @@
       <c r="B30">
         <v>11727.31796502384</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="39">
         <v>7444</v>
       </c>
     </row>
@@ -14600,7 +14937,7 @@
       <c r="B31">
         <v>12375.82193958664</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="39">
         <v>7306</v>
       </c>
     </row>
@@ -14611,7 +14948,7 @@
       <c r="B32">
         <v>11981.05564387917</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="39">
         <v>7371</v>
       </c>
     </row>
@@ -14622,7 +14959,7 @@
       <c r="B33">
         <v>12119.774244833061</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="39">
         <v>7227</v>
       </c>
     </row>
@@ -14633,7 +14970,7 @@
       <c r="B34">
         <v>11439.761526232111</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="39">
         <v>7721</v>
       </c>
     </row>
@@ -14644,7 +14981,7 @@
       <c r="B35">
         <v>11882.01907790143</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="39">
         <v>7745</v>
       </c>
     </row>
@@ -14655,7 +14992,7 @@
       <c r="B36">
         <v>12559.5707472178</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="39">
         <v>7824</v>
       </c>
     </row>
@@ -14666,7 +15003,7 @@
       <c r="B37">
         <v>12456.18759936407</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="39">
         <v>8135</v>
       </c>
     </row>
@@ -14677,7 +15014,7 @@
       <c r="B38">
         <v>12852.85850556438</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="39">
         <v>8288</v>
       </c>
     </row>
@@ -14688,7 +15025,7 @@
       <c r="B39">
         <v>13189.661367249601</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="39">
         <v>8295</v>
       </c>
     </row>
@@ -14699,7 +15036,7 @@
       <c r="B40">
         <v>13615.535771065181</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="39">
         <v>8620</v>
       </c>
     </row>
@@ -14710,7 +15047,7 @@
       <c r="B41">
         <v>13939.50556438791</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="39">
         <v>8773</v>
       </c>
     </row>
@@ -14721,7 +15058,7 @@
       <c r="B42">
         <v>13874.871224165341</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="39">
         <v>9086</v>
       </c>
     </row>
@@ -14732,7 +15069,7 @@
       <c r="B43">
         <v>13570.94912559618</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="39">
         <v>9227</v>
       </c>
     </row>
@@ -14743,7 +15080,7 @@
       <c r="B44">
         <v>14074.267090620029</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="39">
         <v>9373</v>
       </c>
     </row>
@@ -14754,7 +15091,7 @@
       <c r="B45">
         <v>14152.57233704292</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="39">
         <v>9497</v>
       </c>
     </row>
@@ -14765,7 +15102,7 @@
       <c r="B46">
         <v>15025.818759936399</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="39">
         <v>9571</v>
       </c>
     </row>
@@ -14776,7 +15113,7 @@
       <c r="B47">
         <v>15524.717011128771</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="39">
         <v>9539</v>
       </c>
     </row>
@@ -14787,7 +15124,7 @@
       <c r="B48">
         <v>16298.220985691571</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="39">
         <v>10070</v>
       </c>
     </row>
@@ -14798,7 +15135,7 @@
       <c r="B49">
         <v>17228.263910969792</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="39">
         <v>11084</v>
       </c>
     </row>
@@ -14809,7 +15146,7 @@
       <c r="B50">
         <v>17875.612082670901</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="39">
         <v>11514</v>
       </c>
     </row>
@@ -14820,7 +15157,7 @@
       <c r="B51">
         <v>19129.20031796502</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="39">
         <v>12228</v>
       </c>
     </row>
@@ -14831,7 +15168,7 @@
       <c r="B52">
         <v>20776</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="39">
         <v>12767</v>
       </c>
     </row>
@@ -14842,7 +15179,7 @@
       <c r="B53">
         <v>20067</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="39">
         <v>13199</v>
       </c>
       <c r="E53">
@@ -14856,7 +15193,7 @@
       <c r="B54">
         <v>20292</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="39">
         <v>13636</v>
       </c>
       <c r="E54">
@@ -14870,7 +15207,7 @@
       <c r="B55">
         <v>20703</v>
       </c>
-      <c r="D55" s="41">
+      <c r="D55" s="39">
         <v>13487</v>
       </c>
       <c r="E55">
@@ -14884,7 +15221,7 @@
       <c r="B56">
         <v>22137</v>
       </c>
-      <c r="D56" s="41">
+      <c r="D56" s="39">
         <v>13699</v>
       </c>
       <c r="E56">
@@ -14898,7 +15235,7 @@
       <c r="B57">
         <v>21872</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57" s="39">
         <v>14594</v>
       </c>
       <c r="E57">
@@ -14912,7 +15249,7 @@
       <c r="B58">
         <v>22009</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="39">
         <v>14927</v>
       </c>
       <c r="E58">
@@ -14926,7 +15263,7 @@
       <c r="B59">
         <v>23753</v>
       </c>
-      <c r="D59" s="41">
+      <c r="D59" s="39">
         <v>14983</v>
       </c>
       <c r="E59">
@@ -14940,7 +15277,7 @@
       <c r="B60">
         <v>23145</v>
       </c>
-      <c r="D60" s="41">
+      <c r="D60" s="39">
         <v>15508</v>
       </c>
       <c r="E60">
@@ -14954,7 +15291,7 @@
       <c r="B61">
         <v>23145</v>
       </c>
-      <c r="D61" s="41">
+      <c r="D61" s="39">
         <v>15537</v>
       </c>
       <c r="E61">
@@ -14968,7 +15305,7 @@
       <c r="B62">
         <v>24194.52173168564</v>
       </c>
-      <c r="D62" s="41">
+      <c r="D62" s="39">
         <v>15945</v>
       </c>
       <c r="E62">
@@ -14982,7 +15319,7 @@
       <c r="B63">
         <v>25089.29089953471</v>
       </c>
-      <c r="D63" s="41">
+      <c r="D63" s="39">
         <v>15990</v>
       </c>
       <c r="E63">
@@ -14996,7 +15333,7 @@
       <c r="B64">
         <v>25297.975557049198</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="39">
         <v>15965</v>
       </c>
       <c r="E64">
@@ -15010,7 +15347,7 @@
       <c r="B65">
         <v>26259.767623756532</v>
       </c>
-      <c r="D65" s="41">
+      <c r="D65" s="39">
         <v>16692</v>
       </c>
       <c r="E65">
@@ -15024,7 +15361,7 @@
       <c r="B66">
         <v>27894.831923939641</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="39">
         <v>18190</v>
       </c>
       <c r="E66">
@@ -15038,7 +15375,7 @@
       <c r="B67">
         <v>27978.19375439177</v>
       </c>
-      <c r="D67" s="41">
+      <c r="D67" s="39">
         <v>18426</v>
       </c>
       <c r="E67">
@@ -15052,7 +15389,7 @@
       <c r="B68">
         <v>28520.721798863349</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="39">
         <v>19149</v>
       </c>
       <c r="E68">
@@ -15066,7 +15403,7 @@
       <c r="B69">
         <v>29751.152073732701</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D69" s="39">
         <v>20357</v>
       </c>
       <c r="E69">
@@ -15080,7 +15417,7 @@
       <c r="B70">
         <v>30709.677419354801</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="39">
         <v>20038</v>
       </c>
       <c r="E70">
@@ -15118,30 +15455,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945CB609-705E-A340-B6E3-C31CC35395D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136B49C9-915F-C946-9C7C-630C1E7A66F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="8" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -4023,9 +4023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AL74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL22" sqref="AL22"/>
+      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7118,7 +7118,7 @@
         <v>30613</v>
       </c>
       <c r="L35">
-        <v>2721000</v>
+        <v>3461.4</v>
       </c>
       <c r="M35">
         <v>31968.75</v>
@@ -15243,8 +15243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A510BC-6699-4D7F-A1BA-2D5B6A269B1B}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136B49C9-915F-C946-9C7C-630C1E7A66F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C5F8C-063E-5147-A73B-A3B122D7F66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="8" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="430">
   <si>
     <t>Al</t>
   </si>
@@ -528,12 +528,6 @@
     <t>Highly alloyed: https://www.gold.org/about-gold/about-gold-jewellery, 1% price increase increases recycled supply by 0.6%, page 6: https://www.gold.org/goldhub/research/ups-and-downs-gold-recycling</t>
   </si>
   <si>
-    <t>Cu, Ni, self</t>
-  </si>
-  <si>
-    <t>Sn, self</t>
-  </si>
-  <si>
     <t>World Gold Council https://www.gold.org/goldhub/data/gold-production-by-country</t>
   </si>
   <si>
@@ -1336,6 +1330,51 @@
   </si>
   <si>
     <t>Total minus primary</t>
+  </si>
+  <si>
+    <t>Fit a lognormal distribution such that the min/max would be 0.12-0.2, as described by http://news.chinatungsten.com/en/tungsten-information/95194-ti-12232.html#:~:text=Tungsten%20ore%20grade%20is%20tungsten%20trioxide%20%28WO3%29%20content,ore%2C%20low%20grade%20one%20is%20called%20poor%20ore. Worth noting that grades and prices for tungsten are in WO3 equivalent. Additional concern - highest grade is mentioned to be 1.9%, with many high-grade ores 0.7%. Generally confirmed by https://www.911metallurgist.com/blog/tungsten-metallurgy</t>
+  </si>
+  <si>
+    <t>kt W</t>
+  </si>
+  <si>
+    <t>kt WO3</t>
+  </si>
+  <si>
+    <t>t W</t>
+  </si>
+  <si>
+    <t>https://www.usgs.gov/media/files/tungsten-historical-statistics-data-series-140, using 0.793 W fraction of WO3 to convert from W content to WO3</t>
+  </si>
+  <si>
+    <t>Barruecopardo mine in Spain is ~1.5 kt/yr (https://www.refractorymetal.org/barruecopardo-tungsten-mine/), two different mines claiming to be the largest at 5% of global production (5.285) (https://almonty.com/2020/11/04/construction-of-the-worlds-largest-tungsten-mine-has-begun/#GmediaGallery_35-all-0, https://miningdigital.com/smart-mining/masan-resources-nui-phao-mine-worlds-largest-tungsten-mine), the one claims 30% but I assume they mean 30% of ex-China, dolphin would be 2.92 kt WO3 (https://www.mining-technology.com/projects/dolphin-tungsten-project/, reserve grade 0.73%*400 kt/yr capacity), Drakelands is producing 5 kt concentrate at 65% WO3 so 3.25 kt/yr (https://www.mining-technology.com/projects/hemerdon-ball/), la parilla is 2.5 kt/yr concentrate at 60% WO3 so 1.5 kt WO3 (https://www.mining-technology.com/projects/la-parrilla-tungsten-mine/), Molyhill expected to product 1.24 kt/yr WO3 from 0.31% grade and 400 kt ore/yr (https://www.mining-technology.com/projects/molyhil-tungsten-molybdenum-project-australia/), Sisson will be 5.57 kt APT/yr so 4.95 kt WO3 (https://www.mining-technology.com/projects/sisson-tungsten-molybdenum-project-new-brunswick/, W is 70.4%wt in APT, 79.3%wt of WO3). Values determined by making a distribution from the values reported here and appending a uniform distribution (0,1.5) such that the total sum matched 2019 mine production, then visually fitting a lognromal distribution to the resulting distribution with the same number of data points.</t>
+  </si>
+  <si>
+    <t>61% Cu, rem. Self</t>
+  </si>
+  <si>
+    <t>20% Cu, 13% Au, 35% Pb/Zn, 32% Ag</t>
+  </si>
+  <si>
+    <t>2% Pb, 5% Ni, 0.1% Ag, 92.9% Cu</t>
+  </si>
+  <si>
+    <t>35% Cu, 50% Ni, 15% Co</t>
+  </si>
+  <si>
+    <t>12% Cu, 0.5% Ag, 0.1% Ni, 1% Pb/Zn, 0.32% PGM, 86.08% Au</t>
+  </si>
+  <si>
+    <t>33% Sn, 27% Nb, 40% Ta</t>
+  </si>
+  <si>
+    <t>8% Pb, 77% Cu, 15% Te</t>
+  </si>
+  <si>
+    <t>4% Cu, 2% Au, 3% Ag, 91% Zn</t>
+  </si>
+  <si>
+    <t>Fu et al. 2018. High-resolution insight into material criticality: quantifying risk for byproduct metals, https://onlinelibrary.wiley.com/action/downloadSupplement?doi=10.1111%2Fjiec.12757&amp;file=jiec12757-sup-0001-SuppMat.pdf</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1386,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1440,6 +1479,11 @@
       <name val="Times"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1460,12 +1504,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1474,7 +1533,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1534,6 +1593,10 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4023,9 +4086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AL74"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomLeft" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4056,10 +4119,10 @@
   <sheetData>
     <row r="1" spans="1:38" s="28" customFormat="1" ht="34" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>0</v>
@@ -4107,7 +4170,7 @@
         <v>94</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>95</v>
@@ -4167,7 +4230,7 @@
         <v>108</v>
       </c>
       <c r="AL1" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="14.5" customHeight="1">
@@ -4175,7 +4238,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -4184,10 +4247,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>425</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
+        <v>424</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
@@ -4199,22 +4262,30 @@
         <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>148</v>
+        <v>426</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="P2" s="5" t="s">
+        <v>421</v>
+      </c>
       <c r="Q2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="14"/>
+      <c r="R2" s="14" t="s">
+        <v>427</v>
+      </c>
       <c r="S2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4225,29 +4296,43 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y2" s="6"/>
+        <v>429</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>429</v>
+      </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
+      <c r="AC2" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>429</v>
+      </c>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
+      <c r="AF2" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>429</v>
+      </c>
       <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
+      <c r="AI2" s="6" t="s">
+        <v>429</v>
+      </c>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
+      <c r="AL2" s="6" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="3" spans="1:38" ht="14.5" customHeight="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C3">
         <v>99671</v>
@@ -4301,41 +4386,43 @@
         <v>18</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="7"/>
+      <c r="X3" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC3" s="17" t="s">
         <v>200</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC3" s="17" t="s">
-        <v>202</v>
       </c>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG3" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AH3" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -4345,7 +4432,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -4383,7 +4470,7 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
@@ -4399,7 +4486,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C5">
         <v>0.04</v>
@@ -4450,43 +4537,43 @@
         <v>21</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W5" s="7" t="s">
         <v>132</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="AB5" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG5" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH5" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="AF5" s="7" t="s">
+      <c r="AI5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="AG5" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH5" s="7" t="s">
+      <c r="AJ5" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="AK5" s="7"/>
       <c r="AL5" s="7"/>
@@ -4496,7 +4583,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C6" s="5">
         <v>0.45100000000000001</v>
@@ -4549,49 +4636,49 @@
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>131</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC6" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="AD6" s="6" t="s">
         <v>78</v>
       </c>
       <c r="AE6" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH6" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI6" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AF6" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH6" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="AJ6" s="35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AK6" s="6"/>
       <c r="AL6" s="35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="14.5" customHeight="1">
@@ -4599,7 +4686,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C7">
         <v>0.251</v>
@@ -4654,7 +4741,7 @@
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W7" s="7" t="s">
         <v>131</v>
@@ -4665,38 +4752,38 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AD7" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AF7" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AG7" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH7" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AJ7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AK7" s="7"/>
       <c r="AL7" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="14.5" customHeight="1">
@@ -4704,7 +4791,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C8" s="5">
         <v>0.11899999999999999</v>
@@ -4759,7 +4846,7 @@
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>131</v>
@@ -4770,13 +4857,13 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AD8" s="6" t="s">
         <v>78</v>
@@ -4786,7 +4873,7 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
@@ -4797,7 +4884,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C9">
         <v>0.11899999999999999</v>
@@ -4851,7 +4938,7 @@
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W9" s="7" t="s">
         <v>131</v>
@@ -4862,25 +4949,25 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AD9" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
@@ -4891,7 +4978,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C10" s="5">
         <f>1-C11-C7-C9-C8</f>
@@ -4951,7 +5038,7 @@
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>131</v>
@@ -4962,25 +5049,25 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AD10" s="6" t="s">
         <v>78</v>
       </c>
       <c r="AE10" s="6"/>
       <c r="AF10" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
@@ -4991,7 +5078,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C11">
         <v>0.27300000000000002</v>
@@ -5045,7 +5132,7 @@
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W11" s="7" t="s">
         <v>131</v>
@@ -5057,22 +5144,22 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AD11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
@@ -5083,7 +5170,7 @@
         <v>96</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C12" s="5">
         <v>0.9</v>
@@ -5143,41 +5230,41 @@
         <v>129</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AD12" s="6" t="s">
         <v>106</v>
       </c>
       <c r="AE12" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG12" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="AF12" s="6" t="s">
+      <c r="AH12" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="AG12" s="6" t="s">
+      <c r="AI12" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AH12" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI12" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="AJ12" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AK12" s="6"/>
       <c r="AL12" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="14.5" customHeight="1">
@@ -5185,7 +5272,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C13">
         <v>0.95</v>
@@ -5243,7 +5330,7 @@
         <v>129</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
@@ -5254,20 +5341,20 @@
         <v>106</v>
       </c>
       <c r="AE13" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AF13" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="14.5" customHeight="1">
@@ -5275,7 +5362,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C14" s="5">
         <v>0.9</v>
@@ -5335,7 +5422,7 @@
         <v>129</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
@@ -5353,7 +5440,7 @@
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
       <c r="AL14" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="14.5" customHeight="1">
@@ -5361,7 +5448,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C15">
         <v>0.95</v>
@@ -5442,7 +5529,7 @@
         <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C16" s="5">
         <v>0.9</v>
@@ -5518,7 +5605,7 @@
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="14.5" customHeight="1">
@@ -5526,7 +5613,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -5585,37 +5672,37 @@
         <v>129</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AD17" s="7" t="s">
         <v>106</v>
       </c>
       <c r="AE17" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AH17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="AI17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="AJ17" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
@@ -5625,7 +5712,7 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C18" s="5">
         <v>25</v>
@@ -5685,37 +5772,37 @@
         <v>129</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC18" s="19" t="s">
         <v>258</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>260</v>
       </c>
       <c r="AD18" s="6" t="s">
         <v>106</v>
       </c>
       <c r="AE18" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF18" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
@@ -5725,7 +5812,7 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -5784,7 +5871,7 @@
         <v>129</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
@@ -5795,22 +5882,22 @@
         <v>106</v>
       </c>
       <c r="AE19" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG19" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AH19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="AI19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
@@ -5820,7 +5907,7 @@
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C20" s="5">
         <v>15</v>
@@ -5874,12 +5961,12 @@
         <v>129</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
@@ -5887,16 +5974,16 @@
         <v>106</v>
       </c>
       <c r="AE20" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF20" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
@@ -5908,7 +5995,7 @@
         <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -5967,34 +6054,34 @@
         <v>129</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD21" s="7" t="s">
         <v>106</v>
       </c>
       <c r="AE21" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF21" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG21" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AH21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI21" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ21" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="AI21" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="AJ21" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
@@ -6004,7 +6091,7 @@
         <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C22" s="5">
         <v>0.64749999999999996</v>
@@ -6050,32 +6137,32 @@
       </c>
       <c r="U22" s="6"/>
       <c r="V22" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AE22" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG22" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
@@ -6087,7 +6174,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C23">
         <v>0.72899999999999998</v>
@@ -6128,32 +6215,32 @@
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AE23" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG23" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
@@ -6164,7 +6251,7 @@
         <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C24" s="5">
         <v>0.76690000000000003</v>
@@ -6210,32 +6297,32 @@
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W24" s="6"/>
       <c r="X24" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Y24" s="6"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG24" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
@@ -6247,7 +6334,7 @@
         <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C25">
         <v>0.46850000000000003</v>
@@ -6288,31 +6375,31 @@
       </c>
       <c r="U25" s="7"/>
       <c r="V25" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Y25" s="7"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AD25" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AE25" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG25" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
@@ -6323,7 +6410,7 @@
         <v>138</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C26" s="5">
         <v>0.75</v>
@@ -6369,31 +6456,31 @@
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Y26" s="6"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AE26" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG26" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
@@ -6405,7 +6492,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C27">
         <v>0.34250000000000003</v>
@@ -6457,7 +6544,7 @@
         <v>71</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W27" s="7" t="s">
         <v>128</v>
@@ -6468,23 +6555,23 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AB27" s="7"/>
       <c r="AC27" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AD27" s="7" t="s">
         <v>77</v>
       </c>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
@@ -6495,7 +6582,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C28" s="5">
         <v>0.24399999999999999</v>
@@ -6547,7 +6634,7 @@
       </c>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W28" s="6" t="s">
         <v>127</v>
@@ -6558,25 +6645,25 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AD28" s="6" t="s">
         <v>77</v>
       </c>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -6587,7 +6674,7 @@
         <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6671,7 +6758,7 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C30" s="5">
         <v>0.57769999999999999</v>
@@ -6721,18 +6808,18 @@
       </c>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W30" s="6" t="s">
         <v>131</v>
       </c>
       <c r="X30" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
@@ -6740,13 +6827,13 @@
         <v>77</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
@@ -6757,7 +6844,7 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -6813,7 +6900,7 @@
         <v>130</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
@@ -6825,7 +6912,7 @@
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
@@ -6839,7 +6926,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -6897,7 +6984,7 @@
         <v>130</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
@@ -6909,12 +6996,12 @@
       </c>
       <c r="AE32" s="6"/>
       <c r="AF32" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
@@ -6925,7 +7012,7 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -6985,24 +7072,24 @@
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AD33" s="7" t="s">
         <v>77</v>
       </c>
       <c r="AE33" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="14.5" customHeight="1">
@@ -7010,7 +7097,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C34" s="5">
         <v>0</v>
@@ -7075,11 +7162,11 @@
         <v>77</v>
       </c>
       <c r="AE34" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AF34" s="6"/>
       <c r="AG34" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
@@ -7092,7 +7179,7 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C35">
         <f>64866+33789</f>
@@ -7143,24 +7230,24 @@
       </c>
       <c r="U35" s="7"/>
       <c r="V35" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W35" s="7" t="s">
         <v>131</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC35" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="AB35" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC35" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="AD35" s="7" t="s">
         <v>91</v>
@@ -7168,11 +7255,11 @@
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AH35" s="7"/>
       <c r="AI35" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
@@ -7180,10 +7267,10 @@
     </row>
     <row r="36" spans="1:38" ht="14.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C36" s="5">
         <v>0.5</v>
@@ -7252,7 +7339,7 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
@@ -7263,7 +7350,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C37">
         <v>64866</v>
@@ -7317,20 +7404,20 @@
         <v>92</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y37" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AB37" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AC37" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
@@ -7339,7 +7426,7 @@
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AK37" s="7"/>
       <c r="AL37" s="7"/>
@@ -7349,7 +7436,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C38" s="5">
         <f>2353/5.1</f>
@@ -7363,7 +7450,9 @@
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="5"/>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
       <c r="I38" s="5">
         <v>4.5032618547779402</v>
       </c>
@@ -7396,7 +7485,7 @@
       </c>
       <c r="U38" s="6"/>
       <c r="V38" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W38" s="6" t="s">
         <v>90</v>
@@ -7406,9 +7495,11 @@
       </c>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
+      <c r="AA38" s="6" t="s">
+        <v>420</v>
+      </c>
       <c r="AB38" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6" t="s">
@@ -7440,7 +7531,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C39">
         <f>0.995^0.5</f>
@@ -7455,6 +7546,9 @@
         <v>1.0582665070765493</v>
       </c>
       <c r="G39" s="8"/>
+      <c r="H39">
+        <v>0.7</v>
+      </c>
       <c r="I39" s="37">
         <v>0.74194119079264453</v>
       </c>
@@ -7492,7 +7586,7 @@
       </c>
       <c r="U39" s="7"/>
       <c r="V39" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="W39" s="7" t="s">
         <v>89</v>
@@ -7502,9 +7596,11 @@
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
+      <c r="AA39" s="6" t="s">
+        <v>420</v>
+      </c>
       <c r="AB39" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7" t="s">
@@ -7536,7 +7632,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C40" s="5">
         <f>39.886/1.93</f>
@@ -7549,7 +7645,9 @@
         <v>2.2100000000000001E-4</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="H40" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I40" s="38">
         <v>1.0968131213886334</v>
       </c>
@@ -7582,7 +7680,7 @@
       </c>
       <c r="U40" s="6"/>
       <c r="V40" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W40" s="6" t="s">
         <v>89</v>
@@ -7592,9 +7690,11 @@
       </c>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
+      <c r="AA40" s="6" t="s">
+        <v>415</v>
+      </c>
       <c r="AB40" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6" t="s">
@@ -7626,7 +7726,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C41">
         <f>0.1332^0.5</f>
@@ -7640,6 +7740,9 @@
         <v>0.95105399999999995</v>
       </c>
       <c r="G41" s="8"/>
+      <c r="H41">
+        <v>0.35</v>
+      </c>
       <c r="I41" s="37">
         <v>0.57791694994750731</v>
       </c>
@@ -7674,10 +7777,10 @@
         <v>34</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="W41" s="7" t="s">
         <v>89</v>
@@ -7687,9 +7790,11 @@
       </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
+      <c r="AA41" s="6" t="s">
+        <v>415</v>
+      </c>
       <c r="AB41" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AC41" s="7"/>
       <c r="AD41" s="7" t="s">
@@ -7721,7 +7826,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C42" s="5">
         <v>1807.7719999999999</v>
@@ -7785,28 +7890,28 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AE42" s="6"/>
       <c r="AF42" s="35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG42" s="6"/>
       <c r="AH42" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
       <c r="AL42" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="14.5" customHeight="1">
@@ -7814,7 +7919,7 @@
         <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C43">
         <v>706</v>
@@ -7863,46 +7968,46 @@
       </c>
       <c r="R43" s="16"/>
       <c r="V43" t="s">
+        <v>164</v>
+      </c>
+      <c r="W43" t="s">
         <v>166</v>
       </c>
-      <c r="W43" t="s">
-        <v>168</v>
-      </c>
       <c r="X43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Y43" t="s">
         <v>126</v>
       </c>
       <c r="AA43" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD43" t="s">
         <v>297</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AE43" t="s">
         <v>298</v>
       </c>
-      <c r="AC43" s="1" t="s">
+      <c r="AF43" t="s">
         <v>332</v>
       </c>
-      <c r="AD43" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>334</v>
-      </c>
       <c r="AG43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AH43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AI43" t="s">
         <v>126</v>
       </c>
       <c r="AJ43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AL43" s="7"/>
     </row>
@@ -7911,7 +8016,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
@@ -7961,7 +8066,7 @@
       </c>
       <c r="U44" s="5"/>
       <c r="V44" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W44" s="6" t="s">
         <v>88</v>
@@ -7972,10 +8077,10 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6" t="s">
@@ -8009,7 +8114,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -8056,7 +8161,7 @@
         <v>34</v>
       </c>
       <c r="V45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W45" s="7" t="s">
         <v>88</v>
@@ -8067,7 +8172,7 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="7"/>
@@ -8102,7 +8207,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C46" s="5">
         <v>0</v>
@@ -8152,7 +8257,7 @@
       </c>
       <c r="U46" s="5"/>
       <c r="V46" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W46" s="6" t="s">
         <v>88</v>
@@ -8196,7 +8301,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -8242,7 +8347,7 @@
         <v>34</v>
       </c>
       <c r="V47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W47" s="7" t="s">
         <v>88</v>
@@ -8286,7 +8391,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C48" s="5">
         <v>0</v>
@@ -8336,7 +8441,7 @@
       </c>
       <c r="U48" s="5"/>
       <c r="V48" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W48" s="6" t="s">
         <v>88</v>
@@ -9395,30 +9500,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9858,30 +9963,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10207,39 +10312,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H2" t="s">
-        <v>325</v>
-      </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10677,25 +10782,25 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -10892,25 +10997,25 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -11086,33 +11191,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" t="s">
         <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
         <v>196</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>197</v>
-      </c>
-      <c r="D2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11460,39 +11565,39 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
         <v>181</v>
       </c>
-      <c r="C2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" t="s">
-        <v>183</v>
-      </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -11939,42 +12044,42 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" t="s">
         <v>186</v>
-      </c>
-      <c r="G2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16">
@@ -12513,8 +12618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12525,64 +12630,64 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" t="s">
         <v>308</v>
       </c>
-      <c r="C2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" t="s">
-        <v>310</v>
-      </c>
       <c r="L2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M2" s="32"/>
       <c r="Q2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13265,188 +13370,615 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4E14CA-A602-4FF7-9D44-04838930B2AC}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="K1" t="s">
+        <v>418</v>
+      </c>
+      <c r="L1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
+        <v>419</v>
+      </c>
+      <c r="J2">
+        <v>1990</v>
+      </c>
+      <c r="K2" s="39">
+        <v>51900</v>
+      </c>
+      <c r="L2">
+        <f>K2/1000</f>
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
+        <v>1990</v>
+      </c>
+      <c r="D3">
+        <f>L2/0.793</f>
+        <v>65.44766708701134</v>
+      </c>
+      <c r="J3">
+        <v>1991</v>
+      </c>
+      <c r="K3" s="39">
+        <v>48200</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L31" si="0">K3/1000</f>
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>1991</v>
+      </c>
+      <c r="D4">
+        <f>L3/0.793</f>
+        <v>60.781841109709966</v>
+      </c>
+      <c r="J4">
+        <v>1992</v>
+      </c>
+      <c r="K4" s="39">
+        <v>42900</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>1992</v>
+      </c>
+      <c r="D5">
+        <f>L4/0.793</f>
+        <v>54.0983606557377</v>
+      </c>
+      <c r="J5">
+        <v>1993</v>
+      </c>
+      <c r="K5" s="39">
+        <v>34300</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>1993</v>
+      </c>
+      <c r="D6">
+        <f>L5/0.793</f>
+        <v>43.253467843631775</v>
+      </c>
+      <c r="J6">
+        <v>1994</v>
+      </c>
+      <c r="K6" s="39">
+        <v>34000</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>1994</v>
+      </c>
+      <c r="D7">
+        <f>L6/0.793</f>
+        <v>42.875157629255988</v>
+      </c>
+      <c r="J7">
+        <v>1995</v>
+      </c>
+      <c r="K7" s="39">
+        <v>38500</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>1995</v>
+      </c>
+      <c r="D8">
+        <f>L7/0.793</f>
+        <v>48.549810844892811</v>
+      </c>
+      <c r="J8">
+        <v>1996</v>
+      </c>
+      <c r="K8" s="39">
+        <v>34700</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>1996</v>
+      </c>
+      <c r="D9">
+        <f>L8/0.793</f>
+        <v>43.757881462799496</v>
+      </c>
+      <c r="J9">
+        <v>1997</v>
+      </c>
+      <c r="K9" s="39">
+        <v>33200</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>1997</v>
+      </c>
+      <c r="D10">
+        <f>L9/0.793</f>
+        <v>41.86633039092056</v>
+      </c>
+      <c r="J10">
+        <v>1998</v>
+      </c>
+      <c r="K10" s="39">
+        <v>37000</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>1998</v>
+      </c>
+      <c r="D11">
+        <f>L10/0.793</f>
+        <v>46.658259773013867</v>
+      </c>
+      <c r="J11">
+        <v>1999</v>
+      </c>
+      <c r="K11" s="39">
+        <v>37700</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>1999</v>
+      </c>
+      <c r="D12">
+        <f>L11/0.793</f>
+        <v>47.540983606557376</v>
+      </c>
+      <c r="J12">
+        <v>2000</v>
+      </c>
+      <c r="K12" s="39">
+        <v>44000</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16">
+      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13">
+        <f>L12/0.793</f>
+        <v>55.485498108448922</v>
+      </c>
+      <c r="J13">
         <v>2001</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3">
-        <v>35.143000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="K13" s="40">
+        <v>50800</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>2001</v>
+      </c>
+      <c r="D14">
+        <f>L13/0.793</f>
+        <v>64.060529634300124</v>
+      </c>
+      <c r="J14">
         <v>2002</v>
       </c>
-      <c r="D4">
-        <v>45.418999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="K14" s="40">
+        <v>47000</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>2002</v>
+      </c>
+      <c r="D15">
+        <f>L14/0.793</f>
+        <v>59.268600252206809</v>
+      </c>
+      <c r="J15">
         <v>2003</v>
       </c>
-      <c r="D5">
-        <v>48.030999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="K15" s="40">
+        <v>47200</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>2003</v>
+      </c>
+      <c r="D16">
+        <f>L15/0.793</f>
+        <v>59.52080706179067</v>
+      </c>
+      <c r="J16">
         <v>2004</v>
       </c>
-      <c r="D6">
-        <v>66.912000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="K16" s="40">
+        <v>66300</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="D17">
+        <f>L16/0.793</f>
+        <v>83.606557377049171</v>
+      </c>
+      <c r="J17">
         <v>2005</v>
       </c>
-      <c r="D7">
-        <v>60.619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="K17" s="40">
+        <v>59500</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>2005</v>
+      </c>
+      <c r="D18">
+        <f>L17/0.793</f>
+        <v>75.031525851197983</v>
+      </c>
+      <c r="J18">
         <v>2006</v>
       </c>
-      <c r="D8">
-        <v>60.347000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="K18" s="40">
+        <v>56600</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>2006</v>
+      </c>
+      <c r="D19">
+        <f>L18/0.793</f>
+        <v>71.37452711223203</v>
+      </c>
+      <c r="J19">
         <v>2007</v>
       </c>
-      <c r="D9">
-        <v>58.36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="K19" s="40">
+        <v>53600</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>2007</v>
+      </c>
+      <c r="D20">
+        <f>L19/0.793</f>
+        <v>67.591424968474143</v>
+      </c>
+      <c r="J20">
         <v>2008</v>
       </c>
-      <c r="D10">
-        <v>66.736999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="K20" s="40">
+        <v>61900</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="D21">
+        <f>L20/0.793</f>
+        <v>78.058007566204282</v>
+      </c>
+      <c r="J21">
         <v>2009</v>
       </c>
-      <c r="D11">
-        <v>63.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="K21" s="40">
+        <v>61200</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>2009</v>
+      </c>
+      <c r="D22">
+        <f>L21/0.793</f>
+        <v>77.175283732660787</v>
+      </c>
+      <c r="J22">
         <v>2010</v>
       </c>
-      <c r="D12">
-        <v>63.418999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="K22" s="40">
+        <v>68400</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="D23">
+        <f>L22/0.793</f>
+        <v>86.254728877679696</v>
+      </c>
+      <c r="J23">
         <v>2011</v>
       </c>
-      <c r="D13">
-        <v>73.025000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="K23" s="40">
+        <v>73900</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>2011</v>
+      </c>
+      <c r="D24">
+        <f>L23/0.793</f>
+        <v>93.190416141235815</v>
+      </c>
+      <c r="J24">
         <v>2012</v>
       </c>
-      <c r="D14">
-        <v>74.018000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="K24" s="40">
+        <v>77700</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>2012</v>
+      </c>
+      <c r="D25">
+        <f>L24/0.793</f>
+        <v>97.98234552332913</v>
+      </c>
+      <c r="J25">
         <v>2013</v>
       </c>
-      <c r="D15">
-        <v>76.650999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="K25" s="40">
+        <v>79400</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>2013</v>
+      </c>
+      <c r="D26">
+        <f>L25/0.793</f>
+        <v>100.12610340479193</v>
+      </c>
+      <c r="J26">
         <v>2014</v>
       </c>
-      <c r="D16">
-        <v>80.634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="K26" s="40">
+        <v>82100</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>2014</v>
+      </c>
+      <c r="D27">
+        <f>L26/0.793</f>
+        <v>103.53089533417401</v>
+      </c>
+      <c r="J27">
         <v>2015</v>
       </c>
-      <c r="D17">
-        <v>83.010999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+      <c r="K27" s="40">
+        <v>83700</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>2015</v>
+      </c>
+      <c r="D28">
+        <f>L27/0.793</f>
+        <v>105.54854981084489</v>
+      </c>
+      <c r="J28">
         <v>2016</v>
       </c>
-      <c r="D18">
-        <v>80.393000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="K28" s="40">
+        <v>78400</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>2016</v>
+      </c>
+      <c r="D29">
+        <f>L28/0.793</f>
+        <v>98.865069356872638</v>
+      </c>
+      <c r="J29">
         <v>2017</v>
       </c>
-      <c r="D19">
-        <v>83.572999999999993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+      <c r="K29" s="40">
+        <v>81400</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="D30">
+        <f>L29/0.793</f>
+        <v>102.64817150063053</v>
+      </c>
+      <c r="J30">
         <v>2018</v>
       </c>
-      <c r="D20">
-        <v>81.186999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+      <c r="K30" s="40">
+        <v>82200</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>2018</v>
+      </c>
+      <c r="D31">
+        <f>L30/0.793</f>
+        <v>103.65699873896595</v>
+      </c>
+      <c r="J31">
         <v>2019</v>
       </c>
-      <c r="D21">
-        <v>90.4</v>
+      <c r="K31" s="40">
+        <v>83800</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>2019</v>
+      </c>
+      <c r="D32">
+        <f>L31/0.793</f>
+        <v>105.67465321563681</v>
       </c>
     </row>
   </sheetData>
@@ -13469,24 +14001,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -13972,24 +14504,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -14419,30 +14951,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -15243,7 +15775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A510BC-6699-4D7F-A1BA-2D5B6A269B1B}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -15251,30 +15783,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C5F8C-063E-5147-A73B-A3B122D7F66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8388C87-F2D9-2549-8645-3FC9BCF80B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="3" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="435">
   <si>
     <t>Al</t>
   </si>
@@ -1047,9 +1047,6 @@
     <t>International Zinc Association Publication: Zinc Recycling 2050 Demand and Supply, https://www.zinc.org/wp-content/uploads/sites/24/2022/03/2050-Demand-Supply_VF_3_22.pdf, figure 3</t>
   </si>
   <si>
-    <t>International Zinc Association Publication: Zinc Recycling 2050 Demand and Supply, https://www.zinc.org/wp-content/uploads/sites/24/2022/03/2050-Demand-Supply_VF_3_22.pdf, figure 4</t>
-  </si>
-  <si>
     <t>1990-2005: http://large.stanford.edu/publications/power/references/docs/ILZSG.pdf (page 35, has data back to the 1970s), 2017-2021: https://www.ilzsg.org/static/statistics.aspx?from=1, 2005-2016: used page 21 of https://gdb-online.org/www.blei-online.org/wp-content/uploads/2021/10/ILZSG-Lead-Factbook.pdf, asserted alignment between this data and previously existing data by assuming a linear change in the ratio between the original data and this data for years where there was overlap, and multiplying this data by this ratio to maximize continuity</t>
   </si>
   <si>
@@ -1212,9 +1209,6 @@
     <t xml:space="preserve">Fraction of global scrap consumption that first undergoes a refining process to remove impurities (the remainder being directly remelted/blended with primary to reach target composition). Currently not a very relevant metric since we don't have the composition-based model integrated. </t>
   </si>
   <si>
-    <t>Fraction of global mine production coming from SX-EW process, or any other process that produces the refined product directly (e.g. lithium brines)</t>
-  </si>
-  <si>
     <t>Fraction of China's mine production coming from SX-EW process, or any other process that produces the refined product directly (e.g. lithium brines)</t>
   </si>
   <si>
@@ -1375,6 +1369,27 @@
   </si>
   <si>
     <t>Fu et al. 2018. High-resolution insight into material criticality: quantifying risk for byproduct metals, https://onlinelibrary.wiley.com/action/downloadSupplement?doi=10.1111%2Fjiec.12757&amp;file=jiec12757-sup-0001-SuppMat.pdf</t>
+  </si>
+  <si>
+    <t>New scrap from end use production</t>
+  </si>
+  <si>
+    <t>New scrap from first use production</t>
+  </si>
+  <si>
+    <t>Old scrap</t>
+  </si>
+  <si>
+    <t>International Zinc Association Publication: Zinc Recycling 2050 Demand and Supply, https://www.zinc.org/wp-content/uploads/sites/24/2022/03/2050-Demand-Supply_VF_3_22.pdf, figure 6</t>
+  </si>
+  <si>
+    <t>International Zinc Association Publication: Zinc Recycling 2050 Demand and Supply, https://www.zinc.org/wp-content/uploads/sites/24/2022/03/2050-Demand-Supply_VF_3_22.pdf, figure 4, using old scrap only due to massive supply-demand imbalance otherwise</t>
+  </si>
+  <si>
+    <t>sum of primary supply and scrap demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of global mine production coming from SX-EW process, or any other process that produces the refined product directly rather than having it pass through a refinery (e.g. lithium brines) </t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1548,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1597,6 +1612,7 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4086,9 +4102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AL74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4119,10 +4135,10 @@
   <sheetData>
     <row r="1" spans="1:38" s="28" customFormat="1" ht="34" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>0</v>
@@ -4238,7 +4254,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -4247,10 +4263,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
@@ -4262,29 +4278,29 @@
         <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>10</v>
@@ -4296,35 +4312,35 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
       <c r="AL2" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="14.5" customHeight="1">
@@ -4332,7 +4348,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3">
         <v>99671</v>
@@ -4432,7 +4448,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -4470,7 +4486,7 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
@@ -4486,7 +4502,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C5">
         <v>0.04</v>
@@ -4564,7 +4580,7 @@
         <v>212</v>
       </c>
       <c r="AG5" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH5" s="7" t="s">
         <v>213</v>
@@ -4583,7 +4599,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" s="5">
         <v>0.45100000000000001</v>
@@ -4662,23 +4678,23 @@
         <v>219</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG6" s="6" t="s">
         <v>220</v>
       </c>
       <c r="AH6" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI6" s="6" t="s">
         <v>221</v>
       </c>
       <c r="AJ6" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AK6" s="6"/>
       <c r="AL6" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="14.5" customHeight="1">
@@ -4686,7 +4702,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C7">
         <v>0.251</v>
@@ -4755,7 +4771,7 @@
         <v>222</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC7" s="7" t="s">
         <v>223</v>
@@ -4764,16 +4780,16 @@
         <v>78</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF7" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG7" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="AH7" s="17" t="s">
         <v>343</v>
-      </c>
-      <c r="AG7" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="AH7" s="17" t="s">
-        <v>344</v>
       </c>
       <c r="AI7" s="7" t="s">
         <v>221</v>
@@ -4791,7 +4807,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" s="5">
         <v>0.11899999999999999</v>
@@ -4860,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>227</v>
@@ -4884,7 +4900,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C9">
         <v>0.11899999999999999</v>
@@ -4952,7 +4968,7 @@
         <v>229</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC9" s="7" t="s">
         <v>230</v>
@@ -4962,7 +4978,7 @@
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
@@ -4978,7 +4994,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C10" s="5">
         <f>1-C11-C7-C9-C8</f>
@@ -5052,7 +5068,7 @@
         <v>233</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>234</v>
@@ -5078,7 +5094,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C11">
         <v>0.27300000000000002</v>
@@ -5144,7 +5160,7 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC11" s="7" t="s">
         <v>236</v>
@@ -5170,7 +5186,7 @@
         <v>96</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C12" s="5">
         <v>0.9</v>
@@ -5236,7 +5252,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>239</v>
@@ -5272,7 +5288,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C13">
         <v>0.95</v>
@@ -5362,7 +5378,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C14" s="5">
         <v>0.9</v>
@@ -5448,7 +5464,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C15">
         <v>0.95</v>
@@ -5529,7 +5545,7 @@
         <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C16" s="5">
         <v>0.9</v>
@@ -5613,7 +5629,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -5687,13 +5703,13 @@
         <v>106</v>
       </c>
       <c r="AE17" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH17" s="7" t="s">
         <v>253</v>
@@ -5712,7 +5728,7 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C18" s="5">
         <v>25</v>
@@ -5789,13 +5805,13 @@
         <v>106</v>
       </c>
       <c r="AE18" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF18" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6" t="s">
@@ -5812,7 +5828,7 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -5882,13 +5898,13 @@
         <v>106</v>
       </c>
       <c r="AE19" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG19" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH19" s="7" t="s">
         <v>262</v>
@@ -5907,7 +5923,7 @@
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C20" s="5">
         <v>15</v>
@@ -5974,13 +5990,13 @@
         <v>106</v>
       </c>
       <c r="AE20" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF20" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH20" s="6" t="s">
         <v>259</v>
@@ -5995,7 +6011,7 @@
         <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -6066,13 +6082,13 @@
         <v>106</v>
       </c>
       <c r="AE21" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF21" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG21" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH21" s="7" t="s">
         <v>267</v>
@@ -6091,7 +6107,7 @@
         <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C22" s="5">
         <v>0.64749999999999996</v>
@@ -6141,28 +6157,28 @@
       </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="6" t="s">
         <v>175</v>
       </c>
       <c r="AE22" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG22" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
@@ -6174,7 +6190,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C23">
         <v>0.72899999999999998</v>
@@ -6219,28 +6235,28 @@
       </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7" t="s">
         <v>175</v>
       </c>
       <c r="AE23" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG23" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
@@ -6251,7 +6267,7 @@
         <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C24" s="5">
         <v>0.76690000000000003</v>
@@ -6301,28 +6317,28 @@
       </c>
       <c r="W24" s="6"/>
       <c r="X24" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Y24" s="6"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="6" t="s">
         <v>175</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG24" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
@@ -6334,7 +6350,7 @@
         <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C25">
         <v>0.46850000000000003</v>
@@ -6379,27 +6395,27 @@
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Y25" s="7"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD25" s="7" t="s">
         <v>175</v>
       </c>
       <c r="AE25" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG25" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
@@ -6410,7 +6426,7 @@
         <v>138</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C26" s="5">
         <v>0.75</v>
@@ -6460,27 +6476,27 @@
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Y26" s="6"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD26" s="6" t="s">
         <v>175</v>
       </c>
       <c r="AE26" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG26" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
@@ -6492,7 +6508,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C27">
         <v>0.34250000000000003</v>
@@ -6566,7 +6582,7 @@
       </c>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
@@ -6582,7 +6598,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C28" s="5">
         <v>0.24399999999999999</v>
@@ -6656,7 +6672,7 @@
       </c>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG28" s="6" t="s">
         <v>274</v>
@@ -6674,7 +6690,7 @@
         <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6758,7 +6774,7 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C30" s="5">
         <v>0.57769999999999999</v>
@@ -6844,7 +6860,7 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -6900,7 +6916,7 @@
         <v>130</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
@@ -6912,7 +6928,7 @@
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
@@ -6926,7 +6942,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -6984,7 +7000,7 @@
         <v>130</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
@@ -6996,7 +7012,7 @@
       </c>
       <c r="AE32" s="6"/>
       <c r="AF32" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
@@ -7012,7 +7028,7 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -7078,7 +7094,7 @@
         <v>77</v>
       </c>
       <c r="AE33" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
@@ -7097,7 +7113,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C34" s="5">
         <v>0</v>
@@ -7162,7 +7178,7 @@
         <v>77</v>
       </c>
       <c r="AE34" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF34" s="6"/>
       <c r="AG34" s="6" t="s">
@@ -7179,7 +7195,7 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C35">
         <f>64866+33789</f>
@@ -7211,7 +7227,7 @@
         <v>31968.75</v>
       </c>
       <c r="N35">
-        <v>13518</v>
+        <v>18688</v>
       </c>
       <c r="O35">
         <v>5920</v>
@@ -7270,7 +7286,7 @@
         <v>287</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C36" s="5">
         <v>0.5</v>
@@ -7350,7 +7366,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C37">
         <v>64866</v>
@@ -7436,7 +7452,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C38" s="5">
         <f>2353/5.1</f>
@@ -7496,10 +7512,10 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6" t="s">
@@ -7531,7 +7547,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C39">
         <f>0.995^0.5</f>
@@ -7597,10 +7613,10 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AB39" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7" t="s">
@@ -7632,7 +7648,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C40" s="5">
         <f>39.886/1.93</f>
@@ -7691,10 +7707,10 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6" t="s">
@@ -7726,7 +7742,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C41">
         <f>0.1332^0.5</f>
@@ -7791,10 +7807,10 @@
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC41" s="7"/>
       <c r="AD41" s="7" t="s">
@@ -7826,7 +7842,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C42" s="5">
         <v>1807.7719999999999</v>
@@ -7890,18 +7906,18 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AD42" s="6" t="s">
         <v>292</v>
       </c>
       <c r="AE42" s="6"/>
       <c r="AF42" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG42" s="6"/>
       <c r="AH42" s="19" t="s">
@@ -7919,7 +7935,7 @@
         <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C43">
         <v>706</v>
@@ -7986,7 +8002,7 @@
         <v>296</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AD43" t="s">
         <v>297</v>
@@ -7995,7 +8011,7 @@
         <v>298</v>
       </c>
       <c r="AF43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG43" t="s">
         <v>169</v>
@@ -8016,7 +8032,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
@@ -8080,7 +8096,7 @@
         <v>299</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6" t="s">
@@ -8114,7 +8130,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -8207,7 +8223,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C46" s="5">
         <v>0</v>
@@ -8301,7 +8317,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -8391,7 +8407,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C48" s="5">
         <v>0</v>
@@ -9520,7 +9536,7 @@
         <v>317</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
         <v>318</v>
@@ -9953,15 +9969,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029A80B4-7C9F-4455-863A-277E0A0ADA6C}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>176</v>
       </c>
@@ -9974,322 +9990,611 @@
       <c r="E1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>353</v>
+      <c r="D2" t="s">
+        <v>431</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>432</v>
+      </c>
+      <c r="F2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16">
       <c r="A3">
-        <v>1999</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>10351.0764090917</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3">
-        <v>8084.6930000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
+        <v>9064.9660879579806</v>
+      </c>
+      <c r="E3" s="41">
+        <v>1217.13444065003</v>
+      </c>
+      <c r="F3">
+        <f>SUM(D3:E3)</f>
+        <v>10282.100528608011</v>
+      </c>
+      <c r="G3">
+        <v>1084.37067773167</v>
+      </c>
+      <c r="H3">
+        <v>531.13665201940012</v>
+      </c>
+      <c r="I3">
+        <v>1217.13444065003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B4">
-        <v>10351.0764090917</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>9866.3488428836899</v>
+      </c>
       <c r="D4">
-        <v>8806.5939999999991</v>
-      </c>
-      <c r="E4" s="34">
-        <v>2773.9087386823398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8515.0850818531817</v>
+      </c>
+      <c r="E4" s="41">
+        <v>1363.13866317931</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F23" si="0">SUM(D4:E4)</f>
+        <v>9878.2237450324919</v>
+      </c>
+      <c r="G4">
+        <v>1088.1551750096801</v>
+      </c>
+      <c r="H4">
+        <v>495.78339847111988</v>
+      </c>
+      <c r="I4">
+        <v>1363.13866317931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B5">
-        <v>9866.3488428836899</v>
+        <v>9828.3789110155994</v>
       </c>
       <c r="D5">
-        <v>9103.3119999999999</v>
-      </c>
-      <c r="E5" s="34">
-        <v>2928.8230456715701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>8549.3141680529297</v>
+      </c>
+      <c r="E5" s="41">
+        <v>1372.6107941219304</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>9921.9249621748604</v>
+      </c>
+      <c r="G5">
+        <v>1088.14382226979</v>
+      </c>
+      <c r="H5">
+        <v>455.36001319745992</v>
+      </c>
+      <c r="I5">
+        <v>1372.6107941219304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B6">
-        <v>9828.3789110155994</v>
+        <v>10237.2191670264</v>
       </c>
       <c r="D6">
-        <v>8968.4140000000007</v>
-      </c>
-      <c r="E6" s="34">
-        <v>2839.615578167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>9184.2980566687493</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1207.7818768462103</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>10392.07993351496</v>
+      </c>
+      <c r="G6">
+        <v>1120.4432898624598</v>
+      </c>
+      <c r="H6">
+        <v>525.96424873866022</v>
+      </c>
+      <c r="I6">
+        <v>1207.7818768462103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B7">
-        <v>10237.2191670264</v>
+        <v>11502.3667861634</v>
       </c>
       <c r="D7">
-        <v>9567.0429999999997</v>
-      </c>
-      <c r="E7" s="34">
-        <v>2772.58314615476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>10529.25918084443</v>
+      </c>
+      <c r="E7" s="41">
+        <v>1173.8843040832</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>11703.14348492763</v>
+      </c>
+      <c r="G7">
+        <v>1247.0215308133199</v>
+      </c>
+      <c r="H7">
+        <v>526.17140176358998</v>
+      </c>
+      <c r="I7">
+        <v>1173.8843040832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B8">
-        <v>11502.3667861634</v>
+        <v>12022.857035605</v>
       </c>
       <c r="D8">
-        <v>9699.4989999999998</v>
-      </c>
-      <c r="E8" s="34">
-        <v>2883.1146514796301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>10734.553321672051</v>
+      </c>
+      <c r="E8" s="41">
+        <v>1486.2335877445698</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>12220.78690941662</v>
+      </c>
+      <c r="G8">
+        <v>1256.49920309445</v>
+      </c>
+      <c r="H8">
+        <v>606.85833774315006</v>
+      </c>
+      <c r="I8">
+        <v>1486.2335877445698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B9">
-        <v>12022.857035605</v>
+        <v>12543.399838585501</v>
       </c>
       <c r="D9">
-        <v>10116.144</v>
-      </c>
-      <c r="E9" s="34">
-        <v>3237.7352006186102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>10952.161424540769</v>
+      </c>
+      <c r="E9" s="41">
+        <v>1648.32215914429</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>12600.48358368506</v>
+      </c>
+      <c r="G9">
+        <v>1375.1514826452699</v>
+      </c>
+      <c r="H9">
+        <v>635.74355750189011</v>
+      </c>
+      <c r="I9">
+        <v>1648.32215914429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B10">
-        <v>12543.399838585501</v>
+        <v>13026.787289551199</v>
       </c>
       <c r="D10">
-        <v>10526.22</v>
-      </c>
-      <c r="E10" s="34">
-        <v>3592.3557497575903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>11106.147881979261</v>
+      </c>
+      <c r="E10" s="41">
+        <v>1875.6529264926899</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>12981.800808471951</v>
+      </c>
+      <c r="G10">
+        <v>1406.78260272633</v>
+      </c>
+      <c r="H10">
+        <v>717.37034785262995</v>
+      </c>
+      <c r="I10">
+        <v>1875.6529264926899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B11">
-        <v>13026.787289551199</v>
+        <v>13249.404080406901</v>
       </c>
       <c r="D11">
-        <v>11224.59</v>
-      </c>
-      <c r="E11" s="34">
-        <v>3946.9762988965699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>11202.96788383093</v>
+      </c>
+      <c r="E11" s="41">
+        <v>2054.5098660301696</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>13257.4777498611</v>
+      </c>
+      <c r="G11">
+        <v>1434.6687224143</v>
+      </c>
+      <c r="H11">
+        <v>727.3655381236797</v>
+      </c>
+      <c r="I11">
+        <v>2054.5098660301696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B12">
-        <v>13249.404080406901</v>
+        <v>13025.236960153099</v>
       </c>
       <c r="D12">
-        <v>11993.606</v>
-      </c>
-      <c r="E12" s="34">
-        <v>4124.0656413781198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>11037.335545252092</v>
+      </c>
+      <c r="E12" s="41">
+        <v>2048.3753861983605</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>13085.710931450452</v>
+      </c>
+      <c r="G12">
+        <v>1468.63723859071</v>
+      </c>
+      <c r="H12">
+        <v>699.53150177906969</v>
+      </c>
+      <c r="I12">
+        <v>2048.3753861983605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B13">
-        <v>13025.236960153099</v>
+        <v>13583.0402222264</v>
       </c>
       <c r="D13">
-        <v>11641.802</v>
-      </c>
-      <c r="E13" s="34">
-        <v>4234.58078136315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>11792.35767592063</v>
+      </c>
+      <c r="E13" s="41">
+        <v>1988.2327385452404</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>13780.590414465871</v>
+      </c>
+      <c r="G13">
+        <v>1500.0850794202402</v>
+      </c>
+      <c r="H13">
+        <v>697.26370153173957</v>
+      </c>
+      <c r="I13">
+        <v>1988.2327385452404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B14">
-        <v>13583.0402222264</v>
+        <v>14066.2700125753</v>
       </c>
       <c r="D14">
-        <v>12488.805</v>
-      </c>
-      <c r="E14" s="34">
-        <v>4034.3835790179996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>12297.24689874724</v>
+      </c>
+      <c r="E14" s="41">
+        <v>1802.8929011053401</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>14100.139799852581</v>
+      </c>
+      <c r="G14">
+        <v>1549.3370125010699</v>
+      </c>
+      <c r="H14">
+        <v>758.12897115736018</v>
+      </c>
+      <c r="I14">
+        <v>1802.8929011053401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B15">
-        <v>14066.2700125753</v>
+        <v>14475.0577150472</v>
       </c>
       <c r="D15">
-        <v>12525.08</v>
-      </c>
-      <c r="E15" s="34">
-        <v>4033.9417148421398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>12668.752100066707</v>
+      </c>
+      <c r="E15" s="41">
+        <v>1688.2287914846302</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>14356.980891551339</v>
+      </c>
+      <c r="G15">
+        <v>1613.36949214588</v>
+      </c>
+      <c r="H15">
+        <v>853.02062879577988</v>
+      </c>
+      <c r="I15">
+        <v>1688.2287914846302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B16">
-        <v>14475.0577150472</v>
+        <v>14809.429606411501</v>
       </c>
       <c r="D16">
-        <v>13440.331</v>
-      </c>
-      <c r="E16" s="34">
-        <v>4055.6912514984501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>12807.815407677399</v>
+      </c>
+      <c r="E16" s="41">
+        <v>1885.3140730854702</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>14693.129480762869</v>
+      </c>
+      <c r="G16">
+        <v>1716.36272388476</v>
+      </c>
+      <c r="H16">
+        <v>818.40521996699977</v>
+      </c>
+      <c r="I16">
+        <v>1885.3140730854702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B17">
-        <v>14809.429606411501</v>
+        <v>15255.504044745499</v>
       </c>
       <c r="D17">
-        <v>13617.076999999999</v>
-      </c>
-      <c r="E17" s="34">
-        <v>4410.3118006374398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>13084.447286886709</v>
+      </c>
+      <c r="E17" s="41">
+        <v>2086.6991979336003</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>15171.146484820309</v>
+      </c>
+      <c r="G17">
+        <v>1810.0214765443402</v>
+      </c>
+      <c r="H17">
+        <v>846.18777229597981</v>
+      </c>
+      <c r="I17">
+        <v>2086.6991979336003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B18">
-        <v>15255.504044745499</v>
+        <v>15664.3705775258</v>
       </c>
       <c r="D18">
-        <v>13629.556</v>
-      </c>
-      <c r="E18" s="34">
-        <v>4676.1831117875499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>13466.31015537981</v>
+      </c>
+      <c r="E18" s="41">
+        <v>2166.0997359217708</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>15632.409891301581</v>
+      </c>
+      <c r="G18">
+        <v>1891.68627690427</v>
+      </c>
+      <c r="H18">
+        <v>901.8606834443699</v>
+      </c>
+      <c r="I18">
+        <v>2166.0997359217708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B19">
-        <v>15664.3705775258</v>
+        <v>16073.184556767199</v>
       </c>
       <c r="D19">
-        <v>13413.387000000001</v>
-      </c>
-      <c r="E19" s="34">
-        <v>4897.6552559334596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>13696.618894692318</v>
+      </c>
+      <c r="E19" s="41">
+        <v>2190.7136000776104</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>15887.332494769928</v>
+      </c>
+      <c r="G19">
+        <v>1981.17985470184</v>
+      </c>
+      <c r="H19">
+        <v>933.73368360592963</v>
+      </c>
+      <c r="I19">
+        <v>2190.7136000776104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B20">
-        <v>16073.184556767199</v>
+        <v>16593.7273597477</v>
       </c>
       <c r="D20">
-        <v>12532.841</v>
-      </c>
-      <c r="E20" s="34">
-        <v>5052.5531975828408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>14227.602753560419</v>
+      </c>
+      <c r="E20" s="41">
+        <v>2307.7224017317999</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>16535.325155292219</v>
+      </c>
+      <c r="G20">
+        <v>2076.1859349558904</v>
+      </c>
+      <c r="H20">
+        <v>996.01449944829983</v>
+      </c>
+      <c r="I20">
+        <v>2307.7224017317999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B21">
-        <v>16593.7273597477</v>
+        <v>17077.0097036355</v>
       </c>
       <c r="D21">
-        <v>11925.4</v>
-      </c>
-      <c r="E21" s="34">
-        <v>5296.2167425609305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>14359.859362913799</v>
+      </c>
+      <c r="E21" s="41">
+        <v>2623.0190449618299</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>16982.878407875629</v>
+      </c>
+      <c r="G21">
+        <v>2132.6410884745101</v>
+      </c>
+      <c r="H21">
+        <v>973.68397371952005</v>
+      </c>
+      <c r="I21">
+        <v>2623.0190449618299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B22">
-        <v>17077.0097036355</v>
+        <v>17448.642054092597</v>
       </c>
       <c r="D22">
-        <v>12227.674999999999</v>
-      </c>
-      <c r="E22" s="34">
-        <v>5673.0286925320897</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>14240.812392276797</v>
+      </c>
+      <c r="E22" s="41">
+        <v>3026.2637033371398</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>17267.076095613938</v>
+      </c>
+      <c r="G22">
+        <v>2180.83759065291</v>
+      </c>
+      <c r="H22">
+        <v>1013.37382187708</v>
+      </c>
+      <c r="I22">
+        <v>3026.2637033371398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B23">
-        <v>17448.642054092597</v>
+        <v>16889.367292929597</v>
       </c>
       <c r="D23">
-        <v>12483.251</v>
-      </c>
-      <c r="E23" s="34">
-        <v>6205.1804483284905</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>2020</v>
-      </c>
-      <c r="B24">
-        <v>16889.367292929597</v>
-      </c>
-      <c r="D24">
-        <v>11530.290999999999</v>
-      </c>
-      <c r="E24" s="34">
-        <v>6226.8972543050995</v>
+        <v>13427.328141662838</v>
+      </c>
+      <c r="E23" s="41">
+        <v>3290.9978690417297</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>16718.326010704568</v>
+      </c>
+      <c r="G23">
+        <v>1960.72575347719</v>
+      </c>
+      <c r="H23">
+        <v>1026.1148186739704</v>
+      </c>
+      <c r="I23">
+        <v>3290.9978690417297</v>
       </c>
     </row>
   </sheetData>
@@ -10329,22 +10634,22 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I2" t="s">
         <v>183</v>
       </c>
       <c r="J2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10800,7 +11105,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -11015,7 +11320,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -11597,7 +11902,7 @@
         <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -12618,7 +12923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -13392,13 +13697,13 @@
         <v>188</v>
       </c>
       <c r="K1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13407,7 +13712,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J2">
         <v>1990</v>
@@ -13425,7 +13730,7 @@
         <v>1990</v>
       </c>
       <c r="D3">
-        <f>L2/0.793</f>
+        <f t="shared" ref="D3:D32" si="0">L2/0.793</f>
         <v>65.44766708701134</v>
       </c>
       <c r="J3">
@@ -13435,7 +13740,7 @@
         <v>48200</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L31" si="0">K3/1000</f>
+        <f t="shared" ref="L3:L31" si="1">K3/1000</f>
         <v>48.2</v>
       </c>
     </row>
@@ -13444,7 +13749,7 @@
         <v>1991</v>
       </c>
       <c r="D4">
-        <f>L3/0.793</f>
+        <f t="shared" si="0"/>
         <v>60.781841109709966</v>
       </c>
       <c r="J4">
@@ -13454,7 +13759,7 @@
         <v>42900</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.9</v>
       </c>
     </row>
@@ -13463,7 +13768,7 @@
         <v>1992</v>
       </c>
       <c r="D5">
-        <f>L4/0.793</f>
+        <f t="shared" si="0"/>
         <v>54.0983606557377</v>
       </c>
       <c r="J5">
@@ -13473,7 +13778,7 @@
         <v>34300</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.299999999999997</v>
       </c>
     </row>
@@ -13482,7 +13787,7 @@
         <v>1993</v>
       </c>
       <c r="D6">
-        <f>L5/0.793</f>
+        <f t="shared" si="0"/>
         <v>43.253467843631775</v>
       </c>
       <c r="J6">
@@ -13492,7 +13797,7 @@
         <v>34000</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
@@ -13501,7 +13806,7 @@
         <v>1994</v>
       </c>
       <c r="D7">
-        <f>L6/0.793</f>
+        <f t="shared" si="0"/>
         <v>42.875157629255988</v>
       </c>
       <c r="J7">
@@ -13511,7 +13816,7 @@
         <v>38500</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
     </row>
@@ -13520,7 +13825,7 @@
         <v>1995</v>
       </c>
       <c r="D8">
-        <f>L7/0.793</f>
+        <f t="shared" si="0"/>
         <v>48.549810844892811</v>
       </c>
       <c r="J8">
@@ -13530,7 +13835,7 @@
         <v>34700</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.700000000000003</v>
       </c>
     </row>
@@ -13539,7 +13844,7 @@
         <v>1996</v>
       </c>
       <c r="D9">
-        <f>L8/0.793</f>
+        <f t="shared" si="0"/>
         <v>43.757881462799496</v>
       </c>
       <c r="J9">
@@ -13549,7 +13854,7 @@
         <v>33200</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.200000000000003</v>
       </c>
     </row>
@@ -13558,7 +13863,7 @@
         <v>1997</v>
       </c>
       <c r="D10">
-        <f>L9/0.793</f>
+        <f t="shared" si="0"/>
         <v>41.86633039092056</v>
       </c>
       <c r="J10">
@@ -13568,7 +13873,7 @@
         <v>37000</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -13577,7 +13882,7 @@
         <v>1998</v>
       </c>
       <c r="D11">
-        <f>L10/0.793</f>
+        <f t="shared" si="0"/>
         <v>46.658259773013867</v>
       </c>
       <c r="J11">
@@ -13587,7 +13892,7 @@
         <v>37700</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.700000000000003</v>
       </c>
     </row>
@@ -13596,7 +13901,7 @@
         <v>1999</v>
       </c>
       <c r="D12">
-        <f>L11/0.793</f>
+        <f t="shared" si="0"/>
         <v>47.540983606557376</v>
       </c>
       <c r="J12">
@@ -13606,7 +13911,7 @@
         <v>44000</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
@@ -13616,7 +13921,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13">
-        <f>L12/0.793</f>
+        <f t="shared" si="0"/>
         <v>55.485498108448922</v>
       </c>
       <c r="J13">
@@ -13626,7 +13931,7 @@
         <v>50800</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.8</v>
       </c>
     </row>
@@ -13635,7 +13940,7 @@
         <v>2001</v>
       </c>
       <c r="D14">
-        <f>L13/0.793</f>
+        <f t="shared" si="0"/>
         <v>64.060529634300124</v>
       </c>
       <c r="J14">
@@ -13645,7 +13950,7 @@
         <v>47000</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -13654,7 +13959,7 @@
         <v>2002</v>
       </c>
       <c r="D15">
-        <f>L14/0.793</f>
+        <f t="shared" si="0"/>
         <v>59.268600252206809</v>
       </c>
       <c r="J15">
@@ -13664,7 +13969,7 @@
         <v>47200</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.2</v>
       </c>
     </row>
@@ -13673,7 +13978,7 @@
         <v>2003</v>
       </c>
       <c r="D16">
-        <f>L15/0.793</f>
+        <f t="shared" si="0"/>
         <v>59.52080706179067</v>
       </c>
       <c r="J16">
@@ -13683,7 +13988,7 @@
         <v>66300</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.3</v>
       </c>
     </row>
@@ -13692,7 +13997,7 @@
         <v>2004</v>
       </c>
       <c r="D17">
-        <f>L16/0.793</f>
+        <f t="shared" si="0"/>
         <v>83.606557377049171</v>
       </c>
       <c r="J17">
@@ -13702,7 +14007,7 @@
         <v>59500</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.5</v>
       </c>
     </row>
@@ -13711,7 +14016,7 @@
         <v>2005</v>
       </c>
       <c r="D18">
-        <f>L17/0.793</f>
+        <f t="shared" si="0"/>
         <v>75.031525851197983</v>
       </c>
       <c r="J18">
@@ -13721,7 +14026,7 @@
         <v>56600</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.6</v>
       </c>
     </row>
@@ -13730,7 +14035,7 @@
         <v>2006</v>
       </c>
       <c r="D19">
-        <f>L18/0.793</f>
+        <f t="shared" si="0"/>
         <v>71.37452711223203</v>
       </c>
       <c r="J19">
@@ -13740,7 +14045,7 @@
         <v>53600</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53.6</v>
       </c>
     </row>
@@ -13749,7 +14054,7 @@
         <v>2007</v>
       </c>
       <c r="D20">
-        <f>L19/0.793</f>
+        <f t="shared" si="0"/>
         <v>67.591424968474143</v>
       </c>
       <c r="J20">
@@ -13759,7 +14064,7 @@
         <v>61900</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.9</v>
       </c>
     </row>
@@ -13768,7 +14073,7 @@
         <v>2008</v>
       </c>
       <c r="D21">
-        <f>L20/0.793</f>
+        <f t="shared" si="0"/>
         <v>78.058007566204282</v>
       </c>
       <c r="J21">
@@ -13778,7 +14083,7 @@
         <v>61200</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.2</v>
       </c>
     </row>
@@ -13787,7 +14092,7 @@
         <v>2009</v>
       </c>
       <c r="D22">
-        <f>L21/0.793</f>
+        <f t="shared" si="0"/>
         <v>77.175283732660787</v>
       </c>
       <c r="J22">
@@ -13797,7 +14102,7 @@
         <v>68400</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68.400000000000006</v>
       </c>
     </row>
@@ -13806,7 +14111,7 @@
         <v>2010</v>
       </c>
       <c r="D23">
-        <f>L22/0.793</f>
+        <f t="shared" si="0"/>
         <v>86.254728877679696</v>
       </c>
       <c r="J23">
@@ -13816,7 +14121,7 @@
         <v>73900</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.900000000000006</v>
       </c>
     </row>
@@ -13825,7 +14130,7 @@
         <v>2011</v>
       </c>
       <c r="D24">
-        <f>L23/0.793</f>
+        <f t="shared" si="0"/>
         <v>93.190416141235815</v>
       </c>
       <c r="J24">
@@ -13835,7 +14140,7 @@
         <v>77700</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77.7</v>
       </c>
     </row>
@@ -13844,7 +14149,7 @@
         <v>2012</v>
       </c>
       <c r="D25">
-        <f>L24/0.793</f>
+        <f t="shared" si="0"/>
         <v>97.98234552332913</v>
       </c>
       <c r="J25">
@@ -13854,7 +14159,7 @@
         <v>79400</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79.400000000000006</v>
       </c>
     </row>
@@ -13863,7 +14168,7 @@
         <v>2013</v>
       </c>
       <c r="D26">
-        <f>L25/0.793</f>
+        <f t="shared" si="0"/>
         <v>100.12610340479193</v>
       </c>
       <c r="J26">
@@ -13873,7 +14178,7 @@
         <v>82100</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82.1</v>
       </c>
     </row>
@@ -13882,7 +14187,7 @@
         <v>2014</v>
       </c>
       <c r="D27">
-        <f>L26/0.793</f>
+        <f t="shared" si="0"/>
         <v>103.53089533417401</v>
       </c>
       <c r="J27">
@@ -13892,7 +14197,7 @@
         <v>83700</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.7</v>
       </c>
     </row>
@@ -13901,7 +14206,7 @@
         <v>2015</v>
       </c>
       <c r="D28">
-        <f>L27/0.793</f>
+        <f t="shared" si="0"/>
         <v>105.54854981084489</v>
       </c>
       <c r="J28">
@@ -13911,7 +14216,7 @@
         <v>78400</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78.400000000000006</v>
       </c>
     </row>
@@ -13920,7 +14225,7 @@
         <v>2016</v>
       </c>
       <c r="D29">
-        <f>L28/0.793</f>
+        <f t="shared" si="0"/>
         <v>98.865069356872638</v>
       </c>
       <c r="J29">
@@ -13930,7 +14235,7 @@
         <v>81400</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81.400000000000006</v>
       </c>
     </row>
@@ -13939,7 +14244,7 @@
         <v>2017</v>
       </c>
       <c r="D30">
-        <f>L29/0.793</f>
+        <f t="shared" si="0"/>
         <v>102.64817150063053</v>
       </c>
       <c r="J30">
@@ -13949,7 +14254,7 @@
         <v>82200</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82.2</v>
       </c>
     </row>
@@ -13958,7 +14263,7 @@
         <v>2018</v>
       </c>
       <c r="D31">
-        <f>L30/0.793</f>
+        <f t="shared" si="0"/>
         <v>103.65699873896595</v>
       </c>
       <c r="J31">
@@ -13968,7 +14273,7 @@
         <v>83800</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.8</v>
       </c>
     </row>
@@ -13977,7 +14282,7 @@
         <v>2019</v>
       </c>
       <c r="D32">
-        <f>L31/0.793</f>
+        <f t="shared" si="0"/>
         <v>105.67465321563681</v>
       </c>
     </row>
@@ -15803,7 +16108,7 @@
         <v>314</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>314</v>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8388C87-F2D9-2549-8645-3FC9BCF80B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82985BEA-1269-834D-BE9A-65C172417B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="437">
   <si>
     <t>Al</t>
   </si>
@@ -630,9 +630,6 @@
     <t>Primary commodity price</t>
   </si>
   <si>
-    <t>baseline_scenario.xlsx for aluminum, sheet smelter_prod</t>
-  </si>
-  <si>
     <t>Primary supply</t>
   </si>
   <si>
@@ -1390,6 +1387,15 @@
   </si>
   <si>
     <t xml:space="preserve">Fraction of global mine production coming from SX-EW process, or any other process that produces the refined product directly rather than having it pass through a refinery (e.g. lithium brines) </t>
+  </si>
+  <si>
+    <t>baseline_scenario.xlsx for aluminum, sheet smelter_prod (trying to account for bauxite/alumina used for things other than aluminum)</t>
+  </si>
+  <si>
+    <t>Primary supply (BGS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Silver Institute, World Silver Surveys, taking the most recent  value reported in the surveys from 2005-2022, https://www.silverinstitute.org/all-world-silver-surveys/. </t>
   </si>
 </sst>
 </file>
@@ -3680,13 +3686,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -4103,8 +4109,8 @@
   <dimension ref="A1:AL74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4135,10 +4141,10 @@
   <sheetData>
     <row r="1" spans="1:38" s="28" customFormat="1" ht="34" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>0</v>
@@ -4186,7 +4192,7 @@
         <v>94</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>95</v>
@@ -4246,7 +4252,7 @@
         <v>108</v>
       </c>
       <c r="AL1" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="14.5" customHeight="1">
@@ -4254,7 +4260,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -4263,10 +4269,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
@@ -4278,29 +4284,29 @@
         <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>10</v>
@@ -4312,35 +4318,35 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
       <c r="AL2" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="14.5" customHeight="1">
@@ -4348,10 +4354,10 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C3">
-        <v>99671</v>
+        <v>85768.388145129153</v>
       </c>
       <c r="D3">
         <v>1767000</v>
@@ -4368,14 +4374,14 @@
       <c r="J3">
         <v>2.4049999999999998</v>
       </c>
-      <c r="K3" s="15">
-        <v>23600</v>
+      <c r="K3">
+        <v>30046.0829493087</v>
       </c>
       <c r="L3">
         <v>3226.8622280817385</v>
       </c>
       <c r="M3">
-        <v>26.7</v>
+        <v>26.704941782475718</v>
       </c>
       <c r="N3">
         <v>17448.642054092597</v>
@@ -4413,32 +4419,32 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="AC3" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF3" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AG3" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -4448,7 +4454,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -4486,7 +4492,7 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
@@ -4502,7 +4508,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C5">
         <v>0.04</v>
@@ -4553,43 +4559,43 @@
         <v>21</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W5" s="7" t="s">
         <v>132</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB5" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AC5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF5" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="AF5" s="7" t="s">
+      <c r="AG5" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH5" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="AG5" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH5" s="7" t="s">
+      <c r="AI5" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="AI5" s="7" t="s">
+      <c r="AJ5" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="AK5" s="7"/>
       <c r="AL5" s="7"/>
@@ -4599,7 +4605,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C6" s="5">
         <v>0.45100000000000001</v>
@@ -4663,38 +4669,38 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB6" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AC6" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="AD6" s="6" t="s">
         <v>78</v>
       </c>
       <c r="AE6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG6" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="AF6" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AH6" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI6" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="AH6" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="AJ6" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AK6" s="6"/>
       <c r="AL6" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="14.5" customHeight="1">
@@ -4702,7 +4708,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C7">
         <v>0.251</v>
@@ -4768,38 +4774,38 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AC7" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="AD7" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF7" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG7" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH7" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="AG7" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="AH7" s="17" t="s">
-        <v>343</v>
-      </c>
       <c r="AI7" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AJ7" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK7" s="7"/>
       <c r="AL7" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="14.5" customHeight="1">
@@ -4807,7 +4813,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C8" s="5">
         <v>0.11899999999999999</v>
@@ -4873,13 +4879,13 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC8" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="AD8" s="6" t="s">
         <v>78</v>
@@ -4889,7 +4895,7 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
@@ -4900,7 +4906,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C9">
         <v>0.11899999999999999</v>
@@ -4965,25 +4971,25 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC9" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AC9" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="AD9" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
@@ -4994,7 +5000,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C10" s="5">
         <f>1-C11-C7-C9-C8</f>
@@ -5065,25 +5071,25 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC10" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="AD10" s="6" t="s">
         <v>78</v>
       </c>
       <c r="AE10" s="6"/>
       <c r="AF10" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
@@ -5094,7 +5100,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C11">
         <v>0.27300000000000002</v>
@@ -5160,22 +5166,22 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AD11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
@@ -5186,7 +5192,7 @@
         <v>96</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C12" s="5">
         <v>0.9</v>
@@ -5252,35 +5258,35 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AD12" s="6" t="s">
         <v>106</v>
       </c>
       <c r="AE12" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF12" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="6" t="s">
+      <c r="AG12" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AG12" s="6" t="s">
+      <c r="AH12" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="AH12" s="6" t="s">
+      <c r="AI12" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="AI12" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="AJ12" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK12" s="6"/>
       <c r="AL12" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="14.5" customHeight="1">
@@ -5288,7 +5294,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C13">
         <v>0.95</v>
@@ -5357,20 +5363,20 @@
         <v>106</v>
       </c>
       <c r="AE13" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF13" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="14.5" customHeight="1">
@@ -5378,7 +5384,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C14" s="5">
         <v>0.9</v>
@@ -5456,7 +5462,7 @@
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
       <c r="AL14" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="14.5" customHeight="1">
@@ -5464,7 +5470,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C15">
         <v>0.95</v>
@@ -5545,7 +5551,7 @@
         <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16" s="5">
         <v>0.9</v>
@@ -5621,7 +5627,7 @@
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="14.5" customHeight="1">
@@ -5629,7 +5635,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -5694,31 +5700,31 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="AC17" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="AD17" s="7" t="s">
         <v>106</v>
       </c>
       <c r="AE17" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI17" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AI17" s="7" t="s">
+      <c r="AJ17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="AJ17" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
@@ -5728,7 +5734,7 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C18" s="5">
         <v>25</v>
@@ -5793,32 +5799,32 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB18" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="AB18" s="6" t="s">
+      <c r="AC18" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="AD18" s="6" t="s">
         <v>106</v>
       </c>
       <c r="AE18" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF18" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
@@ -5828,7 +5834,7 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -5898,22 +5904,22 @@
         <v>106</v>
       </c>
       <c r="AE19" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG19" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI19" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="AI19" s="7" t="s">
+      <c r="AJ19" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
@@ -5923,7 +5929,7 @@
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C20" s="5">
         <v>15</v>
@@ -5982,7 +5988,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
@@ -5990,16 +5996,16 @@
         <v>106</v>
       </c>
       <c r="AE20" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF20" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
@@ -6011,7 +6017,7 @@
         <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -6076,28 +6082,28 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD21" s="7" t="s">
         <v>106</v>
       </c>
       <c r="AE21" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF21" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG21" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI21" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="AI21" s="7" t="s">
+      <c r="AJ21" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="AJ21" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
@@ -6107,7 +6113,7 @@
         <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C22" s="5">
         <v>0.64749999999999996</v>
@@ -6157,28 +6163,28 @@
       </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="6" t="s">
         <v>175</v>
       </c>
       <c r="AE22" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG22" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
@@ -6190,7 +6196,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C23">
         <v>0.72899999999999998</v>
@@ -6235,28 +6241,28 @@
       </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7" t="s">
         <v>175</v>
       </c>
       <c r="AE23" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG23" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
@@ -6267,7 +6273,7 @@
         <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C24" s="5">
         <v>0.76690000000000003</v>
@@ -6317,28 +6323,28 @@
       </c>
       <c r="W24" s="6"/>
       <c r="X24" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Y24" s="6"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="6" t="s">
         <v>175</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG24" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
@@ -6350,7 +6356,7 @@
         <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C25">
         <v>0.46850000000000003</v>
@@ -6395,27 +6401,27 @@
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Y25" s="7"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AD25" s="7" t="s">
         <v>175</v>
       </c>
       <c r="AE25" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG25" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
@@ -6426,7 +6432,7 @@
         <v>138</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C26" s="5">
         <v>0.75</v>
@@ -6476,27 +6482,27 @@
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y26" s="6"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AD26" s="6" t="s">
         <v>175</v>
       </c>
       <c r="AE26" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG26" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
@@ -6508,7 +6514,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C27">
         <v>0.34250000000000003</v>
@@ -6571,23 +6577,23 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB27" s="7"/>
       <c r="AC27" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD27" s="7" t="s">
         <v>77</v>
       </c>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
@@ -6598,7 +6604,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C28" s="5">
         <v>0.24399999999999999</v>
@@ -6661,25 +6667,25 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD28" s="6" t="s">
         <v>77</v>
       </c>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -6690,7 +6696,7 @@
         <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6774,7 +6780,7 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C30" s="5">
         <v>0.57769999999999999</v>
@@ -6835,7 +6841,7 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
@@ -6843,13 +6849,13 @@
         <v>77</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
@@ -6860,7 +6866,7 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -6916,7 +6922,7 @@
         <v>130</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
@@ -6928,7 +6934,7 @@
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
@@ -6942,7 +6948,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -7000,7 +7006,7 @@
         <v>130</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
@@ -7012,12 +7018,12 @@
       </c>
       <c r="AE32" s="6"/>
       <c r="AF32" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
@@ -7028,7 +7034,7 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -7088,24 +7094,24 @@
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AD33" s="7" t="s">
         <v>77</v>
       </c>
       <c r="AE33" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="14.5" customHeight="1">
@@ -7113,7 +7119,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C34" s="5">
         <v>0</v>
@@ -7178,11 +7184,11 @@
         <v>77</v>
       </c>
       <c r="AE34" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF34" s="6"/>
       <c r="AG34" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
@@ -7195,11 +7201,10 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C35">
-        <f>64866+33789</f>
-        <v>98655</v>
+        <v>88603.1</v>
       </c>
       <c r="D35">
         <v>1869000</v>
@@ -7212,25 +7217,26 @@
         <v>108.5</v>
       </c>
       <c r="I35">
-        <v>307</v>
+        <f>I37/(1-I27)</f>
+        <v>321.92849740932644</v>
       </c>
       <c r="J35">
         <v>2.8</v>
       </c>
       <c r="K35">
-        <v>30613</v>
+        <v>30158.48</v>
       </c>
       <c r="L35">
         <v>3461.4</v>
       </c>
       <c r="M35">
-        <v>31968.75</v>
+        <v>28.271999999999998</v>
       </c>
       <c r="N35">
-        <v>18688</v>
+        <v>17267.080000000002</v>
       </c>
       <c r="O35">
-        <v>5920</v>
+        <v>12417.745999999999</v>
       </c>
       <c r="P35">
         <v>260997</v>
@@ -7257,13 +7263,13 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB35" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="AB35" s="7" t="s">
+      <c r="AC35" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="AC35" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="AD35" s="7" t="s">
         <v>91</v>
@@ -7271,11 +7277,11 @@
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH35" s="7"/>
       <c r="AI35" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
@@ -7283,10 +7289,10 @@
     </row>
     <row r="36" spans="1:38" ht="14.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C36" s="5">
         <v>0.5</v>
@@ -7355,7 +7361,7 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
@@ -7366,41 +7372,41 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C37">
-        <v>64866</v>
+        <v>67223.3764402956</v>
       </c>
       <c r="D37">
-        <v>1351500</v>
+        <v>1159359.712230216</v>
       </c>
       <c r="E37">
-        <v>3.5972</v>
+        <v>3.5962000000000001</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="15">
         <v>83.8</v>
       </c>
       <c r="I37">
-        <v>296</v>
+        <v>310.661</v>
       </c>
       <c r="J37">
         <v>1.85</v>
       </c>
       <c r="K37">
-        <v>20400</v>
+        <v>20539</v>
       </c>
       <c r="L37">
-        <v>2610</v>
+        <v>2673.57</v>
       </c>
       <c r="M37">
-        <v>26.5</v>
+        <v>23.697381126123137</v>
       </c>
       <c r="N37">
-        <v>12700</v>
+        <v>14240.812392276797</v>
       </c>
       <c r="O37">
-        <v>4720</v>
+        <v>4818.7460000000001</v>
       </c>
       <c r="P37">
         <v>294</v>
@@ -7427,13 +7433,13 @@
       </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB37" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="AB37" s="17" t="s">
-        <v>290</v>
-      </c>
       <c r="AC37" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
@@ -7442,7 +7448,7 @@
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AK37" s="7"/>
       <c r="AL37" s="7"/>
@@ -7452,7 +7458,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C38" s="5">
         <f>2353/5.1</f>
@@ -7512,10 +7518,10 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6" t="s">
@@ -7547,7 +7553,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C39">
         <f>0.995^0.5</f>
@@ -7613,10 +7619,10 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB39" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7" t="s">
@@ -7648,7 +7654,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C40" s="5">
         <f>39.886/1.93</f>
@@ -7707,10 +7713,10 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6" t="s">
@@ -7742,7 +7748,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C41">
         <f>0.1332^0.5</f>
@@ -7793,10 +7799,10 @@
         <v>34</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W41" s="7" t="s">
         <v>89</v>
@@ -7807,10 +7813,10 @@
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AC41" s="7"/>
       <c r="AD41" s="7" t="s">
@@ -7842,7 +7848,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C42" s="5">
         <v>1807.7719999999999</v>
@@ -7906,28 +7912,28 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE42" s="6"/>
       <c r="AF42" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG42" s="6"/>
       <c r="AH42" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
       <c r="AL42" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="14.5" customHeight="1">
@@ -7935,7 +7941,7 @@
         <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C43">
         <v>706</v>
@@ -7996,22 +8002,22 @@
         <v>126</v>
       </c>
       <c r="AA43" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB43" t="s">
         <v>295</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AC43" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD43" t="s">
         <v>296</v>
       </c>
-      <c r="AC43" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>297</v>
       </c>
-      <c r="AE43" t="s">
-        <v>298</v>
-      </c>
       <c r="AF43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s">
         <v>169</v>
@@ -8032,7 +8038,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
@@ -8093,10 +8099,10 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6" t="s">
@@ -8130,7 +8136,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -8188,7 +8194,7 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="7"/>
@@ -8223,7 +8229,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C46" s="5">
         <v>0</v>
@@ -8317,7 +8323,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -8407,7 +8413,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C48" s="5">
         <v>0</v>
@@ -9501,20 +9507,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7771608-927F-4E4B-98C0-8BD1C2D780A9}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D31" sqref="D31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="27" max="27" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="26" max="26" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>176</v>
       </c>
@@ -9522,27 +9528,33 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>173</v>
       </c>
       <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1991</v>
       </c>
@@ -9553,7 +9565,7 @@
         <v>3.8069431775500351</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -9564,7 +9576,7 @@
         <v>3.9786446316467243</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1993</v>
       </c>
@@ -9575,7 +9587,7 @@
         <v>3.9840103020872455</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1994</v>
       </c>
@@ -9586,51 +9598,63 @@
         <v>4.0779095347963734</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1995</v>
       </c>
       <c r="B7">
         <v>20.6470998551269</v>
       </c>
+      <c r="D7">
+        <v>13.692828189876151</v>
+      </c>
       <c r="E7">
         <v>4.3703385738047968</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1996</v>
       </c>
       <c r="B8">
         <v>21.808767505499812</v>
       </c>
+      <c r="D8">
+        <v>15.371121003210868</v>
+      </c>
       <c r="E8">
         <v>4.2496109888930622</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1997</v>
       </c>
       <c r="B9">
         <v>22.672640446423781</v>
       </c>
+      <c r="D9">
+        <v>15.371121003210868</v>
+      </c>
       <c r="E9">
         <v>4.5420400279014865</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1998</v>
       </c>
       <c r="B10">
         <v>22.358748725653271</v>
       </c>
+      <c r="D10">
+        <v>15.371121003210868</v>
+      </c>
       <c r="E10">
         <v>5.204163760261844</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1999</v>
       </c>
@@ -9638,13 +9662,16 @@
         <v>23.802114074153568</v>
       </c>
       <c r="D11">
-        <v>17.020807000000001</v>
+        <v>15.787859252467968</v>
       </c>
       <c r="E11">
         <v>4.8720287599935608</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>17.020807000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -9652,13 +9679,16 @@
         <v>25.38766968932768</v>
       </c>
       <c r="D12">
-        <v>18.202192999999998</v>
+        <v>16.754578592581378</v>
       </c>
       <c r="E12">
         <v>4.8505660782314761</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>18.202192999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>2001</v>
       </c>
@@ -9666,13 +9696,16 @@
         <v>23.772602886730695</v>
       </c>
       <c r="D13">
-        <v>19.002631000000001</v>
+        <v>17.185491612221373</v>
       </c>
       <c r="E13">
         <v>5.0705585662928581</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>19.002631000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -9680,13 +9713,16 @@
         <v>23.35944626281054</v>
       </c>
       <c r="D14">
-        <v>18.904408</v>
+        <v>16.85380198526164</v>
       </c>
       <c r="E14">
         <v>5.2932338895745019</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>18.904408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -9694,13 +9730,16 @@
         <v>23.871867789880344</v>
       </c>
       <c r="D15">
-        <v>18.82685</v>
+        <v>16.930345745329273</v>
       </c>
       <c r="E15">
         <v>5.2583570317111121</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>18.82685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -9708,13 +9747,16 @@
         <v>23.67333798358105</v>
       </c>
       <c r="D16">
-        <v>19.891030999999998</v>
+        <v>17.395278213888211</v>
       </c>
       <c r="E16">
         <v>5.3307935826581527</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>19.891030999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -9722,13 +9764,16 @@
         <v>25.623759188710629</v>
       </c>
       <c r="D17">
-        <v>20.752817999999998</v>
+        <v>18.140871136028466</v>
       </c>
       <c r="E17">
         <v>5.4568868380104094</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>20.752817999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>2006</v>
       </c>
@@ -9736,13 +9781,16 @@
         <v>24.843054139614743</v>
       </c>
       <c r="D18">
-        <v>20.207038000000001</v>
+        <v>18.240094528708727</v>
       </c>
       <c r="E18">
         <v>5.5561517411600576</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>20.207038000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -9750,13 +9798,16 @@
         <v>24.494285560980845</v>
       </c>
       <c r="D19">
-        <v>20.918483000000002</v>
+        <v>18.928988369317405</v>
       </c>
       <c r="E19">
         <v>5.4783495197724958</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>20.918483000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -9764,13 +9815,16 @@
         <v>24.547942265386059</v>
       </c>
       <c r="D20">
-        <v>21.436884999999997</v>
+        <v>19.410930562335821</v>
       </c>
       <c r="E20">
         <v>5.4193271449267586</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>21.436884999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2009</v>
       </c>
@@ -9778,13 +9832,16 @@
         <v>24.995975747169609</v>
       </c>
       <c r="D21">
-        <v>22.324262999999998</v>
+        <v>20.335125591300542</v>
       </c>
       <c r="E21">
         <v>5.3978644631646722</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>22.324262999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -9792,13 +9849,16 @@
         <v>28.872672640446424</v>
       </c>
       <c r="D22">
-        <v>23.391197999999999</v>
+        <v>21.347204196639218</v>
       </c>
       <c r="E22">
         <v>6.1383269839566461</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>23.391197999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -9806,13 +9866,16 @@
         <v>28.046359392606107</v>
       </c>
       <c r="D23">
-        <v>23.379133999999997</v>
+        <v>21.548485936076322</v>
       </c>
       <c r="E23">
         <v>7.0156141009819182</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>23.379133999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -9820,13 +9883,16 @@
         <v>28.124161613993667</v>
       </c>
       <c r="D24">
-        <v>25.035924999999999</v>
+        <v>22.56339949549157</v>
       </c>
       <c r="E24">
         <v>6.8546439877662708</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>25.035924999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -9834,13 +9900,16 @@
         <v>28.738530879433384</v>
       </c>
       <c r="D25">
-        <v>25.961294000000002</v>
+        <v>23.963866809321551</v>
       </c>
       <c r="E25">
         <v>5.1698234694425063</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>25.961294000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -9848,13 +9917,16 @@
         <v>28.486344368728872</v>
       </c>
       <c r="D26">
-        <v>27.434650000000001</v>
+        <v>25.007129909502595</v>
       </c>
       <c r="E26">
         <v>4.6949616354563499</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>27.434650000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -9862,13 +9934,16 @@
         <v>28.717068197671303</v>
       </c>
       <c r="D27">
-        <v>28.143955999999999</v>
+        <v>25.426703112836272</v>
       </c>
       <c r="E27">
         <v>4.4669206417341849</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>28.143955999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -9876,13 +9951,16 @@
         <v>27.520523689434992</v>
       </c>
       <c r="D28">
-        <v>28.132810000000003</v>
+        <v>25.514586689210219</v>
       </c>
       <c r="E28">
         <v>4.4132639373289697</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>28.132810000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2017</v>
       </c>
@@ -9890,13 +9968,16 @@
         <v>27.702956484412727</v>
       </c>
       <c r="D29">
-        <v>27.218978</v>
+        <v>24.485498359412073</v>
       </c>
       <c r="E29">
         <v>4.5017974995975756</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>27.218978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -9904,13 +9985,16 @@
         <v>26.943714117078926</v>
       </c>
       <c r="D30">
-        <v>28.006637999999999</v>
+        <v>24.102779559073923</v>
       </c>
       <c r="E30">
         <v>4.5017974995975756</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>28.006637999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -9918,13 +10002,16 @@
         <v>26.704941782475718</v>
       </c>
       <c r="D31">
-        <v>28.35378</v>
+        <v>23.697381126123137</v>
       </c>
       <c r="E31">
         <v>4.5742340505446153</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>28.35378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -9932,10 +10019,13 @@
         <v>25.846434511992275</v>
       </c>
       <c r="D32">
-        <v>24.563119999999998</v>
+        <v>22.143826292157893</v>
       </c>
       <c r="E32">
         <v>4.885442936094865</v>
+      </c>
+      <c r="F32">
+        <v>24.563119999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9945,6 +10035,9 @@
       <c r="B33">
         <v>28.142941460535493</v>
       </c>
+      <c r="D33">
+        <v>23.320332233938142</v>
+      </c>
       <c r="E33">
         <v>5.2637227021516342</v>
       </c>
@@ -9955,6 +10048,9 @@
       </c>
       <c r="B34">
         <v>29.55947845683318</v>
+      </c>
+      <c r="D34">
+        <v>23.904332773713399</v>
       </c>
       <c r="E34">
         <v>4.8425175725706922</v>
@@ -9972,7 +10068,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9985,22 +10081,22 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
         <v>176</v>
       </c>
       <c r="G1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I1" t="s">
         <v>429</v>
-      </c>
-      <c r="H1" t="s">
-        <v>428</v>
-      </c>
-      <c r="I1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10008,25 +10104,25 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" t="s">
         <v>431</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>432</v>
       </c>
-      <c r="F2" t="s">
-        <v>433</v>
-      </c>
       <c r="G2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -10607,7 +10703,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10623,10 +10719,10 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -10634,22 +10730,22 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" t="s">
         <v>320</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10821,7 +10917,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -10835,7 +10931,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -10849,7 +10945,7 @@
         <v>4316.50818139284</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -10863,7 +10959,7 @@
         <v>4854.7482013480203</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -10877,7 +10973,7 @@
         <v>5198.2613767341099</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -10891,7 +10987,7 @@
         <v>5444.4611366192803</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -10905,7 +11001,7 @@
         <v>5812.6119620613499</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -10919,7 +11015,7 @@
         <v>6083.0428684506496</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -10933,7 +11029,7 @@
         <v>5963.3187353952198</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -10947,7 +11043,7 @@
         <v>6209.4124508755604</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -10961,7 +11057,7 @@
         <v>6357.9806620453201</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2014</v>
       </c>
@@ -10975,7 +11071,7 @@
         <v>6335.9057517727697</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -10989,7 +11085,7 @@
         <v>6581.9287709832197</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2016</v>
       </c>
@@ -11003,7 +11099,7 @@
         <v>7169.52081815783</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2017</v>
       </c>
@@ -11017,7 +11113,7 @@
         <v>7269.2732549698803</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -11031,7 +11127,7 @@
         <v>7674</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -11043,6 +11139,10 @@
       </c>
       <c r="E32" s="34">
         <v>7599</v>
+      </c>
+      <c r="F32">
+        <f>SUM(D32:E32)</f>
+        <v>12417.745999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -11093,10 +11193,10 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11105,7 +11205,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -11308,10 +11408,10 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11320,7 +11420,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -11505,7 +11605,7 @@
         <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11513,16 +11613,16 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
         <v>194</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>195</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>196</v>
-      </c>
-      <c r="E2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11856,7 +11956,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D21" activeCellId="1" sqref="F21 D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11876,13 +11976,13 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
         <v>177</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11893,16 +11993,16 @@
         <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>434</v>
       </c>
       <c r="E2" t="s">
         <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -12335,7 +12435,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12355,16 +12455,16 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" t="s">
-        <v>183</v>
-      </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -12372,19 +12472,19 @@
         <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16">
@@ -12924,7 +13024,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12941,19 +13041,19 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" t="s">
-        <v>183</v>
-      </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L1" t="s">
         <v>180</v>
@@ -12962,7 +13062,7 @@
         <v>180</v>
       </c>
       <c r="Q1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -12970,29 +13070,29 @@
         <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M2" s="32"/>
       <c r="Q2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13691,19 +13791,19 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L1" t="s">
+        <v>413</v>
+      </c>
+      <c r="M1" t="s">
         <v>414</v>
-      </c>
-      <c r="M1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13712,7 +13812,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J2">
         <v>1990</v>
@@ -14299,7 +14399,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D32" sqref="D32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14312,10 +14412,10 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14323,7 +14423,7 @@
         <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -14815,10 +14915,10 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14826,7 +14926,7 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -15248,8 +15348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70BBC54-9A6A-4436-A684-DF848EF748EA}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E71" sqref="D71:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15262,10 +15362,10 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15273,13 +15373,13 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -16081,7 +16181,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16094,10 +16194,10 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -16105,13 +16205,13 @@
         <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82985BEA-1269-834D-BE9A-65C172417B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F72FD-8767-A141-88A6-303A582CAEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="448">
   <si>
     <t>Al</t>
   </si>
@@ -915,9 +915,6 @@
     <t>https://pubs.usgs.gov/periodicals/mcs2021/mcs2021-tungsten.pdf</t>
   </si>
   <si>
-    <t>https://d9-wret.s3-us-west-2.amazonaws.com/assets/palladium/production/atoms/files/mcs-2019-nicke.pdf</t>
-  </si>
-  <si>
     <t> (revert+new+old+blend)/production</t>
   </si>
   <si>
@@ -1396,16 +1393,53 @@
   </si>
   <si>
     <t xml:space="preserve">The Silver Institute, World Silver Surveys, taking the most recent  value reported in the surveys from 2005-2022, https://www.silverinstitute.org/all-world-silver-surveys/. </t>
+  </si>
+  <si>
+    <t>lifetime_sigma_construction</t>
+  </si>
+  <si>
+    <t>lifetime_sigma_electrical</t>
+  </si>
+  <si>
+    <t>lifetime_sigma_industrial</t>
+  </si>
+  <si>
+    <t>lifetime_sigma_other</t>
+  </si>
+  <si>
+    <t>lifetime_sigma_transport</t>
+  </si>
+  <si>
+    <t>Product lifetime standard deviation of sector - construction (industrial for gold/silver)</t>
+  </si>
+  <si>
+    <t>Product lifetime standard deviation of sector - electrical (electronics for gold/silver)</t>
+  </si>
+  <si>
+    <t>Product lifetime standard deviation of sector - industrial (bar and coin for gold/silver)</t>
+  </si>
+  <si>
+    <t>Product lifetime standard deviation of sector - construction</t>
+  </si>
+  <si>
+    <t>Product lifetime standard deviation of sector - transport (jewelry for gold/silver)</t>
+  </si>
+  <si>
+    <t>Set all to assume the same ratios with sector mean lifetime as that we had for copper</t>
+  </si>
+  <si>
+    <t>https://d9-wret.s3-us-west-2.amazonaws.com/assets/palladium/production/atoms/files/mcs-2019-nicke.pdf; https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf, assuming 750/2500 ratio for primary holds for secondary as well</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="\Te"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1554,7 +1588,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1619,6 +1653,9 @@
       <alignment horizontal="right" vertical="justify"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3763,8 +3800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}" name="Table2" displayName="Table2" ref="A1:AL74" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
-  <autoFilter ref="A1:AL74" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}" name="Table2" displayName="Table2" ref="A1:AL79" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+  <autoFilter ref="A1:AL79" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}"/>
   <tableColumns count="38">
     <tableColumn id="1" xr3:uid="{40ADE3C0-5A2A-EF4F-8C0A-E78782D82E02}" name="Variable name in the Python model. All reported for 2019 where available or most recent year. " dataDxfId="37"/>
     <tableColumn id="38" xr3:uid="{F1CC51E3-9D58-CB4E-B592-23659F5AD648}" name="Description" dataDxfId="36"/>
@@ -4106,11 +4143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
-  <dimension ref="A1:AL74"/>
+  <dimension ref="A1:AL79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4141,10 +4178,10 @@
   <sheetData>
     <row r="1" spans="1:38" s="28" customFormat="1" ht="34" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>0</v>
@@ -4192,7 +4229,7 @@
         <v>94</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>95</v>
@@ -4252,7 +4289,7 @@
         <v>108</v>
       </c>
       <c r="AL1" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="14.5" customHeight="1">
@@ -4260,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -4269,10 +4306,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
@@ -4284,29 +4321,29 @@
         <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>10</v>
@@ -4318,35 +4355,35 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
       <c r="AL2" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="14.5" customHeight="1">
@@ -4354,7 +4391,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C3">
         <v>85768.388145129153</v>
@@ -4454,7 +4491,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -4492,7 +4529,7 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
@@ -4508,7 +4545,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C5">
         <v>0.04</v>
@@ -4565,7 +4602,7 @@
         <v>132</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
@@ -4586,7 +4623,7 @@
         <v>211</v>
       </c>
       <c r="AG5" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH5" s="7" t="s">
         <v>212</v>
@@ -4605,7 +4642,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C6" s="5">
         <v>0.45100000000000001</v>
@@ -4684,23 +4721,23 @@
         <v>218</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG6" s="6" t="s">
         <v>219</v>
       </c>
       <c r="AH6" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AI6" s="6" t="s">
         <v>220</v>
       </c>
       <c r="AJ6" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AK6" s="6"/>
       <c r="AL6" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="14.5" customHeight="1">
@@ -4708,7 +4745,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C7">
         <v>0.251</v>
@@ -4777,7 +4814,7 @@
         <v>221</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AC7" s="7" t="s">
         <v>222</v>
@@ -4786,16 +4823,16 @@
         <v>78</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF7" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG7" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH7" s="17" t="s">
         <v>341</v>
-      </c>
-      <c r="AG7" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH7" s="17" t="s">
-        <v>342</v>
       </c>
       <c r="AI7" s="7" t="s">
         <v>220</v>
@@ -4813,7 +4850,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" s="5">
         <v>0.11899999999999999</v>
@@ -4882,7 +4919,7 @@
         <v>225</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>226</v>
@@ -4906,7 +4943,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9">
         <v>0.11899999999999999</v>
@@ -4974,7 +5011,7 @@
         <v>228</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AC9" s="7" t="s">
         <v>229</v>
@@ -4984,7 +5021,7 @@
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
@@ -5000,7 +5037,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" s="5">
         <f>1-C11-C7-C9-C8</f>
@@ -5074,7 +5111,7 @@
         <v>232</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>233</v>
@@ -5100,7 +5137,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C11">
         <v>0.27300000000000002</v>
@@ -5166,7 +5203,7 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AC11" s="7" t="s">
         <v>235</v>
@@ -5192,7 +5229,7 @@
         <v>96</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C12" s="5">
         <v>0.9</v>
@@ -5258,7 +5295,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>238</v>
@@ -5294,7 +5331,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C13">
         <v>0.95</v>
@@ -5384,7 +5421,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C14" s="5">
         <v>0.9</v>
@@ -5470,7 +5507,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C15">
         <v>0.95</v>
@@ -5551,7 +5588,7 @@
         <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C16" s="5">
         <v>0.9</v>
@@ -5635,7 +5672,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -5709,13 +5746,13 @@
         <v>106</v>
       </c>
       <c r="AE17" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH17" s="7" t="s">
         <v>252</v>
@@ -5734,7 +5771,7 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C18" s="5">
         <v>25</v>
@@ -5811,13 +5848,13 @@
         <v>106</v>
       </c>
       <c r="AE18" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF18" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6" t="s">
@@ -5834,7 +5871,7 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -5904,13 +5941,13 @@
         <v>106</v>
       </c>
       <c r="AE19" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG19" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH19" s="7" t="s">
         <v>261</v>
@@ -5929,7 +5966,7 @@
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C20" s="5">
         <v>15</v>
@@ -5996,13 +6033,13 @@
         <v>106</v>
       </c>
       <c r="AE20" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF20" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH20" s="6" t="s">
         <v>258</v>
@@ -6017,7 +6054,7 @@
         <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -6028,7 +6065,7 @@
       <c r="E21">
         <v>35</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="42"/>
       <c r="H21">
         <v>20</v>
       </c>
@@ -6088,13 +6125,13 @@
         <v>106</v>
       </c>
       <c r="AE21" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF21" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG21" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH21" s="7" t="s">
         <v>266</v>
@@ -6109,3360 +6146,3916 @@
       <c r="AL21" s="7"/>
     </row>
     <row r="22" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B22" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <f>$C22/$C17*D17</f>
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <f>$C22/$C17*E17</f>
+        <v>15</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22">
+        <f>$C22/$C17*H17</f>
+        <v>0.3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:S22" si="0">$C22/$C17*I17</f>
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE22" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF22" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG22" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+    </row>
+    <row r="23" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B23" t="s">
+        <v>442</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:E26" si="1">$C23/$C18*D18</f>
+        <v>7.5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23">
+        <f t="shared" ref="H23:S26" si="2">$C23/$C18*H18</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC23" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE23" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF23" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+    </row>
+    <row r="24" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A24" t="s">
+        <v>438</v>
+      </c>
+      <c r="B24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE24" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF24" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG24" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH24" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI24" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+    </row>
+    <row r="25" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B25" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE25" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+    </row>
+    <row r="26" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A26" t="s">
+        <v>440</v>
+      </c>
+      <c r="B26" t="s">
+        <v>445</v>
+      </c>
+      <c r="C26">
+        <v>4.5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>6.6</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="T26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE26" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+    </row>
+    <row r="27" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B27" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="5">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y27" s="6"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE27" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG27" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C28">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="D28">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="E28">
+        <v>12.5</v>
+      </c>
+      <c r="H28">
+        <v>0.22</v>
+      </c>
+      <c r="I28">
+        <v>0.75</v>
+      </c>
+      <c r="K28">
+        <v>0.495</v>
+      </c>
+      <c r="L28">
+        <v>0.87</v>
+      </c>
+      <c r="M28">
+        <v>12.5</v>
+      </c>
+      <c r="N28">
+        <v>0.22</v>
+      </c>
+      <c r="O28">
+        <v>0.1</v>
+      </c>
+      <c r="R28" s="21"/>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y28" s="7"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE28" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG28" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+    </row>
+    <row r="29" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="5">
+        <v>0</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y29" s="6"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE29" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG29" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C30">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="D30">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="E30">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I30">
+        <v>0.75</v>
+      </c>
+      <c r="K30">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="L30">
+        <v>0.48</v>
+      </c>
+      <c r="M30">
+        <v>0.2</v>
+      </c>
+      <c r="N30">
+        <v>0.11</v>
+      </c>
+      <c r="O30">
+        <v>0.1</v>
+      </c>
+      <c r="R30" s="21"/>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y30" s="7"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE30" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG30" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+    </row>
+    <row r="31" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C22" s="5">
-        <v>0.64749999999999996</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.64749999999999996</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5">
+      <c r="Y31" s="6"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE31" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG31" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C32">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="D32">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E32">
+        <v>0.26156000000000001</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I32">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J32">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="K32">
+        <v>0.3624</v>
+      </c>
+      <c r="L32">
+        <v>0.24438253362692441</v>
+      </c>
+      <c r="M32">
+        <v>0.17</v>
+      </c>
+      <c r="N32">
+        <v>0.39</v>
+      </c>
+      <c r="O32">
+        <v>0.73</v>
+      </c>
+      <c r="P32">
+        <v>0.21</v>
+      </c>
+      <c r="Q32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R32" s="16">
+        <v>2.7500000000000002E-4</v>
+      </c>
+      <c r="T32" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF32" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+    </row>
+    <row r="33" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.26156000000000001</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="5">
         <v>0.46</v>
       </c>
-      <c r="I22" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="5">
+      <c r="I33" s="5">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="L33">
+        <v>0.24438253362692441</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R33" s="14">
+        <v>2.7500000000000002E-4</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="W33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="X33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+    </row>
+    <row r="34" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>368</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34" s="16">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+    </row>
+    <row r="35" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>369</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.1065</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.498</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="R35" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="W35" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+    </row>
+    <row r="36" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36">
         <v>0</v>
       </c>
-      <c r="T22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y22" s="6"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE22" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG22" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH22" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="5"/>
-    </row>
-    <row r="23" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C23">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="D23">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="E23">
-        <v>12.5</v>
-      </c>
-      <c r="H23">
-        <v>0.22</v>
-      </c>
-      <c r="I23">
-        <v>0.75</v>
-      </c>
-      <c r="K23">
-        <v>0.495</v>
-      </c>
-      <c r="L23">
-        <v>0.87</v>
-      </c>
-      <c r="M23">
-        <v>12.5</v>
-      </c>
-      <c r="N23">
-        <v>0.22</v>
-      </c>
-      <c r="O23">
-        <v>0.1</v>
-      </c>
-      <c r="R23" s="21"/>
-      <c r="S23">
+      <c r="D36">
         <v>0</v>
       </c>
-      <c r="T23" t="s">
-        <v>24</v>
-      </c>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y23" s="7"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE23" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG23" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-    </row>
-    <row r="24" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.76690000000000003</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0.76690000000000003</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="M24" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="O24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="5">
-        <v>0</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y24" s="6"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE24" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG24" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="5"/>
-    </row>
-    <row r="25" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C25">
-        <v>0.46850000000000003</v>
-      </c>
-      <c r="D25">
-        <v>0.46850000000000003</v>
-      </c>
-      <c r="E25">
-        <v>0.2</v>
-      </c>
-      <c r="H25" s="10">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I25">
-        <v>0.75</v>
-      </c>
-      <c r="K25">
-        <v>0.34649999999999997</v>
-      </c>
-      <c r="L25">
-        <v>0.48</v>
-      </c>
-      <c r="M25">
-        <v>0.2</v>
-      </c>
-      <c r="N25">
-        <v>0.11</v>
-      </c>
-      <c r="O25">
-        <v>0.1</v>
-      </c>
-      <c r="R25" s="21"/>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
-        <v>24</v>
-      </c>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y25" s="7"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE25" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF25" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG25" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-    </row>
-    <row r="26" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="M26" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="N26" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="O26" s="5">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="Y26" s="6"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE26" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG26" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH26" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="5"/>
-    </row>
-    <row r="27" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>367</v>
-      </c>
-      <c r="C27">
-        <v>0.34250000000000003</v>
-      </c>
-      <c r="D27">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="E27">
-        <v>0.26156000000000001</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="I27">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J27">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="K27">
-        <v>0.3624</v>
-      </c>
-      <c r="L27">
-        <v>0.47</v>
-      </c>
-      <c r="M27">
-        <v>0.17</v>
-      </c>
-      <c r="N27">
-        <v>0.39</v>
-      </c>
-      <c r="O27">
-        <v>0.73</v>
-      </c>
-      <c r="P27">
-        <v>0.21</v>
-      </c>
-      <c r="Q27">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="R27" s="16">
-        <v>2.7500000000000002E-4</v>
-      </c>
-      <c r="T27" t="s">
-        <v>31</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="X27" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-    </row>
-    <row r="28" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>368</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.26156000000000001</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="I28" s="5">
-        <v>6.2E-2</v>
-      </c>
-      <c r="J28">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="K28" s="5">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0.47</v>
-      </c>
-      <c r="M28" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="N28" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="O28" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="P28" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="R28" s="14">
-        <v>2.7500000000000002E-4</v>
-      </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="W28" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="X28" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="AG28" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-    </row>
-    <row r="29" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>369</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29" s="16">
-        <v>1</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29" t="s">
-        <v>31</v>
-      </c>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-    </row>
-    <row r="30" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" t="s">
-        <v>370</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.57769999999999999</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0.1065</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5">
-        <v>0.43180000000000002</v>
-      </c>
-      <c r="L30" s="5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="N30" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="O30" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0.498</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="R30" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="X30" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-    </row>
-    <row r="31" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="E36">
         <f>1-0.52/2</f>
         <v>0.74</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31">
+      <c r="G36" s="8"/>
+      <c r="H36">
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="J31">
+      <c r="J36">
         <v>1</v>
       </c>
-      <c r="K31">
+      <c r="K36">
         <v>0.38869999999999999</v>
       </c>
-      <c r="L31">
+      <c r="L36">
         <v>1</v>
       </c>
-      <c r="M31">
+      <c r="M36">
         <f>1-$M$11/2</f>
         <v>0.89719400096758584</v>
       </c>
-      <c r="N31">
+      <c r="N36">
         <v>1</v>
       </c>
-      <c r="O31">
+      <c r="O36">
         <v>1</v>
       </c>
-      <c r="P31">
+      <c r="P36">
         <v>1</v>
       </c>
-      <c r="Q31">
+      <c r="Q36">
         <v>1</v>
       </c>
-      <c r="R31" s="16">
+      <c r="R36" s="16">
         <v>1</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T36" t="s">
         <v>31</v>
       </c>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7" t="s">
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="X31" s="7" t="s">
+      <c r="X36" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-    </row>
-    <row r="32" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A32" s="5" t="s">
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+    </row>
+    <row r="37" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>371</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" s="5">
         <v>0</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D37" s="5">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E37">
         <f>1-0.52/2</f>
         <v>0.74</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="5">
+      <c r="F37" s="5"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="5">
         <v>1</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I37" s="5">
         <v>1</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J37" s="5">
         <v>1</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K37" s="5">
         <v>0.312</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L37" s="5">
         <v>1</v>
       </c>
-      <c r="M32">
+      <c r="M37">
         <f>1-$M$11/2</f>
         <v>0.89719400096758584</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N37" s="5">
         <v>1</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O37" s="5">
         <v>1</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P37" s="5">
         <v>1</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q37" s="5">
         <v>1</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R37" s="14">
         <v>1</v>
       </c>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5" t="s">
+      <c r="S37" s="5"/>
+      <c r="T37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6" t="s">
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="X32" s="7" t="s">
+      <c r="X37" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6" t="s">
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+    </row>
+    <row r="38" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>432</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="M38">
+        <v>8.0999999999999996E-4</v>
+      </c>
+      <c r="N38">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="Q38">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="R38" s="16">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6" t="s">
+      <c r="AE38" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="M39" s="5">
+        <v>8.0999999999999996E-4</v>
+      </c>
+      <c r="N39" s="5">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="R39" s="14">
+        <v>1</v>
+      </c>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE39" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+    </row>
+    <row r="40" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>373</v>
+      </c>
+      <c r="C40">
+        <v>88603.1</v>
+      </c>
+      <c r="D40">
+        <v>1869000</v>
+      </c>
+      <c r="E40">
+        <v>4.87</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40">
+        <v>108.5</v>
+      </c>
+      <c r="I40">
+        <f>I42/(1-I32)</f>
+        <v>321.92849740932644</v>
+      </c>
+      <c r="J40">
+        <v>2.8</v>
+      </c>
+      <c r="K40">
+        <v>30158.48</v>
+      </c>
+      <c r="L40">
+        <v>3461.4</v>
+      </c>
+      <c r="M40">
+        <v>28.271999999999998</v>
+      </c>
+      <c r="N40">
+        <v>17267.080000000002</v>
+      </c>
+      <c r="O40">
+        <v>12417.745999999999</v>
+      </c>
+      <c r="P40">
+        <v>260997</v>
+      </c>
+      <c r="Q40">
+        <v>260</v>
+      </c>
+      <c r="R40" s="16">
+        <v>260</v>
+      </c>
+      <c r="T40" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="W40" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="X40" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-    </row>
-    <row r="33" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" t="s">
-        <v>433</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="F33">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="L33">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="M33">
-        <v>8.0999999999999996E-4</v>
-      </c>
-      <c r="N33">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="Q33">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="R33" s="16">
-        <v>1</v>
-      </c>
-      <c r="T33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE33" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>373</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
-        <v>1.2E-2</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="M34" s="5">
-        <v>8.0999999999999996E-4</v>
-      </c>
-      <c r="N34" s="5">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="O34" s="5">
-        <v>0</v>
-      </c>
-      <c r="P34" s="5">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="R34" s="14">
-        <v>1</v>
-      </c>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE34" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
-    </row>
-    <row r="35" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+    </row>
+    <row r="41" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C35">
-        <v>88603.1</v>
-      </c>
-      <c r="D35">
-        <v>1869000</v>
-      </c>
-      <c r="E35">
-        <v>4.87</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35">
-        <v>108.5</v>
-      </c>
-      <c r="I35">
-        <f>I37/(1-I27)</f>
-        <v>321.92849740932644</v>
-      </c>
-      <c r="J35">
-        <v>2.8</v>
-      </c>
-      <c r="K35">
-        <v>30158.48</v>
-      </c>
-      <c r="L35">
-        <v>3461.4</v>
-      </c>
-      <c r="M35">
-        <v>28.271999999999998</v>
-      </c>
-      <c r="N35">
-        <v>17267.080000000002</v>
-      </c>
-      <c r="O35">
-        <v>12417.745999999999</v>
-      </c>
-      <c r="P35">
-        <v>260997</v>
-      </c>
-      <c r="Q35">
-        <v>260</v>
-      </c>
-      <c r="R35" s="16">
-        <v>260</v>
-      </c>
-      <c r="T35" t="s">
-        <v>31</v>
-      </c>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="W35" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="X35" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB35" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC35" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD35" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ35" s="7"/>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7"/>
-    </row>
-    <row r="36" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A36" s="5" t="s">
+      <c r="C41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="S41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+    </row>
+    <row r="42" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>320</v>
+      </c>
+      <c r="C42">
+        <v>67223.3764402956</v>
+      </c>
+      <c r="D42">
+        <v>1159359.712230216</v>
+      </c>
+      <c r="E42">
+        <v>3.5962000000000001</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="15">
+        <v>83.8</v>
+      </c>
+      <c r="I42">
+        <v>310.661</v>
+      </c>
+      <c r="J42">
+        <v>1.85</v>
+      </c>
+      <c r="K42">
+        <v>20539</v>
+      </c>
+      <c r="L42">
+        <v>2673.57</v>
+      </c>
+      <c r="M42">
+        <v>23.697381126123137</v>
+      </c>
+      <c r="N42">
+        <v>14240.812392276797</v>
+      </c>
+      <c r="O42">
+        <v>4818.7460000000001</v>
+      </c>
+      <c r="P42">
+        <v>294</v>
+      </c>
+      <c r="Q42">
+        <v>0.186</v>
+      </c>
+      <c r="R42" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="T42" t="s">
+        <v>34</v>
+      </c>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB42" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC42" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+    </row>
+    <row r="43" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A43" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="C36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="O36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="P36" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="S36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-    </row>
-    <row r="37" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>321</v>
-      </c>
-      <c r="C37">
-        <v>67223.3764402956</v>
-      </c>
-      <c r="D37">
-        <v>1159359.712230216</v>
-      </c>
-      <c r="E37">
-        <v>3.5962000000000001</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="15">
-        <v>83.8</v>
-      </c>
-      <c r="I37">
-        <v>310.661</v>
-      </c>
-      <c r="J37">
-        <v>1.85</v>
-      </c>
-      <c r="K37">
-        <v>20539</v>
-      </c>
-      <c r="L37">
-        <v>2673.57</v>
-      </c>
-      <c r="M37">
-        <v>23.697381126123137</v>
-      </c>
-      <c r="N37">
-        <v>14240.812392276797</v>
-      </c>
-      <c r="O37">
-        <v>4818.7460000000001</v>
-      </c>
-      <c r="P37">
-        <v>294</v>
-      </c>
-      <c r="Q37">
-        <v>0.186</v>
-      </c>
-      <c r="R37" s="16">
-        <v>0.52</v>
-      </c>
-      <c r="T37" t="s">
-        <v>34</v>
-      </c>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="X37" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB37" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC37" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="7"/>
-      <c r="AJ37" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AK37" s="7"/>
-      <c r="AL37" s="7"/>
-    </row>
-    <row r="38" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A38" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="C43" s="5">
         <f>2353/5.1</f>
         <v>461.3725490196079</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D43" s="5">
         <v>745.14</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E43" s="5">
         <v>3.5370000000000002E-3</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="5">
+      <c r="F43" s="5"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="5">
         <v>1</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I43" s="5">
         <v>4.5032618547779402</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5">
+      <c r="J43" s="5"/>
+      <c r="K43" s="5">
         <v>12.449078</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L43" s="5">
         <v>24.843557000000001</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M43" s="5">
         <v>8.0507999999999996E-2</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N43" s="5">
         <v>16.420480999999999</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O43" s="5">
         <v>4.8053819999999998</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P43" s="5">
         <v>8.8008670000000002</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="Q43" s="5">
         <v>5.6010000000000001E-3</v>
       </c>
-      <c r="R38" s="14"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5" t="s">
+      <c r="R43" s="14"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6" t="s">
+      <c r="U43" s="6"/>
+      <c r="V43" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="W38" s="6" t="s">
+      <c r="W43" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="X38" s="19" t="s">
+      <c r="X43" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB38" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6" t="s">
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AE38" s="6" t="s">
+      <c r="AE43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AF38" s="6" t="s">
+      <c r="AF43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AG38" s="6" t="s">
+      <c r="AG43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AH38" s="6" t="s">
+      <c r="AH43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AI38" s="6" t="s">
+      <c r="AI43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AJ38" s="6" t="s">
+      <c r="AJ43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-    </row>
-    <row r="39" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A39" s="24" t="s">
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+    </row>
+    <row r="44" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A44" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="C39">
+      <c r="B44" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44">
         <f>0.995^0.5</f>
         <v>0.99749686716300012</v>
       </c>
-      <c r="D39">
+      <c r="D44">
         <f>1.75414^0.5</f>
         <v>1.3244395040922028</v>
       </c>
-      <c r="E39">
+      <c r="E44">
         <f>1.119928^0.5</f>
         <v>1.0582665070765493</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39">
+      <c r="G44" s="8"/>
+      <c r="H44">
         <v>0.7</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I44" s="37">
         <v>0.74194119079264453</v>
       </c>
-      <c r="K39">
+      <c r="K44">
         <f>4.506331^0.5</f>
         <v>2.1228120500882786</v>
       </c>
-      <c r="L39">
+      <c r="L44">
         <f>0.730054^0.5</f>
         <v>0.85443197505711355</v>
       </c>
-      <c r="M39">
+      <c r="M44">
         <f>1.164431^0.5</f>
         <v>1.0790880408937911</v>
       </c>
-      <c r="N39">
+      <c r="N44">
         <f>2.619654^0.5</f>
         <v>1.6185345223380316</v>
       </c>
-      <c r="O39">
+      <c r="O44">
         <f>2.612836^0.5</f>
         <v>1.6164269238044757</v>
       </c>
-      <c r="P39">
+      <c r="P44">
         <f>0.082201^0.5</f>
         <v>0.2867071676815911</v>
       </c>
-      <c r="Q39">
+      <c r="Q44">
         <f>0.603488^0.5</f>
         <v>0.77684490086503111</v>
       </c>
-      <c r="R39" s="16"/>
-      <c r="T39" t="s">
+      <c r="R44" s="16"/>
+      <c r="T44" t="s">
         <v>34</v>
       </c>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7" t="s">
+      <c r="U44" s="7"/>
+      <c r="V44" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="W39" s="7" t="s">
+      <c r="W44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="X39" s="7" t="s">
+      <c r="X44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB39" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="7" t="s">
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB44" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AE39" s="7" t="s">
+      <c r="AE44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AF39" s="7" t="s">
+      <c r="AF44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AG39" s="7" t="s">
+      <c r="AG44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AH39" s="7" t="s">
+      <c r="AH44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AI39" s="7" t="s">
+      <c r="AI44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AJ39" s="7" t="s">
+      <c r="AJ44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AK39" s="7"/>
-      <c r="AL39" s="7"/>
-    </row>
-    <row r="40" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A40" s="23" t="s">
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+    </row>
+    <row r="45" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A45" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B45" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C45" s="5">
         <f>39.886/1.93</f>
         <v>20.666321243523317</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D45" s="5">
         <v>63.37</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E45" s="5">
         <v>2.2100000000000001E-4</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="H40" s="5">
+      <c r="F45" s="5"/>
+      <c r="H45" s="5">
         <v>0.7</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I45" s="38">
         <v>1.0968131213886334</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5">
+      <c r="J45" s="5"/>
+      <c r="K45" s="5">
         <v>0.64898900000000004</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L45" s="5">
         <v>1.2763679999999999</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M45" s="5">
         <v>1.6863E-2</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N45" s="5">
         <v>3.8657819999999998</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O45" s="5">
         <v>2.2956560000000001</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P45" s="5">
         <v>0.19573199999999999</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q45" s="5">
         <v>1.7799999999999999E-4</v>
       </c>
-      <c r="R40" s="14"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5" t="s">
+      <c r="R45" s="14"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6" t="s">
+      <c r="U45" s="6"/>
+      <c r="V45" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="W40" s="6" t="s">
+      <c r="W45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="X40" s="6" t="s">
+      <c r="X45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="AB40" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6" t="s">
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AE40" s="6" t="s">
+      <c r="AE45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AF40" s="6" t="s">
+      <c r="AF45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AG40" s="6" t="s">
+      <c r="AG45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AH40" s="6" t="s">
+      <c r="AH45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AI40" s="6" t="s">
+      <c r="AI45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AJ40" s="6" t="s">
+      <c r="AJ45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-    </row>
-    <row r="41" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A41" s="24" t="s">
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+    </row>
+    <row r="46" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A46" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="C41">
+      <c r="B46" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46">
         <f>0.1332^0.5</f>
         <v>0.3649657518178932</v>
       </c>
-      <c r="D41">
+      <c r="D46">
         <f>0.0601^0.5</f>
         <v>0.24515301344262524</v>
       </c>
-      <c r="E41">
+      <c r="E46">
         <v>0.95105399999999995</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41">
+      <c r="G46" s="8"/>
+      <c r="H46">
         <v>0.35</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I46" s="37">
         <v>0.57791694994750731</v>
       </c>
-      <c r="K41">
+      <c r="K46">
         <v>0.72167400000000004</v>
       </c>
-      <c r="L41">
+      <c r="L46">
         <v>0.627772</v>
       </c>
-      <c r="M41">
+      <c r="M46">
         <f>0.592826^0.5</f>
         <v>0.76995194655251054</v>
       </c>
-      <c r="N41">
+      <c r="N46">
         <f>0.385681^0.5</f>
         <v>0.62103220528407377</v>
       </c>
-      <c r="O41">
+      <c r="O46">
         <f>0.551519^0.5</f>
         <v>0.74264325217428584</v>
       </c>
-      <c r="P41">
+      <c r="P46">
         <f>0.001142^0.5</f>
         <v>3.3793490497431605E-2</v>
       </c>
-      <c r="Q41">
+      <c r="Q46">
         <f>0.119309^0.5</f>
         <v>0.34541134897394438</v>
       </c>
-      <c r="R41" s="16"/>
-      <c r="T41" t="s">
+      <c r="R46" s="16"/>
+      <c r="T46" t="s">
         <v>34</v>
       </c>
-      <c r="U41" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="V41" s="7" t="s">
+      <c r="U46" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="W41" s="7" t="s">
+      <c r="V46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="W46" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="X41" s="7" t="s">
+      <c r="X46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="AB41" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AC41" s="7"/>
-      <c r="AD41" s="7" t="s">
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AE41" s="7" t="s">
+      <c r="AE46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AF41" s="7" t="s">
+      <c r="AF46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AG41" s="7" t="s">
+      <c r="AG46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AH41" s="7" t="s">
+      <c r="AH46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AI41" s="7" t="s">
+      <c r="AI46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AJ41" s="7" t="s">
+      <c r="AJ46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
-    </row>
-    <row r="42" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A42" s="5" t="s">
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+    </row>
+    <row r="47" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C42" s="5">
+      <c r="B47" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C47" s="5">
         <v>1807.7719999999999</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D47" s="5">
         <v>670</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E47" s="11">
         <v>44806598</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F47" s="11">
         <v>35736</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="5">
+      <c r="G47" s="9"/>
+      <c r="H47" s="5">
         <v>30800</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I47" s="11">
         <v>19444</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J47" s="5">
         <v>161000</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K47" s="5">
         <v>6018.558</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L47" s="5">
         <v>14285.808000000001</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M47" s="9">
         <f>16.22*35274</f>
         <v>572144.27999999991</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N47" s="5">
         <v>2535.29</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O47" s="5">
         <v>2006.1859999999999</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P47" s="11">
         <v>24647.428</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q47" s="11">
         <v>27710303</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R47" s="14">
         <v>58419.6</v>
       </c>
-      <c r="S42" s="25">
+      <c r="S47" s="25">
         <v>11120.835754394531</v>
       </c>
-      <c r="T42" s="5" t="s">
+      <c r="T47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U42" s="6" t="s">
+      <c r="U47" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="19" t="s">
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="19" t="s">
+      <c r="AD47" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>378</v>
+      </c>
+      <c r="C48">
+        <v>706</v>
+      </c>
+      <c r="D48">
+        <v>25</v>
+      </c>
+      <c r="E48" s="10">
+        <f>E47-1000*35274</f>
+        <v>9532598</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48">
+        <v>15.968999999999999</v>
+      </c>
+      <c r="I48">
+        <v>4661</v>
+      </c>
+      <c r="J48">
+        <v>-27033</v>
+      </c>
+      <c r="K48">
+        <v>211</v>
+      </c>
+      <c r="L48">
+        <v>1394</v>
+      </c>
+      <c r="M48" s="10">
+        <f>M47-14.86*35274</f>
+        <v>47972.639999999956</v>
+      </c>
+      <c r="N48">
+        <f>N47-0.88*2204.6</f>
+        <v>595.24199999999996</v>
+      </c>
+      <c r="O48">
+        <f>O47-0.77*2204.6</f>
+        <v>308.64400000000001</v>
+      </c>
+      <c r="P48">
+        <v>23820</v>
+      </c>
+      <c r="Q48" s="10">
+        <f>Q47-696.31*35274</f>
+        <v>3148664.0600000024</v>
+      </c>
+      <c r="R48" s="16"/>
+      <c r="V48" t="s">
+        <v>164</v>
+      </c>
+      <c r="W48" t="s">
+        <v>166</v>
+      </c>
+      <c r="X48" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC48" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AD42" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="35" t="s">
+      <c r="AD48" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF48" t="s">
         <v>329</v>
       </c>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" t="s">
-        <v>379</v>
-      </c>
-      <c r="C43">
-        <v>706</v>
-      </c>
-      <c r="D43">
-        <v>25</v>
-      </c>
-      <c r="E43" s="10">
-        <f>E42-1000*35274</f>
-        <v>9532598</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43">
-        <v>15.968999999999999</v>
-      </c>
-      <c r="I43">
-        <v>4661</v>
-      </c>
-      <c r="J43">
-        <v>-27033</v>
-      </c>
-      <c r="K43">
-        <v>211</v>
-      </c>
-      <c r="L43">
-        <v>1394</v>
-      </c>
-      <c r="M43" s="10">
-        <f>M42-14.86*35274</f>
-        <v>47972.639999999956</v>
-      </c>
-      <c r="N43">
-        <f>N42-0.88*2204.6</f>
-        <v>595.24199999999996</v>
-      </c>
-      <c r="O43">
-        <f>O42-0.77*2204.6</f>
-        <v>308.64400000000001</v>
-      </c>
-      <c r="P43">
-        <v>23820</v>
-      </c>
-      <c r="Q43" s="10">
-        <f>Q42-696.31*35274</f>
-        <v>3148664.0600000024</v>
-      </c>
-      <c r="R43" s="16"/>
-      <c r="V43" t="s">
-        <v>164</v>
-      </c>
-      <c r="W43" t="s">
-        <v>166</v>
-      </c>
-      <c r="X43" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y43" t="s">
+      <c r="AG48" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI48" t="s">
         <v>126</v>
       </c>
-      <c r="AA43" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC43" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE43" t="s">
+      <c r="AJ48" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL48" s="7"/>
+    </row>
+    <row r="49" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A49" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3.5595105672969966E-2</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.41146924083769632</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.23853211009174313</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5">
+        <v>0.43914889552565523</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5">
+        <v>0.33660000000000001</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.29027355623100304</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0.56660119287056465</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0.68702522029778179</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0.26022304832713755</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0.54192825112107623</v>
+      </c>
+      <c r="R49" s="14"/>
+      <c r="S49" s="5">
+        <v>0.22445561139028475</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="AF43" t="s">
-        <v>330</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL43" s="7"/>
-    </row>
-    <row r="44" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A44" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="23" t="s">
+      <c r="AB49" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK49" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL49" s="6"/>
+    </row>
+    <row r="50" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0.46329254727474972</v>
+      </c>
+      <c r="E50">
+        <v>0.49825752617801045</v>
+      </c>
+      <c r="F50">
+        <v>0.67889908256880738</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="I50">
+        <v>0.51673572270432799</v>
+      </c>
+      <c r="K50">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="L50">
+        <v>0.68844984802431608</v>
+      </c>
+      <c r="M50">
+        <v>0.37476819923156995</v>
+      </c>
+      <c r="N50">
+        <v>0.35165550595238093</v>
+      </c>
+      <c r="O50">
+        <v>0.2707383773928897</v>
+      </c>
+      <c r="P50">
+        <v>0.64312267657992561</v>
+      </c>
+      <c r="Q50">
+        <v>0.33004484304932735</v>
+      </c>
+      <c r="R50" s="21"/>
+      <c r="S50">
+        <v>0.45561139028475711</v>
+      </c>
+      <c r="T50" t="s">
+        <v>34</v>
+      </c>
+      <c r="V50" t="s">
+        <v>163</v>
+      </c>
+      <c r="W50" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK50" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL50" s="7"/>
+    </row>
+    <row r="51" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A51" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C51" s="5">
         <v>0</v>
       </c>
-      <c r="D44" s="5">
-        <v>3.5595105672969966E-2</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0.41146924083769632</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0.23853211009174313</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5">
-        <v>0.43914889552565523</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5">
-        <v>0.33660000000000001</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0.29027355623100304</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0.56660119287056465</v>
-      </c>
-      <c r="N44" s="5">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="O44" s="5">
-        <v>0.68702522029778179</v>
-      </c>
-      <c r="P44" s="5">
-        <v>0.26022304832713755</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>0.54192825112107623</v>
-      </c>
-      <c r="R44" s="14"/>
-      <c r="S44" s="5">
-        <v>0.22445561139028475</v>
-      </c>
-      <c r="T44" s="5" t="s">
+      <c r="D51" s="5">
+        <v>1.1123470522803114E-3</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2.6333442408376963E-2</v>
+      </c>
+      <c r="F51" s="5">
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="L51" s="5">
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="M51" s="5">
+        <v>3.2714861804723751E-2</v>
+      </c>
+      <c r="N51" s="5">
+        <v>2.7994791666666668E-2</v>
+      </c>
+      <c r="O51" s="5">
+        <v>2.3701002734731084E-2</v>
+      </c>
+      <c r="P51" s="5">
+        <v>9.6654275092936809E-2</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>0.12645739910313902</v>
+      </c>
+      <c r="R51" s="20"/>
+      <c r="S51" s="5">
+        <v>8.3752093802345051E-3</v>
+      </c>
+      <c r="T51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5" t="s">
+      <c r="U51" s="5"/>
+      <c r="V51" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="W44" s="6" t="s">
+      <c r="W51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="X44" s="6" t="s">
+      <c r="X51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB44" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6" t="s">
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AE44" s="6" t="s">
+      <c r="AE51" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AF44" s="6" t="s">
+      <c r="AF51" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AG44" s="6" t="s">
+      <c r="AG51" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AH44" s="6" t="s">
+      <c r="AH51" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AI44" s="6" t="s">
+      <c r="AI51" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AJ44" s="6" t="s">
+      <c r="AJ51" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AK44" s="6" t="s">
+      <c r="AK51" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AL44" s="6"/>
-    </row>
-    <row r="45" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A45" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>0.46329254727474972</v>
-      </c>
-      <c r="E45">
-        <v>0.49825752617801045</v>
-      </c>
-      <c r="F45">
-        <v>0.67889908256880738</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="I45">
-        <v>0.51673572270432799</v>
-      </c>
-      <c r="K45">
-        <v>0.61550000000000005</v>
-      </c>
-      <c r="L45">
-        <v>0.68844984802431608</v>
-      </c>
-      <c r="M45">
-        <v>0.37476819923156995</v>
-      </c>
-      <c r="N45">
-        <v>0.35165550595238093</v>
-      </c>
-      <c r="O45">
-        <v>0.2707383773928897</v>
-      </c>
-      <c r="P45">
-        <v>0.64312267657992561</v>
-      </c>
-      <c r="Q45">
-        <v>0.33004484304932735</v>
-      </c>
-      <c r="R45" s="21"/>
-      <c r="S45">
-        <v>0.45561139028475711</v>
-      </c>
-      <c r="T45" t="s">
+      <c r="AL51" s="6"/>
+    </row>
+    <row r="52" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A52" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
+      <c r="E52">
+        <v>6.1420157068062829E-2</v>
+      </c>
+      <c r="F52">
+        <v>3.669724770642202E-2</v>
+      </c>
+      <c r="I52" s="4">
+        <v>4.4115380000000003E-2</v>
+      </c>
+      <c r="K52">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>2.5156055840595024E-2</v>
+      </c>
+      <c r="N52">
+        <v>1.6183035714285716E-2</v>
+      </c>
+      <c r="O52">
+        <v>1.8535399574597388E-2</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1.569506726457399E-3</v>
+      </c>
+      <c r="R52" s="21"/>
+      <c r="S52">
+        <v>3.350083752093802E-2</v>
+      </c>
+      <c r="T52" t="s">
         <v>34</v>
       </c>
-      <c r="V45" t="s">
+      <c r="V52" t="s">
         <v>163</v>
       </c>
-      <c r="W45" s="7" t="s">
+      <c r="W52" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X45" s="7" t="s">
+      <c r="X52" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="7" t="s">
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AE45" s="7" t="s">
+      <c r="AE52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AF45" s="7" t="s">
+      <c r="AF52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AG45" s="7" t="s">
+      <c r="AG52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AH45" s="7" t="s">
+      <c r="AH52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AI45" s="7" t="s">
+      <c r="AI52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AJ45" s="7" t="s">
+      <c r="AJ52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AK45" s="7" t="s">
+      <c r="AK52" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="AL45" s="7"/>
-    </row>
-    <row r="46" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A46" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="C46" s="5">
+      <c r="AL52" s="7"/>
+    </row>
+    <row r="53" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A53" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C53" s="5">
         <v>0</v>
       </c>
-      <c r="D46" s="5">
-        <v>1.1123470522803114E-3</v>
-      </c>
-      <c r="E46" s="5">
-        <v>2.6333442408376963E-2</v>
-      </c>
-      <c r="F46" s="5">
-        <v>4.5871559633027525E-2</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5">
+      <c r="D53" s="5">
         <v>0</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5">
-        <v>2.8199999999999999E-2</v>
-      </c>
-      <c r="L46" s="5">
-        <v>2.1276595744680851E-2</v>
-      </c>
-      <c r="M46" s="5">
-        <v>3.2714861804723751E-2</v>
-      </c>
-      <c r="N46" s="5">
-        <v>2.7994791666666668E-2</v>
-      </c>
-      <c r="O46" s="5">
-        <v>2.3701002734731084E-2</v>
-      </c>
-      <c r="P46" s="5">
-        <v>9.6654275092936809E-2</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>0.12645739910313902</v>
-      </c>
-      <c r="R46" s="20"/>
-      <c r="S46" s="5">
-        <v>8.3752093802345051E-3</v>
-      </c>
-      <c r="T46" s="5" t="s">
+      <c r="E53" s="5">
+        <v>2.5196335078534033E-3</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5">
+        <v>0</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <v>7.5969025254658709E-4</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>0</v>
+      </c>
+      <c r="R53" s="20"/>
+      <c r="S53" s="5">
+        <v>0.27805695142378561</v>
+      </c>
+      <c r="T53" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5" t="s">
+      <c r="U53" s="5"/>
+      <c r="V53" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="W46" s="6" t="s">
+      <c r="W53" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="X46" s="6" t="s">
+      <c r="X53" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6" t="s">
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AE46" s="6" t="s">
+      <c r="AE53" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AF46" s="6" t="s">
+      <c r="AF53" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AG46" s="6" t="s">
+      <c r="AG53" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AH46" s="6" t="s">
+      <c r="AH53" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AI46" s="6" t="s">
+      <c r="AI53" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AJ46" s="6" t="s">
+      <c r="AJ53" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AK46" s="6" t="s">
+      <c r="AK53" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AL46" s="6"/>
-    </row>
-    <row r="47" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A47" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0.5</v>
-      </c>
-      <c r="E47">
-        <v>6.1420157068062829E-2</v>
-      </c>
-      <c r="F47">
-        <v>3.669724770642202E-2</v>
-      </c>
-      <c r="I47" s="4">
-        <v>4.4115380000000003E-2</v>
-      </c>
-      <c r="K47">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>2.5156055840595024E-2</v>
-      </c>
-      <c r="N47">
-        <v>1.6183035714285716E-2</v>
-      </c>
-      <c r="O47">
-        <v>1.8535399574597388E-2</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>1.569506726457399E-3</v>
-      </c>
-      <c r="R47" s="21"/>
-      <c r="S47">
-        <v>3.350083752093802E-2</v>
-      </c>
-      <c r="T47" t="s">
+      <c r="AL53" s="6"/>
+    </row>
+    <row r="54" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A54" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="V47" t="s">
-        <v>163</v>
-      </c>
-      <c r="W47" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="X47" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK47" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL47" s="7"/>
-    </row>
-    <row r="48" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A48" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="C48" s="5">
-        <v>0</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5">
-        <v>2.5196335078534033E-3</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5">
-        <v>0</v>
-      </c>
-      <c r="L48" s="5">
-        <v>0</v>
-      </c>
-      <c r="M48" s="5">
-        <v>7.5969025254658709E-4</v>
-      </c>
-      <c r="N48" s="5">
-        <v>0</v>
-      </c>
-      <c r="O48" s="5">
-        <v>0</v>
-      </c>
-      <c r="P48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>0</v>
-      </c>
-      <c r="R48" s="20"/>
-      <c r="S48" s="5">
-        <v>0.27805695142378561</v>
-      </c>
-      <c r="T48" s="5" t="s">
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="13"/>
+      <c r="AL54" s="7"/>
+    </row>
+    <row r="55" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="W48" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="X48" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK48" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL48" s="6"/>
-    </row>
-    <row r="49" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A49" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12" t="s">
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6"/>
+    </row>
+    <row r="56" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="R56" s="21"/>
+      <c r="T56" t="s">
         <v>34</v>
       </c>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="7"/>
-    </row>
-    <row r="50" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A50" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5" t="s">
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+    </row>
+    <row r="57" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="6"/>
-      <c r="AK50" s="6"/>
-      <c r="AL50" s="6"/>
-    </row>
-    <row r="51" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="R51" s="21"/>
-      <c r="T51" t="s">
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="6"/>
+    </row>
+    <row r="58" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="R58" s="21"/>
+      <c r="T58" t="s">
         <v>34</v>
       </c>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
-      <c r="AG51" s="7"/>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="7"/>
-      <c r="AJ51" s="7"/>
-      <c r="AK51" s="7"/>
-      <c r="AL51" s="7"/>
-    </row>
-    <row r="52" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A52" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5" t="s">
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+    </row>
+    <row r="59" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="6"/>
-      <c r="AG52" s="6"/>
-      <c r="AH52" s="6"/>
-      <c r="AI52" s="6"/>
-      <c r="AJ52" s="6"/>
-      <c r="AK52" s="6"/>
-      <c r="AL52" s="6"/>
-    </row>
-    <row r="53" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A53" t="s">
-        <v>47</v>
-      </c>
-      <c r="R53" s="21"/>
-      <c r="T53" t="s">
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
+    </row>
+    <row r="60" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="R60" s="21"/>
+      <c r="T60" t="s">
         <v>34</v>
       </c>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="7"/>
-      <c r="AH53" s="7"/>
-      <c r="AI53" s="7"/>
-      <c r="AJ53" s="7"/>
-      <c r="AK53" s="7"/>
-      <c r="AL53" s="7"/>
-    </row>
-    <row r="54" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A54" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5" t="s">
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+    </row>
+    <row r="61" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="6"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="6"/>
-      <c r="AG54" s="6"/>
-      <c r="AH54" s="6"/>
-      <c r="AI54" s="6"/>
-      <c r="AJ54" s="6"/>
-      <c r="AK54" s="6"/>
-      <c r="AL54" s="6"/>
-    </row>
-    <row r="55" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A55" t="s">
-        <v>49</v>
-      </c>
-      <c r="R55" s="21"/>
-      <c r="T55" t="s">
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6"/>
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="6"/>
+    </row>
+    <row r="62" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="R62" s="21"/>
+      <c r="T62" t="s">
         <v>34</v>
       </c>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7"/>
-      <c r="AD55" s="7"/>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
-      <c r="AG55" s="7"/>
-      <c r="AH55" s="7"/>
-      <c r="AI55" s="7"/>
-      <c r="AJ55" s="7"/>
-      <c r="AK55" s="7"/>
-      <c r="AL55" s="7"/>
-    </row>
-    <row r="56" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A56" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5" t="s">
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+    </row>
+    <row r="63" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-      <c r="AA56" s="6"/>
-      <c r="AB56" s="6"/>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="6"/>
-      <c r="AG56" s="6"/>
-      <c r="AH56" s="6"/>
-      <c r="AI56" s="6"/>
-      <c r="AJ56" s="6"/>
-      <c r="AK56" s="6"/>
-      <c r="AL56" s="6"/>
-    </row>
-    <row r="57" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A57" t="s">
-        <v>51</v>
-      </c>
-      <c r="R57" s="21"/>
-      <c r="T57" t="s">
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6"/>
+    </row>
+    <row r="64" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="R64" s="21"/>
+      <c r="T64" t="s">
         <v>34</v>
       </c>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="7"/>
-      <c r="AH57" s="7"/>
-      <c r="AI57" s="7"/>
-      <c r="AJ57" s="7"/>
-      <c r="AK57" s="7"/>
-      <c r="AL57" s="7"/>
-    </row>
-    <row r="58" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A58" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5" t="s">
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="7"/>
+    </row>
+    <row r="65" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="6"/>
-      <c r="AI58" s="6"/>
-      <c r="AJ58" s="6"/>
-      <c r="AK58" s="6"/>
-      <c r="AL58" s="6"/>
-    </row>
-    <row r="59" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A59" t="s">
-        <v>53</v>
-      </c>
-      <c r="R59" s="21"/>
-      <c r="T59" t="s">
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="6"/>
+    </row>
+    <row r="66" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="R66" s="21"/>
+      <c r="T66" t="s">
         <v>34</v>
       </c>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="7"/>
-      <c r="AE59" s="7"/>
-      <c r="AF59" s="7"/>
-      <c r="AG59" s="7"/>
-      <c r="AH59" s="7"/>
-      <c r="AI59" s="7"/>
-      <c r="AJ59" s="7"/>
-      <c r="AK59" s="7"/>
-      <c r="AL59" s="7"/>
-    </row>
-    <row r="60" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A60" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5" t="s">
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="7"/>
+      <c r="AI66" s="7"/>
+      <c r="AJ66" s="7"/>
+      <c r="AK66" s="7"/>
+      <c r="AL66" s="7"/>
+    </row>
+    <row r="67" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-      <c r="AA60" s="6"/>
-      <c r="AB60" s="6"/>
-      <c r="AC60" s="6"/>
-      <c r="AD60" s="6"/>
-      <c r="AE60" s="6"/>
-      <c r="AF60" s="6"/>
-      <c r="AG60" s="6"/>
-      <c r="AH60" s="6"/>
-      <c r="AI60" s="6"/>
-      <c r="AJ60" s="6"/>
-      <c r="AK60" s="6"/>
-      <c r="AL60" s="6"/>
-    </row>
-    <row r="61" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="R61" s="21"/>
-      <c r="T61" t="s">
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="6"/>
+      <c r="AK67" s="6"/>
+      <c r="AL67" s="6"/>
+    </row>
+    <row r="68" spans="1:38" ht="14.5" customHeight="1">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="R68" s="21"/>
+      <c r="T68" t="s">
         <v>34</v>
       </c>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="7"/>
-      <c r="AE61" s="7"/>
-      <c r="AF61" s="7"/>
-      <c r="AG61" s="7"/>
-      <c r="AH61" s="7"/>
-      <c r="AI61" s="7"/>
-      <c r="AJ61" s="7"/>
-      <c r="AK61" s="7"/>
-      <c r="AL61" s="7"/>
-    </row>
-    <row r="62" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A62" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5" t="s">
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7"/>
+      <c r="AH68" s="7"/>
+      <c r="AI68" s="7"/>
+      <c r="AJ68" s="7"/>
+      <c r="AK68" s="7"/>
+      <c r="AL68" s="7"/>
+    </row>
+    <row r="69" spans="1:38">
+      <c r="A69" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
-      <c r="AA62" s="6"/>
-      <c r="AB62" s="6"/>
-      <c r="AC62" s="6"/>
-      <c r="AD62" s="6"/>
-      <c r="AE62" s="6"/>
-      <c r="AF62" s="6"/>
-      <c r="AG62" s="6"/>
-      <c r="AH62" s="6"/>
-      <c r="AI62" s="6"/>
-      <c r="AJ62" s="6"/>
-      <c r="AK62" s="6"/>
-      <c r="AL62" s="6"/>
-    </row>
-    <row r="63" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="R63" s="21"/>
-      <c r="T63" t="s">
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6"/>
+      <c r="AL69" s="6"/>
+    </row>
+    <row r="70" spans="1:38">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="R70" s="21"/>
+      <c r="T70" t="s">
         <v>34</v>
       </c>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="7"/>
-      <c r="AB63" s="7"/>
-      <c r="AC63" s="7"/>
-      <c r="AD63" s="7"/>
-      <c r="AE63" s="7"/>
-      <c r="AF63" s="7"/>
-      <c r="AG63" s="7"/>
-      <c r="AH63" s="7"/>
-      <c r="AI63" s="7"/>
-      <c r="AJ63" s="7"/>
-      <c r="AK63" s="7"/>
-      <c r="AL63" s="7"/>
-    </row>
-    <row r="64" spans="1:38">
-      <c r="A64" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5" t="s">
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="7"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="7"/>
+      <c r="AJ70" s="7"/>
+      <c r="AK70" s="7"/>
+      <c r="AL70" s="7"/>
+    </row>
+    <row r="71" spans="1:38">
+      <c r="A71" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
-      <c r="AA64" s="6"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="6"/>
-      <c r="AF64" s="6"/>
-      <c r="AG64" s="6"/>
-      <c r="AH64" s="6"/>
-      <c r="AI64" s="6"/>
-      <c r="AJ64" s="6"/>
-      <c r="AK64" s="6"/>
-      <c r="AL64" s="6"/>
-    </row>
-    <row r="65" spans="1:38">
-      <c r="A65" t="s">
-        <v>59</v>
-      </c>
-      <c r="R65" s="21"/>
-      <c r="T65" t="s">
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="6"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="6"/>
+      <c r="AJ71" s="6"/>
+      <c r="AK71" s="6"/>
+      <c r="AL71" s="6"/>
+    </row>
+    <row r="72" spans="1:38">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="R72" s="21"/>
+      <c r="T72" t="s">
         <v>34</v>
       </c>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="7"/>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
-      <c r="AC65" s="7"/>
-      <c r="AD65" s="7"/>
-      <c r="AE65" s="7"/>
-      <c r="AF65" s="7"/>
-      <c r="AG65" s="7"/>
-      <c r="AH65" s="7"/>
-      <c r="AI65" s="7"/>
-      <c r="AJ65" s="7"/>
-      <c r="AK65" s="7"/>
-      <c r="AL65" s="7"/>
-    </row>
-    <row r="66" spans="1:38">
-      <c r="A66" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5" t="s">
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7"/>
+      <c r="AH72" s="7"/>
+      <c r="AI72" s="7"/>
+      <c r="AJ72" s="7"/>
+      <c r="AK72" s="7"/>
+      <c r="AL72" s="7"/>
+    </row>
+    <row r="73" spans="1:38">
+      <c r="A73" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="6"/>
-      <c r="AB66" s="6"/>
-      <c r="AC66" s="6"/>
-      <c r="AD66" s="6"/>
-      <c r="AE66" s="6"/>
-      <c r="AF66" s="6"/>
-      <c r="AG66" s="6"/>
-      <c r="AH66" s="6"/>
-      <c r="AI66" s="6"/>
-      <c r="AJ66" s="6"/>
-      <c r="AK66" s="6"/>
-      <c r="AL66" s="6"/>
-    </row>
-    <row r="67" spans="1:38">
-      <c r="A67" t="s">
-        <v>61</v>
-      </c>
-      <c r="R67" s="21"/>
-      <c r="T67" t="s">
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="6"/>
+    </row>
+    <row r="74" spans="1:38">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="R74" s="21"/>
+      <c r="T74" t="s">
         <v>34</v>
       </c>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
-      <c r="AC67" s="7"/>
-      <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
-      <c r="AF67" s="7"/>
-      <c r="AG67" s="7"/>
-      <c r="AH67" s="7"/>
-      <c r="AI67" s="7"/>
-      <c r="AJ67" s="7"/>
-      <c r="AK67" s="7"/>
-      <c r="AL67" s="7"/>
-    </row>
-    <row r="68" spans="1:38">
-      <c r="A68" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5" t="s">
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="7"/>
+      <c r="AH74" s="7"/>
+      <c r="AI74" s="7"/>
+      <c r="AJ74" s="7"/>
+      <c r="AK74" s="7"/>
+      <c r="AL74" s="7"/>
+    </row>
+    <row r="75" spans="1:38">
+      <c r="A75" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
-      <c r="AA68" s="6"/>
-      <c r="AB68" s="6"/>
-      <c r="AC68" s="6"/>
-      <c r="AD68" s="6"/>
-      <c r="AE68" s="6"/>
-      <c r="AF68" s="6"/>
-      <c r="AG68" s="6"/>
-      <c r="AH68" s="6"/>
-      <c r="AI68" s="6"/>
-      <c r="AJ68" s="6"/>
-      <c r="AK68" s="6"/>
-      <c r="AL68" s="6"/>
-    </row>
-    <row r="69" spans="1:38">
-      <c r="A69" t="s">
-        <v>63</v>
-      </c>
-      <c r="R69" s="21"/>
-      <c r="T69" t="s">
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6"/>
+      <c r="AF75" s="6"/>
+      <c r="AG75" s="6"/>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6"/>
+      <c r="AK75" s="6"/>
+      <c r="AL75" s="6"/>
+    </row>
+    <row r="76" spans="1:38">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="R76" s="21"/>
+      <c r="T76" t="s">
         <v>34</v>
       </c>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
-      <c r="AA69" s="7"/>
-      <c r="AB69" s="7"/>
-      <c r="AC69" s="7"/>
-      <c r="AD69" s="7"/>
-      <c r="AE69" s="7"/>
-      <c r="AF69" s="7"/>
-      <c r="AG69" s="7"/>
-      <c r="AH69" s="7"/>
-      <c r="AI69" s="7"/>
-      <c r="AJ69" s="7"/>
-      <c r="AK69" s="7"/>
-      <c r="AL69" s="7"/>
-    </row>
-    <row r="70" spans="1:38">
-      <c r="A70" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5" t="s">
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7"/>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="7"/>
+      <c r="AG76" s="7"/>
+      <c r="AH76" s="7"/>
+      <c r="AI76" s="7"/>
+      <c r="AJ76" s="7"/>
+      <c r="AK76" s="7"/>
+      <c r="AL76" s="7"/>
+    </row>
+    <row r="77" spans="1:38">
+      <c r="A77" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-      <c r="AA70" s="6"/>
-      <c r="AB70" s="6"/>
-      <c r="AC70" s="6"/>
-      <c r="AD70" s="6"/>
-      <c r="AE70" s="6"/>
-      <c r="AF70" s="6"/>
-      <c r="AG70" s="6"/>
-      <c r="AH70" s="6"/>
-      <c r="AI70" s="6"/>
-      <c r="AJ70" s="6"/>
-      <c r="AK70" s="6"/>
-      <c r="AL70" s="6"/>
-    </row>
-    <row r="71" spans="1:38">
-      <c r="A71" t="s">
-        <v>65</v>
-      </c>
-      <c r="R71" s="21"/>
-      <c r="T71" t="s">
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="6"/>
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6"/>
+      <c r="AL77" s="6"/>
+    </row>
+    <row r="78" spans="1:38">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="R78" s="21"/>
+      <c r="T78" t="s">
         <v>34</v>
       </c>
-      <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
-      <c r="W71" s="7"/>
-      <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
-      <c r="Z71" s="7"/>
-      <c r="AA71" s="7"/>
-      <c r="AB71" s="7"/>
-      <c r="AC71" s="7"/>
-      <c r="AD71" s="7"/>
-      <c r="AE71" s="7"/>
-      <c r="AF71" s="7"/>
-      <c r="AG71" s="7"/>
-      <c r="AH71" s="7"/>
-      <c r="AI71" s="7"/>
-      <c r="AJ71" s="7"/>
-      <c r="AK71" s="7"/>
-      <c r="AL71" s="7"/>
-    </row>
-    <row r="72" spans="1:38">
-      <c r="A72" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5" t="s">
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7"/>
+      <c r="AG78" s="7"/>
+      <c r="AH78" s="7"/>
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="7"/>
+      <c r="AK78" s="7"/>
+      <c r="AL78" s="7"/>
+    </row>
+    <row r="79" spans="1:38">
+      <c r="A79" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
-      <c r="AA72" s="6"/>
-      <c r="AB72" s="6"/>
-      <c r="AC72" s="6"/>
-      <c r="AD72" s="6"/>
-      <c r="AE72" s="6"/>
-      <c r="AF72" s="6"/>
-      <c r="AG72" s="6"/>
-      <c r="AH72" s="6"/>
-      <c r="AI72" s="6"/>
-      <c r="AJ72" s="6"/>
-      <c r="AK72" s="6"/>
-      <c r="AL72" s="6"/>
-    </row>
-    <row r="73" spans="1:38">
-      <c r="A73" t="s">
-        <v>67</v>
-      </c>
-      <c r="R73" s="21"/>
-      <c r="T73" t="s">
-        <v>34</v>
-      </c>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7"/>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="7"/>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="7"/>
-      <c r="AG73" s="7"/>
-      <c r="AH73" s="7"/>
-      <c r="AI73" s="7"/>
-      <c r="AJ73" s="7"/>
-      <c r="AK73" s="7"/>
-      <c r="AL73" s="7"/>
-    </row>
-    <row r="74" spans="1:38">
-      <c r="A74" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
-      <c r="AA74" s="6"/>
-      <c r="AB74" s="6"/>
-      <c r="AC74" s="6"/>
-      <c r="AD74" s="6"/>
-      <c r="AE74" s="6"/>
-      <c r="AF74" s="6"/>
-      <c r="AG74" s="6"/>
-      <c r="AH74" s="6"/>
-      <c r="AI74" s="6"/>
-      <c r="AJ74" s="6"/>
-      <c r="AK74" s="6"/>
-      <c r="AL74" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AB37" r:id="rId1" xr:uid="{6C67CDAA-2665-4775-9282-51BF337D6400}"/>
+    <hyperlink ref="AB42" r:id="rId1" xr:uid="{6C67CDAA-2665-4775-9282-51BF337D6400}"/>
     <hyperlink ref="AA18" r:id="rId2" xr:uid="{DA6EF610-1C91-4FFC-B33E-FCB1533D420F}"/>
     <hyperlink ref="AC18" r:id="rId3" location=":~:text=Whilst%20MLCCs%20are%20susceptible%20to,of%202%20years%20or%20less." xr:uid="{FABCDFF4-E4CA-458B-BCEE-0CAD21F7BF23}"/>
     <hyperlink ref="AA3" r:id="rId4" xr:uid="{058CD847-D57F-4B41-8903-40B77D35105D}"/>
-    <hyperlink ref="AA27" r:id="rId5" display="https://www.sciencedirect.com/science/article/pii/S0263436821000780" xr:uid="{895943B2-F3C7-4D0B-B90F-3A30C24BE91A}"/>
-    <hyperlink ref="AA30" r:id="rId6" xr:uid="{FFFDAB7D-1256-45F7-AFB1-D22344886650}"/>
-    <hyperlink ref="AA42" r:id="rId7" display="https://www.statista.com/statistics/1009446/tungsten-price/" xr:uid="{97F82DFC-6810-4593-8955-863ACBB3DF37}"/>
+    <hyperlink ref="AA32" r:id="rId5" display="https://www.sciencedirect.com/science/article/pii/S0263436821000780" xr:uid="{895943B2-F3C7-4D0B-B90F-3A30C24BE91A}"/>
+    <hyperlink ref="AA35" r:id="rId6" xr:uid="{FFFDAB7D-1256-45F7-AFB1-D22344886650}"/>
+    <hyperlink ref="AA47" r:id="rId7" display="https://www.statista.com/statistics/1009446/tungsten-price/" xr:uid="{97F82DFC-6810-4593-8955-863ACBB3DF37}"/>
     <hyperlink ref="AB5" r:id="rId8" display="https://pubs.usgs.gov/periodicals/mcs2020/mcs2020-tin.pdf" xr:uid="{A3F1EB02-E5A1-49A7-8496-FD8516064D80}"/>
     <hyperlink ref="AC3" r:id="rId9" xr:uid="{ED5EB351-2DB6-48D4-A8B2-6EB12F62BC77}"/>
-    <hyperlink ref="AC43" r:id="rId10" xr:uid="{846992AD-3ACB-4557-A7FA-7B00720CF198}"/>
-    <hyperlink ref="AC42" r:id="rId11" display="https://www.argusmedia.com/en/news/2222244-eu-tantalum-prices-rebound-on-higher-input-costs" xr:uid="{B03EDC8A-A85B-4AE1-81A1-8460229585D4}"/>
-    <hyperlink ref="AC27" r:id="rId12" xr:uid="{F9134EB4-AF7C-4CC4-BB1D-F4A8A307BE54}"/>
-    <hyperlink ref="AC28" r:id="rId13" xr:uid="{E0E0ACF1-2E42-4611-9CCF-374D8A3492D0}"/>
-    <hyperlink ref="AA43" r:id="rId14" xr:uid="{9E254A45-F310-4AC5-BD1A-6656B4CE3760}"/>
-    <hyperlink ref="AH42" r:id="rId15" xr:uid="{6B03944F-71E5-41D8-B06A-84DE89DA203B}"/>
-    <hyperlink ref="AI33" r:id="rId16" xr:uid="{908B8CEB-0A15-4A26-8D30-F41FB42DECF8}"/>
+    <hyperlink ref="AC48" r:id="rId10" xr:uid="{846992AD-3ACB-4557-A7FA-7B00720CF198}"/>
+    <hyperlink ref="AC47" r:id="rId11" display="https://www.argusmedia.com/en/news/2222244-eu-tantalum-prices-rebound-on-higher-input-costs" xr:uid="{B03EDC8A-A85B-4AE1-81A1-8460229585D4}"/>
+    <hyperlink ref="AC32" r:id="rId12" xr:uid="{F9134EB4-AF7C-4CC4-BB1D-F4A8A307BE54}"/>
+    <hyperlink ref="AC33" r:id="rId13" xr:uid="{E0E0ACF1-2E42-4611-9CCF-374D8A3492D0}"/>
+    <hyperlink ref="AA48" r:id="rId14" xr:uid="{9E254A45-F310-4AC5-BD1A-6656B4CE3760}"/>
+    <hyperlink ref="AH47" r:id="rId15" xr:uid="{6B03944F-71E5-41D8-B06A-84DE89DA203B}"/>
+    <hyperlink ref="AI38" r:id="rId16" xr:uid="{908B8CEB-0A15-4A26-8D30-F41FB42DECF8}"/>
     <hyperlink ref="AJ19" r:id="rId17" display="https://www.mdpi.com/2079-9276/10/9/93/pdf" xr:uid="{6918E342-8074-47B2-B087-613D5AC7C8D0}"/>
-    <hyperlink ref="AE34" r:id="rId18" display="https://www.copper.org/publications/newsletters/innovations/2001/08/hydrometallurgy.html" xr:uid="{BF4C9410-63BA-47BC-A63D-15337BE7BC5D}"/>
+    <hyperlink ref="AE39" r:id="rId18" display="https://www.copper.org/publications/newsletters/innovations/2001/08/hydrometallurgy.html" xr:uid="{BF4C9410-63BA-47BC-A63D-15337BE7BC5D}"/>
     <hyperlink ref="AF3" r:id="rId19" location=":~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." display="https://www.globenewswire.com/news-release/2020/04/22/2020156/0/en/Global-Silver-Demand-Edged-Higher-in-2019-With-Investment-Demand-Up-12-While-Silver-Mine-Supply-Fell-for-the-Fourth-Consecutive-Year.html#:~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." xr:uid="{7E3C5FCD-8F51-4490-BBE5-6F141696AF97}"/>
     <hyperlink ref="AH6" r:id="rId20" xr:uid="{0F67CDD1-7035-DC44-9CA6-CA547F4A120E}"/>
     <hyperlink ref="AF7" r:id="rId21" xr:uid="{798E403D-86FA-8F4E-A18B-F39FDE87D1E1}"/>
@@ -9474,33 +10067,43 @@
     <hyperlink ref="AB10" r:id="rId27" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{1F472A81-9D59-9340-B578-AD40B57FC5DB}"/>
     <hyperlink ref="AB11" r:id="rId28" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{6A858768-DF1D-7A42-9B84-D34C269B492D}"/>
     <hyperlink ref="AH7" r:id="rId29" xr:uid="{BDB1FBCE-8E5B-E446-9521-78DC3859DF64}"/>
-    <hyperlink ref="AH26" r:id="rId30" display="https://www.recyclingtoday.com/article/battery-council-international-lead-battery-recycling/" xr:uid="{EEE1D733-973D-194D-89E1-ED66138A0CA6}"/>
-    <hyperlink ref="AG22" r:id="rId31" xr:uid="{1EBCFBC8-5E0B-3343-B5E4-413BE8F9F076}"/>
+    <hyperlink ref="AH31" r:id="rId30" display="https://www.recyclingtoday.com/article/battery-council-international-lead-battery-recycling/" xr:uid="{EEE1D733-973D-194D-89E1-ED66138A0CA6}"/>
+    <hyperlink ref="AG27" r:id="rId31" xr:uid="{1EBCFBC8-5E0B-3343-B5E4-413BE8F9F076}"/>
     <hyperlink ref="AE17" r:id="rId32" xr:uid="{5BF8B3C9-6734-4540-AB66-56985B2BD4D4}"/>
     <hyperlink ref="AE18" r:id="rId33" xr:uid="{3F6D9065-8733-8048-969F-D3F9B2D846FF}"/>
     <hyperlink ref="AE19" r:id="rId34" xr:uid="{DDC6013A-65C0-C747-8B90-58FABD091EA8}"/>
     <hyperlink ref="AE20" r:id="rId35" xr:uid="{34C61E79-65B5-784B-91E7-D6EFA72E1C16}"/>
     <hyperlink ref="AE21" r:id="rId36" xr:uid="{28856D38-242E-DF4D-A9C7-34619BAC263B}"/>
-    <hyperlink ref="AE22" r:id="rId37" xr:uid="{DD334BF5-7CCC-854C-87DB-FD9A495C64E3}"/>
-    <hyperlink ref="AE23" r:id="rId38" xr:uid="{960BA8A2-4FFC-D049-A2D2-78ED92322EB5}"/>
-    <hyperlink ref="AE24" r:id="rId39" xr:uid="{9776F84E-607F-4340-99D2-0CF5831412A8}"/>
-    <hyperlink ref="AE25" r:id="rId40" xr:uid="{E9CAE11E-46BE-D941-AC51-89FBCFAD8F10}"/>
-    <hyperlink ref="AE26" r:id="rId41" xr:uid="{08C1E42C-92E1-A54A-9894-BB1716DCEAAE}"/>
-    <hyperlink ref="AB22" r:id="rId42" xr:uid="{AB2B8C02-763D-B846-8D3A-C52B9C52ECE4}"/>
-    <hyperlink ref="AB23" r:id="rId43" xr:uid="{D83C3CF7-5DCF-3B40-A3CE-426314CA2F28}"/>
-    <hyperlink ref="AB24" r:id="rId44" xr:uid="{3658CDFA-B475-A248-8C69-D9B9ABC6614B}"/>
-    <hyperlink ref="AB25" r:id="rId45" xr:uid="{8080BCC5-66E2-2349-97CE-9A809D50840E}"/>
-    <hyperlink ref="AB26" r:id="rId46" xr:uid="{BBF2DF10-2671-734D-88B6-394D9C60D4A5}"/>
-    <hyperlink ref="AG26" r:id="rId47" xr:uid="{F7723C52-BBC3-F24E-AAE4-A9B42CB8045B}"/>
-    <hyperlink ref="X38" r:id="rId48" xr:uid="{324D83B3-AFAE-2543-8E69-C10D887EE7AB}"/>
-    <hyperlink ref="AG23" r:id="rId49" xr:uid="{DEC718A9-543E-DA46-97C4-748B0830EED9}"/>
-    <hyperlink ref="AG24" r:id="rId50" xr:uid="{841D0090-CE2C-6B4D-8911-C602FC5CA170}"/>
-    <hyperlink ref="AG25" r:id="rId51" xr:uid="{EF554BD6-D3AF-2A4B-AB8C-E9433478750A}"/>
+    <hyperlink ref="AE27" r:id="rId37" xr:uid="{DD334BF5-7CCC-854C-87DB-FD9A495C64E3}"/>
+    <hyperlink ref="AE28" r:id="rId38" xr:uid="{960BA8A2-4FFC-D049-A2D2-78ED92322EB5}"/>
+    <hyperlink ref="AE29" r:id="rId39" xr:uid="{9776F84E-607F-4340-99D2-0CF5831412A8}"/>
+    <hyperlink ref="AE30" r:id="rId40" xr:uid="{E9CAE11E-46BE-D941-AC51-89FBCFAD8F10}"/>
+    <hyperlink ref="AE31" r:id="rId41" xr:uid="{08C1E42C-92E1-A54A-9894-BB1716DCEAAE}"/>
+    <hyperlink ref="AB27" r:id="rId42" xr:uid="{AB2B8C02-763D-B846-8D3A-C52B9C52ECE4}"/>
+    <hyperlink ref="AB28" r:id="rId43" xr:uid="{D83C3CF7-5DCF-3B40-A3CE-426314CA2F28}"/>
+    <hyperlink ref="AB29" r:id="rId44" xr:uid="{3658CDFA-B475-A248-8C69-D9B9ABC6614B}"/>
+    <hyperlink ref="AB30" r:id="rId45" xr:uid="{8080BCC5-66E2-2349-97CE-9A809D50840E}"/>
+    <hyperlink ref="AB31" r:id="rId46" xr:uid="{BBF2DF10-2671-734D-88B6-394D9C60D4A5}"/>
+    <hyperlink ref="AG31" r:id="rId47" xr:uid="{F7723C52-BBC3-F24E-AAE4-A9B42CB8045B}"/>
+    <hyperlink ref="X43" r:id="rId48" xr:uid="{324D83B3-AFAE-2543-8E69-C10D887EE7AB}"/>
+    <hyperlink ref="AG28" r:id="rId49" xr:uid="{DEC718A9-543E-DA46-97C4-748B0830EED9}"/>
+    <hyperlink ref="AG29" r:id="rId50" xr:uid="{841D0090-CE2C-6B4D-8911-C602FC5CA170}"/>
+    <hyperlink ref="AG30" r:id="rId51" xr:uid="{EF554BD6-D3AF-2A4B-AB8C-E9433478750A}"/>
+    <hyperlink ref="AA23" r:id="rId52" xr:uid="{1F1F9692-265E-EB4A-B340-ADBAE27BB8BE}"/>
+    <hyperlink ref="AC23" r:id="rId53" location=":~:text=Whilst%20MLCCs%20are%20susceptible%20to,of%202%20years%20or%20less." xr:uid="{DCBE729B-549B-F249-B4AC-F25B7CAD0B59}"/>
+    <hyperlink ref="AJ24" r:id="rId54" display="https://www.mdpi.com/2079-9276/10/9/93/pdf" xr:uid="{DE88708D-DBD3-F64C-8229-C156C477DEB1}"/>
+    <hyperlink ref="AE22" r:id="rId55" xr:uid="{7E80EC07-8259-D146-8140-8E3DD3B9F6EF}"/>
+    <hyperlink ref="AE23" r:id="rId56" xr:uid="{64C4618D-3ED1-094B-B542-0F6DE53871E6}"/>
+    <hyperlink ref="AE24" r:id="rId57" xr:uid="{F14A5AEF-9B21-A349-BE04-71F2A55E8274}"/>
+    <hyperlink ref="AE25" r:id="rId58" xr:uid="{3D01083B-008E-784D-A8F6-F38011D21DA1}"/>
+    <hyperlink ref="AE26" r:id="rId59" xr:uid="{A3B1D1D1-23AC-C74C-B4EC-56A9A594783F}"/>
+    <hyperlink ref="AE32" r:id="rId60" display="https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf" xr:uid="{7CA7D73C-4B66-8A4E-B88E-797839CD039A}"/>
+    <hyperlink ref="AE33" r:id="rId61" display="https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf" xr:uid="{8F7902EA-8E88-214B-9383-15F7FF36E6D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId62"/>
   <tableParts count="1">
-    <tablePart r:id="rId53"/>
+    <tablePart r:id="rId63"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9534,7 +10137,7 @@
         <v>187</v>
       </c>
       <c r="F1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9542,16 +10145,16 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" t="s">
         <v>316</v>
       </c>
-      <c r="D2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E2" t="s">
-        <v>317</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10090,13 +10693,13 @@
         <v>176</v>
       </c>
       <c r="G1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" t="s">
         <v>428</v>
-      </c>
-      <c r="H1" t="s">
-        <v>427</v>
-      </c>
-      <c r="I1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10104,25 +10707,25 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" t="s">
         <v>430</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>431</v>
       </c>
-      <c r="F2" t="s">
-        <v>432</v>
-      </c>
       <c r="G2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -10730,22 +11333,22 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I2" t="s">
         <v>182</v>
       </c>
       <c r="J2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11205,7 +11808,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -11420,7 +12023,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -11996,13 +12599,13 @@
         <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E2" t="s">
         <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -13053,7 +13656,7 @@
         <v>190</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L1" t="s">
         <v>180</v>
@@ -13062,7 +13665,7 @@
         <v>180</v>
       </c>
       <c r="Q1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -13070,29 +13673,29 @@
         <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M2" s="32"/>
       <c r="Q2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13797,13 +14400,13 @@
         <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L1" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" t="s">
         <v>413</v>
-      </c>
-      <c r="M1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13812,7 +14415,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J2">
         <v>1990</v>
@@ -14423,7 +15026,7 @@
         <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -15373,13 +15976,13 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -16181,7 +16784,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E28" sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16205,13 +16808,13 @@
         <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F72FD-8767-A141-88A6-303A582CAEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCE17FF-D198-7E46-9AD3-4E1DFD5CD634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="469">
   <si>
     <t>Al</t>
   </si>
@@ -849,9 +849,6 @@
     <t>https://www.hanceconstruction.com/news/blog/butler-building-renovation-and-durability-of-steel#:~:text=Steel%20buildings%20face%20fewer%20issues,from%2050%20to%20100%20years.</t>
   </si>
   <si>
-    <t>https://www.nationwidefibreglass.ie/how-long-do-fibreglass-roofs-last/#:~:text=Most%20fibreglass%20roofs%20are%20guaranteed,easy%20and%20almost%20un%2Dseen.</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/topics/social-sciences/tungsten</t>
   </si>
   <si>
@@ -867,9 +864,6 @@
     <t>https://semiengineering.com/are-chips-getting-more-reliable/#:~:text=Most%20advanced%20semiconductors%20are%20reliable,them%20could%20last%2050%20years.</t>
   </si>
   <si>
-    <t>https://digitalworld839.com/how-long-does-a-monitor-last/#:~:text=LCD%20monitors%20usually%20have%20a,for%20eight%20hours%20a%20day.</t>
-  </si>
-  <si>
     <t>solder /// https://www.evilmadscientist.com/2013/solder-expire/#:~:text=Flux%20cored%20solder%20wire%20has,years%20from%20date%20of%20manufacture.</t>
   </si>
   <si>
@@ -1179,9 +1173,6 @@
     <t>Fabrication efficiency of semifabrication - other</t>
   </si>
   <si>
-    <t>Mean product lifetime of sector - construction</t>
-  </si>
-  <si>
     <t>Sectoral fraction of scrap generated available for use, or the product of collection rate and sorting efficiency - other</t>
   </si>
   <si>
@@ -1429,6 +1420,78 @@
   </si>
   <si>
     <t>https://d9-wret.s3-us-west-2.amazonaws.com/assets/palladium/production/atoms/files/mcs-2019-nicke.pdf; https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf, assuming 750/2500 ratio for primary holds for secondary as well</t>
+  </si>
+  <si>
+    <t>Li2</t>
+  </si>
+  <si>
+    <t>Assumed</t>
+  </si>
+  <si>
+    <t>Not recycled anyway</t>
+  </si>
+  <si>
+    <t>From FAL's model</t>
+  </si>
+  <si>
+    <t>Estimatiion</t>
+  </si>
+  <si>
+    <t>Rough estimate</t>
+  </si>
+  <si>
+    <t>From S&amp;P</t>
+  </si>
+  <si>
+    <t>From regressions, may need to check if scale and s parameters correspond to mean and s</t>
+  </si>
+  <si>
+    <t>Might need ot check this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean annual growth from 2001-2019, </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>In 2010, the total production of PGMs was 690 tonnes, out of which 456 tonnes were mined from primary sources, 11 tonnes were co-produced from nickel ores, and 222 tonnes were obtained from secondary production [46] - Ayres, Material Efficiency: Rare and Critical Metals 2013</t>
+  </si>
+  <si>
+    <t>97.6% self, 2.4% Ni</t>
+  </si>
+  <si>
+    <t>Mean product lifetime of sector - other</t>
+  </si>
+  <si>
+    <t>80% of scrap is from auto catalysts in the USA in 2014 - Hughes, Platinum Group Metals: A Review of Resources, Production, and Usage with a Focus on Catalysts</t>
+  </si>
+  <si>
+    <t>Assuming jewelry acts as direct melt</t>
+  </si>
+  <si>
+    <t>commodity-market-overview_platinum.pdf (nornickel.com)</t>
+  </si>
+  <si>
+    <t>using jewelry value from Au/Ag</t>
+  </si>
+  <si>
+    <t>Using Al value</t>
+  </si>
+  <si>
+    <t>Using value from Au/Ag</t>
+  </si>
+  <si>
+    <t>Minimal collection</t>
+  </si>
+  <si>
+    <t>World Platinum Investment Council - Supply &amp; Demand - Historical Data</t>
+  </si>
+  <si>
+    <t>Primary supply - BGS</t>
+  </si>
+  <si>
+    <t>World Platinum Investment Council - Supply &amp; Demand - Historical Data (1975-2012 from Johnson Matthey, 2013-2018 from SFA (Oxford), 2019-2021 from Metals Focus)</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1603,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1555,6 +1618,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
@@ -1588,7 +1663,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1656,13 +1731,25 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="43">
     <dxf>
       <font>
         <b val="0"/>
@@ -2130,6 +2217,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
@@ -3800,28 +3903,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}" name="Table2" displayName="Table2" ref="A1:AL79" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
-  <autoFilter ref="A1:AL79" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}"/>
-  <tableColumns count="38">
-    <tableColumn id="1" xr3:uid="{40ADE3C0-5A2A-EF4F-8C0A-E78782D82E02}" name="Variable name in the Python model. All reported for 2019 where available or most recent year. " dataDxfId="37"/>
-    <tableColumn id="38" xr3:uid="{F1CC51E3-9D58-CB4E-B592-23659F5AD648}" name="Description" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{615A6B59-EBEC-C844-A1FB-87796630DC11}" name="Al" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{8BEB2A1A-6045-C140-997C-34C452B1D3D0}" name="Steel" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{5C86A66D-6EE9-B146-B55C-D8757F17B037}" name="Au" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{A6078A25-9A0C-A64B-9EE1-BA43315A365F}" name="Co" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{E0CEDA03-DC55-3B44-A7E5-0053003CDB10}" name="REEs" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{5865B79F-C134-2C40-BDEB-BBEAD1CBA704}" name="W" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{2C843D4E-B4BF-1B45-83BE-B63E46646133}" name="Sn" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{A5579C27-C0E7-FB46-A381-F1A4B88888E9}" name="Ta" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{57F0C03A-F849-764C-9937-672AC7FA7056}" name="Cu" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{58BB8033-7C57-D848-942D-0BA35942A4E5}" name="Ni" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{7D2E504B-DE0F-5048-8A9E-3349B8C91362}" name="Ag" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{20ADECBC-5BD7-1F43-B665-1C03CE65BE68}" name="Zn" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{F86548EA-FD6C-A542-8346-EE943D12FCEB}" name="Pb" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{D9E7B89D-2742-EE4A-A97B-9AA324E90CDA}" name="Mo" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{393A35BC-6237-DC47-B65B-B89C8241358C}" name="Pt" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{05D2296D-799C-314E-8B01-0CF90882530E}" name="Te" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{557B8136-A6CC-1240-B516-243DE5E1D903}" name="Li" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}" name="Table2" displayName="Table2" ref="A1:AN79" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+  <autoFilter ref="A1:AN79" xr:uid="{B92E5DA3-703D-0047-BF49-56E3494702E7}"/>
+  <tableColumns count="40">
+    <tableColumn id="1" xr3:uid="{40ADE3C0-5A2A-EF4F-8C0A-E78782D82E02}" name="Variable name in the Python model. All reported for 2019 where available or most recent year. " dataDxfId="39"/>
+    <tableColumn id="38" xr3:uid="{F1CC51E3-9D58-CB4E-B592-23659F5AD648}" name="Description" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{615A6B59-EBEC-C844-A1FB-87796630DC11}" name="Al" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{8BEB2A1A-6045-C140-997C-34C452B1D3D0}" name="Steel" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{5C86A66D-6EE9-B146-B55C-D8757F17B037}" name="Au" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{A6078A25-9A0C-A64B-9EE1-BA43315A365F}" name="Co" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{E0CEDA03-DC55-3B44-A7E5-0053003CDB10}" name="REEs" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{5865B79F-C134-2C40-BDEB-BBEAD1CBA704}" name="W" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{2C843D4E-B4BF-1B45-83BE-B63E46646133}" name="Sn" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{A5579C27-C0E7-FB46-A381-F1A4B88888E9}" name="Ta" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{57F0C03A-F849-764C-9937-672AC7FA7056}" name="Cu" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{58BB8033-7C57-D848-942D-0BA35942A4E5}" name="Ni" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{7D2E504B-DE0F-5048-8A9E-3349B8C91362}" name="Ag" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{20ADECBC-5BD7-1F43-B665-1C03CE65BE68}" name="Zn" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{F86548EA-FD6C-A542-8346-EE943D12FCEB}" name="Pb" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{D9E7B89D-2742-EE4A-A97B-9AA324E90CDA}" name="Mo" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{393A35BC-6237-DC47-B65B-B89C8241358C}" name="Pt" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{05D2296D-799C-314E-8B01-0CF90882530E}" name="Te" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{557B8136-A6CC-1240-B516-243DE5E1D903}" name="Li" dataDxfId="21"/>
+    <tableColumn id="39" xr3:uid="{523A77EA-FE5C-7D48-A73A-9DFC1D5873F6}" name="Li2" dataDxfId="20"/>
+    <tableColumn id="40" xr3:uid="{E8EA4472-4BAF-F842-971D-55B5841B5E06}" name="Si" dataDxfId="19"/>
     <tableColumn id="19" xr3:uid="{40279C4B-C46A-C043-BFA9-9E1B21916E95}" name="Module" dataDxfId="18"/>
     <tableColumn id="20" xr3:uid="{66B61934-2D32-564F-96D5-09E9629E5D56}" name="Notes" dataDxfId="17"/>
     <tableColumn id="21" xr3:uid="{645E4E69-6F50-804C-881D-880C834B0203}" name="Al notes" dataDxfId="16"/>
@@ -4143,45 +4248,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
-  <dimension ref="A1:AL79"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.1640625" customWidth="1"/>
-    <col min="3" max="19" width="8.83203125" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" customWidth="1"/>
-    <col min="22" max="22" width="9.83203125" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" customWidth="1"/>
-    <col min="25" max="25" width="10.1640625" customWidth="1"/>
-    <col min="26" max="26" width="11.5" customWidth="1"/>
-    <col min="27" max="27" width="9.83203125" customWidth="1"/>
-    <col min="28" max="28" width="10" customWidth="1"/>
+    <col min="3" max="18" width="8.83203125" customWidth="1"/>
+    <col min="19" max="21" width="12.33203125" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" customWidth="1"/>
+    <col min="24" max="24" width="9.83203125" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" customWidth="1"/>
+    <col min="27" max="27" width="10.1640625" customWidth="1"/>
+    <col min="28" max="28" width="11.5" customWidth="1"/>
     <col min="29" max="29" width="9.83203125" customWidth="1"/>
-    <col min="30" max="30" width="10.1640625" customWidth="1"/>
+    <col min="30" max="30" width="10" customWidth="1"/>
     <col min="31" max="31" width="9.83203125" customWidth="1"/>
     <col min="32" max="32" width="10.1640625" customWidth="1"/>
-    <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" customWidth="1"/>
     <col min="34" max="34" width="10.1640625" customWidth="1"/>
-    <col min="35" max="35" width="10.83203125" customWidth="1"/>
-    <col min="36" max="36" width="9.83203125" customWidth="1"/>
-    <col min="37" max="37" width="9.5" customWidth="1"/>
-    <col min="38" max="38" width="10" customWidth="1"/>
+    <col min="35" max="35" width="10" customWidth="1"/>
+    <col min="36" max="36" width="10.1640625" customWidth="1"/>
+    <col min="37" max="37" width="10.83203125" customWidth="1"/>
+    <col min="38" max="38" width="9.83203125" customWidth="1"/>
+    <col min="39" max="39" width="9.5" customWidth="1"/>
+    <col min="40" max="40" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="28" customFormat="1" ht="34" customHeight="1">
+    <row r="1" spans="1:40" s="28" customFormat="1" ht="34" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>0</v>
@@ -4229,75 +4335,81 @@
         <v>94</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>95</v>
       </c>
       <c r="T1" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="V1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="AL1" s="28" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AN1" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="14.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -4306,10 +4418,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
@@ -4321,77 +4433,83 @@
         <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>10</v>
+        <v>457</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="6" t="s">
+      <c r="T2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="14"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="AB2" s="6"/>
-      <c r="AC2" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="AF2" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AH2" s="6"/>
+        <v>422</v>
+      </c>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="AI2" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
+      <c r="AK2" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="AL2" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="14.5" customHeight="1">
+        <v>456</v>
+      </c>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="14.5" customHeight="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C3">
         <v>85768.388145129153</v>
@@ -4430,7 +4548,7 @@
         <v>261.40530000000001</v>
       </c>
       <c r="Q3">
-        <v>0.18</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="R3" s="16">
         <v>0.52</v>
@@ -4438,60 +4556,64 @@
       <c r="S3">
         <v>298.08800000000002</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="43">
+        <v>298.08800000000002</v>
+      </c>
+      <c r="U3" s="43"/>
+      <c r="V3" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AE3" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AH3" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AL3" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-    </row>
-    <row r="4" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="7"/>
+    </row>
+    <row r="4" spans="1:40" ht="14.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -4514,38 +4636,40 @@
         <v>1</v>
       </c>
       <c r="S4" s="5"/>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="6" t="s">
-        <v>408</v>
-      </c>
+      <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
+      <c r="AF4" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
       <c r="AL4" s="6"/>
-    </row>
-    <row r="5" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="6"/>
+    </row>
+    <row r="5" spans="1:40" ht="14.5" customHeight="1">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C5">
         <v>0.04</v>
@@ -4589,60 +4713,66 @@
       <c r="R5" s="16">
         <v>0.08</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="U5" s="43"/>
+      <c r="V5" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="W5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="X5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="Y5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="X5" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7" t="s">
+      <c r="Z5" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AD5" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AC5" s="7" t="s">
+      <c r="AE5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7" t="s">
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="AF5" s="7" t="s">
+      <c r="AH5" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="AG5" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH5" s="7" t="s">
+      <c r="AI5" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="AI5" s="7" t="s">
+      <c r="AK5" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="AJ5" s="7" t="s">
+      <c r="AL5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-    </row>
-    <row r="6" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM5" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="AN5" s="7"/>
+    </row>
+    <row r="6" spans="1:40" ht="14.5" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C6" s="5">
         <v>0.45100000000000001</v>
@@ -4690,62 +4820,66 @@
       <c r="S6" s="5">
         <v>0</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="U6" s="44"/>
+      <c r="V6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6" t="s">
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="Y6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="Z6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6" t="s">
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AD6" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AE6" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AF6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AG6" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="AF6" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AH6" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI6" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="AH6" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AJ6" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="AK6" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="AJ6" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="35" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="14.5" customHeight="1">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C7">
         <v>0.251</v>
@@ -4795,62 +4929,66 @@
       <c r="S7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U7" s="43"/>
+      <c r="V7" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7" t="s">
+      <c r="W7" s="7"/>
+      <c r="X7" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="Y7" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="Z7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7" t="s">
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH7" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="AC7" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF7" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="AG7" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH7" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="AI7" s="7" t="s">
+      <c r="AI7" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ7" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK7" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="AJ7" s="7" t="s">
+      <c r="AL7" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7" t="s">
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14.5" customHeight="1">
+    <row r="8" spans="1:40" ht="14.5" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C8" s="5">
         <v>0.11899999999999999</v>
@@ -4900,50 +5038,54 @@
       <c r="S8" s="5">
         <v>0.05</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="U8" s="44"/>
+      <c r="V8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6" t="s">
+      <c r="W8" s="6"/>
+      <c r="X8" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="Y8" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="Z8" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6" t="s">
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AD8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE8" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
-      <c r="AI8" s="6" t="s">
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
-    </row>
-    <row r="9" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="1:40" ht="14.5" customHeight="1">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C9">
         <v>0.11899999999999999</v>
@@ -4984,7 +5126,7 @@
         <v>0.08</v>
       </c>
       <c r="Q9">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
       <c r="R9" s="16">
         <v>0.2</v>
@@ -4992,52 +5134,56 @@
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="43">
+        <v>0</v>
+      </c>
+      <c r="U9" s="43"/>
+      <c r="V9" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7" t="s">
+      <c r="W9" s="7"/>
+      <c r="X9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="W9" s="7" t="s">
+      <c r="Y9" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="Z9" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7" t="s">
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC9" s="7" t="s">
+      <c r="AD9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE9" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="AD9" s="7" t="s">
+      <c r="AF9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7" t="s">
+      <c r="AH9" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
-    </row>
-    <row r="10" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="1:40" ht="14.5" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C10" s="5">
         <f>1-C11-C7-C9-C8</f>
@@ -5083,7 +5229,7 @@
         <v>0.13</v>
       </c>
       <c r="Q10" s="5">
-        <v>0.11</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R10" s="14">
         <v>0.2</v>
@@ -5092,52 +5238,58 @@
         <f>1-S11-S7-S8</f>
         <v>0.31</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="44">
+        <v>0.31</v>
+      </c>
+      <c r="U10" s="44"/>
+      <c r="V10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6" t="s">
+      <c r="W10" s="6"/>
+      <c r="X10" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="W10" s="6" t="s">
+      <c r="Y10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="X10" s="6" t="s">
+      <c r="Z10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6" t="s">
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="AB10" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC10" s="6" t="s">
+      <c r="AD10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE10" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AF10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="7" t="s">
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6" t="s">
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-    </row>
-    <row r="11" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL10" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="6"/>
+    </row>
+    <row r="11" spans="1:40" ht="14.5" customHeight="1">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C11">
         <v>0.27300000000000002</v>
@@ -5186,50 +5338,54 @@
       <c r="S11">
         <v>0.5</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="U11" s="43"/>
+      <c r="V11" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7" t="s">
+      <c r="W11" s="7"/>
+      <c r="X11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="Y11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="Z11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE11" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AF11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7" t="s">
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7" t="s">
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
-    </row>
-    <row r="12" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="1:40" ht="14.5" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C12" s="5">
         <v>0.9</v>
@@ -5278,60 +5434,66 @@
       <c r="S12" s="5">
         <v>0.95</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="U12" s="44"/>
+      <c r="V12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6" t="s">
+      <c r="W12" s="6"/>
+      <c r="X12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="Y12" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="Z12" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
-      <c r="AB12" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC12" s="6" t="s">
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE12" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AF12" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AE12" s="6" t="s">
+      <c r="AG12" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="AF12" s="6" t="s">
+      <c r="AH12" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AG12" s="6" t="s">
+      <c r="AI12" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AH12" s="6" t="s">
+      <c r="AJ12" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="AI12" s="6" t="s">
+      <c r="AK12" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="AJ12" s="6" t="s">
+      <c r="AL12" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6" t="s">
+      <c r="AM12" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN12" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.5" customHeight="1">
+    <row r="13" spans="1:40" ht="14.5" customHeight="1">
       <c r="A13" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C13">
         <v>0.95</v>
@@ -5378,50 +5540,56 @@
       <c r="S13">
         <v>0.95</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="43">
+        <v>0.95</v>
+      </c>
+      <c r="U13" s="43"/>
+      <c r="V13" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7" t="s">
+      <c r="W13" s="7"/>
+      <c r="X13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="Y13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="X13" s="7" t="s">
+      <c r="Z13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
-      <c r="AD13" s="7" t="s">
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AE13" s="7" t="s">
+      <c r="AG13" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="AF13" s="7" t="s">
+      <c r="AH13" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7" t="s">
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7" t="s">
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN13" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="14.5" customHeight="1">
+    <row r="14" spans="1:40" ht="14.5" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C14" s="5">
         <v>0.9</v>
@@ -5470,44 +5638,50 @@
       <c r="S14" s="5">
         <v>0.95</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="U14" s="44"/>
+      <c r="V14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6" t="s">
+      <c r="W14" s="6"/>
+      <c r="X14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="Y14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="Z14" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="6" t="s">
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="6" t="s">
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN14" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14.5" customHeight="1">
+    <row r="15" spans="1:40" ht="14.5" customHeight="1">
       <c r="A15" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C15">
         <v>0.95</v>
@@ -5555,40 +5729,46 @@
       <c r="S15">
         <v>0.95</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="43">
+        <v>0.95</v>
+      </c>
+      <c r="U15" s="43"/>
+      <c r="V15" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7" t="s">
+      <c r="W15" s="7"/>
+      <c r="X15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="W15" s="7" t="s">
+      <c r="Y15" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
-      <c r="AD15" s="7" t="s">
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
-    </row>
-    <row r="16" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM15" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:40" ht="14.5" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C16" s="5">
         <v>0.9</v>
@@ -5637,42 +5817,48 @@
       <c r="S16" s="5">
         <v>0.95</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="U16" s="44"/>
+      <c r="V16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6" t="s">
+      <c r="W16" s="6"/>
+      <c r="X16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="W16" s="6" t="s">
+      <c r="Y16" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="6" t="s">
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="6" t="s">
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN16" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="14.5" customHeight="1">
+    <row r="17" spans="1:40" ht="14.5" customHeight="1">
       <c r="A17" t="s">
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -5712,7 +5898,7 @@
         <v>75</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="R17" s="16">
         <v>5</v>
@@ -5720,58 +5906,64 @@
       <c r="S17">
         <v>0</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" s="43">
+        <v>1</v>
+      </c>
+      <c r="U17" s="43"/>
+      <c r="V17" t="s">
         <v>24</v>
       </c>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7" t="s">
+      <c r="W17" s="7"/>
+      <c r="X17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="W17" s="7" t="s">
+      <c r="Y17" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="X17" s="7" t="s">
+      <c r="Z17" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="7" t="s">
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="AC17" s="7" t="s">
+      <c r="AE17" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="AD17" s="7" t="s">
+      <c r="AF17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AE17" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF17" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG17" s="7" t="s">
-        <v>348</v>
+      <c r="AG17" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="AH17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ17" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="AI17" s="7" t="s">
+      <c r="AK17" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AJ17" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-    </row>
-    <row r="18" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL17" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM17" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN17" s="7"/>
+    </row>
+    <row r="18" spans="1:40" ht="14.5" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C18" s="5">
         <v>25</v>
@@ -5812,7 +6004,7 @@
         <v>50</v>
       </c>
       <c r="Q18" s="5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R18" s="14">
         <v>30</v>
@@ -5820,58 +6012,64 @@
       <c r="S18" s="5">
         <v>0</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="44">
+        <v>1</v>
+      </c>
+      <c r="U18" s="44"/>
+      <c r="V18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6" t="s">
+      <c r="W18" s="6"/>
+      <c r="X18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="W18" s="6" t="s">
+      <c r="Y18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="X18" s="6" t="s">
+      <c r="Z18" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="19" t="s">
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD18" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AB18" s="6" t="s">
+      <c r="AE18" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC18" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AF18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF18" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH18" s="6"/>
+      <c r="AG18" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH18" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="AI18" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-    </row>
-    <row r="19" spans="1:38" ht="14.5" customHeight="1">
+        <v>346</v>
+      </c>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM18" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN18" s="6"/>
+    </row>
+    <row r="19" spans="1:40" ht="14.5" customHeight="1">
       <c r="A19" t="s">
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -5911,7 +6109,7 @@
         <v>25</v>
       </c>
       <c r="Q19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="R19" s="16">
         <v>10</v>
@@ -5919,54 +6117,60 @@
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="43">
+        <v>1</v>
+      </c>
+      <c r="U19" s="43"/>
+      <c r="V19" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7" t="s">
+      <c r="W19" s="7"/>
+      <c r="X19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="W19" s="7" t="s">
+      <c r="Y19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="X19" s="7" t="s">
+      <c r="Z19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
-      <c r="AD19" s="7" t="s">
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AE19" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF19" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG19" s="7" t="s">
-        <v>348</v>
+      <c r="AG19" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="AH19" s="7" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="AI19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-    </row>
-    <row r="20" spans="1:38" ht="14.5" customHeight="1">
+        <v>346</v>
+      </c>
+      <c r="AJ19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM19" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN19" s="7"/>
+    </row>
+    <row r="20" spans="1:40" ht="14.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="C20" s="5">
         <v>15</v>
@@ -6004,57 +6208,65 @@
         <v>5</v>
       </c>
       <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="5">
+        <v>35</v>
+      </c>
       <c r="R20" s="14"/>
       <c r="S20" s="5">
         <v>4</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="44">
+        <v>4</v>
+      </c>
+      <c r="U20" s="44"/>
+      <c r="V20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6" t="s">
+      <c r="W20" s="6"/>
+      <c r="X20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="W20" s="6" t="s">
+      <c r="Y20" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="X20" s="6" t="s">
+      <c r="Z20" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6" t="s">
-        <v>264</v>
-      </c>
+      <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6" t="s">
+      <c r="AC20" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF20" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
+      <c r="AG20" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-    </row>
-    <row r="21" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL20" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="6"/>
+    </row>
+    <row r="21" spans="1:40" ht="14.5" customHeight="1">
       <c r="A21" t="s">
         <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -6094,7 +6306,7 @@
         <v>5</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R21" s="16">
         <v>20</v>
@@ -6102,55 +6314,61 @@
       <c r="S21">
         <v>16</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="43">
+        <v>16</v>
+      </c>
+      <c r="U21" s="43"/>
+      <c r="V21" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7" t="s">
+      <c r="W21" s="7"/>
+      <c r="X21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="W21" s="7" t="s">
+      <c r="Y21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="X21" s="7" t="s">
+      <c r="Z21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
-      <c r="AB21" s="7" t="s">
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG21" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH21" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK21" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="AD21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE21" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF21" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG21" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH21" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI21" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ21" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-    </row>
-    <row r="22" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL21" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM21" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="AN21" s="7"/>
+    </row>
+    <row r="22" spans="1:40" ht="14.5" customHeight="1">
       <c r="A22" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -6202,7 +6420,7 @@
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="R22">
         <f t="shared" si="0"/>
@@ -6212,497 +6430,517 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22">
+        <f t="shared" ref="T22" si="1">$C22/$C17*T17</f>
+        <v>0.3</v>
+      </c>
+      <c r="V22" t="s">
         <v>24</v>
       </c>
-      <c r="U22" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="V22" s="7" t="s">
+      <c r="W22" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="X22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="W22" s="7" t="s">
+      <c r="Y22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="X22" s="7" t="s">
+      <c r="Z22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="7" t="s">
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="AC22" s="7" t="s">
+      <c r="AE22" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="AD22" s="7" t="s">
+      <c r="AF22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AE22" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF22" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG22" s="7" t="s">
-        <v>348</v>
+      <c r="AG22" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="AH22" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI22" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ22" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="AI22" s="7" t="s">
+      <c r="AK22" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AJ22" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
-    </row>
-    <row r="23" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="7"/>
+    </row>
+    <row r="23" spans="1:40" ht="14.5" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B23" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C23" s="5">
         <v>7.5</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:E26" si="1">$C23/$C18*D18</f>
+        <f t="shared" ref="D23:E26" si="2">$C23/$C18*D18</f>
         <v>7.5</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
       <c r="H23">
-        <f t="shared" ref="H23:S26" si="2">$C23/$C18*H18</f>
+        <f t="shared" ref="H23:S26" si="3">$C23/$C18*H18</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="J23">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ref="T23" si="4">$C23/$C18*T18</f>
+        <v>0.3</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE23" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG23" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH23" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+    </row>
+    <row r="24" spans="1:40" ht="14.5" customHeight="1">
+      <c r="A24" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" t="s">
+        <v>440</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K23">
+      <c r="E24">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U23" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC23" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE23" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF23" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-    </row>
-    <row r="24" spans="1:38" ht="14.5" customHeight="1">
-      <c r="A24" t="s">
-        <v>438</v>
-      </c>
-      <c r="B24" t="s">
-        <v>443</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
       <c r="G24" s="8"/>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="R24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="S24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24">
+        <f t="shared" ref="T24" si="5">$C24/$C19*T19</f>
+        <v>0.3</v>
+      </c>
+      <c r="V24" t="s">
         <v>24</v>
       </c>
-      <c r="U24" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="V24" s="7" t="s">
+      <c r="W24" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="X24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="W24" s="7" t="s">
+      <c r="Y24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="X24" s="7" t="s">
+      <c r="Z24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
-      <c r="AD24" s="7" t="s">
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AE24" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF24" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG24" s="7" t="s">
-        <v>348</v>
+      <c r="AG24" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="AH24" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI24" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL24" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AI24" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ24" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-    </row>
-    <row r="25" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="7"/>
+    </row>
+    <row r="25" spans="1:40" ht="14.5" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="8"/>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
       <c r="S25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="T25">
+        <f t="shared" ref="T25" si="6">$C25/$C20*T20</f>
+        <v>0.8</v>
+      </c>
+      <c r="V25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U25" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="V25" s="6" t="s">
+      <c r="W25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="X25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="W25" s="6" t="s">
+      <c r="Y25" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="X25" s="6" t="s">
+      <c r="Z25" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6" t="s">
-        <v>264</v>
-      </c>
+      <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6" t="s">
+      <c r="AC25" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AE25" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF25" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
+      <c r="AG25" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="AK25" s="6"/>
       <c r="AL25" s="6"/>
-    </row>
-    <row r="26" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+    </row>
+    <row r="26" spans="1:40" ht="14.5" customHeight="1">
       <c r="A26" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B26" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C26">
         <v>4.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="O26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="P26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="3"/>
+        <v>4.5</v>
       </c>
       <c r="R26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="S26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T26">
+        <f t="shared" ref="T26" si="7">$C26/$C21*T21</f>
+        <v>4.8</v>
+      </c>
+      <c r="V26" t="s">
         <v>24</v>
       </c>
-      <c r="U26" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="V26" s="7" t="s">
+      <c r="W26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="X26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="W26" s="7" t="s">
+      <c r="Y26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="X26" s="7" t="s">
+      <c r="Z26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="7" t="s">
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG26" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ26" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK26" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="AD26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE26" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF26" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG26" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH26" s="7" t="s">
+      <c r="AL26" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="AI26" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ26" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-    </row>
-    <row r="27" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="7"/>
+    </row>
+    <row r="27" spans="1:40" ht="14.5" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C27" s="5">
         <v>0.64749999999999996</v>
@@ -6738,54 +6976,62 @@
         <v>0.1</v>
       </c>
       <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="Q27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="R27" s="20"/>
       <c r="S27" s="5">
         <v>0</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="U27" s="11"/>
+      <c r="V27" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="W27" s="6"/>
       <c r="X27" s="6" t="s">
-        <v>406</v>
+        <v>174</v>
       </c>
       <c r="Y27" s="6"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="6" t="s">
+      <c r="Z27" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA27" s="6"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AE27" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF27" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG27" s="19" t="s">
-        <v>336</v>
+      <c r="AG27" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
+        <v>404</v>
+      </c>
+      <c r="AI27" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AK27" s="6"/>
-      <c r="AL27" s="5"/>
-    </row>
-    <row r="28" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL27" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="5"/>
+    </row>
+    <row r="28" spans="1:40" ht="14.5" customHeight="1">
       <c r="A28" t="s">
         <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C28">
         <v>0.72899999999999998</v>
@@ -6794,7 +7040,7 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="E28">
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
       <c r="H28">
         <v>0.22</v>
@@ -6809,60 +7055,69 @@
         <v>0.87</v>
       </c>
       <c r="M28">
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
       <c r="N28">
         <v>0.22</v>
       </c>
       <c r="O28">
         <v>0.1</v>
+      </c>
+      <c r="Q28">
+        <v>0.125</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28">
         <v>0</v>
       </c>
-      <c r="T28" t="s">
+      <c r="T28" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="U28" s="11"/>
+      <c r="V28" t="s">
         <v>24</v>
-      </c>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="Y28" s="7"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7" t="s">
+      <c r="Z28" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA28" s="7"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="AE28" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF28" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG28" s="19" t="s">
-        <v>336</v>
+      <c r="AG28" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
+        <v>404</v>
+      </c>
+      <c r="AI28" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AK28" s="7"/>
-    </row>
-    <row r="29" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM28" s="47"/>
+    </row>
+    <row r="29" spans="1:40" ht="14.5" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C29" s="5">
         <v>0.76690000000000003</v>
@@ -6898,54 +7153,62 @@
         <v>0.1</v>
       </c>
       <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="Q29" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="R29" s="20"/>
       <c r="S29" s="5">
         <v>0</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="U29" s="11"/>
+      <c r="V29" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="W29" s="6"/>
       <c r="X29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA29" s="6"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG29" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH29" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="Y29" s="6"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE29" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF29" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG29" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH29" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
+      <c r="AI29" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AK29" s="6"/>
-      <c r="AL29" s="5"/>
-    </row>
-    <row r="30" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL29" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AM29" s="47"/>
+      <c r="AN29" s="5"/>
+    </row>
+    <row r="30" spans="1:40" ht="14.5" customHeight="1">
       <c r="A30" t="s">
         <v>137</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C30">
         <v>0.46850000000000003</v>
@@ -6976,52 +7239,61 @@
       </c>
       <c r="O30">
         <v>0.1</v>
+      </c>
+      <c r="Q30">
+        <v>0.95</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T30" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="U30" s="11"/>
+      <c r="V30" t="s">
         <v>24</v>
-      </c>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7" t="s">
-        <v>403</v>
+        <v>174</v>
       </c>
       <c r="Y30" s="7"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="AD30" s="7" t="s">
+      <c r="Z30" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA30" s="7"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="AE30" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG30" s="19" t="s">
-        <v>336</v>
+      <c r="AG30" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
+        <v>404</v>
+      </c>
+      <c r="AI30" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AK30" s="7"/>
-    </row>
-    <row r="31" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL30" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="AM30" s="47"/>
+    </row>
+    <row r="31" spans="1:40" ht="14.5" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C31" s="5">
         <v>0.75</v>
@@ -7057,53 +7329,61 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="5">
+        <v>0.8</v>
+      </c>
       <c r="R31" s="20"/>
       <c r="S31" s="5">
         <v>0.45</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="T31" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="W31" s="6"/>
       <c r="X31" s="6" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="Y31" s="6"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="AD31" s="6" t="s">
+      <c r="Z31" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA31" s="6"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF31" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AE31" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF31" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG31" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH31" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
+      <c r="AG31" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AI31" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="AK31" s="6"/>
-      <c r="AL31" s="5"/>
-    </row>
-    <row r="32" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL31" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="5"/>
+    </row>
+    <row r="32" spans="1:40" ht="14.5" customHeight="1">
       <c r="A32" t="s">
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C32">
         <v>0.34250000000000003</v>
@@ -7143,59 +7423,67 @@
         <v>0.21</v>
       </c>
       <c r="Q32">
-        <v>0.28999999999999998</v>
+        <v>0.27307599999999999</v>
       </c>
       <c r="R32" s="16">
         <v>2.7500000000000002E-4</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T32" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="U32" s="11"/>
+      <c r="V32" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="7" t="s">
+      <c r="W32" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V32" s="7" t="s">
+      <c r="X32" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="W32" s="7" t="s">
+      <c r="Y32" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="X32" s="7" t="s">
+      <c r="Z32" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="17" t="s">
-        <v>269</v>
-      </c>
+      <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AE32" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AF32" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7" t="s">
-        <v>271</v>
-      </c>
+      <c r="AG32" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH32" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI32" s="7"/>
       <c r="AJ32" s="7"/>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-    </row>
-    <row r="33" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AK32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AM32" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN32" s="7"/>
+    </row>
+    <row r="33" spans="1:40" ht="14.5" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C33" s="5">
         <v>0.24399999999999999</v>
@@ -7235,61 +7523,67 @@
       <c r="P33" s="5">
         <v>0.21</v>
       </c>
-      <c r="Q33" s="5">
-        <v>0.28999999999999998</v>
+      <c r="Q33">
+        <v>0.27307599999999999</v>
       </c>
       <c r="R33" s="14">
         <v>2.7500000000000002E-4</v>
       </c>
       <c r="S33" s="5"/>
-      <c r="T33" s="5" t="s">
+      <c r="T33" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="U33" s="11"/>
+      <c r="V33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6" t="s">
+      <c r="W33" s="6"/>
+      <c r="X33" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="W33" s="6" t="s">
+      <c r="Y33" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="X33" s="6" t="s">
+      <c r="Z33" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6" t="s">
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI33" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE33" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AF33" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG33" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-    </row>
-    <row r="34" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL33" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="6"/>
+    </row>
+    <row r="34" spans="1:40" ht="14.5" customHeight="1">
       <c r="A34" t="s">
         <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7342,38 +7636,42 @@
       <c r="S34">
         <v>1</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T34" s="5">
+        <v>1</v>
+      </c>
+      <c r="U34" s="5"/>
+      <c r="V34" t="s">
         <v>31</v>
       </c>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
       <c r="W34" s="7"/>
-      <c r="X34" s="6" t="s">
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
-      <c r="AD34" s="7" t="s">
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
-    </row>
-    <row r="35" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM34" s="48"/>
+      <c r="AN34" s="7"/>
+    </row>
+    <row r="35" spans="1:40" ht="14.5" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C35" s="5">
         <v>0.57769999999999999</v>
@@ -7418,48 +7716,54 @@
         <v>0.625</v>
       </c>
       <c r="S35" s="5"/>
-      <c r="T35" s="5" t="s">
+      <c r="T35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6" t="s">
+      <c r="W35" s="6"/>
+      <c r="X35" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="W35" s="6" t="s">
+      <c r="Y35" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="X35" s="6" t="s">
+      <c r="Z35" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="19" t="s">
-        <v>275</v>
-      </c>
+      <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6" t="s">
+      <c r="AC35" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AE35" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
+      <c r="AG35" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="AH35" s="6"/>
-      <c r="AI35" s="22" t="s">
-        <v>276</v>
-      </c>
+      <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-    </row>
-    <row r="36" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AK35" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL35" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="6"/>
+    </row>
+    <row r="36" spans="1:40" ht="14.5" customHeight="1">
       <c r="A36" t="s">
         <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -7501,47 +7805,56 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <f>1-Q10</f>
+        <v>0.72</v>
       </c>
       <c r="R36" s="16">
         <v>1</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36" s="5">
+        <v>1</v>
+      </c>
+      <c r="U36" s="5"/>
+      <c r="V36" t="s">
         <v>31</v>
       </c>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7" t="s">
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="X36" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
+      <c r="Z36" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
-      <c r="AD36" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7" t="s">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
+      <c r="AH36" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
-      <c r="AL36" s="7"/>
-    </row>
-    <row r="37" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL36" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="AM36" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="AN36" s="7"/>
+    </row>
+    <row r="37" spans="1:40" ht="14.5" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C37" s="5">
         <v>0</v>
@@ -7584,50 +7897,57 @@
         <v>1</v>
       </c>
       <c r="Q37" s="5">
-        <v>1</v>
+        <f>1-Q10</f>
+        <v>0.72</v>
       </c>
       <c r="R37" s="14">
         <v>1</v>
       </c>
       <c r="S37" s="5"/>
-      <c r="T37" s="5" t="s">
+      <c r="T37" s="5">
+        <v>0</v>
+      </c>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6" t="s">
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="X37" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
+      <c r="Z37" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
-      <c r="AD37" s="6" t="s">
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="6" t="s">
+      <c r="AH37" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AJ37" s="6"/>
-      <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
-    </row>
-    <row r="38" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL37" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="AM37" s="48"/>
+      <c r="AN37" s="6"/>
+    </row>
+    <row r="38" spans="1:40" ht="14.5" customHeight="1">
       <c r="A38" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -7675,44 +7995,48 @@
       <c r="R38" s="16">
         <v>1</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T38" s="45">
+        <v>0.278057</v>
+      </c>
+      <c r="U38" s="45"/>
+      <c r="V38" t="s">
         <v>31</v>
       </c>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
-      <c r="AC38" s="7" t="s">
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG38" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="AD38" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE38" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="AJ38" s="7"/>
-      <c r="AK38" s="7"/>
-      <c r="AL38" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="48"/>
+      <c r="AN38" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="14.5" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C39" s="5">
         <v>0</v>
@@ -7761,11 +8085,13 @@
         <v>1</v>
       </c>
       <c r="S39" s="5"/>
-      <c r="T39" s="5" t="s">
+      <c r="T39" s="45">
+        <v>0.278057</v>
+      </c>
+      <c r="U39" s="45"/>
+      <c r="V39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
@@ -7773,28 +8099,30 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="6" t="s">
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AE39" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6" t="s">
-        <v>278</v>
+      <c r="AG39" s="19" t="s">
+        <v>322</v>
       </c>
       <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
+      <c r="AI39" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
-    </row>
-    <row r="40" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM39" s="48"/>
+      <c r="AN39" s="6"/>
+    </row>
+    <row r="40" spans="1:40" ht="14.5" customHeight="1">
       <c r="A40" t="s">
         <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C40">
         <v>88603.1</v>
@@ -7835,57 +8163,62 @@
         <v>260997</v>
       </c>
       <c r="Q40">
-        <v>260</v>
+        <f>Q42/(1-Q32)</f>
+        <v>0.25587269095531306</v>
       </c>
       <c r="R40" s="16">
         <v>260</v>
       </c>
-      <c r="T40" t="s">
+      <c r="T40" s="5">
+        <v>439</v>
+      </c>
+      <c r="U40" s="5"/>
+      <c r="V40" t="s">
         <v>31</v>
       </c>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7" t="s">
+      <c r="W40" s="7"/>
+      <c r="X40" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="W40" s="7" t="s">
+      <c r="Y40" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="X40" s="7" t="s">
+      <c r="Z40" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7" t="s">
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE40" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="AB40" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC40" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD40" s="7" t="s">
+      <c r="AF40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7" t="s">
-        <v>284</v>
-      </c>
+      <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
       <c r="AI40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AJ40" s="7"/>
-      <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
-    </row>
-    <row r="41" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM40" s="48"/>
+      <c r="AN40" s="7"/>
+    </row>
+    <row r="41" spans="1:40" ht="14.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C41" s="5">
         <v>0.5</v>
@@ -7938,7 +8271,9 @@
       <c r="S41" s="5">
         <v>0.5</v>
       </c>
-      <c r="T41" s="5"/>
+      <c r="T41" s="5">
+        <v>0.5</v>
+      </c>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
@@ -7953,19 +8288,21 @@
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
-      <c r="AI41" s="5" t="s">
-        <v>286</v>
-      </c>
+      <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
+      <c r="AK41" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="AL41" s="5"/>
-    </row>
-    <row r="42" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM41" s="48"/>
+      <c r="AN41" s="5"/>
+    </row>
+    <row r="42" spans="1:40" ht="14.5" customHeight="1">
       <c r="A42" t="s">
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C42">
         <v>67223.3764402956</v>
@@ -8010,48 +8347,52 @@
       <c r="R42" s="16">
         <v>0.52</v>
       </c>
-      <c r="T42" t="s">
+      <c r="T42" s="5">
+        <v>186</v>
+      </c>
+      <c r="U42" s="5"/>
+      <c r="V42" t="s">
         <v>34</v>
       </c>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7" t="s">
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="X42" s="7" t="s">
+      <c r="Z42" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="Y42" s="7" t="s">
+      <c r="AA42" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB42" s="17" t="s">
-        <v>288</v>
-      </c>
+      <c r="AB42" s="7"/>
       <c r="AC42" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD42" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE42" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
-      <c r="AJ42" s="7" t="s">
-        <v>289</v>
-      </c>
+      <c r="AJ42" s="7"/>
       <c r="AK42" s="7"/>
-      <c r="AL42" s="7"/>
-    </row>
-    <row r="43" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="7"/>
+    </row>
+    <row r="43" spans="1:40" ht="14.5" customHeight="1">
       <c r="A43" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C43" s="5">
         <f>2353/5.1</f>
@@ -8095,34 +8436,32 @@
       </c>
       <c r="R43" s="14"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="5" t="s">
+      <c r="T43" s="5">
+        <v>6.6796755950833404</v>
+      </c>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6" t="s">
+      <c r="W43" s="6"/>
+      <c r="X43" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="W43" s="6" t="s">
+      <c r="Y43" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="X43" s="19" t="s">
+      <c r="Z43" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB43" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6" t="s">
+        <v>413</v>
+      </c>
       <c r="AD43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE43" s="6" t="s">
-        <v>111</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="AE43" s="6"/>
       <c r="AF43" s="6" t="s">
         <v>111</v>
       </c>
@@ -8138,15 +8477,23 @@
       <c r="AJ43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AK43" s="6"/>
-      <c r="AL43" s="6"/>
-    </row>
-    <row r="44" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AK43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM43" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="AN43" s="6"/>
+    </row>
+    <row r="44" spans="1:40" ht="14.5" customHeight="1">
       <c r="A44" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C44">
         <f>0.995^0.5</f>
@@ -8196,34 +8543,32 @@
         <v>0.77684490086503111</v>
       </c>
       <c r="R44" s="16"/>
-      <c r="T44" t="s">
+      <c r="T44" s="5">
+        <v>1.5063615691591801</v>
+      </c>
+      <c r="U44" s="5"/>
+      <c r="V44" t="s">
         <v>34</v>
       </c>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7" t="s">
+      <c r="W44" s="7"/>
+      <c r="X44" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="W44" s="7" t="s">
+      <c r="Y44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="X44" s="7" t="s">
+      <c r="Z44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB44" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="AC44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="6" t="s">
+        <v>413</v>
+      </c>
       <c r="AD44" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE44" s="7" t="s">
-        <v>111</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="AE44" s="7"/>
       <c r="AF44" s="7" t="s">
         <v>111</v>
       </c>
@@ -8239,15 +8584,23 @@
       <c r="AJ44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
-    </row>
-    <row r="45" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AK44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM44" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="AN44" s="7"/>
+    </row>
+    <row r="45" spans="1:40" ht="14.5" customHeight="1">
       <c r="A45" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C45" s="5">
         <f>39.886/1.93</f>
@@ -8290,34 +8643,32 @@
       </c>
       <c r="R45" s="14"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="5" t="s">
+      <c r="T45" s="5">
+        <v>0.98090753516626605</v>
+      </c>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6" t="s">
+      <c r="W45" s="6"/>
+      <c r="X45" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="W45" s="6" t="s">
+      <c r="Y45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="X45" s="6" t="s">
+      <c r="Z45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB45" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="AD45" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE45" s="6" t="s">
-        <v>111</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="AE45" s="6"/>
       <c r="AF45" s="6" t="s">
         <v>111</v>
       </c>
@@ -8333,15 +8684,23 @@
       <c r="AJ45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
-    </row>
-    <row r="46" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AK45" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL45" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM45" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="AN45" s="6"/>
+    </row>
+    <row r="46" spans="1:40" ht="14.5" customHeight="1">
       <c r="A46" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C46">
         <f>0.1332^0.5</f>
@@ -8388,36 +8747,34 @@
         <v>0.34541134897394438</v>
       </c>
       <c r="R46" s="16"/>
-      <c r="T46" t="s">
+      <c r="T46" s="5">
+        <v>0.34055052130256103</v>
+      </c>
+      <c r="U46" s="5"/>
+      <c r="V46" t="s">
         <v>34</v>
       </c>
-      <c r="U46" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="V46" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="W46" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y46" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="X46" s="7" t="s">
+      <c r="Z46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB46" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE46" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE46" s="7"/>
       <c r="AF46" s="7" t="s">
         <v>111</v>
       </c>
@@ -8433,15 +8790,23 @@
       <c r="AJ46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AK46" s="7"/>
-      <c r="AL46" s="7"/>
-    </row>
-    <row r="47" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AK46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM46" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="AN46" s="7"/>
+    </row>
+    <row r="47" spans="1:40" ht="14.5" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C47" s="5">
         <v>1807.7719999999999</v>
@@ -8485,7 +8850,8 @@
         <v>24647.428</v>
       </c>
       <c r="Q47" s="11">
-        <v>27710303</v>
+        <f>863*35273.96</f>
+        <v>30441427.48</v>
       </c>
       <c r="R47" s="14">
         <v>58419.6</v>
@@ -8493,48 +8859,56 @@
       <c r="S47" s="25">
         <v>11120.835754394531</v>
       </c>
-      <c r="T47" s="5" t="s">
+      <c r="T47" s="11">
+        <v>11120</v>
+      </c>
+      <c r="U47" s="11"/>
+      <c r="V47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U47" s="6" t="s">
+      <c r="W47" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
-      <c r="AA47" s="19" t="s">
-        <v>325</v>
-      </c>
+      <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF47" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="AD47" s="6" t="s">
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AM47" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="AN47" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="AI47" s="6"/>
-      <c r="AJ47" s="6"/>
-      <c r="AK47" s="6"/>
-      <c r="AL47" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:38" ht="14.5" customHeight="1">
+    </row>
+    <row r="48" spans="1:40" ht="14.5" customHeight="1">
       <c r="A48" t="s">
         <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C48">
         <v>706</v>
@@ -8579,59 +8953,64 @@
       </c>
       <c r="Q48" s="10">
         <f>Q47-696.31*35274</f>
-        <v>3148664.0600000024</v>
+        <v>5879788.5400000028</v>
       </c>
       <c r="R48" s="16"/>
-      <c r="V48" t="s">
+      <c r="T48" s="11">
+        <v>200</v>
+      </c>
+      <c r="U48" s="11"/>
+      <c r="X48" t="s">
         <v>164</v>
       </c>
-      <c r="W48" t="s">
+      <c r="Y48" t="s">
         <v>166</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Z48" t="s">
         <v>165</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="AA48" t="s">
         <v>126</v>
       </c>
-      <c r="AA48" s="1" t="s">
+      <c r="AC48" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF48" t="s">
         <v>293</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AG48" t="s">
         <v>294</v>
       </c>
-      <c r="AC48" s="1" t="s">
+      <c r="AH48" t="s">
         <v>327</v>
       </c>
-      <c r="AD48" t="s">
-        <v>295</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>296</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>329</v>
-      </c>
-      <c r="AG48" t="s">
+      <c r="AI48" t="s">
         <v>169</v>
       </c>
-      <c r="AH48" t="s">
+      <c r="AJ48" t="s">
         <v>168</v>
       </c>
-      <c r="AI48" t="s">
+      <c r="AK48" t="s">
         <v>126</v>
       </c>
-      <c r="AJ48" t="s">
+      <c r="AL48" t="s">
         <v>167</v>
       </c>
-      <c r="AL48" s="7"/>
-    </row>
-    <row r="49" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM48" s="14"/>
+      <c r="AN48" s="7"/>
+    </row>
+    <row r="49" spans="1:40" ht="14.5" customHeight="1">
       <c r="A49" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
@@ -8676,34 +9055,32 @@
       <c r="S49" s="5">
         <v>0.22445561139028475</v>
       </c>
-      <c r="T49" s="5" t="s">
+      <c r="T49" s="45">
+        <v>0.22445599999999999</v>
+      </c>
+      <c r="U49" s="45"/>
+      <c r="V49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5" t="s">
+      <c r="W49" s="5"/>
+      <c r="X49" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="W49" s="6" t="s">
+      <c r="Y49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="X49" s="6" t="s">
+      <c r="Z49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB49" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AC49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="AD49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE49" s="6" t="s">
-        <v>123</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="AE49" s="6"/>
       <c r="AF49" s="6" t="s">
         <v>123</v>
       </c>
@@ -8720,16 +9097,22 @@
         <v>123</v>
       </c>
       <c r="AK49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM49" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="AL49" s="6"/>
-    </row>
-    <row r="50" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AN49" s="6"/>
+    </row>
+    <row r="50" spans="1:40" ht="14.5" customHeight="1">
       <c r="A50" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -8772,31 +9155,29 @@
       <c r="S50">
         <v>0.45561139028475711</v>
       </c>
-      <c r="T50" t="s">
+      <c r="T50" s="45">
+        <v>0.45561099999999999</v>
+      </c>
+      <c r="U50" s="45"/>
+      <c r="V50" t="s">
         <v>34</v>
       </c>
-      <c r="V50" t="s">
+      <c r="X50" t="s">
         <v>163</v>
       </c>
-      <c r="W50" s="7" t="s">
+      <c r="Y50" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X50" s="7" t="s">
+      <c r="Z50" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE50" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="7"/>
       <c r="AF50" s="7" t="s">
         <v>123</v>
       </c>
@@ -8813,16 +9194,22 @@
         <v>123</v>
       </c>
       <c r="AK50" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL50" s="7"/>
-    </row>
-    <row r="51" spans="1:38" ht="14.5" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="AL50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM50" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="AN50" s="7"/>
+    </row>
+    <row r="51" spans="1:40" ht="14.5" customHeight="1">
       <c r="A51" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C51" s="5">
         <v>0</v>
@@ -8867,30 +9254,28 @@
       <c r="S51" s="5">
         <v>8.3752093802345051E-3</v>
       </c>
-      <c r="T51" s="5" t="s">
+      <c r="T51" s="45">
+        <v>8.3750000000000005E-3</v>
+      </c>
+      <c r="U51" s="45"/>
+      <c r="V51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5" t="s">
+      <c r="W51" s="5"/>
+      <c r="X51" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="W51" s="6" t="s">
+      <c r="Y51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="X51" s="6" t="s">
+      <c r="Z51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
-      <c r="AD51" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE51" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
       <c r="AF51" s="6" t="s">
         <v>123</v>
       </c>
@@ -8907,16 +9292,22 @@
         <v>123</v>
       </c>
       <c r="AK51" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL51" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM51" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AL51" s="6"/>
-    </row>
-    <row r="52" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AN51" s="6"/>
+    </row>
+    <row r="52" spans="1:40" ht="14.5" customHeight="1">
       <c r="A52" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -8958,29 +9349,27 @@
       <c r="S52">
         <v>3.350083752093802E-2</v>
       </c>
-      <c r="T52" t="s">
+      <c r="T52" s="45">
+        <v>3.3501000000000003E-2</v>
+      </c>
+      <c r="U52" s="45"/>
+      <c r="V52" t="s">
         <v>34</v>
       </c>
-      <c r="V52" t="s">
+      <c r="X52" t="s">
         <v>163</v>
       </c>
-      <c r="W52" s="7" t="s">
+      <c r="Y52" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X52" s="7" t="s">
+      <c r="Z52" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
-      <c r="AB52" s="6"/>
+      <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
-      <c r="AD52" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE52" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="7"/>
       <c r="AF52" s="7" t="s">
         <v>123</v>
       </c>
@@ -8997,16 +9386,22 @@
         <v>123</v>
       </c>
       <c r="AK52" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL52" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM52" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="AL52" s="7"/>
-    </row>
-    <row r="53" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AN52" s="7"/>
+    </row>
+    <row r="53" spans="1:40" ht="14.5" customHeight="1">
       <c r="A53" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C53" s="5">
         <v>0</v>
@@ -9051,30 +9446,28 @@
       <c r="S53" s="5">
         <v>0.27805695142378561</v>
       </c>
-      <c r="T53" s="5" t="s">
+      <c r="T53" s="45">
+        <v>0.278057</v>
+      </c>
+      <c r="U53" s="45"/>
+      <c r="V53" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5" t="s">
+      <c r="W53" s="5"/>
+      <c r="X53" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="W53" s="6" t="s">
+      <c r="Y53" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="X53" s="6" t="s">
+      <c r="Z53" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
-      <c r="AD53" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE53" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
       <c r="AF53" s="6" t="s">
         <v>123</v>
       </c>
@@ -9091,11 +9484,17 @@
         <v>123</v>
       </c>
       <c r="AK53" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL53" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM53" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AL53" s="6"/>
-    </row>
-    <row r="54" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AN53" s="6"/>
+    </row>
+    <row r="54" spans="1:40" ht="14.5" customHeight="1">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
@@ -9117,13 +9516,13 @@
       <c r="Q54" s="12"/>
       <c r="R54" s="27"/>
       <c r="S54" s="12"/>
-      <c r="T54" s="12" t="s">
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
@@ -9137,9 +9536,11 @@
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
       <c r="AK54" s="13"/>
-      <c r="AL54" s="7"/>
-    </row>
-    <row r="55" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AL54" s="13"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="7"/>
+    </row>
+    <row r="55" spans="1:40" ht="14.5" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>44</v>
       </c>
@@ -9161,11 +9562,11 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="20"/>
       <c r="S55" s="5"/>
-      <c r="T55" s="5" t="s">
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
@@ -9182,17 +9583,17 @@
       <c r="AJ55" s="6"/>
       <c r="AK55" s="6"/>
       <c r="AL55" s="6"/>
-    </row>
-    <row r="56" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="6"/>
+    </row>
+    <row r="56" spans="1:40" ht="14.5" customHeight="1">
       <c r="A56" t="s">
         <v>45</v>
       </c>
       <c r="R56" s="21"/>
-      <c r="T56" t="s">
+      <c r="V56" t="s">
         <v>34</v>
       </c>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
@@ -9209,8 +9610,10 @@
       <c r="AJ56" s="7"/>
       <c r="AK56" s="7"/>
       <c r="AL56" s="7"/>
-    </row>
-    <row r="57" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+    </row>
+    <row r="57" spans="1:40" ht="14.5" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>46</v>
       </c>
@@ -9232,11 +9635,11 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="20"/>
       <c r="S57" s="5"/>
-      <c r="T57" s="5" t="s">
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
@@ -9253,17 +9656,17 @@
       <c r="AJ57" s="6"/>
       <c r="AK57" s="6"/>
       <c r="AL57" s="6"/>
-    </row>
-    <row r="58" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM57" s="6"/>
+      <c r="AN57" s="6"/>
+    </row>
+    <row r="58" spans="1:40" ht="14.5" customHeight="1">
       <c r="A58" t="s">
         <v>47</v>
       </c>
       <c r="R58" s="21"/>
-      <c r="T58" t="s">
+      <c r="V58" t="s">
         <v>34</v>
       </c>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="7"/>
@@ -9280,8 +9683,10 @@
       <c r="AJ58" s="7"/>
       <c r="AK58" s="7"/>
       <c r="AL58" s="7"/>
-    </row>
-    <row r="59" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+    </row>
+    <row r="59" spans="1:40" ht="14.5" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>48</v>
       </c>
@@ -9303,11 +9708,11 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="20"/>
       <c r="S59" s="5"/>
-      <c r="T59" s="5" t="s">
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
@@ -9324,17 +9729,17 @@
       <c r="AJ59" s="6"/>
       <c r="AK59" s="6"/>
       <c r="AL59" s="6"/>
-    </row>
-    <row r="60" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM59" s="6"/>
+      <c r="AN59" s="6"/>
+    </row>
+    <row r="60" spans="1:40" ht="14.5" customHeight="1">
       <c r="A60" t="s">
         <v>49</v>
       </c>
       <c r="R60" s="21"/>
-      <c r="T60" t="s">
+      <c r="V60" t="s">
         <v>34</v>
       </c>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
       <c r="W60" s="7"/>
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
@@ -9351,8 +9756,10 @@
       <c r="AJ60" s="7"/>
       <c r="AK60" s="7"/>
       <c r="AL60" s="7"/>
-    </row>
-    <row r="61" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+    </row>
+    <row r="61" spans="1:40" ht="14.5" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>50</v>
       </c>
@@ -9374,11 +9781,11 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="20"/>
       <c r="S61" s="5"/>
-      <c r="T61" s="5" t="s">
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
@@ -9395,17 +9802,17 @@
       <c r="AJ61" s="6"/>
       <c r="AK61" s="6"/>
       <c r="AL61" s="6"/>
-    </row>
-    <row r="62" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM61" s="6"/>
+      <c r="AN61" s="6"/>
+    </row>
+    <row r="62" spans="1:40" ht="14.5" customHeight="1">
       <c r="A62" t="s">
         <v>51</v>
       </c>
       <c r="R62" s="21"/>
-      <c r="T62" t="s">
+      <c r="V62" t="s">
         <v>34</v>
       </c>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
@@ -9422,8 +9829,10 @@
       <c r="AJ62" s="7"/>
       <c r="AK62" s="7"/>
       <c r="AL62" s="7"/>
-    </row>
-    <row r="63" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+    </row>
+    <row r="63" spans="1:40" ht="14.5" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>52</v>
       </c>
@@ -9445,11 +9854,11 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="20"/>
       <c r="S63" s="5"/>
-      <c r="T63" s="5" t="s">
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
@@ -9466,17 +9875,17 @@
       <c r="AJ63" s="6"/>
       <c r="AK63" s="6"/>
       <c r="AL63" s="6"/>
-    </row>
-    <row r="64" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM63" s="6"/>
+      <c r="AN63" s="6"/>
+    </row>
+    <row r="64" spans="1:40" ht="14.5" customHeight="1">
       <c r="A64" t="s">
         <v>53</v>
       </c>
       <c r="R64" s="21"/>
-      <c r="T64" t="s">
+      <c r="V64" t="s">
         <v>34</v>
       </c>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
@@ -9493,8 +9902,10 @@
       <c r="AJ64" s="7"/>
       <c r="AK64" s="7"/>
       <c r="AL64" s="7"/>
-    </row>
-    <row r="65" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+    </row>
+    <row r="65" spans="1:40" ht="14.5" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>54</v>
       </c>
@@ -9516,11 +9927,11 @@
       <c r="Q65" s="5"/>
       <c r="R65" s="20"/>
       <c r="S65" s="5"/>
-      <c r="T65" s="5" t="s">
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
@@ -9537,17 +9948,17 @@
       <c r="AJ65" s="6"/>
       <c r="AK65" s="6"/>
       <c r="AL65" s="6"/>
-    </row>
-    <row r="66" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM65" s="6"/>
+      <c r="AN65" s="6"/>
+    </row>
+    <row r="66" spans="1:40" ht="14.5" customHeight="1">
       <c r="A66" t="s">
         <v>55</v>
       </c>
       <c r="R66" s="21"/>
-      <c r="T66" t="s">
+      <c r="V66" t="s">
         <v>34</v>
       </c>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
@@ -9564,8 +9975,10 @@
       <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
       <c r="AL66" s="7"/>
-    </row>
-    <row r="67" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+    </row>
+    <row r="67" spans="1:40" ht="14.5" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>56</v>
       </c>
@@ -9587,11 +10000,11 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="20"/>
       <c r="S67" s="5"/>
-      <c r="T67" s="5" t="s">
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
@@ -9608,17 +10021,17 @@
       <c r="AJ67" s="6"/>
       <c r="AK67" s="6"/>
       <c r="AL67" s="6"/>
-    </row>
-    <row r="68" spans="1:38" ht="14.5" customHeight="1">
+      <c r="AM67" s="6"/>
+      <c r="AN67" s="6"/>
+    </row>
+    <row r="68" spans="1:40" ht="14.5" customHeight="1">
       <c r="A68" t="s">
         <v>57</v>
       </c>
       <c r="R68" s="21"/>
-      <c r="T68" t="s">
+      <c r="V68" t="s">
         <v>34</v>
       </c>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
@@ -9635,8 +10048,10 @@
       <c r="AJ68" s="7"/>
       <c r="AK68" s="7"/>
       <c r="AL68" s="7"/>
-    </row>
-    <row r="69" spans="1:38">
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+    </row>
+    <row r="69" spans="1:40">
       <c r="A69" s="5" t="s">
         <v>58</v>
       </c>
@@ -9658,11 +10073,11 @@
       <c r="Q69" s="5"/>
       <c r="R69" s="20"/>
       <c r="S69" s="5"/>
-      <c r="T69" s="5" t="s">
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
@@ -9679,17 +10094,17 @@
       <c r="AJ69" s="6"/>
       <c r="AK69" s="6"/>
       <c r="AL69" s="6"/>
-    </row>
-    <row r="70" spans="1:38">
+      <c r="AM69" s="6"/>
+      <c r="AN69" s="6"/>
+    </row>
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
         <v>59</v>
       </c>
       <c r="R70" s="21"/>
-      <c r="T70" t="s">
+      <c r="V70" t="s">
         <v>34</v>
       </c>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
@@ -9706,8 +10121,10 @@
       <c r="AJ70" s="7"/>
       <c r="AK70" s="7"/>
       <c r="AL70" s="7"/>
-    </row>
-    <row r="71" spans="1:38">
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+    </row>
+    <row r="71" spans="1:40">
       <c r="A71" s="5" t="s">
         <v>60</v>
       </c>
@@ -9729,11 +10146,11 @@
       <c r="Q71" s="5"/>
       <c r="R71" s="20"/>
       <c r="S71" s="5"/>
-      <c r="T71" s="5" t="s">
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
@@ -9750,17 +10167,17 @@
       <c r="AJ71" s="6"/>
       <c r="AK71" s="6"/>
       <c r="AL71" s="6"/>
-    </row>
-    <row r="72" spans="1:38">
+      <c r="AM71" s="6"/>
+      <c r="AN71" s="6"/>
+    </row>
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
         <v>61</v>
       </c>
       <c r="R72" s="21"/>
-      <c r="T72" t="s">
+      <c r="V72" t="s">
         <v>34</v>
       </c>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
       <c r="W72" s="7"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
@@ -9777,8 +10194,10 @@
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
       <c r="AL72" s="7"/>
-    </row>
-    <row r="73" spans="1:38">
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+    </row>
+    <row r="73" spans="1:40">
       <c r="A73" s="5" t="s">
         <v>62</v>
       </c>
@@ -9800,11 +10219,11 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="20"/>
       <c r="S73" s="5"/>
-      <c r="T73" s="5" t="s">
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
@@ -9821,17 +10240,17 @@
       <c r="AJ73" s="6"/>
       <c r="AK73" s="6"/>
       <c r="AL73" s="6"/>
-    </row>
-    <row r="74" spans="1:38">
+      <c r="AM73" s="6"/>
+      <c r="AN73" s="6"/>
+    </row>
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
         <v>63</v>
       </c>
       <c r="R74" s="21"/>
-      <c r="T74" t="s">
+      <c r="V74" t="s">
         <v>34</v>
       </c>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
@@ -9848,8 +10267,10 @@
       <c r="AJ74" s="7"/>
       <c r="AK74" s="7"/>
       <c r="AL74" s="7"/>
-    </row>
-    <row r="75" spans="1:38">
+      <c r="AM74" s="7"/>
+      <c r="AN74" s="7"/>
+    </row>
+    <row r="75" spans="1:40">
       <c r="A75" s="5" t="s">
         <v>64</v>
       </c>
@@ -9871,11 +10292,11 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="20"/>
       <c r="S75" s="5"/>
-      <c r="T75" s="5" t="s">
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
@@ -9892,17 +10313,17 @@
       <c r="AJ75" s="6"/>
       <c r="AK75" s="6"/>
       <c r="AL75" s="6"/>
-    </row>
-    <row r="76" spans="1:38">
+      <c r="AM75" s="6"/>
+      <c r="AN75" s="6"/>
+    </row>
+    <row r="76" spans="1:40">
       <c r="A76" t="s">
         <v>65</v>
       </c>
       <c r="R76" s="21"/>
-      <c r="T76" t="s">
+      <c r="V76" t="s">
         <v>34</v>
       </c>
-      <c r="U76" s="7"/>
-      <c r="V76" s="7"/>
       <c r="W76" s="7"/>
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
@@ -9919,8 +10340,10 @@
       <c r="AJ76" s="7"/>
       <c r="AK76" s="7"/>
       <c r="AL76" s="7"/>
-    </row>
-    <row r="77" spans="1:38">
+      <c r="AM76" s="7"/>
+      <c r="AN76" s="7"/>
+    </row>
+    <row r="77" spans="1:40">
       <c r="A77" s="5" t="s">
         <v>66</v>
       </c>
@@ -9942,11 +10365,11 @@
       <c r="Q77" s="5"/>
       <c r="R77" s="20"/>
       <c r="S77" s="5"/>
-      <c r="T77" s="5" t="s">
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
@@ -9963,17 +10386,17 @@
       <c r="AJ77" s="6"/>
       <c r="AK77" s="6"/>
       <c r="AL77" s="6"/>
-    </row>
-    <row r="78" spans="1:38">
+      <c r="AM77" s="6"/>
+      <c r="AN77" s="6"/>
+    </row>
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
         <v>67</v>
       </c>
       <c r="R78" s="21"/>
-      <c r="T78" t="s">
+      <c r="V78" t="s">
         <v>34</v>
       </c>
-      <c r="U78" s="7"/>
-      <c r="V78" s="7"/>
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
@@ -9990,8 +10413,10 @@
       <c r="AJ78" s="7"/>
       <c r="AK78" s="7"/>
       <c r="AL78" s="7"/>
-    </row>
-    <row r="79" spans="1:38">
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+    </row>
+    <row r="79" spans="1:40">
       <c r="A79" s="5" t="s">
         <v>68</v>
       </c>
@@ -10013,11 +10438,11 @@
       <c r="Q79" s="5"/>
       <c r="R79" s="20"/>
       <c r="S79" s="5"/>
-      <c r="T79" s="5" t="s">
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
@@ -10034,76 +10459,85 @@
       <c r="AJ79" s="6"/>
       <c r="AK79" s="6"/>
       <c r="AL79" s="6"/>
+      <c r="AM79" s="6"/>
+      <c r="AN79" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AB42" r:id="rId1" xr:uid="{6C67CDAA-2665-4775-9282-51BF337D6400}"/>
-    <hyperlink ref="AA18" r:id="rId2" xr:uid="{DA6EF610-1C91-4FFC-B33E-FCB1533D420F}"/>
-    <hyperlink ref="AC18" r:id="rId3" location=":~:text=Whilst%20MLCCs%20are%20susceptible%20to,of%202%20years%20or%20less." xr:uid="{FABCDFF4-E4CA-458B-BCEE-0CAD21F7BF23}"/>
-    <hyperlink ref="AA3" r:id="rId4" xr:uid="{058CD847-D57F-4B41-8903-40B77D35105D}"/>
-    <hyperlink ref="AA32" r:id="rId5" display="https://www.sciencedirect.com/science/article/pii/S0263436821000780" xr:uid="{895943B2-F3C7-4D0B-B90F-3A30C24BE91A}"/>
-    <hyperlink ref="AA35" r:id="rId6" xr:uid="{FFFDAB7D-1256-45F7-AFB1-D22344886650}"/>
-    <hyperlink ref="AA47" r:id="rId7" display="https://www.statista.com/statistics/1009446/tungsten-price/" xr:uid="{97F82DFC-6810-4593-8955-863ACBB3DF37}"/>
-    <hyperlink ref="AB5" r:id="rId8" display="https://pubs.usgs.gov/periodicals/mcs2020/mcs2020-tin.pdf" xr:uid="{A3F1EB02-E5A1-49A7-8496-FD8516064D80}"/>
-    <hyperlink ref="AC3" r:id="rId9" xr:uid="{ED5EB351-2DB6-48D4-A8B2-6EB12F62BC77}"/>
-    <hyperlink ref="AC48" r:id="rId10" xr:uid="{846992AD-3ACB-4557-A7FA-7B00720CF198}"/>
-    <hyperlink ref="AC47" r:id="rId11" display="https://www.argusmedia.com/en/news/2222244-eu-tantalum-prices-rebound-on-higher-input-costs" xr:uid="{B03EDC8A-A85B-4AE1-81A1-8460229585D4}"/>
-    <hyperlink ref="AC32" r:id="rId12" xr:uid="{F9134EB4-AF7C-4CC4-BB1D-F4A8A307BE54}"/>
-    <hyperlink ref="AC33" r:id="rId13" xr:uid="{E0E0ACF1-2E42-4611-9CCF-374D8A3492D0}"/>
-    <hyperlink ref="AA48" r:id="rId14" xr:uid="{9E254A45-F310-4AC5-BD1A-6656B4CE3760}"/>
-    <hyperlink ref="AH47" r:id="rId15" xr:uid="{6B03944F-71E5-41D8-B06A-84DE89DA203B}"/>
-    <hyperlink ref="AI38" r:id="rId16" xr:uid="{908B8CEB-0A15-4A26-8D30-F41FB42DECF8}"/>
-    <hyperlink ref="AJ19" r:id="rId17" display="https://www.mdpi.com/2079-9276/10/9/93/pdf" xr:uid="{6918E342-8074-47B2-B087-613D5AC7C8D0}"/>
-    <hyperlink ref="AE39" r:id="rId18" display="https://www.copper.org/publications/newsletters/innovations/2001/08/hydrometallurgy.html" xr:uid="{BF4C9410-63BA-47BC-A63D-15337BE7BC5D}"/>
-    <hyperlink ref="AF3" r:id="rId19" location=":~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." display="https://www.globenewswire.com/news-release/2020/04/22/2020156/0/en/Global-Silver-Demand-Edged-Higher-in-2019-With-Investment-Demand-Up-12-While-Silver-Mine-Supply-Fell-for-the-Fourth-Consecutive-Year.html#:~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." xr:uid="{7E3C5FCD-8F51-4490-BBE5-6F141696AF97}"/>
-    <hyperlink ref="AH6" r:id="rId20" xr:uid="{0F67CDD1-7035-DC44-9CA6-CA547F4A120E}"/>
-    <hyperlink ref="AF7" r:id="rId21" xr:uid="{798E403D-86FA-8F4E-A18B-F39FDE87D1E1}"/>
-    <hyperlink ref="AG7" r:id="rId22" xr:uid="{0E247788-8755-934D-922D-DF24A7747C35}"/>
-    <hyperlink ref="AE7" r:id="rId23" display="https://www.sciencedirect.com/science/article/pii/S0921344917301817" xr:uid="{00987C5A-86EF-7449-830B-14136FA25644}"/>
-    <hyperlink ref="AB7" r:id="rId24" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{2FC36872-A372-8149-979C-5C1EB12DAB3C}"/>
-    <hyperlink ref="AB8" r:id="rId25" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{6485F26B-C8ED-7D47-AA92-D1F7CF8E46F1}"/>
-    <hyperlink ref="AB9" r:id="rId26" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{D2CF26CA-B025-4C41-899C-2215D4981909}"/>
-    <hyperlink ref="AB10" r:id="rId27" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{1F472A81-9D59-9340-B578-AD40B57FC5DB}"/>
-    <hyperlink ref="AB11" r:id="rId28" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{6A858768-DF1D-7A42-9B84-D34C269B492D}"/>
-    <hyperlink ref="AH7" r:id="rId29" xr:uid="{BDB1FBCE-8E5B-E446-9521-78DC3859DF64}"/>
-    <hyperlink ref="AH31" r:id="rId30" display="https://www.recyclingtoday.com/article/battery-council-international-lead-battery-recycling/" xr:uid="{EEE1D733-973D-194D-89E1-ED66138A0CA6}"/>
-    <hyperlink ref="AG27" r:id="rId31" xr:uid="{1EBCFBC8-5E0B-3343-B5E4-413BE8F9F076}"/>
-    <hyperlink ref="AE17" r:id="rId32" xr:uid="{5BF8B3C9-6734-4540-AB66-56985B2BD4D4}"/>
-    <hyperlink ref="AE18" r:id="rId33" xr:uid="{3F6D9065-8733-8048-969F-D3F9B2D846FF}"/>
-    <hyperlink ref="AE19" r:id="rId34" xr:uid="{DDC6013A-65C0-C747-8B90-58FABD091EA8}"/>
-    <hyperlink ref="AE20" r:id="rId35" xr:uid="{34C61E79-65B5-784B-91E7-D6EFA72E1C16}"/>
-    <hyperlink ref="AE21" r:id="rId36" xr:uid="{28856D38-242E-DF4D-A9C7-34619BAC263B}"/>
-    <hyperlink ref="AE27" r:id="rId37" xr:uid="{DD334BF5-7CCC-854C-87DB-FD9A495C64E3}"/>
-    <hyperlink ref="AE28" r:id="rId38" xr:uid="{960BA8A2-4FFC-D049-A2D2-78ED92322EB5}"/>
-    <hyperlink ref="AE29" r:id="rId39" xr:uid="{9776F84E-607F-4340-99D2-0CF5831412A8}"/>
-    <hyperlink ref="AE30" r:id="rId40" xr:uid="{E9CAE11E-46BE-D941-AC51-89FBCFAD8F10}"/>
-    <hyperlink ref="AE31" r:id="rId41" xr:uid="{08C1E42C-92E1-A54A-9894-BB1716DCEAAE}"/>
-    <hyperlink ref="AB27" r:id="rId42" xr:uid="{AB2B8C02-763D-B846-8D3A-C52B9C52ECE4}"/>
-    <hyperlink ref="AB28" r:id="rId43" xr:uid="{D83C3CF7-5DCF-3B40-A3CE-426314CA2F28}"/>
-    <hyperlink ref="AB29" r:id="rId44" xr:uid="{3658CDFA-B475-A248-8C69-D9B9ABC6614B}"/>
-    <hyperlink ref="AB30" r:id="rId45" xr:uid="{8080BCC5-66E2-2349-97CE-9A809D50840E}"/>
-    <hyperlink ref="AB31" r:id="rId46" xr:uid="{BBF2DF10-2671-734D-88B6-394D9C60D4A5}"/>
-    <hyperlink ref="AG31" r:id="rId47" xr:uid="{F7723C52-BBC3-F24E-AAE4-A9B42CB8045B}"/>
-    <hyperlink ref="X43" r:id="rId48" xr:uid="{324D83B3-AFAE-2543-8E69-C10D887EE7AB}"/>
-    <hyperlink ref="AG28" r:id="rId49" xr:uid="{DEC718A9-543E-DA46-97C4-748B0830EED9}"/>
-    <hyperlink ref="AG29" r:id="rId50" xr:uid="{841D0090-CE2C-6B4D-8911-C602FC5CA170}"/>
-    <hyperlink ref="AG30" r:id="rId51" xr:uid="{EF554BD6-D3AF-2A4B-AB8C-E9433478750A}"/>
-    <hyperlink ref="AA23" r:id="rId52" xr:uid="{1F1F9692-265E-EB4A-B340-ADBAE27BB8BE}"/>
-    <hyperlink ref="AC23" r:id="rId53" location=":~:text=Whilst%20MLCCs%20are%20susceptible%20to,of%202%20years%20or%20less." xr:uid="{DCBE729B-549B-F249-B4AC-F25B7CAD0B59}"/>
-    <hyperlink ref="AJ24" r:id="rId54" display="https://www.mdpi.com/2079-9276/10/9/93/pdf" xr:uid="{DE88708D-DBD3-F64C-8229-C156C477DEB1}"/>
-    <hyperlink ref="AE22" r:id="rId55" xr:uid="{7E80EC07-8259-D146-8140-8E3DD3B9F6EF}"/>
-    <hyperlink ref="AE23" r:id="rId56" xr:uid="{64C4618D-3ED1-094B-B542-0F6DE53871E6}"/>
-    <hyperlink ref="AE24" r:id="rId57" xr:uid="{F14A5AEF-9B21-A349-BE04-71F2A55E8274}"/>
-    <hyperlink ref="AE25" r:id="rId58" xr:uid="{3D01083B-008E-784D-A8F6-F38011D21DA1}"/>
-    <hyperlink ref="AE26" r:id="rId59" xr:uid="{A3B1D1D1-23AC-C74C-B4EC-56A9A594783F}"/>
-    <hyperlink ref="AE32" r:id="rId60" display="https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf" xr:uid="{7CA7D73C-4B66-8A4E-B88E-797839CD039A}"/>
-    <hyperlink ref="AE33" r:id="rId61" display="https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf" xr:uid="{8F7902EA-8E88-214B-9383-15F7FF36E6D3}"/>
+    <hyperlink ref="AD42" r:id="rId1" xr:uid="{6C67CDAA-2665-4775-9282-51BF337D6400}"/>
+    <hyperlink ref="AC18" r:id="rId2" xr:uid="{DA6EF610-1C91-4FFC-B33E-FCB1533D420F}"/>
+    <hyperlink ref="AE18" r:id="rId3" location=":~:text=Whilst%20MLCCs%20are%20susceptible%20to,of%202%20years%20or%20less." xr:uid="{FABCDFF4-E4CA-458B-BCEE-0CAD21F7BF23}"/>
+    <hyperlink ref="AC3" r:id="rId4" xr:uid="{058CD847-D57F-4B41-8903-40B77D35105D}"/>
+    <hyperlink ref="AC32" r:id="rId5" display="https://www.sciencedirect.com/science/article/pii/S0263436821000780" xr:uid="{895943B2-F3C7-4D0B-B90F-3A30C24BE91A}"/>
+    <hyperlink ref="AC35" r:id="rId6" xr:uid="{FFFDAB7D-1256-45F7-AFB1-D22344886650}"/>
+    <hyperlink ref="AC47" r:id="rId7" display="https://www.statista.com/statistics/1009446/tungsten-price/" xr:uid="{97F82DFC-6810-4593-8955-863ACBB3DF37}"/>
+    <hyperlink ref="AD5" r:id="rId8" display="https://pubs.usgs.gov/periodicals/mcs2020/mcs2020-tin.pdf" xr:uid="{A3F1EB02-E5A1-49A7-8496-FD8516064D80}"/>
+    <hyperlink ref="AE3" r:id="rId9" xr:uid="{ED5EB351-2DB6-48D4-A8B2-6EB12F62BC77}"/>
+    <hyperlink ref="AE48" r:id="rId10" xr:uid="{846992AD-3ACB-4557-A7FA-7B00720CF198}"/>
+    <hyperlink ref="AE47" r:id="rId11" display="https://www.argusmedia.com/en/news/2222244-eu-tantalum-prices-rebound-on-higher-input-costs" xr:uid="{B03EDC8A-A85B-4AE1-81A1-8460229585D4}"/>
+    <hyperlink ref="AE32" r:id="rId12" xr:uid="{F9134EB4-AF7C-4CC4-BB1D-F4A8A307BE54}"/>
+    <hyperlink ref="AE33" r:id="rId13" xr:uid="{E0E0ACF1-2E42-4611-9CCF-374D8A3492D0}"/>
+    <hyperlink ref="AC48" r:id="rId14" xr:uid="{9E254A45-F310-4AC5-BD1A-6656B4CE3760}"/>
+    <hyperlink ref="AJ47" r:id="rId15" xr:uid="{6B03944F-71E5-41D8-B06A-84DE89DA203B}"/>
+    <hyperlink ref="AK38" r:id="rId16" xr:uid="{908B8CEB-0A15-4A26-8D30-F41FB42DECF8}"/>
+    <hyperlink ref="AL19" r:id="rId17" display="https://www.mdpi.com/2079-9276/10/9/93/pdf" xr:uid="{6918E342-8074-47B2-B087-613D5AC7C8D0}"/>
+    <hyperlink ref="AG39" r:id="rId18" display="https://www.copper.org/publications/newsletters/innovations/2001/08/hydrometallurgy.html" xr:uid="{BF4C9410-63BA-47BC-A63D-15337BE7BC5D}"/>
+    <hyperlink ref="AH3" r:id="rId19" location=":~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." display="https://www.globenewswire.com/news-release/2020/04/22/2020156/0/en/Global-Silver-Demand-Edged-Higher-in-2019-With-Investment-Demand-Up-12-While-Silver-Mine-Supply-Fell-for-the-Fourth-Consecutive-Year.html#:~:text=Global%20silver%20demand%20edged%20higher%20in%202019%20to%20991.8%20Moz,from%202018%20at%20510.9%20Moz." xr:uid="{7E3C5FCD-8F51-4490-BBE5-6F141696AF97}"/>
+    <hyperlink ref="AJ6" r:id="rId20" xr:uid="{0F67CDD1-7035-DC44-9CA6-CA547F4A120E}"/>
+    <hyperlink ref="AH7" r:id="rId21" xr:uid="{798E403D-86FA-8F4E-A18B-F39FDE87D1E1}"/>
+    <hyperlink ref="AI7" r:id="rId22" xr:uid="{0E247788-8755-934D-922D-DF24A7747C35}"/>
+    <hyperlink ref="AG7" r:id="rId23" display="https://www.sciencedirect.com/science/article/pii/S0921344917301817" xr:uid="{00987C5A-86EF-7449-830B-14136FA25644}"/>
+    <hyperlink ref="AD7" r:id="rId24" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{2FC36872-A372-8149-979C-5C1EB12DAB3C}"/>
+    <hyperlink ref="AD8" r:id="rId25" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{6485F26B-C8ED-7D47-AA92-D1F7CF8E46F1}"/>
+    <hyperlink ref="AD9" r:id="rId26" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{D2CF26CA-B025-4C41-899C-2215D4981909}"/>
+    <hyperlink ref="AD10" r:id="rId27" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{1F472A81-9D59-9340-B578-AD40B57FC5DB}"/>
+    <hyperlink ref="AD11" r:id="rId28" display="https://www.sciencedirect.com/science/article/pii/S0048969718312373" xr:uid="{6A858768-DF1D-7A42-9B84-D34C269B492D}"/>
+    <hyperlink ref="AJ7" r:id="rId29" xr:uid="{BDB1FBCE-8E5B-E446-9521-78DC3859DF64}"/>
+    <hyperlink ref="AJ31" r:id="rId30" display="https://www.recyclingtoday.com/article/battery-council-international-lead-battery-recycling/" xr:uid="{EEE1D733-973D-194D-89E1-ED66138A0CA6}"/>
+    <hyperlink ref="AI27" r:id="rId31" xr:uid="{1EBCFBC8-5E0B-3343-B5E4-413BE8F9F076}"/>
+    <hyperlink ref="AG17" r:id="rId32" xr:uid="{5BF8B3C9-6734-4540-AB66-56985B2BD4D4}"/>
+    <hyperlink ref="AG18" r:id="rId33" xr:uid="{3F6D9065-8733-8048-969F-D3F9B2D846FF}"/>
+    <hyperlink ref="AG19" r:id="rId34" xr:uid="{DDC6013A-65C0-C747-8B90-58FABD091EA8}"/>
+    <hyperlink ref="AG20" r:id="rId35" xr:uid="{34C61E79-65B5-784B-91E7-D6EFA72E1C16}"/>
+    <hyperlink ref="AG21" r:id="rId36" xr:uid="{28856D38-242E-DF4D-A9C7-34619BAC263B}"/>
+    <hyperlink ref="AG27" r:id="rId37" xr:uid="{DD334BF5-7CCC-854C-87DB-FD9A495C64E3}"/>
+    <hyperlink ref="AG28" r:id="rId38" xr:uid="{960BA8A2-4FFC-D049-A2D2-78ED92322EB5}"/>
+    <hyperlink ref="AG29" r:id="rId39" xr:uid="{9776F84E-607F-4340-99D2-0CF5831412A8}"/>
+    <hyperlink ref="AG30" r:id="rId40" xr:uid="{E9CAE11E-46BE-D941-AC51-89FBCFAD8F10}"/>
+    <hyperlink ref="AG31" r:id="rId41" xr:uid="{08C1E42C-92E1-A54A-9894-BB1716DCEAAE}"/>
+    <hyperlink ref="AD27" r:id="rId42" xr:uid="{AB2B8C02-763D-B846-8D3A-C52B9C52ECE4}"/>
+    <hyperlink ref="AD28" r:id="rId43" xr:uid="{D83C3CF7-5DCF-3B40-A3CE-426314CA2F28}"/>
+    <hyperlink ref="AD29" r:id="rId44" xr:uid="{3658CDFA-B475-A248-8C69-D9B9ABC6614B}"/>
+    <hyperlink ref="AD30" r:id="rId45" xr:uid="{8080BCC5-66E2-2349-97CE-9A809D50840E}"/>
+    <hyperlink ref="AD31" r:id="rId46" xr:uid="{BBF2DF10-2671-734D-88B6-394D9C60D4A5}"/>
+    <hyperlink ref="AI31" r:id="rId47" xr:uid="{F7723C52-BBC3-F24E-AAE4-A9B42CB8045B}"/>
+    <hyperlink ref="Z43" r:id="rId48" xr:uid="{324D83B3-AFAE-2543-8E69-C10D887EE7AB}"/>
+    <hyperlink ref="AI28" r:id="rId49" xr:uid="{DEC718A9-543E-DA46-97C4-748B0830EED9}"/>
+    <hyperlink ref="AI29" r:id="rId50" xr:uid="{841D0090-CE2C-6B4D-8911-C602FC5CA170}"/>
+    <hyperlink ref="AI30" r:id="rId51" xr:uid="{EF554BD6-D3AF-2A4B-AB8C-E9433478750A}"/>
+    <hyperlink ref="AC23" r:id="rId52" xr:uid="{1F1F9692-265E-EB4A-B340-ADBAE27BB8BE}"/>
+    <hyperlink ref="AE23" r:id="rId53" location=":~:text=Whilst%20MLCCs%20are%20susceptible%20to,of%202%20years%20or%20less." xr:uid="{DCBE729B-549B-F249-B4AC-F25B7CAD0B59}"/>
+    <hyperlink ref="AL24" r:id="rId54" display="https://www.mdpi.com/2079-9276/10/9/93/pdf" xr:uid="{DE88708D-DBD3-F64C-8229-C156C477DEB1}"/>
+    <hyperlink ref="AG22" r:id="rId55" xr:uid="{7E80EC07-8259-D146-8140-8E3DD3B9F6EF}"/>
+    <hyperlink ref="AG23" r:id="rId56" xr:uid="{64C4618D-3ED1-094B-B542-0F6DE53871E6}"/>
+    <hyperlink ref="AG24" r:id="rId57" xr:uid="{F14A5AEF-9B21-A349-BE04-71F2A55E8274}"/>
+    <hyperlink ref="AG25" r:id="rId58" xr:uid="{3D01083B-008E-784D-A8F6-F38011D21DA1}"/>
+    <hyperlink ref="AG26" r:id="rId59" xr:uid="{A3B1D1D1-23AC-C74C-B4EC-56A9A594783F}"/>
+    <hyperlink ref="AG32" r:id="rId60" display="https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf" xr:uid="{7CA7D73C-4B66-8A4E-B88E-797839CD039A}"/>
+    <hyperlink ref="AG33" r:id="rId61" display="https://insg.org/wp-content/uploads/2022/02/publist_The-World-Nickel-Factbook-2021.pdf" xr:uid="{8F7902EA-8E88-214B-9383-15F7FF36E6D3}"/>
+    <hyperlink ref="AL7" r:id="rId62" xr:uid="{14C6FE71-7E5F-1E4A-A8DC-860088D35D41}"/>
+    <hyperlink ref="AL3" r:id="rId63" xr:uid="{A9F76A16-9DB7-C94A-AAE7-15EC57776DC7}"/>
+    <hyperlink ref="AL47" r:id="rId64" display="https://ar2019.nornickel.com/pdf/ar/en/commodity-market-overview_platinum.pdf" xr:uid="{7D7A3D60-65BD-444B-9115-C440E32F388F}"/>
+    <hyperlink ref="AL32" r:id="rId65" display="https://ar2019.nornickel.com/pdf/ar/en/commodity-market-overview_platinum.pdf" xr:uid="{8C924774-6FC1-E54B-B4C2-A2310983AD39}"/>
+    <hyperlink ref="AL33" r:id="rId66" display="https://ar2019.nornickel.com/pdf/ar/en/commodity-market-overview_platinum.pdf" xr:uid="{16889A4C-9FB0-A04C-AAE4-0DE219C6309F}"/>
+    <hyperlink ref="AL6" r:id="rId67" location=":~:text=China%20is%20the%20second%20largest,per%20cent%20of%20global%20demand" xr:uid="{4AFFD3CC-8143-A946-B2CA-F37FE48027FD}"/>
+    <hyperlink ref="AL35" r:id="rId68" display="https://platinuminvestment.com/supply-and-demand/historic-data" xr:uid="{E7CA6D90-4A04-2948-B955-421E080B4C64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId62"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
   <tableParts count="1">
-    <tablePart r:id="rId63"/>
+    <tablePart r:id="rId70"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10137,7 +10571,7 @@
         <v>187</v>
       </c>
       <c r="F1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10145,16 +10579,16 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10693,13 +11127,13 @@
         <v>176</v>
       </c>
       <c r="G1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10707,25 +11141,25 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -11333,22 +11767,22 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" t="s">
         <v>318</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H2" t="s">
-        <v>320</v>
       </c>
       <c r="I2" t="s">
         <v>182</v>
       </c>
       <c r="J2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11808,7 +12242,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -11995,15 +12429,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E28CC3-7415-4459-ACB5-EE32C9212512}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>176</v>
       </c>
@@ -12011,175 +12445,754 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" t="s">
         <v>181</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="D2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
+        <v>349</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
+        <v>1975</v>
+      </c>
+      <c r="B3">
+        <v>8.0200000000000007E-2</v>
+      </c>
+      <c r="E3">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1976</v>
+      </c>
+      <c r="B4">
+        <v>7.46E-2</v>
+      </c>
+      <c r="E4">
+        <v>8.09E-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1977</v>
+      </c>
+      <c r="B5">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.1200000000000008E-2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1978</v>
+      </c>
+      <c r="B6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E6">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1979</v>
+      </c>
+      <c r="B7">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="E7">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1980</v>
+      </c>
+      <c r="B8">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="E8">
+        <v>8.77E-2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1981</v>
+      </c>
+      <c r="B9">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1982</v>
+      </c>
+      <c r="B10">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="E10">
+        <v>7.740000000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>1983</v>
+      </c>
+      <c r="B11">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="E11">
+        <v>7.7099999999999988E-2</v>
+      </c>
+      <c r="F11">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1984</v>
+      </c>
+      <c r="B12">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E12">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>1985</v>
+      </c>
+      <c r="B13">
+        <v>9.0199999999999989E-2</v>
+      </c>
+      <c r="E13">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1986</v>
+      </c>
+      <c r="B14">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="E14">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>1987</v>
+      </c>
+      <c r="B15">
+        <v>0.10590000000000001</v>
+      </c>
+      <c r="E15">
+        <v>9.64E-2</v>
+      </c>
+      <c r="F15">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1988</v>
+      </c>
+      <c r="B16">
+        <v>0.1173</v>
+      </c>
+      <c r="E16">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>1989</v>
+      </c>
+      <c r="B17">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.1065</v>
+      </c>
+      <c r="F17">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>1990</v>
+      </c>
+      <c r="B18">
+        <v>0.1217</v>
+      </c>
+      <c r="E18">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F18">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1991</v>
+      </c>
+      <c r="B19">
+        <v>0.13299999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.12940000000000002</v>
+      </c>
+      <c r="F19">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1992</v>
+      </c>
+      <c r="B20">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.1188</v>
+      </c>
+      <c r="F20">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1993</v>
+      </c>
+      <c r="B21">
+        <v>0.13369999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="F21">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1994</v>
+      </c>
+      <c r="B22">
+        <v>0.14990000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.1409</v>
+      </c>
+      <c r="F22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>1995</v>
+      </c>
+      <c r="B23">
+        <v>0.1565</v>
+      </c>
+      <c r="E23">
+        <v>0.15519999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1996</v>
+      </c>
+      <c r="B24">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="F24">
+        <v>1.09E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>1997</v>
+      </c>
+      <c r="B25">
+        <v>0.1711</v>
+      </c>
+      <c r="E25">
+        <v>0.15430000000000002</v>
+      </c>
+      <c r="F25">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>1998</v>
+      </c>
+      <c r="B26">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F26">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>1999</v>
+      </c>
+      <c r="B27">
+        <v>0.187</v>
+      </c>
+      <c r="E27">
+        <v>0.1515</v>
+      </c>
+      <c r="F27">
+        <v>1.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2000</v>
+      </c>
+      <c r="B28">
+        <v>0.1913</v>
+      </c>
+      <c r="E28">
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="F28">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16">
+      <c r="A29">
         <v>2001</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3">
-        <v>184.27199999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="B29">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29">
+        <v>0.18427199999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.18229999999999999</v>
+      </c>
+      <c r="F29">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
         <v>2002</v>
       </c>
-      <c r="D4">
-        <v>182.12299999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="B30">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.18212299999999998</v>
+      </c>
+      <c r="E30">
+        <v>0.1857</v>
+      </c>
+      <c r="F30">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
         <v>2003</v>
       </c>
-      <c r="D5">
-        <v>197.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="B31">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.19712000000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.1928</v>
+      </c>
+      <c r="F31">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
         <v>2004</v>
       </c>
-      <c r="D6">
-        <v>200.32499999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="B32">
+        <v>0.22489999999999999</v>
+      </c>
+      <c r="D32">
+        <v>0.20032499999999998</v>
+      </c>
+      <c r="E32">
+        <v>0.2019</v>
+      </c>
+      <c r="F32">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
         <v>2005</v>
       </c>
-      <c r="D7">
-        <v>215.774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="B33">
+        <v>0.24780000000000002</v>
+      </c>
+      <c r="D33">
+        <v>0.21577399999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="F33">
+        <v>3.95E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
         <v>2006</v>
       </c>
-      <c r="D8">
-        <v>217.38900000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="B34">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.217389</v>
+      </c>
+      <c r="E34">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="F34">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
         <v>2007</v>
       </c>
-      <c r="D9">
-        <v>214.768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="B35">
+        <v>0.25730000000000003</v>
+      </c>
+      <c r="D35">
+        <v>0.21476800000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="F35">
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
         <v>2008</v>
       </c>
-      <c r="D10">
-        <v>192.114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="B36">
+        <v>0.2485</v>
+      </c>
+      <c r="D36">
+        <v>0.19211400000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.18480000000000002</v>
+      </c>
+      <c r="F36">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
         <v>2009</v>
       </c>
-      <c r="D11">
-        <v>183.01900000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="B37">
+        <v>0.21130000000000002</v>
+      </c>
+      <c r="D37">
+        <v>0.18301900000000002</v>
+      </c>
+      <c r="E37">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="F37">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
         <v>2010</v>
       </c>
-      <c r="D12">
-        <v>192.80500000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="B38">
+        <v>0.24590000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.192805</v>
+      </c>
+      <c r="E38">
+        <v>0.18819999999999998</v>
+      </c>
+      <c r="F38">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
         <v>2011</v>
       </c>
-      <c r="D13">
-        <v>200.56899999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="B39">
+        <v>0.25180000000000002</v>
+      </c>
+      <c r="D39">
+        <v>0.200569</v>
+      </c>
+      <c r="E39">
+        <v>0.20169999999999999</v>
+      </c>
+      <c r="F39">
+        <v>6.409999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
         <v>2012</v>
       </c>
-      <c r="D14">
-        <v>179.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="B40">
+        <v>0.24980000000000002</v>
+      </c>
+      <c r="D40">
+        <v>0.17965</v>
+      </c>
+      <c r="E40">
+        <v>0.1757</v>
+      </c>
+      <c r="F40">
+        <v>6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
         <v>2013</v>
       </c>
-      <c r="D15">
-        <v>192.84700000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="B41">
+        <v>0.24352241710315486</v>
+      </c>
+      <c r="D41">
+        <v>0.19284700000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.1659864670708931</v>
+      </c>
+      <c r="F41">
+        <v>5.6699049383738036E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
         <v>2014</v>
       </c>
-      <c r="D16">
-        <v>148.10300000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="B42">
+        <v>0.22948940238067969</v>
+      </c>
+      <c r="D42">
+        <v>0.14810300000000001</v>
+      </c>
+      <c r="E42">
+        <v>0.14812626651501562</v>
+      </c>
+      <c r="F42">
+        <v>5.825827324179083E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
         <v>2015</v>
       </c>
-      <c r="D17">
-        <v>192.29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+      <c r="B43">
+        <v>0.23345833583754136</v>
+      </c>
+      <c r="D43">
+        <v>0.19228999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.17548355784266922</v>
+      </c>
+      <c r="F43">
+        <v>4.8761182470014708E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
         <v>2016</v>
       </c>
-      <c r="D18">
-        <v>189.071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="B44">
+        <v>0.23686027880056565</v>
+      </c>
+      <c r="D44">
+        <v>0.18907099999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.17222336250310427</v>
+      </c>
+      <c r="F44">
+        <v>5.2730115926876368E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
         <v>2017</v>
       </c>
-      <c r="D19">
-        <v>185.886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+      <c r="B45">
+        <v>0.22282726407809048</v>
+      </c>
+      <c r="D45">
+        <v>0.185886</v>
+      </c>
+      <c r="E45">
+        <v>0.17463307210191314</v>
+      </c>
+      <c r="F45">
+        <v>5.4289339784929169E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
         <v>2018</v>
       </c>
-      <c r="D20">
-        <v>195.07900000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+      <c r="B46">
+        <v>0.209077744602534</v>
+      </c>
+      <c r="D46">
+        <v>0.195079</v>
+      </c>
+      <c r="E46">
+        <v>0.17392433398461643</v>
+      </c>
+      <c r="F46">
+        <v>5.542332077260393E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
         <v>2019</v>
       </c>
-      <c r="D21">
-        <v>187.04499999999999</v>
+      <c r="B47">
+        <v>0.23663348260303069</v>
+      </c>
+      <c r="D47">
+        <v>0.18704499999999999</v>
+      </c>
+      <c r="E47">
+        <v>0.17228006155248801</v>
+      </c>
+      <c r="F47">
+        <v>6.0497885692448482E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2020</v>
+      </c>
+      <c r="B48">
+        <v>0.22322415742377663</v>
+      </c>
+      <c r="E48">
+        <v>0.13908276813830939</v>
+      </c>
+      <c r="F48">
+        <v>5.4714582655307202E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2021</v>
+      </c>
+      <c r="B49">
+        <v>0.19824822617024004</v>
+      </c>
+      <c r="E49">
+        <v>0.17588045118835538</v>
+      </c>
+      <c r="F49">
+        <v>5.4913029328150287E-2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://platinuminvestment.com/supply-and-demand/historic-data" xr:uid="{0D52897F-009E-694B-922F-7737FD4DB115}"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://platinuminvestment.com/supply-and-demand/historic-data" xr:uid="{8F57277E-41F6-3A48-BC64-B1FBFBA24B00}"/>
+    <hyperlink ref="F2" r:id="rId3" display="https://platinuminvestment.com/supply-and-demand/historic-data" xr:uid="{8990EC85-F8D2-E34A-A7EB-AEBED35D25D4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12599,13 +13612,13 @@
         <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E2" t="s">
         <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -13656,7 +14669,7 @@
         <v>190</v>
       </c>
       <c r="H1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L1" t="s">
         <v>180</v>
@@ -13665,7 +14678,7 @@
         <v>180</v>
       </c>
       <c r="Q1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -13673,29 +14686,29 @@
         <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M2" s="32"/>
       <c r="Q2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14400,13 +15413,13 @@
         <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -14415,7 +15428,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J2">
         <v>1990</v>
@@ -15026,7 +16039,7 @@
         <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -15976,13 +16989,13 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -16808,13 +17821,13 @@
         <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCE17FF-D198-7E46-9AD3-4E1DFD5CD634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016AA8C3-58BD-7640-B88E-D0130D244532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="15" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="Mo" sheetId="14" r:id="rId13"/>
     <sheet name="Pt" sheetId="15" r:id="rId14"/>
     <sheet name="Li" sheetId="16" r:id="rId15"/>
+    <sheet name="Ore grade" sheetId="18" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="480">
   <si>
     <t>Al</t>
   </si>
@@ -1492,6 +1493,39 @@
   </si>
   <si>
     <t>World Platinum Investment Council - Supply &amp; Demand - Historical Data (1975-2012 from Johnson Matthey, 2013-2018 from SFA (Oxford), 2019-2021 from Metals Focus)</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Molybdenum</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1538,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1602,6 +1636,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1663,7 +1710,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1743,6 +1790,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4250,9 +4299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AN79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7769,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <f>1-0.52/2</f>
@@ -7860,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <f>1-0.52/2</f>
@@ -13567,6 +13616,981 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BF720A-D744-1B4D-893A-AC0F2A4F2378}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16">
+      <c r="A1" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16">
+      <c r="A2" s="49">
+        <v>1991</v>
+      </c>
+      <c r="B2" s="50">
+        <v>1.434685</v>
+      </c>
+      <c r="C2" s="50">
+        <v>1.9120000000000001E-3</v>
+      </c>
+      <c r="D2" s="50">
+        <v>5.1799099999999996</v>
+      </c>
+      <c r="E2" s="50">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F2" s="50">
+        <v>1.06</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="I2" s="50">
+        <v>3.7130000000000003E-2</v>
+      </c>
+      <c r="J2" s="50">
+        <v>9.7158920000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16">
+      <c r="A3" s="49">
+        <v>1992</v>
+      </c>
+      <c r="B3" s="50">
+        <v>1.413902</v>
+      </c>
+      <c r="C3" s="50">
+        <v>1.32E-3</v>
+      </c>
+      <c r="D3" s="50">
+        <v>5.1701410000000001</v>
+      </c>
+      <c r="E3" s="50">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F3" s="50">
+        <v>1.8992059999999999</v>
+      </c>
+      <c r="G3" s="50">
+        <v>1.921E-3</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="I3" s="50">
+        <v>3.6905E-2</v>
+      </c>
+      <c r="J3" s="50">
+        <v>8.9364349999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16">
+      <c r="A4" s="49">
+        <v>1993</v>
+      </c>
+      <c r="B4" s="50">
+        <v>1.3976120000000001</v>
+      </c>
+      <c r="C4" s="50">
+        <v>6.78E-4</v>
+      </c>
+      <c r="D4" s="50">
+        <v>5.6530180000000003</v>
+      </c>
+      <c r="E4" s="50">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F4" s="50">
+        <v>1.9204479999999999</v>
+      </c>
+      <c r="G4" s="50">
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="I4" s="50">
+        <v>2.5239999999999999E-2</v>
+      </c>
+      <c r="J4" s="50">
+        <v>9.0117820000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16">
+      <c r="A5" s="49">
+        <v>1994</v>
+      </c>
+      <c r="B5" s="50">
+        <v>1.3479570000000001</v>
+      </c>
+      <c r="C5" s="50">
+        <v>6.4300000000000002E-4</v>
+      </c>
+      <c r="D5" s="50">
+        <v>5.5125339999999996</v>
+      </c>
+      <c r="E5" s="50">
+        <v>0.23871300000000001</v>
+      </c>
+      <c r="F5" s="50">
+        <v>1.852976</v>
+      </c>
+      <c r="G5" s="50">
+        <v>1.725E-3</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="I5" s="50">
+        <v>1.7833999999999999E-2</v>
+      </c>
+      <c r="J5" s="50">
+        <v>9.3099150000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16">
+      <c r="A6" s="49">
+        <v>1995</v>
+      </c>
+      <c r="B6" s="50">
+        <v>1.27196</v>
+      </c>
+      <c r="C6" s="50">
+        <v>6.2100000000000002E-4</v>
+      </c>
+      <c r="D6" s="50">
+        <v>5.3855560000000002</v>
+      </c>
+      <c r="E6" s="50">
+        <v>0.235655</v>
+      </c>
+      <c r="F6" s="50">
+        <v>1.709751</v>
+      </c>
+      <c r="G6" s="50">
+        <v>1.348E-3</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="I6" s="50">
+        <v>1.9188E-2</v>
+      </c>
+      <c r="J6" s="50">
+        <v>9.1848019999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16">
+      <c r="A7" s="49">
+        <v>1996</v>
+      </c>
+      <c r="B7" s="50">
+        <v>1.303744</v>
+      </c>
+      <c r="C7" s="50">
+        <v>5.7399999999999997E-4</v>
+      </c>
+      <c r="D7" s="50">
+        <v>5.046716</v>
+      </c>
+      <c r="E7" s="50">
+        <v>0.23250699999999999</v>
+      </c>
+      <c r="F7" s="50">
+        <v>1.696455</v>
+      </c>
+      <c r="G7" s="50">
+        <v>1.4270000000000001E-3</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="I7" s="50">
+        <v>3.1510999999999997E-2</v>
+      </c>
+      <c r="J7" s="50">
+        <v>9.1569109999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16">
+      <c r="A8" s="49">
+        <v>1997</v>
+      </c>
+      <c r="B8" s="50">
+        <v>1.335629</v>
+      </c>
+      <c r="C8" s="50">
+        <v>6.02E-4</v>
+      </c>
+      <c r="D8" s="50">
+        <v>4.9176669999999998</v>
+      </c>
+      <c r="E8" s="50">
+        <v>0.23860700000000001</v>
+      </c>
+      <c r="F8" s="50">
+        <v>1.772842</v>
+      </c>
+      <c r="G8" s="50">
+        <v>1.5560000000000001E-3</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="I8" s="50">
+        <v>4.6684999999999997E-2</v>
+      </c>
+      <c r="J8" s="50">
+        <v>9.3453949999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16">
+      <c r="A9" s="49">
+        <v>1998</v>
+      </c>
+      <c r="B9" s="50">
+        <v>1.2407600000000001</v>
+      </c>
+      <c r="C9" s="50">
+        <v>6.5499999999999998E-4</v>
+      </c>
+      <c r="D9" s="50">
+        <v>5.2199900000000001</v>
+      </c>
+      <c r="E9" s="50">
+        <v>0.22286300000000001</v>
+      </c>
+      <c r="F9" s="50">
+        <v>1.91726</v>
+      </c>
+      <c r="G9" s="50">
+        <v>1.547E-3</v>
+      </c>
+      <c r="H9" s="50">
+        <v>3.1100000000000002E-4</v>
+      </c>
+      <c r="I9" s="50">
+        <v>5.7991000000000001E-2</v>
+      </c>
+      <c r="J9" s="50">
+        <v>9.7533980000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16">
+      <c r="A10" s="49">
+        <v>1999</v>
+      </c>
+      <c r="B10" s="50">
+        <v>1.2405349999999999</v>
+      </c>
+      <c r="C10" s="50">
+        <v>5.9699999999999998E-4</v>
+      </c>
+      <c r="D10" s="50">
+        <v>5.5228529999999996</v>
+      </c>
+      <c r="E10" s="50">
+        <v>0.226192</v>
+      </c>
+      <c r="F10" s="50">
+        <v>1.8864590000000001</v>
+      </c>
+      <c r="G10" s="50">
+        <v>1.498E-3</v>
+      </c>
+      <c r="H10" s="50">
+        <v>3.0899999999999998E-4</v>
+      </c>
+      <c r="I10" s="50">
+        <v>5.4038000000000003E-2</v>
+      </c>
+      <c r="J10" s="50">
+        <v>10.049611000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16">
+      <c r="A11" s="49">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="50">
+        <v>1.196383</v>
+      </c>
+      <c r="C11" s="50">
+        <v>5.53E-4</v>
+      </c>
+      <c r="D11" s="50">
+        <v>5.708024</v>
+      </c>
+      <c r="E11" s="50">
+        <v>0.174792</v>
+      </c>
+      <c r="F11" s="50">
+        <v>1.7585310000000001</v>
+      </c>
+      <c r="G11" s="50">
+        <v>1.408E-3</v>
+      </c>
+      <c r="H11" s="50">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="I11" s="50">
+        <v>5.4066999999999997E-2</v>
+      </c>
+      <c r="J11" s="50">
+        <v>9.6490530000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16">
+      <c r="A12" s="49">
+        <v>2001</v>
+      </c>
+      <c r="B12" s="50">
+        <v>1.1722900000000001</v>
+      </c>
+      <c r="C12" s="50">
+        <v>6.87E-4</v>
+      </c>
+      <c r="D12" s="50">
+        <v>5.6434620000000004</v>
+      </c>
+      <c r="E12" s="50">
+        <v>0.189413</v>
+      </c>
+      <c r="F12" s="50">
+        <v>1.8045389999999999</v>
+      </c>
+      <c r="G12" s="50">
+        <v>1.372E-3</v>
+      </c>
+      <c r="H12" s="50">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="I12" s="50">
+        <v>5.5264000000000001E-2</v>
+      </c>
+      <c r="J12" s="50">
+        <v>9.6032150000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16">
+      <c r="A13" s="49">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="50">
+        <v>1.158479</v>
+      </c>
+      <c r="C13" s="50">
+        <v>6.5099999999999999E-4</v>
+      </c>
+      <c r="D13" s="50">
+        <v>6.0139670000000001</v>
+      </c>
+      <c r="E13" s="50">
+        <v>0.189613</v>
+      </c>
+      <c r="F13" s="50">
+        <v>1.795547</v>
+      </c>
+      <c r="G13" s="50">
+        <v>1.0059999999999999E-3</v>
+      </c>
+      <c r="H13" s="50">
+        <v>2.7500000000000002E-4</v>
+      </c>
+      <c r="I13" s="50">
+        <v>5.5171999999999999E-2</v>
+      </c>
+      <c r="J13" s="50">
+        <v>10.10915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16">
+      <c r="A14" s="49">
+        <v>2003</v>
+      </c>
+      <c r="B14" s="50">
+        <v>1.162269</v>
+      </c>
+      <c r="C14" s="50">
+        <v>6.0700000000000001E-4</v>
+      </c>
+      <c r="D14" s="50">
+        <v>6.1230039999999999</v>
+      </c>
+      <c r="E14" s="50">
+        <v>0.188416</v>
+      </c>
+      <c r="F14" s="50">
+        <v>1.7769250000000001</v>
+      </c>
+      <c r="G14" s="50">
+        <v>9.1399999999999999E-4</v>
+      </c>
+      <c r="H14" s="50">
+        <v>2.63E-4</v>
+      </c>
+      <c r="I14" s="50">
+        <v>5.5355000000000001E-2</v>
+      </c>
+      <c r="J14" s="50">
+        <v>10.357733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16">
+      <c r="A15" s="49">
+        <v>2004</v>
+      </c>
+      <c r="B15" s="50">
+        <v>1.1592039999999999</v>
+      </c>
+      <c r="C15" s="50">
+        <v>5.8399999999999999E-4</v>
+      </c>
+      <c r="D15" s="50">
+        <v>5.3922910000000002</v>
+      </c>
+      <c r="E15" s="50">
+        <v>0.18068500000000001</v>
+      </c>
+      <c r="F15" s="50">
+        <v>1.721403</v>
+      </c>
+      <c r="G15" s="50">
+        <v>8.8800000000000001E-4</v>
+      </c>
+      <c r="H15" s="50">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="I15" s="50">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="J15" s="50">
+        <v>10.615496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16">
+      <c r="A16" s="49">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="50">
+        <v>1.1341460000000001</v>
+      </c>
+      <c r="C16" s="50">
+        <v>4.9100000000000001E-4</v>
+      </c>
+      <c r="D16" s="50">
+        <v>5.3253579999999996</v>
+      </c>
+      <c r="E16" s="50">
+        <v>0.181448</v>
+      </c>
+      <c r="F16" s="50">
+        <v>1.66239</v>
+      </c>
+      <c r="G16" s="50">
+        <v>9.4799999999999995E-4</v>
+      </c>
+      <c r="H16" s="50">
+        <v>2.4600000000000002E-4</v>
+      </c>
+      <c r="I16" s="50">
+        <v>4.8196999999999997E-2</v>
+      </c>
+      <c r="J16" s="50">
+        <v>10.595442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16">
+      <c r="A17" s="49">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="50">
+        <v>1.1569199999999999</v>
+      </c>
+      <c r="C17" s="50">
+        <v>4.4799999999999999E-4</v>
+      </c>
+      <c r="D17" s="50">
+        <v>5.4019490000000001</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0.191417</v>
+      </c>
+      <c r="F17" s="50">
+        <v>1.674963</v>
+      </c>
+      <c r="G17" s="50">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="H17" s="50">
+        <v>2.4399999999999999E-4</v>
+      </c>
+      <c r="I17" s="50">
+        <v>4.4429000000000003E-2</v>
+      </c>
+      <c r="J17" s="50">
+        <v>10.206561000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16">
+      <c r="A18" s="49">
+        <v>2007</v>
+      </c>
+      <c r="B18" s="50">
+        <v>1.119292</v>
+      </c>
+      <c r="C18" s="50">
+        <v>4.66E-4</v>
+      </c>
+      <c r="D18" s="50">
+        <v>4.8799099999999997</v>
+      </c>
+      <c r="E18" s="50">
+        <v>0.183722</v>
+      </c>
+      <c r="F18" s="50">
+        <v>1.6607540000000001</v>
+      </c>
+      <c r="G18" s="50">
+        <v>8.4400000000000002E-4</v>
+      </c>
+      <c r="H18" s="50">
+        <v>2.3499999999999999E-4</v>
+      </c>
+      <c r="I18" s="50">
+        <v>4.3806999999999999E-2</v>
+      </c>
+      <c r="J18" s="50">
+        <v>9.7810950000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16">
+      <c r="A19" s="49">
+        <v>2008</v>
+      </c>
+      <c r="B19" s="50">
+        <v>1.067731</v>
+      </c>
+      <c r="C19" s="50">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="D19" s="50">
+        <v>4.4378089999999997</v>
+      </c>
+      <c r="E19" s="50">
+        <v>0.18481800000000001</v>
+      </c>
+      <c r="F19" s="50">
+        <v>1.694078</v>
+      </c>
+      <c r="G19" s="50">
+        <v>8.6399999999999997E-4</v>
+      </c>
+      <c r="H19" s="50">
+        <v>2.31E-4</v>
+      </c>
+      <c r="I19" s="50">
+        <v>4.1540000000000001E-2</v>
+      </c>
+      <c r="J19" s="50">
+        <v>9.135408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16">
+      <c r="A20" s="49">
+        <v>2009</v>
+      </c>
+      <c r="B20" s="50">
+        <v>1.0725100000000001</v>
+      </c>
+      <c r="C20" s="50">
+        <v>4.35E-4</v>
+      </c>
+      <c r="D20" s="50">
+        <v>4.2520639999999998</v>
+      </c>
+      <c r="E20" s="50">
+        <v>0.19486200000000001</v>
+      </c>
+      <c r="F20" s="50">
+        <v>1.6848989999999999</v>
+      </c>
+      <c r="G20" s="50">
+        <v>1.3159999999999999E-3</v>
+      </c>
+      <c r="H20" s="50">
+        <v>2.2599999999999999E-4</v>
+      </c>
+      <c r="I20" s="50">
+        <v>3.9031999999999997E-2</v>
+      </c>
+      <c r="J20" s="50">
+        <v>9.4471539999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16">
+      <c r="A21" s="49">
+        <v>2010</v>
+      </c>
+      <c r="B21" s="50">
+        <v>1.0540350000000001</v>
+      </c>
+      <c r="C21" s="50">
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="D21" s="50">
+        <v>4.6381240000000004</v>
+      </c>
+      <c r="E21" s="50">
+        <v>0.19222500000000001</v>
+      </c>
+      <c r="F21" s="50">
+        <v>1.699559</v>
+      </c>
+      <c r="G21" s="50">
+        <v>1.085E-3</v>
+      </c>
+      <c r="H21" s="50">
+        <v>2.22E-4</v>
+      </c>
+      <c r="I21" s="50">
+        <v>3.7114000000000001E-2</v>
+      </c>
+      <c r="J21" s="50">
+        <v>9.0763200000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16">
+      <c r="A22" s="49">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="50">
+        <v>1.0620419999999999</v>
+      </c>
+      <c r="C22" s="50">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="D22" s="50">
+        <v>4.3340290000000001</v>
+      </c>
+      <c r="E22" s="50">
+        <v>0.17752699999999999</v>
+      </c>
+      <c r="F22" s="50">
+        <v>1.709516</v>
+      </c>
+      <c r="G22" s="50">
+        <v>9.9500000000000001E-4</v>
+      </c>
+      <c r="H22" s="50">
+        <v>2.12E-4</v>
+      </c>
+      <c r="I22" s="50">
+        <v>3.2307000000000002E-2</v>
+      </c>
+      <c r="J22" s="50">
+        <v>8.7921220000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16">
+      <c r="A23" s="49">
+        <v>2012</v>
+      </c>
+      <c r="B23" s="50">
+        <v>1.0967690000000001</v>
+      </c>
+      <c r="C23" s="50">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="D23" s="50">
+        <v>4.5944190000000003</v>
+      </c>
+      <c r="E23" s="50">
+        <v>0.160552</v>
+      </c>
+      <c r="F23" s="50">
+        <v>1.6432169999999999</v>
+      </c>
+      <c r="G23" s="50">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H23" s="50">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="I23" s="50">
+        <v>2.9995000000000001E-2</v>
+      </c>
+      <c r="J23" s="50">
+        <v>8.5762479999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16">
+      <c r="A24" s="49">
+        <v>2013</v>
+      </c>
+      <c r="B24" s="50">
+        <v>1.115081</v>
+      </c>
+      <c r="C24" s="50">
+        <v>3.2499999999999999E-4</v>
+      </c>
+      <c r="D24" s="50">
+        <v>4.80497</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0.15906400000000001</v>
+      </c>
+      <c r="F24" s="50">
+        <v>1.6555</v>
+      </c>
+      <c r="G24" s="50">
+        <v>9.4600000000000001E-4</v>
+      </c>
+      <c r="H24" s="50">
+        <v>2.14E-4</v>
+      </c>
+      <c r="I24" s="50">
+        <v>2.9250999999999999E-2</v>
+      </c>
+      <c r="J24" s="50">
+        <v>7.9504760000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16">
+      <c r="A25" s="49">
+        <v>2014</v>
+      </c>
+      <c r="B25" s="50">
+        <v>1.0929230000000001</v>
+      </c>
+      <c r="C25" s="50">
+        <v>3.3199999999999999E-4</v>
+      </c>
+      <c r="D25" s="50">
+        <v>4.7209580000000004</v>
+      </c>
+      <c r="E25" s="50">
+        <v>0.149065</v>
+      </c>
+      <c r="F25" s="50">
+        <v>1.5830709999999999</v>
+      </c>
+      <c r="G25" s="50">
+        <v>8.9400000000000005E-4</v>
+      </c>
+      <c r="H25" s="50">
+        <v>1.9900000000000001E-4</v>
+      </c>
+      <c r="I25" s="50">
+        <v>3.1028E-2</v>
+      </c>
+      <c r="J25" s="50">
+        <v>7.933967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16">
+      <c r="A26" s="49">
+        <v>2015</v>
+      </c>
+      <c r="B26" s="50">
+        <v>1.0567169999999999</v>
+      </c>
+      <c r="C26" s="50">
+        <v>3.3100000000000002E-4</v>
+      </c>
+      <c r="D26" s="50">
+        <v>4.4208119999999997</v>
+      </c>
+      <c r="E26" s="50">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="F26" s="50">
+        <v>1.600446</v>
+      </c>
+      <c r="G26" s="50">
+        <v>8.8400000000000002E-4</v>
+      </c>
+      <c r="H26" s="50">
+        <v>2.05E-4</v>
+      </c>
+      <c r="I26" s="50">
+        <v>3.0810000000000001E-2</v>
+      </c>
+      <c r="J26" s="50">
+        <v>7.5456260000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16">
+      <c r="A27" s="49">
+        <v>2016</v>
+      </c>
+      <c r="B27" s="50">
+        <v>0.98334900000000003</v>
+      </c>
+      <c r="C27" s="50">
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="D27" s="50">
+        <v>4.4274519999999997</v>
+      </c>
+      <c r="E27" s="50">
+        <v>0.203291</v>
+      </c>
+      <c r="F27" s="50">
+        <v>1.6372850000000001</v>
+      </c>
+      <c r="G27" s="50">
+        <v>9.4499999999999998E-4</v>
+      </c>
+      <c r="H27" s="50">
+        <v>2.05E-4</v>
+      </c>
+      <c r="I27" s="50">
+        <v>3.0321000000000001E-2</v>
+      </c>
+      <c r="J27" s="50">
+        <v>7.1496820000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16">
+      <c r="A28" s="49">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="50">
+        <v>0.95050699999999999</v>
+      </c>
+      <c r="C28" s="50">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="D28" s="50">
+        <v>4.3766480000000003</v>
+      </c>
+      <c r="E28" s="50">
+        <v>0.201957</v>
+      </c>
+      <c r="F28" s="50">
+        <v>1.579081</v>
+      </c>
+      <c r="G28" s="50">
+        <v>8.7399999999999999E-4</v>
+      </c>
+      <c r="H28" s="50">
+        <v>2.0100000000000001E-4</v>
+      </c>
+      <c r="I28" s="50">
+        <v>2.7781E-2</v>
+      </c>
+      <c r="J28" s="50">
+        <v>6.7692600000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16">
+      <c r="A29" s="49">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="50">
+        <v>0.93689900000000004</v>
+      </c>
+      <c r="C29" s="50">
+        <v>3.28E-4</v>
+      </c>
+      <c r="D29" s="50">
+        <v>4.2408789999999996</v>
+      </c>
+      <c r="E29" s="50">
+        <v>0.173848</v>
+      </c>
+      <c r="F29" s="50">
+        <v>1.555348</v>
+      </c>
+      <c r="G29" s="50">
+        <v>8.25E-4</v>
+      </c>
+      <c r="H29" s="50">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="I29" s="50">
+        <v>2.5496000000000001E-2</v>
+      </c>
+      <c r="J29" s="50">
+        <v>7.080603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16">
+      <c r="A30" s="49">
+        <v>2019</v>
+      </c>
+      <c r="B30" s="50">
+        <v>0.92286299999999999</v>
+      </c>
+      <c r="C30" s="50">
+        <v>3.4900000000000003E-4</v>
+      </c>
+      <c r="D30" s="50">
+        <v>4.3026099999999996</v>
+      </c>
+      <c r="E30" s="50">
+        <v>0.19672400000000001</v>
+      </c>
+      <c r="F30" s="50">
+        <v>1.461452</v>
+      </c>
+      <c r="G30" s="50">
+        <v>8.4800000000000001E-4</v>
+      </c>
+      <c r="H30" s="50">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="I30" s="50">
+        <v>2.3761999999999998E-2</v>
+      </c>
+      <c r="J30" s="50">
+        <v>6.7144240000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73D63CC-D9E2-4D18-93CD-FFAA257617FA}">
   <dimension ref="A1:I21"/>

--- a/data/case study data.xlsx
+++ b/data/case study data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016AA8C3-58BD-7640-B88E-D0130D244532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB7EB22-57F3-574B-861B-1AA5EDED6767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="15" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="8" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="484">
   <si>
     <t>Al</t>
   </si>
@@ -1526,6 +1526,18 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>Mine production - INSG</t>
+  </si>
+  <si>
+    <t>THE WORLD NICKEL FACTBOOK 2021 (insg.org), page 11</t>
+  </si>
+  <si>
+    <t>Mine production - USGS</t>
+  </si>
+  <si>
+    <t>USGS Mineral Yearbooks, 2002-2019 using most recent year</t>
   </si>
 </sst>
 </file>
@@ -2274,71 +2286,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="\Te"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2451,6 +2398,71 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="\Te"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
@@ -3960,22 +3972,22 @@
     <tableColumn id="2" xr3:uid="{615A6B59-EBEC-C844-A1FB-87796630DC11}" name="Al" dataDxfId="37"/>
     <tableColumn id="3" xr3:uid="{8BEB2A1A-6045-C140-997C-34C452B1D3D0}" name="Steel" dataDxfId="36"/>
     <tableColumn id="4" xr3:uid="{5C86A66D-6EE9-B146-B55C-D8757F17B037}" name="Au" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{A6078A25-9A0C-A64B-9EE1-BA43315A365F}" name="Co" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{E0CEDA03-DC55-3B44-A7E5-0053003CDB10}" name="REEs" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{5865B79F-C134-2C40-BDEB-BBEAD1CBA704}" name="W" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{2C843D4E-B4BF-1B45-83BE-B63E46646133}" name="Sn" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{A5579C27-C0E7-FB46-A381-F1A4B88888E9}" name="Ta" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{57F0C03A-F849-764C-9937-672AC7FA7056}" name="Cu" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{58BB8033-7C57-D848-942D-0BA35942A4E5}" name="Ni" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{7D2E504B-DE0F-5048-8A9E-3349B8C91362}" name="Ag" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{20ADECBC-5BD7-1F43-B665-1C03CE65BE68}" name="Zn" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{F86548EA-FD6C-A542-8346-EE943D12FCEB}" name="Pb" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{D9E7B89D-2742-EE4A-A97B-9AA324E90CDA}" name="Mo" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{393A35BC-6237-DC47-B65B-B89C8241358C}" name="Pt" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{05D2296D-799C-314E-8B01-0CF90882530E}" name="Te" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{557B8136-A6CC-1240-B516-243DE5E1D903}" name="Li" dataDxfId="21"/>
-    <tableColumn id="39" xr3:uid="{523A77EA-FE5C-7D48-A73A-9DFC1D5873F6}" name="Li2" dataDxfId="20"/>
-    <tableColumn id="40" xr3:uid="{E8EA4472-4BAF-F842-971D-55B5841B5E06}" name="Si" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{2C843D4E-B4BF-1B45-83BE-B63E46646133}" name="Sn" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{57F0C03A-F849-764C-9937-672AC7FA7056}" name="Cu" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{58BB8033-7C57-D848-942D-0BA35942A4E5}" name="Ni" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{7D2E504B-DE0F-5048-8A9E-3349B8C91362}" name="Ag" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{20ADECBC-5BD7-1F43-B665-1C03CE65BE68}" name="Zn" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{F86548EA-FD6C-A542-8346-EE943D12FCEB}" name="Pb" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{393A35BC-6237-DC47-B65B-B89C8241358C}" name="Pt" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{05D2296D-799C-314E-8B01-0CF90882530E}" name="Te" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{557B8136-A6CC-1240-B516-243DE5E1D903}" name="Li" dataDxfId="26"/>
+    <tableColumn id="39" xr3:uid="{523A77EA-FE5C-7D48-A73A-9DFC1D5873F6}" name="Li2" dataDxfId="25"/>
+    <tableColumn id="40" xr3:uid="{E8EA4472-4BAF-F842-971D-55B5841B5E06}" name="Si" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{A6078A25-9A0C-A64B-9EE1-BA43315A365F}" name="Co" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{E0CEDA03-DC55-3B44-A7E5-0053003CDB10}" name="REEs" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{5865B79F-C134-2C40-BDEB-BBEAD1CBA704}" name="W" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{A5579C27-C0E7-FB46-A381-F1A4B88888E9}" name="Ta" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{D9E7B89D-2742-EE4A-A97B-9AA324E90CDA}" name="Mo" dataDxfId="19"/>
     <tableColumn id="19" xr3:uid="{40279C4B-C46A-C043-BFA9-9E1B21916E95}" name="Module" dataDxfId="18"/>
     <tableColumn id="20" xr3:uid="{66B61934-2D32-564F-96D5-09E9629E5D56}" name="Notes" dataDxfId="17"/>
     <tableColumn id="21" xr3:uid="{645E4E69-6F50-804C-881D-880C834B0203}" name="Al notes" dataDxfId="16"/>
@@ -4300,35 +4312,39 @@
   <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.1640625" customWidth="1"/>
-    <col min="3" max="18" width="8.83203125" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" customWidth="1"/>
+    <col min="9" max="11" width="8.83203125" customWidth="1"/>
+    <col min="13" max="18" width="8.83203125" customWidth="1"/>
     <col min="19" max="21" width="12.33203125" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" customWidth="1"/>
-    <col min="25" max="25" width="12.1640625" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" customWidth="1"/>
-    <col min="27" max="27" width="10.1640625" customWidth="1"/>
-    <col min="28" max="28" width="11.5" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" customWidth="1"/>
+    <col min="24" max="26" width="8.83203125" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" customWidth="1"/>
     <col min="29" max="29" width="9.83203125" customWidth="1"/>
-    <col min="30" max="30" width="10" customWidth="1"/>
-    <col min="31" max="31" width="9.83203125" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" customWidth="1"/>
     <col min="32" max="32" width="10.1640625" customWidth="1"/>
-    <col min="33" max="33" width="9.83203125" customWidth="1"/>
-    <col min="34" max="34" width="10.1640625" customWidth="1"/>
+    <col min="33" max="33" width="11.5" customWidth="1"/>
+    <col min="34" max="34" width="9.83203125" customWidth="1"/>
     <col min="35" max="35" width="10" customWidth="1"/>
-    <col min="36" max="36" width="10.1640625" custo